--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.390785</v>
+        <v>0.250981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.402503</v>
+        <v>0.252767</v>
       </c>
       <c r="D2" t="n">
-        <v>0.381702</v>
+        <v>0.247713</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.381513</v>
+        <v>0.247073</v>
       </c>
       <c r="C3" t="n">
-        <v>0.384102</v>
+        <v>0.2479</v>
       </c>
       <c r="D3" t="n">
-        <v>0.375236</v>
+        <v>0.243131</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.373993</v>
+        <v>0.24385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.377764</v>
+        <v>0.243521</v>
       </c>
       <c r="D4" t="n">
-        <v>0.370031</v>
+        <v>0.239734</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.367854</v>
+        <v>0.240833</v>
       </c>
       <c r="C5" t="n">
-        <v>0.372405</v>
+        <v>0.240237</v>
       </c>
       <c r="D5" t="n">
-        <v>0.365314</v>
+        <v>0.237024</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.361633</v>
+        <v>0.240305</v>
       </c>
       <c r="C6" t="n">
-        <v>0.36846</v>
+        <v>0.240236</v>
       </c>
       <c r="D6" t="n">
-        <v>0.361972</v>
+        <v>0.237849</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.357175</v>
+        <v>0.23949</v>
       </c>
       <c r="C7" t="n">
-        <v>0.364646</v>
+        <v>0.237775</v>
       </c>
       <c r="D7" t="n">
-        <v>0.360453</v>
+        <v>0.236933</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.354258</v>
+        <v>0.241521</v>
       </c>
       <c r="C8" t="n">
-        <v>0.362827</v>
+        <v>0.236909</v>
       </c>
       <c r="D8" t="n">
-        <v>0.360274</v>
+        <v>0.23809</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.352676</v>
+        <v>0.244893</v>
       </c>
       <c r="C9" t="n">
-        <v>0.362576</v>
+        <v>0.237952</v>
       </c>
       <c r="D9" t="n">
-        <v>0.469989</v>
+        <v>0.303303</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.466237</v>
+        <v>0.306778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.48182</v>
+        <v>0.302962</v>
       </c>
       <c r="D10" t="n">
-        <v>0.464969</v>
+        <v>0.294894</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.454811</v>
+        <v>0.295086</v>
       </c>
       <c r="C11" t="n">
-        <v>0.470022</v>
+        <v>0.294227</v>
       </c>
       <c r="D11" t="n">
-        <v>0.453586</v>
+        <v>0.286758</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.444191</v>
+        <v>0.286526</v>
       </c>
       <c r="C12" t="n">
-        <v>0.458864</v>
+        <v>0.287285</v>
       </c>
       <c r="D12" t="n">
-        <v>0.443047</v>
+        <v>0.277872</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.433838</v>
+        <v>0.278912</v>
       </c>
       <c r="C13" t="n">
-        <v>0.448582</v>
+        <v>0.280279</v>
       </c>
       <c r="D13" t="n">
-        <v>0.433308</v>
+        <v>0.272448</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.423794</v>
+        <v>0.271392</v>
       </c>
       <c r="C14" t="n">
-        <v>0.438635</v>
+        <v>0.272389</v>
       </c>
       <c r="D14" t="n">
-        <v>0.424742</v>
+        <v>0.265939</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.414729</v>
+        <v>0.267814</v>
       </c>
       <c r="C15" t="n">
-        <v>0.429028</v>
+        <v>0.267028</v>
       </c>
       <c r="D15" t="n">
-        <v>0.415606</v>
+        <v>0.260669</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.40627</v>
+        <v>0.259484</v>
       </c>
       <c r="C16" t="n">
-        <v>0.419931</v>
+        <v>0.261027</v>
       </c>
       <c r="D16" t="n">
-        <v>0.407336</v>
+        <v>0.256025</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.397644</v>
+        <v>0.253654</v>
       </c>
       <c r="C17" t="n">
-        <v>0.412144</v>
+        <v>0.255971</v>
       </c>
       <c r="D17" t="n">
-        <v>0.400303</v>
+        <v>0.251053</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.39027</v>
+        <v>0.253545</v>
       </c>
       <c r="C18" t="n">
-        <v>0.404171</v>
+        <v>0.250883</v>
       </c>
       <c r="D18" t="n">
-        <v>0.393094</v>
+        <v>0.246586</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.383355</v>
+        <v>0.248006</v>
       </c>
       <c r="C19" t="n">
-        <v>0.397741</v>
+        <v>0.246668</v>
       </c>
       <c r="D19" t="n">
-        <v>0.387563</v>
+        <v>0.245048</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.377052</v>
+        <v>0.248707</v>
       </c>
       <c r="C20" t="n">
-        <v>0.391613</v>
+        <v>0.243245</v>
       </c>
       <c r="D20" t="n">
-        <v>0.382689</v>
+        <v>0.241696</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.371643</v>
+        <v>0.246676</v>
       </c>
       <c r="C21" t="n">
-        <v>0.386947</v>
+        <v>0.242082</v>
       </c>
       <c r="D21" t="n">
-        <v>0.379374</v>
+        <v>0.241758</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.367477</v>
+        <v>0.24904</v>
       </c>
       <c r="C22" t="n">
-        <v>0.38355</v>
+        <v>0.241023</v>
       </c>
       <c r="D22" t="n">
-        <v>0.377133</v>
+        <v>0.243604</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.365625</v>
+        <v>0.249237</v>
       </c>
       <c r="C23" t="n">
-        <v>0.382341</v>
+        <v>0.242891</v>
       </c>
       <c r="D23" t="n">
-        <v>0.492859</v>
+        <v>0.309998</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.48166</v>
+        <v>0.312028</v>
       </c>
       <c r="C24" t="n">
-        <v>0.451301</v>
+        <v>0.309688</v>
       </c>
       <c r="D24" t="n">
-        <v>0.44016</v>
+        <v>0.301324</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.470903</v>
+        <v>0.30136</v>
       </c>
       <c r="C25" t="n">
-        <v>0.442461</v>
+        <v>0.301211</v>
       </c>
       <c r="D25" t="n">
-        <v>0.431042</v>
+        <v>0.293229</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.459813</v>
+        <v>0.296857</v>
       </c>
       <c r="C26" t="n">
-        <v>0.433248</v>
+        <v>0.294007</v>
       </c>
       <c r="D26" t="n">
-        <v>0.42278</v>
+        <v>0.287208</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.449613</v>
+        <v>0.283677</v>
       </c>
       <c r="C27" t="n">
-        <v>0.425221</v>
+        <v>0.286505</v>
       </c>
       <c r="D27" t="n">
-        <v>0.41864</v>
+        <v>0.279377</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.440156</v>
+        <v>0.281912</v>
       </c>
       <c r="C28" t="n">
-        <v>0.416891</v>
+        <v>0.279823</v>
       </c>
       <c r="D28" t="n">
-        <v>0.407268</v>
+        <v>0.272504</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.430526</v>
+        <v>0.272556</v>
       </c>
       <c r="C29" t="n">
-        <v>0.408971</v>
+        <v>0.272783</v>
       </c>
       <c r="D29" t="n">
-        <v>0.399996</v>
+        <v>0.266269</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.421737</v>
+        <v>0.268649</v>
       </c>
       <c r="C30" t="n">
-        <v>0.405731</v>
+        <v>0.268385</v>
       </c>
       <c r="D30" t="n">
-        <v>0.392745</v>
+        <v>0.263478</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.413379</v>
+        <v>0.265564</v>
       </c>
       <c r="C31" t="n">
-        <v>0.396013</v>
+        <v>0.263087</v>
       </c>
       <c r="D31" t="n">
-        <v>0.386387</v>
+        <v>0.257595</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.405786</v>
+        <v>0.260072</v>
       </c>
       <c r="C32" t="n">
-        <v>0.388954</v>
+        <v>0.256875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.381207</v>
+        <v>0.252634</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.398061</v>
+        <v>0.257024</v>
       </c>
       <c r="C33" t="n">
-        <v>0.383931</v>
+        <v>0.255089</v>
       </c>
       <c r="D33" t="n">
-        <v>0.376439</v>
+        <v>0.249768</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.391589</v>
+        <v>0.252738</v>
       </c>
       <c r="C34" t="n">
-        <v>0.378994</v>
+        <v>0.24884</v>
       </c>
       <c r="D34" t="n">
-        <v>0.372533</v>
+        <v>0.247727</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.385974</v>
+        <v>0.251998</v>
       </c>
       <c r="C35" t="n">
-        <v>0.37492</v>
+        <v>0.246295</v>
       </c>
       <c r="D35" t="n">
-        <v>0.369278</v>
+        <v>0.244604</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3819</v>
+        <v>0.253722</v>
       </c>
       <c r="C36" t="n">
-        <v>0.371807</v>
+        <v>0.246643</v>
       </c>
       <c r="D36" t="n">
-        <v>0.370139</v>
+        <v>0.246687</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.379587</v>
+        <v>0.257053</v>
       </c>
       <c r="C37" t="n">
-        <v>0.371862</v>
+        <v>0.247152</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5104340000000001</v>
+        <v>0.325073</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.496034</v>
+        <v>0.330305</v>
       </c>
       <c r="C38" t="n">
-        <v>0.465798</v>
+        <v>0.323555</v>
       </c>
       <c r="D38" t="n">
-        <v>0.452981</v>
+        <v>0.310441</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.485684</v>
+        <v>0.318642</v>
       </c>
       <c r="C39" t="n">
-        <v>0.455488</v>
+        <v>0.316078</v>
       </c>
       <c r="D39" t="n">
-        <v>0.444354</v>
+        <v>0.307043</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.475113</v>
+        <v>0.309296</v>
       </c>
       <c r="C40" t="n">
-        <v>0.447768</v>
+        <v>0.307692</v>
       </c>
       <c r="D40" t="n">
-        <v>0.436081</v>
+        <v>0.299236</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464995</v>
+        <v>0.303545</v>
       </c>
       <c r="C41" t="n">
-        <v>0.439704</v>
+        <v>0.300094</v>
       </c>
       <c r="D41" t="n">
-        <v>0.428645</v>
+        <v>0.291773</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.455215</v>
+        <v>0.293084</v>
       </c>
       <c r="C42" t="n">
-        <v>0.431932</v>
+        <v>0.292451</v>
       </c>
       <c r="D42" t="n">
-        <v>0.42136</v>
+        <v>0.28428</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.445987</v>
+        <v>0.287895</v>
       </c>
       <c r="C43" t="n">
-        <v>0.425901</v>
+        <v>0.284526</v>
       </c>
       <c r="D43" t="n">
-        <v>0.414986</v>
+        <v>0.275945</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.437373</v>
+        <v>0.282788</v>
       </c>
       <c r="C44" t="n">
-        <v>0.41735</v>
+        <v>0.278522</v>
       </c>
       <c r="D44" t="n">
-        <v>0.407945</v>
+        <v>0.270029</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.428946</v>
+        <v>0.275332</v>
       </c>
       <c r="C45" t="n">
-        <v>0.410598</v>
+        <v>0.273015</v>
       </c>
       <c r="D45" t="n">
-        <v>0.400706</v>
+        <v>0.266425</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.421314</v>
+        <v>0.271825</v>
       </c>
       <c r="C46" t="n">
-        <v>0.406068</v>
+        <v>0.267228</v>
       </c>
       <c r="D46" t="n">
-        <v>0.397766</v>
+        <v>0.260918</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.41461</v>
+        <v>0.268035</v>
       </c>
       <c r="C47" t="n">
-        <v>0.400834</v>
+        <v>0.262624</v>
       </c>
       <c r="D47" t="n">
-        <v>0.391973</v>
+        <v>0.255591</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.408129</v>
+        <v>0.263172</v>
       </c>
       <c r="C48" t="n">
-        <v>0.396278</v>
+        <v>0.258788</v>
       </c>
       <c r="D48" t="n">
-        <v>0.388295</v>
+        <v>0.254972</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.402436</v>
+        <v>0.262178</v>
       </c>
       <c r="C49" t="n">
-        <v>0.391601</v>
+        <v>0.255518</v>
       </c>
       <c r="D49" t="n">
-        <v>0.384029</v>
+        <v>0.251572</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.398354</v>
+        <v>0.264018</v>
       </c>
       <c r="C50" t="n">
-        <v>0.390245</v>
+        <v>0.254694</v>
       </c>
       <c r="D50" t="n">
-        <v>0.38256</v>
+        <v>0.253848</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.395222</v>
+        <v>0.266682</v>
       </c>
       <c r="C51" t="n">
-        <v>0.390374</v>
+        <v>0.254448</v>
       </c>
       <c r="D51" t="n">
-        <v>0.529992</v>
+        <v>0.331485</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.364947</v>
+        <v>0.270953</v>
       </c>
       <c r="C52" t="n">
-        <v>0.390905</v>
+        <v>0.258527</v>
       </c>
       <c r="D52" t="n">
-        <v>0.519279</v>
+        <v>0.321483</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.502686</v>
+        <v>0.32723</v>
       </c>
       <c r="C53" t="n">
-        <v>0.47884</v>
+        <v>0.324766</v>
       </c>
       <c r="D53" t="n">
-        <v>0.46208</v>
+        <v>0.312777</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.492274</v>
+        <v>0.31861</v>
       </c>
       <c r="C54" t="n">
-        <v>0.472907</v>
+        <v>0.316394</v>
       </c>
       <c r="D54" t="n">
-        <v>0.456682</v>
+        <v>0.305521</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.482693</v>
+        <v>0.310157</v>
       </c>
       <c r="C55" t="n">
-        <v>0.460528</v>
+        <v>0.307982</v>
       </c>
       <c r="D55" t="n">
-        <v>0.447056</v>
+        <v>0.297298</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.473265</v>
+        <v>0.302478</v>
       </c>
       <c r="C56" t="n">
-        <v>0.455874</v>
+        <v>0.300509</v>
       </c>
       <c r="D56" t="n">
-        <v>0.441454</v>
+        <v>0.289992</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.464591</v>
+        <v>0.295708</v>
       </c>
       <c r="C57" t="n">
-        <v>0.448273</v>
+        <v>0.292846</v>
       </c>
       <c r="D57" t="n">
-        <v>0.433544</v>
+        <v>0.2825</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.456061</v>
+        <v>0.288805</v>
       </c>
       <c r="C58" t="n">
-        <v>0.438579</v>
+        <v>0.286508</v>
       </c>
       <c r="D58" t="n">
-        <v>0.426366</v>
+        <v>0.276614</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.448466</v>
+        <v>0.283062</v>
       </c>
       <c r="C59" t="n">
-        <v>0.434054</v>
+        <v>0.280183</v>
       </c>
       <c r="D59" t="n">
-        <v>0.422185</v>
+        <v>0.271588</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.441066</v>
+        <v>0.278003</v>
       </c>
       <c r="C60" t="n">
-        <v>0.426592</v>
+        <v>0.274381</v>
       </c>
       <c r="D60" t="n">
-        <v>0.416092</v>
+        <v>0.266862</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.434137</v>
+        <v>0.273049</v>
       </c>
       <c r="C61" t="n">
-        <v>0.422224</v>
+        <v>0.269183</v>
       </c>
       <c r="D61" t="n">
-        <v>0.411868</v>
+        <v>0.262214</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.427851</v>
+        <v>0.269144</v>
       </c>
       <c r="C62" t="n">
-        <v>0.419684</v>
+        <v>0.265237</v>
       </c>
       <c r="D62" t="n">
-        <v>0.409451</v>
+        <v>0.259528</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.422685</v>
+        <v>0.26652</v>
       </c>
       <c r="C63" t="n">
-        <v>0.413943</v>
+        <v>0.26174</v>
       </c>
       <c r="D63" t="n">
-        <v>0.406594</v>
+        <v>0.257847</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.418173</v>
+        <v>0.266859</v>
       </c>
       <c r="C64" t="n">
-        <v>0.412426</v>
+        <v>0.260148</v>
       </c>
       <c r="D64" t="n">
-        <v>0.404689</v>
+        <v>0.258289</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.415416</v>
+        <v>0.268549</v>
       </c>
       <c r="C65" t="n">
-        <v>0.410848</v>
+        <v>0.260253</v>
       </c>
       <c r="D65" t="n">
-        <v>0.40496</v>
+        <v>0.261852</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.413897</v>
+        <v>0.275365</v>
       </c>
       <c r="C66" t="n">
-        <v>0.411298</v>
+        <v>0.263098</v>
       </c>
       <c r="D66" t="n">
-        <v>0.546828</v>
+        <v>0.333892</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.528684</v>
+        <v>0.336087</v>
       </c>
       <c r="C67" t="n">
-        <v>0.499613</v>
+        <v>0.33242</v>
       </c>
       <c r="D67" t="n">
-        <v>0.485027</v>
+        <v>0.324959</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.518423</v>
+        <v>0.327384</v>
       </c>
       <c r="C68" t="n">
-        <v>0.490889</v>
+        <v>0.323384</v>
       </c>
       <c r="D68" t="n">
-        <v>0.476267</v>
+        <v>0.316322</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.508671</v>
+        <v>0.318794</v>
       </c>
       <c r="C69" t="n">
-        <v>0.48489</v>
+        <v>0.316426</v>
       </c>
       <c r="D69" t="n">
-        <v>0.470057</v>
+        <v>0.31038</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.498807</v>
+        <v>0.311611</v>
       </c>
       <c r="C70" t="n">
-        <v>0.476215</v>
+        <v>0.308678</v>
       </c>
       <c r="D70" t="n">
-        <v>0.46279</v>
+        <v>0.302281</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.489827</v>
+        <v>0.303202</v>
       </c>
       <c r="C71" t="n">
-        <v>0.467913</v>
+        <v>0.299702</v>
       </c>
       <c r="D71" t="n">
-        <v>0.455724</v>
+        <v>0.293529</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.481323</v>
+        <v>0.294754</v>
       </c>
       <c r="C72" t="n">
-        <v>0.460327</v>
+        <v>0.29273</v>
       </c>
       <c r="D72" t="n">
-        <v>0.449518</v>
+        <v>0.286852</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.473472</v>
+        <v>0.289584</v>
       </c>
       <c r="C73" t="n">
-        <v>0.457252</v>
+        <v>0.286687</v>
       </c>
       <c r="D73" t="n">
-        <v>0.443532</v>
+        <v>0.280904</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.46607</v>
+        <v>0.28336</v>
       </c>
       <c r="C74" t="n">
-        <v>0.450037</v>
+        <v>0.280542</v>
       </c>
       <c r="D74" t="n">
-        <v>0.438696</v>
+        <v>0.276155</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.457931</v>
+        <v>0.278533</v>
       </c>
       <c r="C75" t="n">
-        <v>0.444509</v>
+        <v>0.275794</v>
       </c>
       <c r="D75" t="n">
-        <v>0.434346</v>
+        <v>0.271704</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.451156</v>
+        <v>0.275736</v>
       </c>
       <c r="C76" t="n">
-        <v>0.438847</v>
+        <v>0.270908</v>
       </c>
       <c r="D76" t="n">
-        <v>0.430332</v>
+        <v>0.268279</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.445917</v>
+        <v>0.27219</v>
       </c>
       <c r="C77" t="n">
-        <v>0.436401</v>
+        <v>0.267558</v>
       </c>
       <c r="D77" t="n">
-        <v>0.427716</v>
+        <v>0.265808</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.440946</v>
+        <v>0.270768</v>
       </c>
       <c r="C78" t="n">
-        <v>0.434424</v>
+        <v>0.26531</v>
       </c>
       <c r="D78" t="n">
-        <v>0.426501</v>
+        <v>0.266068</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.437588</v>
+        <v>0.272943</v>
       </c>
       <c r="C79" t="n">
-        <v>0.432155</v>
+        <v>0.264942</v>
       </c>
       <c r="D79" t="n">
-        <v>0.425668</v>
+        <v>0.268688</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.436185</v>
+        <v>0.277822</v>
       </c>
       <c r="C80" t="n">
-        <v>0.431896</v>
+        <v>0.26713</v>
       </c>
       <c r="D80" t="n">
-        <v>0.584266</v>
+        <v>0.341751</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.571322</v>
+        <v>0.339071</v>
       </c>
       <c r="C81" t="n">
-        <v>0.531814</v>
+        <v>0.343915</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5140439999999999</v>
+        <v>0.331997</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.56414</v>
+        <v>0.33058</v>
       </c>
       <c r="C82" t="n">
-        <v>0.523525</v>
+        <v>0.334788</v>
       </c>
       <c r="D82" t="n">
-        <v>0.505739</v>
+        <v>0.323386</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.557059</v>
+        <v>0.320728</v>
       </c>
       <c r="C83" t="n">
-        <v>0.516671</v>
+        <v>0.325952</v>
       </c>
       <c r="D83" t="n">
-        <v>0.49911</v>
+        <v>0.315435</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.549999</v>
+        <v>0.314045</v>
       </c>
       <c r="C84" t="n">
-        <v>0.50878</v>
+        <v>0.317539</v>
       </c>
       <c r="D84" t="n">
-        <v>0.49102</v>
+        <v>0.306676</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.542355</v>
+        <v>0.305506</v>
       </c>
       <c r="C85" t="n">
-        <v>0.501718</v>
+        <v>0.309785</v>
       </c>
       <c r="D85" t="n">
-        <v>0.485213</v>
+        <v>0.300009</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.533144</v>
+        <v>0.297527</v>
       </c>
       <c r="C86" t="n">
-        <v>0.493497</v>
+        <v>0.302548</v>
       </c>
       <c r="D86" t="n">
-        <v>0.478735</v>
+        <v>0.293262</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.524794</v>
+        <v>0.291993</v>
       </c>
       <c r="C87" t="n">
-        <v>0.48745</v>
+        <v>0.295832</v>
       </c>
       <c r="D87" t="n">
-        <v>0.472983</v>
+        <v>0.286748</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.516111</v>
+        <v>0.286521</v>
       </c>
       <c r="C88" t="n">
-        <v>0.482546</v>
+        <v>0.289471</v>
       </c>
       <c r="D88" t="n">
-        <v>0.468789</v>
+        <v>0.281701</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.507668</v>
+        <v>0.28065</v>
       </c>
       <c r="C89" t="n">
-        <v>0.476298</v>
+        <v>0.283593</v>
       </c>
       <c r="D89" t="n">
-        <v>0.464612</v>
+        <v>0.276512</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.500857</v>
+        <v>0.276808</v>
       </c>
       <c r="C90" t="n">
-        <v>0.469497</v>
+        <v>0.2788</v>
       </c>
       <c r="D90" t="n">
-        <v>0.45764</v>
+        <v>0.272899</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.494251</v>
+        <v>0.274746</v>
       </c>
       <c r="C91" t="n">
-        <v>0.464179</v>
+        <v>0.275044</v>
       </c>
       <c r="D91" t="n">
-        <v>0.453421</v>
+        <v>0.27011</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.488133</v>
+        <v>0.272161</v>
       </c>
       <c r="C92" t="n">
-        <v>0.461635</v>
+        <v>0.27217</v>
       </c>
       <c r="D92" t="n">
-        <v>0.451225</v>
+        <v>0.269446</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.482236</v>
+        <v>0.273183</v>
       </c>
       <c r="C93" t="n">
-        <v>0.458344</v>
+        <v>0.27078</v>
       </c>
       <c r="D93" t="n">
-        <v>0.451193</v>
+        <v>0.271281</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.480646</v>
+        <v>0.278343</v>
       </c>
       <c r="C94" t="n">
-        <v>0.459016</v>
+        <v>0.272352</v>
       </c>
       <c r="D94" t="n">
-        <v>0.631584</v>
+        <v>0.355445</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.620175</v>
+        <v>0.349007</v>
       </c>
       <c r="C95" t="n">
-        <v>0.576307</v>
+        <v>0.355756</v>
       </c>
       <c r="D95" t="n">
-        <v>0.580873</v>
+        <v>0.346252</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.629516</v>
+        <v>0.342447</v>
       </c>
       <c r="C96" t="n">
-        <v>0.58512</v>
+        <v>0.348125</v>
       </c>
       <c r="D96" t="n">
-        <v>0.576927</v>
+        <v>0.338215</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.630336</v>
+        <v>0.333071</v>
       </c>
       <c r="C97" t="n">
-        <v>0.58916</v>
+        <v>0.340817</v>
       </c>
       <c r="D97" t="n">
-        <v>0.58165</v>
+        <v>0.32953</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.62998</v>
+        <v>0.325218</v>
       </c>
       <c r="C98" t="n">
-        <v>0.588638</v>
+        <v>0.332692</v>
       </c>
       <c r="D98" t="n">
-        <v>0.578039</v>
+        <v>0.322022</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.627775</v>
+        <v>0.318506</v>
       </c>
       <c r="C99" t="n">
-        <v>0.587213</v>
+        <v>0.324904</v>
       </c>
       <c r="D99" t="n">
-        <v>0.573942</v>
+        <v>0.313948</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.625677</v>
+        <v>0.310309</v>
       </c>
       <c r="C100" t="n">
-        <v>0.577771</v>
+        <v>0.317534</v>
       </c>
       <c r="D100" t="n">
-        <v>0.562654</v>
+        <v>0.307392</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.621182</v>
+        <v>0.303843</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5834279999999999</v>
+        <v>0.311019</v>
       </c>
       <c r="D101" t="n">
-        <v>0.568837</v>
+        <v>0.30111</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.616334</v>
+        <v>0.297841</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5690229999999999</v>
+        <v>0.304899</v>
       </c>
       <c r="D102" t="n">
-        <v>0.552388</v>
+        <v>0.29572</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.611436</v>
+        <v>0.293041</v>
       </c>
       <c r="C103" t="n">
-        <v>0.582998</v>
+        <v>0.299048</v>
       </c>
       <c r="D103" t="n">
-        <v>0.563169</v>
+        <v>0.290316</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.608907</v>
+        <v>0.288321</v>
       </c>
       <c r="C104" t="n">
-        <v>0.578429</v>
+        <v>0.294696</v>
       </c>
       <c r="D104" t="n">
-        <v>0.560128</v>
+        <v>0.286291</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6041609999999999</v>
+        <v>0.284801</v>
       </c>
       <c r="C105" t="n">
-        <v>0.575195</v>
+        <v>0.290008</v>
       </c>
       <c r="D105" t="n">
-        <v>0.556801</v>
+        <v>0.286999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.601705</v>
+        <v>0.2831</v>
       </c>
       <c r="C106" t="n">
-        <v>0.572263</v>
+        <v>0.287072</v>
       </c>
       <c r="D106" t="n">
-        <v>0.552269</v>
+        <v>0.282037</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.597152</v>
+        <v>0.283879</v>
       </c>
       <c r="C107" t="n">
-        <v>0.572878</v>
+        <v>0.285609</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5516990000000001</v>
+        <v>0.282264</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.595131</v>
+        <v>0.287438</v>
       </c>
       <c r="C108" t="n">
-        <v>0.570201</v>
+        <v>0.286223</v>
       </c>
       <c r="D108" t="n">
-        <v>0.725151</v>
+        <v>0.368954</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.557207</v>
+        <v>0.29338</v>
       </c>
       <c r="C109" t="n">
-        <v>0.573196</v>
+        <v>0.289731</v>
       </c>
       <c r="D109" t="n">
-        <v>0.732233</v>
+        <v>0.363645</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.710027</v>
+        <v>0.355152</v>
       </c>
       <c r="C110" t="n">
-        <v>0.724378</v>
+        <v>0.365473</v>
       </c>
       <c r="D110" t="n">
-        <v>0.742142</v>
+        <v>0.355441</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.717701</v>
+        <v>0.348277</v>
       </c>
       <c r="C111" t="n">
-        <v>0.729812</v>
+        <v>0.359705</v>
       </c>
       <c r="D111" t="n">
-        <v>0.728098</v>
+        <v>0.348889</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.724911</v>
+        <v>0.341672</v>
       </c>
       <c r="C112" t="n">
-        <v>0.734358</v>
+        <v>0.353172</v>
       </c>
       <c r="D112" t="n">
-        <v>0.738635</v>
+        <v>0.342209</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.730487</v>
+        <v>0.334623</v>
       </c>
       <c r="C113" t="n">
-        <v>0.740159</v>
+        <v>0.346709</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7398940000000001</v>
+        <v>0.336203</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.732754</v>
+        <v>0.328494</v>
       </c>
       <c r="C114" t="n">
-        <v>0.743637</v>
+        <v>0.340907</v>
       </c>
       <c r="D114" t="n">
-        <v>0.735031</v>
+        <v>0.330007</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.737574</v>
+        <v>0.323317</v>
       </c>
       <c r="C115" t="n">
-        <v>0.747233</v>
+        <v>0.33544</v>
       </c>
       <c r="D115" t="n">
-        <v>0.742024</v>
+        <v>0.324674</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.742708</v>
+        <v>0.318455</v>
       </c>
       <c r="C116" t="n">
-        <v>0.748366</v>
+        <v>0.330666</v>
       </c>
       <c r="D116" t="n">
-        <v>0.759173</v>
+        <v>0.318765</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.743752</v>
+        <v>0.314337</v>
       </c>
       <c r="C117" t="n">
-        <v>0.74802</v>
+        <v>0.325802</v>
       </c>
       <c r="D117" t="n">
-        <v>0.761222</v>
+        <v>0.314919</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.74877</v>
+        <v>0.310941</v>
       </c>
       <c r="C118" t="n">
-        <v>0.759397</v>
+        <v>0.321998</v>
       </c>
       <c r="D118" t="n">
-        <v>0.765192</v>
+        <v>0.311639</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.754927</v>
+        <v>0.308322</v>
       </c>
       <c r="C119" t="n">
-        <v>0.766771</v>
+        <v>0.318978</v>
       </c>
       <c r="D119" t="n">
-        <v>0.768251</v>
+        <v>0.309378</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.758388</v>
+        <v>0.306749</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7706190000000001</v>
+        <v>0.317398</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7704</v>
+        <v>0.308117</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.764419</v>
+        <v>0.307795</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7663219999999999</v>
+        <v>0.316025</v>
       </c>
       <c r="D121" t="n">
-        <v>0.773875</v>
+        <v>0.308597</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.766005</v>
+        <v>0.31003</v>
       </c>
       <c r="C122" t="n">
-        <v>0.781789</v>
+        <v>0.317366</v>
       </c>
       <c r="D122" t="n">
-        <v>0.778459</v>
+        <v>0.312459</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.774099</v>
+        <v>0.316028</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7888269999999999</v>
+        <v>0.321297</v>
       </c>
       <c r="D123" t="n">
-        <v>0.925637</v>
+        <v>0.392238</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.936409</v>
+        <v>0.381955</v>
       </c>
       <c r="C124" t="n">
-        <v>0.934563</v>
+        <v>0.400277</v>
       </c>
       <c r="D124" t="n">
-        <v>0.937499</v>
+        <v>0.387245</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.941495</v>
+        <v>0.377906</v>
       </c>
       <c r="C125" t="n">
-        <v>0.948832</v>
+        <v>0.396095</v>
       </c>
       <c r="D125" t="n">
-        <v>0.946354</v>
+        <v>0.383598</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.950489</v>
+        <v>0.373381</v>
       </c>
       <c r="C126" t="n">
-        <v>0.958161</v>
+        <v>0.39246</v>
       </c>
       <c r="D126" t="n">
-        <v>0.952915</v>
+        <v>0.379576</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.954157</v>
+        <v>0.369922</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9626670000000001</v>
+        <v>0.389581</v>
       </c>
       <c r="D127" t="n">
-        <v>0.954604</v>
+        <v>0.375863</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.960032</v>
+        <v>0.366168</v>
       </c>
       <c r="C128" t="n">
-        <v>0.968616</v>
+        <v>0.38625</v>
       </c>
       <c r="D128" t="n">
-        <v>0.96517</v>
+        <v>0.373417</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.970073</v>
+        <v>0.36291</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9764389999999999</v>
+        <v>0.383952</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9750259999999999</v>
+        <v>0.369697</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.976668</v>
+        <v>0.360462</v>
       </c>
       <c r="C130" t="n">
-        <v>0.982778</v>
+        <v>0.380373</v>
       </c>
       <c r="D130" t="n">
-        <v>0.966333</v>
+        <v>0.367524</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.984606</v>
+        <v>0.358098</v>
       </c>
       <c r="C131" t="n">
-        <v>0.993874</v>
+        <v>0.379152</v>
       </c>
       <c r="D131" t="n">
-        <v>0.989195</v>
+        <v>0.364957</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.985193</v>
+        <v>0.356621</v>
       </c>
       <c r="C132" t="n">
-        <v>0.995241</v>
+        <v>0.377031</v>
       </c>
       <c r="D132" t="n">
-        <v>0.99578</v>
+        <v>0.363049</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.99698</v>
+        <v>0.355762</v>
       </c>
       <c r="C133" t="n">
-        <v>1.00806</v>
+        <v>0.377345</v>
       </c>
       <c r="D133" t="n">
-        <v>0.988058</v>
+        <v>0.361917</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.0014</v>
+        <v>0.355397</v>
       </c>
       <c r="C134" t="n">
-        <v>1.01582</v>
+        <v>0.375053</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00694</v>
+        <v>0.362083</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.00883</v>
+        <v>0.356982</v>
       </c>
       <c r="C135" t="n">
-        <v>1.02516</v>
+        <v>0.375184</v>
       </c>
       <c r="D135" t="n">
-        <v>1.01152</v>
+        <v>0.363867</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.01381</v>
+        <v>0.36064</v>
       </c>
       <c r="C136" t="n">
-        <v>1.0283</v>
+        <v>0.378357</v>
       </c>
       <c r="D136" t="n">
-        <v>1.01869</v>
+        <v>0.367233</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.01755</v>
+        <v>0.365598</v>
       </c>
       <c r="C137" t="n">
-        <v>1.04059</v>
+        <v>0.381813</v>
       </c>
       <c r="D137" t="n">
-        <v>1.17012</v>
+        <v>0.449125</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.16583</v>
+        <v>0.440836</v>
       </c>
       <c r="C138" t="n">
-        <v>1.18513</v>
+        <v>0.460898</v>
       </c>
       <c r="D138" t="n">
-        <v>1.17022</v>
+        <v>0.450429</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.17336</v>
+        <v>0.444152</v>
       </c>
       <c r="C139" t="n">
-        <v>1.19583</v>
+        <v>0.461638</v>
       </c>
       <c r="D139" t="n">
-        <v>1.18905</v>
+        <v>0.44958</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.17576</v>
+        <v>0.440857</v>
       </c>
       <c r="C140" t="n">
-        <v>1.2023</v>
+        <v>0.459378</v>
       </c>
       <c r="D140" t="n">
-        <v>1.19343</v>
+        <v>0.446779</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.18888</v>
+        <v>0.43851</v>
       </c>
       <c r="C141" t="n">
-        <v>1.21502</v>
+        <v>0.459703</v>
       </c>
       <c r="D141" t="n">
-        <v>1.20358</v>
+        <v>0.446716</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.19685</v>
+        <v>0.438004</v>
       </c>
       <c r="C142" t="n">
-        <v>1.22148</v>
+        <v>0.458235</v>
       </c>
       <c r="D142" t="n">
-        <v>1.21042</v>
+        <v>0.446704</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.20494</v>
+        <v>0.438241</v>
       </c>
       <c r="C143" t="n">
-        <v>1.22983</v>
+        <v>0.458234</v>
       </c>
       <c r="D143" t="n">
-        <v>1.21547</v>
+        <v>0.446101</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.250981</v>
+        <v>0.250932</v>
       </c>
       <c r="C2" t="n">
-        <v>0.252767</v>
+        <v>0.253</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247713</v>
+        <v>0.247512</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.247073</v>
+        <v>0.24865</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2479</v>
+        <v>0.24791</v>
       </c>
       <c r="D3" t="n">
-        <v>0.243131</v>
+        <v>0.243048</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.24385</v>
+        <v>0.245082</v>
       </c>
       <c r="C4" t="n">
-        <v>0.243521</v>
+        <v>0.243123</v>
       </c>
       <c r="D4" t="n">
-        <v>0.239734</v>
+        <v>0.239398</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.240833</v>
+        <v>0.242138</v>
       </c>
       <c r="C5" t="n">
-        <v>0.240237</v>
+        <v>0.239299</v>
       </c>
       <c r="D5" t="n">
-        <v>0.237024</v>
+        <v>0.237089</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.240305</v>
+        <v>0.242552</v>
       </c>
       <c r="C6" t="n">
-        <v>0.240236</v>
+        <v>0.240264</v>
       </c>
       <c r="D6" t="n">
-        <v>0.237849</v>
+        <v>0.236911</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.23949</v>
+        <v>0.241702</v>
       </c>
       <c r="C7" t="n">
-        <v>0.237775</v>
+        <v>0.238029</v>
       </c>
       <c r="D7" t="n">
-        <v>0.236933</v>
+        <v>0.236712</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.241521</v>
+        <v>0.243116</v>
       </c>
       <c r="C8" t="n">
-        <v>0.236909</v>
+        <v>0.237446</v>
       </c>
       <c r="D8" t="n">
-        <v>0.23809</v>
+        <v>0.2377</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.244893</v>
+        <v>0.248004</v>
       </c>
       <c r="C9" t="n">
-        <v>0.237952</v>
+        <v>0.238319</v>
       </c>
       <c r="D9" t="n">
-        <v>0.303303</v>
+        <v>0.302389</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306778</v>
+        <v>0.30697</v>
       </c>
       <c r="C10" t="n">
-        <v>0.302962</v>
+        <v>0.301398</v>
       </c>
       <c r="D10" t="n">
-        <v>0.294894</v>
+        <v>0.295077</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.295086</v>
+        <v>0.297834</v>
       </c>
       <c r="C11" t="n">
-        <v>0.294227</v>
+        <v>0.298144</v>
       </c>
       <c r="D11" t="n">
-        <v>0.286758</v>
+        <v>0.286174</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286526</v>
+        <v>0.290479</v>
       </c>
       <c r="C12" t="n">
-        <v>0.287285</v>
+        <v>0.287237</v>
       </c>
       <c r="D12" t="n">
-        <v>0.277872</v>
+        <v>0.278988</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278912</v>
+        <v>0.283381</v>
       </c>
       <c r="C13" t="n">
-        <v>0.280279</v>
+        <v>0.279675</v>
       </c>
       <c r="D13" t="n">
-        <v>0.272448</v>
+        <v>0.272704</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.271392</v>
+        <v>0.275808</v>
       </c>
       <c r="C14" t="n">
-        <v>0.272389</v>
+        <v>0.273478</v>
       </c>
       <c r="D14" t="n">
-        <v>0.265939</v>
+        <v>0.266351</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.267814</v>
+        <v>0.270703</v>
       </c>
       <c r="C15" t="n">
-        <v>0.267028</v>
+        <v>0.266742</v>
       </c>
       <c r="D15" t="n">
-        <v>0.260669</v>
+        <v>0.260501</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.259484</v>
+        <v>0.265723</v>
       </c>
       <c r="C16" t="n">
-        <v>0.261027</v>
+        <v>0.261648</v>
       </c>
       <c r="D16" t="n">
-        <v>0.256025</v>
+        <v>0.255277</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.253654</v>
+        <v>0.259219</v>
       </c>
       <c r="C17" t="n">
-        <v>0.255971</v>
+        <v>0.255951</v>
       </c>
       <c r="D17" t="n">
-        <v>0.251053</v>
+        <v>0.250353</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.253545</v>
+        <v>0.255378</v>
       </c>
       <c r="C18" t="n">
-        <v>0.250883</v>
+        <v>0.251159</v>
       </c>
       <c r="D18" t="n">
-        <v>0.246586</v>
+        <v>0.247112</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.248006</v>
+        <v>0.251549</v>
       </c>
       <c r="C19" t="n">
-        <v>0.246668</v>
+        <v>0.247048</v>
       </c>
       <c r="D19" t="n">
-        <v>0.245048</v>
+        <v>0.244684</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.248707</v>
+        <v>0.249118</v>
       </c>
       <c r="C20" t="n">
-        <v>0.243245</v>
+        <v>0.243936</v>
       </c>
       <c r="D20" t="n">
-        <v>0.241696</v>
+        <v>0.242127</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.246676</v>
+        <v>0.249132</v>
       </c>
       <c r="C21" t="n">
-        <v>0.242082</v>
+        <v>0.242477</v>
       </c>
       <c r="D21" t="n">
-        <v>0.241758</v>
+        <v>0.241698</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.24904</v>
+        <v>0.250907</v>
       </c>
       <c r="C22" t="n">
-        <v>0.241023</v>
+        <v>0.24161</v>
       </c>
       <c r="D22" t="n">
-        <v>0.243604</v>
+        <v>0.244143</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.249237</v>
+        <v>0.254469</v>
       </c>
       <c r="C23" t="n">
-        <v>0.242891</v>
+        <v>0.243198</v>
       </c>
       <c r="D23" t="n">
-        <v>0.309998</v>
+        <v>0.310593</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.312028</v>
+        <v>0.314722</v>
       </c>
       <c r="C24" t="n">
-        <v>0.309688</v>
+        <v>0.313186</v>
       </c>
       <c r="D24" t="n">
-        <v>0.301324</v>
+        <v>0.306361</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.30136</v>
+        <v>0.306676</v>
       </c>
       <c r="C25" t="n">
-        <v>0.301211</v>
+        <v>0.301846</v>
       </c>
       <c r="D25" t="n">
-        <v>0.293229</v>
+        <v>0.295094</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296857</v>
+        <v>0.297576</v>
       </c>
       <c r="C26" t="n">
-        <v>0.294007</v>
+        <v>0.29382</v>
       </c>
       <c r="D26" t="n">
-        <v>0.287208</v>
+        <v>0.285921</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.283677</v>
+        <v>0.290534</v>
       </c>
       <c r="C27" t="n">
-        <v>0.286505</v>
+        <v>0.286805</v>
       </c>
       <c r="D27" t="n">
-        <v>0.279377</v>
+        <v>0.279855</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.281912</v>
+        <v>0.282174</v>
       </c>
       <c r="C28" t="n">
-        <v>0.279823</v>
+        <v>0.280382</v>
       </c>
       <c r="D28" t="n">
-        <v>0.272504</v>
+        <v>0.272971</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.272556</v>
+        <v>0.275395</v>
       </c>
       <c r="C29" t="n">
-        <v>0.272783</v>
+        <v>0.27312</v>
       </c>
       <c r="D29" t="n">
-        <v>0.266269</v>
+        <v>0.266316</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.268649</v>
+        <v>0.269732</v>
       </c>
       <c r="C30" t="n">
-        <v>0.268385</v>
+        <v>0.269931</v>
       </c>
       <c r="D30" t="n">
-        <v>0.263478</v>
+        <v>0.262534</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.265564</v>
+        <v>0.269321</v>
       </c>
       <c r="C31" t="n">
-        <v>0.263087</v>
+        <v>0.264297</v>
       </c>
       <c r="D31" t="n">
-        <v>0.257595</v>
+        <v>0.259496</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.260072</v>
+        <v>0.259115</v>
       </c>
       <c r="C32" t="n">
-        <v>0.256875</v>
+        <v>0.256947</v>
       </c>
       <c r="D32" t="n">
-        <v>0.252634</v>
+        <v>0.251838</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.257024</v>
+        <v>0.255373</v>
       </c>
       <c r="C33" t="n">
-        <v>0.255089</v>
+        <v>0.255359</v>
       </c>
       <c r="D33" t="n">
-        <v>0.249768</v>
+        <v>0.249114</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.252738</v>
+        <v>0.254051</v>
       </c>
       <c r="C34" t="n">
-        <v>0.24884</v>
+        <v>0.249512</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247727</v>
+        <v>0.247623</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.251998</v>
+        <v>0.255056</v>
       </c>
       <c r="C35" t="n">
-        <v>0.246295</v>
+        <v>0.248872</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244604</v>
+        <v>0.245578</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.253722</v>
+        <v>0.256597</v>
       </c>
       <c r="C36" t="n">
-        <v>0.246643</v>
+        <v>0.245207</v>
       </c>
       <c r="D36" t="n">
-        <v>0.246687</v>
+        <v>0.248547</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.257053</v>
+        <v>0.256494</v>
       </c>
       <c r="C37" t="n">
-        <v>0.247152</v>
+        <v>0.248542</v>
       </c>
       <c r="D37" t="n">
-        <v>0.325073</v>
+        <v>0.324458</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.330305</v>
+        <v>0.332035</v>
       </c>
       <c r="C38" t="n">
-        <v>0.323555</v>
+        <v>0.324937</v>
       </c>
       <c r="D38" t="n">
-        <v>0.310441</v>
+        <v>0.315888</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318642</v>
+        <v>0.321902</v>
       </c>
       <c r="C39" t="n">
-        <v>0.316078</v>
+        <v>0.313659</v>
       </c>
       <c r="D39" t="n">
-        <v>0.307043</v>
+        <v>0.306472</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.309296</v>
+        <v>0.31388</v>
       </c>
       <c r="C40" t="n">
-        <v>0.307692</v>
+        <v>0.308039</v>
       </c>
       <c r="D40" t="n">
-        <v>0.299236</v>
+        <v>0.299353</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.303545</v>
+        <v>0.30689</v>
       </c>
       <c r="C41" t="n">
-        <v>0.300094</v>
+        <v>0.299752</v>
       </c>
       <c r="D41" t="n">
-        <v>0.291773</v>
+        <v>0.288686</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.293084</v>
+        <v>0.299229</v>
       </c>
       <c r="C42" t="n">
-        <v>0.292451</v>
+        <v>0.291637</v>
       </c>
       <c r="D42" t="n">
-        <v>0.28428</v>
+        <v>0.283138</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.287895</v>
+        <v>0.291664</v>
       </c>
       <c r="C43" t="n">
-        <v>0.284526</v>
+        <v>0.285357</v>
       </c>
       <c r="D43" t="n">
-        <v>0.275945</v>
+        <v>0.279035</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.282788</v>
+        <v>0.287505</v>
       </c>
       <c r="C44" t="n">
-        <v>0.278522</v>
+        <v>0.279916</v>
       </c>
       <c r="D44" t="n">
-        <v>0.270029</v>
+        <v>0.272473</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.275332</v>
+        <v>0.278523</v>
       </c>
       <c r="C45" t="n">
-        <v>0.273015</v>
+        <v>0.272671</v>
       </c>
       <c r="D45" t="n">
-        <v>0.266425</v>
+        <v>0.264659</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.271825</v>
+        <v>0.275507</v>
       </c>
       <c r="C46" t="n">
-        <v>0.267228</v>
+        <v>0.26722</v>
       </c>
       <c r="D46" t="n">
-        <v>0.260918</v>
+        <v>0.259479</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.268035</v>
+        <v>0.268524</v>
       </c>
       <c r="C47" t="n">
-        <v>0.262624</v>
+        <v>0.261952</v>
       </c>
       <c r="D47" t="n">
-        <v>0.255591</v>
+        <v>0.25504</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.263172</v>
+        <v>0.2673</v>
       </c>
       <c r="C48" t="n">
-        <v>0.258788</v>
+        <v>0.258132</v>
       </c>
       <c r="D48" t="n">
-        <v>0.254972</v>
+        <v>0.254485</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.262178</v>
+        <v>0.263311</v>
       </c>
       <c r="C49" t="n">
-        <v>0.255518</v>
+        <v>0.254514</v>
       </c>
       <c r="D49" t="n">
-        <v>0.251572</v>
+        <v>0.25253</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.264018</v>
+        <v>0.262752</v>
       </c>
       <c r="C50" t="n">
-        <v>0.254694</v>
+        <v>0.254498</v>
       </c>
       <c r="D50" t="n">
-        <v>0.253848</v>
+        <v>0.254424</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.266682</v>
+        <v>0.266502</v>
       </c>
       <c r="C51" t="n">
-        <v>0.254448</v>
+        <v>0.254937</v>
       </c>
       <c r="D51" t="n">
-        <v>0.331485</v>
+        <v>0.331519</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.270953</v>
+        <v>0.271027</v>
       </c>
       <c r="C52" t="n">
-        <v>0.258527</v>
+        <v>0.258577</v>
       </c>
       <c r="D52" t="n">
-        <v>0.321483</v>
+        <v>0.322219</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.32723</v>
+        <v>0.329675</v>
       </c>
       <c r="C53" t="n">
-        <v>0.324766</v>
+        <v>0.3252</v>
       </c>
       <c r="D53" t="n">
-        <v>0.312777</v>
+        <v>0.314139</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.31861</v>
+        <v>0.31955</v>
       </c>
       <c r="C54" t="n">
-        <v>0.316394</v>
+        <v>0.316421</v>
       </c>
       <c r="D54" t="n">
-        <v>0.305521</v>
+        <v>0.305558</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.310157</v>
+        <v>0.311253</v>
       </c>
       <c r="C55" t="n">
-        <v>0.307982</v>
+        <v>0.308278</v>
       </c>
       <c r="D55" t="n">
-        <v>0.297298</v>
+        <v>0.29699</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.302478</v>
+        <v>0.303814</v>
       </c>
       <c r="C56" t="n">
-        <v>0.300509</v>
+        <v>0.300379</v>
       </c>
       <c r="D56" t="n">
-        <v>0.289992</v>
+        <v>0.290516</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.295708</v>
+        <v>0.296187</v>
       </c>
       <c r="C57" t="n">
-        <v>0.292846</v>
+        <v>0.293087</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2825</v>
+        <v>0.283109</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.288805</v>
+        <v>0.289834</v>
       </c>
       <c r="C58" t="n">
-        <v>0.286508</v>
+        <v>0.28623</v>
       </c>
       <c r="D58" t="n">
-        <v>0.276614</v>
+        <v>0.277301</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.283062</v>
+        <v>0.282799</v>
       </c>
       <c r="C59" t="n">
-        <v>0.280183</v>
+        <v>0.279786</v>
       </c>
       <c r="D59" t="n">
-        <v>0.271588</v>
+        <v>0.271405</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.278003</v>
+        <v>0.277616</v>
       </c>
       <c r="C60" t="n">
-        <v>0.274381</v>
+        <v>0.274256</v>
       </c>
       <c r="D60" t="n">
-        <v>0.266862</v>
+        <v>0.266239</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.273049</v>
+        <v>0.273208</v>
       </c>
       <c r="C61" t="n">
-        <v>0.269183</v>
+        <v>0.269162</v>
       </c>
       <c r="D61" t="n">
-        <v>0.262214</v>
+        <v>0.262577</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.269144</v>
+        <v>0.269562</v>
       </c>
       <c r="C62" t="n">
-        <v>0.265237</v>
+        <v>0.26504</v>
       </c>
       <c r="D62" t="n">
-        <v>0.259528</v>
+        <v>0.259423</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26652</v>
+        <v>0.267881</v>
       </c>
       <c r="C63" t="n">
-        <v>0.26174</v>
+        <v>0.261957</v>
       </c>
       <c r="D63" t="n">
-        <v>0.257847</v>
+        <v>0.257575</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.266859</v>
+        <v>0.268093</v>
       </c>
       <c r="C64" t="n">
-        <v>0.260148</v>
+        <v>0.260092</v>
       </c>
       <c r="D64" t="n">
-        <v>0.258289</v>
+        <v>0.258843</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268549</v>
+        <v>0.269782</v>
       </c>
       <c r="C65" t="n">
-        <v>0.260253</v>
+        <v>0.260413</v>
       </c>
       <c r="D65" t="n">
-        <v>0.261852</v>
+        <v>0.262329</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.275365</v>
+        <v>0.274973</v>
       </c>
       <c r="C66" t="n">
-        <v>0.263098</v>
+        <v>0.262712</v>
       </c>
       <c r="D66" t="n">
-        <v>0.333892</v>
+        <v>0.334024</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.336087</v>
+        <v>0.337472</v>
       </c>
       <c r="C67" t="n">
-        <v>0.33242</v>
+        <v>0.332708</v>
       </c>
       <c r="D67" t="n">
-        <v>0.324959</v>
+        <v>0.32484</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.327384</v>
+        <v>0.328571</v>
       </c>
       <c r="C68" t="n">
-        <v>0.323384</v>
+        <v>0.323676</v>
       </c>
       <c r="D68" t="n">
-        <v>0.316322</v>
+        <v>0.316779</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.318794</v>
+        <v>0.319221</v>
       </c>
       <c r="C69" t="n">
-        <v>0.316426</v>
+        <v>0.315364</v>
       </c>
       <c r="D69" t="n">
-        <v>0.31038</v>
+        <v>0.308363</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.311611</v>
+        <v>0.311762</v>
       </c>
       <c r="C70" t="n">
-        <v>0.308678</v>
+        <v>0.307134</v>
       </c>
       <c r="D70" t="n">
-        <v>0.302281</v>
+        <v>0.300723</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.303202</v>
+        <v>0.303742</v>
       </c>
       <c r="C71" t="n">
-        <v>0.299702</v>
+        <v>0.300063</v>
       </c>
       <c r="D71" t="n">
-        <v>0.293529</v>
+        <v>0.293716</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.294754</v>
+        <v>0.296736</v>
       </c>
       <c r="C72" t="n">
-        <v>0.29273</v>
+        <v>0.292834</v>
       </c>
       <c r="D72" t="n">
-        <v>0.286852</v>
+        <v>0.287117</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.289584</v>
+        <v>0.289697</v>
       </c>
       <c r="C73" t="n">
-        <v>0.286687</v>
+        <v>0.287089</v>
       </c>
       <c r="D73" t="n">
-        <v>0.280904</v>
+        <v>0.28122</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.28336</v>
+        <v>0.28409</v>
       </c>
       <c r="C74" t="n">
-        <v>0.280542</v>
+        <v>0.280685</v>
       </c>
       <c r="D74" t="n">
-        <v>0.276155</v>
+        <v>0.275932</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278533</v>
+        <v>0.27934</v>
       </c>
       <c r="C75" t="n">
-        <v>0.275794</v>
+        <v>0.275608</v>
       </c>
       <c r="D75" t="n">
-        <v>0.271704</v>
+        <v>0.271024</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275736</v>
+        <v>0.275324</v>
       </c>
       <c r="C76" t="n">
-        <v>0.270908</v>
+        <v>0.270946</v>
       </c>
       <c r="D76" t="n">
-        <v>0.268279</v>
+        <v>0.26808</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.27219</v>
+        <v>0.272597</v>
       </c>
       <c r="C77" t="n">
-        <v>0.267558</v>
+        <v>0.267432</v>
       </c>
       <c r="D77" t="n">
-        <v>0.265808</v>
+        <v>0.265786</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.270768</v>
+        <v>0.271383</v>
       </c>
       <c r="C78" t="n">
-        <v>0.26531</v>
+        <v>0.266241</v>
       </c>
       <c r="D78" t="n">
-        <v>0.266068</v>
+        <v>0.265928</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.272943</v>
+        <v>0.272234</v>
       </c>
       <c r="C79" t="n">
-        <v>0.264942</v>
+        <v>0.264817</v>
       </c>
       <c r="D79" t="n">
-        <v>0.268688</v>
+        <v>0.268633</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.277822</v>
+        <v>0.277151</v>
       </c>
       <c r="C80" t="n">
-        <v>0.26713</v>
+        <v>0.267351</v>
       </c>
       <c r="D80" t="n">
-        <v>0.341751</v>
+        <v>0.341495</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.339071</v>
+        <v>0.339356</v>
       </c>
       <c r="C81" t="n">
-        <v>0.343915</v>
+        <v>0.343642</v>
       </c>
       <c r="D81" t="n">
-        <v>0.331997</v>
+        <v>0.331563</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.33058</v>
+        <v>0.328816</v>
       </c>
       <c r="C82" t="n">
-        <v>0.334788</v>
+        <v>0.334559</v>
       </c>
       <c r="D82" t="n">
-        <v>0.323386</v>
+        <v>0.323651</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.320728</v>
+        <v>0.32046</v>
       </c>
       <c r="C83" t="n">
-        <v>0.325952</v>
+        <v>0.325965</v>
       </c>
       <c r="D83" t="n">
-        <v>0.315435</v>
+        <v>0.315443</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.314045</v>
+        <v>0.312011</v>
       </c>
       <c r="C84" t="n">
-        <v>0.317539</v>
+        <v>0.31792</v>
       </c>
       <c r="D84" t="n">
-        <v>0.306676</v>
+        <v>0.307023</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.305506</v>
+        <v>0.304954</v>
       </c>
       <c r="C85" t="n">
-        <v>0.309785</v>
+        <v>0.310293</v>
       </c>
       <c r="D85" t="n">
-        <v>0.300009</v>
+        <v>0.299635</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.297527</v>
+        <v>0.297329</v>
       </c>
       <c r="C86" t="n">
-        <v>0.302548</v>
+        <v>0.302646</v>
       </c>
       <c r="D86" t="n">
-        <v>0.293262</v>
+        <v>0.293142</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.291993</v>
+        <v>0.291252</v>
       </c>
       <c r="C87" t="n">
-        <v>0.295832</v>
+        <v>0.296002</v>
       </c>
       <c r="D87" t="n">
-        <v>0.286748</v>
+        <v>0.287115</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.286521</v>
+        <v>0.285083</v>
       </c>
       <c r="C88" t="n">
-        <v>0.289471</v>
+        <v>0.289707</v>
       </c>
       <c r="D88" t="n">
-        <v>0.281701</v>
+        <v>0.281492</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.28065</v>
+        <v>0.28054</v>
       </c>
       <c r="C89" t="n">
-        <v>0.283593</v>
+        <v>0.284385</v>
       </c>
       <c r="D89" t="n">
-        <v>0.276512</v>
+        <v>0.276822</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.276808</v>
+        <v>0.276491</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2788</v>
+        <v>0.278591</v>
       </c>
       <c r="D90" t="n">
-        <v>0.272899</v>
+        <v>0.27325</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.274746</v>
+        <v>0.273217</v>
       </c>
       <c r="C91" t="n">
-        <v>0.275044</v>
+        <v>0.274898</v>
       </c>
       <c r="D91" t="n">
-        <v>0.27011</v>
+        <v>0.270404</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.272161</v>
+        <v>0.272155</v>
       </c>
       <c r="C92" t="n">
-        <v>0.27217</v>
+        <v>0.272344</v>
       </c>
       <c r="D92" t="n">
-        <v>0.269446</v>
+        <v>0.269389</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.273183</v>
+        <v>0.272752</v>
       </c>
       <c r="C93" t="n">
-        <v>0.27078</v>
+        <v>0.27094</v>
       </c>
       <c r="D93" t="n">
-        <v>0.271281</v>
+        <v>0.271236</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.278343</v>
+        <v>0.277693</v>
       </c>
       <c r="C94" t="n">
-        <v>0.272352</v>
+        <v>0.272315</v>
       </c>
       <c r="D94" t="n">
-        <v>0.355445</v>
+        <v>0.356176</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.349007</v>
+        <v>0.348776</v>
       </c>
       <c r="C95" t="n">
-        <v>0.355756</v>
+        <v>0.355346</v>
       </c>
       <c r="D95" t="n">
-        <v>0.346252</v>
+        <v>0.346945</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.342447</v>
+        <v>0.342396</v>
       </c>
       <c r="C96" t="n">
         <v>0.348125</v>
       </c>
       <c r="D96" t="n">
-        <v>0.338215</v>
+        <v>0.338696</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.333071</v>
+        <v>0.334292</v>
       </c>
       <c r="C97" t="n">
-        <v>0.340817</v>
+        <v>0.34047</v>
       </c>
       <c r="D97" t="n">
-        <v>0.32953</v>
+        <v>0.330011</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.325218</v>
+        <v>0.32511</v>
       </c>
       <c r="C98" t="n">
-        <v>0.332692</v>
+        <v>0.332405</v>
       </c>
       <c r="D98" t="n">
-        <v>0.322022</v>
+        <v>0.321785</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.318506</v>
+        <v>0.318011</v>
       </c>
       <c r="C99" t="n">
-        <v>0.324904</v>
+        <v>0.324747</v>
       </c>
       <c r="D99" t="n">
-        <v>0.313948</v>
+        <v>0.314704</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.310309</v>
+        <v>0.310621</v>
       </c>
       <c r="C100" t="n">
-        <v>0.317534</v>
+        <v>0.317714</v>
       </c>
       <c r="D100" t="n">
-        <v>0.307392</v>
+        <v>0.307842</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.303843</v>
+        <v>0.303461</v>
       </c>
       <c r="C101" t="n">
-        <v>0.311019</v>
+        <v>0.311045</v>
       </c>
       <c r="D101" t="n">
-        <v>0.30111</v>
+        <v>0.301896</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.297841</v>
+        <v>0.297413</v>
       </c>
       <c r="C102" t="n">
-        <v>0.304899</v>
+        <v>0.304694</v>
       </c>
       <c r="D102" t="n">
-        <v>0.29572</v>
+        <v>0.295404</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293041</v>
+        <v>0.292427</v>
       </c>
       <c r="C103" t="n">
-        <v>0.299048</v>
+        <v>0.298774</v>
       </c>
       <c r="D103" t="n">
-        <v>0.290316</v>
+        <v>0.290695</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.288321</v>
+        <v>0.287618</v>
       </c>
       <c r="C104" t="n">
-        <v>0.294696</v>
+        <v>0.294105</v>
       </c>
       <c r="D104" t="n">
-        <v>0.286291</v>
+        <v>0.286213</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.284801</v>
+        <v>0.284389</v>
       </c>
       <c r="C105" t="n">
-        <v>0.290008</v>
+        <v>0.289635</v>
       </c>
       <c r="D105" t="n">
-        <v>0.286999</v>
+        <v>0.283484</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.2831</v>
+        <v>0.282661</v>
       </c>
       <c r="C106" t="n">
-        <v>0.287072</v>
+        <v>0.286657</v>
       </c>
       <c r="D106" t="n">
-        <v>0.282037</v>
+        <v>0.28223</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.283879</v>
+        <v>0.282789</v>
       </c>
       <c r="C107" t="n">
-        <v>0.285609</v>
+        <v>0.284761</v>
       </c>
       <c r="D107" t="n">
-        <v>0.282264</v>
+        <v>0.283344</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.287438</v>
+        <v>0.285505</v>
       </c>
       <c r="C108" t="n">
-        <v>0.286223</v>
+        <v>0.285178</v>
       </c>
       <c r="D108" t="n">
-        <v>0.368954</v>
+        <v>0.36913</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.29338</v>
+        <v>0.292503</v>
       </c>
       <c r="C109" t="n">
-        <v>0.289731</v>
+        <v>0.289595</v>
       </c>
       <c r="D109" t="n">
-        <v>0.363645</v>
+        <v>0.364003</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355152</v>
+        <v>0.354708</v>
       </c>
       <c r="C110" t="n">
-        <v>0.365473</v>
+        <v>0.366418</v>
       </c>
       <c r="D110" t="n">
-        <v>0.355441</v>
+        <v>0.356769</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.348277</v>
+        <v>0.347826</v>
       </c>
       <c r="C111" t="n">
-        <v>0.359705</v>
+        <v>0.359649</v>
       </c>
       <c r="D111" t="n">
-        <v>0.348889</v>
+        <v>0.349377</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.341672</v>
+        <v>0.340847</v>
       </c>
       <c r="C112" t="n">
-        <v>0.353172</v>
+        <v>0.352948</v>
       </c>
       <c r="D112" t="n">
-        <v>0.342209</v>
+        <v>0.341551</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.334623</v>
+        <v>0.333873</v>
       </c>
       <c r="C113" t="n">
-        <v>0.346709</v>
+        <v>0.345914</v>
       </c>
       <c r="D113" t="n">
-        <v>0.336203</v>
+        <v>0.336003</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.328494</v>
+        <v>0.328374</v>
       </c>
       <c r="C114" t="n">
-        <v>0.340907</v>
+        <v>0.340771</v>
       </c>
       <c r="D114" t="n">
-        <v>0.330007</v>
+        <v>0.330162</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.323317</v>
+        <v>0.322306</v>
       </c>
       <c r="C115" t="n">
-        <v>0.33544</v>
+        <v>0.335427</v>
       </c>
       <c r="D115" t="n">
-        <v>0.324674</v>
+        <v>0.324774</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.318455</v>
+        <v>0.317253</v>
       </c>
       <c r="C116" t="n">
-        <v>0.330666</v>
+        <v>0.330261</v>
       </c>
       <c r="D116" t="n">
-        <v>0.318765</v>
+        <v>0.31979</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.314337</v>
+        <v>0.313165</v>
       </c>
       <c r="C117" t="n">
-        <v>0.325802</v>
+        <v>0.325952</v>
       </c>
       <c r="D117" t="n">
-        <v>0.314919</v>
+        <v>0.315771</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.310941</v>
+        <v>0.309812</v>
       </c>
       <c r="C118" t="n">
-        <v>0.321998</v>
+        <v>0.321863</v>
       </c>
       <c r="D118" t="n">
-        <v>0.311639</v>
+        <v>0.311879</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.308322</v>
+        <v>0.307453</v>
       </c>
       <c r="C119" t="n">
-        <v>0.318978</v>
+        <v>0.319077</v>
       </c>
       <c r="D119" t="n">
-        <v>0.309378</v>
+        <v>0.30995</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.306749</v>
+        <v>0.306309</v>
       </c>
       <c r="C120" t="n">
-        <v>0.317398</v>
+        <v>0.317854</v>
       </c>
       <c r="D120" t="n">
-        <v>0.308117</v>
+        <v>0.308984</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.307795</v>
+        <v>0.306684</v>
       </c>
       <c r="C121" t="n">
-        <v>0.316025</v>
+        <v>0.3167</v>
       </c>
       <c r="D121" t="n">
-        <v>0.308597</v>
+        <v>0.309347</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.31003</v>
+        <v>0.309616</v>
       </c>
       <c r="C122" t="n">
-        <v>0.317366</v>
+        <v>0.317675</v>
       </c>
       <c r="D122" t="n">
-        <v>0.312459</v>
+        <v>0.313723</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.316028</v>
+        <v>0.315599</v>
       </c>
       <c r="C123" t="n">
-        <v>0.321297</v>
+        <v>0.320877</v>
       </c>
       <c r="D123" t="n">
-        <v>0.392238</v>
+        <v>0.392207</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.381955</v>
+        <v>0.38198</v>
       </c>
       <c r="C124" t="n">
-        <v>0.400277</v>
+        <v>0.399535</v>
       </c>
       <c r="D124" t="n">
-        <v>0.387245</v>
+        <v>0.387103</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.377906</v>
+        <v>0.377322</v>
       </c>
       <c r="C125" t="n">
-        <v>0.396095</v>
+        <v>0.395791</v>
       </c>
       <c r="D125" t="n">
-        <v>0.383598</v>
+        <v>0.383393</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.373381</v>
+        <v>0.373336</v>
       </c>
       <c r="C126" t="n">
-        <v>0.39246</v>
+        <v>0.392249</v>
       </c>
       <c r="D126" t="n">
-        <v>0.379576</v>
+        <v>0.379489</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.369922</v>
+        <v>0.369861</v>
       </c>
       <c r="C127" t="n">
-        <v>0.389581</v>
+        <v>0.388466</v>
       </c>
       <c r="D127" t="n">
-        <v>0.375863</v>
+        <v>0.375722</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.366168</v>
+        <v>0.366021</v>
       </c>
       <c r="C128" t="n">
-        <v>0.38625</v>
+        <v>0.385686</v>
       </c>
       <c r="D128" t="n">
-        <v>0.373417</v>
+        <v>0.372547</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.36291</v>
+        <v>0.363234</v>
       </c>
       <c r="C129" t="n">
-        <v>0.383952</v>
+        <v>0.382496</v>
       </c>
       <c r="D129" t="n">
-        <v>0.369697</v>
+        <v>0.369957</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.360462</v>
+        <v>0.360508</v>
       </c>
       <c r="C130" t="n">
-        <v>0.380373</v>
+        <v>0.380122</v>
       </c>
       <c r="D130" t="n">
-        <v>0.367524</v>
+        <v>0.367532</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.358098</v>
+        <v>0.358219</v>
       </c>
       <c r="C131" t="n">
-        <v>0.379152</v>
+        <v>0.378022</v>
       </c>
       <c r="D131" t="n">
-        <v>0.364957</v>
+        <v>0.365415</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.356621</v>
+        <v>0.356637</v>
       </c>
       <c r="C132" t="n">
-        <v>0.377031</v>
+        <v>0.376703</v>
       </c>
       <c r="D132" t="n">
-        <v>0.363049</v>
+        <v>0.363703</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.355762</v>
+        <v>0.355981</v>
       </c>
       <c r="C133" t="n">
-        <v>0.377345</v>
+        <v>0.375344</v>
       </c>
       <c r="D133" t="n">
-        <v>0.361917</v>
+        <v>0.362641</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.355397</v>
+        <v>0.356229</v>
       </c>
       <c r="C134" t="n">
-        <v>0.375053</v>
+        <v>0.375068</v>
       </c>
       <c r="D134" t="n">
-        <v>0.362083</v>
+        <v>0.362227</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.356982</v>
+        <v>0.357826</v>
       </c>
       <c r="C135" t="n">
-        <v>0.375184</v>
+        <v>0.37568</v>
       </c>
       <c r="D135" t="n">
-        <v>0.363867</v>
+        <v>0.363728</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.36064</v>
+        <v>0.360123</v>
       </c>
       <c r="C136" t="n">
-        <v>0.378357</v>
+        <v>0.377985</v>
       </c>
       <c r="D136" t="n">
-        <v>0.367233</v>
+        <v>0.367151</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.365598</v>
+        <v>0.365658</v>
       </c>
       <c r="C137" t="n">
-        <v>0.381813</v>
+        <v>0.380658</v>
       </c>
       <c r="D137" t="n">
-        <v>0.449125</v>
+        <v>0.449219</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.440836</v>
+        <v>0.441318</v>
       </c>
       <c r="C138" t="n">
-        <v>0.460898</v>
+        <v>0.46105</v>
       </c>
       <c r="D138" t="n">
-        <v>0.450429</v>
+        <v>0.44798</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.444152</v>
+        <v>0.440935</v>
       </c>
       <c r="C139" t="n">
-        <v>0.461638</v>
+        <v>0.460854</v>
       </c>
       <c r="D139" t="n">
-        <v>0.44958</v>
+        <v>0.447885</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.440857</v>
+        <v>0.43975</v>
       </c>
       <c r="C140" t="n">
-        <v>0.459378</v>
+        <v>0.460079</v>
       </c>
       <c r="D140" t="n">
-        <v>0.446779</v>
+        <v>0.447684</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.43851</v>
+        <v>0.439407</v>
       </c>
       <c r="C141" t="n">
-        <v>0.459703</v>
+        <v>0.459435</v>
       </c>
       <c r="D141" t="n">
-        <v>0.446716</v>
+        <v>0.447208</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.438004</v>
+        <v>0.439013</v>
       </c>
       <c r="C142" t="n">
-        <v>0.458235</v>
+        <v>0.459295</v>
       </c>
       <c r="D142" t="n">
-        <v>0.446704</v>
+        <v>0.44656</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.438241</v>
+        <v>0.438794</v>
       </c>
       <c r="C143" t="n">
-        <v>0.458234</v>
+        <v>0.459039</v>
       </c>
       <c r="D143" t="n">
-        <v>0.446101</v>
+        <v>0.446126</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.250932</v>
+        <v>0.253136</v>
       </c>
       <c r="C2" t="n">
-        <v>0.253</v>
+        <v>0.252233</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247512</v>
+        <v>0.24728</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.24865</v>
+        <v>0.24914</v>
       </c>
       <c r="C3" t="n">
-        <v>0.24791</v>
+        <v>0.248446</v>
       </c>
       <c r="D3" t="n">
-        <v>0.243048</v>
+        <v>0.243397</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.245082</v>
+        <v>0.245229</v>
       </c>
       <c r="C4" t="n">
-        <v>0.243123</v>
+        <v>0.243516</v>
       </c>
       <c r="D4" t="n">
-        <v>0.239398</v>
+        <v>0.239571</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.242138</v>
+        <v>0.242473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.239299</v>
+        <v>0.240341</v>
       </c>
       <c r="D5" t="n">
-        <v>0.237089</v>
+        <v>0.236796</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.242552</v>
+        <v>0.242889</v>
       </c>
       <c r="C6" t="n">
-        <v>0.240264</v>
+        <v>0.239986</v>
       </c>
       <c r="D6" t="n">
-        <v>0.236911</v>
+        <v>0.237675</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.241702</v>
+        <v>0.242387</v>
       </c>
       <c r="C7" t="n">
-        <v>0.238029</v>
+        <v>0.237459</v>
       </c>
       <c r="D7" t="n">
-        <v>0.236712</v>
+        <v>0.237224</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.243116</v>
+        <v>0.243826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.237446</v>
+        <v>0.236703</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2377</v>
+        <v>0.23775</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.248004</v>
+        <v>0.247061</v>
       </c>
       <c r="C9" t="n">
-        <v>0.238319</v>
+        <v>0.238496</v>
       </c>
       <c r="D9" t="n">
-        <v>0.302389</v>
+        <v>0.302302</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.30697</v>
+        <v>0.30782</v>
       </c>
       <c r="C10" t="n">
-        <v>0.301398</v>
+        <v>0.302573</v>
       </c>
       <c r="D10" t="n">
-        <v>0.295077</v>
+        <v>0.294817</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.297834</v>
+        <v>0.298107</v>
       </c>
       <c r="C11" t="n">
-        <v>0.298144</v>
+        <v>0.293571</v>
       </c>
       <c r="D11" t="n">
-        <v>0.286174</v>
+        <v>0.286571</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.290479</v>
+        <v>0.288677</v>
       </c>
       <c r="C12" t="n">
-        <v>0.287237</v>
+        <v>0.287474</v>
       </c>
       <c r="D12" t="n">
-        <v>0.278988</v>
+        <v>0.279635</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.283381</v>
+        <v>0.284025</v>
       </c>
       <c r="C13" t="n">
-        <v>0.279675</v>
+        <v>0.279841</v>
       </c>
       <c r="D13" t="n">
-        <v>0.272704</v>
+        <v>0.272423</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.275808</v>
+        <v>0.2775</v>
       </c>
       <c r="C14" t="n">
-        <v>0.273478</v>
+        <v>0.272916</v>
       </c>
       <c r="D14" t="n">
-        <v>0.266351</v>
+        <v>0.267294</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.270703</v>
+        <v>0.268395</v>
       </c>
       <c r="C15" t="n">
-        <v>0.266742</v>
+        <v>0.266165</v>
       </c>
       <c r="D15" t="n">
-        <v>0.260501</v>
+        <v>0.260754</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.265723</v>
+        <v>0.263274</v>
       </c>
       <c r="C16" t="n">
-        <v>0.261648</v>
+        <v>0.260943</v>
       </c>
       <c r="D16" t="n">
-        <v>0.255277</v>
+        <v>0.254818</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.259219</v>
+        <v>0.257357</v>
       </c>
       <c r="C17" t="n">
-        <v>0.255951</v>
+        <v>0.256248</v>
       </c>
       <c r="D17" t="n">
-        <v>0.250353</v>
+        <v>0.250684</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.255378</v>
+        <v>0.254843</v>
       </c>
       <c r="C18" t="n">
-        <v>0.251159</v>
+        <v>0.249992</v>
       </c>
       <c r="D18" t="n">
-        <v>0.247112</v>
+        <v>0.247204</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.251549</v>
+        <v>0.250533</v>
       </c>
       <c r="C19" t="n">
-        <v>0.247048</v>
+        <v>0.247264</v>
       </c>
       <c r="D19" t="n">
-        <v>0.244684</v>
+        <v>0.244066</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.249118</v>
+        <v>0.248911</v>
       </c>
       <c r="C20" t="n">
-        <v>0.243936</v>
+        <v>0.243534</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242127</v>
+        <v>0.242476</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.249132</v>
+        <v>0.247895</v>
       </c>
       <c r="C21" t="n">
-        <v>0.242477</v>
+        <v>0.241525</v>
       </c>
       <c r="D21" t="n">
-        <v>0.241698</v>
+        <v>0.241748</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.250907</v>
+        <v>0.249542</v>
       </c>
       <c r="C22" t="n">
-        <v>0.24161</v>
+        <v>0.241127</v>
       </c>
       <c r="D22" t="n">
-        <v>0.244143</v>
+        <v>0.243548</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.254469</v>
+        <v>0.255236</v>
       </c>
       <c r="C23" t="n">
-        <v>0.243198</v>
+        <v>0.242927</v>
       </c>
       <c r="D23" t="n">
-        <v>0.310593</v>
+        <v>0.310693</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.314722</v>
+        <v>0.311261</v>
       </c>
       <c r="C24" t="n">
-        <v>0.313186</v>
+        <v>0.313807</v>
       </c>
       <c r="D24" t="n">
-        <v>0.306361</v>
+        <v>0.302785</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.306676</v>
+        <v>0.30492</v>
       </c>
       <c r="C25" t="n">
-        <v>0.301846</v>
+        <v>0.306203</v>
       </c>
       <c r="D25" t="n">
-        <v>0.295094</v>
+        <v>0.294643</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.297576</v>
+        <v>0.298497</v>
       </c>
       <c r="C26" t="n">
-        <v>0.29382</v>
+        <v>0.294376</v>
       </c>
       <c r="D26" t="n">
-        <v>0.285921</v>
+        <v>0.288486</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.290534</v>
+        <v>0.287213</v>
       </c>
       <c r="C27" t="n">
-        <v>0.286805</v>
+        <v>0.286792</v>
       </c>
       <c r="D27" t="n">
-        <v>0.279855</v>
+        <v>0.278963</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.282174</v>
+        <v>0.283797</v>
       </c>
       <c r="C28" t="n">
-        <v>0.280382</v>
+        <v>0.281549</v>
       </c>
       <c r="D28" t="n">
-        <v>0.272971</v>
+        <v>0.275761</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.275395</v>
+        <v>0.274717</v>
       </c>
       <c r="C29" t="n">
-        <v>0.27312</v>
+        <v>0.27219</v>
       </c>
       <c r="D29" t="n">
-        <v>0.266316</v>
+        <v>0.266126</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.269732</v>
+        <v>0.269964</v>
       </c>
       <c r="C30" t="n">
-        <v>0.269931</v>
+        <v>0.269249</v>
       </c>
       <c r="D30" t="n">
-        <v>0.262534</v>
+        <v>0.261921</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.269321</v>
+        <v>0.266435</v>
       </c>
       <c r="C31" t="n">
-        <v>0.264297</v>
+        <v>0.263652</v>
       </c>
       <c r="D31" t="n">
-        <v>0.259496</v>
+        <v>0.260034</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.259115</v>
+        <v>0.261582</v>
       </c>
       <c r="C32" t="n">
-        <v>0.256947</v>
+        <v>0.256958</v>
       </c>
       <c r="D32" t="n">
-        <v>0.251838</v>
+        <v>0.253693</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.255373</v>
+        <v>0.257019</v>
       </c>
       <c r="C33" t="n">
-        <v>0.255359</v>
+        <v>0.254275</v>
       </c>
       <c r="D33" t="n">
-        <v>0.249114</v>
+        <v>0.251335</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.254051</v>
+        <v>0.254214</v>
       </c>
       <c r="C34" t="n">
-        <v>0.249512</v>
+        <v>0.251403</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247623</v>
+        <v>0.248238</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.255056</v>
+        <v>0.255125</v>
       </c>
       <c r="C35" t="n">
-        <v>0.248872</v>
+        <v>0.248464</v>
       </c>
       <c r="D35" t="n">
-        <v>0.245578</v>
+        <v>0.247068</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.256597</v>
+        <v>0.256022</v>
       </c>
       <c r="C36" t="n">
-        <v>0.245207</v>
+        <v>0.247961</v>
       </c>
       <c r="D36" t="n">
-        <v>0.248547</v>
+        <v>0.248801</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.256494</v>
+        <v>0.258048</v>
       </c>
       <c r="C37" t="n">
-        <v>0.248542</v>
+        <v>0.247902</v>
       </c>
       <c r="D37" t="n">
-        <v>0.324458</v>
+        <v>0.325063</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.332035</v>
+        <v>0.332403</v>
       </c>
       <c r="C38" t="n">
-        <v>0.324937</v>
+        <v>0.324561</v>
       </c>
       <c r="D38" t="n">
-        <v>0.315888</v>
+        <v>0.315223</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.321902</v>
+        <v>0.322896</v>
       </c>
       <c r="C39" t="n">
-        <v>0.313659</v>
+        <v>0.316031</v>
       </c>
       <c r="D39" t="n">
-        <v>0.306472</v>
+        <v>0.307389</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.31388</v>
+        <v>0.31455</v>
       </c>
       <c r="C40" t="n">
-        <v>0.308039</v>
+        <v>0.306509</v>
       </c>
       <c r="D40" t="n">
-        <v>0.299353</v>
+        <v>0.296182</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.30689</v>
+        <v>0.305772</v>
       </c>
       <c r="C41" t="n">
-        <v>0.299752</v>
+        <v>0.299636</v>
       </c>
       <c r="D41" t="n">
-        <v>0.288686</v>
+        <v>0.291554</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.299229</v>
+        <v>0.299217</v>
       </c>
       <c r="C42" t="n">
-        <v>0.291637</v>
+        <v>0.291305</v>
       </c>
       <c r="D42" t="n">
-        <v>0.283138</v>
+        <v>0.280255</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.291664</v>
+        <v>0.289769</v>
       </c>
       <c r="C43" t="n">
-        <v>0.285357</v>
+        <v>0.282123</v>
       </c>
       <c r="D43" t="n">
-        <v>0.279035</v>
+        <v>0.277304</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.287505</v>
+        <v>0.283921</v>
       </c>
       <c r="C44" t="n">
-        <v>0.279916</v>
+        <v>0.278555</v>
       </c>
       <c r="D44" t="n">
-        <v>0.272473</v>
+        <v>0.271817</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.278523</v>
+        <v>0.279357</v>
       </c>
       <c r="C45" t="n">
-        <v>0.272671</v>
+        <v>0.272268</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264659</v>
+        <v>0.265097</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.275507</v>
+        <v>0.27299</v>
       </c>
       <c r="C46" t="n">
-        <v>0.26722</v>
+        <v>0.267205</v>
       </c>
       <c r="D46" t="n">
-        <v>0.259479</v>
+        <v>0.261277</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.268524</v>
+        <v>0.270335</v>
       </c>
       <c r="C47" t="n">
-        <v>0.261952</v>
+        <v>0.262687</v>
       </c>
       <c r="D47" t="n">
-        <v>0.25504</v>
+        <v>0.258025</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2673</v>
+        <v>0.263816</v>
       </c>
       <c r="C48" t="n">
-        <v>0.258132</v>
+        <v>0.258758</v>
       </c>
       <c r="D48" t="n">
-        <v>0.254485</v>
+        <v>0.255243</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.263311</v>
+        <v>0.263576</v>
       </c>
       <c r="C49" t="n">
-        <v>0.254514</v>
+        <v>0.255881</v>
       </c>
       <c r="D49" t="n">
-        <v>0.25253</v>
+        <v>0.253435</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.262752</v>
+        <v>0.261224</v>
       </c>
       <c r="C50" t="n">
-        <v>0.254498</v>
+        <v>0.254727</v>
       </c>
       <c r="D50" t="n">
-        <v>0.254424</v>
+        <v>0.254092</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.266502</v>
+        <v>0.264194</v>
       </c>
       <c r="C51" t="n">
-        <v>0.254937</v>
+        <v>0.255065</v>
       </c>
       <c r="D51" t="n">
-        <v>0.331519</v>
+        <v>0.331472</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.271027</v>
+        <v>0.2698</v>
       </c>
       <c r="C52" t="n">
-        <v>0.258577</v>
+        <v>0.25863</v>
       </c>
       <c r="D52" t="n">
-        <v>0.322219</v>
+        <v>0.322069</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.329675</v>
+        <v>0.327116</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3252</v>
+        <v>0.325408</v>
       </c>
       <c r="D53" t="n">
-        <v>0.314139</v>
+        <v>0.31368</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.31955</v>
+        <v>0.32005</v>
       </c>
       <c r="C54" t="n">
-        <v>0.316421</v>
+        <v>0.316623</v>
       </c>
       <c r="D54" t="n">
-        <v>0.305558</v>
+        <v>0.305154</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.311253</v>
+        <v>0.309222</v>
       </c>
       <c r="C55" t="n">
-        <v>0.308278</v>
+        <v>0.308084</v>
       </c>
       <c r="D55" t="n">
-        <v>0.29699</v>
+        <v>0.297074</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.303814</v>
+        <v>0.302264</v>
       </c>
       <c r="C56" t="n">
-        <v>0.300379</v>
+        <v>0.300464</v>
       </c>
       <c r="D56" t="n">
-        <v>0.290516</v>
+        <v>0.290442</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.296187</v>
+        <v>0.294603</v>
       </c>
       <c r="C57" t="n">
-        <v>0.293087</v>
+        <v>0.292703</v>
       </c>
       <c r="D57" t="n">
-        <v>0.283109</v>
+        <v>0.283256</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.289834</v>
+        <v>0.288776</v>
       </c>
       <c r="C58" t="n">
-        <v>0.28623</v>
+        <v>0.285814</v>
       </c>
       <c r="D58" t="n">
-        <v>0.277301</v>
+        <v>0.276992</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.282799</v>
+        <v>0.282368</v>
       </c>
       <c r="C59" t="n">
-        <v>0.279786</v>
+        <v>0.279984</v>
       </c>
       <c r="D59" t="n">
-        <v>0.271405</v>
+        <v>0.271311</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.277616</v>
+        <v>0.275584</v>
       </c>
       <c r="C60" t="n">
-        <v>0.274256</v>
+        <v>0.273832</v>
       </c>
       <c r="D60" t="n">
-        <v>0.266239</v>
+        <v>0.266626</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.273208</v>
+        <v>0.272785</v>
       </c>
       <c r="C61" t="n">
-        <v>0.269162</v>
+        <v>0.268982</v>
       </c>
       <c r="D61" t="n">
-        <v>0.262577</v>
+        <v>0.26228</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.269562</v>
+        <v>0.267887</v>
       </c>
       <c r="C62" t="n">
-        <v>0.26504</v>
+        <v>0.264942</v>
       </c>
       <c r="D62" t="n">
-        <v>0.259423</v>
+        <v>0.259419</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267881</v>
+        <v>0.266199</v>
       </c>
       <c r="C63" t="n">
-        <v>0.261957</v>
+        <v>0.261951</v>
       </c>
       <c r="D63" t="n">
-        <v>0.257575</v>
+        <v>0.257879</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.268093</v>
+        <v>0.266326</v>
       </c>
       <c r="C64" t="n">
-        <v>0.260092</v>
+        <v>0.260199</v>
       </c>
       <c r="D64" t="n">
-        <v>0.258843</v>
+        <v>0.258657</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.269782</v>
+        <v>0.268311</v>
       </c>
       <c r="C65" t="n">
-        <v>0.260413</v>
+        <v>0.260083</v>
       </c>
       <c r="D65" t="n">
-        <v>0.262329</v>
+        <v>0.263399</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.274973</v>
+        <v>0.27389</v>
       </c>
       <c r="C66" t="n">
-        <v>0.262712</v>
+        <v>0.262754</v>
       </c>
       <c r="D66" t="n">
-        <v>0.334024</v>
+        <v>0.334026</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.337472</v>
+        <v>0.334848</v>
       </c>
       <c r="C67" t="n">
-        <v>0.332708</v>
+        <v>0.332175</v>
       </c>
       <c r="D67" t="n">
-        <v>0.32484</v>
+        <v>0.324557</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.328571</v>
+        <v>0.324725</v>
       </c>
       <c r="C68" t="n">
-        <v>0.323676</v>
+        <v>0.323482</v>
       </c>
       <c r="D68" t="n">
-        <v>0.316779</v>
+        <v>0.3164</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.319221</v>
+        <v>0.31737</v>
       </c>
       <c r="C69" t="n">
-        <v>0.315364</v>
+        <v>0.314877</v>
       </c>
       <c r="D69" t="n">
-        <v>0.308363</v>
+        <v>0.307941</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.311762</v>
+        <v>0.309599</v>
       </c>
       <c r="C70" t="n">
-        <v>0.307134</v>
+        <v>0.307417</v>
       </c>
       <c r="D70" t="n">
-        <v>0.300723</v>
+        <v>0.300402</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.303742</v>
+        <v>0.301527</v>
       </c>
       <c r="C71" t="n">
-        <v>0.300063</v>
+        <v>0.29972</v>
       </c>
       <c r="D71" t="n">
-        <v>0.293716</v>
+        <v>0.293239</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.296736</v>
+        <v>0.293117</v>
       </c>
       <c r="C72" t="n">
-        <v>0.292834</v>
+        <v>0.292763</v>
       </c>
       <c r="D72" t="n">
-        <v>0.287117</v>
+        <v>0.286774</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.289697</v>
+        <v>0.288572</v>
       </c>
       <c r="C73" t="n">
-        <v>0.287089</v>
+        <v>0.286554</v>
       </c>
       <c r="D73" t="n">
-        <v>0.28122</v>
+        <v>0.280857</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.28409</v>
+        <v>0.283009</v>
       </c>
       <c r="C74" t="n">
-        <v>0.280685</v>
+        <v>0.280481</v>
       </c>
       <c r="D74" t="n">
-        <v>0.275932</v>
+        <v>0.275544</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.27934</v>
+        <v>0.278408</v>
       </c>
       <c r="C75" t="n">
-        <v>0.275608</v>
+        <v>0.275331</v>
       </c>
       <c r="D75" t="n">
-        <v>0.271024</v>
+        <v>0.27094</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275324</v>
+        <v>0.275003</v>
       </c>
       <c r="C76" t="n">
-        <v>0.270946</v>
+        <v>0.271008</v>
       </c>
       <c r="D76" t="n">
-        <v>0.26808</v>
+        <v>0.267752</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.272597</v>
+        <v>0.272679</v>
       </c>
       <c r="C77" t="n">
-        <v>0.267432</v>
+        <v>0.267766</v>
       </c>
       <c r="D77" t="n">
-        <v>0.265786</v>
+        <v>0.265931</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.271383</v>
+        <v>0.270722</v>
       </c>
       <c r="C78" t="n">
-        <v>0.266241</v>
+        <v>0.26499</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265928</v>
+        <v>0.265637</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.272234</v>
+        <v>0.272722</v>
       </c>
       <c r="C79" t="n">
-        <v>0.264817</v>
+        <v>0.264814</v>
       </c>
       <c r="D79" t="n">
-        <v>0.268633</v>
+        <v>0.268339</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.277151</v>
+        <v>0.276308</v>
       </c>
       <c r="C80" t="n">
-        <v>0.267351</v>
+        <v>0.267054</v>
       </c>
       <c r="D80" t="n">
-        <v>0.341495</v>
+        <v>0.341143</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.339356</v>
+        <v>0.337648</v>
       </c>
       <c r="C81" t="n">
-        <v>0.343642</v>
+        <v>0.343502</v>
       </c>
       <c r="D81" t="n">
-        <v>0.331563</v>
+        <v>0.331985</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.328816</v>
+        <v>0.329122</v>
       </c>
       <c r="C82" t="n">
-        <v>0.334559</v>
+        <v>0.334191</v>
       </c>
       <c r="D82" t="n">
-        <v>0.323651</v>
+        <v>0.32325</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.32046</v>
+        <v>0.32075</v>
       </c>
       <c r="C83" t="n">
-        <v>0.325965</v>
+        <v>0.325712</v>
       </c>
       <c r="D83" t="n">
-        <v>0.315443</v>
+        <v>0.315597</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.312011</v>
+        <v>0.311632</v>
       </c>
       <c r="C84" t="n">
-        <v>0.31792</v>
+        <v>0.319142</v>
       </c>
       <c r="D84" t="n">
-        <v>0.307023</v>
+        <v>0.308777</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.304954</v>
+        <v>0.304728</v>
       </c>
       <c r="C85" t="n">
-        <v>0.310293</v>
+        <v>0.311114</v>
       </c>
       <c r="D85" t="n">
-        <v>0.299635</v>
+        <v>0.300917</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.297329</v>
+        <v>0.297027</v>
       </c>
       <c r="C86" t="n">
-        <v>0.302646</v>
+        <v>0.303667</v>
       </c>
       <c r="D86" t="n">
-        <v>0.293142</v>
+        <v>0.294505</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.291252</v>
+        <v>0.29257</v>
       </c>
       <c r="C87" t="n">
-        <v>0.296002</v>
+        <v>0.295455</v>
       </c>
       <c r="D87" t="n">
-        <v>0.287115</v>
+        <v>0.286857</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.285083</v>
+        <v>0.285111</v>
       </c>
       <c r="C88" t="n">
-        <v>0.289707</v>
+        <v>0.289456</v>
       </c>
       <c r="D88" t="n">
-        <v>0.281492</v>
+        <v>0.281357</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.28054</v>
+        <v>0.280264</v>
       </c>
       <c r="C89" t="n">
-        <v>0.284385</v>
+        <v>0.283859</v>
       </c>
       <c r="D89" t="n">
-        <v>0.276822</v>
+        <v>0.276755</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.276491</v>
+        <v>0.276666</v>
       </c>
       <c r="C90" t="n">
-        <v>0.278591</v>
+        <v>0.279026</v>
       </c>
       <c r="D90" t="n">
-        <v>0.27325</v>
+        <v>0.272106</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.273217</v>
+        <v>0.273992</v>
       </c>
       <c r="C91" t="n">
-        <v>0.274898</v>
+        <v>0.274802</v>
       </c>
       <c r="D91" t="n">
-        <v>0.270404</v>
+        <v>0.270173</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.272155</v>
+        <v>0.272048</v>
       </c>
       <c r="C92" t="n">
-        <v>0.272344</v>
+        <v>0.272163</v>
       </c>
       <c r="D92" t="n">
-        <v>0.269389</v>
+        <v>0.269647</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.272752</v>
+        <v>0.273399</v>
       </c>
       <c r="C93" t="n">
-        <v>0.27094</v>
+        <v>0.271324</v>
       </c>
       <c r="D93" t="n">
-        <v>0.271236</v>
+        <v>0.271186</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.277693</v>
+        <v>0.27763</v>
       </c>
       <c r="C94" t="n">
-        <v>0.272315</v>
+        <v>0.272108</v>
       </c>
       <c r="D94" t="n">
-        <v>0.356176</v>
+        <v>0.355147</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.348776</v>
+        <v>0.357705</v>
       </c>
       <c r="C95" t="n">
-        <v>0.355346</v>
+        <v>0.354635</v>
       </c>
       <c r="D95" t="n">
-        <v>0.346945</v>
+        <v>0.345049</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.342396</v>
+        <v>0.350548</v>
       </c>
       <c r="C96" t="n">
-        <v>0.348125</v>
+        <v>0.34765</v>
       </c>
       <c r="D96" t="n">
-        <v>0.338696</v>
+        <v>0.33811</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.334292</v>
+        <v>0.341416</v>
       </c>
       <c r="C97" t="n">
-        <v>0.34047</v>
+        <v>0.339908</v>
       </c>
       <c r="D97" t="n">
-        <v>0.330011</v>
+        <v>0.329713</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.32511</v>
+        <v>0.333063</v>
       </c>
       <c r="C98" t="n">
-        <v>0.332405</v>
+        <v>0.332042</v>
       </c>
       <c r="D98" t="n">
-        <v>0.321785</v>
+        <v>0.321545</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.318011</v>
+        <v>0.324675</v>
       </c>
       <c r="C99" t="n">
-        <v>0.324747</v>
+        <v>0.324311</v>
       </c>
       <c r="D99" t="n">
-        <v>0.314704</v>
+        <v>0.313723</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.310621</v>
+        <v>0.317199</v>
       </c>
       <c r="C100" t="n">
-        <v>0.317714</v>
+        <v>0.317289</v>
       </c>
       <c r="D100" t="n">
-        <v>0.307842</v>
+        <v>0.307374</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.303461</v>
+        <v>0.310231</v>
       </c>
       <c r="C101" t="n">
-        <v>0.311045</v>
+        <v>0.310257</v>
       </c>
       <c r="D101" t="n">
-        <v>0.301896</v>
+        <v>0.301388</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.297413</v>
+        <v>0.304008</v>
       </c>
       <c r="C102" t="n">
-        <v>0.304694</v>
+        <v>0.304419</v>
       </c>
       <c r="D102" t="n">
-        <v>0.295404</v>
+        <v>0.294975</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292427</v>
+        <v>0.29892</v>
       </c>
       <c r="C103" t="n">
-        <v>0.298774</v>
+        <v>0.298595</v>
       </c>
       <c r="D103" t="n">
-        <v>0.290695</v>
+        <v>0.290159</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.287618</v>
+        <v>0.293981</v>
       </c>
       <c r="C104" t="n">
-        <v>0.294105</v>
+        <v>0.29401</v>
       </c>
       <c r="D104" t="n">
-        <v>0.286213</v>
+        <v>0.28601</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.284389</v>
+        <v>0.290767</v>
       </c>
       <c r="C105" t="n">
-        <v>0.289635</v>
+        <v>0.289707</v>
       </c>
       <c r="D105" t="n">
-        <v>0.283484</v>
+        <v>0.283131</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.282661</v>
+        <v>0.288886</v>
       </c>
       <c r="C106" t="n">
-        <v>0.286657</v>
+        <v>0.286538</v>
       </c>
       <c r="D106" t="n">
-        <v>0.28223</v>
+        <v>0.281354</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.282789</v>
+        <v>0.288966</v>
       </c>
       <c r="C107" t="n">
-        <v>0.284761</v>
+        <v>0.284747</v>
       </c>
       <c r="D107" t="n">
-        <v>0.283344</v>
+        <v>0.282743</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.285505</v>
+        <v>0.292461</v>
       </c>
       <c r="C108" t="n">
-        <v>0.285178</v>
+        <v>0.285538</v>
       </c>
       <c r="D108" t="n">
-        <v>0.36913</v>
+        <v>0.369063</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.292503</v>
+        <v>0.299208</v>
       </c>
       <c r="C109" t="n">
-        <v>0.289595</v>
+        <v>0.289088</v>
       </c>
       <c r="D109" t="n">
-        <v>0.364003</v>
+        <v>0.363057</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.354708</v>
+        <v>0.36924</v>
       </c>
       <c r="C110" t="n">
-        <v>0.366418</v>
+        <v>0.366119</v>
       </c>
       <c r="D110" t="n">
-        <v>0.356769</v>
+        <v>0.355826</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.347826</v>
+        <v>0.361624</v>
       </c>
       <c r="C111" t="n">
-        <v>0.359649</v>
+        <v>0.359389</v>
       </c>
       <c r="D111" t="n">
-        <v>0.349377</v>
+        <v>0.349072</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.340847</v>
+        <v>0.354146</v>
       </c>
       <c r="C112" t="n">
-        <v>0.352948</v>
+        <v>0.353108</v>
       </c>
       <c r="D112" t="n">
-        <v>0.341551</v>
+        <v>0.342187</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.333873</v>
+        <v>0.347136</v>
       </c>
       <c r="C113" t="n">
-        <v>0.345914</v>
+        <v>0.346649</v>
       </c>
       <c r="D113" t="n">
-        <v>0.336003</v>
+        <v>0.336123</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.328374</v>
+        <v>0.34054</v>
       </c>
       <c r="C114" t="n">
-        <v>0.340771</v>
+        <v>0.340796</v>
       </c>
       <c r="D114" t="n">
-        <v>0.330162</v>
+        <v>0.330053</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.322306</v>
+        <v>0.334614</v>
       </c>
       <c r="C115" t="n">
-        <v>0.335427</v>
+        <v>0.335436</v>
       </c>
       <c r="D115" t="n">
-        <v>0.324774</v>
+        <v>0.324464</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.317253</v>
+        <v>0.328939</v>
       </c>
       <c r="C116" t="n">
-        <v>0.330261</v>
+        <v>0.330265</v>
       </c>
       <c r="D116" t="n">
-        <v>0.31979</v>
+        <v>0.319646</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.313165</v>
+        <v>0.32454</v>
       </c>
       <c r="C117" t="n">
-        <v>0.325952</v>
+        <v>0.325773</v>
       </c>
       <c r="D117" t="n">
-        <v>0.315771</v>
+        <v>0.315453</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.309812</v>
+        <v>0.320455</v>
       </c>
       <c r="C118" t="n">
-        <v>0.321863</v>
+        <v>0.322118</v>
       </c>
       <c r="D118" t="n">
-        <v>0.311879</v>
+        <v>0.312363</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.307453</v>
+        <v>0.317642</v>
       </c>
       <c r="C119" t="n">
-        <v>0.319077</v>
+        <v>0.318787</v>
       </c>
       <c r="D119" t="n">
-        <v>0.30995</v>
+        <v>0.309041</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.306309</v>
+        <v>0.316023</v>
       </c>
       <c r="C120" t="n">
-        <v>0.317854</v>
+        <v>0.316694</v>
       </c>
       <c r="D120" t="n">
-        <v>0.308984</v>
+        <v>0.308363</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.306684</v>
+        <v>0.316018</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3167</v>
+        <v>0.315976</v>
       </c>
       <c r="D121" t="n">
-        <v>0.309347</v>
+        <v>0.308997</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.309616</v>
+        <v>0.318384</v>
       </c>
       <c r="C122" t="n">
-        <v>0.317675</v>
+        <v>0.316977</v>
       </c>
       <c r="D122" t="n">
-        <v>0.313723</v>
+        <v>0.312185</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.315599</v>
+        <v>0.32408</v>
       </c>
       <c r="C123" t="n">
-        <v>0.320877</v>
+        <v>0.320874</v>
       </c>
       <c r="D123" t="n">
-        <v>0.392207</v>
+        <v>0.391815</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.38198</v>
+        <v>0.390505</v>
       </c>
       <c r="C124" t="n">
-        <v>0.399535</v>
+        <v>0.399619</v>
       </c>
       <c r="D124" t="n">
-        <v>0.387103</v>
+        <v>0.387689</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.377322</v>
+        <v>0.385583</v>
       </c>
       <c r="C125" t="n">
-        <v>0.395791</v>
+        <v>0.395324</v>
       </c>
       <c r="D125" t="n">
-        <v>0.383393</v>
+        <v>0.38346</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.373336</v>
+        <v>0.381443</v>
       </c>
       <c r="C126" t="n">
-        <v>0.392249</v>
+        <v>0.391437</v>
       </c>
       <c r="D126" t="n">
-        <v>0.379489</v>
+        <v>0.37906</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.369861</v>
+        <v>0.376558</v>
       </c>
       <c r="C127" t="n">
-        <v>0.388466</v>
+        <v>0.388246</v>
       </c>
       <c r="D127" t="n">
-        <v>0.375722</v>
+        <v>0.376003</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.366021</v>
+        <v>0.373164</v>
       </c>
       <c r="C128" t="n">
-        <v>0.385686</v>
+        <v>0.385254</v>
       </c>
       <c r="D128" t="n">
-        <v>0.372547</v>
+        <v>0.37248</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.363234</v>
+        <v>0.3695</v>
       </c>
       <c r="C129" t="n">
-        <v>0.382496</v>
+        <v>0.382185</v>
       </c>
       <c r="D129" t="n">
-        <v>0.369957</v>
+        <v>0.369786</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.360508</v>
+        <v>0.367178</v>
       </c>
       <c r="C130" t="n">
-        <v>0.380122</v>
+        <v>0.3797</v>
       </c>
       <c r="D130" t="n">
-        <v>0.367532</v>
+        <v>0.367126</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.358219</v>
+        <v>0.364707</v>
       </c>
       <c r="C131" t="n">
-        <v>0.378022</v>
+        <v>0.377763</v>
       </c>
       <c r="D131" t="n">
-        <v>0.365415</v>
+        <v>0.364468</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.356637</v>
+        <v>0.362679</v>
       </c>
       <c r="C132" t="n">
-        <v>0.376703</v>
+        <v>0.376078</v>
       </c>
       <c r="D132" t="n">
-        <v>0.363703</v>
+        <v>0.363498</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.355981</v>
+        <v>0.361443</v>
       </c>
       <c r="C133" t="n">
-        <v>0.375344</v>
+        <v>0.374775</v>
       </c>
       <c r="D133" t="n">
-        <v>0.362641</v>
+        <v>0.361525</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.356229</v>
+        <v>0.361113</v>
       </c>
       <c r="C134" t="n">
-        <v>0.375068</v>
+        <v>0.374595</v>
       </c>
       <c r="D134" t="n">
-        <v>0.362227</v>
+        <v>0.361677</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.357826</v>
+        <v>0.362815</v>
       </c>
       <c r="C135" t="n">
-        <v>0.37568</v>
+        <v>0.375012</v>
       </c>
       <c r="D135" t="n">
-        <v>0.363728</v>
+        <v>0.362977</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.360123</v>
+        <v>0.36576</v>
       </c>
       <c r="C136" t="n">
-        <v>0.377985</v>
+        <v>0.376251</v>
       </c>
       <c r="D136" t="n">
-        <v>0.367151</v>
+        <v>0.366573</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.365658</v>
+        <v>0.370511</v>
       </c>
       <c r="C137" t="n">
-        <v>0.380658</v>
+        <v>0.380835</v>
       </c>
       <c r="D137" t="n">
-        <v>0.449219</v>
+        <v>0.448761</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.441318</v>
+        <v>0.44296</v>
       </c>
       <c r="C138" t="n">
-        <v>0.46105</v>
+        <v>0.460751</v>
       </c>
       <c r="D138" t="n">
-        <v>0.44798</v>
+        <v>0.447115</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.440935</v>
+        <v>0.441602</v>
       </c>
       <c r="C139" t="n">
-        <v>0.460854</v>
+        <v>0.460769</v>
       </c>
       <c r="D139" t="n">
-        <v>0.447885</v>
+        <v>0.447008</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.43975</v>
+        <v>0.440719</v>
       </c>
       <c r="C140" t="n">
-        <v>0.460079</v>
+        <v>0.458895</v>
       </c>
       <c r="D140" t="n">
-        <v>0.447684</v>
+        <v>0.447037</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.439407</v>
+        <v>0.440125</v>
       </c>
       <c r="C141" t="n">
-        <v>0.459435</v>
+        <v>0.458897</v>
       </c>
       <c r="D141" t="n">
-        <v>0.447208</v>
+        <v>0.446164</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.439013</v>
+        <v>0.439355</v>
       </c>
       <c r="C142" t="n">
-        <v>0.459295</v>
+        <v>0.458652</v>
       </c>
       <c r="D142" t="n">
-        <v>0.44656</v>
+        <v>0.445919</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.438794</v>
+        <v>0.439937</v>
       </c>
       <c r="C143" t="n">
-        <v>0.459039</v>
+        <v>0.457842</v>
       </c>
       <c r="D143" t="n">
-        <v>0.446126</v>
+        <v>0.44615</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.253136</v>
+        <v>0.259966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.252233</v>
+        <v>0.253652</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24728</v>
+        <v>0.246644</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.24914</v>
+        <v>0.268838</v>
       </c>
       <c r="C3" t="n">
-        <v>0.248446</v>
+        <v>0.249416</v>
       </c>
       <c r="D3" t="n">
-        <v>0.243397</v>
+        <v>0.241819</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.245229</v>
+        <v>0.27085</v>
       </c>
       <c r="C4" t="n">
-        <v>0.243516</v>
+        <v>0.244381</v>
       </c>
       <c r="D4" t="n">
-        <v>0.239571</v>
+        <v>0.238038</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.242473</v>
+        <v>0.258685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.240341</v>
+        <v>0.241226</v>
       </c>
       <c r="D5" t="n">
-        <v>0.236796</v>
+        <v>0.235783</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.242889</v>
+        <v>0.264231</v>
       </c>
       <c r="C6" t="n">
-        <v>0.239986</v>
+        <v>0.240036</v>
       </c>
       <c r="D6" t="n">
-        <v>0.237675</v>
+        <v>0.235103</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.242387</v>
+        <v>0.263024</v>
       </c>
       <c r="C7" t="n">
-        <v>0.237459</v>
+        <v>0.23831</v>
       </c>
       <c r="D7" t="n">
-        <v>0.237224</v>
+        <v>0.235318</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.243826</v>
+        <v>0.263384</v>
       </c>
       <c r="C8" t="n">
-        <v>0.236703</v>
+        <v>0.238167</v>
       </c>
       <c r="D8" t="n">
-        <v>0.23775</v>
+        <v>0.237009</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.247061</v>
+        <v>0.266264</v>
       </c>
       <c r="C9" t="n">
-        <v>0.238496</v>
+        <v>0.239606</v>
       </c>
       <c r="D9" t="n">
-        <v>0.302302</v>
+        <v>0.305493</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.30782</v>
+        <v>0.324788</v>
       </c>
       <c r="C10" t="n">
-        <v>0.302573</v>
+        <v>0.31981</v>
       </c>
       <c r="D10" t="n">
-        <v>0.294817</v>
+        <v>0.294937</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.298107</v>
+        <v>0.31529</v>
       </c>
       <c r="C11" t="n">
-        <v>0.293571</v>
+        <v>0.310196</v>
       </c>
       <c r="D11" t="n">
-        <v>0.286571</v>
+        <v>0.301415</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.288677</v>
+        <v>0.306855</v>
       </c>
       <c r="C12" t="n">
-        <v>0.287474</v>
+        <v>0.302388</v>
       </c>
       <c r="D12" t="n">
-        <v>0.279635</v>
+        <v>0.294026</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.284025</v>
+        <v>0.2969</v>
       </c>
       <c r="C13" t="n">
-        <v>0.279841</v>
+        <v>0.298197</v>
       </c>
       <c r="D13" t="n">
-        <v>0.272423</v>
+        <v>0.282381</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2775</v>
+        <v>0.289689</v>
       </c>
       <c r="C14" t="n">
-        <v>0.272916</v>
+        <v>0.284814</v>
       </c>
       <c r="D14" t="n">
-        <v>0.267294</v>
+        <v>0.279139</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.268395</v>
+        <v>0.282731</v>
       </c>
       <c r="C15" t="n">
-        <v>0.266165</v>
+        <v>0.282647</v>
       </c>
       <c r="D15" t="n">
-        <v>0.260754</v>
+        <v>0.269534</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.263274</v>
+        <v>0.277977</v>
       </c>
       <c r="C16" t="n">
-        <v>0.260943</v>
+        <v>0.27546</v>
       </c>
       <c r="D16" t="n">
-        <v>0.254818</v>
+        <v>0.267394</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.257357</v>
+        <v>0.271561</v>
       </c>
       <c r="C17" t="n">
-        <v>0.256248</v>
+        <v>0.270355</v>
       </c>
       <c r="D17" t="n">
-        <v>0.250684</v>
+        <v>0.261255</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254843</v>
+        <v>0.266652</v>
       </c>
       <c r="C18" t="n">
-        <v>0.249992</v>
+        <v>0.265357</v>
       </c>
       <c r="D18" t="n">
-        <v>0.247204</v>
+        <v>0.254894</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.250533</v>
+        <v>0.26232</v>
       </c>
       <c r="C19" t="n">
-        <v>0.247264</v>
+        <v>0.25718</v>
       </c>
       <c r="D19" t="n">
-        <v>0.244066</v>
+        <v>0.251718</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.248911</v>
+        <v>0.259303</v>
       </c>
       <c r="C20" t="n">
-        <v>0.243534</v>
+        <v>0.256969</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242476</v>
+        <v>0.252326</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.247895</v>
+        <v>0.257637</v>
       </c>
       <c r="C21" t="n">
-        <v>0.241525</v>
+        <v>0.246582</v>
       </c>
       <c r="D21" t="n">
-        <v>0.241748</v>
+        <v>0.249503</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.249542</v>
+        <v>0.258359</v>
       </c>
       <c r="C22" t="n">
-        <v>0.241127</v>
+        <v>0.249154</v>
       </c>
       <c r="D22" t="n">
-        <v>0.243548</v>
+        <v>0.246674</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.255236</v>
+        <v>0.262217</v>
       </c>
       <c r="C23" t="n">
-        <v>0.242927</v>
+        <v>0.251692</v>
       </c>
       <c r="D23" t="n">
-        <v>0.310693</v>
+        <v>0.314713</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.311261</v>
+        <v>0.32538</v>
       </c>
       <c r="C24" t="n">
-        <v>0.313807</v>
+        <v>0.316797</v>
       </c>
       <c r="D24" t="n">
-        <v>0.302785</v>
+        <v>0.306091</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.30492</v>
+        <v>0.315759</v>
       </c>
       <c r="C25" t="n">
-        <v>0.306203</v>
+        <v>0.308434</v>
       </c>
       <c r="D25" t="n">
-        <v>0.294643</v>
+        <v>0.298133</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.298497</v>
+        <v>0.307217</v>
       </c>
       <c r="C26" t="n">
-        <v>0.294376</v>
+        <v>0.30013</v>
       </c>
       <c r="D26" t="n">
-        <v>0.288486</v>
+        <v>0.290575</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.287213</v>
+        <v>0.298781</v>
       </c>
       <c r="C27" t="n">
-        <v>0.286792</v>
+        <v>0.292377</v>
       </c>
       <c r="D27" t="n">
-        <v>0.278963</v>
+        <v>0.283524</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.283797</v>
+        <v>0.291647</v>
       </c>
       <c r="C28" t="n">
-        <v>0.281549</v>
+        <v>0.28488</v>
       </c>
       <c r="D28" t="n">
-        <v>0.275761</v>
+        <v>0.275542</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.274717</v>
+        <v>0.284919</v>
       </c>
       <c r="C29" t="n">
-        <v>0.27219</v>
+        <v>0.2782</v>
       </c>
       <c r="D29" t="n">
-        <v>0.266126</v>
+        <v>0.269214</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.269964</v>
+        <v>0.277865</v>
       </c>
       <c r="C30" t="n">
-        <v>0.269249</v>
+        <v>0.271863</v>
       </c>
       <c r="D30" t="n">
-        <v>0.261921</v>
+        <v>0.263706</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.266435</v>
+        <v>0.272408</v>
       </c>
       <c r="C31" t="n">
-        <v>0.263652</v>
+        <v>0.266385</v>
       </c>
       <c r="D31" t="n">
-        <v>0.260034</v>
+        <v>0.258344</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.261582</v>
+        <v>0.266718</v>
       </c>
       <c r="C32" t="n">
-        <v>0.256958</v>
+        <v>0.261331</v>
       </c>
       <c r="D32" t="n">
-        <v>0.253693</v>
+        <v>0.253842</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.257019</v>
+        <v>0.262989</v>
       </c>
       <c r="C33" t="n">
-        <v>0.254275</v>
+        <v>0.256562</v>
       </c>
       <c r="D33" t="n">
-        <v>0.251335</v>
+        <v>0.250391</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.254214</v>
+        <v>0.259701</v>
       </c>
       <c r="C34" t="n">
-        <v>0.251403</v>
+        <v>0.252569</v>
       </c>
       <c r="D34" t="n">
-        <v>0.248238</v>
+        <v>0.247841</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.255125</v>
+        <v>0.25856</v>
       </c>
       <c r="C35" t="n">
-        <v>0.248464</v>
+        <v>0.250224</v>
       </c>
       <c r="D35" t="n">
-        <v>0.247068</v>
+        <v>0.246251</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.256022</v>
+        <v>0.258364</v>
       </c>
       <c r="C36" t="n">
-        <v>0.247961</v>
+        <v>0.248971</v>
       </c>
       <c r="D36" t="n">
-        <v>0.248801</v>
+        <v>0.24792</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.258048</v>
+        <v>0.261702</v>
       </c>
       <c r="C37" t="n">
-        <v>0.247902</v>
+        <v>0.249476</v>
       </c>
       <c r="D37" t="n">
-        <v>0.325063</v>
+        <v>0.32419</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.332403</v>
+        <v>0.334522</v>
       </c>
       <c r="C38" t="n">
-        <v>0.324561</v>
+        <v>0.327482</v>
       </c>
       <c r="D38" t="n">
-        <v>0.315223</v>
+        <v>0.314349</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.322896</v>
+        <v>0.32424</v>
       </c>
       <c r="C39" t="n">
-        <v>0.316031</v>
+        <v>0.317537</v>
       </c>
       <c r="D39" t="n">
-        <v>0.307389</v>
+        <v>0.30688</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.31455</v>
+        <v>0.315902</v>
       </c>
       <c r="C40" t="n">
-        <v>0.306509</v>
+        <v>0.309504</v>
       </c>
       <c r="D40" t="n">
-        <v>0.296182</v>
+        <v>0.298082</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.305772</v>
+        <v>0.307703</v>
       </c>
       <c r="C41" t="n">
-        <v>0.299636</v>
+        <v>0.301955</v>
       </c>
       <c r="D41" t="n">
-        <v>0.291554</v>
+        <v>0.291159</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.299217</v>
+        <v>0.29931</v>
       </c>
       <c r="C42" t="n">
-        <v>0.291305</v>
+        <v>0.294124</v>
       </c>
       <c r="D42" t="n">
-        <v>0.280255</v>
+        <v>0.284279</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.289769</v>
+        <v>0.293811</v>
       </c>
       <c r="C43" t="n">
-        <v>0.282123</v>
+        <v>0.287045</v>
       </c>
       <c r="D43" t="n">
-        <v>0.277304</v>
+        <v>0.278085</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.283921</v>
+        <v>0.285672</v>
       </c>
       <c r="C44" t="n">
-        <v>0.278555</v>
+        <v>0.279288</v>
       </c>
       <c r="D44" t="n">
-        <v>0.271817</v>
+        <v>0.270413</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.279357</v>
+        <v>0.280972</v>
       </c>
       <c r="C45" t="n">
-        <v>0.272268</v>
+        <v>0.274302</v>
       </c>
       <c r="D45" t="n">
-        <v>0.265097</v>
+        <v>0.266499</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.27299</v>
+        <v>0.274639</v>
       </c>
       <c r="C46" t="n">
-        <v>0.267205</v>
+        <v>0.268622</v>
       </c>
       <c r="D46" t="n">
-        <v>0.261277</v>
+        <v>0.260267</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.270335</v>
+        <v>0.269649</v>
       </c>
       <c r="C47" t="n">
-        <v>0.262687</v>
+        <v>0.263995</v>
       </c>
       <c r="D47" t="n">
-        <v>0.258025</v>
+        <v>0.257542</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.263816</v>
+        <v>0.265788</v>
       </c>
       <c r="C48" t="n">
-        <v>0.258758</v>
+        <v>0.259815</v>
       </c>
       <c r="D48" t="n">
-        <v>0.255243</v>
+        <v>0.251976</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.263576</v>
+        <v>0.265681</v>
       </c>
       <c r="C49" t="n">
-        <v>0.255881</v>
+        <v>0.25746</v>
       </c>
       <c r="D49" t="n">
-        <v>0.253435</v>
+        <v>0.253263</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.261224</v>
+        <v>0.265629</v>
       </c>
       <c r="C50" t="n">
-        <v>0.254727</v>
+        <v>0.25584</v>
       </c>
       <c r="D50" t="n">
-        <v>0.254092</v>
+        <v>0.254665</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.264194</v>
+        <v>0.26848</v>
       </c>
       <c r="C51" t="n">
-        <v>0.255065</v>
+        <v>0.255692</v>
       </c>
       <c r="D51" t="n">
-        <v>0.331472</v>
+        <v>0.331701</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2698</v>
+        <v>0.275585</v>
       </c>
       <c r="C52" t="n">
-        <v>0.25863</v>
+        <v>0.259022</v>
       </c>
       <c r="D52" t="n">
-        <v>0.322069</v>
+        <v>0.322641</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.327116</v>
+        <v>0.333703</v>
       </c>
       <c r="C53" t="n">
-        <v>0.325408</v>
+        <v>0.32573</v>
       </c>
       <c r="D53" t="n">
-        <v>0.31368</v>
+        <v>0.314366</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.32005</v>
+        <v>0.323388</v>
       </c>
       <c r="C54" t="n">
-        <v>0.316623</v>
+        <v>0.317237</v>
       </c>
       <c r="D54" t="n">
-        <v>0.305154</v>
+        <v>0.305961</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.309222</v>
+        <v>0.314261</v>
       </c>
       <c r="C55" t="n">
-        <v>0.308084</v>
+        <v>0.308799</v>
       </c>
       <c r="D55" t="n">
-        <v>0.297074</v>
+        <v>0.29822</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.302264</v>
+        <v>0.306733</v>
       </c>
       <c r="C56" t="n">
-        <v>0.300464</v>
+        <v>0.301062</v>
       </c>
       <c r="D56" t="n">
-        <v>0.290442</v>
+        <v>0.290814</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.294603</v>
+        <v>0.299756</v>
       </c>
       <c r="C57" t="n">
-        <v>0.292703</v>
+        <v>0.293596</v>
       </c>
       <c r="D57" t="n">
-        <v>0.283256</v>
+        <v>0.283835</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.288776</v>
+        <v>0.292921</v>
       </c>
       <c r="C58" t="n">
-        <v>0.285814</v>
+        <v>0.286859</v>
       </c>
       <c r="D58" t="n">
-        <v>0.276992</v>
+        <v>0.277889</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.282368</v>
+        <v>0.285533</v>
       </c>
       <c r="C59" t="n">
-        <v>0.279984</v>
+        <v>0.280109</v>
       </c>
       <c r="D59" t="n">
-        <v>0.271311</v>
+        <v>0.271895</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.275584</v>
+        <v>0.280255</v>
       </c>
       <c r="C60" t="n">
-        <v>0.273832</v>
+        <v>0.275938</v>
       </c>
       <c r="D60" t="n">
-        <v>0.266626</v>
+        <v>0.267829</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.272785</v>
+        <v>0.277594</v>
       </c>
       <c r="C61" t="n">
-        <v>0.268982</v>
+        <v>0.270502</v>
       </c>
       <c r="D61" t="n">
-        <v>0.26228</v>
+        <v>0.263492</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.267887</v>
+        <v>0.274075</v>
       </c>
       <c r="C62" t="n">
-        <v>0.264942</v>
+        <v>0.266296</v>
       </c>
       <c r="D62" t="n">
-        <v>0.259419</v>
+        <v>0.260468</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.266199</v>
+        <v>0.271444</v>
       </c>
       <c r="C63" t="n">
-        <v>0.261951</v>
+        <v>0.263329</v>
       </c>
       <c r="D63" t="n">
-        <v>0.257879</v>
+        <v>0.259134</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.266326</v>
+        <v>0.271742</v>
       </c>
       <c r="C64" t="n">
-        <v>0.260199</v>
+        <v>0.26166</v>
       </c>
       <c r="D64" t="n">
-        <v>0.258657</v>
+        <v>0.25977</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268311</v>
+        <v>0.273268</v>
       </c>
       <c r="C65" t="n">
-        <v>0.260083</v>
+        <v>0.261571</v>
       </c>
       <c r="D65" t="n">
-        <v>0.263399</v>
+        <v>0.26256</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.27389</v>
+        <v>0.277954</v>
       </c>
       <c r="C66" t="n">
-        <v>0.262754</v>
+        <v>0.263112</v>
       </c>
       <c r="D66" t="n">
-        <v>0.334026</v>
+        <v>0.334978</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.334848</v>
+        <v>0.339037</v>
       </c>
       <c r="C67" t="n">
-        <v>0.332175</v>
+        <v>0.332828</v>
       </c>
       <c r="D67" t="n">
-        <v>0.324557</v>
+        <v>0.325721</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.324725</v>
+        <v>0.329464</v>
       </c>
       <c r="C68" t="n">
-        <v>0.323482</v>
+        <v>0.323914</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3164</v>
+        <v>0.317363</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.31737</v>
+        <v>0.320772</v>
       </c>
       <c r="C69" t="n">
-        <v>0.314877</v>
+        <v>0.315787</v>
       </c>
       <c r="D69" t="n">
-        <v>0.307941</v>
+        <v>0.309101</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.309599</v>
+        <v>0.312282</v>
       </c>
       <c r="C70" t="n">
-        <v>0.307417</v>
+        <v>0.307561</v>
       </c>
       <c r="D70" t="n">
-        <v>0.300402</v>
+        <v>0.301374</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.301527</v>
+        <v>0.30455</v>
       </c>
       <c r="C71" t="n">
-        <v>0.29972</v>
+        <v>0.300121</v>
       </c>
       <c r="D71" t="n">
-        <v>0.293239</v>
+        <v>0.29416</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.293117</v>
+        <v>0.297273</v>
       </c>
       <c r="C72" t="n">
-        <v>0.292763</v>
+        <v>0.292918</v>
       </c>
       <c r="D72" t="n">
-        <v>0.286774</v>
+        <v>0.28732</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.288572</v>
+        <v>0.290979</v>
       </c>
       <c r="C73" t="n">
-        <v>0.286554</v>
+        <v>0.28667</v>
       </c>
       <c r="D73" t="n">
-        <v>0.280857</v>
+        <v>0.281555</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.283009</v>
+        <v>0.285477</v>
       </c>
       <c r="C74" t="n">
-        <v>0.280481</v>
+        <v>0.28067</v>
       </c>
       <c r="D74" t="n">
-        <v>0.275544</v>
+        <v>0.276364</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278408</v>
+        <v>0.280185</v>
       </c>
       <c r="C75" t="n">
-        <v>0.275331</v>
+        <v>0.275567</v>
       </c>
       <c r="D75" t="n">
-        <v>0.27094</v>
+        <v>0.271518</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275003</v>
+        <v>0.276162</v>
       </c>
       <c r="C76" t="n">
-        <v>0.271008</v>
+        <v>0.270884</v>
       </c>
       <c r="D76" t="n">
-        <v>0.267752</v>
+        <v>0.268308</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.272679</v>
+        <v>0.274555</v>
       </c>
       <c r="C77" t="n">
-        <v>0.267766</v>
+        <v>0.267643</v>
       </c>
       <c r="D77" t="n">
-        <v>0.265931</v>
+        <v>0.265997</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.270722</v>
+        <v>0.274058</v>
       </c>
       <c r="C78" t="n">
-        <v>0.26499</v>
+        <v>0.265351</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265637</v>
+        <v>0.265842</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.272722</v>
+        <v>0.275086</v>
       </c>
       <c r="C79" t="n">
-        <v>0.264814</v>
+        <v>0.265137</v>
       </c>
       <c r="D79" t="n">
-        <v>0.268339</v>
+        <v>0.268621</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.276308</v>
+        <v>0.279225</v>
       </c>
       <c r="C80" t="n">
-        <v>0.267054</v>
+        <v>0.267191</v>
       </c>
       <c r="D80" t="n">
-        <v>0.341143</v>
+        <v>0.341555</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.337648</v>
+        <v>0.340059</v>
       </c>
       <c r="C81" t="n">
-        <v>0.343502</v>
+        <v>0.343373</v>
       </c>
       <c r="D81" t="n">
-        <v>0.331985</v>
+        <v>0.332468</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.329122</v>
+        <v>0.331468</v>
       </c>
       <c r="C82" t="n">
-        <v>0.334191</v>
+        <v>0.334513</v>
       </c>
       <c r="D82" t="n">
-        <v>0.32325</v>
+        <v>0.323392</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.32075</v>
+        <v>0.323322</v>
       </c>
       <c r="C83" t="n">
-        <v>0.325712</v>
+        <v>0.325804</v>
       </c>
       <c r="D83" t="n">
-        <v>0.315597</v>
+        <v>0.31509</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.311632</v>
+        <v>0.314668</v>
       </c>
       <c r="C84" t="n">
-        <v>0.319142</v>
+        <v>0.317514</v>
       </c>
       <c r="D84" t="n">
-        <v>0.308777</v>
+        <v>0.307432</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.304728</v>
+        <v>0.307021</v>
       </c>
       <c r="C85" t="n">
-        <v>0.311114</v>
+        <v>0.309714</v>
       </c>
       <c r="D85" t="n">
-        <v>0.300917</v>
+        <v>0.300017</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.297027</v>
+        <v>0.300446</v>
       </c>
       <c r="C86" t="n">
-        <v>0.303667</v>
+        <v>0.302197</v>
       </c>
       <c r="D86" t="n">
-        <v>0.294505</v>
+        <v>0.293481</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.29257</v>
+        <v>0.292795</v>
       </c>
       <c r="C87" t="n">
-        <v>0.295455</v>
+        <v>0.299469</v>
       </c>
       <c r="D87" t="n">
-        <v>0.286857</v>
+        <v>0.287278</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.285111</v>
+        <v>0.28795</v>
       </c>
       <c r="C88" t="n">
-        <v>0.289456</v>
+        <v>0.289562</v>
       </c>
       <c r="D88" t="n">
-        <v>0.281357</v>
+        <v>0.281415</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.280264</v>
+        <v>0.282081</v>
       </c>
       <c r="C89" t="n">
-        <v>0.283859</v>
+        <v>0.284294</v>
       </c>
       <c r="D89" t="n">
-        <v>0.276755</v>
+        <v>0.276686</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.276666</v>
+        <v>0.277943</v>
       </c>
       <c r="C90" t="n">
-        <v>0.279026</v>
+        <v>0.279046</v>
       </c>
       <c r="D90" t="n">
-        <v>0.272106</v>
+        <v>0.2732</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.273992</v>
+        <v>0.275133</v>
       </c>
       <c r="C91" t="n">
-        <v>0.274802</v>
+        <v>0.274883</v>
       </c>
       <c r="D91" t="n">
-        <v>0.270173</v>
+        <v>0.270233</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.272048</v>
+        <v>0.274139</v>
       </c>
       <c r="C92" t="n">
-        <v>0.272163</v>
+        <v>0.272167</v>
       </c>
       <c r="D92" t="n">
-        <v>0.269647</v>
+        <v>0.269798</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.273399</v>
+        <v>0.274918</v>
       </c>
       <c r="C93" t="n">
-        <v>0.271324</v>
+        <v>0.27109</v>
       </c>
       <c r="D93" t="n">
-        <v>0.271186</v>
+        <v>0.271647</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.27763</v>
+        <v>0.278711</v>
       </c>
       <c r="C94" t="n">
-        <v>0.272108</v>
+        <v>0.272298</v>
       </c>
       <c r="D94" t="n">
-        <v>0.355147</v>
+        <v>0.354913</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.357705</v>
+        <v>0.349685</v>
       </c>
       <c r="C95" t="n">
-        <v>0.354635</v>
+        <v>0.354718</v>
       </c>
       <c r="D95" t="n">
-        <v>0.345049</v>
+        <v>0.346366</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.350548</v>
+        <v>0.342972</v>
       </c>
       <c r="C96" t="n">
-        <v>0.34765</v>
+        <v>0.347878</v>
       </c>
       <c r="D96" t="n">
-        <v>0.33811</v>
+        <v>0.337344</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.341416</v>
+        <v>0.333995</v>
       </c>
       <c r="C97" t="n">
-        <v>0.339908</v>
+        <v>0.339798</v>
       </c>
       <c r="D97" t="n">
-        <v>0.329713</v>
+        <v>0.329621</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333063</v>
+        <v>0.326477</v>
       </c>
       <c r="C98" t="n">
-        <v>0.332042</v>
+        <v>0.331782</v>
       </c>
       <c r="D98" t="n">
-        <v>0.321545</v>
+        <v>0.32164</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.324675</v>
+        <v>0.318287</v>
       </c>
       <c r="C99" t="n">
-        <v>0.324311</v>
+        <v>0.324074</v>
       </c>
       <c r="D99" t="n">
-        <v>0.313723</v>
+        <v>0.313878</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.317199</v>
+        <v>0.311296</v>
       </c>
       <c r="C100" t="n">
-        <v>0.317289</v>
+        <v>0.317292</v>
       </c>
       <c r="D100" t="n">
-        <v>0.307374</v>
+        <v>0.307255</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310231</v>
+        <v>0.304657</v>
       </c>
       <c r="C101" t="n">
-        <v>0.310257</v>
+        <v>0.310963</v>
       </c>
       <c r="D101" t="n">
-        <v>0.301388</v>
+        <v>0.300761</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.304008</v>
+        <v>0.298863</v>
       </c>
       <c r="C102" t="n">
-        <v>0.304419</v>
+        <v>0.3044</v>
       </c>
       <c r="D102" t="n">
-        <v>0.294975</v>
+        <v>0.295628</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.29892</v>
+        <v>0.293477</v>
       </c>
       <c r="C103" t="n">
-        <v>0.298595</v>
+        <v>0.298717</v>
       </c>
       <c r="D103" t="n">
-        <v>0.290159</v>
+        <v>0.289995</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.293981</v>
+        <v>0.289096</v>
       </c>
       <c r="C104" t="n">
-        <v>0.29401</v>
+        <v>0.293924</v>
       </c>
       <c r="D104" t="n">
-        <v>0.28601</v>
+        <v>0.285619</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.290767</v>
+        <v>0.286145</v>
       </c>
       <c r="C105" t="n">
-        <v>0.289707</v>
+        <v>0.289815</v>
       </c>
       <c r="D105" t="n">
-        <v>0.283131</v>
+        <v>0.283138</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.288886</v>
+        <v>0.284581</v>
       </c>
       <c r="C106" t="n">
-        <v>0.286538</v>
+        <v>0.286449</v>
       </c>
       <c r="D106" t="n">
-        <v>0.281354</v>
+        <v>0.28166</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.288966</v>
+        <v>0.284224</v>
       </c>
       <c r="C107" t="n">
-        <v>0.284747</v>
+        <v>0.28466</v>
       </c>
       <c r="D107" t="n">
-        <v>0.282743</v>
+        <v>0.2829</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.292461</v>
+        <v>0.287339</v>
       </c>
       <c r="C108" t="n">
-        <v>0.285538</v>
+        <v>0.285261</v>
       </c>
       <c r="D108" t="n">
-        <v>0.369063</v>
+        <v>0.369039</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.299208</v>
+        <v>0.294735</v>
       </c>
       <c r="C109" t="n">
-        <v>0.289088</v>
+        <v>0.28989</v>
       </c>
       <c r="D109" t="n">
-        <v>0.363057</v>
+        <v>0.363135</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.36924</v>
+        <v>0.357064</v>
       </c>
       <c r="C110" t="n">
-        <v>0.366119</v>
+        <v>0.366429</v>
       </c>
       <c r="D110" t="n">
-        <v>0.355826</v>
+        <v>0.356022</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.361624</v>
+        <v>0.350226</v>
       </c>
       <c r="C111" t="n">
-        <v>0.359389</v>
+        <v>0.359605</v>
       </c>
       <c r="D111" t="n">
-        <v>0.349072</v>
+        <v>0.349064</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.354146</v>
+        <v>0.342801</v>
       </c>
       <c r="C112" t="n">
-        <v>0.353108</v>
+        <v>0.352918</v>
       </c>
       <c r="D112" t="n">
-        <v>0.342187</v>
+        <v>0.342371</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.347136</v>
+        <v>0.335796</v>
       </c>
       <c r="C113" t="n">
-        <v>0.346649</v>
+        <v>0.346661</v>
       </c>
       <c r="D113" t="n">
-        <v>0.336123</v>
+        <v>0.335895</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.34054</v>
+        <v>0.329359</v>
       </c>
       <c r="C114" t="n">
-        <v>0.340796</v>
+        <v>0.340522</v>
       </c>
       <c r="D114" t="n">
-        <v>0.330053</v>
+        <v>0.329805</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.334614</v>
+        <v>0.323905</v>
       </c>
       <c r="C115" t="n">
-        <v>0.335436</v>
+        <v>0.335269</v>
       </c>
       <c r="D115" t="n">
-        <v>0.324464</v>
+        <v>0.324777</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.328939</v>
+        <v>0.318941</v>
       </c>
       <c r="C116" t="n">
-        <v>0.330265</v>
+        <v>0.330313</v>
       </c>
       <c r="D116" t="n">
-        <v>0.319646</v>
+        <v>0.319774</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.32454</v>
+        <v>0.314782</v>
       </c>
       <c r="C117" t="n">
-        <v>0.325773</v>
+        <v>0.326086</v>
       </c>
       <c r="D117" t="n">
-        <v>0.315453</v>
+        <v>0.317891</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.320455</v>
+        <v>0.311412</v>
       </c>
       <c r="C118" t="n">
-        <v>0.322118</v>
+        <v>0.321989</v>
       </c>
       <c r="D118" t="n">
-        <v>0.312363</v>
+        <v>0.311936</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.317642</v>
+        <v>0.307923</v>
       </c>
       <c r="C119" t="n">
-        <v>0.318787</v>
+        <v>0.319181</v>
       </c>
       <c r="D119" t="n">
-        <v>0.309041</v>
+        <v>0.309583</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.316023</v>
+        <v>0.306856</v>
       </c>
       <c r="C120" t="n">
-        <v>0.316694</v>
+        <v>0.317246</v>
       </c>
       <c r="D120" t="n">
-        <v>0.308363</v>
+        <v>0.308427</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.316018</v>
+        <v>0.307213</v>
       </c>
       <c r="C121" t="n">
-        <v>0.315976</v>
+        <v>0.316266</v>
       </c>
       <c r="D121" t="n">
-        <v>0.308997</v>
+        <v>0.309303</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.318384</v>
+        <v>0.310473</v>
       </c>
       <c r="C122" t="n">
-        <v>0.316977</v>
+        <v>0.317232</v>
       </c>
       <c r="D122" t="n">
-        <v>0.312185</v>
+        <v>0.312744</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.32408</v>
+        <v>0.316656</v>
       </c>
       <c r="C123" t="n">
-        <v>0.320874</v>
+        <v>0.321394</v>
       </c>
       <c r="D123" t="n">
-        <v>0.391815</v>
+        <v>0.39228</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.390505</v>
+        <v>0.392029</v>
       </c>
       <c r="C124" t="n">
-        <v>0.399619</v>
+        <v>0.39992</v>
       </c>
       <c r="D124" t="n">
-        <v>0.387689</v>
+        <v>0.387905</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.385583</v>
+        <v>0.387674</v>
       </c>
       <c r="C125" t="n">
-        <v>0.395324</v>
+        <v>0.395946</v>
       </c>
       <c r="D125" t="n">
-        <v>0.38346</v>
+        <v>0.383418</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.381443</v>
+        <v>0.383063</v>
       </c>
       <c r="C126" t="n">
-        <v>0.391437</v>
+        <v>0.392121</v>
       </c>
       <c r="D126" t="n">
-        <v>0.37906</v>
+        <v>0.379826</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.376558</v>
+        <v>0.378625</v>
       </c>
       <c r="C127" t="n">
-        <v>0.388246</v>
+        <v>0.388857</v>
       </c>
       <c r="D127" t="n">
-        <v>0.376003</v>
+        <v>0.376496</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.373164</v>
+        <v>0.37471</v>
       </c>
       <c r="C128" t="n">
-        <v>0.385254</v>
+        <v>0.385358</v>
       </c>
       <c r="D128" t="n">
-        <v>0.37248</v>
+        <v>0.373018</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3695</v>
+        <v>0.371106</v>
       </c>
       <c r="C129" t="n">
-        <v>0.382185</v>
+        <v>0.382653</v>
       </c>
       <c r="D129" t="n">
-        <v>0.369786</v>
+        <v>0.370134</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.367178</v>
+        <v>0.368769</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3797</v>
+        <v>0.380486</v>
       </c>
       <c r="D130" t="n">
-        <v>0.367126</v>
+        <v>0.367411</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.364707</v>
+        <v>0.365408</v>
       </c>
       <c r="C131" t="n">
-        <v>0.377763</v>
+        <v>0.379387</v>
       </c>
       <c r="D131" t="n">
-        <v>0.364468</v>
+        <v>0.366749</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.362679</v>
+        <v>0.363787</v>
       </c>
       <c r="C132" t="n">
-        <v>0.376078</v>
+        <v>0.378393</v>
       </c>
       <c r="D132" t="n">
-        <v>0.363498</v>
+        <v>0.364636</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.361443</v>
+        <v>0.36205</v>
       </c>
       <c r="C133" t="n">
-        <v>0.374775</v>
+        <v>0.376569</v>
       </c>
       <c r="D133" t="n">
-        <v>0.361525</v>
+        <v>0.363465</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.361113</v>
+        <v>0.362187</v>
       </c>
       <c r="C134" t="n">
-        <v>0.374595</v>
+        <v>0.375684</v>
       </c>
       <c r="D134" t="n">
-        <v>0.361677</v>
+        <v>0.364801</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.362815</v>
+        <v>0.365422</v>
       </c>
       <c r="C135" t="n">
-        <v>0.375012</v>
+        <v>0.376217</v>
       </c>
       <c r="D135" t="n">
-        <v>0.362977</v>
+        <v>0.363504</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.36576</v>
+        <v>0.366229</v>
       </c>
       <c r="C136" t="n">
-        <v>0.376251</v>
+        <v>0.37719</v>
       </c>
       <c r="D136" t="n">
-        <v>0.366573</v>
+        <v>0.366808</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.370511</v>
+        <v>0.371473</v>
       </c>
       <c r="C137" t="n">
-        <v>0.380835</v>
+        <v>0.381469</v>
       </c>
       <c r="D137" t="n">
-        <v>0.448761</v>
+        <v>0.448879</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.44296</v>
+        <v>0.454819</v>
       </c>
       <c r="C138" t="n">
-        <v>0.460751</v>
+        <v>0.460604</v>
       </c>
       <c r="D138" t="n">
-        <v>0.447115</v>
+        <v>0.44753</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.441602</v>
+        <v>0.453529</v>
       </c>
       <c r="C139" t="n">
-        <v>0.460769</v>
+        <v>0.460261</v>
       </c>
       <c r="D139" t="n">
-        <v>0.447008</v>
+        <v>0.446968</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.440719</v>
+        <v>0.452164</v>
       </c>
       <c r="C140" t="n">
-        <v>0.458895</v>
+        <v>0.45965</v>
       </c>
       <c r="D140" t="n">
-        <v>0.447037</v>
+        <v>0.447642</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.440125</v>
+        <v>0.450934</v>
       </c>
       <c r="C141" t="n">
-        <v>0.458897</v>
+        <v>0.459305</v>
       </c>
       <c r="D141" t="n">
-        <v>0.446164</v>
+        <v>0.446777</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.439355</v>
+        <v>0.449605</v>
       </c>
       <c r="C142" t="n">
-        <v>0.458652</v>
+        <v>0.458946</v>
       </c>
       <c r="D142" t="n">
-        <v>0.445919</v>
+        <v>0.446989</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.439937</v>
+        <v>0.449532</v>
       </c>
       <c r="C143" t="n">
-        <v>0.457842</v>
+        <v>0.4586</v>
       </c>
       <c r="D143" t="n">
-        <v>0.44615</v>
+        <v>0.447049</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.259966</v>
+        <v>0.262945</v>
       </c>
       <c r="C2" t="n">
-        <v>0.253652</v>
+        <v>0.251392</v>
       </c>
       <c r="D2" t="n">
-        <v>0.246644</v>
+        <v>0.245568</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.268838</v>
+        <v>0.274232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.249416</v>
+        <v>0.246622</v>
       </c>
       <c r="D3" t="n">
-        <v>0.241819</v>
+        <v>0.240871</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.27085</v>
+        <v>0.262343</v>
       </c>
       <c r="C4" t="n">
-        <v>0.244381</v>
+        <v>0.242781</v>
       </c>
       <c r="D4" t="n">
-        <v>0.238038</v>
+        <v>0.238744</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.258685</v>
+        <v>0.266014</v>
       </c>
       <c r="C5" t="n">
-        <v>0.241226</v>
+        <v>0.239302</v>
       </c>
       <c r="D5" t="n">
-        <v>0.235783</v>
+        <v>0.235454</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.264231</v>
+        <v>0.261194</v>
       </c>
       <c r="C6" t="n">
-        <v>0.240036</v>
+        <v>0.238176</v>
       </c>
       <c r="D6" t="n">
-        <v>0.235103</v>
+        <v>0.235245</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.263024</v>
+        <v>0.262206</v>
       </c>
       <c r="C7" t="n">
-        <v>0.23831</v>
+        <v>0.236596</v>
       </c>
       <c r="D7" t="n">
-        <v>0.235318</v>
+        <v>0.234792</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.263384</v>
+        <v>0.263965</v>
       </c>
       <c r="C8" t="n">
-        <v>0.238167</v>
+        <v>0.236722</v>
       </c>
       <c r="D8" t="n">
-        <v>0.237009</v>
+        <v>0.23627</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.266264</v>
+        <v>0.267136</v>
       </c>
       <c r="C9" t="n">
-        <v>0.239606</v>
+        <v>0.238848</v>
       </c>
       <c r="D9" t="n">
-        <v>0.305493</v>
+        <v>0.320163</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.324788</v>
+        <v>0.325237</v>
       </c>
       <c r="C10" t="n">
-        <v>0.31981</v>
+        <v>0.317412</v>
       </c>
       <c r="D10" t="n">
-        <v>0.294937</v>
+        <v>0.304994</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.31529</v>
+        <v>0.315862</v>
       </c>
       <c r="C11" t="n">
-        <v>0.310196</v>
+        <v>0.303444</v>
       </c>
       <c r="D11" t="n">
-        <v>0.301415</v>
+        <v>0.302994</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.306855</v>
+        <v>0.307078</v>
       </c>
       <c r="C12" t="n">
-        <v>0.302388</v>
+        <v>0.300033</v>
       </c>
       <c r="D12" t="n">
-        <v>0.294026</v>
+        <v>0.294427</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2969</v>
+        <v>0.298927</v>
       </c>
       <c r="C13" t="n">
-        <v>0.298197</v>
+        <v>0.292471</v>
       </c>
       <c r="D13" t="n">
-        <v>0.282381</v>
+        <v>0.287479</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.289689</v>
+        <v>0.290895</v>
       </c>
       <c r="C14" t="n">
-        <v>0.284814</v>
+        <v>0.277611</v>
       </c>
       <c r="D14" t="n">
-        <v>0.279139</v>
+        <v>0.271746</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.282731</v>
+        <v>0.284256</v>
       </c>
       <c r="C15" t="n">
-        <v>0.282647</v>
+        <v>0.271525</v>
       </c>
       <c r="D15" t="n">
-        <v>0.269534</v>
+        <v>0.273532</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.277977</v>
+        <v>0.278036</v>
       </c>
       <c r="C16" t="n">
-        <v>0.27546</v>
+        <v>0.2645</v>
       </c>
       <c r="D16" t="n">
-        <v>0.267394</v>
+        <v>0.255536</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.271561</v>
+        <v>0.270975</v>
       </c>
       <c r="C17" t="n">
-        <v>0.270355</v>
+        <v>0.26287</v>
       </c>
       <c r="D17" t="n">
-        <v>0.261255</v>
+        <v>0.256157</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.266652</v>
+        <v>0.268233</v>
       </c>
       <c r="C18" t="n">
-        <v>0.265357</v>
+        <v>0.260872</v>
       </c>
       <c r="D18" t="n">
-        <v>0.254894</v>
+        <v>0.257191</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.26232</v>
+        <v>0.262753</v>
       </c>
       <c r="C19" t="n">
-        <v>0.25718</v>
+        <v>0.253513</v>
       </c>
       <c r="D19" t="n">
-        <v>0.251718</v>
+        <v>0.247199</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.259303</v>
+        <v>0.26055</v>
       </c>
       <c r="C20" t="n">
-        <v>0.256969</v>
+        <v>0.251375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.252326</v>
+        <v>0.250232</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.257637</v>
+        <v>0.259267</v>
       </c>
       <c r="C21" t="n">
-        <v>0.246582</v>
+        <v>0.250524</v>
       </c>
       <c r="D21" t="n">
-        <v>0.249503</v>
+        <v>0.250736</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.258359</v>
+        <v>0.260624</v>
       </c>
       <c r="C22" t="n">
-        <v>0.249154</v>
+        <v>0.249664</v>
       </c>
       <c r="D22" t="n">
-        <v>0.246674</v>
+        <v>0.251339</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.262217</v>
+        <v>0.263488</v>
       </c>
       <c r="C23" t="n">
-        <v>0.251692</v>
+        <v>0.25066</v>
       </c>
       <c r="D23" t="n">
-        <v>0.314713</v>
+        <v>0.315545</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.32538</v>
+        <v>0.32792</v>
       </c>
       <c r="C24" t="n">
-        <v>0.316797</v>
+        <v>0.309687</v>
       </c>
       <c r="D24" t="n">
-        <v>0.306091</v>
+        <v>0.306061</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.315759</v>
+        <v>0.319184</v>
       </c>
       <c r="C25" t="n">
-        <v>0.308434</v>
+        <v>0.300447</v>
       </c>
       <c r="D25" t="n">
-        <v>0.298133</v>
+        <v>0.298345</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.307217</v>
+        <v>0.31069</v>
       </c>
       <c r="C26" t="n">
-        <v>0.30013</v>
+        <v>0.293079</v>
       </c>
       <c r="D26" t="n">
-        <v>0.290575</v>
+        <v>0.290597</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.298781</v>
+        <v>0.302354</v>
       </c>
       <c r="C27" t="n">
-        <v>0.292377</v>
+        <v>0.285662</v>
       </c>
       <c r="D27" t="n">
-        <v>0.283524</v>
+        <v>0.283038</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.291647</v>
+        <v>0.294249</v>
       </c>
       <c r="C28" t="n">
-        <v>0.28488</v>
+        <v>0.278627</v>
       </c>
       <c r="D28" t="n">
-        <v>0.275542</v>
+        <v>0.276164</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.284919</v>
+        <v>0.287122</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2782</v>
+        <v>0.271619</v>
       </c>
       <c r="D29" t="n">
-        <v>0.269214</v>
+        <v>0.269804</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.277865</v>
+        <v>0.280755</v>
       </c>
       <c r="C30" t="n">
-        <v>0.271863</v>
+        <v>0.266572</v>
       </c>
       <c r="D30" t="n">
-        <v>0.263706</v>
+        <v>0.263864</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.272408</v>
+        <v>0.274236</v>
       </c>
       <c r="C31" t="n">
-        <v>0.266385</v>
+        <v>0.261184</v>
       </c>
       <c r="D31" t="n">
-        <v>0.258344</v>
+        <v>0.258706</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.266718</v>
+        <v>0.268935</v>
       </c>
       <c r="C32" t="n">
-        <v>0.261331</v>
+        <v>0.255614</v>
       </c>
       <c r="D32" t="n">
-        <v>0.253842</v>
+        <v>0.253743</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.262989</v>
+        <v>0.265346</v>
       </c>
       <c r="C33" t="n">
-        <v>0.256562</v>
+        <v>0.251534</v>
       </c>
       <c r="D33" t="n">
-        <v>0.250391</v>
+        <v>0.250506</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.259701</v>
+        <v>0.261948</v>
       </c>
       <c r="C34" t="n">
-        <v>0.252569</v>
+        <v>0.247754</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247841</v>
+        <v>0.247413</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.25856</v>
+        <v>0.260912</v>
       </c>
       <c r="C35" t="n">
-        <v>0.250224</v>
+        <v>0.245258</v>
       </c>
       <c r="D35" t="n">
-        <v>0.246251</v>
+        <v>0.246483</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.258364</v>
+        <v>0.261352</v>
       </c>
       <c r="C36" t="n">
-        <v>0.248971</v>
+        <v>0.24437</v>
       </c>
       <c r="D36" t="n">
-        <v>0.24792</v>
+        <v>0.248104</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.261702</v>
+        <v>0.263705</v>
       </c>
       <c r="C37" t="n">
-        <v>0.249476</v>
+        <v>0.245576</v>
       </c>
       <c r="D37" t="n">
-        <v>0.32419</v>
+        <v>0.32482</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.334522</v>
+        <v>0.337423</v>
       </c>
       <c r="C38" t="n">
-        <v>0.327482</v>
+        <v>0.318115</v>
       </c>
       <c r="D38" t="n">
-        <v>0.314349</v>
+        <v>0.316444</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.32424</v>
+        <v>0.326722</v>
       </c>
       <c r="C39" t="n">
-        <v>0.317537</v>
+        <v>0.309313</v>
       </c>
       <c r="D39" t="n">
-        <v>0.30688</v>
+        <v>0.306786</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.315902</v>
+        <v>0.317908</v>
       </c>
       <c r="C40" t="n">
-        <v>0.309504</v>
+        <v>0.299898</v>
       </c>
       <c r="D40" t="n">
-        <v>0.298082</v>
+        <v>0.300011</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.307703</v>
+        <v>0.308225</v>
       </c>
       <c r="C41" t="n">
-        <v>0.301955</v>
+        <v>0.29389</v>
       </c>
       <c r="D41" t="n">
-        <v>0.291159</v>
+        <v>0.291878</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.29931</v>
+        <v>0.30055</v>
       </c>
       <c r="C42" t="n">
-        <v>0.294124</v>
+        <v>0.285326</v>
       </c>
       <c r="D42" t="n">
-        <v>0.284279</v>
+        <v>0.285209</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.293811</v>
+        <v>0.294759</v>
       </c>
       <c r="C43" t="n">
-        <v>0.287045</v>
+        <v>0.280043</v>
       </c>
       <c r="D43" t="n">
-        <v>0.278085</v>
+        <v>0.278489</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.285672</v>
+        <v>0.286835</v>
       </c>
       <c r="C44" t="n">
-        <v>0.279288</v>
+        <v>0.273895</v>
       </c>
       <c r="D44" t="n">
-        <v>0.270413</v>
+        <v>0.272171</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.280972</v>
+        <v>0.280908</v>
       </c>
       <c r="C45" t="n">
-        <v>0.274302</v>
+        <v>0.268119</v>
       </c>
       <c r="D45" t="n">
-        <v>0.266499</v>
+        <v>0.266867</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.274639</v>
+        <v>0.276964</v>
       </c>
       <c r="C46" t="n">
-        <v>0.268622</v>
+        <v>0.263043</v>
       </c>
       <c r="D46" t="n">
-        <v>0.260267</v>
+        <v>0.261597</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.269649</v>
+        <v>0.272047</v>
       </c>
       <c r="C47" t="n">
-        <v>0.263995</v>
+        <v>0.258316</v>
       </c>
       <c r="D47" t="n">
-        <v>0.257542</v>
+        <v>0.258048</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265788</v>
+        <v>0.269237</v>
       </c>
       <c r="C48" t="n">
-        <v>0.259815</v>
+        <v>0.254355</v>
       </c>
       <c r="D48" t="n">
-        <v>0.251976</v>
+        <v>0.255251</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.265681</v>
+        <v>0.266384</v>
       </c>
       <c r="C49" t="n">
-        <v>0.25746</v>
+        <v>0.251647</v>
       </c>
       <c r="D49" t="n">
-        <v>0.253263</v>
+        <v>0.254066</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.265629</v>
+        <v>0.266269</v>
       </c>
       <c r="C50" t="n">
-        <v>0.25584</v>
+        <v>0.250783</v>
       </c>
       <c r="D50" t="n">
-        <v>0.254665</v>
+        <v>0.254928</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.26848</v>
+        <v>0.270043</v>
       </c>
       <c r="C51" t="n">
-        <v>0.255692</v>
+        <v>0.251291</v>
       </c>
       <c r="D51" t="n">
-        <v>0.331701</v>
+        <v>0.333691</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.275585</v>
+        <v>0.276732</v>
       </c>
       <c r="C52" t="n">
-        <v>0.259022</v>
+        <v>0.255424</v>
       </c>
       <c r="D52" t="n">
-        <v>0.322641</v>
+        <v>0.323939</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.333703</v>
+        <v>0.331829</v>
       </c>
       <c r="C53" t="n">
-        <v>0.32573</v>
+        <v>0.318414</v>
       </c>
       <c r="D53" t="n">
-        <v>0.314366</v>
+        <v>0.315846</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.323388</v>
+        <v>0.322951</v>
       </c>
       <c r="C54" t="n">
-        <v>0.317237</v>
+        <v>0.309931</v>
       </c>
       <c r="D54" t="n">
-        <v>0.305961</v>
+        <v>0.307018</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.314261</v>
+        <v>0.313749</v>
       </c>
       <c r="C55" t="n">
-        <v>0.308799</v>
+        <v>0.302342</v>
       </c>
       <c r="D55" t="n">
-        <v>0.29822</v>
+        <v>0.299011</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.306733</v>
+        <v>0.307136</v>
       </c>
       <c r="C56" t="n">
-        <v>0.301062</v>
+        <v>0.294562</v>
       </c>
       <c r="D56" t="n">
-        <v>0.290814</v>
+        <v>0.291919</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.299756</v>
+        <v>0.298583</v>
       </c>
       <c r="C57" t="n">
-        <v>0.293596</v>
+        <v>0.287366</v>
       </c>
       <c r="D57" t="n">
-        <v>0.283835</v>
+        <v>0.284553</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.292921</v>
+        <v>0.291919</v>
       </c>
       <c r="C58" t="n">
-        <v>0.286859</v>
+        <v>0.281029</v>
       </c>
       <c r="D58" t="n">
-        <v>0.277889</v>
+        <v>0.278448</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.285533</v>
+        <v>0.285899</v>
       </c>
       <c r="C59" t="n">
-        <v>0.280109</v>
+        <v>0.274749</v>
       </c>
       <c r="D59" t="n">
-        <v>0.271895</v>
+        <v>0.272547</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.280255</v>
+        <v>0.281028</v>
       </c>
       <c r="C60" t="n">
-        <v>0.275938</v>
+        <v>0.269602</v>
       </c>
       <c r="D60" t="n">
-        <v>0.267829</v>
+        <v>0.267753</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.277594</v>
+        <v>0.27585</v>
       </c>
       <c r="C61" t="n">
-        <v>0.270502</v>
+        <v>0.264398</v>
       </c>
       <c r="D61" t="n">
-        <v>0.263492</v>
+        <v>0.26355</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274075</v>
+        <v>0.272919</v>
       </c>
       <c r="C62" t="n">
-        <v>0.266296</v>
+        <v>0.260769</v>
       </c>
       <c r="D62" t="n">
-        <v>0.260468</v>
+        <v>0.260967</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.271444</v>
+        <v>0.269745</v>
       </c>
       <c r="C63" t="n">
-        <v>0.263329</v>
+        <v>0.257491</v>
       </c>
       <c r="D63" t="n">
-        <v>0.259134</v>
+        <v>0.258831</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.271742</v>
+        <v>0.27041</v>
       </c>
       <c r="C64" t="n">
-        <v>0.26166</v>
+        <v>0.255906</v>
       </c>
       <c r="D64" t="n">
-        <v>0.25977</v>
+        <v>0.259112</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.273268</v>
+        <v>0.270739</v>
       </c>
       <c r="C65" t="n">
-        <v>0.261571</v>
+        <v>0.256289</v>
       </c>
       <c r="D65" t="n">
-        <v>0.26256</v>
+        <v>0.262963</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.277954</v>
+        <v>0.276306</v>
       </c>
       <c r="C66" t="n">
-        <v>0.263112</v>
+        <v>0.259074</v>
       </c>
       <c r="D66" t="n">
-        <v>0.334978</v>
+        <v>0.33637</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.339037</v>
+        <v>0.338344</v>
       </c>
       <c r="C67" t="n">
-        <v>0.332828</v>
+        <v>0.325699</v>
       </c>
       <c r="D67" t="n">
-        <v>0.325721</v>
+        <v>0.327131</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.329464</v>
+        <v>0.328845</v>
       </c>
       <c r="C68" t="n">
-        <v>0.323914</v>
+        <v>0.317012</v>
       </c>
       <c r="D68" t="n">
-        <v>0.317363</v>
+        <v>0.318774</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.320772</v>
+        <v>0.320693</v>
       </c>
       <c r="C69" t="n">
-        <v>0.315787</v>
+        <v>0.308631</v>
       </c>
       <c r="D69" t="n">
-        <v>0.309101</v>
+        <v>0.309943</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.312282</v>
+        <v>0.313036</v>
       </c>
       <c r="C70" t="n">
-        <v>0.307561</v>
+        <v>0.300952</v>
       </c>
       <c r="D70" t="n">
-        <v>0.301374</v>
+        <v>0.302514</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.30455</v>
+        <v>0.303951</v>
       </c>
       <c r="C71" t="n">
-        <v>0.300121</v>
+        <v>0.293804</v>
       </c>
       <c r="D71" t="n">
-        <v>0.29416</v>
+        <v>0.29499</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.297273</v>
+        <v>0.29761</v>
       </c>
       <c r="C72" t="n">
-        <v>0.292918</v>
+        <v>0.287324</v>
       </c>
       <c r="D72" t="n">
-        <v>0.28732</v>
+        <v>0.288557</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.290979</v>
+        <v>0.291808</v>
       </c>
       <c r="C73" t="n">
-        <v>0.28667</v>
+        <v>0.281122</v>
       </c>
       <c r="D73" t="n">
-        <v>0.281555</v>
+        <v>0.282081</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.285477</v>
+        <v>0.286013</v>
       </c>
       <c r="C74" t="n">
-        <v>0.28067</v>
+        <v>0.275431</v>
       </c>
       <c r="D74" t="n">
-        <v>0.276364</v>
+        <v>0.276982</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.280185</v>
+        <v>0.280393</v>
       </c>
       <c r="C75" t="n">
-        <v>0.275567</v>
+        <v>0.270192</v>
       </c>
       <c r="D75" t="n">
-        <v>0.271518</v>
+        <v>0.272386</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276162</v>
+        <v>0.276796</v>
       </c>
       <c r="C76" t="n">
-        <v>0.270884</v>
+        <v>0.266114</v>
       </c>
       <c r="D76" t="n">
-        <v>0.268308</v>
+        <v>0.26883</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.274555</v>
+        <v>0.274432</v>
       </c>
       <c r="C77" t="n">
-        <v>0.267643</v>
+        <v>0.262645</v>
       </c>
       <c r="D77" t="n">
-        <v>0.265997</v>
+        <v>0.266715</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.274058</v>
+        <v>0.273576</v>
       </c>
       <c r="C78" t="n">
-        <v>0.265351</v>
+        <v>0.260721</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265842</v>
+        <v>0.266217</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.275086</v>
+        <v>0.274666</v>
       </c>
       <c r="C79" t="n">
-        <v>0.265137</v>
+        <v>0.260676</v>
       </c>
       <c r="D79" t="n">
-        <v>0.268621</v>
+        <v>0.269199</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.279225</v>
+        <v>0.278935</v>
       </c>
       <c r="C80" t="n">
-        <v>0.267191</v>
+        <v>0.263605</v>
       </c>
       <c r="D80" t="n">
-        <v>0.341555</v>
+        <v>0.345101</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.340059</v>
+        <v>0.339099</v>
       </c>
       <c r="C81" t="n">
-        <v>0.343373</v>
+        <v>0.338183</v>
       </c>
       <c r="D81" t="n">
-        <v>0.332468</v>
+        <v>0.335176</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.331468</v>
+        <v>0.329429</v>
       </c>
       <c r="C82" t="n">
-        <v>0.334513</v>
+        <v>0.328621</v>
       </c>
       <c r="D82" t="n">
-        <v>0.323392</v>
+        <v>0.326439</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.323322</v>
+        <v>0.32093</v>
       </c>
       <c r="C83" t="n">
-        <v>0.325804</v>
+        <v>0.32008</v>
       </c>
       <c r="D83" t="n">
-        <v>0.31509</v>
+        <v>0.317938</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.314668</v>
+        <v>0.312814</v>
       </c>
       <c r="C84" t="n">
-        <v>0.317514</v>
+        <v>0.312339</v>
       </c>
       <c r="D84" t="n">
-        <v>0.307432</v>
+        <v>0.310023</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.307021</v>
+        <v>0.306004</v>
       </c>
       <c r="C85" t="n">
-        <v>0.309714</v>
+        <v>0.30349</v>
       </c>
       <c r="D85" t="n">
-        <v>0.300017</v>
+        <v>0.301347</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.300446</v>
+        <v>0.299688</v>
       </c>
       <c r="C86" t="n">
-        <v>0.302197</v>
+        <v>0.296262</v>
       </c>
       <c r="D86" t="n">
-        <v>0.293481</v>
+        <v>0.294319</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.292795</v>
+        <v>0.292388</v>
       </c>
       <c r="C87" t="n">
-        <v>0.299469</v>
+        <v>0.289464</v>
       </c>
       <c r="D87" t="n">
-        <v>0.287278</v>
+        <v>0.287666</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.28795</v>
+        <v>0.287425</v>
       </c>
       <c r="C88" t="n">
-        <v>0.289562</v>
+        <v>0.283686</v>
       </c>
       <c r="D88" t="n">
-        <v>0.281415</v>
+        <v>0.28226</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.282081</v>
+        <v>0.281748</v>
       </c>
       <c r="C89" t="n">
-        <v>0.284294</v>
+        <v>0.278387</v>
       </c>
       <c r="D89" t="n">
-        <v>0.276686</v>
+        <v>0.277863</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277943</v>
+        <v>0.277773</v>
       </c>
       <c r="C90" t="n">
-        <v>0.279046</v>
+        <v>0.273616</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2732</v>
+        <v>0.273511</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.275133</v>
+        <v>0.275301</v>
       </c>
       <c r="C91" t="n">
-        <v>0.274883</v>
+        <v>0.269643</v>
       </c>
       <c r="D91" t="n">
-        <v>0.270233</v>
+        <v>0.270748</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.274139</v>
+        <v>0.2733</v>
       </c>
       <c r="C92" t="n">
-        <v>0.272167</v>
+        <v>0.267142</v>
       </c>
       <c r="D92" t="n">
-        <v>0.269798</v>
+        <v>0.269618</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.274918</v>
+        <v>0.275464</v>
       </c>
       <c r="C93" t="n">
-        <v>0.27109</v>
+        <v>0.266172</v>
       </c>
       <c r="D93" t="n">
-        <v>0.271647</v>
+        <v>0.271586</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.278711</v>
+        <v>0.27898</v>
       </c>
       <c r="C94" t="n">
-        <v>0.272298</v>
+        <v>0.267558</v>
       </c>
       <c r="D94" t="n">
-        <v>0.354913</v>
+        <v>0.356614</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.349685</v>
+        <v>0.349747</v>
       </c>
       <c r="C95" t="n">
-        <v>0.354718</v>
+        <v>0.347252</v>
       </c>
       <c r="D95" t="n">
-        <v>0.346366</v>
+        <v>0.347997</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.342972</v>
+        <v>0.343216</v>
       </c>
       <c r="C96" t="n">
-        <v>0.347878</v>
+        <v>0.340668</v>
       </c>
       <c r="D96" t="n">
-        <v>0.337344</v>
+        <v>0.338992</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.333995</v>
+        <v>0.334519</v>
       </c>
       <c r="C97" t="n">
-        <v>0.339798</v>
+        <v>0.332828</v>
       </c>
       <c r="D97" t="n">
-        <v>0.329621</v>
+        <v>0.330725</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.326477</v>
+        <v>0.32564</v>
       </c>
       <c r="C98" t="n">
-        <v>0.331782</v>
+        <v>0.325337</v>
       </c>
       <c r="D98" t="n">
-        <v>0.32164</v>
+        <v>0.322982</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.318287</v>
+        <v>0.318276</v>
       </c>
       <c r="C99" t="n">
-        <v>0.324074</v>
+        <v>0.318042</v>
       </c>
       <c r="D99" t="n">
-        <v>0.313878</v>
+        <v>0.315774</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.311296</v>
+        <v>0.311054</v>
       </c>
       <c r="C100" t="n">
-        <v>0.317292</v>
+        <v>0.311117</v>
       </c>
       <c r="D100" t="n">
-        <v>0.307255</v>
+        <v>0.30844</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.304657</v>
+        <v>0.304565</v>
       </c>
       <c r="C101" t="n">
-        <v>0.310963</v>
+        <v>0.304468</v>
       </c>
       <c r="D101" t="n">
-        <v>0.300761</v>
+        <v>0.302074</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.298863</v>
+        <v>0.298315</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3044</v>
+        <v>0.298348</v>
       </c>
       <c r="D102" t="n">
-        <v>0.295628</v>
+        <v>0.296102</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293477</v>
+        <v>0.293203</v>
       </c>
       <c r="C103" t="n">
-        <v>0.298717</v>
+        <v>0.293263</v>
       </c>
       <c r="D103" t="n">
-        <v>0.289995</v>
+        <v>0.291057</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.289096</v>
+        <v>0.28898</v>
       </c>
       <c r="C104" t="n">
-        <v>0.293924</v>
+        <v>0.288439</v>
       </c>
       <c r="D104" t="n">
-        <v>0.285619</v>
+        <v>0.28687</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.286145</v>
+        <v>0.285324</v>
       </c>
       <c r="C105" t="n">
-        <v>0.289815</v>
+        <v>0.284352</v>
       </c>
       <c r="D105" t="n">
-        <v>0.283138</v>
+        <v>0.283041</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.284581</v>
+        <v>0.283671</v>
       </c>
       <c r="C106" t="n">
-        <v>0.286449</v>
+        <v>0.28083</v>
       </c>
       <c r="D106" t="n">
-        <v>0.28166</v>
+        <v>0.282473</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.284224</v>
+        <v>0.283533</v>
       </c>
       <c r="C107" t="n">
-        <v>0.28466</v>
+        <v>0.279912</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2829</v>
+        <v>0.283072</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.287339</v>
+        <v>0.287181</v>
       </c>
       <c r="C108" t="n">
-        <v>0.285261</v>
+        <v>0.280709</v>
       </c>
       <c r="D108" t="n">
-        <v>0.369039</v>
+        <v>0.370254</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.294735</v>
+        <v>0.293585</v>
       </c>
       <c r="C109" t="n">
-        <v>0.28989</v>
+        <v>0.284313</v>
       </c>
       <c r="D109" t="n">
-        <v>0.363135</v>
+        <v>0.365197</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.357064</v>
+        <v>0.35638</v>
       </c>
       <c r="C110" t="n">
-        <v>0.366429</v>
+        <v>0.359501</v>
       </c>
       <c r="D110" t="n">
-        <v>0.356022</v>
+        <v>0.357383</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.350226</v>
+        <v>0.349395</v>
       </c>
       <c r="C111" t="n">
-        <v>0.359605</v>
+        <v>0.352856</v>
       </c>
       <c r="D111" t="n">
-        <v>0.349064</v>
+        <v>0.350584</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342801</v>
+        <v>0.342441</v>
       </c>
       <c r="C112" t="n">
-        <v>0.352918</v>
+        <v>0.345537</v>
       </c>
       <c r="D112" t="n">
-        <v>0.342371</v>
+        <v>0.343538</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.335796</v>
+        <v>0.335205</v>
       </c>
       <c r="C113" t="n">
-        <v>0.346661</v>
+        <v>0.340358</v>
       </c>
       <c r="D113" t="n">
-        <v>0.335895</v>
+        <v>0.336867</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.329359</v>
+        <v>0.329363</v>
       </c>
       <c r="C114" t="n">
-        <v>0.340522</v>
+        <v>0.333922</v>
       </c>
       <c r="D114" t="n">
-        <v>0.329805</v>
+        <v>0.330945</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.323905</v>
+        <v>0.323746</v>
       </c>
       <c r="C115" t="n">
-        <v>0.335269</v>
+        <v>0.329571</v>
       </c>
       <c r="D115" t="n">
-        <v>0.324777</v>
+        <v>0.325442</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.318941</v>
+        <v>0.319191</v>
       </c>
       <c r="C116" t="n">
-        <v>0.330313</v>
+        <v>0.324728</v>
       </c>
       <c r="D116" t="n">
-        <v>0.319774</v>
+        <v>0.320075</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.314782</v>
+        <v>0.314623</v>
       </c>
       <c r="C117" t="n">
-        <v>0.326086</v>
+        <v>0.32025</v>
       </c>
       <c r="D117" t="n">
-        <v>0.317891</v>
+        <v>0.316103</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.311412</v>
+        <v>0.311378</v>
       </c>
       <c r="C118" t="n">
-        <v>0.321989</v>
+        <v>0.316431</v>
       </c>
       <c r="D118" t="n">
-        <v>0.311936</v>
+        <v>0.312613</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.307923</v>
+        <v>0.308605</v>
       </c>
       <c r="C119" t="n">
-        <v>0.319181</v>
+        <v>0.313104</v>
       </c>
       <c r="D119" t="n">
-        <v>0.309583</v>
+        <v>0.310013</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.306856</v>
+        <v>0.307538</v>
       </c>
       <c r="C120" t="n">
-        <v>0.317246</v>
+        <v>0.311358</v>
       </c>
       <c r="D120" t="n">
-        <v>0.308427</v>
+        <v>0.30813</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.307213</v>
+        <v>0.307794</v>
       </c>
       <c r="C121" t="n">
-        <v>0.316266</v>
+        <v>0.311267</v>
       </c>
       <c r="D121" t="n">
-        <v>0.309303</v>
+        <v>0.309539</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.310473</v>
+        <v>0.311016</v>
       </c>
       <c r="C122" t="n">
-        <v>0.317232</v>
+        <v>0.312072</v>
       </c>
       <c r="D122" t="n">
-        <v>0.312744</v>
+        <v>0.312406</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.316656</v>
+        <v>0.316554</v>
       </c>
       <c r="C123" t="n">
-        <v>0.321394</v>
+        <v>0.316059</v>
       </c>
       <c r="D123" t="n">
-        <v>0.39228</v>
+        <v>0.393158</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.392029</v>
+        <v>0.384555</v>
       </c>
       <c r="C124" t="n">
-        <v>0.39992</v>
+        <v>0.39236</v>
       </c>
       <c r="D124" t="n">
-        <v>0.387905</v>
+        <v>0.389154</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.387674</v>
+        <v>0.380021</v>
       </c>
       <c r="C125" t="n">
-        <v>0.395946</v>
+        <v>0.388504</v>
       </c>
       <c r="D125" t="n">
-        <v>0.383418</v>
+        <v>0.38488</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.383063</v>
+        <v>0.375762</v>
       </c>
       <c r="C126" t="n">
-        <v>0.392121</v>
+        <v>0.387074</v>
       </c>
       <c r="D126" t="n">
-        <v>0.379826</v>
+        <v>0.380221</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.378625</v>
+        <v>0.372082</v>
       </c>
       <c r="C127" t="n">
-        <v>0.388857</v>
+        <v>0.38186</v>
       </c>
       <c r="D127" t="n">
-        <v>0.376496</v>
+        <v>0.377489</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.37471</v>
+        <v>0.368622</v>
       </c>
       <c r="C128" t="n">
-        <v>0.385358</v>
+        <v>0.37936</v>
       </c>
       <c r="D128" t="n">
-        <v>0.373018</v>
+        <v>0.373395</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.371106</v>
+        <v>0.365218</v>
       </c>
       <c r="C129" t="n">
-        <v>0.382653</v>
+        <v>0.375863</v>
       </c>
       <c r="D129" t="n">
-        <v>0.370134</v>
+        <v>0.370688</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.368769</v>
+        <v>0.362735</v>
       </c>
       <c r="C130" t="n">
-        <v>0.380486</v>
+        <v>0.374064</v>
       </c>
       <c r="D130" t="n">
-        <v>0.367411</v>
+        <v>0.36806</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.365408</v>
+        <v>0.359722</v>
       </c>
       <c r="C131" t="n">
-        <v>0.379387</v>
+        <v>0.37256</v>
       </c>
       <c r="D131" t="n">
-        <v>0.366749</v>
+        <v>0.36563</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.363787</v>
+        <v>0.358125</v>
       </c>
       <c r="C132" t="n">
-        <v>0.378393</v>
+        <v>0.371238</v>
       </c>
       <c r="D132" t="n">
-        <v>0.364636</v>
+        <v>0.363332</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.36205</v>
+        <v>0.357138</v>
       </c>
       <c r="C133" t="n">
-        <v>0.376569</v>
+        <v>0.369379</v>
       </c>
       <c r="D133" t="n">
-        <v>0.363465</v>
+        <v>0.362336</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.362187</v>
+        <v>0.357029</v>
       </c>
       <c r="C134" t="n">
-        <v>0.375684</v>
+        <v>0.369278</v>
       </c>
       <c r="D134" t="n">
-        <v>0.364801</v>
+        <v>0.362402</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.365422</v>
+        <v>0.357882</v>
       </c>
       <c r="C135" t="n">
-        <v>0.376217</v>
+        <v>0.369258</v>
       </c>
       <c r="D135" t="n">
-        <v>0.363504</v>
+        <v>0.363217</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.366229</v>
+        <v>0.361166</v>
       </c>
       <c r="C136" t="n">
-        <v>0.37719</v>
+        <v>0.372091</v>
       </c>
       <c r="D136" t="n">
-        <v>0.366808</v>
+        <v>0.36651</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.371473</v>
+        <v>0.366826</v>
       </c>
       <c r="C137" t="n">
-        <v>0.381469</v>
+        <v>0.374686</v>
       </c>
       <c r="D137" t="n">
-        <v>0.448879</v>
+        <v>0.450199</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.454819</v>
+        <v>0.442968</v>
       </c>
       <c r="C138" t="n">
-        <v>0.460604</v>
+        <v>0.453588</v>
       </c>
       <c r="D138" t="n">
-        <v>0.44753</v>
+        <v>0.449098</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.453529</v>
+        <v>0.441757</v>
       </c>
       <c r="C139" t="n">
-        <v>0.460261</v>
+        <v>0.453071</v>
       </c>
       <c r="D139" t="n">
-        <v>0.446968</v>
+        <v>0.448269</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.452164</v>
+        <v>0.440638</v>
       </c>
       <c r="C140" t="n">
-        <v>0.45965</v>
+        <v>0.452892</v>
       </c>
       <c r="D140" t="n">
-        <v>0.447642</v>
+        <v>0.448136</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.450934</v>
+        <v>0.440589</v>
       </c>
       <c r="C141" t="n">
-        <v>0.459305</v>
+        <v>0.452069</v>
       </c>
       <c r="D141" t="n">
-        <v>0.446777</v>
+        <v>0.447383</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.449605</v>
+        <v>0.439752</v>
       </c>
       <c r="C142" t="n">
-        <v>0.458946</v>
+        <v>0.451704</v>
       </c>
       <c r="D142" t="n">
-        <v>0.446989</v>
+        <v>0.447109</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.449532</v>
+        <v>0.4398</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4586</v>
+        <v>0.452452</v>
       </c>
       <c r="D143" t="n">
-        <v>0.447049</v>
+        <v>0.446513</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.262945</v>
+        <v>0.263544</v>
       </c>
       <c r="C2" t="n">
-        <v>0.251392</v>
+        <v>0.25723</v>
       </c>
       <c r="D2" t="n">
-        <v>0.245568</v>
+        <v>0.244459</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.274232</v>
+        <v>0.272651</v>
       </c>
       <c r="C3" t="n">
-        <v>0.246622</v>
+        <v>0.252398</v>
       </c>
       <c r="D3" t="n">
-        <v>0.240871</v>
+        <v>0.239856</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.262343</v>
+        <v>0.26867</v>
       </c>
       <c r="C4" t="n">
-        <v>0.242781</v>
+        <v>0.248141</v>
       </c>
       <c r="D4" t="n">
-        <v>0.238744</v>
+        <v>0.236667</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.266014</v>
+        <v>0.26553</v>
       </c>
       <c r="C5" t="n">
-        <v>0.239302</v>
+        <v>0.244405</v>
       </c>
       <c r="D5" t="n">
-        <v>0.235454</v>
+        <v>0.23462</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.261194</v>
+        <v>0.257925</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238176</v>
+        <v>0.242951</v>
       </c>
       <c r="D6" t="n">
-        <v>0.235245</v>
+        <v>0.233986</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.262206</v>
+        <v>0.259082</v>
       </c>
       <c r="C7" t="n">
-        <v>0.236596</v>
+        <v>0.241109</v>
       </c>
       <c r="D7" t="n">
-        <v>0.234792</v>
+        <v>0.234552</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.263965</v>
+        <v>0.261849</v>
       </c>
       <c r="C8" t="n">
-        <v>0.236722</v>
+        <v>0.241317</v>
       </c>
       <c r="D8" t="n">
-        <v>0.23627</v>
+        <v>0.235523</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.267136</v>
+        <v>0.266274</v>
       </c>
       <c r="C9" t="n">
-        <v>0.238848</v>
+        <v>0.243517</v>
       </c>
       <c r="D9" t="n">
-        <v>0.320163</v>
+        <v>0.309499</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.325237</v>
+        <v>0.325612</v>
       </c>
       <c r="C10" t="n">
-        <v>0.317412</v>
+        <v>0.327122</v>
       </c>
       <c r="D10" t="n">
-        <v>0.304994</v>
+        <v>0.310899</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.315862</v>
+        <v>0.315669</v>
       </c>
       <c r="C11" t="n">
-        <v>0.303444</v>
+        <v>0.316444</v>
       </c>
       <c r="D11" t="n">
-        <v>0.302994</v>
+        <v>0.30332</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.307078</v>
+        <v>0.306964</v>
       </c>
       <c r="C12" t="n">
-        <v>0.300033</v>
+        <v>0.302244</v>
       </c>
       <c r="D12" t="n">
-        <v>0.294427</v>
+        <v>0.287616</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.298927</v>
+        <v>0.298235</v>
       </c>
       <c r="C13" t="n">
-        <v>0.292471</v>
+        <v>0.295187</v>
       </c>
       <c r="D13" t="n">
-        <v>0.287479</v>
+        <v>0.276337</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.290895</v>
+        <v>0.289959</v>
       </c>
       <c r="C14" t="n">
-        <v>0.277611</v>
+        <v>0.284118</v>
       </c>
       <c r="D14" t="n">
-        <v>0.271746</v>
+        <v>0.271615</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.284256</v>
+        <v>0.281985</v>
       </c>
       <c r="C15" t="n">
-        <v>0.271525</v>
+        <v>0.285936</v>
       </c>
       <c r="D15" t="n">
-        <v>0.273532</v>
+        <v>0.272917</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.278036</v>
+        <v>0.276236</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2645</v>
+        <v>0.279411</v>
       </c>
       <c r="D16" t="n">
-        <v>0.255536</v>
+        <v>0.267389</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.270975</v>
+        <v>0.271748</v>
       </c>
       <c r="C17" t="n">
-        <v>0.26287</v>
+        <v>0.270205</v>
       </c>
       <c r="D17" t="n">
-        <v>0.256157</v>
+        <v>0.257161</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.268233</v>
+        <v>0.266103</v>
       </c>
       <c r="C18" t="n">
-        <v>0.260872</v>
+        <v>0.265458</v>
       </c>
       <c r="D18" t="n">
-        <v>0.257191</v>
+        <v>0.25191</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.262753</v>
+        <v>0.262055</v>
       </c>
       <c r="C19" t="n">
-        <v>0.253513</v>
+        <v>0.263304</v>
       </c>
       <c r="D19" t="n">
-        <v>0.247199</v>
+        <v>0.253944</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.26055</v>
+        <v>0.258865</v>
       </c>
       <c r="C20" t="n">
-        <v>0.251375</v>
+        <v>0.259069</v>
       </c>
       <c r="D20" t="n">
-        <v>0.250232</v>
+        <v>0.251981</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.259267</v>
+        <v>0.257559</v>
       </c>
       <c r="C21" t="n">
-        <v>0.250524</v>
+        <v>0.253983</v>
       </c>
       <c r="D21" t="n">
-        <v>0.250736</v>
+        <v>0.250728</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.260624</v>
+        <v>0.257931</v>
       </c>
       <c r="C22" t="n">
-        <v>0.249664</v>
+        <v>0.254975</v>
       </c>
       <c r="D22" t="n">
-        <v>0.251339</v>
+        <v>0.252633</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.263488</v>
+        <v>0.260419</v>
       </c>
       <c r="C23" t="n">
-        <v>0.25066</v>
+        <v>0.251801</v>
       </c>
       <c r="D23" t="n">
-        <v>0.315545</v>
+        <v>0.316217</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.32792</v>
+        <v>0.324852</v>
       </c>
       <c r="C24" t="n">
-        <v>0.309687</v>
+        <v>0.320537</v>
       </c>
       <c r="D24" t="n">
-        <v>0.306061</v>
+        <v>0.307304</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.319184</v>
+        <v>0.316308</v>
       </c>
       <c r="C25" t="n">
-        <v>0.300447</v>
+        <v>0.311188</v>
       </c>
       <c r="D25" t="n">
-        <v>0.298345</v>
+        <v>0.298527</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.31069</v>
+        <v>0.307516</v>
       </c>
       <c r="C26" t="n">
-        <v>0.293079</v>
+        <v>0.303237</v>
       </c>
       <c r="D26" t="n">
-        <v>0.290597</v>
+        <v>0.290697</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.302354</v>
+        <v>0.298637</v>
       </c>
       <c r="C27" t="n">
-        <v>0.285662</v>
+        <v>0.29504</v>
       </c>
       <c r="D27" t="n">
-        <v>0.283038</v>
+        <v>0.283701</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.294249</v>
+        <v>0.291764</v>
       </c>
       <c r="C28" t="n">
-        <v>0.278627</v>
+        <v>0.287634</v>
       </c>
       <c r="D28" t="n">
-        <v>0.276164</v>
+        <v>0.275798</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.287122</v>
+        <v>0.28464</v>
       </c>
       <c r="C29" t="n">
-        <v>0.271619</v>
+        <v>0.280836</v>
       </c>
       <c r="D29" t="n">
-        <v>0.269804</v>
+        <v>0.269734</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.280755</v>
+        <v>0.277906</v>
       </c>
       <c r="C30" t="n">
-        <v>0.266572</v>
+        <v>0.274551</v>
       </c>
       <c r="D30" t="n">
-        <v>0.263864</v>
+        <v>0.263975</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.274236</v>
+        <v>0.271998</v>
       </c>
       <c r="C31" t="n">
-        <v>0.261184</v>
+        <v>0.268913</v>
       </c>
       <c r="D31" t="n">
-        <v>0.258706</v>
+        <v>0.25849</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.268935</v>
+        <v>0.266874</v>
       </c>
       <c r="C32" t="n">
-        <v>0.255614</v>
+        <v>0.263542</v>
       </c>
       <c r="D32" t="n">
-        <v>0.253743</v>
+        <v>0.254179</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.265346</v>
+        <v>0.263187</v>
       </c>
       <c r="C33" t="n">
-        <v>0.251534</v>
+        <v>0.259022</v>
       </c>
       <c r="D33" t="n">
-        <v>0.250506</v>
+        <v>0.251034</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261948</v>
+        <v>0.260328</v>
       </c>
       <c r="C34" t="n">
-        <v>0.247754</v>
+        <v>0.255083</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247413</v>
+        <v>0.24827</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.260912</v>
+        <v>0.259126</v>
       </c>
       <c r="C35" t="n">
-        <v>0.245258</v>
+        <v>0.252487</v>
       </c>
       <c r="D35" t="n">
-        <v>0.246483</v>
+        <v>0.247566</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.261352</v>
+        <v>0.259121</v>
       </c>
       <c r="C36" t="n">
-        <v>0.24437</v>
+        <v>0.251374</v>
       </c>
       <c r="D36" t="n">
-        <v>0.248104</v>
+        <v>0.248962</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.263705</v>
+        <v>0.26126</v>
       </c>
       <c r="C37" t="n">
-        <v>0.245576</v>
+        <v>0.252063</v>
       </c>
       <c r="D37" t="n">
-        <v>0.32482</v>
+        <v>0.325986</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.337423</v>
+        <v>0.33536</v>
       </c>
       <c r="C38" t="n">
-        <v>0.318115</v>
+        <v>0.329916</v>
       </c>
       <c r="D38" t="n">
-        <v>0.316444</v>
+        <v>0.317256</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.326722</v>
+        <v>0.32574</v>
       </c>
       <c r="C39" t="n">
-        <v>0.309313</v>
+        <v>0.321159</v>
       </c>
       <c r="D39" t="n">
-        <v>0.306786</v>
+        <v>0.308812</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.317908</v>
+        <v>0.317264</v>
       </c>
       <c r="C40" t="n">
-        <v>0.299898</v>
+        <v>0.312699</v>
       </c>
       <c r="D40" t="n">
-        <v>0.300011</v>
+        <v>0.300294</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.308225</v>
+        <v>0.308887</v>
       </c>
       <c r="C41" t="n">
-        <v>0.29389</v>
+        <v>0.304325</v>
       </c>
       <c r="D41" t="n">
-        <v>0.291878</v>
+        <v>0.293041</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.30055</v>
+        <v>0.300142</v>
       </c>
       <c r="C42" t="n">
-        <v>0.285326</v>
+        <v>0.296166</v>
       </c>
       <c r="D42" t="n">
-        <v>0.285209</v>
+        <v>0.28606</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.294759</v>
+        <v>0.293141</v>
       </c>
       <c r="C43" t="n">
-        <v>0.280043</v>
+        <v>0.289309</v>
       </c>
       <c r="D43" t="n">
-        <v>0.278489</v>
+        <v>0.279102</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.286835</v>
+        <v>0.286068</v>
       </c>
       <c r="C44" t="n">
-        <v>0.273895</v>
+        <v>0.282797</v>
       </c>
       <c r="D44" t="n">
-        <v>0.272171</v>
+        <v>0.273142</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.280908</v>
+        <v>0.280783</v>
       </c>
       <c r="C45" t="n">
-        <v>0.268119</v>
+        <v>0.276516</v>
       </c>
       <c r="D45" t="n">
-        <v>0.266867</v>
+        <v>0.267592</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.276964</v>
+        <v>0.275277</v>
       </c>
       <c r="C46" t="n">
-        <v>0.263043</v>
+        <v>0.271156</v>
       </c>
       <c r="D46" t="n">
-        <v>0.261597</v>
+        <v>0.262816</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.272047</v>
+        <v>0.270493</v>
       </c>
       <c r="C47" t="n">
-        <v>0.258316</v>
+        <v>0.265952</v>
       </c>
       <c r="D47" t="n">
-        <v>0.258048</v>
+        <v>0.258543</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.269237</v>
+        <v>0.267766</v>
       </c>
       <c r="C48" t="n">
-        <v>0.254355</v>
+        <v>0.261603</v>
       </c>
       <c r="D48" t="n">
-        <v>0.255251</v>
+        <v>0.255888</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.266384</v>
+        <v>0.265288</v>
       </c>
       <c r="C49" t="n">
-        <v>0.251647</v>
+        <v>0.258924</v>
       </c>
       <c r="D49" t="n">
-        <v>0.254066</v>
+        <v>0.253684</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.266269</v>
+        <v>0.266274</v>
       </c>
       <c r="C50" t="n">
-        <v>0.250783</v>
+        <v>0.257628</v>
       </c>
       <c r="D50" t="n">
-        <v>0.254928</v>
+        <v>0.255321</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.270043</v>
+        <v>0.270833</v>
       </c>
       <c r="C51" t="n">
-        <v>0.251291</v>
+        <v>0.258085</v>
       </c>
       <c r="D51" t="n">
-        <v>0.333691</v>
+        <v>0.334082</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.276732</v>
+        <v>0.275624</v>
       </c>
       <c r="C52" t="n">
-        <v>0.255424</v>
+        <v>0.261797</v>
       </c>
       <c r="D52" t="n">
-        <v>0.323939</v>
+        <v>0.325102</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.331829</v>
+        <v>0.332258</v>
       </c>
       <c r="C53" t="n">
-        <v>0.318414</v>
+        <v>0.329347</v>
       </c>
       <c r="D53" t="n">
-        <v>0.315846</v>
+        <v>0.316511</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.322951</v>
+        <v>0.322757</v>
       </c>
       <c r="C54" t="n">
-        <v>0.309931</v>
+        <v>0.320383</v>
       </c>
       <c r="D54" t="n">
-        <v>0.307018</v>
+        <v>0.307943</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.313749</v>
+        <v>0.313796</v>
       </c>
       <c r="C55" t="n">
-        <v>0.302342</v>
+        <v>0.31175</v>
       </c>
       <c r="D55" t="n">
-        <v>0.299011</v>
+        <v>0.299991</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.307136</v>
+        <v>0.305952</v>
       </c>
       <c r="C56" t="n">
-        <v>0.294562</v>
+        <v>0.304194</v>
       </c>
       <c r="D56" t="n">
-        <v>0.291919</v>
+        <v>0.292423</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.298583</v>
+        <v>0.299232</v>
       </c>
       <c r="C57" t="n">
-        <v>0.287366</v>
+        <v>0.296281</v>
       </c>
       <c r="D57" t="n">
-        <v>0.284553</v>
+        <v>0.28545</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.291919</v>
+        <v>0.292017</v>
       </c>
       <c r="C58" t="n">
-        <v>0.281029</v>
+        <v>0.289501</v>
       </c>
       <c r="D58" t="n">
-        <v>0.278448</v>
+        <v>0.278717</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.285899</v>
+        <v>0.285484</v>
       </c>
       <c r="C59" t="n">
-        <v>0.274749</v>
+        <v>0.282922</v>
       </c>
       <c r="D59" t="n">
-        <v>0.272547</v>
+        <v>0.273475</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.281028</v>
+        <v>0.28005</v>
       </c>
       <c r="C60" t="n">
-        <v>0.269602</v>
+        <v>0.277399</v>
       </c>
       <c r="D60" t="n">
-        <v>0.267753</v>
+        <v>0.268214</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.27585</v>
+        <v>0.276044</v>
       </c>
       <c r="C61" t="n">
-        <v>0.264398</v>
+        <v>0.272037</v>
       </c>
       <c r="D61" t="n">
-        <v>0.26355</v>
+        <v>0.264015</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272919</v>
+        <v>0.272022</v>
       </c>
       <c r="C62" t="n">
-        <v>0.260769</v>
+        <v>0.267728</v>
       </c>
       <c r="D62" t="n">
-        <v>0.260967</v>
+        <v>0.260715</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.269745</v>
+        <v>0.269843</v>
       </c>
       <c r="C63" t="n">
-        <v>0.257491</v>
+        <v>0.264261</v>
       </c>
       <c r="D63" t="n">
-        <v>0.258831</v>
+        <v>0.259202</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.27041</v>
+        <v>0.27008</v>
       </c>
       <c r="C64" t="n">
-        <v>0.255906</v>
+        <v>0.26293</v>
       </c>
       <c r="D64" t="n">
-        <v>0.259112</v>
+        <v>0.259473</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.270739</v>
+        <v>0.271513</v>
       </c>
       <c r="C65" t="n">
-        <v>0.256289</v>
+        <v>0.262777</v>
       </c>
       <c r="D65" t="n">
-        <v>0.262963</v>
+        <v>0.262974</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.276306</v>
+        <v>0.276606</v>
       </c>
       <c r="C66" t="n">
-        <v>0.259074</v>
+        <v>0.265435</v>
       </c>
       <c r="D66" t="n">
-        <v>0.33637</v>
+        <v>0.337015</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.338344</v>
+        <v>0.338366</v>
       </c>
       <c r="C67" t="n">
-        <v>0.325699</v>
+        <v>0.336564</v>
       </c>
       <c r="D67" t="n">
-        <v>0.327131</v>
+        <v>0.327477</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.328845</v>
+        <v>0.329258</v>
       </c>
       <c r="C68" t="n">
-        <v>0.317012</v>
+        <v>0.327334</v>
       </c>
       <c r="D68" t="n">
-        <v>0.318774</v>
+        <v>0.318522</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.320693</v>
+        <v>0.319815</v>
       </c>
       <c r="C69" t="n">
-        <v>0.308631</v>
+        <v>0.318082</v>
       </c>
       <c r="D69" t="n">
-        <v>0.309943</v>
+        <v>0.309671</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.313036</v>
+        <v>0.311666</v>
       </c>
       <c r="C70" t="n">
-        <v>0.300952</v>
+        <v>0.310022</v>
       </c>
       <c r="D70" t="n">
-        <v>0.302514</v>
+        <v>0.30224</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.303951</v>
+        <v>0.304482</v>
       </c>
       <c r="C71" t="n">
-        <v>0.293804</v>
+        <v>0.302322</v>
       </c>
       <c r="D71" t="n">
-        <v>0.29499</v>
+        <v>0.294555</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.29761</v>
+        <v>0.297009</v>
       </c>
       <c r="C72" t="n">
-        <v>0.287324</v>
+        <v>0.295122</v>
       </c>
       <c r="D72" t="n">
-        <v>0.288557</v>
+        <v>0.28761</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.291808</v>
+        <v>0.290754</v>
       </c>
       <c r="C73" t="n">
-        <v>0.281122</v>
+        <v>0.288562</v>
       </c>
       <c r="D73" t="n">
-        <v>0.282081</v>
+        <v>0.281437</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.286013</v>
+        <v>0.284971</v>
       </c>
       <c r="C74" t="n">
-        <v>0.275431</v>
+        <v>0.286649</v>
       </c>
       <c r="D74" t="n">
-        <v>0.276982</v>
+        <v>0.275952</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.280393</v>
+        <v>0.280457</v>
       </c>
       <c r="C75" t="n">
-        <v>0.270192</v>
+        <v>0.277102</v>
       </c>
       <c r="D75" t="n">
-        <v>0.272386</v>
+        <v>0.271529</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276796</v>
+        <v>0.276444</v>
       </c>
       <c r="C76" t="n">
-        <v>0.266114</v>
+        <v>0.272355</v>
       </c>
       <c r="D76" t="n">
-        <v>0.26883</v>
+        <v>0.267695</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.274432</v>
+        <v>0.273591</v>
       </c>
       <c r="C77" t="n">
-        <v>0.262645</v>
+        <v>0.268686</v>
       </c>
       <c r="D77" t="n">
-        <v>0.266715</v>
+        <v>0.265566</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.273576</v>
+        <v>0.272737</v>
       </c>
       <c r="C78" t="n">
-        <v>0.260721</v>
+        <v>0.266622</v>
       </c>
       <c r="D78" t="n">
-        <v>0.266217</v>
+        <v>0.265347</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.274666</v>
+        <v>0.274586</v>
       </c>
       <c r="C79" t="n">
-        <v>0.260676</v>
+        <v>0.266099</v>
       </c>
       <c r="D79" t="n">
-        <v>0.269199</v>
+        <v>0.268133</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.278935</v>
+        <v>0.278826</v>
       </c>
       <c r="C80" t="n">
-        <v>0.263605</v>
+        <v>0.268453</v>
       </c>
       <c r="D80" t="n">
-        <v>0.345101</v>
+        <v>0.34133</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.339099</v>
+        <v>0.339404</v>
       </c>
       <c r="C81" t="n">
-        <v>0.338183</v>
+        <v>0.345771</v>
       </c>
       <c r="D81" t="n">
-        <v>0.335176</v>
+        <v>0.332842</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.329429</v>
+        <v>0.329965</v>
       </c>
       <c r="C82" t="n">
-        <v>0.328621</v>
+        <v>0.337066</v>
       </c>
       <c r="D82" t="n">
-        <v>0.326439</v>
+        <v>0.32389</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.32093</v>
+        <v>0.321441</v>
       </c>
       <c r="C83" t="n">
-        <v>0.32008</v>
+        <v>0.328357</v>
       </c>
       <c r="D83" t="n">
-        <v>0.317938</v>
+        <v>0.315238</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.312814</v>
+        <v>0.313717</v>
       </c>
       <c r="C84" t="n">
-        <v>0.312339</v>
+        <v>0.319694</v>
       </c>
       <c r="D84" t="n">
-        <v>0.310023</v>
+        <v>0.307479</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.306004</v>
+        <v>0.306358</v>
       </c>
       <c r="C85" t="n">
-        <v>0.30349</v>
+        <v>0.312041</v>
       </c>
       <c r="D85" t="n">
-        <v>0.301347</v>
+        <v>0.299469</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.299688</v>
+        <v>0.300206</v>
       </c>
       <c r="C86" t="n">
-        <v>0.296262</v>
+        <v>0.304393</v>
       </c>
       <c r="D86" t="n">
-        <v>0.294319</v>
+        <v>0.292431</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.292388</v>
+        <v>0.293497</v>
       </c>
       <c r="C87" t="n">
-        <v>0.289464</v>
+        <v>0.297396</v>
       </c>
       <c r="D87" t="n">
-        <v>0.287666</v>
+        <v>0.286157</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.287425</v>
+        <v>0.287265</v>
       </c>
       <c r="C88" t="n">
-        <v>0.283686</v>
+        <v>0.291318</v>
       </c>
       <c r="D88" t="n">
-        <v>0.28226</v>
+        <v>0.280222</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.281748</v>
+        <v>0.282361</v>
       </c>
       <c r="C89" t="n">
-        <v>0.278387</v>
+        <v>0.285186</v>
       </c>
       <c r="D89" t="n">
-        <v>0.277863</v>
+        <v>0.275241</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277773</v>
+        <v>0.278427</v>
       </c>
       <c r="C90" t="n">
-        <v>0.273616</v>
+        <v>0.28059</v>
       </c>
       <c r="D90" t="n">
-        <v>0.273511</v>
+        <v>0.271893</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.275301</v>
+        <v>0.275093</v>
       </c>
       <c r="C91" t="n">
-        <v>0.269643</v>
+        <v>0.276794</v>
       </c>
       <c r="D91" t="n">
-        <v>0.270748</v>
+        <v>0.269567</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.2733</v>
+        <v>0.273888</v>
       </c>
       <c r="C92" t="n">
-        <v>0.267142</v>
+        <v>0.273884</v>
       </c>
       <c r="D92" t="n">
-        <v>0.269618</v>
+        <v>0.268641</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.275464</v>
+        <v>0.275017</v>
       </c>
       <c r="C93" t="n">
-        <v>0.266172</v>
+        <v>0.272562</v>
       </c>
       <c r="D93" t="n">
-        <v>0.271586</v>
+        <v>0.270339</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.27898</v>
+        <v>0.278391</v>
       </c>
       <c r="C94" t="n">
-        <v>0.267558</v>
+        <v>0.273511</v>
       </c>
       <c r="D94" t="n">
-        <v>0.356614</v>
+        <v>0.355893</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.349747</v>
+        <v>0.350898</v>
       </c>
       <c r="C95" t="n">
-        <v>0.347252</v>
+        <v>0.35876</v>
       </c>
       <c r="D95" t="n">
-        <v>0.347997</v>
+        <v>0.349022</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.343216</v>
+        <v>0.342706</v>
       </c>
       <c r="C96" t="n">
-        <v>0.340668</v>
+        <v>0.354013</v>
       </c>
       <c r="D96" t="n">
-        <v>0.338992</v>
+        <v>0.341119</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.334519</v>
+        <v>0.335371</v>
       </c>
       <c r="C97" t="n">
-        <v>0.332828</v>
+        <v>0.346877</v>
       </c>
       <c r="D97" t="n">
-        <v>0.330725</v>
+        <v>0.332876</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.32564</v>
+        <v>0.325951</v>
       </c>
       <c r="C98" t="n">
-        <v>0.325337</v>
+        <v>0.341501</v>
       </c>
       <c r="D98" t="n">
-        <v>0.322982</v>
+        <v>0.324935</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.318276</v>
+        <v>0.318703</v>
       </c>
       <c r="C99" t="n">
-        <v>0.318042</v>
+        <v>0.33532</v>
       </c>
       <c r="D99" t="n">
-        <v>0.315774</v>
+        <v>0.317029</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.311054</v>
+        <v>0.311336</v>
       </c>
       <c r="C100" t="n">
-        <v>0.311117</v>
+        <v>0.329303</v>
       </c>
       <c r="D100" t="n">
-        <v>0.30844</v>
+        <v>0.310852</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.304565</v>
+        <v>0.304943</v>
       </c>
       <c r="C101" t="n">
-        <v>0.304468</v>
+        <v>0.323315</v>
       </c>
       <c r="D101" t="n">
-        <v>0.302074</v>
+        <v>0.304521</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.298315</v>
+        <v>0.298397</v>
       </c>
       <c r="C102" t="n">
-        <v>0.298348</v>
+        <v>0.317387</v>
       </c>
       <c r="D102" t="n">
-        <v>0.296102</v>
+        <v>0.298128</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293203</v>
+        <v>0.293386</v>
       </c>
       <c r="C103" t="n">
-        <v>0.293263</v>
+        <v>0.311565</v>
       </c>
       <c r="D103" t="n">
-        <v>0.291057</v>
+        <v>0.293532</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.28898</v>
+        <v>0.288635</v>
       </c>
       <c r="C104" t="n">
-        <v>0.288439</v>
+        <v>0.306</v>
       </c>
       <c r="D104" t="n">
-        <v>0.28687</v>
+        <v>0.28937</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.285324</v>
+        <v>0.285304</v>
       </c>
       <c r="C105" t="n">
-        <v>0.284352</v>
+        <v>0.301039</v>
       </c>
       <c r="D105" t="n">
-        <v>0.283041</v>
+        <v>0.28597</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.283671</v>
+        <v>0.283386</v>
       </c>
       <c r="C106" t="n">
-        <v>0.28083</v>
+        <v>0.297618</v>
       </c>
       <c r="D106" t="n">
-        <v>0.282473</v>
+        <v>0.284582</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.283533</v>
+        <v>0.28326</v>
       </c>
       <c r="C107" t="n">
-        <v>0.279912</v>
+        <v>0.295526</v>
       </c>
       <c r="D107" t="n">
-        <v>0.283072</v>
+        <v>0.285802</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.287181</v>
+        <v>0.287361</v>
       </c>
       <c r="C108" t="n">
-        <v>0.280709</v>
+        <v>0.295332</v>
       </c>
       <c r="D108" t="n">
-        <v>0.370254</v>
+        <v>0.373083</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.293585</v>
+        <v>0.29361</v>
       </c>
       <c r="C109" t="n">
-        <v>0.284313</v>
+        <v>0.299132</v>
       </c>
       <c r="D109" t="n">
-        <v>0.365197</v>
+        <v>0.368983</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.35638</v>
+        <v>0.356724</v>
       </c>
       <c r="C110" t="n">
-        <v>0.359501</v>
+        <v>0.379426</v>
       </c>
       <c r="D110" t="n">
-        <v>0.357383</v>
+        <v>0.363026</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349395</v>
+        <v>0.349412</v>
       </c>
       <c r="C111" t="n">
-        <v>0.352856</v>
+        <v>0.375698</v>
       </c>
       <c r="D111" t="n">
-        <v>0.350584</v>
+        <v>0.356923</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342441</v>
+        <v>0.342236</v>
       </c>
       <c r="C112" t="n">
-        <v>0.345537</v>
+        <v>0.371393</v>
       </c>
       <c r="D112" t="n">
-        <v>0.343538</v>
+        <v>0.352409</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.335205</v>
+        <v>0.335467</v>
       </c>
       <c r="C113" t="n">
-        <v>0.340358</v>
+        <v>0.366948</v>
       </c>
       <c r="D113" t="n">
-        <v>0.336867</v>
+        <v>0.346509</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.329363</v>
+        <v>0.329368</v>
       </c>
       <c r="C114" t="n">
-        <v>0.333922</v>
+        <v>0.362877</v>
       </c>
       <c r="D114" t="n">
-        <v>0.330945</v>
+        <v>0.341594</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.323746</v>
+        <v>0.323943</v>
       </c>
       <c r="C115" t="n">
-        <v>0.329571</v>
+        <v>0.358645</v>
       </c>
       <c r="D115" t="n">
-        <v>0.325442</v>
+        <v>0.336255</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.319191</v>
+        <v>0.318988</v>
       </c>
       <c r="C116" t="n">
-        <v>0.324728</v>
+        <v>0.354383</v>
       </c>
       <c r="D116" t="n">
-        <v>0.320075</v>
+        <v>0.332527</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.314623</v>
+        <v>0.314625</v>
       </c>
       <c r="C117" t="n">
-        <v>0.32025</v>
+        <v>0.350521</v>
       </c>
       <c r="D117" t="n">
-        <v>0.316103</v>
+        <v>0.328213</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.311378</v>
+        <v>0.311156</v>
       </c>
       <c r="C118" t="n">
-        <v>0.316431</v>
+        <v>0.346259</v>
       </c>
       <c r="D118" t="n">
-        <v>0.312613</v>
+        <v>0.324316</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.308605</v>
+        <v>0.308735</v>
       </c>
       <c r="C119" t="n">
-        <v>0.313104</v>
+        <v>0.343326</v>
       </c>
       <c r="D119" t="n">
-        <v>0.310013</v>
+        <v>0.322397</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.307538</v>
+        <v>0.307002</v>
       </c>
       <c r="C120" t="n">
-        <v>0.311358</v>
+        <v>0.34002</v>
       </c>
       <c r="D120" t="n">
-        <v>0.30813</v>
+        <v>0.321357</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.307794</v>
+        <v>0.307606</v>
       </c>
       <c r="C121" t="n">
-        <v>0.311267</v>
+        <v>0.338215</v>
       </c>
       <c r="D121" t="n">
-        <v>0.309539</v>
+        <v>0.322052</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.311016</v>
+        <v>0.310363</v>
       </c>
       <c r="C122" t="n">
-        <v>0.312072</v>
+        <v>0.338218</v>
       </c>
       <c r="D122" t="n">
-        <v>0.312406</v>
+        <v>0.32591</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.316554</v>
+        <v>0.315938</v>
       </c>
       <c r="C123" t="n">
-        <v>0.316059</v>
+        <v>0.340765</v>
       </c>
       <c r="D123" t="n">
-        <v>0.393158</v>
+        <v>0.40598</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.384555</v>
+        <v>0.3825</v>
       </c>
       <c r="C124" t="n">
-        <v>0.39236</v>
+        <v>0.420767</v>
       </c>
       <c r="D124" t="n">
-        <v>0.389154</v>
+        <v>0.402819</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.380021</v>
+        <v>0.378499</v>
       </c>
       <c r="C125" t="n">
-        <v>0.388504</v>
+        <v>0.417429</v>
       </c>
       <c r="D125" t="n">
-        <v>0.38488</v>
+        <v>0.399848</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.375762</v>
+        <v>0.374078</v>
       </c>
       <c r="C126" t="n">
-        <v>0.387074</v>
+        <v>0.414402</v>
       </c>
       <c r="D126" t="n">
-        <v>0.380221</v>
+        <v>0.396973</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.372082</v>
+        <v>0.370885</v>
       </c>
       <c r="C127" t="n">
-        <v>0.38186</v>
+        <v>0.411113</v>
       </c>
       <c r="D127" t="n">
-        <v>0.377489</v>
+        <v>0.394596</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.368622</v>
+        <v>0.366617</v>
       </c>
       <c r="C128" t="n">
-        <v>0.37936</v>
+        <v>0.408139</v>
       </c>
       <c r="D128" t="n">
-        <v>0.373395</v>
+        <v>0.392058</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.365218</v>
+        <v>0.363504</v>
       </c>
       <c r="C129" t="n">
-        <v>0.375863</v>
+        <v>0.40489</v>
       </c>
       <c r="D129" t="n">
-        <v>0.370688</v>
+        <v>0.390067</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.362735</v>
+        <v>0.361003</v>
       </c>
       <c r="C130" t="n">
-        <v>0.374064</v>
+        <v>0.401783</v>
       </c>
       <c r="D130" t="n">
-        <v>0.36806</v>
+        <v>0.387881</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.359722</v>
+        <v>0.358297</v>
       </c>
       <c r="C131" t="n">
-        <v>0.37256</v>
+        <v>0.398529</v>
       </c>
       <c r="D131" t="n">
-        <v>0.36563</v>
+        <v>0.386996</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.358125</v>
+        <v>0.356878</v>
       </c>
       <c r="C132" t="n">
-        <v>0.371238</v>
+        <v>0.395994</v>
       </c>
       <c r="D132" t="n">
-        <v>0.363332</v>
+        <v>0.385766</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.357138</v>
+        <v>0.355512</v>
       </c>
       <c r="C133" t="n">
-        <v>0.369379</v>
+        <v>0.393837</v>
       </c>
       <c r="D133" t="n">
-        <v>0.362336</v>
+        <v>0.385196</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.357029</v>
+        <v>0.356005</v>
       </c>
       <c r="C134" t="n">
-        <v>0.369278</v>
+        <v>0.392563</v>
       </c>
       <c r="D134" t="n">
-        <v>0.362402</v>
+        <v>0.385755</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.357882</v>
+        <v>0.357303</v>
       </c>
       <c r="C135" t="n">
-        <v>0.369258</v>
+        <v>0.391688</v>
       </c>
       <c r="D135" t="n">
-        <v>0.363217</v>
+        <v>0.388704</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.361166</v>
+        <v>0.360447</v>
       </c>
       <c r="C136" t="n">
-        <v>0.372091</v>
+        <v>0.393126</v>
       </c>
       <c r="D136" t="n">
-        <v>0.36651</v>
+        <v>0.394213</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.366826</v>
+        <v>0.366065</v>
       </c>
       <c r="C137" t="n">
-        <v>0.374686</v>
+        <v>0.396498</v>
       </c>
       <c r="D137" t="n">
-        <v>0.450199</v>
+        <v>0.475281</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.442968</v>
+        <v>0.44087</v>
       </c>
       <c r="C138" t="n">
-        <v>0.453588</v>
+        <v>0.477683</v>
       </c>
       <c r="D138" t="n">
-        <v>0.449098</v>
+        <v>0.475127</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.441757</v>
+        <v>0.440657</v>
       </c>
       <c r="C139" t="n">
-        <v>0.453071</v>
+        <v>0.47521</v>
       </c>
       <c r="D139" t="n">
-        <v>0.448269</v>
+        <v>0.472058</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.440638</v>
+        <v>0.439271</v>
       </c>
       <c r="C140" t="n">
-        <v>0.452892</v>
+        <v>0.472607</v>
       </c>
       <c r="D140" t="n">
-        <v>0.448136</v>
+        <v>0.470099</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.440589</v>
+        <v>0.439106</v>
       </c>
       <c r="C141" t="n">
-        <v>0.452069</v>
+        <v>0.470646</v>
       </c>
       <c r="D141" t="n">
-        <v>0.447383</v>
+        <v>0.468729</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.439752</v>
+        <v>0.438741</v>
       </c>
       <c r="C142" t="n">
-        <v>0.451704</v>
+        <v>0.468096</v>
       </c>
       <c r="D142" t="n">
-        <v>0.447109</v>
+        <v>0.467633</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4398</v>
+        <v>0.438529</v>
       </c>
       <c r="C143" t="n">
-        <v>0.452452</v>
+        <v>0.466166</v>
       </c>
       <c r="D143" t="n">
-        <v>0.446513</v>
+        <v>0.466291</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.263544</v>
+        <v>0.252242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.25723</v>
+        <v>0.2538</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244459</v>
+        <v>0.244574</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.272651</v>
+        <v>0.26728</v>
       </c>
       <c r="C3" t="n">
-        <v>0.252398</v>
+        <v>0.24876</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239856</v>
+        <v>0.239525</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.26867</v>
+        <v>0.261679</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248141</v>
+        <v>0.244344</v>
       </c>
       <c r="D4" t="n">
-        <v>0.236667</v>
+        <v>0.235824</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.26553</v>
+        <v>0.258549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.244405</v>
+        <v>0.241119</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23462</v>
+        <v>0.233449</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.257925</v>
+        <v>0.256501</v>
       </c>
       <c r="C6" t="n">
-        <v>0.242951</v>
+        <v>0.240026</v>
       </c>
       <c r="D6" t="n">
-        <v>0.233986</v>
+        <v>0.23231</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.259082</v>
+        <v>0.254592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.241109</v>
+        <v>0.238277</v>
       </c>
       <c r="D7" t="n">
-        <v>0.234552</v>
+        <v>0.232244</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.261849</v>
+        <v>0.256155</v>
       </c>
       <c r="C8" t="n">
-        <v>0.241317</v>
+        <v>0.238111</v>
       </c>
       <c r="D8" t="n">
-        <v>0.235523</v>
+        <v>0.233393</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.266274</v>
+        <v>0.245707</v>
       </c>
       <c r="C9" t="n">
-        <v>0.243517</v>
+        <v>0.239504</v>
       </c>
       <c r="D9" t="n">
-        <v>0.309499</v>
+        <v>0.317319</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.325612</v>
+        <v>0.318371</v>
       </c>
       <c r="C10" t="n">
-        <v>0.327122</v>
+        <v>0.314191</v>
       </c>
       <c r="D10" t="n">
-        <v>0.310899</v>
+        <v>0.305102</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.315669</v>
+        <v>0.309351</v>
       </c>
       <c r="C11" t="n">
-        <v>0.316444</v>
+        <v>0.312286</v>
       </c>
       <c r="D11" t="n">
-        <v>0.30332</v>
+        <v>0.298804</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.306964</v>
+        <v>0.301134</v>
       </c>
       <c r="C12" t="n">
-        <v>0.302244</v>
+        <v>0.294474</v>
       </c>
       <c r="D12" t="n">
-        <v>0.287616</v>
+        <v>0.290524</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.298235</v>
+        <v>0.292192</v>
       </c>
       <c r="C13" t="n">
-        <v>0.295187</v>
+        <v>0.298022</v>
       </c>
       <c r="D13" t="n">
-        <v>0.276337</v>
+        <v>0.281002</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.289959</v>
+        <v>0.285011</v>
       </c>
       <c r="C14" t="n">
-        <v>0.284118</v>
+        <v>0.290458</v>
       </c>
       <c r="D14" t="n">
-        <v>0.271615</v>
+        <v>0.277103</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.281985</v>
+        <v>0.27867</v>
       </c>
       <c r="C15" t="n">
-        <v>0.285936</v>
+        <v>0.283325</v>
       </c>
       <c r="D15" t="n">
-        <v>0.272917</v>
+        <v>0.270485</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.276236</v>
+        <v>0.272111</v>
       </c>
       <c r="C16" t="n">
-        <v>0.279411</v>
+        <v>0.265535</v>
       </c>
       <c r="D16" t="n">
-        <v>0.267389</v>
+        <v>0.259972</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.271748</v>
+        <v>0.26661</v>
       </c>
       <c r="C17" t="n">
-        <v>0.270205</v>
+        <v>0.270908</v>
       </c>
       <c r="D17" t="n">
-        <v>0.257161</v>
+        <v>0.259135</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.266103</v>
+        <v>0.260761</v>
       </c>
       <c r="C18" t="n">
-        <v>0.265458</v>
+        <v>0.265612</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25191</v>
+        <v>0.255268</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.262055</v>
+        <v>0.259895</v>
       </c>
       <c r="C19" t="n">
-        <v>0.263304</v>
+        <v>0.256641</v>
       </c>
       <c r="D19" t="n">
-        <v>0.253944</v>
+        <v>0.249106</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.258865</v>
+        <v>0.255113</v>
       </c>
       <c r="C20" t="n">
-        <v>0.259069</v>
+        <v>0.257097</v>
       </c>
       <c r="D20" t="n">
-        <v>0.251981</v>
+        <v>0.249454</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.257559</v>
+        <v>0.254607</v>
       </c>
       <c r="C21" t="n">
-        <v>0.253983</v>
+        <v>0.254829</v>
       </c>
       <c r="D21" t="n">
-        <v>0.250728</v>
+        <v>0.248492</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.257931</v>
+        <v>0.257468</v>
       </c>
       <c r="C22" t="n">
-        <v>0.254975</v>
+        <v>0.253222</v>
       </c>
       <c r="D22" t="n">
-        <v>0.252633</v>
+        <v>0.24468</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.260419</v>
+        <v>0.2602</v>
       </c>
       <c r="C23" t="n">
-        <v>0.251801</v>
+        <v>0.254309</v>
       </c>
       <c r="D23" t="n">
-        <v>0.316217</v>
+        <v>0.31296</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.324852</v>
+        <v>0.323489</v>
       </c>
       <c r="C24" t="n">
-        <v>0.320537</v>
+        <v>0.319038</v>
       </c>
       <c r="D24" t="n">
-        <v>0.307304</v>
+        <v>0.304515</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.316308</v>
+        <v>0.314321</v>
       </c>
       <c r="C25" t="n">
-        <v>0.311188</v>
+        <v>0.309614</v>
       </c>
       <c r="D25" t="n">
-        <v>0.298527</v>
+        <v>0.296165</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.307516</v>
+        <v>0.307097</v>
       </c>
       <c r="C26" t="n">
-        <v>0.303237</v>
+        <v>0.301235</v>
       </c>
       <c r="D26" t="n">
-        <v>0.290697</v>
+        <v>0.288242</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.298637</v>
+        <v>0.298278</v>
       </c>
       <c r="C27" t="n">
-        <v>0.29504</v>
+        <v>0.293116</v>
       </c>
       <c r="D27" t="n">
-        <v>0.283701</v>
+        <v>0.280771</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.291764</v>
+        <v>0.290691</v>
       </c>
       <c r="C28" t="n">
-        <v>0.287634</v>
+        <v>0.286215</v>
       </c>
       <c r="D28" t="n">
-        <v>0.275798</v>
+        <v>0.274172</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.28464</v>
+        <v>0.283621</v>
       </c>
       <c r="C29" t="n">
-        <v>0.280836</v>
+        <v>0.279386</v>
       </c>
       <c r="D29" t="n">
-        <v>0.269734</v>
+        <v>0.267589</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.277906</v>
+        <v>0.276974</v>
       </c>
       <c r="C30" t="n">
-        <v>0.274551</v>
+        <v>0.273022</v>
       </c>
       <c r="D30" t="n">
-        <v>0.263975</v>
+        <v>0.262003</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.271998</v>
+        <v>0.271732</v>
       </c>
       <c r="C31" t="n">
-        <v>0.268913</v>
+        <v>0.267208</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25849</v>
+        <v>0.256779</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.266874</v>
+        <v>0.266445</v>
       </c>
       <c r="C32" t="n">
-        <v>0.263542</v>
+        <v>0.262172</v>
       </c>
       <c r="D32" t="n">
-        <v>0.254179</v>
+        <v>0.252198</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.263187</v>
+        <v>0.263231</v>
       </c>
       <c r="C33" t="n">
-        <v>0.259022</v>
+        <v>0.257687</v>
       </c>
       <c r="D33" t="n">
-        <v>0.251034</v>
+        <v>0.249068</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.260328</v>
+        <v>0.260319</v>
       </c>
       <c r="C34" t="n">
-        <v>0.255083</v>
+        <v>0.253849</v>
       </c>
       <c r="D34" t="n">
-        <v>0.24827</v>
+        <v>0.246972</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.259126</v>
+        <v>0.258917</v>
       </c>
       <c r="C35" t="n">
-        <v>0.252487</v>
+        <v>0.251904</v>
       </c>
       <c r="D35" t="n">
-        <v>0.247566</v>
+        <v>0.245921</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.259121</v>
+        <v>0.258989</v>
       </c>
       <c r="C36" t="n">
-        <v>0.251374</v>
+        <v>0.250285</v>
       </c>
       <c r="D36" t="n">
-        <v>0.248962</v>
+        <v>0.247455</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.26126</v>
+        <v>0.261899</v>
       </c>
       <c r="C37" t="n">
-        <v>0.252063</v>
+        <v>0.251262</v>
       </c>
       <c r="D37" t="n">
-        <v>0.325986</v>
+        <v>0.326589</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.33536</v>
+        <v>0.335483</v>
       </c>
       <c r="C38" t="n">
-        <v>0.329916</v>
+        <v>0.330281</v>
       </c>
       <c r="D38" t="n">
-        <v>0.317256</v>
+        <v>0.31738</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.32574</v>
+        <v>0.326444</v>
       </c>
       <c r="C39" t="n">
-        <v>0.321159</v>
+        <v>0.319789</v>
       </c>
       <c r="D39" t="n">
-        <v>0.308812</v>
+        <v>0.302313</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.317264</v>
+        <v>0.317606</v>
       </c>
       <c r="C40" t="n">
-        <v>0.312699</v>
+        <v>0.312606</v>
       </c>
       <c r="D40" t="n">
-        <v>0.300294</v>
+        <v>0.300102</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.308887</v>
+        <v>0.307457</v>
       </c>
       <c r="C41" t="n">
-        <v>0.304325</v>
+        <v>0.302558</v>
       </c>
       <c r="D41" t="n">
-        <v>0.293041</v>
+        <v>0.291983</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.300142</v>
+        <v>0.299457</v>
       </c>
       <c r="C42" t="n">
-        <v>0.296166</v>
+        <v>0.295792</v>
       </c>
       <c r="D42" t="n">
-        <v>0.28606</v>
+        <v>0.284911</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.293141</v>
+        <v>0.292553</v>
       </c>
       <c r="C43" t="n">
-        <v>0.289309</v>
+        <v>0.287949</v>
       </c>
       <c r="D43" t="n">
-        <v>0.279102</v>
+        <v>0.275173</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.286068</v>
+        <v>0.285538</v>
       </c>
       <c r="C44" t="n">
-        <v>0.282797</v>
+        <v>0.28171</v>
       </c>
       <c r="D44" t="n">
-        <v>0.273142</v>
+        <v>0.27161</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.280783</v>
+        <v>0.279518</v>
       </c>
       <c r="C45" t="n">
-        <v>0.276516</v>
+        <v>0.273618</v>
       </c>
       <c r="D45" t="n">
-        <v>0.267592</v>
+        <v>0.264829</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.275277</v>
+        <v>0.274545</v>
       </c>
       <c r="C46" t="n">
-        <v>0.271156</v>
+        <v>0.270019</v>
       </c>
       <c r="D46" t="n">
-        <v>0.262816</v>
+        <v>0.261697</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.270493</v>
+        <v>0.270446</v>
       </c>
       <c r="C47" t="n">
-        <v>0.265952</v>
+        <v>0.265282</v>
       </c>
       <c r="D47" t="n">
-        <v>0.258543</v>
+        <v>0.257699</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267766</v>
+        <v>0.267544</v>
       </c>
       <c r="C48" t="n">
-        <v>0.261603</v>
+        <v>0.261019</v>
       </c>
       <c r="D48" t="n">
-        <v>0.255888</v>
+        <v>0.255119</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.265288</v>
+        <v>0.265766</v>
       </c>
       <c r="C49" t="n">
-        <v>0.258924</v>
+        <v>0.258195</v>
       </c>
       <c r="D49" t="n">
-        <v>0.253684</v>
+        <v>0.253762</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.266274</v>
+        <v>0.265496</v>
       </c>
       <c r="C50" t="n">
-        <v>0.257628</v>
+        <v>0.256674</v>
       </c>
       <c r="D50" t="n">
-        <v>0.255321</v>
+        <v>0.255041</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.270833</v>
+        <v>0.267772</v>
       </c>
       <c r="C51" t="n">
-        <v>0.258085</v>
+        <v>0.256917</v>
       </c>
       <c r="D51" t="n">
-        <v>0.334082</v>
+        <v>0.333836</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.275624</v>
+        <v>0.274343</v>
       </c>
       <c r="C52" t="n">
-        <v>0.261797</v>
+        <v>0.260783</v>
       </c>
       <c r="D52" t="n">
-        <v>0.325102</v>
+        <v>0.324467</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.332258</v>
+        <v>0.329037</v>
       </c>
       <c r="C53" t="n">
-        <v>0.329347</v>
+        <v>0.328346</v>
       </c>
       <c r="D53" t="n">
-        <v>0.316511</v>
+        <v>0.315744</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.322757</v>
+        <v>0.319901</v>
       </c>
       <c r="C54" t="n">
-        <v>0.320383</v>
+        <v>0.319263</v>
       </c>
       <c r="D54" t="n">
-        <v>0.307943</v>
+        <v>0.307119</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.313796</v>
+        <v>0.311395</v>
       </c>
       <c r="C55" t="n">
-        <v>0.31175</v>
+        <v>0.310701</v>
       </c>
       <c r="D55" t="n">
-        <v>0.299991</v>
+        <v>0.299324</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.305952</v>
+        <v>0.303543</v>
       </c>
       <c r="C56" t="n">
-        <v>0.304194</v>
+        <v>0.302979</v>
       </c>
       <c r="D56" t="n">
-        <v>0.292423</v>
+        <v>0.291688</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.299232</v>
+        <v>0.296399</v>
       </c>
       <c r="C57" t="n">
-        <v>0.296281</v>
+        <v>0.295584</v>
       </c>
       <c r="D57" t="n">
-        <v>0.28545</v>
+        <v>0.284695</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.292017</v>
+        <v>0.289507</v>
       </c>
       <c r="C58" t="n">
-        <v>0.289501</v>
+        <v>0.28896</v>
       </c>
       <c r="D58" t="n">
-        <v>0.278717</v>
+        <v>0.278648</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.285484</v>
+        <v>0.283889</v>
       </c>
       <c r="C59" t="n">
-        <v>0.282922</v>
+        <v>0.282445</v>
       </c>
       <c r="D59" t="n">
-        <v>0.273475</v>
+        <v>0.272318</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.28005</v>
+        <v>0.278302</v>
       </c>
       <c r="C60" t="n">
-        <v>0.277399</v>
+        <v>0.276542</v>
       </c>
       <c r="D60" t="n">
-        <v>0.268214</v>
+        <v>0.267277</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.276044</v>
+        <v>0.273911</v>
       </c>
       <c r="C61" t="n">
-        <v>0.272037</v>
+        <v>0.271328</v>
       </c>
       <c r="D61" t="n">
-        <v>0.264015</v>
+        <v>0.263234</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272022</v>
+        <v>0.27038</v>
       </c>
       <c r="C62" t="n">
-        <v>0.267728</v>
+        <v>0.26707</v>
       </c>
       <c r="D62" t="n">
-        <v>0.260715</v>
+        <v>0.260233</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.269843</v>
+        <v>0.267994</v>
       </c>
       <c r="C63" t="n">
-        <v>0.264261</v>
+        <v>0.264057</v>
       </c>
       <c r="D63" t="n">
-        <v>0.259202</v>
+        <v>0.25849</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.27008</v>
+        <v>0.267469</v>
       </c>
       <c r="C64" t="n">
-        <v>0.26293</v>
+        <v>0.262087</v>
       </c>
       <c r="D64" t="n">
-        <v>0.259473</v>
+        <v>0.259147</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.271513</v>
+        <v>0.269768</v>
       </c>
       <c r="C65" t="n">
-        <v>0.262777</v>
+        <v>0.262355</v>
       </c>
       <c r="D65" t="n">
-        <v>0.262974</v>
+        <v>0.262595</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.276606</v>
+        <v>0.275499</v>
       </c>
       <c r="C66" t="n">
-        <v>0.265435</v>
+        <v>0.264797</v>
       </c>
       <c r="D66" t="n">
-        <v>0.337015</v>
+        <v>0.336424</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.338366</v>
+        <v>0.336344</v>
       </c>
       <c r="C67" t="n">
-        <v>0.336564</v>
+        <v>0.336613</v>
       </c>
       <c r="D67" t="n">
-        <v>0.327477</v>
+        <v>0.327295</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.329258</v>
+        <v>0.326971</v>
       </c>
       <c r="C68" t="n">
-        <v>0.327334</v>
+        <v>0.326568</v>
       </c>
       <c r="D68" t="n">
-        <v>0.318522</v>
+        <v>0.318102</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.319815</v>
+        <v>0.318635</v>
       </c>
       <c r="C69" t="n">
-        <v>0.318082</v>
+        <v>0.317945</v>
       </c>
       <c r="D69" t="n">
-        <v>0.309671</v>
+        <v>0.309762</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.311666</v>
+        <v>0.310248</v>
       </c>
       <c r="C70" t="n">
-        <v>0.310022</v>
+        <v>0.30958</v>
       </c>
       <c r="D70" t="n">
-        <v>0.30224</v>
+        <v>0.301669</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.304482</v>
+        <v>0.302915</v>
       </c>
       <c r="C71" t="n">
-        <v>0.302322</v>
+        <v>0.302126</v>
       </c>
       <c r="D71" t="n">
-        <v>0.294555</v>
+        <v>0.294287</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.297009</v>
+        <v>0.295419</v>
       </c>
       <c r="C72" t="n">
-        <v>0.295122</v>
+        <v>0.294794</v>
       </c>
       <c r="D72" t="n">
-        <v>0.28761</v>
+        <v>0.287512</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.290754</v>
+        <v>0.289315</v>
       </c>
       <c r="C73" t="n">
-        <v>0.288562</v>
+        <v>0.288347</v>
       </c>
       <c r="D73" t="n">
-        <v>0.281437</v>
+        <v>0.281272</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.284971</v>
+        <v>0.283593</v>
       </c>
       <c r="C74" t="n">
-        <v>0.286649</v>
+        <v>0.282164</v>
       </c>
       <c r="D74" t="n">
-        <v>0.275952</v>
+        <v>0.275974</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.280457</v>
+        <v>0.278724</v>
       </c>
       <c r="C75" t="n">
-        <v>0.277102</v>
+        <v>0.276529</v>
       </c>
       <c r="D75" t="n">
-        <v>0.271529</v>
+        <v>0.271301</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276444</v>
+        <v>0.274949</v>
       </c>
       <c r="C76" t="n">
-        <v>0.272355</v>
+        <v>0.274084</v>
       </c>
       <c r="D76" t="n">
-        <v>0.267695</v>
+        <v>0.267842</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.273591</v>
+        <v>0.27272</v>
       </c>
       <c r="C77" t="n">
-        <v>0.268686</v>
+        <v>0.268499</v>
       </c>
       <c r="D77" t="n">
-        <v>0.265566</v>
+        <v>0.265339</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.272737</v>
+        <v>0.27219</v>
       </c>
       <c r="C78" t="n">
-        <v>0.266622</v>
+        <v>0.266244</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265347</v>
+        <v>0.265117</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.274586</v>
+        <v>0.272728</v>
       </c>
       <c r="C79" t="n">
-        <v>0.266099</v>
+        <v>0.265769</v>
       </c>
       <c r="D79" t="n">
-        <v>0.268133</v>
+        <v>0.267896</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.278826</v>
+        <v>0.277973</v>
       </c>
       <c r="C80" t="n">
-        <v>0.268453</v>
+        <v>0.26823</v>
       </c>
       <c r="D80" t="n">
-        <v>0.34133</v>
+        <v>0.341393</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.339404</v>
+        <v>0.337513</v>
       </c>
       <c r="C81" t="n">
-        <v>0.345771</v>
+        <v>0.34564</v>
       </c>
       <c r="D81" t="n">
-        <v>0.332842</v>
+        <v>0.332286</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.329965</v>
+        <v>0.329475</v>
       </c>
       <c r="C82" t="n">
-        <v>0.337066</v>
+        <v>0.336282</v>
       </c>
       <c r="D82" t="n">
-        <v>0.32389</v>
+        <v>0.323397</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.321441</v>
+        <v>0.320988</v>
       </c>
       <c r="C83" t="n">
-        <v>0.328357</v>
+        <v>0.327274</v>
       </c>
       <c r="D83" t="n">
-        <v>0.315238</v>
+        <v>0.314452</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.313717</v>
+        <v>0.313128</v>
       </c>
       <c r="C84" t="n">
-        <v>0.319694</v>
+        <v>0.31888</v>
       </c>
       <c r="D84" t="n">
-        <v>0.307479</v>
+        <v>0.306438</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.306358</v>
+        <v>0.304821</v>
       </c>
       <c r="C85" t="n">
-        <v>0.312041</v>
+        <v>0.310409</v>
       </c>
       <c r="D85" t="n">
-        <v>0.299469</v>
+        <v>0.298826</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.300206</v>
+        <v>0.297799</v>
       </c>
       <c r="C86" t="n">
-        <v>0.304393</v>
+        <v>0.302955</v>
       </c>
       <c r="D86" t="n">
-        <v>0.292431</v>
+        <v>0.291985</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.293497</v>
+        <v>0.291789</v>
       </c>
       <c r="C87" t="n">
-        <v>0.297396</v>
+        <v>0.296156</v>
       </c>
       <c r="D87" t="n">
-        <v>0.286157</v>
+        <v>0.285235</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.287265</v>
+        <v>0.286338</v>
       </c>
       <c r="C88" t="n">
-        <v>0.291318</v>
+        <v>0.289311</v>
       </c>
       <c r="D88" t="n">
-        <v>0.280222</v>
+        <v>0.279485</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.282361</v>
+        <v>0.280712</v>
       </c>
       <c r="C89" t="n">
-        <v>0.285186</v>
+        <v>0.28396</v>
       </c>
       <c r="D89" t="n">
-        <v>0.275241</v>
+        <v>0.274525</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278427</v>
+        <v>0.276144</v>
       </c>
       <c r="C90" t="n">
-        <v>0.28059</v>
+        <v>0.278609</v>
       </c>
       <c r="D90" t="n">
-        <v>0.271893</v>
+        <v>0.27024</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.275093</v>
+        <v>0.27392</v>
       </c>
       <c r="C91" t="n">
-        <v>0.276794</v>
+        <v>0.274537</v>
       </c>
       <c r="D91" t="n">
-        <v>0.269567</v>
+        <v>0.267616</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.273888</v>
+        <v>0.272337</v>
       </c>
       <c r="C92" t="n">
-        <v>0.273884</v>
+        <v>0.271558</v>
       </c>
       <c r="D92" t="n">
-        <v>0.268641</v>
+        <v>0.266811</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.275017</v>
+        <v>0.273287</v>
       </c>
       <c r="C93" t="n">
-        <v>0.272562</v>
+        <v>0.270439</v>
       </c>
       <c r="D93" t="n">
-        <v>0.270339</v>
+        <v>0.268618</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.278391</v>
+        <v>0.276233</v>
       </c>
       <c r="C94" t="n">
-        <v>0.273511</v>
+        <v>0.271536</v>
       </c>
       <c r="D94" t="n">
-        <v>0.355893</v>
+        <v>0.353297</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.350898</v>
+        <v>0.347705</v>
       </c>
       <c r="C95" t="n">
-        <v>0.35876</v>
+        <v>0.355689</v>
       </c>
       <c r="D95" t="n">
-        <v>0.349022</v>
+        <v>0.344442</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.342706</v>
+        <v>0.340209</v>
       </c>
       <c r="C96" t="n">
-        <v>0.354013</v>
+        <v>0.348397</v>
       </c>
       <c r="D96" t="n">
-        <v>0.341119</v>
+        <v>0.336001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.335371</v>
+        <v>0.331898</v>
       </c>
       <c r="C97" t="n">
-        <v>0.346877</v>
+        <v>0.339896</v>
       </c>
       <c r="D97" t="n">
-        <v>0.332876</v>
+        <v>0.327142</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.325951</v>
+        <v>0.323554</v>
       </c>
       <c r="C98" t="n">
-        <v>0.341501</v>
+        <v>0.331421</v>
       </c>
       <c r="D98" t="n">
-        <v>0.324935</v>
+        <v>0.319899</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.318703</v>
+        <v>0.316045</v>
       </c>
       <c r="C99" t="n">
-        <v>0.33532</v>
+        <v>0.323617</v>
       </c>
       <c r="D99" t="n">
-        <v>0.317029</v>
+        <v>0.31202</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.311336</v>
+        <v>0.308744</v>
       </c>
       <c r="C100" t="n">
-        <v>0.329303</v>
+        <v>0.315642</v>
       </c>
       <c r="D100" t="n">
-        <v>0.310852</v>
+        <v>0.305229</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.304943</v>
+        <v>0.30226</v>
       </c>
       <c r="C101" t="n">
-        <v>0.323315</v>
+        <v>0.30907</v>
       </c>
       <c r="D101" t="n">
-        <v>0.304521</v>
+        <v>0.298144</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.298397</v>
+        <v>0.296776</v>
       </c>
       <c r="C102" t="n">
-        <v>0.317387</v>
+        <v>0.302473</v>
       </c>
       <c r="D102" t="n">
-        <v>0.298128</v>
+        <v>0.29216</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293386</v>
+        <v>0.291481</v>
       </c>
       <c r="C103" t="n">
-        <v>0.311565</v>
+        <v>0.296196</v>
       </c>
       <c r="D103" t="n">
-        <v>0.293532</v>
+        <v>0.287759</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.288635</v>
+        <v>0.286881</v>
       </c>
       <c r="C104" t="n">
-        <v>0.306</v>
+        <v>0.291508</v>
       </c>
       <c r="D104" t="n">
-        <v>0.28937</v>
+        <v>0.282768</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.285304</v>
+        <v>0.284105</v>
       </c>
       <c r="C105" t="n">
-        <v>0.301039</v>
+        <v>0.28695</v>
       </c>
       <c r="D105" t="n">
-        <v>0.28597</v>
+        <v>0.280833</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.283386</v>
+        <v>0.282097</v>
       </c>
       <c r="C106" t="n">
-        <v>0.297618</v>
+        <v>0.283754</v>
       </c>
       <c r="D106" t="n">
-        <v>0.284582</v>
+        <v>0.279226</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.28326</v>
+        <v>0.28203</v>
       </c>
       <c r="C107" t="n">
-        <v>0.295526</v>
+        <v>0.281986</v>
       </c>
       <c r="D107" t="n">
-        <v>0.285802</v>
+        <v>0.279968</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.287361</v>
+        <v>0.285377</v>
       </c>
       <c r="C108" t="n">
-        <v>0.295332</v>
+        <v>0.282565</v>
       </c>
       <c r="D108" t="n">
-        <v>0.373083</v>
+        <v>0.36744</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.29361</v>
+        <v>0.291519</v>
       </c>
       <c r="C109" t="n">
-        <v>0.299132</v>
+        <v>0.286903</v>
       </c>
       <c r="D109" t="n">
-        <v>0.368983</v>
+        <v>0.363057</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.356724</v>
+        <v>0.353826</v>
       </c>
       <c r="C110" t="n">
-        <v>0.379426</v>
+        <v>0.364828</v>
       </c>
       <c r="D110" t="n">
-        <v>0.363026</v>
+        <v>0.355474</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349412</v>
+        <v>0.346252</v>
       </c>
       <c r="C111" t="n">
-        <v>0.375698</v>
+        <v>0.357494</v>
       </c>
       <c r="D111" t="n">
-        <v>0.356923</v>
+        <v>0.34812</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342236</v>
+        <v>0.339764</v>
       </c>
       <c r="C112" t="n">
-        <v>0.371393</v>
+        <v>0.351965</v>
       </c>
       <c r="D112" t="n">
-        <v>0.352409</v>
+        <v>0.342162</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.335467</v>
+        <v>0.333725</v>
       </c>
       <c r="C113" t="n">
-        <v>0.366948</v>
+        <v>0.344585</v>
       </c>
       <c r="D113" t="n">
-        <v>0.346509</v>
+        <v>0.336077</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.329368</v>
+        <v>0.326512</v>
       </c>
       <c r="C114" t="n">
-        <v>0.362877</v>
+        <v>0.337849</v>
       </c>
       <c r="D114" t="n">
-        <v>0.341594</v>
+        <v>0.330017</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.323943</v>
+        <v>0.32139</v>
       </c>
       <c r="C115" t="n">
-        <v>0.358645</v>
+        <v>0.332336</v>
       </c>
       <c r="D115" t="n">
-        <v>0.336255</v>
+        <v>0.323836</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.318988</v>
+        <v>0.316374</v>
       </c>
       <c r="C116" t="n">
-        <v>0.354383</v>
+        <v>0.325217</v>
       </c>
       <c r="D116" t="n">
-        <v>0.332527</v>
+        <v>0.319391</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.314625</v>
+        <v>0.312207</v>
       </c>
       <c r="C117" t="n">
-        <v>0.350521</v>
+        <v>0.320297</v>
       </c>
       <c r="D117" t="n">
-        <v>0.328213</v>
+        <v>0.315235</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.311156</v>
+        <v>0.308867</v>
       </c>
       <c r="C118" t="n">
-        <v>0.346259</v>
+        <v>0.315794</v>
       </c>
       <c r="D118" t="n">
-        <v>0.324316</v>
+        <v>0.311529</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.308735</v>
+        <v>0.306369</v>
       </c>
       <c r="C119" t="n">
-        <v>0.343326</v>
+        <v>0.312573</v>
       </c>
       <c r="D119" t="n">
-        <v>0.322397</v>
+        <v>0.309805</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.307002</v>
+        <v>0.304894</v>
       </c>
       <c r="C120" t="n">
-        <v>0.34002</v>
+        <v>0.309598</v>
       </c>
       <c r="D120" t="n">
-        <v>0.321357</v>
+        <v>0.308771</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.307606</v>
+        <v>0.305351</v>
       </c>
       <c r="C121" t="n">
-        <v>0.338215</v>
+        <v>0.30838</v>
       </c>
       <c r="D121" t="n">
-        <v>0.322052</v>
+        <v>0.309922</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.310363</v>
+        <v>0.308363</v>
       </c>
       <c r="C122" t="n">
-        <v>0.338218</v>
+        <v>0.310038</v>
       </c>
       <c r="D122" t="n">
-        <v>0.32591</v>
+        <v>0.314631</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.315938</v>
+        <v>0.31462</v>
       </c>
       <c r="C123" t="n">
-        <v>0.340765</v>
+        <v>0.314198</v>
       </c>
       <c r="D123" t="n">
-        <v>0.40598</v>
+        <v>0.39415</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3825</v>
+        <v>0.380666</v>
       </c>
       <c r="C124" t="n">
-        <v>0.420767</v>
+        <v>0.393328</v>
       </c>
       <c r="D124" t="n">
-        <v>0.402819</v>
+        <v>0.390152</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.378499</v>
+        <v>0.376875</v>
       </c>
       <c r="C125" t="n">
-        <v>0.417429</v>
+        <v>0.38896</v>
       </c>
       <c r="D125" t="n">
-        <v>0.399848</v>
+        <v>0.386605</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.374078</v>
+        <v>0.372828</v>
       </c>
       <c r="C126" t="n">
-        <v>0.414402</v>
+        <v>0.383199</v>
       </c>
       <c r="D126" t="n">
-        <v>0.396973</v>
+        <v>0.383865</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.370885</v>
+        <v>0.369073</v>
       </c>
       <c r="C127" t="n">
-        <v>0.411113</v>
+        <v>0.378589</v>
       </c>
       <c r="D127" t="n">
-        <v>0.394596</v>
+        <v>0.380522</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.366617</v>
+        <v>0.365379</v>
       </c>
       <c r="C128" t="n">
-        <v>0.408139</v>
+        <v>0.375369</v>
       </c>
       <c r="D128" t="n">
-        <v>0.392058</v>
+        <v>0.378302</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.363504</v>
+        <v>0.362326</v>
       </c>
       <c r="C129" t="n">
-        <v>0.40489</v>
+        <v>0.371471</v>
       </c>
       <c r="D129" t="n">
-        <v>0.390067</v>
+        <v>0.376272</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.361003</v>
+        <v>0.359875</v>
       </c>
       <c r="C130" t="n">
-        <v>0.401783</v>
+        <v>0.368018</v>
       </c>
       <c r="D130" t="n">
-        <v>0.387881</v>
+        <v>0.374653</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.358297</v>
+        <v>0.357419</v>
       </c>
       <c r="C131" t="n">
-        <v>0.398529</v>
+        <v>0.365954</v>
       </c>
       <c r="D131" t="n">
-        <v>0.386996</v>
+        <v>0.373485</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.356878</v>
+        <v>0.355985</v>
       </c>
       <c r="C132" t="n">
-        <v>0.395994</v>
+        <v>0.363044</v>
       </c>
       <c r="D132" t="n">
-        <v>0.385766</v>
+        <v>0.372872</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.355512</v>
+        <v>0.355176</v>
       </c>
       <c r="C133" t="n">
-        <v>0.393837</v>
+        <v>0.361312</v>
       </c>
       <c r="D133" t="n">
-        <v>0.385196</v>
+        <v>0.372983</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.356005</v>
+        <v>0.355589</v>
       </c>
       <c r="C134" t="n">
-        <v>0.392563</v>
+        <v>0.36065</v>
       </c>
       <c r="D134" t="n">
-        <v>0.385755</v>
+        <v>0.374705</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.357303</v>
+        <v>0.356777</v>
       </c>
       <c r="C135" t="n">
-        <v>0.391688</v>
+        <v>0.360988</v>
       </c>
       <c r="D135" t="n">
-        <v>0.388704</v>
+        <v>0.37775</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.360447</v>
+        <v>0.360547</v>
       </c>
       <c r="C136" t="n">
-        <v>0.393126</v>
+        <v>0.363215</v>
       </c>
       <c r="D136" t="n">
-        <v>0.394213</v>
+        <v>0.383087</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.366065</v>
+        <v>0.365901</v>
       </c>
       <c r="C137" t="n">
-        <v>0.396498</v>
+        <v>0.368364</v>
       </c>
       <c r="D137" t="n">
-        <v>0.475281</v>
+        <v>0.46533</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.44087</v>
+        <v>0.439957</v>
       </c>
       <c r="C138" t="n">
-        <v>0.477683</v>
+        <v>0.450289</v>
       </c>
       <c r="D138" t="n">
-        <v>0.475127</v>
+        <v>0.463313</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.440657</v>
+        <v>0.438486</v>
       </c>
       <c r="C139" t="n">
-        <v>0.47521</v>
+        <v>0.447827</v>
       </c>
       <c r="D139" t="n">
-        <v>0.472058</v>
+        <v>0.461159</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.439271</v>
+        <v>0.437768</v>
       </c>
       <c r="C140" t="n">
-        <v>0.472607</v>
+        <v>0.446023</v>
       </c>
       <c r="D140" t="n">
-        <v>0.470099</v>
+        <v>0.460547</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.439106</v>
+        <v>0.436707</v>
       </c>
       <c r="C141" t="n">
-        <v>0.470646</v>
+        <v>0.443965</v>
       </c>
       <c r="D141" t="n">
-        <v>0.468729</v>
+        <v>0.459134</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.438741</v>
+        <v>0.436587</v>
       </c>
       <c r="C142" t="n">
-        <v>0.468096</v>
+        <v>0.441519</v>
       </c>
       <c r="D142" t="n">
-        <v>0.467633</v>
+        <v>0.457768</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.438529</v>
+        <v>0.436056</v>
       </c>
       <c r="C143" t="n">
-        <v>0.466166</v>
+        <v>0.44037</v>
       </c>
       <c r="D143" t="n">
-        <v>0.466291</v>
+        <v>0.457126</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.252242</v>
+        <v>0.262166</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2538</v>
+        <v>0.253451</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244574</v>
+        <v>0.244216</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.26728</v>
+        <v>0.274732</v>
       </c>
       <c r="C3" t="n">
-        <v>0.24876</v>
+        <v>0.248461</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239525</v>
+        <v>0.239169</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.261679</v>
+        <v>0.26881</v>
       </c>
       <c r="C4" t="n">
-        <v>0.244344</v>
+        <v>0.244112</v>
       </c>
       <c r="D4" t="n">
-        <v>0.235824</v>
+        <v>0.235892</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.258549</v>
+        <v>0.265145</v>
       </c>
       <c r="C5" t="n">
-        <v>0.241119</v>
+        <v>0.240649</v>
       </c>
       <c r="D5" t="n">
-        <v>0.233449</v>
+        <v>0.233619</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.256501</v>
+        <v>0.262863</v>
       </c>
       <c r="C6" t="n">
-        <v>0.240026</v>
+        <v>0.239865</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23231</v>
+        <v>0.232098</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.254592</v>
+        <v>0.26156</v>
       </c>
       <c r="C7" t="n">
-        <v>0.238277</v>
+        <v>0.238306</v>
       </c>
       <c r="D7" t="n">
-        <v>0.232244</v>
+        <v>0.232078</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.256155</v>
+        <v>0.25963</v>
       </c>
       <c r="C8" t="n">
-        <v>0.238111</v>
+        <v>0.237943</v>
       </c>
       <c r="D8" t="n">
-        <v>0.233393</v>
+        <v>0.233503</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.245707</v>
+        <v>0.264477</v>
       </c>
       <c r="C9" t="n">
-        <v>0.239504</v>
+        <v>0.239211</v>
       </c>
       <c r="D9" t="n">
-        <v>0.317319</v>
+        <v>0.317029</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.318371</v>
+        <v>0.324694</v>
       </c>
       <c r="C10" t="n">
-        <v>0.314191</v>
+        <v>0.323538</v>
       </c>
       <c r="D10" t="n">
-        <v>0.305102</v>
+        <v>0.307304</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.309351</v>
+        <v>0.314416</v>
       </c>
       <c r="C11" t="n">
-        <v>0.312286</v>
+        <v>0.314025</v>
       </c>
       <c r="D11" t="n">
-        <v>0.298804</v>
+        <v>0.299279</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.301134</v>
+        <v>0.305482</v>
       </c>
       <c r="C12" t="n">
-        <v>0.294474</v>
+        <v>0.306181</v>
       </c>
       <c r="D12" t="n">
-        <v>0.290524</v>
+        <v>0.29038</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.292192</v>
+        <v>0.297955</v>
       </c>
       <c r="C13" t="n">
-        <v>0.298022</v>
+        <v>0.299213</v>
       </c>
       <c r="D13" t="n">
-        <v>0.281002</v>
+        <v>0.284595</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.285011</v>
+        <v>0.289623</v>
       </c>
       <c r="C14" t="n">
-        <v>0.290458</v>
+        <v>0.28849</v>
       </c>
       <c r="D14" t="n">
-        <v>0.277103</v>
+        <v>0.275294</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.27867</v>
+        <v>0.283467</v>
       </c>
       <c r="C15" t="n">
-        <v>0.283325</v>
+        <v>0.283362</v>
       </c>
       <c r="D15" t="n">
-        <v>0.270485</v>
+        <v>0.272071</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.272111</v>
+        <v>0.275693</v>
       </c>
       <c r="C16" t="n">
-        <v>0.265535</v>
+        <v>0.269098</v>
       </c>
       <c r="D16" t="n">
-        <v>0.259972</v>
+        <v>0.254804</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.26661</v>
+        <v>0.269538</v>
       </c>
       <c r="C17" t="n">
-        <v>0.270908</v>
+        <v>0.270338</v>
       </c>
       <c r="D17" t="n">
-        <v>0.259135</v>
+        <v>0.253633</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.260761</v>
+        <v>0.265625</v>
       </c>
       <c r="C18" t="n">
-        <v>0.265612</v>
+        <v>0.261108</v>
       </c>
       <c r="D18" t="n">
-        <v>0.255268</v>
+        <v>0.247915</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.259895</v>
+        <v>0.260678</v>
       </c>
       <c r="C19" t="n">
-        <v>0.256641</v>
+        <v>0.260452</v>
       </c>
       <c r="D19" t="n">
-        <v>0.249106</v>
+        <v>0.252021</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.255113</v>
+        <v>0.258777</v>
       </c>
       <c r="C20" t="n">
-        <v>0.257097</v>
+        <v>0.255275</v>
       </c>
       <c r="D20" t="n">
-        <v>0.249454</v>
+        <v>0.249449</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.254607</v>
+        <v>0.257892</v>
       </c>
       <c r="C21" t="n">
-        <v>0.254829</v>
+        <v>0.253152</v>
       </c>
       <c r="D21" t="n">
-        <v>0.248492</v>
+        <v>0.24406</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.257468</v>
+        <v>0.258716</v>
       </c>
       <c r="C22" t="n">
-        <v>0.253222</v>
+        <v>0.247984</v>
       </c>
       <c r="D22" t="n">
-        <v>0.24468</v>
+        <v>0.24738</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2602</v>
+        <v>0.261401</v>
       </c>
       <c r="C23" t="n">
-        <v>0.254309</v>
+        <v>0.254404</v>
       </c>
       <c r="D23" t="n">
-        <v>0.31296</v>
+        <v>0.312647</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.323489</v>
+        <v>0.325611</v>
       </c>
       <c r="C24" t="n">
-        <v>0.319038</v>
+        <v>0.318971</v>
       </c>
       <c r="D24" t="n">
-        <v>0.304515</v>
+        <v>0.304367</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.314321</v>
+        <v>0.315215</v>
       </c>
       <c r="C25" t="n">
-        <v>0.309614</v>
+        <v>0.309807</v>
       </c>
       <c r="D25" t="n">
-        <v>0.296165</v>
+        <v>0.2958</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.307097</v>
+        <v>0.306889</v>
       </c>
       <c r="C26" t="n">
-        <v>0.301235</v>
+        <v>0.301484</v>
       </c>
       <c r="D26" t="n">
-        <v>0.288242</v>
+        <v>0.28793</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.298278</v>
+        <v>0.2985</v>
       </c>
       <c r="C27" t="n">
-        <v>0.293116</v>
+        <v>0.293346</v>
       </c>
       <c r="D27" t="n">
-        <v>0.280771</v>
+        <v>0.280655</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.290691</v>
+        <v>0.291708</v>
       </c>
       <c r="C28" t="n">
-        <v>0.286215</v>
+        <v>0.286225</v>
       </c>
       <c r="D28" t="n">
-        <v>0.274172</v>
+        <v>0.273472</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.283621</v>
+        <v>0.284608</v>
       </c>
       <c r="C29" t="n">
-        <v>0.279386</v>
+        <v>0.279218</v>
       </c>
       <c r="D29" t="n">
-        <v>0.267589</v>
+        <v>0.267801</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.276974</v>
+        <v>0.278438</v>
       </c>
       <c r="C30" t="n">
-        <v>0.273022</v>
+        <v>0.273172</v>
       </c>
       <c r="D30" t="n">
-        <v>0.262003</v>
+        <v>0.261798</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.271732</v>
+        <v>0.272863</v>
       </c>
       <c r="C31" t="n">
-        <v>0.267208</v>
+        <v>0.267349</v>
       </c>
       <c r="D31" t="n">
-        <v>0.256779</v>
+        <v>0.256934</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.266445</v>
+        <v>0.268326</v>
       </c>
       <c r="C32" t="n">
-        <v>0.262172</v>
+        <v>0.262156</v>
       </c>
       <c r="D32" t="n">
-        <v>0.252198</v>
+        <v>0.252571</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.263231</v>
+        <v>0.265107</v>
       </c>
       <c r="C33" t="n">
-        <v>0.257687</v>
+        <v>0.257943</v>
       </c>
       <c r="D33" t="n">
-        <v>0.249068</v>
+        <v>0.249407</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.260319</v>
+        <v>0.26153</v>
       </c>
       <c r="C34" t="n">
-        <v>0.253849</v>
+        <v>0.253905</v>
       </c>
       <c r="D34" t="n">
-        <v>0.246972</v>
+        <v>0.246678</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258917</v>
+        <v>0.260755</v>
       </c>
       <c r="C35" t="n">
-        <v>0.251904</v>
+        <v>0.251368</v>
       </c>
       <c r="D35" t="n">
-        <v>0.245921</v>
+        <v>0.245717</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.258989</v>
+        <v>0.260111</v>
       </c>
       <c r="C36" t="n">
-        <v>0.250285</v>
+        <v>0.249982</v>
       </c>
       <c r="D36" t="n">
-        <v>0.247455</v>
+        <v>0.247308</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.261899</v>
+        <v>0.263272</v>
       </c>
       <c r="C37" t="n">
-        <v>0.251262</v>
+        <v>0.251022</v>
       </c>
       <c r="D37" t="n">
-        <v>0.326589</v>
+        <v>0.325051</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.335483</v>
+        <v>0.336694</v>
       </c>
       <c r="C38" t="n">
-        <v>0.330281</v>
+        <v>0.328625</v>
       </c>
       <c r="D38" t="n">
-        <v>0.31738</v>
+        <v>0.316544</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.326444</v>
+        <v>0.326954</v>
       </c>
       <c r="C39" t="n">
-        <v>0.319789</v>
+        <v>0.319552</v>
       </c>
       <c r="D39" t="n">
-        <v>0.302313</v>
+        <v>0.307575</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.317606</v>
+        <v>0.317774</v>
       </c>
       <c r="C40" t="n">
-        <v>0.312606</v>
+        <v>0.311137</v>
       </c>
       <c r="D40" t="n">
-        <v>0.300102</v>
+        <v>0.299619</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.307457</v>
+        <v>0.309217</v>
       </c>
       <c r="C41" t="n">
-        <v>0.302558</v>
+        <v>0.303025</v>
       </c>
       <c r="D41" t="n">
-        <v>0.291983</v>
+        <v>0.292069</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.299457</v>
+        <v>0.301506</v>
       </c>
       <c r="C42" t="n">
-        <v>0.295792</v>
+        <v>0.295363</v>
       </c>
       <c r="D42" t="n">
-        <v>0.284911</v>
+        <v>0.284546</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.292553</v>
+        <v>0.294649</v>
       </c>
       <c r="C43" t="n">
-        <v>0.287949</v>
+        <v>0.288266</v>
       </c>
       <c r="D43" t="n">
-        <v>0.275173</v>
+        <v>0.278189</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.285538</v>
+        <v>0.287688</v>
       </c>
       <c r="C44" t="n">
-        <v>0.28171</v>
+        <v>0.281567</v>
       </c>
       <c r="D44" t="n">
-        <v>0.27161</v>
+        <v>0.271705</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.279518</v>
+        <v>0.282072</v>
       </c>
       <c r="C45" t="n">
-        <v>0.273618</v>
+        <v>0.275272</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264829</v>
+        <v>0.266245</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.274545</v>
+        <v>0.276902</v>
       </c>
       <c r="C46" t="n">
-        <v>0.270019</v>
+        <v>0.269915</v>
       </c>
       <c r="D46" t="n">
-        <v>0.261697</v>
+        <v>0.261659</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.270446</v>
+        <v>0.272073</v>
       </c>
       <c r="C47" t="n">
-        <v>0.265282</v>
+        <v>0.265041</v>
       </c>
       <c r="D47" t="n">
-        <v>0.257699</v>
+        <v>0.257514</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267544</v>
+        <v>0.268972</v>
       </c>
       <c r="C48" t="n">
-        <v>0.261019</v>
+        <v>0.260935</v>
       </c>
       <c r="D48" t="n">
-        <v>0.255119</v>
+        <v>0.255036</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.265766</v>
+        <v>0.266961</v>
       </c>
       <c r="C49" t="n">
-        <v>0.258195</v>
+        <v>0.258158</v>
       </c>
       <c r="D49" t="n">
-        <v>0.253762</v>
+        <v>0.253957</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.265496</v>
+        <v>0.26796</v>
       </c>
       <c r="C50" t="n">
-        <v>0.256674</v>
+        <v>0.256671</v>
       </c>
       <c r="D50" t="n">
-        <v>0.255041</v>
+        <v>0.255079</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.267772</v>
+        <v>0.270455</v>
       </c>
       <c r="C51" t="n">
-        <v>0.256917</v>
+        <v>0.257058</v>
       </c>
       <c r="D51" t="n">
-        <v>0.333836</v>
+        <v>0.33395</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.274343</v>
+        <v>0.277247</v>
       </c>
       <c r="C52" t="n">
-        <v>0.260783</v>
+        <v>0.261061</v>
       </c>
       <c r="D52" t="n">
-        <v>0.324467</v>
+        <v>0.324456</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.329037</v>
+        <v>0.331474</v>
       </c>
       <c r="C53" t="n">
-        <v>0.328346</v>
+        <v>0.329089</v>
       </c>
       <c r="D53" t="n">
-        <v>0.315744</v>
+        <v>0.317219</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.319901</v>
+        <v>0.324391</v>
       </c>
       <c r="C54" t="n">
-        <v>0.319263</v>
+        <v>0.321144</v>
       </c>
       <c r="D54" t="n">
-        <v>0.307119</v>
+        <v>0.308994</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.311395</v>
+        <v>0.316012</v>
       </c>
       <c r="C55" t="n">
-        <v>0.310701</v>
+        <v>0.31243</v>
       </c>
       <c r="D55" t="n">
-        <v>0.299324</v>
+        <v>0.300726</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.303543</v>
+        <v>0.307493</v>
       </c>
       <c r="C56" t="n">
-        <v>0.302979</v>
+        <v>0.304176</v>
       </c>
       <c r="D56" t="n">
-        <v>0.291688</v>
+        <v>0.293203</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.296399</v>
+        <v>0.300402</v>
       </c>
       <c r="C57" t="n">
-        <v>0.295584</v>
+        <v>0.296971</v>
       </c>
       <c r="D57" t="n">
-        <v>0.284695</v>
+        <v>0.286192</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.289507</v>
+        <v>0.293192</v>
       </c>
       <c r="C58" t="n">
-        <v>0.28896</v>
+        <v>0.290158</v>
       </c>
       <c r="D58" t="n">
-        <v>0.278648</v>
+        <v>0.278855</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.283889</v>
+        <v>0.285534</v>
       </c>
       <c r="C59" t="n">
-        <v>0.282445</v>
+        <v>0.282404</v>
       </c>
       <c r="D59" t="n">
-        <v>0.272318</v>
+        <v>0.272887</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.278302</v>
+        <v>0.280286</v>
       </c>
       <c r="C60" t="n">
-        <v>0.276542</v>
+        <v>0.276237</v>
       </c>
       <c r="D60" t="n">
-        <v>0.267277</v>
+        <v>0.267283</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.273911</v>
+        <v>0.275549</v>
       </c>
       <c r="C61" t="n">
-        <v>0.271328</v>
+        <v>0.271273</v>
       </c>
       <c r="D61" t="n">
-        <v>0.263234</v>
+        <v>0.263034</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27038</v>
+        <v>0.272224</v>
       </c>
       <c r="C62" t="n">
-        <v>0.26707</v>
+        <v>0.267134</v>
       </c>
       <c r="D62" t="n">
-        <v>0.260233</v>
+        <v>0.260211</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267994</v>
+        <v>0.269954</v>
       </c>
       <c r="C63" t="n">
-        <v>0.264057</v>
+        <v>0.264013</v>
       </c>
       <c r="D63" t="n">
-        <v>0.25849</v>
+        <v>0.258359</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.267469</v>
+        <v>0.270307</v>
       </c>
       <c r="C64" t="n">
-        <v>0.262087</v>
+        <v>0.262322</v>
       </c>
       <c r="D64" t="n">
-        <v>0.259147</v>
+        <v>0.259059</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.269768</v>
+        <v>0.2719</v>
       </c>
       <c r="C65" t="n">
-        <v>0.262355</v>
+        <v>0.262168</v>
       </c>
       <c r="D65" t="n">
-        <v>0.262595</v>
+        <v>0.262914</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.275499</v>
+        <v>0.278131</v>
       </c>
       <c r="C66" t="n">
-        <v>0.264797</v>
+        <v>0.265021</v>
       </c>
       <c r="D66" t="n">
-        <v>0.336424</v>
+        <v>0.336487</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.336344</v>
+        <v>0.337994</v>
       </c>
       <c r="C67" t="n">
-        <v>0.336613</v>
+        <v>0.335596</v>
       </c>
       <c r="D67" t="n">
-        <v>0.327295</v>
+        <v>0.326972</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.326971</v>
+        <v>0.329199</v>
       </c>
       <c r="C68" t="n">
-        <v>0.326568</v>
+        <v>0.3266</v>
       </c>
       <c r="D68" t="n">
-        <v>0.318102</v>
+        <v>0.318352</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.318635</v>
+        <v>0.319805</v>
       </c>
       <c r="C69" t="n">
-        <v>0.317945</v>
+        <v>0.318007</v>
       </c>
       <c r="D69" t="n">
-        <v>0.309762</v>
+        <v>0.309902</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.310248</v>
+        <v>0.312345</v>
       </c>
       <c r="C70" t="n">
-        <v>0.30958</v>
+        <v>0.309587</v>
       </c>
       <c r="D70" t="n">
-        <v>0.301669</v>
+        <v>0.301802</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.302915</v>
+        <v>0.304507</v>
       </c>
       <c r="C71" t="n">
-        <v>0.302126</v>
+        <v>0.302392</v>
       </c>
       <c r="D71" t="n">
-        <v>0.294287</v>
+        <v>0.294161</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.295419</v>
+        <v>0.297634</v>
       </c>
       <c r="C72" t="n">
-        <v>0.294794</v>
+        <v>0.294728</v>
       </c>
       <c r="D72" t="n">
-        <v>0.287512</v>
+        <v>0.287307</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.289315</v>
+        <v>0.291141</v>
       </c>
       <c r="C73" t="n">
-        <v>0.288347</v>
+        <v>0.288196</v>
       </c>
       <c r="D73" t="n">
-        <v>0.281272</v>
+        <v>0.281682</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.283593</v>
+        <v>0.285339</v>
       </c>
       <c r="C74" t="n">
-        <v>0.282164</v>
+        <v>0.282018</v>
       </c>
       <c r="D74" t="n">
-        <v>0.275974</v>
+        <v>0.275733</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278724</v>
+        <v>0.279818</v>
       </c>
       <c r="C75" t="n">
-        <v>0.276529</v>
+        <v>0.27696</v>
       </c>
       <c r="D75" t="n">
-        <v>0.271301</v>
+        <v>0.27097</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.274949</v>
+        <v>0.276184</v>
       </c>
       <c r="C76" t="n">
-        <v>0.274084</v>
+        <v>0.272229</v>
       </c>
       <c r="D76" t="n">
-        <v>0.267842</v>
+        <v>0.267275</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.27272</v>
+        <v>0.274024</v>
       </c>
       <c r="C77" t="n">
-        <v>0.268499</v>
+        <v>0.268536</v>
       </c>
       <c r="D77" t="n">
-        <v>0.265339</v>
+        <v>0.265088</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.27219</v>
+        <v>0.273135</v>
       </c>
       <c r="C78" t="n">
-        <v>0.266244</v>
+        <v>0.265944</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265117</v>
+        <v>0.264225</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.272728</v>
+        <v>0.274193</v>
       </c>
       <c r="C79" t="n">
-        <v>0.265769</v>
+        <v>0.265969</v>
       </c>
       <c r="D79" t="n">
-        <v>0.267896</v>
+        <v>0.267798</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.277973</v>
+        <v>0.27863</v>
       </c>
       <c r="C80" t="n">
-        <v>0.26823</v>
+        <v>0.268146</v>
       </c>
       <c r="D80" t="n">
-        <v>0.341393</v>
+        <v>0.340894</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.337513</v>
+        <v>0.339134</v>
       </c>
       <c r="C81" t="n">
-        <v>0.34564</v>
+        <v>0.345619</v>
       </c>
       <c r="D81" t="n">
-        <v>0.332286</v>
+        <v>0.332045</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.329475</v>
+        <v>0.329742</v>
       </c>
       <c r="C82" t="n">
-        <v>0.336282</v>
+        <v>0.335949</v>
       </c>
       <c r="D82" t="n">
-        <v>0.323397</v>
+        <v>0.322876</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.320988</v>
+        <v>0.321279</v>
       </c>
       <c r="C83" t="n">
-        <v>0.327274</v>
+        <v>0.327044</v>
       </c>
       <c r="D83" t="n">
-        <v>0.314452</v>
+        <v>0.314115</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.313128</v>
+        <v>0.312122</v>
       </c>
       <c r="C84" t="n">
-        <v>0.31888</v>
+        <v>0.318164</v>
       </c>
       <c r="D84" t="n">
-        <v>0.306438</v>
+        <v>0.305436</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.304821</v>
+        <v>0.30508</v>
       </c>
       <c r="C85" t="n">
-        <v>0.310409</v>
+        <v>0.310373</v>
       </c>
       <c r="D85" t="n">
-        <v>0.298826</v>
+        <v>0.299009</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.297799</v>
+        <v>0.297978</v>
       </c>
       <c r="C86" t="n">
-        <v>0.302955</v>
+        <v>0.302539</v>
       </c>
       <c r="D86" t="n">
-        <v>0.291985</v>
+        <v>0.291543</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.291789</v>
+        <v>0.292077</v>
       </c>
       <c r="C87" t="n">
-        <v>0.296156</v>
+        <v>0.295619</v>
       </c>
       <c r="D87" t="n">
-        <v>0.285235</v>
+        <v>0.285237</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.286338</v>
+        <v>0.285971</v>
       </c>
       <c r="C88" t="n">
-        <v>0.289311</v>
+        <v>0.289037</v>
       </c>
       <c r="D88" t="n">
-        <v>0.279485</v>
+        <v>0.278905</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.280712</v>
+        <v>0.280965</v>
       </c>
       <c r="C89" t="n">
-        <v>0.28396</v>
+        <v>0.283348</v>
       </c>
       <c r="D89" t="n">
-        <v>0.274525</v>
+        <v>0.274433</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.276144</v>
+        <v>0.27644</v>
       </c>
       <c r="C90" t="n">
-        <v>0.278609</v>
+        <v>0.278616</v>
       </c>
       <c r="D90" t="n">
-        <v>0.27024</v>
+        <v>0.270256</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.27392</v>
+        <v>0.274489</v>
       </c>
       <c r="C91" t="n">
-        <v>0.274537</v>
+        <v>0.274568</v>
       </c>
       <c r="D91" t="n">
-        <v>0.267616</v>
+        <v>0.267553</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.272337</v>
+        <v>0.272576</v>
       </c>
       <c r="C92" t="n">
-        <v>0.271558</v>
+        <v>0.271192</v>
       </c>
       <c r="D92" t="n">
-        <v>0.266811</v>
+        <v>0.267176</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.273287</v>
+        <v>0.273672</v>
       </c>
       <c r="C93" t="n">
-        <v>0.270439</v>
+        <v>0.269721</v>
       </c>
       <c r="D93" t="n">
-        <v>0.268618</v>
+        <v>0.26841</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.276233</v>
+        <v>0.277365</v>
       </c>
       <c r="C94" t="n">
-        <v>0.271536</v>
+        <v>0.271789</v>
       </c>
       <c r="D94" t="n">
-        <v>0.353297</v>
+        <v>0.353127</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.347705</v>
+        <v>0.348352</v>
       </c>
       <c r="C95" t="n">
-        <v>0.355689</v>
+        <v>0.35578</v>
       </c>
       <c r="D95" t="n">
-        <v>0.344442</v>
+        <v>0.344717</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.340209</v>
+        <v>0.341214</v>
       </c>
       <c r="C96" t="n">
-        <v>0.348397</v>
+        <v>0.347983</v>
       </c>
       <c r="D96" t="n">
-        <v>0.336001</v>
+        <v>0.336192</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.331898</v>
+        <v>0.332363</v>
       </c>
       <c r="C97" t="n">
-        <v>0.339896</v>
+        <v>0.339168</v>
       </c>
       <c r="D97" t="n">
-        <v>0.327142</v>
+        <v>0.327098</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.323554</v>
+        <v>0.324491</v>
       </c>
       <c r="C98" t="n">
-        <v>0.331421</v>
+        <v>0.330797</v>
       </c>
       <c r="D98" t="n">
-        <v>0.319899</v>
+        <v>0.319124</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.316045</v>
+        <v>0.3167</v>
       </c>
       <c r="C99" t="n">
-        <v>0.323617</v>
+        <v>0.322837</v>
       </c>
       <c r="D99" t="n">
-        <v>0.31202</v>
+        <v>0.312051</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.308744</v>
+        <v>0.309986</v>
       </c>
       <c r="C100" t="n">
-        <v>0.315642</v>
+        <v>0.31498</v>
       </c>
       <c r="D100" t="n">
-        <v>0.305229</v>
+        <v>0.304976</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.30226</v>
+        <v>0.3031</v>
       </c>
       <c r="C101" t="n">
-        <v>0.30907</v>
+        <v>0.30787</v>
       </c>
       <c r="D101" t="n">
-        <v>0.298144</v>
+        <v>0.298627</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.296776</v>
+        <v>0.297264</v>
       </c>
       <c r="C102" t="n">
-        <v>0.302473</v>
+        <v>0.301814</v>
       </c>
       <c r="D102" t="n">
-        <v>0.29216</v>
+        <v>0.293112</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291481</v>
+        <v>0.292186</v>
       </c>
       <c r="C103" t="n">
-        <v>0.296196</v>
+        <v>0.296406</v>
       </c>
       <c r="D103" t="n">
-        <v>0.287759</v>
+        <v>0.287921</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.286881</v>
+        <v>0.288071</v>
       </c>
       <c r="C104" t="n">
-        <v>0.291508</v>
+        <v>0.290673</v>
       </c>
       <c r="D104" t="n">
-        <v>0.282768</v>
+        <v>0.283517</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.284105</v>
+        <v>0.284893</v>
       </c>
       <c r="C105" t="n">
-        <v>0.28695</v>
+        <v>0.286594</v>
       </c>
       <c r="D105" t="n">
-        <v>0.280833</v>
+        <v>0.280762</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.282097</v>
+        <v>0.28287</v>
       </c>
       <c r="C106" t="n">
-        <v>0.283754</v>
+        <v>0.283303</v>
       </c>
       <c r="D106" t="n">
-        <v>0.279226</v>
+        <v>0.279303</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.28203</v>
+        <v>0.282695</v>
       </c>
       <c r="C107" t="n">
-        <v>0.281986</v>
+        <v>0.281735</v>
       </c>
       <c r="D107" t="n">
-        <v>0.279968</v>
+        <v>0.280475</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.285377</v>
+        <v>0.285875</v>
       </c>
       <c r="C108" t="n">
-        <v>0.282565</v>
+        <v>0.282409</v>
       </c>
       <c r="D108" t="n">
-        <v>0.36744</v>
+        <v>0.367435</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.291519</v>
+        <v>0.291924</v>
       </c>
       <c r="C109" t="n">
-        <v>0.286903</v>
+        <v>0.285942</v>
       </c>
       <c r="D109" t="n">
-        <v>0.363057</v>
+        <v>0.36224</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.353826</v>
+        <v>0.354068</v>
       </c>
       <c r="C110" t="n">
-        <v>0.364828</v>
+        <v>0.364065</v>
       </c>
       <c r="D110" t="n">
-        <v>0.355474</v>
+        <v>0.355052</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.346252</v>
+        <v>0.347547</v>
       </c>
       <c r="C111" t="n">
-        <v>0.357494</v>
+        <v>0.357181</v>
       </c>
       <c r="D111" t="n">
-        <v>0.34812</v>
+        <v>0.347612</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.339764</v>
+        <v>0.340558</v>
       </c>
       <c r="C112" t="n">
-        <v>0.351965</v>
+        <v>0.349544</v>
       </c>
       <c r="D112" t="n">
-        <v>0.342162</v>
+        <v>0.340852</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.333725</v>
+        <v>0.33385</v>
       </c>
       <c r="C113" t="n">
-        <v>0.344585</v>
+        <v>0.342556</v>
       </c>
       <c r="D113" t="n">
-        <v>0.336077</v>
+        <v>0.334781</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.326512</v>
+        <v>0.327842</v>
       </c>
       <c r="C114" t="n">
-        <v>0.337849</v>
+        <v>0.336336</v>
       </c>
       <c r="D114" t="n">
-        <v>0.330017</v>
+        <v>0.329154</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.32139</v>
+        <v>0.32253</v>
       </c>
       <c r="C115" t="n">
-        <v>0.332336</v>
+        <v>0.329956</v>
       </c>
       <c r="D115" t="n">
-        <v>0.323836</v>
+        <v>0.323188</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.316374</v>
+        <v>0.3174</v>
       </c>
       <c r="C116" t="n">
-        <v>0.325217</v>
+        <v>0.324276</v>
       </c>
       <c r="D116" t="n">
-        <v>0.319391</v>
+        <v>0.318775</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.312207</v>
+        <v>0.313255</v>
       </c>
       <c r="C117" t="n">
-        <v>0.320297</v>
+        <v>0.31963</v>
       </c>
       <c r="D117" t="n">
-        <v>0.315235</v>
+        <v>0.314824</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.308867</v>
+        <v>0.309784</v>
       </c>
       <c r="C118" t="n">
-        <v>0.315794</v>
+        <v>0.315141</v>
       </c>
       <c r="D118" t="n">
-        <v>0.311529</v>
+        <v>0.311606</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.306369</v>
+        <v>0.307575</v>
       </c>
       <c r="C119" t="n">
-        <v>0.312573</v>
+        <v>0.311308</v>
       </c>
       <c r="D119" t="n">
-        <v>0.309805</v>
+        <v>0.308999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.304894</v>
+        <v>0.306132</v>
       </c>
       <c r="C120" t="n">
-        <v>0.309598</v>
+        <v>0.309297</v>
       </c>
       <c r="D120" t="n">
-        <v>0.308771</v>
+        <v>0.308025</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.305351</v>
+        <v>0.306292</v>
       </c>
       <c r="C121" t="n">
-        <v>0.30838</v>
+        <v>0.308078</v>
       </c>
       <c r="D121" t="n">
-        <v>0.309922</v>
+        <v>0.309448</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.308363</v>
+        <v>0.308938</v>
       </c>
       <c r="C122" t="n">
-        <v>0.310038</v>
+        <v>0.308401</v>
       </c>
       <c r="D122" t="n">
-        <v>0.314631</v>
+        <v>0.31436</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.31462</v>
+        <v>0.315307</v>
       </c>
       <c r="C123" t="n">
-        <v>0.314198</v>
+        <v>0.31293</v>
       </c>
       <c r="D123" t="n">
-        <v>0.39415</v>
+        <v>0.394485</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.380666</v>
+        <v>0.381594</v>
       </c>
       <c r="C124" t="n">
-        <v>0.393328</v>
+        <v>0.392649</v>
       </c>
       <c r="D124" t="n">
-        <v>0.390152</v>
+        <v>0.390185</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.376875</v>
+        <v>0.377822</v>
       </c>
       <c r="C125" t="n">
-        <v>0.38896</v>
+        <v>0.387823</v>
       </c>
       <c r="D125" t="n">
-        <v>0.386605</v>
+        <v>0.386937</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.372828</v>
+        <v>0.374294</v>
       </c>
       <c r="C126" t="n">
-        <v>0.383199</v>
+        <v>0.383445</v>
       </c>
       <c r="D126" t="n">
-        <v>0.383865</v>
+        <v>0.383451</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.369073</v>
+        <v>0.370258</v>
       </c>
       <c r="C127" t="n">
-        <v>0.378589</v>
+        <v>0.380454</v>
       </c>
       <c r="D127" t="n">
-        <v>0.380522</v>
+        <v>0.382895</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.365379</v>
+        <v>0.367393</v>
       </c>
       <c r="C128" t="n">
-        <v>0.375369</v>
+        <v>0.375882</v>
       </c>
       <c r="D128" t="n">
-        <v>0.378302</v>
+        <v>0.379775</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.362326</v>
+        <v>0.364682</v>
       </c>
       <c r="C129" t="n">
-        <v>0.371471</v>
+        <v>0.372013</v>
       </c>
       <c r="D129" t="n">
-        <v>0.376272</v>
+        <v>0.376237</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.359875</v>
+        <v>0.361378</v>
       </c>
       <c r="C130" t="n">
-        <v>0.368018</v>
+        <v>0.36691</v>
       </c>
       <c r="D130" t="n">
-        <v>0.374653</v>
+        <v>0.374563</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.357419</v>
+        <v>0.359286</v>
       </c>
       <c r="C131" t="n">
-        <v>0.365954</v>
+        <v>0.364016</v>
       </c>
       <c r="D131" t="n">
-        <v>0.373485</v>
+        <v>0.373992</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.355985</v>
+        <v>0.357678</v>
       </c>
       <c r="C132" t="n">
-        <v>0.363044</v>
+        <v>0.3618</v>
       </c>
       <c r="D132" t="n">
-        <v>0.372872</v>
+        <v>0.373155</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.355176</v>
+        <v>0.356906</v>
       </c>
       <c r="C133" t="n">
-        <v>0.361312</v>
+        <v>0.359661</v>
       </c>
       <c r="D133" t="n">
-        <v>0.372983</v>
+        <v>0.373456</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.355589</v>
+        <v>0.356325</v>
       </c>
       <c r="C134" t="n">
-        <v>0.36065</v>
+        <v>0.359169</v>
       </c>
       <c r="D134" t="n">
-        <v>0.374705</v>
+        <v>0.374858</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.356777</v>
+        <v>0.358159</v>
       </c>
       <c r="C135" t="n">
-        <v>0.360988</v>
+        <v>0.360664</v>
       </c>
       <c r="D135" t="n">
-        <v>0.37775</v>
+        <v>0.377864</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.360547</v>
+        <v>0.361168</v>
       </c>
       <c r="C136" t="n">
-        <v>0.363215</v>
+        <v>0.361997</v>
       </c>
       <c r="D136" t="n">
-        <v>0.383087</v>
+        <v>0.383546</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.365901</v>
+        <v>0.367437</v>
       </c>
       <c r="C137" t="n">
-        <v>0.368364</v>
+        <v>0.366456</v>
       </c>
       <c r="D137" t="n">
-        <v>0.46533</v>
+        <v>0.465307</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.439957</v>
+        <v>0.440039</v>
       </c>
       <c r="C138" t="n">
-        <v>0.450289</v>
+        <v>0.449168</v>
       </c>
       <c r="D138" t="n">
-        <v>0.463313</v>
+        <v>0.463419</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.438486</v>
+        <v>0.43915</v>
       </c>
       <c r="C139" t="n">
-        <v>0.447827</v>
+        <v>0.446992</v>
       </c>
       <c r="D139" t="n">
-        <v>0.461159</v>
+        <v>0.461643</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.437768</v>
+        <v>0.437957</v>
       </c>
       <c r="C140" t="n">
-        <v>0.446023</v>
+        <v>0.444449</v>
       </c>
       <c r="D140" t="n">
-        <v>0.460547</v>
+        <v>0.46075</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.436707</v>
+        <v>0.436871</v>
       </c>
       <c r="C141" t="n">
-        <v>0.443965</v>
+        <v>0.442505</v>
       </c>
       <c r="D141" t="n">
-        <v>0.459134</v>
+        <v>0.459128</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.436587</v>
+        <v>0.437475</v>
       </c>
       <c r="C142" t="n">
-        <v>0.441519</v>
+        <v>0.440871</v>
       </c>
       <c r="D142" t="n">
-        <v>0.457768</v>
+        <v>0.45766</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.436056</v>
+        <v>0.437485</v>
       </c>
       <c r="C143" t="n">
-        <v>0.44037</v>
+        <v>0.43899</v>
       </c>
       <c r="D143" t="n">
-        <v>0.457126</v>
+        <v>0.457092</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.262166</v>
+        <v>0.213704</v>
       </c>
       <c r="C2" t="n">
-        <v>0.253451</v>
+        <v>0.204094</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244216</v>
+        <v>0.198992</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.274732</v>
+        <v>0.220122</v>
       </c>
       <c r="C3" t="n">
-        <v>0.248461</v>
+        <v>0.198767</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239169</v>
+        <v>0.193845</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.26881</v>
+        <v>0.211361</v>
       </c>
       <c r="C4" t="n">
-        <v>0.244112</v>
+        <v>0.194752</v>
       </c>
       <c r="D4" t="n">
-        <v>0.235892</v>
+        <v>0.190269</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.265145</v>
+        <v>0.219263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.240649</v>
+        <v>0.192269</v>
       </c>
       <c r="D5" t="n">
-        <v>0.233619</v>
+        <v>0.188716</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.262863</v>
+        <v>0.217373</v>
       </c>
       <c r="C6" t="n">
-        <v>0.239865</v>
+        <v>0.189906</v>
       </c>
       <c r="D6" t="n">
-        <v>0.232098</v>
+        <v>0.186281</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.26156</v>
+        <v>0.216621</v>
       </c>
       <c r="C7" t="n">
-        <v>0.238306</v>
+        <v>0.187908</v>
       </c>
       <c r="D7" t="n">
-        <v>0.232078</v>
+        <v>0.186959</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.25963</v>
+        <v>0.215822</v>
       </c>
       <c r="C8" t="n">
-        <v>0.237943</v>
+        <v>0.187417</v>
       </c>
       <c r="D8" t="n">
-        <v>0.233503</v>
+        <v>0.18748</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.264477</v>
+        <v>0.219356</v>
       </c>
       <c r="C9" t="n">
-        <v>0.239211</v>
+        <v>0.18835</v>
       </c>
       <c r="D9" t="n">
-        <v>0.317029</v>
+        <v>0.258283</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.324694</v>
+        <v>0.277108</v>
       </c>
       <c r="C10" t="n">
-        <v>0.323538</v>
+        <v>0.268206</v>
       </c>
       <c r="D10" t="n">
-        <v>0.307304</v>
+        <v>0.260205</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.314416</v>
+        <v>0.267221</v>
       </c>
       <c r="C11" t="n">
-        <v>0.314025</v>
+        <v>0.265566</v>
       </c>
       <c r="D11" t="n">
-        <v>0.299279</v>
+        <v>0.247234</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.305482</v>
+        <v>0.260315</v>
       </c>
       <c r="C12" t="n">
-        <v>0.306181</v>
+        <v>0.257186</v>
       </c>
       <c r="D12" t="n">
-        <v>0.29038</v>
+        <v>0.246127</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.297955</v>
+        <v>0.251196</v>
       </c>
       <c r="C13" t="n">
-        <v>0.299213</v>
+        <v>0.24835</v>
       </c>
       <c r="D13" t="n">
-        <v>0.284595</v>
+        <v>0.238591</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.289623</v>
+        <v>0.244343</v>
       </c>
       <c r="C14" t="n">
-        <v>0.28849</v>
+        <v>0.240529</v>
       </c>
       <c r="D14" t="n">
-        <v>0.275294</v>
+        <v>0.230674</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.283467</v>
+        <v>0.237331</v>
       </c>
       <c r="C15" t="n">
-        <v>0.283362</v>
+        <v>0.230937</v>
       </c>
       <c r="D15" t="n">
-        <v>0.272071</v>
+        <v>0.22189</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.275693</v>
+        <v>0.230358</v>
       </c>
       <c r="C16" t="n">
-        <v>0.269098</v>
+        <v>0.223869</v>
       </c>
       <c r="D16" t="n">
-        <v>0.254804</v>
+        <v>0.208389</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.269538</v>
+        <v>0.224707</v>
       </c>
       <c r="C17" t="n">
-        <v>0.270338</v>
+        <v>0.22093</v>
       </c>
       <c r="D17" t="n">
-        <v>0.253633</v>
+        <v>0.20409</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.265625</v>
+        <v>0.218443</v>
       </c>
       <c r="C18" t="n">
-        <v>0.261108</v>
+        <v>0.216531</v>
       </c>
       <c r="D18" t="n">
-        <v>0.247915</v>
+        <v>0.21058</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.260678</v>
+        <v>0.215404</v>
       </c>
       <c r="C19" t="n">
-        <v>0.260452</v>
+        <v>0.206931</v>
       </c>
       <c r="D19" t="n">
-        <v>0.252021</v>
+        <v>0.205626</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.258777</v>
+        <v>0.210689</v>
       </c>
       <c r="C20" t="n">
-        <v>0.255275</v>
+        <v>0.209312</v>
       </c>
       <c r="D20" t="n">
-        <v>0.249449</v>
+        <v>0.205469</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.257892</v>
+        <v>0.209277</v>
       </c>
       <c r="C21" t="n">
-        <v>0.253152</v>
+        <v>0.203971</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24406</v>
+        <v>0.202446</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.258716</v>
+        <v>0.209717</v>
       </c>
       <c r="C22" t="n">
-        <v>0.247984</v>
+        <v>0.207055</v>
       </c>
       <c r="D22" t="n">
-        <v>0.24738</v>
+        <v>0.206256</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.261401</v>
+        <v>0.213997</v>
       </c>
       <c r="C23" t="n">
-        <v>0.254404</v>
+        <v>0.206808</v>
       </c>
       <c r="D23" t="n">
-        <v>0.312647</v>
+        <v>0.270561</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.325611</v>
+        <v>0.27926</v>
       </c>
       <c r="C24" t="n">
-        <v>0.318971</v>
+        <v>0.276132</v>
       </c>
       <c r="D24" t="n">
-        <v>0.304367</v>
+        <v>0.262335</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.315215</v>
+        <v>0.269698</v>
       </c>
       <c r="C25" t="n">
-        <v>0.309807</v>
+        <v>0.266725</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2958</v>
+        <v>0.254121</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.306889</v>
+        <v>0.261275</v>
       </c>
       <c r="C26" t="n">
-        <v>0.301484</v>
+        <v>0.258391</v>
       </c>
       <c r="D26" t="n">
-        <v>0.28793</v>
+        <v>0.245947</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2985</v>
+        <v>0.252612</v>
       </c>
       <c r="C27" t="n">
-        <v>0.293346</v>
+        <v>0.250455</v>
       </c>
       <c r="D27" t="n">
-        <v>0.280655</v>
+        <v>0.238294</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.291708</v>
+        <v>0.245394</v>
       </c>
       <c r="C28" t="n">
-        <v>0.286225</v>
+        <v>0.243106</v>
       </c>
       <c r="D28" t="n">
-        <v>0.273472</v>
+        <v>0.232338</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.284608</v>
+        <v>0.238666</v>
       </c>
       <c r="C29" t="n">
-        <v>0.279218</v>
+        <v>0.236666</v>
       </c>
       <c r="D29" t="n">
-        <v>0.267801</v>
+        <v>0.226312</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.278438</v>
+        <v>0.231254</v>
       </c>
       <c r="C30" t="n">
-        <v>0.273172</v>
+        <v>0.229855</v>
       </c>
       <c r="D30" t="n">
-        <v>0.261798</v>
+        <v>0.220462</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.272863</v>
+        <v>0.22665</v>
       </c>
       <c r="C31" t="n">
-        <v>0.267349</v>
+        <v>0.223921</v>
       </c>
       <c r="D31" t="n">
-        <v>0.256934</v>
+        <v>0.214777</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.268326</v>
+        <v>0.221815</v>
       </c>
       <c r="C32" t="n">
-        <v>0.262156</v>
+        <v>0.218356</v>
       </c>
       <c r="D32" t="n">
-        <v>0.252571</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.265107</v>
+        <v>0.217711</v>
       </c>
       <c r="C33" t="n">
-        <v>0.257943</v>
+        <v>0.213565</v>
       </c>
       <c r="D33" t="n">
-        <v>0.249407</v>
+        <v>0.206349</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.26153</v>
+        <v>0.214851</v>
       </c>
       <c r="C34" t="n">
-        <v>0.253905</v>
+        <v>0.209784</v>
       </c>
       <c r="D34" t="n">
-        <v>0.246678</v>
+        <v>0.204027</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.260755</v>
+        <v>0.212973</v>
       </c>
       <c r="C35" t="n">
-        <v>0.251368</v>
+        <v>0.206652</v>
       </c>
       <c r="D35" t="n">
-        <v>0.245717</v>
+        <v>0.203065</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.260111</v>
+        <v>0.212332</v>
       </c>
       <c r="C36" t="n">
-        <v>0.249982</v>
+        <v>0.205961</v>
       </c>
       <c r="D36" t="n">
-        <v>0.247308</v>
+        <v>0.204436</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.263272</v>
+        <v>0.21407</v>
       </c>
       <c r="C37" t="n">
-        <v>0.251022</v>
+        <v>0.206971</v>
       </c>
       <c r="D37" t="n">
-        <v>0.325051</v>
+        <v>0.281278</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.336694</v>
+        <v>0.285805</v>
       </c>
       <c r="C38" t="n">
-        <v>0.328625</v>
+        <v>0.285276</v>
       </c>
       <c r="D38" t="n">
-        <v>0.316544</v>
+        <v>0.272885</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.326954</v>
+        <v>0.276784</v>
       </c>
       <c r="C39" t="n">
-        <v>0.319552</v>
+        <v>0.276093</v>
       </c>
       <c r="D39" t="n">
-        <v>0.307575</v>
+        <v>0.26449</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.317774</v>
+        <v>0.268046</v>
       </c>
       <c r="C40" t="n">
-        <v>0.311137</v>
+        <v>0.267732</v>
       </c>
       <c r="D40" t="n">
-        <v>0.299619</v>
+        <v>0.256546</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.309217</v>
+        <v>0.259805</v>
       </c>
       <c r="C41" t="n">
-        <v>0.303025</v>
+        <v>0.259119</v>
       </c>
       <c r="D41" t="n">
-        <v>0.292069</v>
+        <v>0.247778</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.301506</v>
+        <v>0.252101</v>
       </c>
       <c r="C42" t="n">
-        <v>0.295363</v>
+        <v>0.2517</v>
       </c>
       <c r="D42" t="n">
-        <v>0.284546</v>
+        <v>0.241786</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.294649</v>
+        <v>0.245068</v>
       </c>
       <c r="C43" t="n">
-        <v>0.288266</v>
+        <v>0.244283</v>
       </c>
       <c r="D43" t="n">
-        <v>0.278189</v>
+        <v>0.235026</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.287688</v>
+        <v>0.237679</v>
       </c>
       <c r="C44" t="n">
-        <v>0.281567</v>
+        <v>0.237096</v>
       </c>
       <c r="D44" t="n">
-        <v>0.271705</v>
+        <v>0.22897</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.282072</v>
+        <v>0.232152</v>
       </c>
       <c r="C45" t="n">
-        <v>0.275272</v>
+        <v>0.231189</v>
       </c>
       <c r="D45" t="n">
-        <v>0.266245</v>
+        <v>0.223292</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.276902</v>
+        <v>0.226639</v>
       </c>
       <c r="C46" t="n">
-        <v>0.269915</v>
+        <v>0.225382</v>
       </c>
       <c r="D46" t="n">
-        <v>0.261659</v>
+        <v>0.217095</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.272073</v>
+        <v>0.223046</v>
       </c>
       <c r="C47" t="n">
-        <v>0.265041</v>
+        <v>0.220792</v>
       </c>
       <c r="D47" t="n">
-        <v>0.257514</v>
+        <v>0.214635</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268972</v>
+        <v>0.219716</v>
       </c>
       <c r="C48" t="n">
-        <v>0.260935</v>
+        <v>0.216758</v>
       </c>
       <c r="D48" t="n">
-        <v>0.255036</v>
+        <v>0.21179</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.266961</v>
+        <v>0.218365</v>
       </c>
       <c r="C49" t="n">
-        <v>0.258158</v>
+        <v>0.21368</v>
       </c>
       <c r="D49" t="n">
-        <v>0.253957</v>
+        <v>0.210662</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.26796</v>
+        <v>0.218092</v>
       </c>
       <c r="C50" t="n">
-        <v>0.256671</v>
+        <v>0.212083</v>
       </c>
       <c r="D50" t="n">
-        <v>0.255079</v>
+        <v>0.211168</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.270455</v>
+        <v>0.21984</v>
       </c>
       <c r="C51" t="n">
-        <v>0.257058</v>
+        <v>0.212524</v>
       </c>
       <c r="D51" t="n">
-        <v>0.33395</v>
+        <v>0.290636</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.277247</v>
+        <v>0.22426</v>
       </c>
       <c r="C52" t="n">
-        <v>0.261061</v>
+        <v>0.215441</v>
       </c>
       <c r="D52" t="n">
-        <v>0.324456</v>
+        <v>0.281216</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.331474</v>
+        <v>0.279785</v>
       </c>
       <c r="C53" t="n">
-        <v>0.329089</v>
+        <v>0.283162</v>
       </c>
       <c r="D53" t="n">
-        <v>0.317219</v>
+        <v>0.271815</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.324391</v>
+        <v>0.270764</v>
       </c>
       <c r="C54" t="n">
-        <v>0.321144</v>
+        <v>0.273719</v>
       </c>
       <c r="D54" t="n">
-        <v>0.308994</v>
+        <v>0.263985</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.316012</v>
+        <v>0.262926</v>
       </c>
       <c r="C55" t="n">
-        <v>0.31243</v>
+        <v>0.265374</v>
       </c>
       <c r="D55" t="n">
-        <v>0.300726</v>
+        <v>0.256022</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.307493</v>
+        <v>0.254803</v>
       </c>
       <c r="C56" t="n">
-        <v>0.304176</v>
+        <v>0.257312</v>
       </c>
       <c r="D56" t="n">
-        <v>0.293203</v>
+        <v>0.248405</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.300402</v>
+        <v>0.247465</v>
       </c>
       <c r="C57" t="n">
-        <v>0.296971</v>
+        <v>0.250113</v>
       </c>
       <c r="D57" t="n">
-        <v>0.286192</v>
+        <v>0.241914</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.293192</v>
+        <v>0.240916</v>
       </c>
       <c r="C58" t="n">
-        <v>0.290158</v>
+        <v>0.243126</v>
       </c>
       <c r="D58" t="n">
-        <v>0.278855</v>
+        <v>0.235108</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.285534</v>
+        <v>0.235278</v>
       </c>
       <c r="C59" t="n">
-        <v>0.282404</v>
+        <v>0.23663</v>
       </c>
       <c r="D59" t="n">
-        <v>0.272887</v>
+        <v>0.229145</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.280286</v>
+        <v>0.229594</v>
       </c>
       <c r="C60" t="n">
-        <v>0.276237</v>
+        <v>0.23063</v>
       </c>
       <c r="D60" t="n">
-        <v>0.267283</v>
+        <v>0.224152</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.275549</v>
+        <v>0.224533</v>
       </c>
       <c r="C61" t="n">
-        <v>0.271273</v>
+        <v>0.225842</v>
       </c>
       <c r="D61" t="n">
-        <v>0.263034</v>
+        <v>0.220112</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272224</v>
+        <v>0.221556</v>
       </c>
       <c r="C62" t="n">
-        <v>0.267134</v>
+        <v>0.221293</v>
       </c>
       <c r="D62" t="n">
-        <v>0.260211</v>
+        <v>0.216666</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.269954</v>
+        <v>0.219492</v>
       </c>
       <c r="C63" t="n">
-        <v>0.264013</v>
+        <v>0.217941</v>
       </c>
       <c r="D63" t="n">
-        <v>0.258359</v>
+        <v>0.214769</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.270307</v>
+        <v>0.218313</v>
       </c>
       <c r="C64" t="n">
-        <v>0.262322</v>
+        <v>0.215855</v>
       </c>
       <c r="D64" t="n">
-        <v>0.259059</v>
+        <v>0.214607</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2719</v>
+        <v>0.220443</v>
       </c>
       <c r="C65" t="n">
-        <v>0.262168</v>
+        <v>0.215601</v>
       </c>
       <c r="D65" t="n">
-        <v>0.262914</v>
+        <v>0.218148</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.278131</v>
+        <v>0.224584</v>
       </c>
       <c r="C66" t="n">
-        <v>0.265021</v>
+        <v>0.218728</v>
       </c>
       <c r="D66" t="n">
-        <v>0.336487</v>
+        <v>0.291087</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.337994</v>
+        <v>0.285297</v>
       </c>
       <c r="C67" t="n">
-        <v>0.335596</v>
+        <v>0.289935</v>
       </c>
       <c r="D67" t="n">
-        <v>0.326972</v>
+        <v>0.282347</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.329199</v>
+        <v>0.276309</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3266</v>
+        <v>0.28053</v>
       </c>
       <c r="D68" t="n">
-        <v>0.318352</v>
+        <v>0.273355</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.319805</v>
+        <v>0.267876</v>
       </c>
       <c r="C69" t="n">
-        <v>0.318007</v>
+        <v>0.271981</v>
       </c>
       <c r="D69" t="n">
-        <v>0.309902</v>
+        <v>0.265101</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.312345</v>
+        <v>0.259788</v>
       </c>
       <c r="C70" t="n">
-        <v>0.309587</v>
+        <v>0.263501</v>
       </c>
       <c r="D70" t="n">
-        <v>0.301802</v>
+        <v>0.257078</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.304507</v>
+        <v>0.252745</v>
       </c>
       <c r="C71" t="n">
-        <v>0.302392</v>
+        <v>0.255872</v>
       </c>
       <c r="D71" t="n">
-        <v>0.294161</v>
+        <v>0.250069</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.297634</v>
+        <v>0.247244</v>
       </c>
       <c r="C72" t="n">
-        <v>0.294728</v>
+        <v>0.249933</v>
       </c>
       <c r="D72" t="n">
-        <v>0.287307</v>
+        <v>0.244498</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.291141</v>
+        <v>0.240938</v>
       </c>
       <c r="C73" t="n">
-        <v>0.288196</v>
+        <v>0.243051</v>
       </c>
       <c r="D73" t="n">
-        <v>0.281682</v>
+        <v>0.238178</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.285339</v>
+        <v>0.235073</v>
       </c>
       <c r="C74" t="n">
-        <v>0.282018</v>
+        <v>0.236651</v>
       </c>
       <c r="D74" t="n">
-        <v>0.275733</v>
+        <v>0.232394</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279818</v>
+        <v>0.230244</v>
       </c>
       <c r="C75" t="n">
-        <v>0.27696</v>
+        <v>0.231197</v>
       </c>
       <c r="D75" t="n">
-        <v>0.27097</v>
+        <v>0.227423</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276184</v>
+        <v>0.225859</v>
       </c>
       <c r="C76" t="n">
-        <v>0.272229</v>
+        <v>0.226687</v>
       </c>
       <c r="D76" t="n">
-        <v>0.267275</v>
+        <v>0.223638</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.274024</v>
+        <v>0.222581</v>
       </c>
       <c r="C77" t="n">
-        <v>0.268536</v>
+        <v>0.222841</v>
       </c>
       <c r="D77" t="n">
-        <v>0.265088</v>
+        <v>0.221028</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.273135</v>
+        <v>0.221459</v>
       </c>
       <c r="C78" t="n">
-        <v>0.265944</v>
+        <v>0.220065</v>
       </c>
       <c r="D78" t="n">
-        <v>0.264225</v>
+        <v>0.220458</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.274193</v>
+        <v>0.222806</v>
       </c>
       <c r="C79" t="n">
-        <v>0.265969</v>
+        <v>0.219363</v>
       </c>
       <c r="D79" t="n">
-        <v>0.267798</v>
+        <v>0.222552</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.27863</v>
+        <v>0.227277</v>
       </c>
       <c r="C80" t="n">
-        <v>0.268146</v>
+        <v>0.220472</v>
       </c>
       <c r="D80" t="n">
-        <v>0.340894</v>
+        <v>0.295241</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.339134</v>
+        <v>0.285467</v>
       </c>
       <c r="C81" t="n">
-        <v>0.345619</v>
+        <v>0.297628</v>
       </c>
       <c r="D81" t="n">
-        <v>0.332045</v>
+        <v>0.286142</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.329742</v>
+        <v>0.276882</v>
       </c>
       <c r="C82" t="n">
-        <v>0.335949</v>
+        <v>0.288468</v>
       </c>
       <c r="D82" t="n">
-        <v>0.322876</v>
+        <v>0.27708</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.321279</v>
+        <v>0.269527</v>
       </c>
       <c r="C83" t="n">
-        <v>0.327044</v>
+        <v>0.279337</v>
       </c>
       <c r="D83" t="n">
-        <v>0.314115</v>
+        <v>0.268514</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.312122</v>
+        <v>0.261499</v>
       </c>
       <c r="C84" t="n">
-        <v>0.318164</v>
+        <v>0.270664</v>
       </c>
       <c r="D84" t="n">
-        <v>0.305436</v>
+        <v>0.260439</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.30508</v>
+        <v>0.254216</v>
       </c>
       <c r="C85" t="n">
-        <v>0.310373</v>
+        <v>0.262867</v>
       </c>
       <c r="D85" t="n">
-        <v>0.299009</v>
+        <v>0.252309</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.297978</v>
+        <v>0.247431</v>
       </c>
       <c r="C86" t="n">
-        <v>0.302539</v>
+        <v>0.255007</v>
       </c>
       <c r="D86" t="n">
-        <v>0.291543</v>
+        <v>0.245905</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.292077</v>
+        <v>0.240966</v>
       </c>
       <c r="C87" t="n">
-        <v>0.295619</v>
+        <v>0.248074</v>
       </c>
       <c r="D87" t="n">
-        <v>0.285237</v>
+        <v>0.239417</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.285971</v>
+        <v>0.235347</v>
       </c>
       <c r="C88" t="n">
-        <v>0.289037</v>
+        <v>0.24149</v>
       </c>
       <c r="D88" t="n">
-        <v>0.278905</v>
+        <v>0.233683</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.280965</v>
+        <v>0.230201</v>
       </c>
       <c r="C89" t="n">
-        <v>0.283348</v>
+        <v>0.236071</v>
       </c>
       <c r="D89" t="n">
-        <v>0.274433</v>
+        <v>0.228558</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.27644</v>
+        <v>0.226245</v>
       </c>
       <c r="C90" t="n">
-        <v>0.278616</v>
+        <v>0.23074</v>
       </c>
       <c r="D90" t="n">
-        <v>0.270256</v>
+        <v>0.224722</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.274489</v>
+        <v>0.222923</v>
       </c>
       <c r="C91" t="n">
-        <v>0.274568</v>
+        <v>0.226603</v>
       </c>
       <c r="D91" t="n">
-        <v>0.267553</v>
+        <v>0.221285</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.272576</v>
+        <v>0.221967</v>
       </c>
       <c r="C92" t="n">
-        <v>0.271192</v>
+        <v>0.223973</v>
       </c>
       <c r="D92" t="n">
-        <v>0.267176</v>
+        <v>0.2208</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.273672</v>
+        <v>0.222243</v>
       </c>
       <c r="C93" t="n">
-        <v>0.269721</v>
+        <v>0.222354</v>
       </c>
       <c r="D93" t="n">
-        <v>0.26841</v>
+        <v>0.221993</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.277365</v>
+        <v>0.224986</v>
       </c>
       <c r="C94" t="n">
-        <v>0.271789</v>
+        <v>0.223492</v>
       </c>
       <c r="D94" t="n">
-        <v>0.353127</v>
+        <v>0.305596</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.348352</v>
+        <v>0.295978</v>
       </c>
       <c r="C95" t="n">
-        <v>0.35578</v>
+        <v>0.307315</v>
       </c>
       <c r="D95" t="n">
-        <v>0.344717</v>
+        <v>0.298271</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.341214</v>
+        <v>0.288891</v>
       </c>
       <c r="C96" t="n">
-        <v>0.347983</v>
+        <v>0.299488</v>
       </c>
       <c r="D96" t="n">
-        <v>0.336192</v>
+        <v>0.289827</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.332363</v>
+        <v>0.280508</v>
       </c>
       <c r="C97" t="n">
-        <v>0.339168</v>
+        <v>0.291277</v>
       </c>
       <c r="D97" t="n">
-        <v>0.327098</v>
+        <v>0.280848</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.324491</v>
+        <v>0.272677</v>
       </c>
       <c r="C98" t="n">
-        <v>0.330797</v>
+        <v>0.282438</v>
       </c>
       <c r="D98" t="n">
-        <v>0.319124</v>
+        <v>0.272958</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3167</v>
+        <v>0.265125</v>
       </c>
       <c r="C99" t="n">
-        <v>0.322837</v>
+        <v>0.274547</v>
       </c>
       <c r="D99" t="n">
-        <v>0.312051</v>
+        <v>0.265128</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.309986</v>
+        <v>0.258239</v>
       </c>
       <c r="C100" t="n">
-        <v>0.31498</v>
+        <v>0.266681</v>
       </c>
       <c r="D100" t="n">
-        <v>0.304976</v>
+        <v>0.258686</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3031</v>
+        <v>0.25186</v>
       </c>
       <c r="C101" t="n">
-        <v>0.30787</v>
+        <v>0.259833</v>
       </c>
       <c r="D101" t="n">
-        <v>0.298627</v>
+        <v>0.251744</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.297264</v>
+        <v>0.245927</v>
       </c>
       <c r="C102" t="n">
-        <v>0.301814</v>
+        <v>0.253142</v>
       </c>
       <c r="D102" t="n">
-        <v>0.293112</v>
+        <v>0.246102</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292186</v>
+        <v>0.24073</v>
       </c>
       <c r="C103" t="n">
-        <v>0.296406</v>
+        <v>0.247002</v>
       </c>
       <c r="D103" t="n">
-        <v>0.287921</v>
+        <v>0.240973</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.288071</v>
+        <v>0.23636</v>
       </c>
       <c r="C104" t="n">
-        <v>0.290673</v>
+        <v>0.242293</v>
       </c>
       <c r="D104" t="n">
-        <v>0.283517</v>
+        <v>0.236754</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.284893</v>
+        <v>0.232796</v>
       </c>
       <c r="C105" t="n">
-        <v>0.286594</v>
+        <v>0.237594</v>
       </c>
       <c r="D105" t="n">
-        <v>0.280762</v>
+        <v>0.233931</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.28287</v>
+        <v>0.23093</v>
       </c>
       <c r="C106" t="n">
-        <v>0.283303</v>
+        <v>0.234393</v>
       </c>
       <c r="D106" t="n">
-        <v>0.279303</v>
+        <v>0.231916</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.282695</v>
+        <v>0.230736</v>
       </c>
       <c r="C107" t="n">
-        <v>0.281735</v>
+        <v>0.232669</v>
       </c>
       <c r="D107" t="n">
-        <v>0.280475</v>
+        <v>0.232094</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.285875</v>
+        <v>0.233124</v>
       </c>
       <c r="C108" t="n">
-        <v>0.282409</v>
+        <v>0.233175</v>
       </c>
       <c r="D108" t="n">
-        <v>0.367435</v>
+        <v>0.31948</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.291924</v>
+        <v>0.238831</v>
       </c>
       <c r="C109" t="n">
-        <v>0.285942</v>
+        <v>0.237043</v>
       </c>
       <c r="D109" t="n">
-        <v>0.36224</v>
+        <v>0.313881</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.354068</v>
+        <v>0.30026</v>
       </c>
       <c r="C110" t="n">
-        <v>0.364065</v>
+        <v>0.313792</v>
       </c>
       <c r="D110" t="n">
-        <v>0.355052</v>
+        <v>0.306077</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.347547</v>
+        <v>0.293002</v>
       </c>
       <c r="C111" t="n">
-        <v>0.357181</v>
+        <v>0.306033</v>
       </c>
       <c r="D111" t="n">
-        <v>0.347612</v>
+        <v>0.299231</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.340558</v>
+        <v>0.286269</v>
       </c>
       <c r="C112" t="n">
-        <v>0.349544</v>
+        <v>0.298491</v>
       </c>
       <c r="D112" t="n">
-        <v>0.340852</v>
+        <v>0.292415</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.33385</v>
+        <v>0.279868</v>
       </c>
       <c r="C113" t="n">
-        <v>0.342556</v>
+        <v>0.291655</v>
       </c>
       <c r="D113" t="n">
-        <v>0.334781</v>
+        <v>0.285881</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.327842</v>
+        <v>0.273681</v>
       </c>
       <c r="C114" t="n">
-        <v>0.336336</v>
+        <v>0.284784</v>
       </c>
       <c r="D114" t="n">
-        <v>0.329154</v>
+        <v>0.279789</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.32253</v>
+        <v>0.268395</v>
       </c>
       <c r="C115" t="n">
-        <v>0.329956</v>
+        <v>0.278476</v>
       </c>
       <c r="D115" t="n">
-        <v>0.323188</v>
+        <v>0.274184</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3174</v>
+        <v>0.263276</v>
       </c>
       <c r="C116" t="n">
-        <v>0.324276</v>
+        <v>0.272632</v>
       </c>
       <c r="D116" t="n">
-        <v>0.318775</v>
+        <v>0.26901</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.313255</v>
+        <v>0.258694</v>
       </c>
       <c r="C117" t="n">
-        <v>0.31963</v>
+        <v>0.267437</v>
       </c>
       <c r="D117" t="n">
-        <v>0.314824</v>
+        <v>0.264477</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.309784</v>
+        <v>0.255016</v>
       </c>
       <c r="C118" t="n">
-        <v>0.315141</v>
+        <v>0.262929</v>
       </c>
       <c r="D118" t="n">
-        <v>0.311606</v>
+        <v>0.26157</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.307575</v>
+        <v>0.252022</v>
       </c>
       <c r="C119" t="n">
-        <v>0.311308</v>
+        <v>0.258927</v>
       </c>
       <c r="D119" t="n">
-        <v>0.308999</v>
+        <v>0.258445</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.306132</v>
+        <v>0.250448</v>
       </c>
       <c r="C120" t="n">
-        <v>0.309297</v>
+        <v>0.255997</v>
       </c>
       <c r="D120" t="n">
-        <v>0.308025</v>
+        <v>0.257031</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.306292</v>
+        <v>0.250307</v>
       </c>
       <c r="C121" t="n">
-        <v>0.308078</v>
+        <v>0.254543</v>
       </c>
       <c r="D121" t="n">
-        <v>0.309448</v>
+        <v>0.258512</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.308938</v>
+        <v>0.252268</v>
       </c>
       <c r="C122" t="n">
-        <v>0.308401</v>
+        <v>0.254617</v>
       </c>
       <c r="D122" t="n">
-        <v>0.31436</v>
+        <v>0.26187</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.315307</v>
+        <v>0.257194</v>
       </c>
       <c r="C123" t="n">
-        <v>0.31293</v>
+        <v>0.257734</v>
       </c>
       <c r="D123" t="n">
-        <v>0.394485</v>
+        <v>0.340876</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.381594</v>
+        <v>0.323003</v>
       </c>
       <c r="C124" t="n">
-        <v>0.392649</v>
+        <v>0.336601</v>
       </c>
       <c r="D124" t="n">
-        <v>0.390185</v>
+        <v>0.335871</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.377822</v>
+        <v>0.318273</v>
       </c>
       <c r="C125" t="n">
-        <v>0.387823</v>
+        <v>0.330559</v>
       </c>
       <c r="D125" t="n">
-        <v>0.386937</v>
+        <v>0.332392</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.374294</v>
+        <v>0.313971</v>
       </c>
       <c r="C126" t="n">
-        <v>0.383445</v>
+        <v>0.324932</v>
       </c>
       <c r="D126" t="n">
-        <v>0.383451</v>
+        <v>0.328689</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.370258</v>
+        <v>0.309623</v>
       </c>
       <c r="C127" t="n">
-        <v>0.380454</v>
+        <v>0.319548</v>
       </c>
       <c r="D127" t="n">
-        <v>0.382895</v>
+        <v>0.324883</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.367393</v>
+        <v>0.305529</v>
       </c>
       <c r="C128" t="n">
-        <v>0.375882</v>
+        <v>0.314981</v>
       </c>
       <c r="D128" t="n">
-        <v>0.379775</v>
+        <v>0.321557</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.364682</v>
+        <v>0.301734</v>
       </c>
       <c r="C129" t="n">
-        <v>0.372013</v>
+        <v>0.310052</v>
       </c>
       <c r="D129" t="n">
-        <v>0.376237</v>
+        <v>0.319541</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.361378</v>
+        <v>0.298489</v>
       </c>
       <c r="C130" t="n">
-        <v>0.36691</v>
+        <v>0.306073</v>
       </c>
       <c r="D130" t="n">
-        <v>0.374563</v>
+        <v>0.317101</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.359286</v>
+        <v>0.295811</v>
       </c>
       <c r="C131" t="n">
-        <v>0.364016</v>
+        <v>0.302452</v>
       </c>
       <c r="D131" t="n">
-        <v>0.373992</v>
+        <v>0.315078</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.357678</v>
+        <v>0.293716</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3618</v>
+        <v>0.299401</v>
       </c>
       <c r="D132" t="n">
-        <v>0.373155</v>
+        <v>0.31401</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.356906</v>
+        <v>0.292081</v>
       </c>
       <c r="C133" t="n">
-        <v>0.359661</v>
+        <v>0.296728</v>
       </c>
       <c r="D133" t="n">
-        <v>0.373456</v>
+        <v>0.313627</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.356325</v>
+        <v>0.291239</v>
       </c>
       <c r="C134" t="n">
-        <v>0.359169</v>
+        <v>0.295009</v>
       </c>
       <c r="D134" t="n">
-        <v>0.374858</v>
+        <v>0.314042</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.358159</v>
+        <v>0.291422</v>
       </c>
       <c r="C135" t="n">
-        <v>0.360664</v>
+        <v>0.294453</v>
       </c>
       <c r="D135" t="n">
-        <v>0.377864</v>
+        <v>0.316477</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.361168</v>
+        <v>0.293532</v>
       </c>
       <c r="C136" t="n">
-        <v>0.361997</v>
+        <v>0.295533</v>
       </c>
       <c r="D136" t="n">
-        <v>0.383546</v>
+        <v>0.320607</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.367437</v>
+        <v>0.297675</v>
       </c>
       <c r="C137" t="n">
-        <v>0.366456</v>
+        <v>0.299297</v>
       </c>
       <c r="D137" t="n">
-        <v>0.465307</v>
+        <v>0.4012</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.440039</v>
+        <v>0.371869</v>
       </c>
       <c r="C138" t="n">
-        <v>0.449168</v>
+        <v>0.37963</v>
       </c>
       <c r="D138" t="n">
-        <v>0.463419</v>
+        <v>0.397687</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.43915</v>
+        <v>0.369813</v>
       </c>
       <c r="C139" t="n">
-        <v>0.446992</v>
+        <v>0.375714</v>
       </c>
       <c r="D139" t="n">
-        <v>0.461643</v>
+        <v>0.395308</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.437957</v>
+        <v>0.367478</v>
       </c>
       <c r="C140" t="n">
-        <v>0.444449</v>
+        <v>0.372494</v>
       </c>
       <c r="D140" t="n">
-        <v>0.46075</v>
+        <v>0.394047</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.436871</v>
+        <v>0.367178</v>
       </c>
       <c r="C141" t="n">
-        <v>0.442505</v>
+        <v>0.370536</v>
       </c>
       <c r="D141" t="n">
-        <v>0.459128</v>
+        <v>0.391413</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.437475</v>
+        <v>0.363204</v>
       </c>
       <c r="C142" t="n">
-        <v>0.440871</v>
+        <v>0.366055</v>
       </c>
       <c r="D142" t="n">
-        <v>0.45766</v>
+        <v>0.389372</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.437485</v>
+        <v>0.361716</v>
       </c>
       <c r="C143" t="n">
-        <v>0.43899</v>
+        <v>0.362701</v>
       </c>
       <c r="D143" t="n">
-        <v>0.457092</v>
+        <v>0.387344</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.213704</v>
+        <v>0.221408</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204094</v>
+        <v>0.199861</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198992</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.220122</v>
+        <v>0.22855</v>
       </c>
       <c r="C3" t="n">
-        <v>0.198767</v>
+        <v>0.195031</v>
       </c>
       <c r="D3" t="n">
-        <v>0.193845</v>
+        <v>0.194598</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.211361</v>
+        <v>0.219467</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194752</v>
+        <v>0.191236</v>
       </c>
       <c r="D4" t="n">
-        <v>0.190269</v>
+        <v>0.191355</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.219263</v>
+        <v>0.220091</v>
       </c>
       <c r="C5" t="n">
-        <v>0.192269</v>
+        <v>0.188297</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188716</v>
+        <v>0.188936</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.217373</v>
+        <v>0.203302</v>
       </c>
       <c r="C6" t="n">
-        <v>0.189906</v>
+        <v>0.18631</v>
       </c>
       <c r="D6" t="n">
-        <v>0.186281</v>
+        <v>0.185936</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.216621</v>
+        <v>0.215928</v>
       </c>
       <c r="C7" t="n">
-        <v>0.187908</v>
+        <v>0.185147</v>
       </c>
       <c r="D7" t="n">
-        <v>0.186959</v>
+        <v>0.184181</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.215822</v>
+        <v>0.216499</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187417</v>
+        <v>0.183886</v>
       </c>
       <c r="D8" t="n">
-        <v>0.18748</v>
+        <v>0.184831</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.219356</v>
+        <v>0.219233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.18835</v>
+        <v>0.185149</v>
       </c>
       <c r="D9" t="n">
-        <v>0.258283</v>
+        <v>0.267714</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.277108</v>
+        <v>0.277791</v>
       </c>
       <c r="C10" t="n">
-        <v>0.268206</v>
+        <v>0.266694</v>
       </c>
       <c r="D10" t="n">
-        <v>0.260205</v>
+        <v>0.263278</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.267221</v>
+        <v>0.269278</v>
       </c>
       <c r="C11" t="n">
-        <v>0.265566</v>
+        <v>0.251362</v>
       </c>
       <c r="D11" t="n">
-        <v>0.247234</v>
+        <v>0.246765</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.260315</v>
+        <v>0.260411</v>
       </c>
       <c r="C12" t="n">
-        <v>0.257186</v>
+        <v>0.249271</v>
       </c>
       <c r="D12" t="n">
-        <v>0.246127</v>
+        <v>0.246066</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.251196</v>
+        <v>0.252529</v>
       </c>
       <c r="C13" t="n">
-        <v>0.24835</v>
+        <v>0.242055</v>
       </c>
       <c r="D13" t="n">
-        <v>0.238591</v>
+        <v>0.234121</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.244343</v>
+        <v>0.244822</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240529</v>
+        <v>0.232224</v>
       </c>
       <c r="D14" t="n">
-        <v>0.230674</v>
+        <v>0.227502</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.237331</v>
+        <v>0.23802</v>
       </c>
       <c r="C15" t="n">
-        <v>0.230937</v>
+        <v>0.227096</v>
       </c>
       <c r="D15" t="n">
-        <v>0.22189</v>
+        <v>0.224397</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.230358</v>
+        <v>0.23087</v>
       </c>
       <c r="C16" t="n">
-        <v>0.223869</v>
+        <v>0.221408</v>
       </c>
       <c r="D16" t="n">
-        <v>0.208389</v>
+        <v>0.219507</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.224707</v>
+        <v>0.225344</v>
       </c>
       <c r="C17" t="n">
-        <v>0.22093</v>
+        <v>0.2166</v>
       </c>
       <c r="D17" t="n">
-        <v>0.20409</v>
+        <v>0.213576</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.218443</v>
+        <v>0.220563</v>
       </c>
       <c r="C18" t="n">
-        <v>0.216531</v>
+        <v>0.206431</v>
       </c>
       <c r="D18" t="n">
-        <v>0.21058</v>
+        <v>0.202995</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.215404</v>
+        <v>0.216832</v>
       </c>
       <c r="C19" t="n">
-        <v>0.206931</v>
+        <v>0.204806</v>
       </c>
       <c r="D19" t="n">
-        <v>0.205626</v>
+        <v>0.203276</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.210689</v>
+        <v>0.213892</v>
       </c>
       <c r="C20" t="n">
-        <v>0.209312</v>
+        <v>0.203686</v>
       </c>
       <c r="D20" t="n">
-        <v>0.205469</v>
+        <v>0.204483</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.209277</v>
+        <v>0.212127</v>
       </c>
       <c r="C21" t="n">
-        <v>0.203971</v>
+        <v>0.19943</v>
       </c>
       <c r="D21" t="n">
-        <v>0.202446</v>
+        <v>0.202814</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.209717</v>
+        <v>0.212749</v>
       </c>
       <c r="C22" t="n">
-        <v>0.207055</v>
+        <v>0.202363</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206256</v>
+        <v>0.203405</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.213997</v>
+        <v>0.214643</v>
       </c>
       <c r="C23" t="n">
-        <v>0.206808</v>
+        <v>0.204112</v>
       </c>
       <c r="D23" t="n">
-        <v>0.270561</v>
+        <v>0.26925</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.27926</v>
+        <v>0.279953</v>
       </c>
       <c r="C24" t="n">
-        <v>0.276132</v>
+        <v>0.264949</v>
       </c>
       <c r="D24" t="n">
-        <v>0.262335</v>
+        <v>0.259352</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.269698</v>
+        <v>0.270559</v>
       </c>
       <c r="C25" t="n">
-        <v>0.266725</v>
+        <v>0.25738</v>
       </c>
       <c r="D25" t="n">
-        <v>0.254121</v>
+        <v>0.251841</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.261275</v>
+        <v>0.261968</v>
       </c>
       <c r="C26" t="n">
-        <v>0.258391</v>
+        <v>0.249519</v>
       </c>
       <c r="D26" t="n">
-        <v>0.245947</v>
+        <v>0.244688</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.252612</v>
+        <v>0.253129</v>
       </c>
       <c r="C27" t="n">
-        <v>0.250455</v>
+        <v>0.241969</v>
       </c>
       <c r="D27" t="n">
-        <v>0.238294</v>
+        <v>0.237062</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.245394</v>
+        <v>0.246692</v>
       </c>
       <c r="C28" t="n">
-        <v>0.243106</v>
+        <v>0.235104</v>
       </c>
       <c r="D28" t="n">
-        <v>0.232338</v>
+        <v>0.230214</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.238666</v>
+        <v>0.239309</v>
       </c>
       <c r="C29" t="n">
-        <v>0.236666</v>
+        <v>0.22879</v>
       </c>
       <c r="D29" t="n">
-        <v>0.226312</v>
+        <v>0.224116</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.231254</v>
+        <v>0.232546</v>
       </c>
       <c r="C30" t="n">
-        <v>0.229855</v>
+        <v>0.222094</v>
       </c>
       <c r="D30" t="n">
-        <v>0.220462</v>
+        <v>0.218136</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.22665</v>
+        <v>0.227467</v>
       </c>
       <c r="C31" t="n">
-        <v>0.223921</v>
+        <v>0.216839</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214777</v>
+        <v>0.214139</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.221815</v>
+        <v>0.222816</v>
       </c>
       <c r="C32" t="n">
-        <v>0.218356</v>
+        <v>0.212187</v>
       </c>
       <c r="D32" t="n">
-        <v>0.210479</v>
+        <v>0.209972</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.217711</v>
+        <v>0.219239</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213565</v>
+        <v>0.207269</v>
       </c>
       <c r="D33" t="n">
-        <v>0.206349</v>
+        <v>0.206262</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.214851</v>
+        <v>0.215967</v>
       </c>
       <c r="C34" t="n">
-        <v>0.209784</v>
+        <v>0.203897</v>
       </c>
       <c r="D34" t="n">
-        <v>0.204027</v>
+        <v>0.202917</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.212973</v>
+        <v>0.214516</v>
       </c>
       <c r="C35" t="n">
-        <v>0.206652</v>
+        <v>0.200936</v>
       </c>
       <c r="D35" t="n">
-        <v>0.203065</v>
+        <v>0.202267</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.212332</v>
+        <v>0.214852</v>
       </c>
       <c r="C36" t="n">
-        <v>0.205961</v>
+        <v>0.200865</v>
       </c>
       <c r="D36" t="n">
-        <v>0.204436</v>
+        <v>0.201621</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.21407</v>
+        <v>0.216305</v>
       </c>
       <c r="C37" t="n">
-        <v>0.206971</v>
+        <v>0.201407</v>
       </c>
       <c r="D37" t="n">
-        <v>0.281278</v>
+        <v>0.278851</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.285805</v>
+        <v>0.286828</v>
       </c>
       <c r="C38" t="n">
-        <v>0.285276</v>
+        <v>0.27509</v>
       </c>
       <c r="D38" t="n">
-        <v>0.272885</v>
+        <v>0.269824</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.276784</v>
+        <v>0.277829</v>
       </c>
       <c r="C39" t="n">
-        <v>0.276093</v>
+        <v>0.26664</v>
       </c>
       <c r="D39" t="n">
-        <v>0.26449</v>
+        <v>0.261141</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.268046</v>
+        <v>0.268568</v>
       </c>
       <c r="C40" t="n">
-        <v>0.267732</v>
+        <v>0.256595</v>
       </c>
       <c r="D40" t="n">
-        <v>0.256546</v>
+        <v>0.251318</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.259805</v>
+        <v>0.260579</v>
       </c>
       <c r="C41" t="n">
-        <v>0.259119</v>
+        <v>0.250081</v>
       </c>
       <c r="D41" t="n">
-        <v>0.247778</v>
+        <v>0.246234</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.252101</v>
+        <v>0.252718</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2517</v>
+        <v>0.242677</v>
       </c>
       <c r="D42" t="n">
-        <v>0.241786</v>
+        <v>0.238324</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.245068</v>
+        <v>0.245195</v>
       </c>
       <c r="C43" t="n">
-        <v>0.244283</v>
+        <v>0.234498</v>
       </c>
       <c r="D43" t="n">
-        <v>0.235026</v>
+        <v>0.232425</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.237679</v>
+        <v>0.238741</v>
       </c>
       <c r="C44" t="n">
-        <v>0.237096</v>
+        <v>0.229159</v>
       </c>
       <c r="D44" t="n">
-        <v>0.22897</v>
+        <v>0.226536</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.232152</v>
+        <v>0.232866</v>
       </c>
       <c r="C45" t="n">
-        <v>0.231189</v>
+        <v>0.223554</v>
       </c>
       <c r="D45" t="n">
-        <v>0.223292</v>
+        <v>0.220548</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.226639</v>
+        <v>0.227356</v>
       </c>
       <c r="C46" t="n">
-        <v>0.225382</v>
+        <v>0.218303</v>
       </c>
       <c r="D46" t="n">
-        <v>0.217095</v>
+        <v>0.216248</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.223046</v>
+        <v>0.223272</v>
       </c>
       <c r="C47" t="n">
-        <v>0.220792</v>
+        <v>0.214021</v>
       </c>
       <c r="D47" t="n">
-        <v>0.214635</v>
+        <v>0.212157</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.219716</v>
+        <v>0.219995</v>
       </c>
       <c r="C48" t="n">
-        <v>0.216758</v>
+        <v>0.210113</v>
       </c>
       <c r="D48" t="n">
-        <v>0.21179</v>
+        <v>0.209598</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.218365</v>
+        <v>0.218199</v>
       </c>
       <c r="C49" t="n">
-        <v>0.21368</v>
+        <v>0.207534</v>
       </c>
       <c r="D49" t="n">
-        <v>0.210662</v>
+        <v>0.208104</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.218092</v>
+        <v>0.218647</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212083</v>
+        <v>0.20577</v>
       </c>
       <c r="D50" t="n">
-        <v>0.211168</v>
+        <v>0.208545</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.21984</v>
+        <v>0.220794</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212524</v>
+        <v>0.206333</v>
       </c>
       <c r="D51" t="n">
-        <v>0.290636</v>
+        <v>0.287621</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.22426</v>
+        <v>0.225392</v>
       </c>
       <c r="C52" t="n">
-        <v>0.215441</v>
+        <v>0.209126</v>
       </c>
       <c r="D52" t="n">
-        <v>0.281216</v>
+        <v>0.278539</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.279785</v>
+        <v>0.280837</v>
       </c>
       <c r="C53" t="n">
-        <v>0.283162</v>
+        <v>0.272049</v>
       </c>
       <c r="D53" t="n">
-        <v>0.271815</v>
+        <v>0.269722</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.270764</v>
+        <v>0.271937</v>
       </c>
       <c r="C54" t="n">
-        <v>0.273719</v>
+        <v>0.263552</v>
       </c>
       <c r="D54" t="n">
-        <v>0.263985</v>
+        <v>0.261449</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.262926</v>
+        <v>0.263475</v>
       </c>
       <c r="C55" t="n">
-        <v>0.265374</v>
+        <v>0.255681</v>
       </c>
       <c r="D55" t="n">
-        <v>0.256022</v>
+        <v>0.25355</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.254803</v>
+        <v>0.255711</v>
       </c>
       <c r="C56" t="n">
-        <v>0.257312</v>
+        <v>0.248084</v>
       </c>
       <c r="D56" t="n">
-        <v>0.248405</v>
+        <v>0.246213</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.247465</v>
+        <v>0.248464</v>
       </c>
       <c r="C57" t="n">
-        <v>0.250113</v>
+        <v>0.241221</v>
       </c>
       <c r="D57" t="n">
-        <v>0.241914</v>
+        <v>0.239193</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.240916</v>
+        <v>0.241368</v>
       </c>
       <c r="C58" t="n">
-        <v>0.243126</v>
+        <v>0.234648</v>
       </c>
       <c r="D58" t="n">
-        <v>0.235108</v>
+        <v>0.232912</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.235278</v>
+        <v>0.235099</v>
       </c>
       <c r="C59" t="n">
-        <v>0.23663</v>
+        <v>0.228491</v>
       </c>
       <c r="D59" t="n">
-        <v>0.229145</v>
+        <v>0.227062</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.229594</v>
+        <v>0.229898</v>
       </c>
       <c r="C60" t="n">
-        <v>0.23063</v>
+        <v>0.22329</v>
       </c>
       <c r="D60" t="n">
-        <v>0.224152</v>
+        <v>0.222129</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.224533</v>
+        <v>0.225328</v>
       </c>
       <c r="C61" t="n">
-        <v>0.225842</v>
+        <v>0.218547</v>
       </c>
       <c r="D61" t="n">
-        <v>0.220112</v>
+        <v>0.218077</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.221556</v>
+        <v>0.221592</v>
       </c>
       <c r="C62" t="n">
-        <v>0.221293</v>
+        <v>0.214508</v>
       </c>
       <c r="D62" t="n">
-        <v>0.216666</v>
+        <v>0.214497</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.219492</v>
+        <v>0.219248</v>
       </c>
       <c r="C63" t="n">
-        <v>0.217941</v>
+        <v>0.211359</v>
       </c>
       <c r="D63" t="n">
-        <v>0.214769</v>
+        <v>0.212396</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.218313</v>
+        <v>0.218708</v>
       </c>
       <c r="C64" t="n">
-        <v>0.215855</v>
+        <v>0.209709</v>
       </c>
       <c r="D64" t="n">
-        <v>0.214607</v>
+        <v>0.212621</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.220443</v>
+        <v>0.220798</v>
       </c>
       <c r="C65" t="n">
-        <v>0.215601</v>
+        <v>0.20958</v>
       </c>
       <c r="D65" t="n">
-        <v>0.218148</v>
+        <v>0.215935</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.224584</v>
+        <v>0.225342</v>
       </c>
       <c r="C66" t="n">
-        <v>0.218728</v>
+        <v>0.212842</v>
       </c>
       <c r="D66" t="n">
-        <v>0.291087</v>
+        <v>0.289856</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.285297</v>
+        <v>0.285019</v>
       </c>
       <c r="C67" t="n">
-        <v>0.289935</v>
+        <v>0.279713</v>
       </c>
       <c r="D67" t="n">
-        <v>0.282347</v>
+        <v>0.28078</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.276309</v>
+        <v>0.276657</v>
       </c>
       <c r="C68" t="n">
-        <v>0.28053</v>
+        <v>0.27139</v>
       </c>
       <c r="D68" t="n">
-        <v>0.273355</v>
+        <v>0.27213</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.267876</v>
+        <v>0.268123</v>
       </c>
       <c r="C69" t="n">
-        <v>0.271981</v>
+        <v>0.262766</v>
       </c>
       <c r="D69" t="n">
-        <v>0.265101</v>
+        <v>0.263614</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.259788</v>
+        <v>0.259971</v>
       </c>
       <c r="C70" t="n">
-        <v>0.263501</v>
+        <v>0.255194</v>
       </c>
       <c r="D70" t="n">
-        <v>0.257078</v>
+        <v>0.255775</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.252745</v>
+        <v>0.252889</v>
       </c>
       <c r="C71" t="n">
-        <v>0.255872</v>
+        <v>0.248035</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250069</v>
+        <v>0.248318</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.247244</v>
+        <v>0.245672</v>
       </c>
       <c r="C72" t="n">
-        <v>0.249933</v>
+        <v>0.241084</v>
       </c>
       <c r="D72" t="n">
-        <v>0.244498</v>
+        <v>0.242101</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.240938</v>
+        <v>0.239757</v>
       </c>
       <c r="C73" t="n">
-        <v>0.243051</v>
+        <v>0.234689</v>
       </c>
       <c r="D73" t="n">
-        <v>0.238178</v>
+        <v>0.235444</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.235073</v>
+        <v>0.233745</v>
       </c>
       <c r="C74" t="n">
-        <v>0.236651</v>
+        <v>0.22894</v>
       </c>
       <c r="D74" t="n">
-        <v>0.232394</v>
+        <v>0.230256</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.230244</v>
+        <v>0.22899</v>
       </c>
       <c r="C75" t="n">
-        <v>0.231197</v>
+        <v>0.224</v>
       </c>
       <c r="D75" t="n">
-        <v>0.227423</v>
+        <v>0.22555</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.225859</v>
+        <v>0.225027</v>
       </c>
       <c r="C76" t="n">
-        <v>0.226687</v>
+        <v>0.219719</v>
       </c>
       <c r="D76" t="n">
-        <v>0.223638</v>
+        <v>0.221853</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.222581</v>
+        <v>0.22204</v>
       </c>
       <c r="C77" t="n">
-        <v>0.222841</v>
+        <v>0.216169</v>
       </c>
       <c r="D77" t="n">
-        <v>0.221028</v>
+        <v>0.219227</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.221459</v>
+        <v>0.221437</v>
       </c>
       <c r="C78" t="n">
-        <v>0.220065</v>
+        <v>0.213796</v>
       </c>
       <c r="D78" t="n">
-        <v>0.220458</v>
+        <v>0.218808</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.222806</v>
+        <v>0.22219</v>
       </c>
       <c r="C79" t="n">
-        <v>0.219363</v>
+        <v>0.213412</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222552</v>
+        <v>0.220815</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227277</v>
+        <v>0.225969</v>
       </c>
       <c r="C80" t="n">
-        <v>0.220472</v>
+        <v>0.215364</v>
       </c>
       <c r="D80" t="n">
-        <v>0.295241</v>
+        <v>0.294697</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.285467</v>
+        <v>0.285385</v>
       </c>
       <c r="C81" t="n">
-        <v>0.297628</v>
+        <v>0.288437</v>
       </c>
       <c r="D81" t="n">
-        <v>0.286142</v>
+        <v>0.285294</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.276882</v>
+        <v>0.277629</v>
       </c>
       <c r="C82" t="n">
-        <v>0.288468</v>
+        <v>0.279784</v>
       </c>
       <c r="D82" t="n">
-        <v>0.27708</v>
+        <v>0.276626</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.269527</v>
+        <v>0.26921</v>
       </c>
       <c r="C83" t="n">
-        <v>0.279337</v>
+        <v>0.271211</v>
       </c>
       <c r="D83" t="n">
-        <v>0.268514</v>
+        <v>0.268133</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.261499</v>
+        <v>0.260455</v>
       </c>
       <c r="C84" t="n">
-        <v>0.270664</v>
+        <v>0.263073</v>
       </c>
       <c r="D84" t="n">
-        <v>0.260439</v>
+        <v>0.260366</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.254216</v>
+        <v>0.25412</v>
       </c>
       <c r="C85" t="n">
-        <v>0.262867</v>
+        <v>0.255418</v>
       </c>
       <c r="D85" t="n">
-        <v>0.252309</v>
+        <v>0.253011</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.247431</v>
+        <v>0.246155</v>
       </c>
       <c r="C86" t="n">
-        <v>0.255007</v>
+        <v>0.2488</v>
       </c>
       <c r="D86" t="n">
-        <v>0.245905</v>
+        <v>0.246069</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.240966</v>
+        <v>0.241115</v>
       </c>
       <c r="C87" t="n">
-        <v>0.248074</v>
+        <v>0.241826</v>
       </c>
       <c r="D87" t="n">
-        <v>0.239417</v>
+        <v>0.239977</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.235347</v>
+        <v>0.235103</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24149</v>
+        <v>0.235966</v>
       </c>
       <c r="D88" t="n">
-        <v>0.233683</v>
+        <v>0.234033</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.230201</v>
+        <v>0.230311</v>
       </c>
       <c r="C89" t="n">
-        <v>0.236071</v>
+        <v>0.230696</v>
       </c>
       <c r="D89" t="n">
-        <v>0.228558</v>
+        <v>0.229083</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.226245</v>
+        <v>0.225564</v>
       </c>
       <c r="C90" t="n">
-        <v>0.23074</v>
+        <v>0.226073</v>
       </c>
       <c r="D90" t="n">
-        <v>0.224722</v>
+        <v>0.22502</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.222923</v>
+        <v>0.223153</v>
       </c>
       <c r="C91" t="n">
-        <v>0.226603</v>
+        <v>0.222082</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221285</v>
+        <v>0.222006</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.221967</v>
+        <v>0.221725</v>
       </c>
       <c r="C92" t="n">
-        <v>0.223973</v>
+        <v>0.219382</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2208</v>
+        <v>0.220979</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.222243</v>
+        <v>0.221851</v>
       </c>
       <c r="C93" t="n">
-        <v>0.222354</v>
+        <v>0.217904</v>
       </c>
       <c r="D93" t="n">
-        <v>0.221993</v>
+        <v>0.222835</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.224986</v>
+        <v>0.225678</v>
       </c>
       <c r="C94" t="n">
-        <v>0.223492</v>
+        <v>0.219331</v>
       </c>
       <c r="D94" t="n">
-        <v>0.305596</v>
+        <v>0.306825</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.295978</v>
+        <v>0.296468</v>
       </c>
       <c r="C95" t="n">
-        <v>0.307315</v>
+        <v>0.298547</v>
       </c>
       <c r="D95" t="n">
-        <v>0.298271</v>
+        <v>0.298332</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.288891</v>
+        <v>0.288956</v>
       </c>
       <c r="C96" t="n">
-        <v>0.299488</v>
+        <v>0.291746</v>
       </c>
       <c r="D96" t="n">
-        <v>0.289827</v>
+        <v>0.289714</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.280508</v>
+        <v>0.280986</v>
       </c>
       <c r="C97" t="n">
-        <v>0.291277</v>
+        <v>0.283354</v>
       </c>
       <c r="D97" t="n">
-        <v>0.280848</v>
+        <v>0.281508</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.272677</v>
+        <v>0.272709</v>
       </c>
       <c r="C98" t="n">
-        <v>0.282438</v>
+        <v>0.276032</v>
       </c>
       <c r="D98" t="n">
-        <v>0.272958</v>
+        <v>0.272884</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.265125</v>
+        <v>0.265558</v>
       </c>
       <c r="C99" t="n">
-        <v>0.274547</v>
+        <v>0.268532</v>
       </c>
       <c r="D99" t="n">
-        <v>0.265128</v>
+        <v>0.265419</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.258239</v>
+        <v>0.258566</v>
       </c>
       <c r="C100" t="n">
-        <v>0.266681</v>
+        <v>0.261757</v>
       </c>
       <c r="D100" t="n">
-        <v>0.258686</v>
+        <v>0.258782</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.25186</v>
+        <v>0.251811</v>
       </c>
       <c r="C101" t="n">
-        <v>0.259833</v>
+        <v>0.254962</v>
       </c>
       <c r="D101" t="n">
-        <v>0.251744</v>
+        <v>0.251519</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.245927</v>
+        <v>0.245751</v>
       </c>
       <c r="C102" t="n">
-        <v>0.253142</v>
+        <v>0.249117</v>
       </c>
       <c r="D102" t="n">
-        <v>0.246102</v>
+        <v>0.246468</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.24073</v>
+        <v>0.240463</v>
       </c>
       <c r="C103" t="n">
-        <v>0.247002</v>
+        <v>0.243319</v>
       </c>
       <c r="D103" t="n">
-        <v>0.240973</v>
+        <v>0.240996</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.23636</v>
+        <v>0.236328</v>
       </c>
       <c r="C104" t="n">
-        <v>0.242293</v>
+        <v>0.238577</v>
       </c>
       <c r="D104" t="n">
-        <v>0.236754</v>
+        <v>0.236891</v>
       </c>
     </row>
     <row r="105">
@@ -4693,10 +4693,10 @@
         <v>0.232796</v>
       </c>
       <c r="C105" t="n">
-        <v>0.237594</v>
+        <v>0.23443</v>
       </c>
       <c r="D105" t="n">
-        <v>0.233931</v>
+        <v>0.233411</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.23093</v>
+        <v>0.230887</v>
       </c>
       <c r="C106" t="n">
-        <v>0.234393</v>
+        <v>0.231316</v>
       </c>
       <c r="D106" t="n">
-        <v>0.231916</v>
+        <v>0.231627</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.230736</v>
+        <v>0.230944</v>
       </c>
       <c r="C107" t="n">
-        <v>0.232669</v>
+        <v>0.229498</v>
       </c>
       <c r="D107" t="n">
-        <v>0.232094</v>
+        <v>0.23237</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233124</v>
+        <v>0.233286</v>
       </c>
       <c r="C108" t="n">
-        <v>0.233175</v>
+        <v>0.230346</v>
       </c>
       <c r="D108" t="n">
-        <v>0.31948</v>
+        <v>0.318822</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.238831</v>
+        <v>0.238482</v>
       </c>
       <c r="C109" t="n">
-        <v>0.237043</v>
+        <v>0.23473</v>
       </c>
       <c r="D109" t="n">
-        <v>0.313881</v>
+        <v>0.314752</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.30026</v>
+        <v>0.300482</v>
       </c>
       <c r="C110" t="n">
-        <v>0.313792</v>
+        <v>0.30906</v>
       </c>
       <c r="D110" t="n">
-        <v>0.306077</v>
+        <v>0.307176</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.293002</v>
+        <v>0.293162</v>
       </c>
       <c r="C111" t="n">
-        <v>0.306033</v>
+        <v>0.301764</v>
       </c>
       <c r="D111" t="n">
-        <v>0.299231</v>
+        <v>0.299496</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.286269</v>
+        <v>0.286387</v>
       </c>
       <c r="C112" t="n">
-        <v>0.298491</v>
+        <v>0.29536</v>
       </c>
       <c r="D112" t="n">
-        <v>0.292415</v>
+        <v>0.291877</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.279868</v>
+        <v>0.280112</v>
       </c>
       <c r="C113" t="n">
-        <v>0.291655</v>
+        <v>0.287846</v>
       </c>
       <c r="D113" t="n">
-        <v>0.285881</v>
+        <v>0.284145</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.273681</v>
+        <v>0.274298</v>
       </c>
       <c r="C114" t="n">
-        <v>0.284784</v>
+        <v>0.281254</v>
       </c>
       <c r="D114" t="n">
-        <v>0.279789</v>
+        <v>0.278523</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.268395</v>
+        <v>0.268463</v>
       </c>
       <c r="C115" t="n">
-        <v>0.278476</v>
+        <v>0.275649</v>
       </c>
       <c r="D115" t="n">
-        <v>0.274184</v>
+        <v>0.272631</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.263276</v>
+        <v>0.263427</v>
       </c>
       <c r="C116" t="n">
-        <v>0.272632</v>
+        <v>0.270638</v>
       </c>
       <c r="D116" t="n">
-        <v>0.26901</v>
+        <v>0.267867</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.258694</v>
+        <v>0.259094</v>
       </c>
       <c r="C117" t="n">
-        <v>0.267437</v>
+        <v>0.266006</v>
       </c>
       <c r="D117" t="n">
-        <v>0.264477</v>
+        <v>0.263348</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.255016</v>
+        <v>0.255267</v>
       </c>
       <c r="C118" t="n">
-        <v>0.262929</v>
+        <v>0.262076</v>
       </c>
       <c r="D118" t="n">
-        <v>0.26157</v>
+        <v>0.258682</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.252022</v>
+        <v>0.252838</v>
       </c>
       <c r="C119" t="n">
-        <v>0.258927</v>
+        <v>0.259601</v>
       </c>
       <c r="D119" t="n">
-        <v>0.258445</v>
+        <v>0.255998</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.250448</v>
+        <v>0.250958</v>
       </c>
       <c r="C120" t="n">
-        <v>0.255997</v>
+        <v>0.256371</v>
       </c>
       <c r="D120" t="n">
-        <v>0.257031</v>
+        <v>0.254521</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250307</v>
+        <v>0.250969</v>
       </c>
       <c r="C121" t="n">
-        <v>0.254543</v>
+        <v>0.255079</v>
       </c>
       <c r="D121" t="n">
-        <v>0.258512</v>
+        <v>0.254659</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.252268</v>
+        <v>0.252745</v>
       </c>
       <c r="C122" t="n">
-        <v>0.254617</v>
+        <v>0.256163</v>
       </c>
       <c r="D122" t="n">
-        <v>0.26187</v>
+        <v>0.258006</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.257194</v>
+        <v>0.257883</v>
       </c>
       <c r="C123" t="n">
-        <v>0.257734</v>
+        <v>0.259181</v>
       </c>
       <c r="D123" t="n">
-        <v>0.340876</v>
+        <v>0.33706</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.323003</v>
+        <v>0.323944</v>
       </c>
       <c r="C124" t="n">
-        <v>0.336601</v>
+        <v>0.33363</v>
       </c>
       <c r="D124" t="n">
-        <v>0.335871</v>
+        <v>0.332131</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.318273</v>
+        <v>0.318931</v>
       </c>
       <c r="C125" t="n">
-        <v>0.330559</v>
+        <v>0.328882</v>
       </c>
       <c r="D125" t="n">
-        <v>0.332392</v>
+        <v>0.327516</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.313971</v>
+        <v>0.314638</v>
       </c>
       <c r="C126" t="n">
-        <v>0.324932</v>
+        <v>0.324346</v>
       </c>
       <c r="D126" t="n">
-        <v>0.328689</v>
+        <v>0.322417</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.309623</v>
+        <v>0.310465</v>
       </c>
       <c r="C127" t="n">
-        <v>0.319548</v>
+        <v>0.320415</v>
       </c>
       <c r="D127" t="n">
-        <v>0.324883</v>
+        <v>0.318683</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.305529</v>
+        <v>0.30664</v>
       </c>
       <c r="C128" t="n">
-        <v>0.314981</v>
+        <v>0.316566</v>
       </c>
       <c r="D128" t="n">
-        <v>0.321557</v>
+        <v>0.314787</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.301734</v>
+        <v>0.302773</v>
       </c>
       <c r="C129" t="n">
-        <v>0.310052</v>
+        <v>0.312909</v>
       </c>
       <c r="D129" t="n">
-        <v>0.319541</v>
+        <v>0.311156</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.298489</v>
+        <v>0.299591</v>
       </c>
       <c r="C130" t="n">
-        <v>0.306073</v>
+        <v>0.309927</v>
       </c>
       <c r="D130" t="n">
-        <v>0.317101</v>
+        <v>0.307899</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295811</v>
+        <v>0.296983</v>
       </c>
       <c r="C131" t="n">
-        <v>0.302452</v>
+        <v>0.307045</v>
       </c>
       <c r="D131" t="n">
-        <v>0.315078</v>
+        <v>0.30476</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.293716</v>
+        <v>0.294428</v>
       </c>
       <c r="C132" t="n">
-        <v>0.299401</v>
+        <v>0.304655</v>
       </c>
       <c r="D132" t="n">
-        <v>0.31401</v>
+        <v>0.302393</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.292081</v>
+        <v>0.293108</v>
       </c>
       <c r="C133" t="n">
-        <v>0.296728</v>
+        <v>0.302462</v>
       </c>
       <c r="D133" t="n">
-        <v>0.313627</v>
+        <v>0.300384</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.291239</v>
+        <v>0.292209</v>
       </c>
       <c r="C134" t="n">
-        <v>0.295009</v>
+        <v>0.301617</v>
       </c>
       <c r="D134" t="n">
-        <v>0.314042</v>
+        <v>0.299647</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.291422</v>
+        <v>0.292361</v>
       </c>
       <c r="C135" t="n">
-        <v>0.294453</v>
+        <v>0.301462</v>
       </c>
       <c r="D135" t="n">
-        <v>0.316477</v>
+        <v>0.300033</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.293532</v>
+        <v>0.294641</v>
       </c>
       <c r="C136" t="n">
-        <v>0.295533</v>
+        <v>0.302254</v>
       </c>
       <c r="D136" t="n">
-        <v>0.320607</v>
+        <v>0.303089</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.297675</v>
+        <v>0.29886</v>
       </c>
       <c r="C137" t="n">
-        <v>0.299297</v>
+        <v>0.305184</v>
       </c>
       <c r="D137" t="n">
-        <v>0.4012</v>
+        <v>0.383524</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.371869</v>
+        <v>0.372418</v>
       </c>
       <c r="C138" t="n">
-        <v>0.37963</v>
+        <v>0.380846</v>
       </c>
       <c r="D138" t="n">
-        <v>0.397687</v>
+        <v>0.38201</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.369813</v>
+        <v>0.369812</v>
       </c>
       <c r="C139" t="n">
-        <v>0.375714</v>
+        <v>0.378621</v>
       </c>
       <c r="D139" t="n">
-        <v>0.395308</v>
+        <v>0.379704</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.367478</v>
+        <v>0.367806</v>
       </c>
       <c r="C140" t="n">
-        <v>0.372494</v>
+        <v>0.375405</v>
       </c>
       <c r="D140" t="n">
-        <v>0.394047</v>
+        <v>0.378071</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.367178</v>
+        <v>0.366248</v>
       </c>
       <c r="C141" t="n">
-        <v>0.370536</v>
+        <v>0.37346</v>
       </c>
       <c r="D141" t="n">
-        <v>0.391413</v>
+        <v>0.375661</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.363204</v>
+        <v>0.364236</v>
       </c>
       <c r="C142" t="n">
-        <v>0.366055</v>
+        <v>0.370668</v>
       </c>
       <c r="D142" t="n">
-        <v>0.389372</v>
+        <v>0.374897</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.361716</v>
+        <v>0.362905</v>
       </c>
       <c r="C143" t="n">
-        <v>0.362701</v>
+        <v>0.368703</v>
       </c>
       <c r="D143" t="n">
-        <v>0.387344</v>
+        <v>0.373034</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.221408</v>
+        <v>0.150077</v>
       </c>
       <c r="C2" t="n">
-        <v>0.199861</v>
+        <v>0.155185</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199391</v>
+        <v>0.150571</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.22855</v>
+        <v>0.162099</v>
       </c>
       <c r="C3" t="n">
-        <v>0.195031</v>
+        <v>0.149648</v>
       </c>
       <c r="D3" t="n">
-        <v>0.194598</v>
+        <v>0.145862</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.219467</v>
+        <v>0.145777</v>
       </c>
       <c r="C4" t="n">
-        <v>0.191236</v>
+        <v>0.146339</v>
       </c>
       <c r="D4" t="n">
-        <v>0.191355</v>
+        <v>0.141675</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.220091</v>
+        <v>0.156564</v>
       </c>
       <c r="C5" t="n">
-        <v>0.188297</v>
+        <v>0.142884</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188936</v>
+        <v>0.139277</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.203302</v>
+        <v>0.152655</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18631</v>
+        <v>0.140138</v>
       </c>
       <c r="D6" t="n">
-        <v>0.185936</v>
+        <v>0.136057</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.215928</v>
+        <v>0.144433</v>
       </c>
       <c r="C7" t="n">
-        <v>0.185147</v>
+        <v>0.137173</v>
       </c>
       <c r="D7" t="n">
-        <v>0.184181</v>
+        <v>0.133863</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.216499</v>
+        <v>0.151879</v>
       </c>
       <c r="C8" t="n">
-        <v>0.183886</v>
+        <v>0.135995</v>
       </c>
       <c r="D8" t="n">
-        <v>0.184831</v>
+        <v>0.133393</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.219233</v>
+        <v>0.140809</v>
       </c>
       <c r="C9" t="n">
-        <v>0.185149</v>
+        <v>0.135902</v>
       </c>
       <c r="D9" t="n">
-        <v>0.267714</v>
+        <v>0.218433</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.277791</v>
+        <v>0.211698</v>
       </c>
       <c r="C10" t="n">
-        <v>0.266694</v>
+        <v>0.2195</v>
       </c>
       <c r="D10" t="n">
-        <v>0.263278</v>
+        <v>0.210912</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.269278</v>
+        <v>0.203137</v>
       </c>
       <c r="C11" t="n">
-        <v>0.251362</v>
+        <v>0.204186</v>
       </c>
       <c r="D11" t="n">
-        <v>0.246765</v>
+        <v>0.198624</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.260411</v>
+        <v>0.196577</v>
       </c>
       <c r="C12" t="n">
-        <v>0.249271</v>
+        <v>0.203498</v>
       </c>
       <c r="D12" t="n">
-        <v>0.246066</v>
+        <v>0.196945</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.252529</v>
+        <v>0.18939</v>
       </c>
       <c r="C13" t="n">
-        <v>0.242055</v>
+        <v>0.197138</v>
       </c>
       <c r="D13" t="n">
-        <v>0.234121</v>
+        <v>0.184582</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.244822</v>
+        <v>0.1828</v>
       </c>
       <c r="C14" t="n">
-        <v>0.232224</v>
+        <v>0.189132</v>
       </c>
       <c r="D14" t="n">
-        <v>0.227502</v>
+        <v>0.179799</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.23802</v>
+        <v>0.17651</v>
       </c>
       <c r="C15" t="n">
-        <v>0.227096</v>
+        <v>0.182551</v>
       </c>
       <c r="D15" t="n">
-        <v>0.224397</v>
+        <v>0.176513</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.23087</v>
+        <v>0.170946</v>
       </c>
       <c r="C16" t="n">
-        <v>0.221408</v>
+        <v>0.176472</v>
       </c>
       <c r="D16" t="n">
-        <v>0.219507</v>
+        <v>0.170703</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.225344</v>
+        <v>0.166342</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2166</v>
+        <v>0.172041</v>
       </c>
       <c r="D17" t="n">
-        <v>0.213576</v>
+        <v>0.165075</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.220563</v>
+        <v>0.162222</v>
       </c>
       <c r="C18" t="n">
-        <v>0.206431</v>
+        <v>0.164269</v>
       </c>
       <c r="D18" t="n">
-        <v>0.202995</v>
+        <v>0.160858</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.216832</v>
+        <v>0.157971</v>
       </c>
       <c r="C19" t="n">
-        <v>0.204806</v>
+        <v>0.162912</v>
       </c>
       <c r="D19" t="n">
-        <v>0.203276</v>
+        <v>0.157358</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.213892</v>
+        <v>0.155641</v>
       </c>
       <c r="C20" t="n">
-        <v>0.203686</v>
+        <v>0.157015</v>
       </c>
       <c r="D20" t="n">
-        <v>0.204483</v>
+        <v>0.148964</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.212127</v>
+        <v>0.154715</v>
       </c>
       <c r="C21" t="n">
-        <v>0.19943</v>
+        <v>0.148618</v>
       </c>
       <c r="D21" t="n">
-        <v>0.202814</v>
+        <v>0.150079</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.212749</v>
+        <v>0.155232</v>
       </c>
       <c r="C22" t="n">
-        <v>0.202363</v>
+        <v>0.149782</v>
       </c>
       <c r="D22" t="n">
-        <v>0.203405</v>
+        <v>0.152251</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.214643</v>
+        <v>0.157754</v>
       </c>
       <c r="C23" t="n">
-        <v>0.204112</v>
+        <v>0.155779</v>
       </c>
       <c r="D23" t="n">
-        <v>0.26925</v>
+        <v>0.218398</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.279953</v>
+        <v>0.221054</v>
       </c>
       <c r="C24" t="n">
-        <v>0.264949</v>
+        <v>0.221797</v>
       </c>
       <c r="D24" t="n">
-        <v>0.259352</v>
+        <v>0.210478</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.270559</v>
+        <v>0.212396</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25738</v>
+        <v>0.214334</v>
       </c>
       <c r="D25" t="n">
-        <v>0.251841</v>
+        <v>0.203554</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.261968</v>
+        <v>0.204042</v>
       </c>
       <c r="C26" t="n">
-        <v>0.249519</v>
+        <v>0.205988</v>
       </c>
       <c r="D26" t="n">
-        <v>0.244688</v>
+        <v>0.194754</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.253129</v>
+        <v>0.196707</v>
       </c>
       <c r="C27" t="n">
-        <v>0.241969</v>
+        <v>0.198472</v>
       </c>
       <c r="D27" t="n">
-        <v>0.237062</v>
+        <v>0.188558</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.246692</v>
+        <v>0.1901</v>
       </c>
       <c r="C28" t="n">
-        <v>0.235104</v>
+        <v>0.192128</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230214</v>
+        <v>0.18235</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.239309</v>
+        <v>0.184049</v>
       </c>
       <c r="C29" t="n">
-        <v>0.22879</v>
+        <v>0.185789</v>
       </c>
       <c r="D29" t="n">
-        <v>0.224116</v>
+        <v>0.17622</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.232546</v>
+        <v>0.17871</v>
       </c>
       <c r="C30" t="n">
-        <v>0.222094</v>
+        <v>0.179287</v>
       </c>
       <c r="D30" t="n">
-        <v>0.218136</v>
+        <v>0.170291</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.227467</v>
+        <v>0.173521</v>
       </c>
       <c r="C31" t="n">
-        <v>0.216839</v>
+        <v>0.173683</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214139</v>
+        <v>0.164984</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.222816</v>
+        <v>0.168943</v>
       </c>
       <c r="C32" t="n">
-        <v>0.212187</v>
+        <v>0.168482</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209972</v>
+        <v>0.160644</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.219239</v>
+        <v>0.164914</v>
       </c>
       <c r="C33" t="n">
-        <v>0.207269</v>
+        <v>0.163647</v>
       </c>
       <c r="D33" t="n">
-        <v>0.206262</v>
+        <v>0.15679</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.215967</v>
+        <v>0.161662</v>
       </c>
       <c r="C34" t="n">
-        <v>0.203897</v>
+        <v>0.159987</v>
       </c>
       <c r="D34" t="n">
-        <v>0.202917</v>
+        <v>0.153614</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.214516</v>
+        <v>0.159164</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200936</v>
+        <v>0.157122</v>
       </c>
       <c r="D35" t="n">
-        <v>0.202267</v>
+        <v>0.151981</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.214852</v>
+        <v>0.159083</v>
       </c>
       <c r="C36" t="n">
-        <v>0.200865</v>
+        <v>0.155897</v>
       </c>
       <c r="D36" t="n">
-        <v>0.201621</v>
+        <v>0.152451</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.216305</v>
+        <v>0.159566</v>
       </c>
       <c r="C37" t="n">
-        <v>0.201407</v>
+        <v>0.155651</v>
       </c>
       <c r="D37" t="n">
-        <v>0.278851</v>
+        <v>0.231651</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.286828</v>
+        <v>0.229408</v>
       </c>
       <c r="C38" t="n">
-        <v>0.27509</v>
+        <v>0.232783</v>
       </c>
       <c r="D38" t="n">
-        <v>0.269824</v>
+        <v>0.222988</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.277829</v>
+        <v>0.221017</v>
       </c>
       <c r="C39" t="n">
-        <v>0.26664</v>
+        <v>0.224844</v>
       </c>
       <c r="D39" t="n">
-        <v>0.261141</v>
+        <v>0.214336</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.268568</v>
+        <v>0.21277</v>
       </c>
       <c r="C40" t="n">
-        <v>0.256595</v>
+        <v>0.216571</v>
       </c>
       <c r="D40" t="n">
-        <v>0.251318</v>
+        <v>0.206665</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.260579</v>
+        <v>0.205557</v>
       </c>
       <c r="C41" t="n">
-        <v>0.250081</v>
+        <v>0.209034</v>
       </c>
       <c r="D41" t="n">
-        <v>0.246234</v>
+        <v>0.197362</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.252718</v>
+        <v>0.198574</v>
       </c>
       <c r="C42" t="n">
-        <v>0.242677</v>
+        <v>0.201291</v>
       </c>
       <c r="D42" t="n">
-        <v>0.238324</v>
+        <v>0.191294</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.245195</v>
+        <v>0.192004</v>
       </c>
       <c r="C43" t="n">
-        <v>0.234498</v>
+        <v>0.194564</v>
       </c>
       <c r="D43" t="n">
-        <v>0.232425</v>
+        <v>0.185474</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.238741</v>
+        <v>0.185926</v>
       </c>
       <c r="C44" t="n">
-        <v>0.229159</v>
+        <v>0.18798</v>
       </c>
       <c r="D44" t="n">
-        <v>0.226536</v>
+        <v>0.179509</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.232866</v>
+        <v>0.179908</v>
       </c>
       <c r="C45" t="n">
-        <v>0.223554</v>
+        <v>0.182007</v>
       </c>
       <c r="D45" t="n">
-        <v>0.220548</v>
+        <v>0.174139</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.227356</v>
+        <v>0.176733</v>
       </c>
       <c r="C46" t="n">
-        <v>0.218303</v>
+        <v>0.175713</v>
       </c>
       <c r="D46" t="n">
-        <v>0.216248</v>
+        <v>0.168774</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.223272</v>
+        <v>0.171546</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214021</v>
+        <v>0.173365</v>
       </c>
       <c r="D47" t="n">
-        <v>0.212157</v>
+        <v>0.166233</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.219995</v>
+        <v>0.168529</v>
       </c>
       <c r="C48" t="n">
-        <v>0.210113</v>
+        <v>0.170786</v>
       </c>
       <c r="D48" t="n">
-        <v>0.209598</v>
+        <v>0.16493</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.218199</v>
+        <v>0.165995</v>
       </c>
       <c r="C49" t="n">
-        <v>0.207534</v>
+        <v>0.168203</v>
       </c>
       <c r="D49" t="n">
-        <v>0.208104</v>
+        <v>0.162752</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.218647</v>
+        <v>0.165642</v>
       </c>
       <c r="C50" t="n">
-        <v>0.20577</v>
+        <v>0.162527</v>
       </c>
       <c r="D50" t="n">
-        <v>0.208545</v>
+        <v>0.159188</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.220794</v>
+        <v>0.16518</v>
       </c>
       <c r="C51" t="n">
-        <v>0.206333</v>
+        <v>0.160172</v>
       </c>
       <c r="D51" t="n">
-        <v>0.287621</v>
+        <v>0.237046</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.225392</v>
+        <v>0.168791</v>
       </c>
       <c r="C52" t="n">
-        <v>0.209126</v>
+        <v>0.161742</v>
       </c>
       <c r="D52" t="n">
-        <v>0.278539</v>
+        <v>0.227267</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.280837</v>
+        <v>0.223058</v>
       </c>
       <c r="C53" t="n">
-        <v>0.272049</v>
+        <v>0.229174</v>
       </c>
       <c r="D53" t="n">
-        <v>0.269722</v>
+        <v>0.220378</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.271937</v>
+        <v>0.215762</v>
       </c>
       <c r="C54" t="n">
-        <v>0.263552</v>
+        <v>0.221099</v>
       </c>
       <c r="D54" t="n">
-        <v>0.261449</v>
+        <v>0.211399</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.263475</v>
+        <v>0.207906</v>
       </c>
       <c r="C55" t="n">
-        <v>0.255681</v>
+        <v>0.213414</v>
       </c>
       <c r="D55" t="n">
-        <v>0.25355</v>
+        <v>0.203727</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.255711</v>
+        <v>0.201105</v>
       </c>
       <c r="C56" t="n">
-        <v>0.248084</v>
+        <v>0.20521</v>
       </c>
       <c r="D56" t="n">
-        <v>0.246213</v>
+        <v>0.195705</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.248464</v>
+        <v>0.194451</v>
       </c>
       <c r="C57" t="n">
-        <v>0.241221</v>
+        <v>0.198107</v>
       </c>
       <c r="D57" t="n">
-        <v>0.239193</v>
+        <v>0.189324</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.241368</v>
+        <v>0.18753</v>
       </c>
       <c r="C58" t="n">
-        <v>0.234648</v>
+        <v>0.192203</v>
       </c>
       <c r="D58" t="n">
-        <v>0.232912</v>
+        <v>0.184135</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.235099</v>
+        <v>0.182157</v>
       </c>
       <c r="C59" t="n">
-        <v>0.228491</v>
+        <v>0.185389</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227062</v>
+        <v>0.177739</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.229898</v>
+        <v>0.177225</v>
       </c>
       <c r="C60" t="n">
-        <v>0.22329</v>
+        <v>0.180256</v>
       </c>
       <c r="D60" t="n">
-        <v>0.222129</v>
+        <v>0.172471</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.225328</v>
+        <v>0.172308</v>
       </c>
       <c r="C61" t="n">
-        <v>0.218547</v>
+        <v>0.174967</v>
       </c>
       <c r="D61" t="n">
-        <v>0.218077</v>
+        <v>0.167754</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.221592</v>
+        <v>0.16912</v>
       </c>
       <c r="C62" t="n">
-        <v>0.214508</v>
+        <v>0.1704</v>
       </c>
       <c r="D62" t="n">
-        <v>0.214497</v>
+        <v>0.163817</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.219248</v>
+        <v>0.166084</v>
       </c>
       <c r="C63" t="n">
-        <v>0.211359</v>
+        <v>0.166747</v>
       </c>
       <c r="D63" t="n">
-        <v>0.212396</v>
+        <v>0.160984</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.218708</v>
+        <v>0.164686</v>
       </c>
       <c r="C64" t="n">
-        <v>0.209709</v>
+        <v>0.164232</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212621</v>
+        <v>0.160382</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.220798</v>
+        <v>0.165978</v>
       </c>
       <c r="C65" t="n">
-        <v>0.20958</v>
+        <v>0.162855</v>
       </c>
       <c r="D65" t="n">
-        <v>0.215935</v>
+        <v>0.162142</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.225342</v>
+        <v>0.168107</v>
       </c>
       <c r="C66" t="n">
-        <v>0.212842</v>
+        <v>0.164413</v>
       </c>
       <c r="D66" t="n">
-        <v>0.289856</v>
+        <v>0.235668</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.285019</v>
+        <v>0.22962</v>
       </c>
       <c r="C67" t="n">
-        <v>0.279713</v>
+        <v>0.235461</v>
       </c>
       <c r="D67" t="n">
-        <v>0.28078</v>
+        <v>0.227219</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.276657</v>
+        <v>0.221224</v>
       </c>
       <c r="C68" t="n">
-        <v>0.27139</v>
+        <v>0.226513</v>
       </c>
       <c r="D68" t="n">
-        <v>0.27213</v>
+        <v>0.218976</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.268123</v>
+        <v>0.21347</v>
       </c>
       <c r="C69" t="n">
-        <v>0.262766</v>
+        <v>0.218374</v>
       </c>
       <c r="D69" t="n">
-        <v>0.263614</v>
+        <v>0.210922</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.259971</v>
+        <v>0.205989</v>
       </c>
       <c r="C70" t="n">
-        <v>0.255194</v>
+        <v>0.210687</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255775</v>
+        <v>0.203352</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.252889</v>
+        <v>0.199465</v>
       </c>
       <c r="C71" t="n">
-        <v>0.248035</v>
+        <v>0.203289</v>
       </c>
       <c r="D71" t="n">
-        <v>0.248318</v>
+        <v>0.196262</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.245672</v>
+        <v>0.192498</v>
       </c>
       <c r="C72" t="n">
-        <v>0.241084</v>
+        <v>0.196191</v>
       </c>
       <c r="D72" t="n">
-        <v>0.242101</v>
+        <v>0.189788</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.239757</v>
+        <v>0.186912</v>
       </c>
       <c r="C73" t="n">
-        <v>0.234689</v>
+        <v>0.189927</v>
       </c>
       <c r="D73" t="n">
-        <v>0.235444</v>
+        <v>0.183776</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.233745</v>
+        <v>0.18169</v>
       </c>
       <c r="C74" t="n">
-        <v>0.22894</v>
+        <v>0.184243</v>
       </c>
       <c r="D74" t="n">
-        <v>0.230256</v>
+        <v>0.178278</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.22899</v>
+        <v>0.177555</v>
       </c>
       <c r="C75" t="n">
-        <v>0.224</v>
+        <v>0.178842</v>
       </c>
       <c r="D75" t="n">
-        <v>0.22555</v>
+        <v>0.173348</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.225027</v>
+        <v>0.173133</v>
       </c>
       <c r="C76" t="n">
-        <v>0.219719</v>
+        <v>0.174193</v>
       </c>
       <c r="D76" t="n">
-        <v>0.221853</v>
+        <v>0.169716</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.22204</v>
+        <v>0.169875</v>
       </c>
       <c r="C77" t="n">
-        <v>0.216169</v>
+        <v>0.170264</v>
       </c>
       <c r="D77" t="n">
-        <v>0.219227</v>
+        <v>0.166549</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.221437</v>
+        <v>0.1688</v>
       </c>
       <c r="C78" t="n">
-        <v>0.213796</v>
+        <v>0.16747</v>
       </c>
       <c r="D78" t="n">
-        <v>0.218808</v>
+        <v>0.165358</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.22219</v>
+        <v>0.168883</v>
       </c>
       <c r="C79" t="n">
-        <v>0.213412</v>
+        <v>0.165956</v>
       </c>
       <c r="D79" t="n">
-        <v>0.220815</v>
+        <v>0.166476</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.225969</v>
+        <v>0.171515</v>
       </c>
       <c r="C80" t="n">
-        <v>0.215364</v>
+        <v>0.16673</v>
       </c>
       <c r="D80" t="n">
-        <v>0.294697</v>
+        <v>0.239625</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.285385</v>
+        <v>0.230684</v>
       </c>
       <c r="C81" t="n">
-        <v>0.288437</v>
+        <v>0.243742</v>
       </c>
       <c r="D81" t="n">
-        <v>0.285294</v>
+        <v>0.231318</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.277629</v>
+        <v>0.222167</v>
       </c>
       <c r="C82" t="n">
-        <v>0.279784</v>
+        <v>0.234379</v>
       </c>
       <c r="D82" t="n">
-        <v>0.276626</v>
+        <v>0.222761</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.26921</v>
+        <v>0.214306</v>
       </c>
       <c r="C83" t="n">
-        <v>0.271211</v>
+        <v>0.226053</v>
       </c>
       <c r="D83" t="n">
-        <v>0.268133</v>
+        <v>0.214692</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.260455</v>
+        <v>0.20717</v>
       </c>
       <c r="C84" t="n">
-        <v>0.263073</v>
+        <v>0.218149</v>
       </c>
       <c r="D84" t="n">
-        <v>0.260366</v>
+        <v>0.206653</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.25412</v>
+        <v>0.200855</v>
       </c>
       <c r="C85" t="n">
-        <v>0.255418</v>
+        <v>0.210207</v>
       </c>
       <c r="D85" t="n">
-        <v>0.253011</v>
+        <v>0.199441</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.246155</v>
+        <v>0.195637</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2488</v>
+        <v>0.203083</v>
       </c>
       <c r="D86" t="n">
-        <v>0.246069</v>
+        <v>0.193153</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.241115</v>
+        <v>0.189788</v>
       </c>
       <c r="C87" t="n">
-        <v>0.241826</v>
+        <v>0.196855</v>
       </c>
       <c r="D87" t="n">
-        <v>0.239977</v>
+        <v>0.186846</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.235103</v>
+        <v>0.184627</v>
       </c>
       <c r="C88" t="n">
-        <v>0.235966</v>
+        <v>0.190305</v>
       </c>
       <c r="D88" t="n">
-        <v>0.234033</v>
+        <v>0.181363</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.230311</v>
+        <v>0.178783</v>
       </c>
       <c r="C89" t="n">
-        <v>0.230696</v>
+        <v>0.184958</v>
       </c>
       <c r="D89" t="n">
-        <v>0.229083</v>
+        <v>0.176325</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.225564</v>
+        <v>0.174089</v>
       </c>
       <c r="C90" t="n">
-        <v>0.226073</v>
+        <v>0.179867</v>
       </c>
       <c r="D90" t="n">
-        <v>0.22502</v>
+        <v>0.172019</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.223153</v>
+        <v>0.172768</v>
       </c>
       <c r="C91" t="n">
-        <v>0.222082</v>
+        <v>0.175514</v>
       </c>
       <c r="D91" t="n">
-        <v>0.222006</v>
+        <v>0.169204</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.221725</v>
+        <v>0.170703</v>
       </c>
       <c r="C92" t="n">
-        <v>0.219382</v>
+        <v>0.172207</v>
       </c>
       <c r="D92" t="n">
-        <v>0.220979</v>
+        <v>0.167627</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.221851</v>
+        <v>0.169846</v>
       </c>
       <c r="C93" t="n">
-        <v>0.217904</v>
+        <v>0.17047</v>
       </c>
       <c r="D93" t="n">
-        <v>0.222835</v>
+        <v>0.168071</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.225678</v>
+        <v>0.171923</v>
       </c>
       <c r="C94" t="n">
-        <v>0.219331</v>
+        <v>0.170548</v>
       </c>
       <c r="D94" t="n">
-        <v>0.306825</v>
+        <v>0.243304</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.296468</v>
+        <v>0.239922</v>
       </c>
       <c r="C95" t="n">
-        <v>0.298547</v>
+        <v>0.245259</v>
       </c>
       <c r="D95" t="n">
-        <v>0.298332</v>
+        <v>0.235127</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.288956</v>
+        <v>0.233408</v>
       </c>
       <c r="C96" t="n">
-        <v>0.291746</v>
+        <v>0.238168</v>
       </c>
       <c r="D96" t="n">
-        <v>0.289714</v>
+        <v>0.227422</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.280986</v>
+        <v>0.225203</v>
       </c>
       <c r="C97" t="n">
-        <v>0.283354</v>
+        <v>0.230274</v>
       </c>
       <c r="D97" t="n">
-        <v>0.281508</v>
+        <v>0.219972</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.272709</v>
+        <v>0.217591</v>
       </c>
       <c r="C98" t="n">
-        <v>0.276032</v>
+        <v>0.222933</v>
       </c>
       <c r="D98" t="n">
-        <v>0.272884</v>
+        <v>0.212564</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.265558</v>
+        <v>0.211614</v>
       </c>
       <c r="C99" t="n">
-        <v>0.268532</v>
+        <v>0.215813</v>
       </c>
       <c r="D99" t="n">
-        <v>0.265419</v>
+        <v>0.20558</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.258566</v>
+        <v>0.205141</v>
       </c>
       <c r="C100" t="n">
-        <v>0.261757</v>
+        <v>0.208932</v>
       </c>
       <c r="D100" t="n">
-        <v>0.258782</v>
+        <v>0.199271</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.251811</v>
+        <v>0.198578</v>
       </c>
       <c r="C101" t="n">
-        <v>0.254962</v>
+        <v>0.202462</v>
       </c>
       <c r="D101" t="n">
-        <v>0.251519</v>
+        <v>0.192991</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.245751</v>
+        <v>0.193114</v>
       </c>
       <c r="C102" t="n">
-        <v>0.249117</v>
+        <v>0.196383</v>
       </c>
       <c r="D102" t="n">
-        <v>0.246468</v>
+        <v>0.188024</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.240463</v>
+        <v>0.188547</v>
       </c>
       <c r="C103" t="n">
-        <v>0.243319</v>
+        <v>0.19079</v>
       </c>
       <c r="D103" t="n">
-        <v>0.240996</v>
+        <v>0.182737</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.236328</v>
+        <v>0.184243</v>
       </c>
       <c r="C104" t="n">
-        <v>0.238577</v>
+        <v>0.185777</v>
       </c>
       <c r="D104" t="n">
-        <v>0.236891</v>
+        <v>0.178575</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.232796</v>
+        <v>0.180857</v>
       </c>
       <c r="C105" t="n">
-        <v>0.23443</v>
+        <v>0.18146</v>
       </c>
       <c r="D105" t="n">
-        <v>0.233411</v>
+        <v>0.175507</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.230887</v>
+        <v>0.178453</v>
       </c>
       <c r="C106" t="n">
-        <v>0.231316</v>
+        <v>0.178167</v>
       </c>
       <c r="D106" t="n">
-        <v>0.231627</v>
+        <v>0.173884</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.230944</v>
+        <v>0.177179</v>
       </c>
       <c r="C107" t="n">
-        <v>0.229498</v>
+        <v>0.176231</v>
       </c>
       <c r="D107" t="n">
-        <v>0.23237</v>
+        <v>0.173694</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233286</v>
+        <v>0.178358</v>
       </c>
       <c r="C108" t="n">
-        <v>0.230346</v>
+        <v>0.175527</v>
       </c>
       <c r="D108" t="n">
-        <v>0.318822</v>
+        <v>0.256603</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.238482</v>
+        <v>0.182041</v>
       </c>
       <c r="C109" t="n">
-        <v>0.23473</v>
+        <v>0.178</v>
       </c>
       <c r="D109" t="n">
-        <v>0.314752</v>
+        <v>0.250996</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.300482</v>
+        <v>0.244818</v>
       </c>
       <c r="C110" t="n">
-        <v>0.30906</v>
+        <v>0.25316</v>
       </c>
       <c r="D110" t="n">
-        <v>0.307176</v>
+        <v>0.244475</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.293162</v>
+        <v>0.238919</v>
       </c>
       <c r="C111" t="n">
-        <v>0.301764</v>
+        <v>0.245898</v>
       </c>
       <c r="D111" t="n">
-        <v>0.299496</v>
+        <v>0.23693</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.286387</v>
+        <v>0.231918</v>
       </c>
       <c r="C112" t="n">
-        <v>0.29536</v>
+        <v>0.239343</v>
       </c>
       <c r="D112" t="n">
-        <v>0.291877</v>
+        <v>0.229883</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.280112</v>
+        <v>0.226136</v>
       </c>
       <c r="C113" t="n">
-        <v>0.287846</v>
+        <v>0.232293</v>
       </c>
       <c r="D113" t="n">
-        <v>0.284145</v>
+        <v>0.224332</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.274298</v>
+        <v>0.220237</v>
       </c>
       <c r="C114" t="n">
-        <v>0.281254</v>
+        <v>0.226437</v>
       </c>
       <c r="D114" t="n">
-        <v>0.278523</v>
+        <v>0.218246</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.268463</v>
+        <v>0.215321</v>
       </c>
       <c r="C115" t="n">
-        <v>0.275649</v>
+        <v>0.220273</v>
       </c>
       <c r="D115" t="n">
-        <v>0.272631</v>
+        <v>0.21297</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.263427</v>
+        <v>0.210253</v>
       </c>
       <c r="C116" t="n">
-        <v>0.270638</v>
+        <v>0.214645</v>
       </c>
       <c r="D116" t="n">
-        <v>0.267867</v>
+        <v>0.207155</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.259094</v>
+        <v>0.205859</v>
       </c>
       <c r="C117" t="n">
-        <v>0.266006</v>
+        <v>0.2099</v>
       </c>
       <c r="D117" t="n">
-        <v>0.263348</v>
+        <v>0.204252</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.255267</v>
+        <v>0.201668</v>
       </c>
       <c r="C118" t="n">
-        <v>0.262076</v>
+        <v>0.204895</v>
       </c>
       <c r="D118" t="n">
-        <v>0.258682</v>
+        <v>0.199436</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.252838</v>
+        <v>0.19879</v>
       </c>
       <c r="C119" t="n">
-        <v>0.259601</v>
+        <v>0.201566</v>
       </c>
       <c r="D119" t="n">
-        <v>0.255998</v>
+        <v>0.196133</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.250958</v>
+        <v>0.195861</v>
       </c>
       <c r="C120" t="n">
-        <v>0.256371</v>
+        <v>0.19807</v>
       </c>
       <c r="D120" t="n">
-        <v>0.254521</v>
+        <v>0.195537</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250969</v>
+        <v>0.195028</v>
       </c>
       <c r="C121" t="n">
-        <v>0.255079</v>
+        <v>0.196608</v>
       </c>
       <c r="D121" t="n">
-        <v>0.254659</v>
+        <v>0.194287</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.252745</v>
+        <v>0.19584</v>
       </c>
       <c r="C122" t="n">
-        <v>0.256163</v>
+        <v>0.195122</v>
       </c>
       <c r="D122" t="n">
-        <v>0.258006</v>
+        <v>0.197024</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.257883</v>
+        <v>0.198959</v>
       </c>
       <c r="C123" t="n">
-        <v>0.259181</v>
+        <v>0.197265</v>
       </c>
       <c r="D123" t="n">
-        <v>0.33706</v>
+        <v>0.274952</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.323944</v>
+        <v>0.264417</v>
       </c>
       <c r="C124" t="n">
-        <v>0.33363</v>
+        <v>0.275636</v>
       </c>
       <c r="D124" t="n">
-        <v>0.332131</v>
+        <v>0.270017</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.318931</v>
+        <v>0.259564</v>
       </c>
       <c r="C125" t="n">
-        <v>0.328882</v>
+        <v>0.269105</v>
       </c>
       <c r="D125" t="n">
-        <v>0.327516</v>
+        <v>0.264531</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.314638</v>
+        <v>0.254796</v>
       </c>
       <c r="C126" t="n">
-        <v>0.324346</v>
+        <v>0.263989</v>
       </c>
       <c r="D126" t="n">
-        <v>0.322417</v>
+        <v>0.260546</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.310465</v>
+        <v>0.251129</v>
       </c>
       <c r="C127" t="n">
-        <v>0.320415</v>
+        <v>0.257423</v>
       </c>
       <c r="D127" t="n">
-        <v>0.318683</v>
+        <v>0.254795</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.30664</v>
+        <v>0.246962</v>
       </c>
       <c r="C128" t="n">
-        <v>0.316566</v>
+        <v>0.252334</v>
       </c>
       <c r="D128" t="n">
-        <v>0.314787</v>
+        <v>0.250889</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.302773</v>
+        <v>0.243011</v>
       </c>
       <c r="C129" t="n">
-        <v>0.312909</v>
+        <v>0.247315</v>
       </c>
       <c r="D129" t="n">
-        <v>0.311156</v>
+        <v>0.247278</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.299591</v>
+        <v>0.239709</v>
       </c>
       <c r="C130" t="n">
-        <v>0.309927</v>
+        <v>0.243611</v>
       </c>
       <c r="D130" t="n">
-        <v>0.307899</v>
+        <v>0.24403</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.296983</v>
+        <v>0.236272</v>
       </c>
       <c r="C131" t="n">
-        <v>0.307045</v>
+        <v>0.239565</v>
       </c>
       <c r="D131" t="n">
-        <v>0.30476</v>
+        <v>0.24137</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.294428</v>
+        <v>0.233882</v>
       </c>
       <c r="C132" t="n">
-        <v>0.304655</v>
+        <v>0.235938</v>
       </c>
       <c r="D132" t="n">
-        <v>0.302393</v>
+        <v>0.238799</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.293108</v>
+        <v>0.231553</v>
       </c>
       <c r="C133" t="n">
-        <v>0.302462</v>
+        <v>0.232948</v>
       </c>
       <c r="D133" t="n">
-        <v>0.300384</v>
+        <v>0.236985</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.292209</v>
+        <v>0.229843</v>
       </c>
       <c r="C134" t="n">
-        <v>0.301617</v>
+        <v>0.230383</v>
       </c>
       <c r="D134" t="n">
-        <v>0.299647</v>
+        <v>0.235827</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.292361</v>
+        <v>0.228987</v>
       </c>
       <c r="C135" t="n">
-        <v>0.301462</v>
+        <v>0.22876</v>
       </c>
       <c r="D135" t="n">
-        <v>0.300033</v>
+        <v>0.236372</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.294641</v>
+        <v>0.229813</v>
       </c>
       <c r="C136" t="n">
-        <v>0.302254</v>
+        <v>0.228671</v>
       </c>
       <c r="D136" t="n">
-        <v>0.303089</v>
+        <v>0.238708</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.29886</v>
+        <v>0.232126</v>
       </c>
       <c r="C137" t="n">
-        <v>0.305184</v>
+        <v>0.230713</v>
       </c>
       <c r="D137" t="n">
-        <v>0.383524</v>
+        <v>0.31675</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.372418</v>
+        <v>0.303145</v>
       </c>
       <c r="C138" t="n">
-        <v>0.380846</v>
+        <v>0.308958</v>
       </c>
       <c r="D138" t="n">
-        <v>0.38201</v>
+        <v>0.311921</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.369812</v>
+        <v>0.300139</v>
       </c>
       <c r="C139" t="n">
-        <v>0.378621</v>
+        <v>0.304018</v>
       </c>
       <c r="D139" t="n">
-        <v>0.379704</v>
+        <v>0.307019</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.367806</v>
+        <v>0.297038</v>
       </c>
       <c r="C140" t="n">
-        <v>0.375405</v>
+        <v>0.298931</v>
       </c>
       <c r="D140" t="n">
-        <v>0.378071</v>
+        <v>0.302873</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.366248</v>
+        <v>0.293764</v>
       </c>
       <c r="C141" t="n">
-        <v>0.37346</v>
+        <v>0.294317</v>
       </c>
       <c r="D141" t="n">
-        <v>0.375661</v>
+        <v>0.298986</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.364236</v>
+        <v>0.290846</v>
       </c>
       <c r="C142" t="n">
-        <v>0.370668</v>
+        <v>0.29001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.374897</v>
+        <v>0.295379</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.362905</v>
+        <v>0.288428</v>
       </c>
       <c r="C143" t="n">
-        <v>0.368703</v>
+        <v>0.286071</v>
       </c>
       <c r="D143" t="n">
-        <v>0.373034</v>
+        <v>0.291925</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.150077</v>
+        <v>0.176173</v>
       </c>
       <c r="C2" t="n">
-        <v>0.155185</v>
+        <v>0.185496</v>
       </c>
       <c r="D2" t="n">
-        <v>0.150571</v>
+        <v>0.177535</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.162099</v>
+        <v>0.170454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.149648</v>
+        <v>0.17914</v>
       </c>
       <c r="D3" t="n">
-        <v>0.145862</v>
+        <v>0.17311</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.145777</v>
+        <v>0.16664</v>
       </c>
       <c r="C4" t="n">
-        <v>0.146339</v>
+        <v>0.170524</v>
       </c>
       <c r="D4" t="n">
-        <v>0.141675</v>
+        <v>0.162867</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.156564</v>
+        <v>0.162842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.142884</v>
+        <v>0.169499</v>
       </c>
       <c r="D5" t="n">
-        <v>0.139277</v>
+        <v>0.164279</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.152655</v>
+        <v>0.15949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.140138</v>
+        <v>0.149657</v>
       </c>
       <c r="D6" t="n">
-        <v>0.136057</v>
+        <v>0.160258</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.144433</v>
+        <v>0.157601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.137173</v>
+        <v>0.161619</v>
       </c>
       <c r="D7" t="n">
-        <v>0.133863</v>
+        <v>0.149896</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.151879</v>
+        <v>0.157526</v>
       </c>
       <c r="C8" t="n">
-        <v>0.135995</v>
+        <v>0.160816</v>
       </c>
       <c r="D8" t="n">
-        <v>0.133393</v>
+        <v>0.158577</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.140809</v>
+        <v>0.158158</v>
       </c>
       <c r="C9" t="n">
-        <v>0.135902</v>
+        <v>0.161312</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218433</v>
+        <v>0.234336</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.211698</v>
+        <v>0.224312</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2195</v>
+        <v>0.237105</v>
       </c>
       <c r="D10" t="n">
-        <v>0.210912</v>
+        <v>0.224925</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.203137</v>
+        <v>0.216303</v>
       </c>
       <c r="C11" t="n">
-        <v>0.204186</v>
+        <v>0.225645</v>
       </c>
       <c r="D11" t="n">
-        <v>0.198624</v>
+        <v>0.216883</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.196577</v>
+        <v>0.20828</v>
       </c>
       <c r="C12" t="n">
-        <v>0.203498</v>
+        <v>0.217736</v>
       </c>
       <c r="D12" t="n">
-        <v>0.196945</v>
+        <v>0.20972</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.18939</v>
+        <v>0.199434</v>
       </c>
       <c r="C13" t="n">
-        <v>0.197138</v>
+        <v>0.210439</v>
       </c>
       <c r="D13" t="n">
-        <v>0.184582</v>
+        <v>0.201848</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1828</v>
+        <v>0.192234</v>
       </c>
       <c r="C14" t="n">
-        <v>0.189132</v>
+        <v>0.202388</v>
       </c>
       <c r="D14" t="n">
-        <v>0.179799</v>
+        <v>0.194494</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.17651</v>
+        <v>0.186342</v>
       </c>
       <c r="C15" t="n">
-        <v>0.182551</v>
+        <v>0.195072</v>
       </c>
       <c r="D15" t="n">
-        <v>0.176513</v>
+        <v>0.187921</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.170946</v>
+        <v>0.179839</v>
       </c>
       <c r="C16" t="n">
-        <v>0.176472</v>
+        <v>0.188701</v>
       </c>
       <c r="D16" t="n">
-        <v>0.170703</v>
+        <v>0.182167</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.166342</v>
+        <v>0.174481</v>
       </c>
       <c r="C17" t="n">
-        <v>0.172041</v>
+        <v>0.182715</v>
       </c>
       <c r="D17" t="n">
-        <v>0.165075</v>
+        <v>0.177316</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.162222</v>
+        <v>0.169736</v>
       </c>
       <c r="C18" t="n">
-        <v>0.164269</v>
+        <v>0.178189</v>
       </c>
       <c r="D18" t="n">
-        <v>0.160858</v>
+        <v>0.171691</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.157971</v>
+        <v>0.164781</v>
       </c>
       <c r="C19" t="n">
-        <v>0.162912</v>
+        <v>0.173444</v>
       </c>
       <c r="D19" t="n">
-        <v>0.157358</v>
+        <v>0.168023</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.155641</v>
+        <v>0.161275</v>
       </c>
       <c r="C20" t="n">
-        <v>0.157015</v>
+        <v>0.169013</v>
       </c>
       <c r="D20" t="n">
-        <v>0.148964</v>
+        <v>0.165471</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.154715</v>
+        <v>0.1601</v>
       </c>
       <c r="C21" t="n">
-        <v>0.148618</v>
+        <v>0.16628</v>
       </c>
       <c r="D21" t="n">
-        <v>0.150079</v>
+        <v>0.163669</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.155232</v>
+        <v>0.160533</v>
       </c>
       <c r="C22" t="n">
-        <v>0.149782</v>
+        <v>0.16432</v>
       </c>
       <c r="D22" t="n">
-        <v>0.152251</v>
+        <v>0.163704</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.157754</v>
+        <v>0.161606</v>
       </c>
       <c r="C23" t="n">
-        <v>0.155779</v>
+        <v>0.164868</v>
       </c>
       <c r="D23" t="n">
-        <v>0.218398</v>
+        <v>0.242678</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.221054</v>
+        <v>0.244449</v>
       </c>
       <c r="C24" t="n">
-        <v>0.221797</v>
+        <v>0.244335</v>
       </c>
       <c r="D24" t="n">
-        <v>0.210478</v>
+        <v>0.235687</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.212396</v>
+        <v>0.234816</v>
       </c>
       <c r="C25" t="n">
-        <v>0.214334</v>
+        <v>0.234904</v>
       </c>
       <c r="D25" t="n">
-        <v>0.203554</v>
+        <v>0.22455</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.204042</v>
+        <v>0.226429</v>
       </c>
       <c r="C26" t="n">
-        <v>0.205988</v>
+        <v>0.227016</v>
       </c>
       <c r="D26" t="n">
-        <v>0.194754</v>
+        <v>0.218977</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.196707</v>
+        <v>0.217678</v>
       </c>
       <c r="C27" t="n">
-        <v>0.198472</v>
+        <v>0.218274</v>
       </c>
       <c r="D27" t="n">
-        <v>0.188558</v>
+        <v>0.21035</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1901</v>
+        <v>0.209945</v>
       </c>
       <c r="C28" t="n">
-        <v>0.192128</v>
+        <v>0.211272</v>
       </c>
       <c r="D28" t="n">
-        <v>0.18235</v>
+        <v>0.203212</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.184049</v>
+        <v>0.203289</v>
       </c>
       <c r="C29" t="n">
-        <v>0.185789</v>
+        <v>0.204111</v>
       </c>
       <c r="D29" t="n">
-        <v>0.17622</v>
+        <v>0.195416</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.17871</v>
+        <v>0.196451</v>
       </c>
       <c r="C30" t="n">
-        <v>0.179287</v>
+        <v>0.196912</v>
       </c>
       <c r="D30" t="n">
-        <v>0.170291</v>
+        <v>0.188549</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.173521</v>
+        <v>0.190226</v>
       </c>
       <c r="C31" t="n">
-        <v>0.173683</v>
+        <v>0.190547</v>
       </c>
       <c r="D31" t="n">
-        <v>0.164984</v>
+        <v>0.18509</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.168943</v>
+        <v>0.187762</v>
       </c>
       <c r="C32" t="n">
-        <v>0.168482</v>
+        <v>0.187527</v>
       </c>
       <c r="D32" t="n">
-        <v>0.160644</v>
+        <v>0.182046</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.164914</v>
+        <v>0.183073</v>
       </c>
       <c r="C33" t="n">
-        <v>0.163647</v>
+        <v>0.182838</v>
       </c>
       <c r="D33" t="n">
-        <v>0.15679</v>
+        <v>0.179224</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.161662</v>
+        <v>0.179351</v>
       </c>
       <c r="C34" t="n">
-        <v>0.159987</v>
+        <v>0.180848</v>
       </c>
       <c r="D34" t="n">
-        <v>0.153614</v>
+        <v>0.177848</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.159164</v>
+        <v>0.174756</v>
       </c>
       <c r="C35" t="n">
-        <v>0.157122</v>
+        <v>0.17426</v>
       </c>
       <c r="D35" t="n">
-        <v>0.151981</v>
+        <v>0.173541</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159083</v>
+        <v>0.174169</v>
       </c>
       <c r="C36" t="n">
-        <v>0.155897</v>
+        <v>0.172159</v>
       </c>
       <c r="D36" t="n">
-        <v>0.152451</v>
+        <v>0.169102</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.159566</v>
+        <v>0.174738</v>
       </c>
       <c r="C37" t="n">
-        <v>0.155651</v>
+        <v>0.171778</v>
       </c>
       <c r="D37" t="n">
-        <v>0.231651</v>
+        <v>0.254042</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.229408</v>
+        <v>0.249169</v>
       </c>
       <c r="C38" t="n">
-        <v>0.232783</v>
+        <v>0.256269</v>
       </c>
       <c r="D38" t="n">
-        <v>0.222988</v>
+        <v>0.259149</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.221017</v>
+        <v>0.239482</v>
       </c>
       <c r="C39" t="n">
-        <v>0.224844</v>
+        <v>0.246739</v>
       </c>
       <c r="D39" t="n">
-        <v>0.214336</v>
+        <v>0.236306</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.21277</v>
+        <v>0.230602</v>
       </c>
       <c r="C40" t="n">
-        <v>0.216571</v>
+        <v>0.23547</v>
       </c>
       <c r="D40" t="n">
-        <v>0.206665</v>
+        <v>0.222767</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.205557</v>
+        <v>0.218626</v>
       </c>
       <c r="C41" t="n">
-        <v>0.209034</v>
+        <v>0.225397</v>
       </c>
       <c r="D41" t="n">
-        <v>0.197362</v>
+        <v>0.216405</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.198574</v>
+        <v>0.210872</v>
       </c>
       <c r="C42" t="n">
-        <v>0.201291</v>
+        <v>0.217593</v>
       </c>
       <c r="D42" t="n">
-        <v>0.191294</v>
+        <v>0.208142</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.192004</v>
+        <v>0.203724</v>
       </c>
       <c r="C43" t="n">
-        <v>0.194564</v>
+        <v>0.209907</v>
       </c>
       <c r="D43" t="n">
-        <v>0.185474</v>
+        <v>0.201677</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.185926</v>
+        <v>0.196883</v>
       </c>
       <c r="C44" t="n">
-        <v>0.18798</v>
+        <v>0.202922</v>
       </c>
       <c r="D44" t="n">
-        <v>0.179509</v>
+        <v>0.195548</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.179908</v>
+        <v>0.191412</v>
       </c>
       <c r="C45" t="n">
-        <v>0.182007</v>
+        <v>0.196554</v>
       </c>
       <c r="D45" t="n">
-        <v>0.174139</v>
+        <v>0.189056</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.176733</v>
+        <v>0.18555</v>
       </c>
       <c r="C46" t="n">
-        <v>0.175713</v>
+        <v>0.190564</v>
       </c>
       <c r="D46" t="n">
-        <v>0.168774</v>
+        <v>0.182624</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.171546</v>
+        <v>0.181005</v>
       </c>
       <c r="C47" t="n">
-        <v>0.173365</v>
+        <v>0.185285</v>
       </c>
       <c r="D47" t="n">
-        <v>0.166233</v>
+        <v>0.178156</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.168529</v>
+        <v>0.177226</v>
       </c>
       <c r="C48" t="n">
-        <v>0.170786</v>
+        <v>0.180769</v>
       </c>
       <c r="D48" t="n">
-        <v>0.16493</v>
+        <v>0.174608</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.165995</v>
+        <v>0.174961</v>
       </c>
       <c r="C49" t="n">
-        <v>0.168203</v>
+        <v>0.177066</v>
       </c>
       <c r="D49" t="n">
-        <v>0.162752</v>
+        <v>0.171633</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.165642</v>
+        <v>0.173021</v>
       </c>
       <c r="C50" t="n">
-        <v>0.162527</v>
+        <v>0.174203</v>
       </c>
       <c r="D50" t="n">
-        <v>0.159188</v>
+        <v>0.170934</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.16518</v>
+        <v>0.173452</v>
       </c>
       <c r="C51" t="n">
-        <v>0.160172</v>
+        <v>0.173722</v>
       </c>
       <c r="D51" t="n">
-        <v>0.237046</v>
+        <v>0.255758</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168791</v>
+        <v>0.17753</v>
       </c>
       <c r="C52" t="n">
-        <v>0.161742</v>
+        <v>0.175298</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227267</v>
+        <v>0.247302</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.223058</v>
+        <v>0.24268</v>
       </c>
       <c r="C53" t="n">
-        <v>0.229174</v>
+        <v>0.251635</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220378</v>
+        <v>0.23943</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.215762</v>
+        <v>0.233963</v>
       </c>
       <c r="C54" t="n">
-        <v>0.221099</v>
+        <v>0.242034</v>
       </c>
       <c r="D54" t="n">
-        <v>0.211399</v>
+        <v>0.22978</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.207906</v>
+        <v>0.2252</v>
       </c>
       <c r="C55" t="n">
-        <v>0.213414</v>
+        <v>0.233004</v>
       </c>
       <c r="D55" t="n">
-        <v>0.203727</v>
+        <v>0.220805</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.201105</v>
+        <v>0.217991</v>
       </c>
       <c r="C56" t="n">
-        <v>0.20521</v>
+        <v>0.225257</v>
       </c>
       <c r="D56" t="n">
-        <v>0.195705</v>
+        <v>0.213086</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.194451</v>
+        <v>0.209943</v>
       </c>
       <c r="C57" t="n">
-        <v>0.198107</v>
+        <v>0.217553</v>
       </c>
       <c r="D57" t="n">
-        <v>0.189324</v>
+        <v>0.206423</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.18753</v>
+        <v>0.203009</v>
       </c>
       <c r="C58" t="n">
-        <v>0.192203</v>
+        <v>0.209839</v>
       </c>
       <c r="D58" t="n">
-        <v>0.184135</v>
+        <v>0.199202</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.182157</v>
+        <v>0.196908</v>
       </c>
       <c r="C59" t="n">
-        <v>0.185389</v>
+        <v>0.202907</v>
       </c>
       <c r="D59" t="n">
-        <v>0.177739</v>
+        <v>0.193161</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.177225</v>
+        <v>0.191258</v>
       </c>
       <c r="C60" t="n">
-        <v>0.180256</v>
+        <v>0.197025</v>
       </c>
       <c r="D60" t="n">
-        <v>0.172471</v>
+        <v>0.188345</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.172308</v>
+        <v>0.18607</v>
       </c>
       <c r="C61" t="n">
-        <v>0.174967</v>
+        <v>0.1914</v>
       </c>
       <c r="D61" t="n">
-        <v>0.167754</v>
+        <v>0.183701</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16912</v>
+        <v>0.182011</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1704</v>
+        <v>0.186386</v>
       </c>
       <c r="D62" t="n">
-        <v>0.163817</v>
+        <v>0.179105</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.166084</v>
+        <v>0.178467</v>
       </c>
       <c r="C63" t="n">
-        <v>0.166747</v>
+        <v>0.182207</v>
       </c>
       <c r="D63" t="n">
-        <v>0.160984</v>
+        <v>0.175983</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.164686</v>
+        <v>0.177595</v>
       </c>
       <c r="C64" t="n">
-        <v>0.164232</v>
+        <v>0.179104</v>
       </c>
       <c r="D64" t="n">
-        <v>0.160382</v>
+        <v>0.175207</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.165978</v>
+        <v>0.177299</v>
       </c>
       <c r="C65" t="n">
-        <v>0.162855</v>
+        <v>0.177727</v>
       </c>
       <c r="D65" t="n">
-        <v>0.162142</v>
+        <v>0.176868</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.168107</v>
+        <v>0.180167</v>
       </c>
       <c r="C66" t="n">
-        <v>0.164413</v>
+        <v>0.178898</v>
       </c>
       <c r="D66" t="n">
-        <v>0.235668</v>
+        <v>0.255168</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.22962</v>
+        <v>0.244646</v>
       </c>
       <c r="C67" t="n">
-        <v>0.235461</v>
+        <v>0.260092</v>
       </c>
       <c r="D67" t="n">
-        <v>0.227219</v>
+        <v>0.245687</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.221224</v>
+        <v>0.235989</v>
       </c>
       <c r="C68" t="n">
-        <v>0.226513</v>
+        <v>0.251907</v>
       </c>
       <c r="D68" t="n">
-        <v>0.218976</v>
+        <v>0.235894</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.21347</v>
+        <v>0.228156</v>
       </c>
       <c r="C69" t="n">
-        <v>0.218374</v>
+        <v>0.241291</v>
       </c>
       <c r="D69" t="n">
-        <v>0.210922</v>
+        <v>0.228449</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.205989</v>
+        <v>0.220387</v>
       </c>
       <c r="C70" t="n">
-        <v>0.210687</v>
+        <v>0.232729</v>
       </c>
       <c r="D70" t="n">
-        <v>0.203352</v>
+        <v>0.220252</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.199465</v>
+        <v>0.212482</v>
       </c>
       <c r="C71" t="n">
-        <v>0.203289</v>
+        <v>0.224656</v>
       </c>
       <c r="D71" t="n">
-        <v>0.196262</v>
+        <v>0.212395</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.192498</v>
+        <v>0.205975</v>
       </c>
       <c r="C72" t="n">
-        <v>0.196191</v>
+        <v>0.216811</v>
       </c>
       <c r="D72" t="n">
-        <v>0.189788</v>
+        <v>0.205789</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.186912</v>
+        <v>0.200613</v>
       </c>
       <c r="C73" t="n">
-        <v>0.189927</v>
+        <v>0.20989</v>
       </c>
       <c r="D73" t="n">
-        <v>0.183776</v>
+        <v>0.198979</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.18169</v>
+        <v>0.194739</v>
       </c>
       <c r="C74" t="n">
-        <v>0.184243</v>
+        <v>0.203254</v>
       </c>
       <c r="D74" t="n">
-        <v>0.178278</v>
+        <v>0.193168</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.177555</v>
+        <v>0.189617</v>
       </c>
       <c r="C75" t="n">
-        <v>0.178842</v>
+        <v>0.19737</v>
       </c>
       <c r="D75" t="n">
-        <v>0.173348</v>
+        <v>0.187939</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.173133</v>
+        <v>0.184908</v>
       </c>
       <c r="C76" t="n">
-        <v>0.174193</v>
+        <v>0.192268</v>
       </c>
       <c r="D76" t="n">
-        <v>0.169716</v>
+        <v>0.183439</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.169875</v>
+        <v>0.181292</v>
       </c>
       <c r="C77" t="n">
-        <v>0.170264</v>
+        <v>0.187689</v>
       </c>
       <c r="D77" t="n">
-        <v>0.166549</v>
+        <v>0.179541</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1688</v>
+        <v>0.178826</v>
       </c>
       <c r="C78" t="n">
-        <v>0.16747</v>
+        <v>0.184139</v>
       </c>
       <c r="D78" t="n">
-        <v>0.165358</v>
+        <v>0.179061</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.168883</v>
+        <v>0.179163</v>
       </c>
       <c r="C79" t="n">
-        <v>0.165956</v>
+        <v>0.182458</v>
       </c>
       <c r="D79" t="n">
-        <v>0.166476</v>
+        <v>0.179082</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171515</v>
+        <v>0.181138</v>
       </c>
       <c r="C80" t="n">
-        <v>0.16673</v>
+        <v>0.182405</v>
       </c>
       <c r="D80" t="n">
-        <v>0.239625</v>
+        <v>0.259911</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.230684</v>
+        <v>0.257644</v>
       </c>
       <c r="C81" t="n">
-        <v>0.243742</v>
+        <v>0.263051</v>
       </c>
       <c r="D81" t="n">
-        <v>0.231318</v>
+        <v>0.251563</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.222167</v>
+        <v>0.249569</v>
       </c>
       <c r="C82" t="n">
-        <v>0.234379</v>
+        <v>0.254497</v>
       </c>
       <c r="D82" t="n">
-        <v>0.222761</v>
+        <v>0.242857</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.214306</v>
+        <v>0.241893</v>
       </c>
       <c r="C83" t="n">
-        <v>0.226053</v>
+        <v>0.245979</v>
       </c>
       <c r="D83" t="n">
-        <v>0.214692</v>
+        <v>0.234493</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.20717</v>
+        <v>0.234751</v>
       </c>
       <c r="C84" t="n">
-        <v>0.218149</v>
+        <v>0.237991</v>
       </c>
       <c r="D84" t="n">
-        <v>0.206653</v>
+        <v>0.226465</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.200855</v>
+        <v>0.226978</v>
       </c>
       <c r="C85" t="n">
-        <v>0.210207</v>
+        <v>0.229829</v>
       </c>
       <c r="D85" t="n">
-        <v>0.199441</v>
+        <v>0.218893</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.195637</v>
+        <v>0.219799</v>
       </c>
       <c r="C86" t="n">
-        <v>0.203083</v>
+        <v>0.222655</v>
       </c>
       <c r="D86" t="n">
-        <v>0.193153</v>
+        <v>0.211566</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.189788</v>
+        <v>0.213375</v>
       </c>
       <c r="C87" t="n">
-        <v>0.196855</v>
+        <v>0.215492</v>
       </c>
       <c r="D87" t="n">
-        <v>0.186846</v>
+        <v>0.20522</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.184627</v>
+        <v>0.207166</v>
       </c>
       <c r="C88" t="n">
-        <v>0.190305</v>
+        <v>0.208861</v>
       </c>
       <c r="D88" t="n">
-        <v>0.181363</v>
+        <v>0.199014</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178783</v>
+        <v>0.201474</v>
       </c>
       <c r="C89" t="n">
-        <v>0.184958</v>
+        <v>0.202819</v>
       </c>
       <c r="D89" t="n">
-        <v>0.176325</v>
+        <v>0.193511</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.174089</v>
+        <v>0.19677</v>
       </c>
       <c r="C90" t="n">
-        <v>0.179867</v>
+        <v>0.197551</v>
       </c>
       <c r="D90" t="n">
-        <v>0.172019</v>
+        <v>0.189531</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.172768</v>
+        <v>0.192537</v>
       </c>
       <c r="C91" t="n">
-        <v>0.175514</v>
+        <v>0.19288</v>
       </c>
       <c r="D91" t="n">
-        <v>0.169204</v>
+        <v>0.185885</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.170703</v>
+        <v>0.189582</v>
       </c>
       <c r="C92" t="n">
-        <v>0.172207</v>
+        <v>0.189225</v>
       </c>
       <c r="D92" t="n">
-        <v>0.167627</v>
+        <v>0.18375</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.169846</v>
+        <v>0.188357</v>
       </c>
       <c r="C93" t="n">
-        <v>0.17047</v>
+        <v>0.186981</v>
       </c>
       <c r="D93" t="n">
-        <v>0.168071</v>
+        <v>0.183845</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.171923</v>
+        <v>0.18918</v>
       </c>
       <c r="C94" t="n">
-        <v>0.170548</v>
+        <v>0.18652</v>
       </c>
       <c r="D94" t="n">
-        <v>0.243304</v>
+        <v>0.278244</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.239922</v>
+        <v>0.26912</v>
       </c>
       <c r="C95" t="n">
-        <v>0.245259</v>
+        <v>0.279398</v>
       </c>
       <c r="D95" t="n">
-        <v>0.235127</v>
+        <v>0.271679</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.233408</v>
+        <v>0.263515</v>
       </c>
       <c r="C96" t="n">
-        <v>0.238168</v>
+        <v>0.272839</v>
       </c>
       <c r="D96" t="n">
-        <v>0.227422</v>
+        <v>0.265508</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.225203</v>
+        <v>0.258001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230274</v>
+        <v>0.265664</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219972</v>
+        <v>0.256713</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.217591</v>
+        <v>0.251707</v>
       </c>
       <c r="C98" t="n">
-        <v>0.222933</v>
+        <v>0.25832</v>
       </c>
       <c r="D98" t="n">
-        <v>0.212564</v>
+        <v>0.249207</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.211614</v>
+        <v>0.244324</v>
       </c>
       <c r="C99" t="n">
-        <v>0.215813</v>
+        <v>0.251327</v>
       </c>
       <c r="D99" t="n">
-        <v>0.20558</v>
+        <v>0.24149</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.205141</v>
+        <v>0.237919</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208932</v>
+        <v>0.243832</v>
       </c>
       <c r="D100" t="n">
-        <v>0.199271</v>
+        <v>0.235856</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.198578</v>
+        <v>0.232212</v>
       </c>
       <c r="C101" t="n">
-        <v>0.202462</v>
+        <v>0.237699</v>
       </c>
       <c r="D101" t="n">
-        <v>0.192991</v>
+        <v>0.228715</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.193114</v>
+        <v>0.227439</v>
       </c>
       <c r="C102" t="n">
-        <v>0.196383</v>
+        <v>0.231533</v>
       </c>
       <c r="D102" t="n">
-        <v>0.188024</v>
+        <v>0.223444</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.188547</v>
+        <v>0.221821</v>
       </c>
       <c r="C103" t="n">
-        <v>0.19079</v>
+        <v>0.225275</v>
       </c>
       <c r="D103" t="n">
-        <v>0.182737</v>
+        <v>0.218043</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.184243</v>
+        <v>0.217357</v>
       </c>
       <c r="C104" t="n">
-        <v>0.185777</v>
+        <v>0.221074</v>
       </c>
       <c r="D104" t="n">
-        <v>0.178575</v>
+        <v>0.213537</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.180857</v>
+        <v>0.213424</v>
       </c>
       <c r="C105" t="n">
-        <v>0.18146</v>
+        <v>0.215871</v>
       </c>
       <c r="D105" t="n">
-        <v>0.175507</v>
+        <v>0.210039</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.178453</v>
+        <v>0.210226</v>
       </c>
       <c r="C106" t="n">
-        <v>0.178167</v>
+        <v>0.212823</v>
       </c>
       <c r="D106" t="n">
-        <v>0.173884</v>
+        <v>0.208195</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.177179</v>
+        <v>0.207964</v>
       </c>
       <c r="C107" t="n">
-        <v>0.176231</v>
+        <v>0.211155</v>
       </c>
       <c r="D107" t="n">
-        <v>0.173694</v>
+        <v>0.208204</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.178358</v>
+        <v>0.207921</v>
       </c>
       <c r="C108" t="n">
-        <v>0.175527</v>
+        <v>0.210494</v>
       </c>
       <c r="D108" t="n">
-        <v>0.256603</v>
+        <v>0.304461</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.182041</v>
+        <v>0.209559</v>
       </c>
       <c r="C109" t="n">
-        <v>0.178</v>
+        <v>0.212712</v>
       </c>
       <c r="D109" t="n">
-        <v>0.250996</v>
+        <v>0.297571</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.244818</v>
+        <v>0.283981</v>
       </c>
       <c r="C110" t="n">
-        <v>0.25316</v>
+        <v>0.296635</v>
       </c>
       <c r="D110" t="n">
-        <v>0.244475</v>
+        <v>0.287177</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238919</v>
+        <v>0.277131</v>
       </c>
       <c r="C111" t="n">
-        <v>0.245898</v>
+        <v>0.289079</v>
       </c>
       <c r="D111" t="n">
-        <v>0.23693</v>
+        <v>0.279271</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.231918</v>
+        <v>0.270794</v>
       </c>
       <c r="C112" t="n">
-        <v>0.239343</v>
+        <v>0.281344</v>
       </c>
       <c r="D112" t="n">
-        <v>0.229883</v>
+        <v>0.273178</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.226136</v>
+        <v>0.264867</v>
       </c>
       <c r="C113" t="n">
-        <v>0.232293</v>
+        <v>0.274607</v>
       </c>
       <c r="D113" t="n">
-        <v>0.224332</v>
+        <v>0.266397</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.220237</v>
+        <v>0.259794</v>
       </c>
       <c r="C114" t="n">
-        <v>0.226437</v>
+        <v>0.268304</v>
       </c>
       <c r="D114" t="n">
-        <v>0.218246</v>
+        <v>0.260727</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.215321</v>
+        <v>0.253954</v>
       </c>
       <c r="C115" t="n">
-        <v>0.220273</v>
+        <v>0.26231</v>
       </c>
       <c r="D115" t="n">
-        <v>0.21297</v>
+        <v>0.255738</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.210253</v>
+        <v>0.24921</v>
       </c>
       <c r="C116" t="n">
-        <v>0.214645</v>
+        <v>0.256897</v>
       </c>
       <c r="D116" t="n">
-        <v>0.207155</v>
+        <v>0.250645</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205859</v>
+        <v>0.244865</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2099</v>
+        <v>0.251768</v>
       </c>
       <c r="D117" t="n">
-        <v>0.204252</v>
+        <v>0.245993</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.201668</v>
+        <v>0.240339</v>
       </c>
       <c r="C118" t="n">
-        <v>0.204895</v>
+        <v>0.247624</v>
       </c>
       <c r="D118" t="n">
-        <v>0.199436</v>
+        <v>0.241963</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.19879</v>
+        <v>0.236998</v>
       </c>
       <c r="C119" t="n">
-        <v>0.201566</v>
+        <v>0.243795</v>
       </c>
       <c r="D119" t="n">
-        <v>0.196133</v>
+        <v>0.238673</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.195861</v>
+        <v>0.233953</v>
       </c>
       <c r="C120" t="n">
-        <v>0.19807</v>
+        <v>0.240537</v>
       </c>
       <c r="D120" t="n">
-        <v>0.195537</v>
+        <v>0.236356</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.195028</v>
+        <v>0.231224</v>
       </c>
       <c r="C121" t="n">
-        <v>0.196608</v>
+        <v>0.237909</v>
       </c>
       <c r="D121" t="n">
-        <v>0.194287</v>
+        <v>0.235818</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.19584</v>
+        <v>0.230513</v>
       </c>
       <c r="C122" t="n">
-        <v>0.195122</v>
+        <v>0.237154</v>
       </c>
       <c r="D122" t="n">
-        <v>0.197024</v>
+        <v>0.237864</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.198959</v>
+        <v>0.231737</v>
       </c>
       <c r="C123" t="n">
-        <v>0.197265</v>
+        <v>0.238699</v>
       </c>
       <c r="D123" t="n">
-        <v>0.274952</v>
+        <v>0.32462</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.264417</v>
+        <v>0.319243</v>
       </c>
       <c r="C124" t="n">
-        <v>0.275636</v>
+        <v>0.324651</v>
       </c>
       <c r="D124" t="n">
-        <v>0.270017</v>
+        <v>0.319055</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.259564</v>
+        <v>0.313506</v>
       </c>
       <c r="C125" t="n">
-        <v>0.269105</v>
+        <v>0.318184</v>
       </c>
       <c r="D125" t="n">
-        <v>0.264531</v>
+        <v>0.314235</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.254796</v>
+        <v>0.307885</v>
       </c>
       <c r="C126" t="n">
-        <v>0.263989</v>
+        <v>0.312519</v>
       </c>
       <c r="D126" t="n">
-        <v>0.260546</v>
+        <v>0.309144</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.251129</v>
+        <v>0.302012</v>
       </c>
       <c r="C127" t="n">
-        <v>0.257423</v>
+        <v>0.307125</v>
       </c>
       <c r="D127" t="n">
-        <v>0.254795</v>
+        <v>0.304711</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.246962</v>
+        <v>0.296555</v>
       </c>
       <c r="C128" t="n">
-        <v>0.252334</v>
+        <v>0.302006</v>
       </c>
       <c r="D128" t="n">
-        <v>0.250889</v>
+        <v>0.300168</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.243011</v>
+        <v>0.291959</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247315</v>
+        <v>0.29769</v>
       </c>
       <c r="D129" t="n">
-        <v>0.247278</v>
+        <v>0.296269</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.239709</v>
+        <v>0.287332</v>
       </c>
       <c r="C130" t="n">
-        <v>0.243611</v>
+        <v>0.293184</v>
       </c>
       <c r="D130" t="n">
-        <v>0.24403</v>
+        <v>0.292886</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.236272</v>
+        <v>0.283552</v>
       </c>
       <c r="C131" t="n">
-        <v>0.239565</v>
+        <v>0.28978</v>
       </c>
       <c r="D131" t="n">
-        <v>0.24137</v>
+        <v>0.289318</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.233882</v>
+        <v>0.279594</v>
       </c>
       <c r="C132" t="n">
-        <v>0.235938</v>
+        <v>0.286402</v>
       </c>
       <c r="D132" t="n">
-        <v>0.238799</v>
+        <v>0.287032</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.231553</v>
+        <v>0.276526</v>
       </c>
       <c r="C133" t="n">
-        <v>0.232948</v>
+        <v>0.283895</v>
       </c>
       <c r="D133" t="n">
-        <v>0.236985</v>
+        <v>0.285057</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.229843</v>
+        <v>0.273541</v>
       </c>
       <c r="C134" t="n">
-        <v>0.230383</v>
+        <v>0.281675</v>
       </c>
       <c r="D134" t="n">
-        <v>0.235827</v>
+        <v>0.283504</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.228987</v>
+        <v>0.271458</v>
       </c>
       <c r="C135" t="n">
-        <v>0.22876</v>
+        <v>0.280269</v>
       </c>
       <c r="D135" t="n">
-        <v>0.236372</v>
+        <v>0.284257</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.229813</v>
+        <v>0.271185</v>
       </c>
       <c r="C136" t="n">
-        <v>0.228671</v>
+        <v>0.280711</v>
       </c>
       <c r="D136" t="n">
-        <v>0.238708</v>
+        <v>0.286675</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232126</v>
+        <v>0.271892</v>
       </c>
       <c r="C137" t="n">
-        <v>0.230713</v>
+        <v>0.282617</v>
       </c>
       <c r="D137" t="n">
-        <v>0.31675</v>
+        <v>0.386674</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.303145</v>
+        <v>0.37228</v>
       </c>
       <c r="C138" t="n">
-        <v>0.308958</v>
+        <v>0.382259</v>
       </c>
       <c r="D138" t="n">
-        <v>0.311921</v>
+        <v>0.379899</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.300139</v>
+        <v>0.367218</v>
       </c>
       <c r="C139" t="n">
-        <v>0.304018</v>
+        <v>0.37477</v>
       </c>
       <c r="D139" t="n">
-        <v>0.307019</v>
+        <v>0.37323</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.297038</v>
+        <v>0.360389</v>
       </c>
       <c r="C140" t="n">
-        <v>0.298931</v>
+        <v>0.368197</v>
       </c>
       <c r="D140" t="n">
-        <v>0.302873</v>
+        <v>0.367346</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.293764</v>
+        <v>0.354692</v>
       </c>
       <c r="C141" t="n">
-        <v>0.294317</v>
+        <v>0.362373</v>
       </c>
       <c r="D141" t="n">
-        <v>0.298986</v>
+        <v>0.361801</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.290846</v>
+        <v>0.350179</v>
       </c>
       <c r="C142" t="n">
-        <v>0.29001</v>
+        <v>0.35649</v>
       </c>
       <c r="D142" t="n">
-        <v>0.295379</v>
+        <v>0.356534</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.288428</v>
+        <v>0.345269</v>
       </c>
       <c r="C143" t="n">
-        <v>0.286071</v>
+        <v>0.35135</v>
       </c>
       <c r="D143" t="n">
-        <v>0.291925</v>
+        <v>0.351406</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.176173</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.170454</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.16664</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.162842</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.15949</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.157601</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.157526</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.158158</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.224312</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.216303</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.20828</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.199434</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.192234</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.186342</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.179839</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.174481</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.169736</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.164781</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.161275</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.1601</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.160533</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.161606</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.244449</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.234816</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.226429</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.217678</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.209945</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.203289</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.196451</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.190226</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.187762</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.183073</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.179351</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.174756</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.174169</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.174738</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.249169</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.239482</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.230602</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.218626</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.210872</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.203724</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.196883</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.191412</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.18555</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.181005</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.177226</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.174961</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.173021</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.173452</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.17753</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.24268</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.233963</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.2252</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.217991</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.209943</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.203009</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.196908</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.191258</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.18607</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.182011</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.178467</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.177595</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.177299</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.180167</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.244646</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.235989</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.228156</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.220387</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.212482</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.205975</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.200613</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.194739</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.189617</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.184908</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.181292</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.178826</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.179163</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.181138</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.257644</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.249569</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.241893</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.234751</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.226978</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.219799</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.213375</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.207166</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.201474</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.19677</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.192537</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.189582</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.188357</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.18918</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.26912</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.263515</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.258001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.251707</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.244324</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.237919</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.232212</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.227439</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.221821</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.217357</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.213424</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.210226</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.207964</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.207921</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.209559</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.283981</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.277131</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.270794</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.264867</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.259794</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.253954</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.24921</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.244865</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.240339</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.236998</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.233953</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.231224</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.230513</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.231737</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.319243</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.313506</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.307885</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.302012</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.296555</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.291959</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.287332</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.283552</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.279594</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.276526</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.273541</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.271458</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.271185</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.271892</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.37228</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.367218</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.360389</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.354692</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.350179</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.345269</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.185496</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.17914</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.170524</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.169499</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.149657</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.161619</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.160816</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.161312</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.237105</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.225645</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.217736</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.210439</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.202388</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.195072</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.188701</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.182715</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.178189</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.173444</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.169013</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.16628</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.16432</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.164868</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.244335</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.234904</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.227016</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.218274</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.211272</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.204111</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.196912</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.190547</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.187527</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.182838</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.180848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.17426</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.172159</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.171778</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.256269</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.246739</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.23547</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.225397</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.217593</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.209907</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.202922</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.196554</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.190564</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.185285</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.180769</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.177066</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.174203</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.173722</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.175298</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.251635</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.242034</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.233004</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.225257</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.217553</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.209839</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.202907</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.197025</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.1914</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.186386</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.182207</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.179104</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.177727</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.178898</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.260092</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.251907</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.241291</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.232729</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.224656</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.216811</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.20989</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.203254</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.19737</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.192268</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.187689</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.184139</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.182458</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.182405</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.263051</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.254497</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.245979</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.237991</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.229829</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.222655</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.215492</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.208861</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.202819</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.197551</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.19288</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.189225</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.186981</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.18652</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.279398</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.272839</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.265664</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.25832</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.251327</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.243832</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.237699</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.231533</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.225275</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.221074</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.215871</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.212823</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.211155</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.210494</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.212712</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.296635</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.289079</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.281344</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.274607</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.268304</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.26231</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.256897</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.251768</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.247624</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.243795</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.240537</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.237909</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.237154</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.238699</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.324651</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.318184</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.312519</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.307125</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.302006</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.29769</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.293184</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.28978</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.286402</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.283895</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.281675</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.280269</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.280711</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.282617</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.382259</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.37477</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.368197</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.362373</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.35649</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.35135</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.177535</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.17311</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.162867</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.164279</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.160258</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.149896</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.158577</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.234336</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.224925</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.216883</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.20972</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.201848</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.194494</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.187921</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.182167</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.177316</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.171691</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.168023</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.165471</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.163669</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.163704</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.242678</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.235687</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.22455</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.218977</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.21035</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.203212</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.195416</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.188549</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.18509</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.182046</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.179224</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.177848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.173541</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.169102</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.254042</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.259149</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.236306</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.222767</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.216405</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.208142</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.201677</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.195548</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.189056</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.182624</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.178156</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.174608</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.171633</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.170934</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.255758</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.247302</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.23943</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.22978</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.220805</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.213086</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.206423</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.199202</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.193161</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.188345</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.183701</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.179105</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.175983</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.175207</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.176868</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.255168</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.245687</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.235894</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.228449</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.220252</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.212395</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.205789</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.198979</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.193168</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.187939</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.183439</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.179541</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.179061</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.179082</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.259911</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.251563</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.242857</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.234493</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.226465</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.218893</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.211566</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.20522</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.199014</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.193511</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.189531</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.185885</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.18375</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.183845</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.278244</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.271679</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.265508</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.256713</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.249207</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.24149</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.235856</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.228715</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.223444</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.218043</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.213537</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.210039</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.208195</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.208204</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.304461</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.297571</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.287177</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.279271</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.273178</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.266397</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.260727</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.255738</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.250645</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.245993</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.241963</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.238673</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.236356</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.235818</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.237864</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.32462</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.319055</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.314235</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.309144</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.304711</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.300168</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.296269</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.292886</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.289318</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.287032</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.285057</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.283504</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.284257</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.286675</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.386674</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.379899</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.37323</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.367346</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.361801</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.356534</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.351406</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.176173</v>
+        <v>0.178718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.185496</v>
+        <v>0.186204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.177535</v>
+        <v>0.178753</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.170454</v>
+        <v>0.17083</v>
       </c>
       <c r="C3" t="n">
-        <v>0.17914</v>
+        <v>0.18118</v>
       </c>
       <c r="D3" t="n">
-        <v>0.17311</v>
+        <v>0.174427</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.16664</v>
+        <v>0.167392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.170524</v>
+        <v>0.175154</v>
       </c>
       <c r="D4" t="n">
-        <v>0.162867</v>
+        <v>0.171094</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.162842</v>
+        <v>0.161885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.169499</v>
+        <v>0.169687</v>
       </c>
       <c r="D5" t="n">
-        <v>0.164279</v>
+        <v>0.158282</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.15949</v>
+        <v>0.159979</v>
       </c>
       <c r="C6" t="n">
-        <v>0.149657</v>
+        <v>0.16458</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160258</v>
+        <v>0.161695</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.157601</v>
+        <v>0.156942</v>
       </c>
       <c r="C7" t="n">
-        <v>0.161619</v>
+        <v>0.163209</v>
       </c>
       <c r="D7" t="n">
-        <v>0.149896</v>
+        <v>0.15925</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.157526</v>
+        <v>0.157385</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160816</v>
+        <v>0.160076</v>
       </c>
       <c r="D8" t="n">
-        <v>0.158577</v>
+        <v>0.158049</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158158</v>
+        <v>0.158355</v>
       </c>
       <c r="C9" t="n">
-        <v>0.161312</v>
+        <v>0.160215</v>
       </c>
       <c r="D9" t="n">
-        <v>0.234336</v>
+        <v>0.233664</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.224312</v>
+        <v>0.222633</v>
       </c>
       <c r="C10" t="n">
-        <v>0.237105</v>
+        <v>0.235278</v>
       </c>
       <c r="D10" t="n">
-        <v>0.224925</v>
+        <v>0.227261</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.216303</v>
+        <v>0.215385</v>
       </c>
       <c r="C11" t="n">
-        <v>0.225645</v>
+        <v>0.22611</v>
       </c>
       <c r="D11" t="n">
-        <v>0.216883</v>
+        <v>0.217346</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.20828</v>
+        <v>0.207829</v>
       </c>
       <c r="C12" t="n">
-        <v>0.217736</v>
+        <v>0.218991</v>
       </c>
       <c r="D12" t="n">
-        <v>0.20972</v>
+        <v>0.2097</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.199434</v>
+        <v>0.2008</v>
       </c>
       <c r="C13" t="n">
-        <v>0.210439</v>
+        <v>0.210952</v>
       </c>
       <c r="D13" t="n">
-        <v>0.201848</v>
+        <v>0.202368</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.192234</v>
+        <v>0.193486</v>
       </c>
       <c r="C14" t="n">
-        <v>0.202388</v>
+        <v>0.203763</v>
       </c>
       <c r="D14" t="n">
-        <v>0.194494</v>
+        <v>0.195841</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.186342</v>
+        <v>0.186109</v>
       </c>
       <c r="C15" t="n">
-        <v>0.195072</v>
+        <v>0.196277</v>
       </c>
       <c r="D15" t="n">
-        <v>0.187921</v>
+        <v>0.189047</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.179839</v>
+        <v>0.180568</v>
       </c>
       <c r="C16" t="n">
-        <v>0.188701</v>
+        <v>0.190233</v>
       </c>
       <c r="D16" t="n">
-        <v>0.182167</v>
+        <v>0.182759</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.174481</v>
+        <v>0.174898</v>
       </c>
       <c r="C17" t="n">
-        <v>0.182715</v>
+        <v>0.183876</v>
       </c>
       <c r="D17" t="n">
-        <v>0.177316</v>
+        <v>0.178053</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.169736</v>
+        <v>0.1719</v>
       </c>
       <c r="C18" t="n">
-        <v>0.178189</v>
+        <v>0.178755</v>
       </c>
       <c r="D18" t="n">
-        <v>0.171691</v>
+        <v>0.172858</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.164781</v>
+        <v>0.165691</v>
       </c>
       <c r="C19" t="n">
-        <v>0.173444</v>
+        <v>0.175423</v>
       </c>
       <c r="D19" t="n">
-        <v>0.168023</v>
+        <v>0.169401</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.161275</v>
+        <v>0.163613</v>
       </c>
       <c r="C20" t="n">
-        <v>0.169013</v>
+        <v>0.17183</v>
       </c>
       <c r="D20" t="n">
-        <v>0.165471</v>
+        <v>0.169847</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1601</v>
+        <v>0.162106</v>
       </c>
       <c r="C21" t="n">
-        <v>0.16628</v>
+        <v>0.16981</v>
       </c>
       <c r="D21" t="n">
-        <v>0.163669</v>
+        <v>0.166919</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.160533</v>
+        <v>0.160103</v>
       </c>
       <c r="C22" t="n">
-        <v>0.16432</v>
+        <v>0.167803</v>
       </c>
       <c r="D22" t="n">
-        <v>0.163704</v>
+        <v>0.167546</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161606</v>
+        <v>0.162076</v>
       </c>
       <c r="C23" t="n">
-        <v>0.164868</v>
+        <v>0.166857</v>
       </c>
       <c r="D23" t="n">
-        <v>0.242678</v>
+        <v>0.248615</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.244449</v>
+        <v>0.247794</v>
       </c>
       <c r="C24" t="n">
-        <v>0.244335</v>
+        <v>0.244998</v>
       </c>
       <c r="D24" t="n">
-        <v>0.235687</v>
+        <v>0.232127</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234816</v>
+        <v>0.236108</v>
       </c>
       <c r="C25" t="n">
-        <v>0.234904</v>
+        <v>0.236071</v>
       </c>
       <c r="D25" t="n">
-        <v>0.22455</v>
+        <v>0.22415</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.226429</v>
+        <v>0.226027</v>
       </c>
       <c r="C26" t="n">
-        <v>0.227016</v>
+        <v>0.227409</v>
       </c>
       <c r="D26" t="n">
-        <v>0.218977</v>
+        <v>0.21471</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.217678</v>
+        <v>0.218707</v>
       </c>
       <c r="C27" t="n">
-        <v>0.218274</v>
+        <v>0.21889</v>
       </c>
       <c r="D27" t="n">
-        <v>0.21035</v>
+        <v>0.207792</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.209945</v>
+        <v>0.211447</v>
       </c>
       <c r="C28" t="n">
-        <v>0.211272</v>
+        <v>0.211291</v>
       </c>
       <c r="D28" t="n">
-        <v>0.203212</v>
+        <v>0.199836</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.203289</v>
+        <v>0.203328</v>
       </c>
       <c r="C29" t="n">
-        <v>0.204111</v>
+        <v>0.203882</v>
       </c>
       <c r="D29" t="n">
-        <v>0.195416</v>
+        <v>0.194364</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.196451</v>
+        <v>0.196658</v>
       </c>
       <c r="C30" t="n">
-        <v>0.196912</v>
+        <v>0.197094</v>
       </c>
       <c r="D30" t="n">
-        <v>0.188549</v>
+        <v>0.187995</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.190226</v>
+        <v>0.191518</v>
       </c>
       <c r="C31" t="n">
-        <v>0.190547</v>
+        <v>0.190396</v>
       </c>
       <c r="D31" t="n">
-        <v>0.18509</v>
+        <v>0.182433</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.187762</v>
+        <v>0.18543</v>
       </c>
       <c r="C32" t="n">
-        <v>0.187527</v>
+        <v>0.184785</v>
       </c>
       <c r="D32" t="n">
-        <v>0.182046</v>
+        <v>0.177763</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.183073</v>
+        <v>0.1803</v>
       </c>
       <c r="C33" t="n">
-        <v>0.182838</v>
+        <v>0.179923</v>
       </c>
       <c r="D33" t="n">
-        <v>0.179224</v>
+        <v>0.172598</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.179351</v>
+        <v>0.175725</v>
       </c>
       <c r="C34" t="n">
-        <v>0.180848</v>
+        <v>0.175508</v>
       </c>
       <c r="D34" t="n">
-        <v>0.177848</v>
+        <v>0.169563</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.174756</v>
+        <v>0.173833</v>
       </c>
       <c r="C35" t="n">
-        <v>0.17426</v>
+        <v>0.171722</v>
       </c>
       <c r="D35" t="n">
-        <v>0.173541</v>
+        <v>0.167429</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.174169</v>
+        <v>0.173486</v>
       </c>
       <c r="C36" t="n">
-        <v>0.172159</v>
+        <v>0.16994</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169102</v>
+        <v>0.167455</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.174738</v>
+        <v>0.173844</v>
       </c>
       <c r="C37" t="n">
-        <v>0.171778</v>
+        <v>0.169761</v>
       </c>
       <c r="D37" t="n">
-        <v>0.254042</v>
+        <v>0.248562</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.249169</v>
+        <v>0.245012</v>
       </c>
       <c r="C38" t="n">
-        <v>0.256269</v>
+        <v>0.252112</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259149</v>
+        <v>0.240683</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239482</v>
+        <v>0.236723</v>
       </c>
       <c r="C39" t="n">
-        <v>0.246739</v>
+        <v>0.243175</v>
       </c>
       <c r="D39" t="n">
-        <v>0.236306</v>
+        <v>0.230983</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.230602</v>
+        <v>0.228143</v>
       </c>
       <c r="C40" t="n">
-        <v>0.23547</v>
+        <v>0.233998</v>
       </c>
       <c r="D40" t="n">
-        <v>0.222767</v>
+        <v>0.224487</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.218626</v>
+        <v>0.219531</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225397</v>
+        <v>0.225541</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216405</v>
+        <v>0.214966</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.210872</v>
+        <v>0.21209</v>
       </c>
       <c r="C42" t="n">
-        <v>0.217593</v>
+        <v>0.217906</v>
       </c>
       <c r="D42" t="n">
-        <v>0.208142</v>
+        <v>0.208046</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.203724</v>
+        <v>0.204875</v>
       </c>
       <c r="C43" t="n">
-        <v>0.209907</v>
+        <v>0.210157</v>
       </c>
       <c r="D43" t="n">
-        <v>0.201677</v>
+        <v>0.201632</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.196883</v>
+        <v>0.197864</v>
       </c>
       <c r="C44" t="n">
-        <v>0.202922</v>
+        <v>0.203009</v>
       </c>
       <c r="D44" t="n">
-        <v>0.195548</v>
+        <v>0.194972</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.191412</v>
+        <v>0.192056</v>
       </c>
       <c r="C45" t="n">
-        <v>0.196554</v>
+        <v>0.196609</v>
       </c>
       <c r="D45" t="n">
-        <v>0.189056</v>
+        <v>0.190208</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.18555</v>
+        <v>0.186379</v>
       </c>
       <c r="C46" t="n">
-        <v>0.190564</v>
+        <v>0.190593</v>
       </c>
       <c r="D46" t="n">
-        <v>0.182624</v>
+        <v>0.183994</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.181005</v>
+        <v>0.181761</v>
       </c>
       <c r="C47" t="n">
-        <v>0.185285</v>
+        <v>0.185421</v>
       </c>
       <c r="D47" t="n">
-        <v>0.178156</v>
+        <v>0.178045</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.177226</v>
+        <v>0.177717</v>
       </c>
       <c r="C48" t="n">
-        <v>0.180769</v>
+        <v>0.181008</v>
       </c>
       <c r="D48" t="n">
-        <v>0.174608</v>
+        <v>0.173993</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174961</v>
+        <v>0.174906</v>
       </c>
       <c r="C49" t="n">
-        <v>0.177066</v>
+        <v>0.177122</v>
       </c>
       <c r="D49" t="n">
-        <v>0.171633</v>
+        <v>0.171803</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173021</v>
+        <v>0.173128</v>
       </c>
       <c r="C50" t="n">
-        <v>0.174203</v>
+        <v>0.174466</v>
       </c>
       <c r="D50" t="n">
-        <v>0.170934</v>
+        <v>0.171097</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173452</v>
+        <v>0.17372</v>
       </c>
       <c r="C51" t="n">
-        <v>0.173722</v>
+        <v>0.173811</v>
       </c>
       <c r="D51" t="n">
-        <v>0.255758</v>
+        <v>0.257787</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17753</v>
+        <v>0.176983</v>
       </c>
       <c r="C52" t="n">
-        <v>0.175298</v>
+        <v>0.175265</v>
       </c>
       <c r="D52" t="n">
-        <v>0.247302</v>
+        <v>0.247939</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.24268</v>
+        <v>0.244325</v>
       </c>
       <c r="C53" t="n">
-        <v>0.251635</v>
+        <v>0.251828</v>
       </c>
       <c r="D53" t="n">
-        <v>0.23943</v>
+        <v>0.238704</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233963</v>
+        <v>0.234569</v>
       </c>
       <c r="C54" t="n">
-        <v>0.242034</v>
+        <v>0.241972</v>
       </c>
       <c r="D54" t="n">
-        <v>0.22978</v>
+        <v>0.230685</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2252</v>
+        <v>0.22625</v>
       </c>
       <c r="C55" t="n">
-        <v>0.233004</v>
+        <v>0.233134</v>
       </c>
       <c r="D55" t="n">
-        <v>0.220805</v>
+        <v>0.221767</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.217991</v>
+        <v>0.218386</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225257</v>
+        <v>0.225029</v>
       </c>
       <c r="D56" t="n">
-        <v>0.213086</v>
+        <v>0.213702</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.209943</v>
+        <v>0.211024</v>
       </c>
       <c r="C57" t="n">
-        <v>0.217553</v>
+        <v>0.217523</v>
       </c>
       <c r="D57" t="n">
-        <v>0.206423</v>
+        <v>0.206646</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.203009</v>
+        <v>0.204143</v>
       </c>
       <c r="C58" t="n">
-        <v>0.209839</v>
+        <v>0.210431</v>
       </c>
       <c r="D58" t="n">
-        <v>0.199202</v>
+        <v>0.199591</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196908</v>
+        <v>0.197628</v>
       </c>
       <c r="C59" t="n">
-        <v>0.202907</v>
+        <v>0.203136</v>
       </c>
       <c r="D59" t="n">
-        <v>0.193161</v>
+        <v>0.193143</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.191258</v>
+        <v>0.19197</v>
       </c>
       <c r="C60" t="n">
-        <v>0.197025</v>
+        <v>0.197268</v>
       </c>
       <c r="D60" t="n">
-        <v>0.188345</v>
+        <v>0.187578</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.18607</v>
+        <v>0.186833</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1914</v>
+        <v>0.19143</v>
       </c>
       <c r="D61" t="n">
-        <v>0.183701</v>
+        <v>0.182818</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.182011</v>
+        <v>0.182536</v>
       </c>
       <c r="C62" t="n">
-        <v>0.186386</v>
+        <v>0.186725</v>
       </c>
       <c r="D62" t="n">
-        <v>0.179105</v>
+        <v>0.179307</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178467</v>
+        <v>0.17932</v>
       </c>
       <c r="C63" t="n">
-        <v>0.182207</v>
+        <v>0.182295</v>
       </c>
       <c r="D63" t="n">
-        <v>0.175983</v>
+        <v>0.176214</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177595</v>
+        <v>0.177423</v>
       </c>
       <c r="C64" t="n">
-        <v>0.179104</v>
+        <v>0.179414</v>
       </c>
       <c r="D64" t="n">
-        <v>0.175207</v>
+        <v>0.175233</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177299</v>
+        <v>0.177428</v>
       </c>
       <c r="C65" t="n">
-        <v>0.177727</v>
+        <v>0.177726</v>
       </c>
       <c r="D65" t="n">
-        <v>0.176868</v>
+        <v>0.176912</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180167</v>
+        <v>0.180051</v>
       </c>
       <c r="C66" t="n">
-        <v>0.178898</v>
+        <v>0.179217</v>
       </c>
       <c r="D66" t="n">
-        <v>0.255168</v>
+        <v>0.255823</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244646</v>
+        <v>0.2443</v>
       </c>
       <c r="C67" t="n">
-        <v>0.260092</v>
+        <v>0.259977</v>
       </c>
       <c r="D67" t="n">
-        <v>0.245687</v>
+        <v>0.246262</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235989</v>
+        <v>0.234905</v>
       </c>
       <c r="C68" t="n">
-        <v>0.251907</v>
+        <v>0.25036</v>
       </c>
       <c r="D68" t="n">
-        <v>0.235894</v>
+        <v>0.23632</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.228156</v>
+        <v>0.227456</v>
       </c>
       <c r="C69" t="n">
-        <v>0.241291</v>
+        <v>0.241968</v>
       </c>
       <c r="D69" t="n">
-        <v>0.228449</v>
+        <v>0.228486</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.220387</v>
+        <v>0.219925</v>
       </c>
       <c r="C70" t="n">
-        <v>0.232729</v>
+        <v>0.23275</v>
       </c>
       <c r="D70" t="n">
-        <v>0.220252</v>
+        <v>0.220672</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.212482</v>
+        <v>0.213748</v>
       </c>
       <c r="C71" t="n">
-        <v>0.224656</v>
+        <v>0.224697</v>
       </c>
       <c r="D71" t="n">
-        <v>0.212395</v>
+        <v>0.213006</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205975</v>
+        <v>0.204157</v>
       </c>
       <c r="C72" t="n">
-        <v>0.216811</v>
+        <v>0.216957</v>
       </c>
       <c r="D72" t="n">
-        <v>0.205789</v>
+        <v>0.206041</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.200613</v>
+        <v>0.200226</v>
       </c>
       <c r="C73" t="n">
-        <v>0.20989</v>
+        <v>0.210103</v>
       </c>
       <c r="D73" t="n">
-        <v>0.198979</v>
+        <v>0.199617</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.194739</v>
+        <v>0.19577</v>
       </c>
       <c r="C74" t="n">
-        <v>0.203254</v>
+        <v>0.203463</v>
       </c>
       <c r="D74" t="n">
-        <v>0.193168</v>
+        <v>0.193311</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.189617</v>
+        <v>0.190249</v>
       </c>
       <c r="C75" t="n">
-        <v>0.19737</v>
+        <v>0.197389</v>
       </c>
       <c r="D75" t="n">
-        <v>0.187939</v>
+        <v>0.187445</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.184908</v>
+        <v>0.185338</v>
       </c>
       <c r="C76" t="n">
-        <v>0.192268</v>
+        <v>0.192281</v>
       </c>
       <c r="D76" t="n">
-        <v>0.183439</v>
+        <v>0.183628</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181292</v>
+        <v>0.182651</v>
       </c>
       <c r="C77" t="n">
-        <v>0.187689</v>
+        <v>0.187771</v>
       </c>
       <c r="D77" t="n">
-        <v>0.179541</v>
+        <v>0.180534</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.178826</v>
+        <v>0.180529</v>
       </c>
       <c r="C78" t="n">
-        <v>0.184139</v>
+        <v>0.184368</v>
       </c>
       <c r="D78" t="n">
-        <v>0.179061</v>
+        <v>0.178963</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179163</v>
+        <v>0.179685</v>
       </c>
       <c r="C79" t="n">
-        <v>0.182458</v>
+        <v>0.182394</v>
       </c>
       <c r="D79" t="n">
-        <v>0.179082</v>
+        <v>0.179131</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181138</v>
+        <v>0.181751</v>
       </c>
       <c r="C80" t="n">
-        <v>0.182405</v>
+        <v>0.182733</v>
       </c>
       <c r="D80" t="n">
-        <v>0.259911</v>
+        <v>0.261166</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257644</v>
+        <v>0.257932</v>
       </c>
       <c r="C81" t="n">
-        <v>0.263051</v>
+        <v>0.263529</v>
       </c>
       <c r="D81" t="n">
-        <v>0.251563</v>
+        <v>0.251273</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249569</v>
+        <v>0.250003</v>
       </c>
       <c r="C82" t="n">
-        <v>0.254497</v>
+        <v>0.25493</v>
       </c>
       <c r="D82" t="n">
-        <v>0.242857</v>
+        <v>0.243411</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241893</v>
+        <v>0.242011</v>
       </c>
       <c r="C83" t="n">
-        <v>0.245979</v>
+        <v>0.246708</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234493</v>
+        <v>0.235196</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234751</v>
+        <v>0.234466</v>
       </c>
       <c r="C84" t="n">
-        <v>0.237991</v>
+        <v>0.238542</v>
       </c>
       <c r="D84" t="n">
-        <v>0.226465</v>
+        <v>0.225978</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.226978</v>
+        <v>0.227239</v>
       </c>
       <c r="C85" t="n">
-        <v>0.229829</v>
+        <v>0.230837</v>
       </c>
       <c r="D85" t="n">
-        <v>0.218893</v>
+        <v>0.219465</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219799</v>
+        <v>0.219997</v>
       </c>
       <c r="C86" t="n">
-        <v>0.222655</v>
+        <v>0.223226</v>
       </c>
       <c r="D86" t="n">
-        <v>0.211566</v>
+        <v>0.212436</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213375</v>
+        <v>0.214064</v>
       </c>
       <c r="C87" t="n">
-        <v>0.215492</v>
+        <v>0.21602</v>
       </c>
       <c r="D87" t="n">
-        <v>0.20522</v>
+        <v>0.205581</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207166</v>
+        <v>0.20787</v>
       </c>
       <c r="C88" t="n">
-        <v>0.208861</v>
+        <v>0.20899</v>
       </c>
       <c r="D88" t="n">
-        <v>0.199014</v>
+        <v>0.199633</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201474</v>
+        <v>0.202017</v>
       </c>
       <c r="C89" t="n">
-        <v>0.202819</v>
+        <v>0.203223</v>
       </c>
       <c r="D89" t="n">
-        <v>0.193511</v>
+        <v>0.194404</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19677</v>
+        <v>0.196776</v>
       </c>
       <c r="C90" t="n">
-        <v>0.197551</v>
+        <v>0.197892</v>
       </c>
       <c r="D90" t="n">
-        <v>0.189531</v>
+        <v>0.18927</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192537</v>
+        <v>0.192811</v>
       </c>
       <c r="C91" t="n">
-        <v>0.19288</v>
+        <v>0.193033</v>
       </c>
       <c r="D91" t="n">
-        <v>0.185885</v>
+        <v>0.18613</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189582</v>
+        <v>0.189798</v>
       </c>
       <c r="C92" t="n">
-        <v>0.189225</v>
+        <v>0.18935</v>
       </c>
       <c r="D92" t="n">
-        <v>0.18375</v>
+        <v>0.184269</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188357</v>
+        <v>0.191982</v>
       </c>
       <c r="C93" t="n">
-        <v>0.186981</v>
+        <v>0.187165</v>
       </c>
       <c r="D93" t="n">
-        <v>0.183845</v>
+        <v>0.184079</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.18918</v>
+        <v>0.189461</v>
       </c>
       <c r="C94" t="n">
-        <v>0.18652</v>
+        <v>0.187003</v>
       </c>
       <c r="D94" t="n">
-        <v>0.278244</v>
+        <v>0.28116</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.26912</v>
+        <v>0.270531</v>
       </c>
       <c r="C95" t="n">
-        <v>0.279398</v>
+        <v>0.282645</v>
       </c>
       <c r="D95" t="n">
-        <v>0.271679</v>
+        <v>0.27504</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.263515</v>
+        <v>0.264583</v>
       </c>
       <c r="C96" t="n">
-        <v>0.272839</v>
+        <v>0.275615</v>
       </c>
       <c r="D96" t="n">
-        <v>0.265508</v>
+        <v>0.266651</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258001</v>
+        <v>0.257533</v>
       </c>
       <c r="C97" t="n">
-        <v>0.265664</v>
+        <v>0.268257</v>
       </c>
       <c r="D97" t="n">
-        <v>0.256713</v>
+        <v>0.258633</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251707</v>
+        <v>0.25059</v>
       </c>
       <c r="C98" t="n">
-        <v>0.25832</v>
+        <v>0.260323</v>
       </c>
       <c r="D98" t="n">
-        <v>0.249207</v>
+        <v>0.251083</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244324</v>
+        <v>0.244859</v>
       </c>
       <c r="C99" t="n">
-        <v>0.251327</v>
+        <v>0.252153</v>
       </c>
       <c r="D99" t="n">
-        <v>0.24149</v>
+        <v>0.242778</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.237919</v>
+        <v>0.238655</v>
       </c>
       <c r="C100" t="n">
-        <v>0.243832</v>
+        <v>0.244459</v>
       </c>
       <c r="D100" t="n">
-        <v>0.235856</v>
+        <v>0.235553</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.232212</v>
+        <v>0.2334</v>
       </c>
       <c r="C101" t="n">
-        <v>0.237699</v>
+        <v>0.237656</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228715</v>
+        <v>0.229556</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227439</v>
+        <v>0.228237</v>
       </c>
       <c r="C102" t="n">
-        <v>0.231533</v>
+        <v>0.231864</v>
       </c>
       <c r="D102" t="n">
-        <v>0.223444</v>
+        <v>0.223116</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.221821</v>
+        <v>0.222594</v>
       </c>
       <c r="C103" t="n">
-        <v>0.225275</v>
+        <v>0.226076</v>
       </c>
       <c r="D103" t="n">
-        <v>0.218043</v>
+        <v>0.218861</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.217357</v>
+        <v>0.218189</v>
       </c>
       <c r="C104" t="n">
-        <v>0.221074</v>
+        <v>0.221061</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213537</v>
+        <v>0.214035</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.213424</v>
+        <v>0.214201</v>
       </c>
       <c r="C105" t="n">
-        <v>0.215871</v>
+        <v>0.216926</v>
       </c>
       <c r="D105" t="n">
-        <v>0.210039</v>
+        <v>0.210008</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210226</v>
+        <v>0.210874</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212823</v>
+        <v>0.213632</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208195</v>
+        <v>0.207962</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.207964</v>
+        <v>0.208753</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211155</v>
+        <v>0.210999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.208204</v>
+        <v>0.206796</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.207921</v>
+        <v>0.208492</v>
       </c>
       <c r="C108" t="n">
-        <v>0.210494</v>
+        <v>0.209829</v>
       </c>
       <c r="D108" t="n">
-        <v>0.304461</v>
+        <v>0.302233</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209559</v>
+        <v>0.210717</v>
       </c>
       <c r="C109" t="n">
-        <v>0.212712</v>
+        <v>0.21145</v>
       </c>
       <c r="D109" t="n">
-        <v>0.297571</v>
+        <v>0.295278</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.283981</v>
+        <v>0.285027</v>
       </c>
       <c r="C110" t="n">
-        <v>0.296635</v>
+        <v>0.296872</v>
       </c>
       <c r="D110" t="n">
-        <v>0.287177</v>
+        <v>0.288183</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277131</v>
+        <v>0.278487</v>
       </c>
       <c r="C111" t="n">
-        <v>0.289079</v>
+        <v>0.289188</v>
       </c>
       <c r="D111" t="n">
-        <v>0.279271</v>
+        <v>0.279732</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.270794</v>
+        <v>0.272119</v>
       </c>
       <c r="C112" t="n">
-        <v>0.281344</v>
+        <v>0.281928</v>
       </c>
       <c r="D112" t="n">
-        <v>0.273178</v>
+        <v>0.273725</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.264867</v>
+        <v>0.266201</v>
       </c>
       <c r="C113" t="n">
-        <v>0.274607</v>
+        <v>0.27488</v>
       </c>
       <c r="D113" t="n">
-        <v>0.266397</v>
+        <v>0.267363</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.259794</v>
+        <v>0.260833</v>
       </c>
       <c r="C114" t="n">
-        <v>0.268304</v>
+        <v>0.268741</v>
       </c>
       <c r="D114" t="n">
-        <v>0.260727</v>
+        <v>0.261277</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.253954</v>
+        <v>0.255239</v>
       </c>
       <c r="C115" t="n">
-        <v>0.26231</v>
+        <v>0.262687</v>
       </c>
       <c r="D115" t="n">
-        <v>0.255738</v>
+        <v>0.255793</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.24921</v>
+        <v>0.250212</v>
       </c>
       <c r="C116" t="n">
-        <v>0.256897</v>
+        <v>0.257291</v>
       </c>
       <c r="D116" t="n">
-        <v>0.250645</v>
+        <v>0.250618</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.244865</v>
+        <v>0.2456</v>
       </c>
       <c r="C117" t="n">
-        <v>0.251768</v>
+        <v>0.252375</v>
       </c>
       <c r="D117" t="n">
-        <v>0.245993</v>
+        <v>0.246528</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.240339</v>
+        <v>0.241654</v>
       </c>
       <c r="C118" t="n">
-        <v>0.247624</v>
+        <v>0.247964</v>
       </c>
       <c r="D118" t="n">
-        <v>0.241963</v>
+        <v>0.241906</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.236998</v>
+        <v>0.237399</v>
       </c>
       <c r="C119" t="n">
-        <v>0.243795</v>
+        <v>0.243971</v>
       </c>
       <c r="D119" t="n">
-        <v>0.238673</v>
+        <v>0.238325</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.233953</v>
+        <v>0.234709</v>
       </c>
       <c r="C120" t="n">
-        <v>0.240537</v>
+        <v>0.241078</v>
       </c>
       <c r="D120" t="n">
-        <v>0.236356</v>
+        <v>0.236736</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.231224</v>
+        <v>0.232449</v>
       </c>
       <c r="C121" t="n">
-        <v>0.237909</v>
+        <v>0.238535</v>
       </c>
       <c r="D121" t="n">
-        <v>0.235818</v>
+        <v>0.23571</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.230513</v>
+        <v>0.231274</v>
       </c>
       <c r="C122" t="n">
-        <v>0.237154</v>
+        <v>0.237619</v>
       </c>
       <c r="D122" t="n">
-        <v>0.237864</v>
+        <v>0.237293</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.231737</v>
+        <v>0.232568</v>
       </c>
       <c r="C123" t="n">
-        <v>0.238699</v>
+        <v>0.239117</v>
       </c>
       <c r="D123" t="n">
-        <v>0.32462</v>
+        <v>0.326029</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.319243</v>
+        <v>0.318067</v>
       </c>
       <c r="C124" t="n">
-        <v>0.324651</v>
+        <v>0.325243</v>
       </c>
       <c r="D124" t="n">
-        <v>0.319055</v>
+        <v>0.320132</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.313506</v>
+        <v>0.312426</v>
       </c>
       <c r="C125" t="n">
-        <v>0.318184</v>
+        <v>0.318394</v>
       </c>
       <c r="D125" t="n">
-        <v>0.314235</v>
+        <v>0.31432</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.307885</v>
+        <v>0.306369</v>
       </c>
       <c r="C126" t="n">
-        <v>0.312519</v>
+        <v>0.312839</v>
       </c>
       <c r="D126" t="n">
-        <v>0.309144</v>
+        <v>0.30878</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.302012</v>
+        <v>0.301554</v>
       </c>
       <c r="C127" t="n">
-        <v>0.307125</v>
+        <v>0.307185</v>
       </c>
       <c r="D127" t="n">
-        <v>0.304711</v>
+        <v>0.304536</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.296555</v>
+        <v>0.296222</v>
       </c>
       <c r="C128" t="n">
-        <v>0.302006</v>
+        <v>0.302245</v>
       </c>
       <c r="D128" t="n">
-        <v>0.300168</v>
+        <v>0.300349</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.291959</v>
+        <v>0.291345</v>
       </c>
       <c r="C129" t="n">
-        <v>0.29769</v>
+        <v>0.297669</v>
       </c>
       <c r="D129" t="n">
-        <v>0.296269</v>
+        <v>0.296389</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.287332</v>
+        <v>0.287388</v>
       </c>
       <c r="C130" t="n">
-        <v>0.293184</v>
+        <v>0.293523</v>
       </c>
       <c r="D130" t="n">
-        <v>0.292886</v>
+        <v>0.292359</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.283552</v>
+        <v>0.283246</v>
       </c>
       <c r="C131" t="n">
-        <v>0.28978</v>
+        <v>0.290105</v>
       </c>
       <c r="D131" t="n">
-        <v>0.289318</v>
+        <v>0.289946</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.279594</v>
+        <v>0.279423</v>
       </c>
       <c r="C132" t="n">
-        <v>0.286402</v>
+        <v>0.28694</v>
       </c>
       <c r="D132" t="n">
-        <v>0.287032</v>
+        <v>0.28669</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276526</v>
+        <v>0.276074</v>
       </c>
       <c r="C133" t="n">
-        <v>0.283895</v>
+        <v>0.284313</v>
       </c>
       <c r="D133" t="n">
-        <v>0.285057</v>
+        <v>0.285244</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.273541</v>
+        <v>0.273048</v>
       </c>
       <c r="C134" t="n">
-        <v>0.281675</v>
+        <v>0.282225</v>
       </c>
       <c r="D134" t="n">
-        <v>0.283504</v>
+        <v>0.283624</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.271458</v>
+        <v>0.270995</v>
       </c>
       <c r="C135" t="n">
-        <v>0.280269</v>
+        <v>0.281085</v>
       </c>
       <c r="D135" t="n">
-        <v>0.284257</v>
+        <v>0.283677</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.271185</v>
+        <v>0.270803</v>
       </c>
       <c r="C136" t="n">
-        <v>0.280711</v>
+        <v>0.280567</v>
       </c>
       <c r="D136" t="n">
-        <v>0.286675</v>
+        <v>0.286021</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.271892</v>
+        <v>0.271687</v>
       </c>
       <c r="C137" t="n">
-        <v>0.282617</v>
+        <v>0.283357</v>
       </c>
       <c r="D137" t="n">
-        <v>0.386674</v>
+        <v>0.387125</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.37228</v>
+        <v>0.370755</v>
       </c>
       <c r="C138" t="n">
-        <v>0.382259</v>
+        <v>0.382694</v>
       </c>
       <c r="D138" t="n">
-        <v>0.379899</v>
+        <v>0.380095</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.367218</v>
+        <v>0.365202</v>
       </c>
       <c r="C139" t="n">
-        <v>0.37477</v>
+        <v>0.375013</v>
       </c>
       <c r="D139" t="n">
-        <v>0.37323</v>
+        <v>0.373193</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.360389</v>
+        <v>0.359187</v>
       </c>
       <c r="C140" t="n">
-        <v>0.368197</v>
+        <v>0.368962</v>
       </c>
       <c r="D140" t="n">
-        <v>0.367346</v>
+        <v>0.367914</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.354692</v>
+        <v>0.353464</v>
       </c>
       <c r="C141" t="n">
-        <v>0.362373</v>
+        <v>0.363254</v>
       </c>
       <c r="D141" t="n">
-        <v>0.361801</v>
+        <v>0.361596</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.350179</v>
+        <v>0.348631</v>
       </c>
       <c r="C142" t="n">
-        <v>0.35649</v>
+        <v>0.356756</v>
       </c>
       <c r="D142" t="n">
-        <v>0.356534</v>
+        <v>0.35633</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.345269</v>
+        <v>0.343889</v>
       </c>
       <c r="C143" t="n">
-        <v>0.35135</v>
+        <v>0.351802</v>
       </c>
       <c r="D143" t="n">
-        <v>0.351406</v>
+        <v>0.351879</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.178718</v>
+        <v>0.177103</v>
       </c>
       <c r="C2" t="n">
-        <v>0.186204</v>
+        <v>0.185882</v>
       </c>
       <c r="D2" t="n">
-        <v>0.178753</v>
+        <v>0.164989</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.17083</v>
+        <v>0.170769</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18118</v>
+        <v>0.166965</v>
       </c>
       <c r="D3" t="n">
-        <v>0.174427</v>
+        <v>0.160375</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.167392</v>
+        <v>0.166142</v>
       </c>
       <c r="C4" t="n">
-        <v>0.175154</v>
+        <v>0.161171</v>
       </c>
       <c r="D4" t="n">
-        <v>0.171094</v>
+        <v>0.164811</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.161885</v>
+        <v>0.163418</v>
       </c>
       <c r="C5" t="n">
-        <v>0.169687</v>
+        <v>0.169245</v>
       </c>
       <c r="D5" t="n">
-        <v>0.158282</v>
+        <v>0.163675</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.159979</v>
+        <v>0.159342</v>
       </c>
       <c r="C6" t="n">
-        <v>0.16458</v>
+        <v>0.163051</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161695</v>
+        <v>0.143156</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.156942</v>
+        <v>0.157575</v>
       </c>
       <c r="C7" t="n">
-        <v>0.163209</v>
+        <v>0.161575</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15925</v>
+        <v>0.157753</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.157385</v>
+        <v>0.15674</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160076</v>
+        <v>0.158493</v>
       </c>
       <c r="D8" t="n">
-        <v>0.158049</v>
+        <v>0.155475</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158355</v>
+        <v>0.158459</v>
       </c>
       <c r="C9" t="n">
-        <v>0.160215</v>
+        <v>0.158034</v>
       </c>
       <c r="D9" t="n">
-        <v>0.233664</v>
+        <v>0.23448</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.222633</v>
+        <v>0.223294</v>
       </c>
       <c r="C10" t="n">
-        <v>0.235278</v>
+        <v>0.23653</v>
       </c>
       <c r="D10" t="n">
-        <v>0.227261</v>
+        <v>0.226126</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.215385</v>
+        <v>0.215953</v>
       </c>
       <c r="C11" t="n">
-        <v>0.22611</v>
+        <v>0.226821</v>
       </c>
       <c r="D11" t="n">
-        <v>0.217346</v>
+        <v>0.216531</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.207829</v>
+        <v>0.207695</v>
       </c>
       <c r="C12" t="n">
-        <v>0.218991</v>
+        <v>0.218744</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2097</v>
+        <v>0.208225</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2008</v>
+        <v>0.199775</v>
       </c>
       <c r="C13" t="n">
-        <v>0.210952</v>
+        <v>0.210679</v>
       </c>
       <c r="D13" t="n">
-        <v>0.202368</v>
+        <v>0.201236</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.193486</v>
+        <v>0.192941</v>
       </c>
       <c r="C14" t="n">
-        <v>0.203763</v>
+        <v>0.20324</v>
       </c>
       <c r="D14" t="n">
-        <v>0.195841</v>
+        <v>0.194884</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.186109</v>
+        <v>0.186446</v>
       </c>
       <c r="C15" t="n">
-        <v>0.196277</v>
+        <v>0.195531</v>
       </c>
       <c r="D15" t="n">
-        <v>0.189047</v>
+        <v>0.186649</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.180568</v>
+        <v>0.18026</v>
       </c>
       <c r="C16" t="n">
-        <v>0.190233</v>
+        <v>0.189026</v>
       </c>
       <c r="D16" t="n">
-        <v>0.182759</v>
+        <v>0.181528</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.174898</v>
+        <v>0.174567</v>
       </c>
       <c r="C17" t="n">
-        <v>0.183876</v>
+        <v>0.183153</v>
       </c>
       <c r="D17" t="n">
-        <v>0.178053</v>
+        <v>0.177232</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1719</v>
+        <v>0.169493</v>
       </c>
       <c r="C18" t="n">
-        <v>0.178755</v>
+        <v>0.177544</v>
       </c>
       <c r="D18" t="n">
-        <v>0.172858</v>
+        <v>0.171976</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.165691</v>
+        <v>0.165219</v>
       </c>
       <c r="C19" t="n">
-        <v>0.175423</v>
+        <v>0.173374</v>
       </c>
       <c r="D19" t="n">
-        <v>0.169401</v>
+        <v>0.168303</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.163613</v>
+        <v>0.16161</v>
       </c>
       <c r="C20" t="n">
-        <v>0.17183</v>
+        <v>0.169189</v>
       </c>
       <c r="D20" t="n">
-        <v>0.169847</v>
+        <v>0.165077</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.162106</v>
+        <v>0.159907</v>
       </c>
       <c r="C21" t="n">
-        <v>0.16981</v>
+        <v>0.16582</v>
       </c>
       <c r="D21" t="n">
-        <v>0.166919</v>
+        <v>0.163708</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.160103</v>
+        <v>0.159128</v>
       </c>
       <c r="C22" t="n">
-        <v>0.167803</v>
+        <v>0.164233</v>
       </c>
       <c r="D22" t="n">
-        <v>0.167546</v>
+        <v>0.16379</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162076</v>
+        <v>0.160781</v>
       </c>
       <c r="C23" t="n">
-        <v>0.166857</v>
+        <v>0.164247</v>
       </c>
       <c r="D23" t="n">
-        <v>0.248615</v>
+        <v>0.247022</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.247794</v>
+        <v>0.243103</v>
       </c>
       <c r="C24" t="n">
-        <v>0.244998</v>
+        <v>0.244635</v>
       </c>
       <c r="D24" t="n">
-        <v>0.232127</v>
+        <v>0.236871</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236108</v>
+        <v>0.234216</v>
       </c>
       <c r="C25" t="n">
-        <v>0.236071</v>
+        <v>0.235358</v>
       </c>
       <c r="D25" t="n">
-        <v>0.22415</v>
+        <v>0.225935</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.226027</v>
+        <v>0.225542</v>
       </c>
       <c r="C26" t="n">
-        <v>0.227409</v>
+        <v>0.22676</v>
       </c>
       <c r="D26" t="n">
-        <v>0.21471</v>
+        <v>0.219312</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.218707</v>
+        <v>0.217428</v>
       </c>
       <c r="C27" t="n">
-        <v>0.21889</v>
+        <v>0.220316</v>
       </c>
       <c r="D27" t="n">
-        <v>0.207792</v>
+        <v>0.212389</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.211447</v>
+        <v>0.209367</v>
       </c>
       <c r="C28" t="n">
-        <v>0.211291</v>
+        <v>0.211573</v>
       </c>
       <c r="D28" t="n">
-        <v>0.199836</v>
+        <v>0.204943</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.203328</v>
+        <v>0.202343</v>
       </c>
       <c r="C29" t="n">
-        <v>0.203882</v>
+        <v>0.203959</v>
       </c>
       <c r="D29" t="n">
-        <v>0.194364</v>
+        <v>0.201371</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.196658</v>
+        <v>0.198768</v>
       </c>
       <c r="C30" t="n">
-        <v>0.197094</v>
+        <v>0.200846</v>
       </c>
       <c r="D30" t="n">
-        <v>0.187995</v>
+        <v>0.195311</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.191518</v>
+        <v>0.1923</v>
       </c>
       <c r="C31" t="n">
-        <v>0.190396</v>
+        <v>0.194543</v>
       </c>
       <c r="D31" t="n">
-        <v>0.182433</v>
+        <v>0.194134</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.18543</v>
+        <v>0.186745</v>
       </c>
       <c r="C32" t="n">
-        <v>0.184785</v>
+        <v>0.190141</v>
       </c>
       <c r="D32" t="n">
-        <v>0.177763</v>
+        <v>0.18237</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1803</v>
+        <v>0.181214</v>
       </c>
       <c r="C33" t="n">
-        <v>0.179923</v>
+        <v>0.182905</v>
       </c>
       <c r="D33" t="n">
-        <v>0.172598</v>
+        <v>0.182111</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.175725</v>
+        <v>0.17822</v>
       </c>
       <c r="C34" t="n">
-        <v>0.175508</v>
+        <v>0.182193</v>
       </c>
       <c r="D34" t="n">
-        <v>0.169563</v>
+        <v>0.181232</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.173833</v>
+        <v>0.174957</v>
       </c>
       <c r="C35" t="n">
-        <v>0.171722</v>
+        <v>0.174321</v>
       </c>
       <c r="D35" t="n">
-        <v>0.167429</v>
+        <v>0.171855</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.173486</v>
+        <v>0.173361</v>
       </c>
       <c r="C36" t="n">
-        <v>0.16994</v>
+        <v>0.172087</v>
       </c>
       <c r="D36" t="n">
-        <v>0.167455</v>
+        <v>0.167128</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.173844</v>
+        <v>0.1721</v>
       </c>
       <c r="C37" t="n">
-        <v>0.169761</v>
+        <v>0.169655</v>
       </c>
       <c r="D37" t="n">
-        <v>0.248562</v>
+        <v>0.252265</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.245012</v>
+        <v>0.244053</v>
       </c>
       <c r="C38" t="n">
-        <v>0.252112</v>
+        <v>0.252265</v>
       </c>
       <c r="D38" t="n">
-        <v>0.240683</v>
+        <v>0.242468</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.236723</v>
+        <v>0.234901</v>
       </c>
       <c r="C39" t="n">
-        <v>0.243175</v>
+        <v>0.242777</v>
       </c>
       <c r="D39" t="n">
-        <v>0.230983</v>
+        <v>0.233209</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.228143</v>
+        <v>0.226144</v>
       </c>
       <c r="C40" t="n">
-        <v>0.233998</v>
+        <v>0.23402</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224487</v>
+        <v>0.224279</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.219531</v>
+        <v>0.218434</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225541</v>
+        <v>0.225594</v>
       </c>
       <c r="D41" t="n">
-        <v>0.214966</v>
+        <v>0.215946</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.21209</v>
+        <v>0.210807</v>
       </c>
       <c r="C42" t="n">
-        <v>0.217906</v>
+        <v>0.217689</v>
       </c>
       <c r="D42" t="n">
-        <v>0.208046</v>
+        <v>0.208917</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.204875</v>
+        <v>0.203757</v>
       </c>
       <c r="C43" t="n">
-        <v>0.210157</v>
+        <v>0.209991</v>
       </c>
       <c r="D43" t="n">
-        <v>0.201632</v>
+        <v>0.203025</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.197864</v>
+        <v>0.196668</v>
       </c>
       <c r="C44" t="n">
-        <v>0.203009</v>
+        <v>0.202844</v>
       </c>
       <c r="D44" t="n">
-        <v>0.194972</v>
+        <v>0.196385</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.192056</v>
+        <v>0.190855</v>
       </c>
       <c r="C45" t="n">
-        <v>0.196609</v>
+        <v>0.19673</v>
       </c>
       <c r="D45" t="n">
-        <v>0.190208</v>
+        <v>0.189766</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.186379</v>
+        <v>0.185185</v>
       </c>
       <c r="C46" t="n">
-        <v>0.190593</v>
+        <v>0.190691</v>
       </c>
       <c r="D46" t="n">
-        <v>0.183994</v>
+        <v>0.184675</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.181761</v>
+        <v>0.180585</v>
       </c>
       <c r="C47" t="n">
-        <v>0.185421</v>
+        <v>0.185225</v>
       </c>
       <c r="D47" t="n">
-        <v>0.178045</v>
+        <v>0.179003</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.177717</v>
+        <v>0.176982</v>
       </c>
       <c r="C48" t="n">
-        <v>0.181008</v>
+        <v>0.180917</v>
       </c>
       <c r="D48" t="n">
-        <v>0.173993</v>
+        <v>0.174435</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174906</v>
+        <v>0.173987</v>
       </c>
       <c r="C49" t="n">
-        <v>0.177122</v>
+        <v>0.177299</v>
       </c>
       <c r="D49" t="n">
-        <v>0.171803</v>
+        <v>0.17202</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173128</v>
+        <v>0.17289</v>
       </c>
       <c r="C50" t="n">
-        <v>0.174466</v>
+        <v>0.17457</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171097</v>
+        <v>0.17119</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17372</v>
+        <v>0.173311</v>
       </c>
       <c r="C51" t="n">
-        <v>0.173811</v>
+        <v>0.173636</v>
       </c>
       <c r="D51" t="n">
-        <v>0.257787</v>
+        <v>0.257627</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176983</v>
+        <v>0.176441</v>
       </c>
       <c r="C52" t="n">
-        <v>0.175265</v>
+        <v>0.175096</v>
       </c>
       <c r="D52" t="n">
-        <v>0.247939</v>
+        <v>0.247863</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244325</v>
+        <v>0.242506</v>
       </c>
       <c r="C53" t="n">
-        <v>0.251828</v>
+        <v>0.251624</v>
       </c>
       <c r="D53" t="n">
-        <v>0.238704</v>
+        <v>0.238868</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.234569</v>
+        <v>0.233415</v>
       </c>
       <c r="C54" t="n">
-        <v>0.241972</v>
+        <v>0.242255</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230685</v>
+        <v>0.229969</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.22625</v>
+        <v>0.225476</v>
       </c>
       <c r="C55" t="n">
-        <v>0.233134</v>
+        <v>0.233453</v>
       </c>
       <c r="D55" t="n">
-        <v>0.221767</v>
+        <v>0.22172</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.218386</v>
+        <v>0.217332</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225029</v>
+        <v>0.225206</v>
       </c>
       <c r="D56" t="n">
-        <v>0.213702</v>
+        <v>0.213812</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.211024</v>
+        <v>0.209912</v>
       </c>
       <c r="C57" t="n">
-        <v>0.217523</v>
+        <v>0.217569</v>
       </c>
       <c r="D57" t="n">
-        <v>0.206646</v>
+        <v>0.206737</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.204143</v>
+        <v>0.202952</v>
       </c>
       <c r="C58" t="n">
-        <v>0.210431</v>
+        <v>0.210236</v>
       </c>
       <c r="D58" t="n">
-        <v>0.199591</v>
+        <v>0.199238</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.197628</v>
+        <v>0.196977</v>
       </c>
       <c r="C59" t="n">
-        <v>0.203136</v>
+        <v>0.203325</v>
       </c>
       <c r="D59" t="n">
-        <v>0.193143</v>
+        <v>0.193756</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.19197</v>
+        <v>0.191192</v>
       </c>
       <c r="C60" t="n">
-        <v>0.197268</v>
+        <v>0.197255</v>
       </c>
       <c r="D60" t="n">
-        <v>0.187578</v>
+        <v>0.189098</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.186833</v>
+        <v>0.185984</v>
       </c>
       <c r="C61" t="n">
-        <v>0.19143</v>
+        <v>0.191559</v>
       </c>
       <c r="D61" t="n">
-        <v>0.182818</v>
+        <v>0.182982</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.182536</v>
+        <v>0.181808</v>
       </c>
       <c r="C62" t="n">
-        <v>0.186725</v>
+        <v>0.187043</v>
       </c>
       <c r="D62" t="n">
-        <v>0.179307</v>
+        <v>0.179083</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.17932</v>
+        <v>0.178795</v>
       </c>
       <c r="C63" t="n">
-        <v>0.182295</v>
+        <v>0.182303</v>
       </c>
       <c r="D63" t="n">
-        <v>0.176214</v>
+        <v>0.17611</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177423</v>
+        <v>0.177519</v>
       </c>
       <c r="C64" t="n">
-        <v>0.179414</v>
+        <v>0.179285</v>
       </c>
       <c r="D64" t="n">
-        <v>0.175233</v>
+        <v>0.175402</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177428</v>
+        <v>0.177091</v>
       </c>
       <c r="C65" t="n">
-        <v>0.177726</v>
+        <v>0.177833</v>
       </c>
       <c r="D65" t="n">
-        <v>0.176912</v>
+        <v>0.177193</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180051</v>
+        <v>0.179594</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179217</v>
+        <v>0.179205</v>
       </c>
       <c r="D66" t="n">
-        <v>0.255823</v>
+        <v>0.255687</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2443</v>
+        <v>0.243682</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259977</v>
+        <v>0.259609</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246262</v>
+        <v>0.246495</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.234905</v>
+        <v>0.23553</v>
       </c>
       <c r="C68" t="n">
-        <v>0.25036</v>
+        <v>0.250377</v>
       </c>
       <c r="D68" t="n">
-        <v>0.23632</v>
+        <v>0.237355</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.227456</v>
+        <v>0.226954</v>
       </c>
       <c r="C69" t="n">
-        <v>0.241968</v>
+        <v>0.241401</v>
       </c>
       <c r="D69" t="n">
-        <v>0.228486</v>
+        <v>0.227508</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219925</v>
+        <v>0.218443</v>
       </c>
       <c r="C70" t="n">
-        <v>0.23275</v>
+        <v>0.232978</v>
       </c>
       <c r="D70" t="n">
-        <v>0.220672</v>
+        <v>0.218837</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213748</v>
+        <v>0.212392</v>
       </c>
       <c r="C71" t="n">
-        <v>0.224697</v>
+        <v>0.224618</v>
       </c>
       <c r="D71" t="n">
-        <v>0.213006</v>
+        <v>0.21242</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.204157</v>
+        <v>0.207042</v>
       </c>
       <c r="C72" t="n">
-        <v>0.216957</v>
+        <v>0.217065</v>
       </c>
       <c r="D72" t="n">
-        <v>0.206041</v>
+        <v>0.205834</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.200226</v>
+        <v>0.201013</v>
       </c>
       <c r="C73" t="n">
-        <v>0.210103</v>
+        <v>0.210055</v>
       </c>
       <c r="D73" t="n">
-        <v>0.199617</v>
+        <v>0.199507</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.19577</v>
+        <v>0.195622</v>
       </c>
       <c r="C74" t="n">
-        <v>0.203463</v>
+        <v>0.20332</v>
       </c>
       <c r="D74" t="n">
-        <v>0.193311</v>
+        <v>0.193454</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.190249</v>
+        <v>0.190251</v>
       </c>
       <c r="C75" t="n">
-        <v>0.197389</v>
+        <v>0.197407</v>
       </c>
       <c r="D75" t="n">
-        <v>0.187445</v>
+        <v>0.188102</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185338</v>
+        <v>0.185784</v>
       </c>
       <c r="C76" t="n">
-        <v>0.192281</v>
+        <v>0.192055</v>
       </c>
       <c r="D76" t="n">
-        <v>0.183628</v>
+        <v>0.182888</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182651</v>
+        <v>0.182275</v>
       </c>
       <c r="C77" t="n">
-        <v>0.187771</v>
+        <v>0.187652</v>
       </c>
       <c r="D77" t="n">
-        <v>0.180534</v>
+        <v>0.180322</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.180529</v>
+        <v>0.180425</v>
       </c>
       <c r="C78" t="n">
-        <v>0.184368</v>
+        <v>0.184216</v>
       </c>
       <c r="D78" t="n">
-        <v>0.178963</v>
+        <v>0.178506</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179685</v>
+        <v>0.180026</v>
       </c>
       <c r="C79" t="n">
-        <v>0.182394</v>
+        <v>0.18254</v>
       </c>
       <c r="D79" t="n">
-        <v>0.179131</v>
+        <v>0.179797</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181751</v>
+        <v>0.182017</v>
       </c>
       <c r="C80" t="n">
-        <v>0.182733</v>
+        <v>0.182612</v>
       </c>
       <c r="D80" t="n">
-        <v>0.261166</v>
+        <v>0.260524</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257932</v>
+        <v>0.258166</v>
       </c>
       <c r="C81" t="n">
-        <v>0.263529</v>
+        <v>0.263118</v>
       </c>
       <c r="D81" t="n">
-        <v>0.251273</v>
+        <v>0.251764</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.250003</v>
+        <v>0.249667</v>
       </c>
       <c r="C82" t="n">
-        <v>0.25493</v>
+        <v>0.254947</v>
       </c>
       <c r="D82" t="n">
-        <v>0.243411</v>
+        <v>0.24313</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242011</v>
+        <v>0.242334</v>
       </c>
       <c r="C83" t="n">
-        <v>0.246708</v>
+        <v>0.24662</v>
       </c>
       <c r="D83" t="n">
-        <v>0.235196</v>
+        <v>0.234773</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234466</v>
+        <v>0.234311</v>
       </c>
       <c r="C84" t="n">
-        <v>0.238542</v>
+        <v>0.238318</v>
       </c>
       <c r="D84" t="n">
-        <v>0.225978</v>
+        <v>0.226794</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227239</v>
+        <v>0.227474</v>
       </c>
       <c r="C85" t="n">
-        <v>0.230837</v>
+        <v>0.230287</v>
       </c>
       <c r="D85" t="n">
-        <v>0.219465</v>
+        <v>0.219213</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219997</v>
+        <v>0.220321</v>
       </c>
       <c r="C86" t="n">
-        <v>0.223226</v>
+        <v>0.222739</v>
       </c>
       <c r="D86" t="n">
-        <v>0.212436</v>
+        <v>0.212302</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214064</v>
+        <v>0.213665</v>
       </c>
       <c r="C87" t="n">
-        <v>0.21602</v>
+        <v>0.215851</v>
       </c>
       <c r="D87" t="n">
-        <v>0.205581</v>
+        <v>0.205349</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20787</v>
+        <v>0.207354</v>
       </c>
       <c r="C88" t="n">
-        <v>0.20899</v>
+        <v>0.209266</v>
       </c>
       <c r="D88" t="n">
-        <v>0.199633</v>
+        <v>0.199495</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.202017</v>
+        <v>0.201957</v>
       </c>
       <c r="C89" t="n">
-        <v>0.203223</v>
+        <v>0.203027</v>
       </c>
       <c r="D89" t="n">
-        <v>0.194404</v>
+        <v>0.194074</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196776</v>
+        <v>0.196865</v>
       </c>
       <c r="C90" t="n">
-        <v>0.197892</v>
+        <v>0.197788</v>
       </c>
       <c r="D90" t="n">
-        <v>0.18927</v>
+        <v>0.18954</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192811</v>
+        <v>0.192762</v>
       </c>
       <c r="C91" t="n">
-        <v>0.193033</v>
+        <v>0.193202</v>
       </c>
       <c r="D91" t="n">
-        <v>0.18613</v>
+        <v>0.18619</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189798</v>
+        <v>0.189919</v>
       </c>
       <c r="C92" t="n">
-        <v>0.18935</v>
+        <v>0.189449</v>
       </c>
       <c r="D92" t="n">
-        <v>0.184269</v>
+        <v>0.184069</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.191982</v>
+        <v>0.188736</v>
       </c>
       <c r="C93" t="n">
-        <v>0.187165</v>
+        <v>0.187178</v>
       </c>
       <c r="D93" t="n">
-        <v>0.184079</v>
+        <v>0.184092</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189461</v>
+        <v>0.189493</v>
       </c>
       <c r="C94" t="n">
-        <v>0.187003</v>
+        <v>0.186749</v>
       </c>
       <c r="D94" t="n">
-        <v>0.28116</v>
+        <v>0.278816</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.270531</v>
+        <v>0.270533</v>
       </c>
       <c r="C95" t="n">
-        <v>0.282645</v>
+        <v>0.279698</v>
       </c>
       <c r="D95" t="n">
-        <v>0.27504</v>
+        <v>0.272173</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.264583</v>
+        <v>0.265338</v>
       </c>
       <c r="C96" t="n">
-        <v>0.275615</v>
+        <v>0.273151</v>
       </c>
       <c r="D96" t="n">
-        <v>0.266651</v>
+        <v>0.264395</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257533</v>
+        <v>0.258406</v>
       </c>
       <c r="C97" t="n">
-        <v>0.268257</v>
+        <v>0.265504</v>
       </c>
       <c r="D97" t="n">
-        <v>0.258633</v>
+        <v>0.256777</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.25059</v>
+        <v>0.251562</v>
       </c>
       <c r="C98" t="n">
-        <v>0.260323</v>
+        <v>0.257809</v>
       </c>
       <c r="D98" t="n">
-        <v>0.251083</v>
+        <v>0.249202</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244859</v>
+        <v>0.245112</v>
       </c>
       <c r="C99" t="n">
-        <v>0.252153</v>
+        <v>0.250737</v>
       </c>
       <c r="D99" t="n">
-        <v>0.242778</v>
+        <v>0.242169</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238655</v>
+        <v>0.238761</v>
       </c>
       <c r="C100" t="n">
-        <v>0.244459</v>
+        <v>0.243754</v>
       </c>
       <c r="D100" t="n">
-        <v>0.235553</v>
+        <v>0.235071</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2334</v>
+        <v>0.23331</v>
       </c>
       <c r="C101" t="n">
-        <v>0.237656</v>
+        <v>0.237081</v>
       </c>
       <c r="D101" t="n">
-        <v>0.229556</v>
+        <v>0.228798</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228237</v>
+        <v>0.227795</v>
       </c>
       <c r="C102" t="n">
-        <v>0.231864</v>
+        <v>0.230956</v>
       </c>
       <c r="D102" t="n">
-        <v>0.223116</v>
+        <v>0.223349</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222594</v>
+        <v>0.222679</v>
       </c>
       <c r="C103" t="n">
-        <v>0.226076</v>
+        <v>0.233512</v>
       </c>
       <c r="D103" t="n">
-        <v>0.218861</v>
+        <v>0.218024</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218189</v>
+        <v>0.217968</v>
       </c>
       <c r="C104" t="n">
-        <v>0.221061</v>
+        <v>0.220556</v>
       </c>
       <c r="D104" t="n">
-        <v>0.214035</v>
+        <v>0.214208</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214201</v>
+        <v>0.213995</v>
       </c>
       <c r="C105" t="n">
-        <v>0.216926</v>
+        <v>0.217599</v>
       </c>
       <c r="D105" t="n">
-        <v>0.210008</v>
+        <v>0.21163</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210874</v>
+        <v>0.211173</v>
       </c>
       <c r="C106" t="n">
-        <v>0.213632</v>
+        <v>0.214368</v>
       </c>
       <c r="D106" t="n">
-        <v>0.207962</v>
+        <v>0.208517</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208753</v>
+        <v>0.208917</v>
       </c>
       <c r="C107" t="n">
-        <v>0.210999</v>
+        <v>0.21149</v>
       </c>
       <c r="D107" t="n">
-        <v>0.206796</v>
+        <v>0.20746</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208492</v>
+        <v>0.208539</v>
       </c>
       <c r="C108" t="n">
-        <v>0.209829</v>
+        <v>0.210858</v>
       </c>
       <c r="D108" t="n">
-        <v>0.302233</v>
+        <v>0.304052</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210717</v>
+        <v>0.210657</v>
       </c>
       <c r="C109" t="n">
-        <v>0.21145</v>
+        <v>0.212687</v>
       </c>
       <c r="D109" t="n">
-        <v>0.295278</v>
+        <v>0.29762</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285027</v>
+        <v>0.296873</v>
       </c>
       <c r="C110" t="n">
-        <v>0.296872</v>
+        <v>0.299381</v>
       </c>
       <c r="D110" t="n">
-        <v>0.288183</v>
+        <v>0.290122</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278487</v>
+        <v>0.289822</v>
       </c>
       <c r="C111" t="n">
-        <v>0.289188</v>
+        <v>0.291653</v>
       </c>
       <c r="D111" t="n">
-        <v>0.279732</v>
+        <v>0.282483</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272119</v>
+        <v>0.282893</v>
       </c>
       <c r="C112" t="n">
-        <v>0.281928</v>
+        <v>0.284032</v>
       </c>
       <c r="D112" t="n">
-        <v>0.273725</v>
+        <v>0.275649</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266201</v>
+        <v>0.276467</v>
       </c>
       <c r="C113" t="n">
-        <v>0.27488</v>
+        <v>0.2773</v>
       </c>
       <c r="D113" t="n">
-        <v>0.267363</v>
+        <v>0.269345</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260833</v>
+        <v>0.27006</v>
       </c>
       <c r="C114" t="n">
-        <v>0.268741</v>
+        <v>0.268101</v>
       </c>
       <c r="D114" t="n">
-        <v>0.261277</v>
+        <v>0.26065</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255239</v>
+        <v>0.264608</v>
       </c>
       <c r="C115" t="n">
-        <v>0.262687</v>
+        <v>0.262479</v>
       </c>
       <c r="D115" t="n">
-        <v>0.255793</v>
+        <v>0.255766</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250212</v>
+        <v>0.259434</v>
       </c>
       <c r="C116" t="n">
-        <v>0.257291</v>
+        <v>0.257141</v>
       </c>
       <c r="D116" t="n">
-        <v>0.250618</v>
+        <v>0.250688</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2456</v>
+        <v>0.254254</v>
       </c>
       <c r="C117" t="n">
-        <v>0.252375</v>
+        <v>0.251988</v>
       </c>
       <c r="D117" t="n">
-        <v>0.246528</v>
+        <v>0.246021</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241654</v>
+        <v>0.24947</v>
       </c>
       <c r="C118" t="n">
-        <v>0.247964</v>
+        <v>0.247602</v>
       </c>
       <c r="D118" t="n">
-        <v>0.241906</v>
+        <v>0.242039</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237399</v>
+        <v>0.245413</v>
       </c>
       <c r="C119" t="n">
-        <v>0.243971</v>
+        <v>0.243633</v>
       </c>
       <c r="D119" t="n">
-        <v>0.238325</v>
+        <v>0.238801</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234709</v>
+        <v>0.241593</v>
       </c>
       <c r="C120" t="n">
-        <v>0.241078</v>
+        <v>0.240518</v>
       </c>
       <c r="D120" t="n">
-        <v>0.236736</v>
+        <v>0.236189</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232449</v>
+        <v>0.239254</v>
       </c>
       <c r="C121" t="n">
-        <v>0.238535</v>
+        <v>0.238236</v>
       </c>
       <c r="D121" t="n">
-        <v>0.23571</v>
+        <v>0.235442</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231274</v>
+        <v>0.23789</v>
       </c>
       <c r="C122" t="n">
-        <v>0.237619</v>
+        <v>0.237429</v>
       </c>
       <c r="D122" t="n">
-        <v>0.237293</v>
+        <v>0.237473</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232568</v>
+        <v>0.238933</v>
       </c>
       <c r="C123" t="n">
-        <v>0.239117</v>
+        <v>0.238993</v>
       </c>
       <c r="D123" t="n">
-        <v>0.326029</v>
+        <v>0.325641</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.318067</v>
+        <v>0.334818</v>
       </c>
       <c r="C124" t="n">
-        <v>0.325243</v>
+        <v>0.324768</v>
       </c>
       <c r="D124" t="n">
-        <v>0.320132</v>
+        <v>0.319285</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.312426</v>
+        <v>0.328311</v>
       </c>
       <c r="C125" t="n">
-        <v>0.318394</v>
+        <v>0.318392</v>
       </c>
       <c r="D125" t="n">
-        <v>0.31432</v>
+        <v>0.313337</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.306369</v>
+        <v>0.321777</v>
       </c>
       <c r="C126" t="n">
-        <v>0.312839</v>
+        <v>0.312031</v>
       </c>
       <c r="D126" t="n">
-        <v>0.30878</v>
+        <v>0.30929</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.301554</v>
+        <v>0.315622</v>
       </c>
       <c r="C127" t="n">
-        <v>0.307185</v>
+        <v>0.307179</v>
       </c>
       <c r="D127" t="n">
-        <v>0.304536</v>
+        <v>0.303333</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.296222</v>
+        <v>0.309825</v>
       </c>
       <c r="C128" t="n">
-        <v>0.302245</v>
+        <v>0.301695</v>
       </c>
       <c r="D128" t="n">
-        <v>0.300349</v>
+        <v>0.299266</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.291345</v>
+        <v>0.305233</v>
       </c>
       <c r="C129" t="n">
-        <v>0.297669</v>
+        <v>0.297231</v>
       </c>
       <c r="D129" t="n">
-        <v>0.296389</v>
+        <v>0.294746</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.287388</v>
+        <v>0.299586</v>
       </c>
       <c r="C130" t="n">
-        <v>0.293523</v>
+        <v>0.292469</v>
       </c>
       <c r="D130" t="n">
-        <v>0.292359</v>
+        <v>0.290968</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.283246</v>
+        <v>0.294811</v>
       </c>
       <c r="C131" t="n">
-        <v>0.290105</v>
+        <v>0.289181</v>
       </c>
       <c r="D131" t="n">
-        <v>0.289946</v>
+        <v>0.28811</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.279423</v>
+        <v>0.290697</v>
       </c>
       <c r="C132" t="n">
-        <v>0.28694</v>
+        <v>0.285457</v>
       </c>
       <c r="D132" t="n">
-        <v>0.28669</v>
+        <v>0.285219</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276074</v>
+        <v>0.286889</v>
       </c>
       <c r="C133" t="n">
-        <v>0.284313</v>
+        <v>0.282946</v>
       </c>
       <c r="D133" t="n">
-        <v>0.285244</v>
+        <v>0.283834</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.273048</v>
+        <v>0.28334</v>
       </c>
       <c r="C134" t="n">
-        <v>0.282225</v>
+        <v>0.281045</v>
       </c>
       <c r="D134" t="n">
-        <v>0.283624</v>
+        <v>0.282266</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270995</v>
+        <v>0.281109</v>
       </c>
       <c r="C135" t="n">
-        <v>0.281085</v>
+        <v>0.279402</v>
       </c>
       <c r="D135" t="n">
-        <v>0.283677</v>
+        <v>0.281037</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.270803</v>
+        <v>0.279357</v>
       </c>
       <c r="C136" t="n">
-        <v>0.280567</v>
+        <v>0.279699</v>
       </c>
       <c r="D136" t="n">
-        <v>0.286021</v>
+        <v>0.283957</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.271687</v>
+        <v>0.280374</v>
       </c>
       <c r="C137" t="n">
-        <v>0.283357</v>
+        <v>0.281632</v>
       </c>
       <c r="D137" t="n">
-        <v>0.387125</v>
+        <v>0.384651</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.370755</v>
+        <v>0.37858</v>
       </c>
       <c r="C138" t="n">
-        <v>0.382694</v>
+        <v>0.381249</v>
       </c>
       <c r="D138" t="n">
-        <v>0.380095</v>
+        <v>0.378609</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.365202</v>
+        <v>0.371996</v>
       </c>
       <c r="C139" t="n">
-        <v>0.375013</v>
+        <v>0.374341</v>
       </c>
       <c r="D139" t="n">
-        <v>0.373193</v>
+        <v>0.371217</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.359187</v>
+        <v>0.364794</v>
       </c>
       <c r="C140" t="n">
-        <v>0.368962</v>
+        <v>0.367034</v>
       </c>
       <c r="D140" t="n">
-        <v>0.367914</v>
+        <v>0.365041</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.353464</v>
+        <v>0.359412</v>
       </c>
       <c r="C141" t="n">
-        <v>0.363254</v>
+        <v>0.361141</v>
       </c>
       <c r="D141" t="n">
-        <v>0.361596</v>
+        <v>0.361405</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.348631</v>
+        <v>0.354476</v>
       </c>
       <c r="C142" t="n">
-        <v>0.356756</v>
+        <v>0.355924</v>
       </c>
       <c r="D142" t="n">
-        <v>0.35633</v>
+        <v>0.355417</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.343889</v>
+        <v>0.349247</v>
       </c>
       <c r="C143" t="n">
-        <v>0.351802</v>
+        <v>0.35041</v>
       </c>
       <c r="D143" t="n">
-        <v>0.351879</v>
+        <v>0.350338</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.177103</v>
+        <v>0.177031</v>
       </c>
       <c r="C2" t="n">
-        <v>0.185882</v>
+        <v>0.179168</v>
       </c>
       <c r="D2" t="n">
-        <v>0.164989</v>
+        <v>0.179309</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.170769</v>
+        <v>0.168798</v>
       </c>
       <c r="C3" t="n">
-        <v>0.166965</v>
+        <v>0.179274</v>
       </c>
       <c r="D3" t="n">
-        <v>0.160375</v>
+        <v>0.172876</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.166142</v>
+        <v>0.165032</v>
       </c>
       <c r="C4" t="n">
-        <v>0.161171</v>
+        <v>0.167249</v>
       </c>
       <c r="D4" t="n">
-        <v>0.164811</v>
+        <v>0.170144</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.163418</v>
+        <v>0.161018</v>
       </c>
       <c r="C5" t="n">
-        <v>0.169245</v>
+        <v>0.169724</v>
       </c>
       <c r="D5" t="n">
-        <v>0.163675</v>
+        <v>0.164357</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.159342</v>
+        <v>0.156925</v>
       </c>
       <c r="C6" t="n">
-        <v>0.163051</v>
+        <v>0.163321</v>
       </c>
       <c r="D6" t="n">
-        <v>0.143156</v>
+        <v>0.157916</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.157575</v>
+        <v>0.156896</v>
       </c>
       <c r="C7" t="n">
-        <v>0.161575</v>
+        <v>0.160884</v>
       </c>
       <c r="D7" t="n">
-        <v>0.157753</v>
+        <v>0.159606</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.15674</v>
+        <v>0.154853</v>
       </c>
       <c r="C8" t="n">
-        <v>0.158493</v>
+        <v>0.162018</v>
       </c>
       <c r="D8" t="n">
-        <v>0.155475</v>
+        <v>0.157178</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158459</v>
+        <v>0.159114</v>
       </c>
       <c r="C9" t="n">
-        <v>0.158034</v>
+        <v>0.15972</v>
       </c>
       <c r="D9" t="n">
-        <v>0.23448</v>
+        <v>0.231687</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.223294</v>
+        <v>0.224405</v>
       </c>
       <c r="C10" t="n">
-        <v>0.23653</v>
+        <v>0.233002</v>
       </c>
       <c r="D10" t="n">
-        <v>0.226126</v>
+        <v>0.224273</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.215953</v>
+        <v>0.213804</v>
       </c>
       <c r="C11" t="n">
-        <v>0.226821</v>
+        <v>0.222917</v>
       </c>
       <c r="D11" t="n">
-        <v>0.216531</v>
+        <v>0.215025</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.207695</v>
+        <v>0.207088</v>
       </c>
       <c r="C12" t="n">
-        <v>0.218744</v>
+        <v>0.214734</v>
       </c>
       <c r="D12" t="n">
-        <v>0.208225</v>
+        <v>0.207677</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.199775</v>
+        <v>0.198971</v>
       </c>
       <c r="C13" t="n">
-        <v>0.210679</v>
+        <v>0.207301</v>
       </c>
       <c r="D13" t="n">
-        <v>0.201236</v>
+        <v>0.19929</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.192941</v>
+        <v>0.192367</v>
       </c>
       <c r="C14" t="n">
-        <v>0.20324</v>
+        <v>0.19917</v>
       </c>
       <c r="D14" t="n">
-        <v>0.194884</v>
+        <v>0.193633</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.186446</v>
+        <v>0.186105</v>
       </c>
       <c r="C15" t="n">
-        <v>0.195531</v>
+        <v>0.193382</v>
       </c>
       <c r="D15" t="n">
-        <v>0.186649</v>
+        <v>0.186228</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.18026</v>
+        <v>0.178821</v>
       </c>
       <c r="C16" t="n">
-        <v>0.189026</v>
+        <v>0.186104</v>
       </c>
       <c r="D16" t="n">
-        <v>0.181528</v>
+        <v>0.180266</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.174567</v>
+        <v>0.174732</v>
       </c>
       <c r="C17" t="n">
-        <v>0.183153</v>
+        <v>0.180823</v>
       </c>
       <c r="D17" t="n">
-        <v>0.177232</v>
+        <v>0.174467</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.169493</v>
+        <v>0.169205</v>
       </c>
       <c r="C18" t="n">
-        <v>0.177544</v>
+        <v>0.176595</v>
       </c>
       <c r="D18" t="n">
-        <v>0.171976</v>
+        <v>0.17072</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.165219</v>
+        <v>0.165118</v>
       </c>
       <c r="C19" t="n">
-        <v>0.173374</v>
+        <v>0.171164</v>
       </c>
       <c r="D19" t="n">
-        <v>0.168303</v>
+        <v>0.166442</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.16161</v>
+        <v>0.16289</v>
       </c>
       <c r="C20" t="n">
-        <v>0.169189</v>
+        <v>0.167776</v>
       </c>
       <c r="D20" t="n">
-        <v>0.165077</v>
+        <v>0.162841</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.159907</v>
+        <v>0.161013</v>
       </c>
       <c r="C21" t="n">
-        <v>0.16582</v>
+        <v>0.164596</v>
       </c>
       <c r="D21" t="n">
-        <v>0.163708</v>
+        <v>0.161761</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.159128</v>
+        <v>0.159363</v>
       </c>
       <c r="C22" t="n">
-        <v>0.164233</v>
+        <v>0.163452</v>
       </c>
       <c r="D22" t="n">
-        <v>0.16379</v>
+        <v>0.161989</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.160781</v>
+        <v>0.160305</v>
       </c>
       <c r="C23" t="n">
-        <v>0.164247</v>
+        <v>0.16381</v>
       </c>
       <c r="D23" t="n">
-        <v>0.247022</v>
+        <v>0.238247</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243103</v>
+        <v>0.244457</v>
       </c>
       <c r="C24" t="n">
-        <v>0.244635</v>
+        <v>0.238213</v>
       </c>
       <c r="D24" t="n">
-        <v>0.236871</v>
+        <v>0.229664</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234216</v>
+        <v>0.234589</v>
       </c>
       <c r="C25" t="n">
-        <v>0.235358</v>
+        <v>0.229159</v>
       </c>
       <c r="D25" t="n">
-        <v>0.225935</v>
+        <v>0.220452</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.225542</v>
+        <v>0.226013</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22676</v>
+        <v>0.220745</v>
       </c>
       <c r="D26" t="n">
-        <v>0.219312</v>
+        <v>0.212295</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.217428</v>
+        <v>0.217353</v>
       </c>
       <c r="C27" t="n">
-        <v>0.220316</v>
+        <v>0.212459</v>
       </c>
       <c r="D27" t="n">
-        <v>0.212389</v>
+        <v>0.204679</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.209367</v>
+        <v>0.210872</v>
       </c>
       <c r="C28" t="n">
-        <v>0.211573</v>
+        <v>0.205455</v>
       </c>
       <c r="D28" t="n">
-        <v>0.204943</v>
+        <v>0.197481</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.202343</v>
+        <v>0.202775</v>
       </c>
       <c r="C29" t="n">
-        <v>0.203959</v>
+        <v>0.19827</v>
       </c>
       <c r="D29" t="n">
-        <v>0.201371</v>
+        <v>0.190984</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.198768</v>
+        <v>0.19661</v>
       </c>
       <c r="C30" t="n">
-        <v>0.200846</v>
+        <v>0.19214</v>
       </c>
       <c r="D30" t="n">
-        <v>0.195311</v>
+        <v>0.18449</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1923</v>
+        <v>0.191448</v>
       </c>
       <c r="C31" t="n">
-        <v>0.194543</v>
+        <v>0.185678</v>
       </c>
       <c r="D31" t="n">
-        <v>0.194134</v>
+        <v>0.178484</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.186745</v>
+        <v>0.184487</v>
       </c>
       <c r="C32" t="n">
-        <v>0.190141</v>
+        <v>0.17998</v>
       </c>
       <c r="D32" t="n">
-        <v>0.18237</v>
+        <v>0.173491</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.181214</v>
+        <v>0.17961</v>
       </c>
       <c r="C33" t="n">
-        <v>0.182905</v>
+        <v>0.174942</v>
       </c>
       <c r="D33" t="n">
-        <v>0.182111</v>
+        <v>0.169271</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.17822</v>
+        <v>0.175581</v>
       </c>
       <c r="C34" t="n">
-        <v>0.182193</v>
+        <v>0.170546</v>
       </c>
       <c r="D34" t="n">
-        <v>0.181232</v>
+        <v>0.16579</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.174957</v>
+        <v>0.17294</v>
       </c>
       <c r="C35" t="n">
-        <v>0.174321</v>
+        <v>0.167122</v>
       </c>
       <c r="D35" t="n">
-        <v>0.171855</v>
+        <v>0.163775</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.173361</v>
+        <v>0.171129</v>
       </c>
       <c r="C36" t="n">
-        <v>0.172087</v>
+        <v>0.165102</v>
       </c>
       <c r="D36" t="n">
-        <v>0.167128</v>
+        <v>0.163644</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1721</v>
+        <v>0.172966</v>
       </c>
       <c r="C37" t="n">
-        <v>0.169655</v>
+        <v>0.165042</v>
       </c>
       <c r="D37" t="n">
-        <v>0.252265</v>
+        <v>0.244005</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244053</v>
+        <v>0.244703</v>
       </c>
       <c r="C38" t="n">
-        <v>0.252265</v>
+        <v>0.243064</v>
       </c>
       <c r="D38" t="n">
-        <v>0.242468</v>
+        <v>0.235009</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.234901</v>
+        <v>0.23526</v>
       </c>
       <c r="C39" t="n">
-        <v>0.242777</v>
+        <v>0.233698</v>
       </c>
       <c r="D39" t="n">
-        <v>0.233209</v>
+        <v>0.225803</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.226144</v>
+        <v>0.22691</v>
       </c>
       <c r="C40" t="n">
-        <v>0.23402</v>
+        <v>0.225208</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224279</v>
+        <v>0.217681</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.218434</v>
+        <v>0.218527</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225594</v>
+        <v>0.217135</v>
       </c>
       <c r="D41" t="n">
-        <v>0.215946</v>
+        <v>0.209864</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.210807</v>
+        <v>0.211114</v>
       </c>
       <c r="C42" t="n">
-        <v>0.217689</v>
+        <v>0.209161</v>
       </c>
       <c r="D42" t="n">
-        <v>0.208917</v>
+        <v>0.202342</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.203757</v>
+        <v>0.203711</v>
       </c>
       <c r="C43" t="n">
-        <v>0.209991</v>
+        <v>0.201924</v>
       </c>
       <c r="D43" t="n">
-        <v>0.203025</v>
+        <v>0.195224</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.196668</v>
+        <v>0.197752</v>
       </c>
       <c r="C44" t="n">
-        <v>0.202844</v>
+        <v>0.195095</v>
       </c>
       <c r="D44" t="n">
-        <v>0.196385</v>
+        <v>0.188655</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190855</v>
+        <v>0.191081</v>
       </c>
       <c r="C45" t="n">
-        <v>0.19673</v>
+        <v>0.189041</v>
       </c>
       <c r="D45" t="n">
-        <v>0.189766</v>
+        <v>0.182961</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.185185</v>
+        <v>0.185576</v>
       </c>
       <c r="C46" t="n">
-        <v>0.190691</v>
+        <v>0.183743</v>
       </c>
       <c r="D46" t="n">
-        <v>0.184675</v>
+        <v>0.177573</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.180585</v>
+        <v>0.180736</v>
       </c>
       <c r="C47" t="n">
-        <v>0.185225</v>
+        <v>0.17831</v>
       </c>
       <c r="D47" t="n">
-        <v>0.179003</v>
+        <v>0.173346</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.176982</v>
+        <v>0.176677</v>
       </c>
       <c r="C48" t="n">
-        <v>0.180917</v>
+        <v>0.174242</v>
       </c>
       <c r="D48" t="n">
-        <v>0.174435</v>
+        <v>0.169894</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173987</v>
+        <v>0.174275</v>
       </c>
       <c r="C49" t="n">
-        <v>0.177299</v>
+        <v>0.170633</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17202</v>
+        <v>0.167401</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.17289</v>
+        <v>0.172208</v>
       </c>
       <c r="C50" t="n">
-        <v>0.17457</v>
+        <v>0.168156</v>
       </c>
       <c r="D50" t="n">
-        <v>0.17119</v>
+        <v>0.166588</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173311</v>
+        <v>0.173104</v>
       </c>
       <c r="C51" t="n">
-        <v>0.173636</v>
+        <v>0.167436</v>
       </c>
       <c r="D51" t="n">
-        <v>0.257627</v>
+        <v>0.251594</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176441</v>
+        <v>0.176776</v>
       </c>
       <c r="C52" t="n">
-        <v>0.175096</v>
+        <v>0.169092</v>
       </c>
       <c r="D52" t="n">
-        <v>0.247863</v>
+        <v>0.242253</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242506</v>
+        <v>0.242896</v>
       </c>
       <c r="C53" t="n">
-        <v>0.251624</v>
+        <v>0.24118</v>
       </c>
       <c r="D53" t="n">
-        <v>0.238868</v>
+        <v>0.231466</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233415</v>
+        <v>0.233858</v>
       </c>
       <c r="C54" t="n">
-        <v>0.242255</v>
+        <v>0.232416</v>
       </c>
       <c r="D54" t="n">
-        <v>0.229969</v>
+        <v>0.224784</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.225476</v>
+        <v>0.225563</v>
       </c>
       <c r="C55" t="n">
-        <v>0.233453</v>
+        <v>0.224051</v>
       </c>
       <c r="D55" t="n">
-        <v>0.22172</v>
+        <v>0.21667</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.217332</v>
+        <v>0.21794</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225206</v>
+        <v>0.215984</v>
       </c>
       <c r="D56" t="n">
-        <v>0.213812</v>
+        <v>0.209168</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.209912</v>
+        <v>0.210547</v>
       </c>
       <c r="C57" t="n">
-        <v>0.217569</v>
+        <v>0.208984</v>
       </c>
       <c r="D57" t="n">
-        <v>0.206737</v>
+        <v>0.201221</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.202952</v>
+        <v>0.20316</v>
       </c>
       <c r="C58" t="n">
-        <v>0.210236</v>
+        <v>0.201838</v>
       </c>
       <c r="D58" t="n">
-        <v>0.199238</v>
+        <v>0.194342</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196977</v>
+        <v>0.197156</v>
       </c>
       <c r="C59" t="n">
-        <v>0.203325</v>
+        <v>0.195417</v>
       </c>
       <c r="D59" t="n">
-        <v>0.193756</v>
+        <v>0.188429</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.191192</v>
+        <v>0.19159</v>
       </c>
       <c r="C60" t="n">
-        <v>0.197255</v>
+        <v>0.189467</v>
       </c>
       <c r="D60" t="n">
-        <v>0.189098</v>
+        <v>0.182963</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.185984</v>
+        <v>0.186118</v>
       </c>
       <c r="C61" t="n">
-        <v>0.191559</v>
+        <v>0.183851</v>
       </c>
       <c r="D61" t="n">
-        <v>0.182982</v>
+        <v>0.178103</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.181808</v>
+        <v>0.182119</v>
       </c>
       <c r="C62" t="n">
-        <v>0.187043</v>
+        <v>0.179215</v>
       </c>
       <c r="D62" t="n">
-        <v>0.179083</v>
+        <v>0.174458</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178795</v>
+        <v>0.179241</v>
       </c>
       <c r="C63" t="n">
-        <v>0.182303</v>
+        <v>0.175658</v>
       </c>
       <c r="D63" t="n">
-        <v>0.17611</v>
+        <v>0.17161</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177519</v>
+        <v>0.177346</v>
       </c>
       <c r="C64" t="n">
-        <v>0.179285</v>
+        <v>0.172686</v>
       </c>
       <c r="D64" t="n">
-        <v>0.175402</v>
+        <v>0.17046</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177091</v>
+        <v>0.177198</v>
       </c>
       <c r="C65" t="n">
-        <v>0.177833</v>
+        <v>0.171665</v>
       </c>
       <c r="D65" t="n">
-        <v>0.177193</v>
+        <v>0.171578</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179594</v>
+        <v>0.179796</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179205</v>
+        <v>0.172707</v>
       </c>
       <c r="D66" t="n">
-        <v>0.255687</v>
+        <v>0.250215</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.243682</v>
+        <v>0.242862</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259609</v>
+        <v>0.250558</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246495</v>
+        <v>0.241049</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.23553</v>
+        <v>0.235398</v>
       </c>
       <c r="C68" t="n">
-        <v>0.250377</v>
+        <v>0.240922</v>
       </c>
       <c r="D68" t="n">
-        <v>0.237355</v>
+        <v>0.232059</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.226954</v>
+        <v>0.225808</v>
       </c>
       <c r="C69" t="n">
-        <v>0.241401</v>
+        <v>0.232407</v>
       </c>
       <c r="D69" t="n">
-        <v>0.227508</v>
+        <v>0.223486</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.218443</v>
+        <v>0.220303</v>
       </c>
       <c r="C70" t="n">
-        <v>0.232978</v>
+        <v>0.224103</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218837</v>
+        <v>0.215601</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.212392</v>
+        <v>0.212775</v>
       </c>
       <c r="C71" t="n">
-        <v>0.224618</v>
+        <v>0.216475</v>
       </c>
       <c r="D71" t="n">
-        <v>0.21242</v>
+        <v>0.210068</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.207042</v>
+        <v>0.204077</v>
       </c>
       <c r="C72" t="n">
-        <v>0.217065</v>
+        <v>0.211844</v>
       </c>
       <c r="D72" t="n">
-        <v>0.205834</v>
+        <v>0.203889</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.201013</v>
+        <v>0.200218</v>
       </c>
       <c r="C73" t="n">
-        <v>0.210055</v>
+        <v>0.204909</v>
       </c>
       <c r="D73" t="n">
-        <v>0.199507</v>
+        <v>0.196784</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.195622</v>
+        <v>0.193618</v>
       </c>
       <c r="C74" t="n">
-        <v>0.20332</v>
+        <v>0.198328</v>
       </c>
       <c r="D74" t="n">
-        <v>0.193454</v>
+        <v>0.191227</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.190251</v>
+        <v>0.188858</v>
       </c>
       <c r="C75" t="n">
-        <v>0.197407</v>
+        <v>0.19266</v>
       </c>
       <c r="D75" t="n">
-        <v>0.188102</v>
+        <v>0.185862</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185784</v>
+        <v>0.184404</v>
       </c>
       <c r="C76" t="n">
-        <v>0.192055</v>
+        <v>0.187597</v>
       </c>
       <c r="D76" t="n">
-        <v>0.182888</v>
+        <v>0.180869</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182275</v>
+        <v>0.181724</v>
       </c>
       <c r="C77" t="n">
-        <v>0.187652</v>
+        <v>0.181356</v>
       </c>
       <c r="D77" t="n">
-        <v>0.180322</v>
+        <v>0.176216</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.180425</v>
+        <v>0.179626</v>
       </c>
       <c r="C78" t="n">
-        <v>0.184216</v>
+        <v>0.178193</v>
       </c>
       <c r="D78" t="n">
-        <v>0.178506</v>
+        <v>0.174998</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180026</v>
+        <v>0.17941</v>
       </c>
       <c r="C79" t="n">
-        <v>0.18254</v>
+        <v>0.176359</v>
       </c>
       <c r="D79" t="n">
-        <v>0.179797</v>
+        <v>0.175374</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.182017</v>
+        <v>0.181212</v>
       </c>
       <c r="C80" t="n">
-        <v>0.182612</v>
+        <v>0.176775</v>
       </c>
       <c r="D80" t="n">
-        <v>0.260524</v>
+        <v>0.255885</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258166</v>
+        <v>0.257664</v>
       </c>
       <c r="C81" t="n">
-        <v>0.263118</v>
+        <v>0.254404</v>
       </c>
       <c r="D81" t="n">
-        <v>0.251764</v>
+        <v>0.246649</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249667</v>
+        <v>0.24998</v>
       </c>
       <c r="C82" t="n">
-        <v>0.254947</v>
+        <v>0.246428</v>
       </c>
       <c r="D82" t="n">
-        <v>0.24313</v>
+        <v>0.237893</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242334</v>
+        <v>0.242215</v>
       </c>
       <c r="C83" t="n">
-        <v>0.24662</v>
+        <v>0.238984</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234773</v>
+        <v>0.229686</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234311</v>
+        <v>0.234531</v>
       </c>
       <c r="C84" t="n">
-        <v>0.238318</v>
+        <v>0.231259</v>
       </c>
       <c r="D84" t="n">
-        <v>0.226794</v>
+        <v>0.222052</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227474</v>
+        <v>0.226965</v>
       </c>
       <c r="C85" t="n">
-        <v>0.230287</v>
+        <v>0.22369</v>
       </c>
       <c r="D85" t="n">
-        <v>0.219213</v>
+        <v>0.214766</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220321</v>
+        <v>0.220185</v>
       </c>
       <c r="C86" t="n">
-        <v>0.222739</v>
+        <v>0.216772</v>
       </c>
       <c r="D86" t="n">
-        <v>0.212302</v>
+        <v>0.207102</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213665</v>
+        <v>0.213919</v>
       </c>
       <c r="C87" t="n">
-        <v>0.215851</v>
+        <v>0.209659</v>
       </c>
       <c r="D87" t="n">
-        <v>0.205349</v>
+        <v>0.201181</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207354</v>
+        <v>0.207649</v>
       </c>
       <c r="C88" t="n">
-        <v>0.209266</v>
+        <v>0.203908</v>
       </c>
       <c r="D88" t="n">
-        <v>0.199495</v>
+        <v>0.195336</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201957</v>
+        <v>0.20227</v>
       </c>
       <c r="C89" t="n">
-        <v>0.203027</v>
+        <v>0.197911</v>
       </c>
       <c r="D89" t="n">
-        <v>0.194074</v>
+        <v>0.190252</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196865</v>
+        <v>0.196977</v>
       </c>
       <c r="C90" t="n">
-        <v>0.197788</v>
+        <v>0.193457</v>
       </c>
       <c r="D90" t="n">
-        <v>0.18954</v>
+        <v>0.185516</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192762</v>
+        <v>0.193516</v>
       </c>
       <c r="C91" t="n">
-        <v>0.193202</v>
+        <v>0.188949</v>
       </c>
       <c r="D91" t="n">
-        <v>0.18619</v>
+        <v>0.182301</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189919</v>
+        <v>0.190011</v>
       </c>
       <c r="C92" t="n">
-        <v>0.189449</v>
+        <v>0.185737</v>
       </c>
       <c r="D92" t="n">
-        <v>0.184069</v>
+        <v>0.18028</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188736</v>
+        <v>0.188674</v>
       </c>
       <c r="C93" t="n">
-        <v>0.187178</v>
+        <v>0.18359</v>
       </c>
       <c r="D93" t="n">
-        <v>0.184092</v>
+        <v>0.180853</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189493</v>
+        <v>0.189803</v>
       </c>
       <c r="C94" t="n">
-        <v>0.186749</v>
+        <v>0.183273</v>
       </c>
       <c r="D94" t="n">
-        <v>0.278816</v>
+        <v>0.275098</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.270533</v>
+        <v>0.269859</v>
       </c>
       <c r="C95" t="n">
-        <v>0.279698</v>
+        <v>0.273563</v>
       </c>
       <c r="D95" t="n">
-        <v>0.272173</v>
+        <v>0.266832</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265338</v>
+        <v>0.264435</v>
       </c>
       <c r="C96" t="n">
-        <v>0.273151</v>
+        <v>0.266787</v>
       </c>
       <c r="D96" t="n">
-        <v>0.264395</v>
+        <v>0.259353</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258406</v>
+        <v>0.25749</v>
       </c>
       <c r="C97" t="n">
-        <v>0.265504</v>
+        <v>0.260044</v>
       </c>
       <c r="D97" t="n">
-        <v>0.256777</v>
+        <v>0.251505</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251562</v>
+        <v>0.250751</v>
       </c>
       <c r="C98" t="n">
-        <v>0.257809</v>
+        <v>0.252532</v>
       </c>
       <c r="D98" t="n">
-        <v>0.249202</v>
+        <v>0.244457</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245112</v>
+        <v>0.245144</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250737</v>
+        <v>0.245903</v>
       </c>
       <c r="D99" t="n">
-        <v>0.242169</v>
+        <v>0.23654</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238761</v>
+        <v>0.238106</v>
       </c>
       <c r="C100" t="n">
-        <v>0.243754</v>
+        <v>0.239051</v>
       </c>
       <c r="D100" t="n">
-        <v>0.235071</v>
+        <v>0.229668</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.23331</v>
+        <v>0.232883</v>
       </c>
       <c r="C101" t="n">
-        <v>0.237081</v>
+        <v>0.232066</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228798</v>
+        <v>0.223308</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227795</v>
+        <v>0.227635</v>
       </c>
       <c r="C102" t="n">
-        <v>0.230956</v>
+        <v>0.226788</v>
       </c>
       <c r="D102" t="n">
-        <v>0.223349</v>
+        <v>0.21729</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222679</v>
+        <v>0.221629</v>
       </c>
       <c r="C103" t="n">
-        <v>0.233512</v>
+        <v>0.221716</v>
       </c>
       <c r="D103" t="n">
-        <v>0.218024</v>
+        <v>0.212215</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.217968</v>
+        <v>0.217813</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220556</v>
+        <v>0.217095</v>
       </c>
       <c r="D104" t="n">
-        <v>0.214208</v>
+        <v>0.207005</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.213995</v>
+        <v>0.213478</v>
       </c>
       <c r="C105" t="n">
-        <v>0.217599</v>
+        <v>0.212449</v>
       </c>
       <c r="D105" t="n">
-        <v>0.21163</v>
+        <v>0.203244</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211173</v>
+        <v>0.210253</v>
       </c>
       <c r="C106" t="n">
-        <v>0.214368</v>
+        <v>0.208828</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208517</v>
+        <v>0.200784</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208917</v>
+        <v>0.208828</v>
       </c>
       <c r="C107" t="n">
-        <v>0.21149</v>
+        <v>0.206405</v>
       </c>
       <c r="D107" t="n">
-        <v>0.20746</v>
+        <v>0.199203</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208539</v>
+        <v>0.208217</v>
       </c>
       <c r="C108" t="n">
-        <v>0.210858</v>
+        <v>0.206118</v>
       </c>
       <c r="D108" t="n">
-        <v>0.304052</v>
+        <v>0.293341</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210657</v>
+        <v>0.210107</v>
       </c>
       <c r="C109" t="n">
-        <v>0.212687</v>
+        <v>0.207802</v>
       </c>
       <c r="D109" t="n">
-        <v>0.29762</v>
+        <v>0.287328</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.296873</v>
+        <v>0.284204</v>
       </c>
       <c r="C110" t="n">
-        <v>0.299381</v>
+        <v>0.290608</v>
       </c>
       <c r="D110" t="n">
-        <v>0.290122</v>
+        <v>0.279769</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.289822</v>
+        <v>0.277287</v>
       </c>
       <c r="C111" t="n">
-        <v>0.291653</v>
+        <v>0.283302</v>
       </c>
       <c r="D111" t="n">
-        <v>0.282483</v>
+        <v>0.271704</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.282893</v>
+        <v>0.27085</v>
       </c>
       <c r="C112" t="n">
-        <v>0.284032</v>
+        <v>0.276149</v>
       </c>
       <c r="D112" t="n">
-        <v>0.275649</v>
+        <v>0.264161</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.276467</v>
+        <v>0.264721</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2773</v>
+        <v>0.269559</v>
       </c>
       <c r="D113" t="n">
-        <v>0.269345</v>
+        <v>0.257639</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.27006</v>
+        <v>0.259977</v>
       </c>
       <c r="C114" t="n">
-        <v>0.268101</v>
+        <v>0.263475</v>
       </c>
       <c r="D114" t="n">
-        <v>0.26065</v>
+        <v>0.251483</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.264608</v>
+        <v>0.2546</v>
       </c>
       <c r="C115" t="n">
-        <v>0.262479</v>
+        <v>0.257251</v>
       </c>
       <c r="D115" t="n">
-        <v>0.255766</v>
+        <v>0.245441</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.259434</v>
+        <v>0.249501</v>
       </c>
       <c r="C116" t="n">
-        <v>0.257141</v>
+        <v>0.252437</v>
       </c>
       <c r="D116" t="n">
-        <v>0.250688</v>
+        <v>0.239574</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.254254</v>
+        <v>0.244963</v>
       </c>
       <c r="C117" t="n">
-        <v>0.251988</v>
+        <v>0.246794</v>
       </c>
       <c r="D117" t="n">
-        <v>0.246021</v>
+        <v>0.235047</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.24947</v>
+        <v>0.24076</v>
       </c>
       <c r="C118" t="n">
-        <v>0.247602</v>
+        <v>0.242901</v>
       </c>
       <c r="D118" t="n">
-        <v>0.242039</v>
+        <v>0.230437</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.245413</v>
+        <v>0.236939</v>
       </c>
       <c r="C119" t="n">
-        <v>0.243633</v>
+        <v>0.238501</v>
       </c>
       <c r="D119" t="n">
-        <v>0.238801</v>
+        <v>0.226108</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.241593</v>
+        <v>0.233873</v>
       </c>
       <c r="C120" t="n">
-        <v>0.240518</v>
+        <v>0.234968</v>
       </c>
       <c r="D120" t="n">
-        <v>0.236189</v>
+        <v>0.223256</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.239254</v>
+        <v>0.232339</v>
       </c>
       <c r="C121" t="n">
-        <v>0.238236</v>
+        <v>0.232561</v>
       </c>
       <c r="D121" t="n">
-        <v>0.235442</v>
+        <v>0.221987</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.23789</v>
+        <v>0.230996</v>
       </c>
       <c r="C122" t="n">
-        <v>0.237429</v>
+        <v>0.231197</v>
       </c>
       <c r="D122" t="n">
-        <v>0.237473</v>
+        <v>0.22314</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.238933</v>
+        <v>0.231825</v>
       </c>
       <c r="C123" t="n">
-        <v>0.238993</v>
+        <v>0.232367</v>
       </c>
       <c r="D123" t="n">
-        <v>0.325641</v>
+        <v>0.310915</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.334818</v>
+        <v>0.323223</v>
       </c>
       <c r="C124" t="n">
-        <v>0.324768</v>
+        <v>0.3166</v>
       </c>
       <c r="D124" t="n">
-        <v>0.319285</v>
+        <v>0.304137</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.328311</v>
+        <v>0.317285</v>
       </c>
       <c r="C125" t="n">
-        <v>0.318392</v>
+        <v>0.310699</v>
       </c>
       <c r="D125" t="n">
-        <v>0.313337</v>
+        <v>0.297908</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.321777</v>
+        <v>0.310851</v>
       </c>
       <c r="C126" t="n">
-        <v>0.312031</v>
+        <v>0.304716</v>
       </c>
       <c r="D126" t="n">
-        <v>0.30929</v>
+        <v>0.292634</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.315622</v>
+        <v>0.305181</v>
       </c>
       <c r="C127" t="n">
-        <v>0.307179</v>
+        <v>0.299453</v>
       </c>
       <c r="D127" t="n">
-        <v>0.303333</v>
+        <v>0.286934</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.309825</v>
+        <v>0.300144</v>
       </c>
       <c r="C128" t="n">
-        <v>0.301695</v>
+        <v>0.294572</v>
       </c>
       <c r="D128" t="n">
-        <v>0.299266</v>
+        <v>0.281794</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.305233</v>
+        <v>0.295089</v>
       </c>
       <c r="C129" t="n">
-        <v>0.297231</v>
+        <v>0.290078</v>
       </c>
       <c r="D129" t="n">
-        <v>0.294746</v>
+        <v>0.276852</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.299586</v>
+        <v>0.290423</v>
       </c>
       <c r="C130" t="n">
-        <v>0.292469</v>
+        <v>0.285391</v>
       </c>
       <c r="D130" t="n">
-        <v>0.290968</v>
+        <v>0.272378</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.294811</v>
+        <v>0.285354</v>
       </c>
       <c r="C131" t="n">
-        <v>0.289181</v>
+        <v>0.281301</v>
       </c>
       <c r="D131" t="n">
-        <v>0.28811</v>
+        <v>0.268102</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.290697</v>
+        <v>0.282444</v>
       </c>
       <c r="C132" t="n">
-        <v>0.285457</v>
+        <v>0.277655</v>
       </c>
       <c r="D132" t="n">
-        <v>0.285219</v>
+        <v>0.26506</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.286889</v>
+        <v>0.279169</v>
       </c>
       <c r="C133" t="n">
-        <v>0.282946</v>
+        <v>0.275034</v>
       </c>
       <c r="D133" t="n">
-        <v>0.283834</v>
+        <v>0.261593</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.28334</v>
+        <v>0.27602</v>
       </c>
       <c r="C134" t="n">
-        <v>0.281045</v>
+        <v>0.272421</v>
       </c>
       <c r="D134" t="n">
-        <v>0.282266</v>
+        <v>0.258666</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.281109</v>
+        <v>0.273511</v>
       </c>
       <c r="C135" t="n">
-        <v>0.279402</v>
+        <v>0.269811</v>
       </c>
       <c r="D135" t="n">
-        <v>0.281037</v>
+        <v>0.257858</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.279357</v>
+        <v>0.272777</v>
       </c>
       <c r="C136" t="n">
-        <v>0.279699</v>
+        <v>0.269269</v>
       </c>
       <c r="D136" t="n">
-        <v>0.283957</v>
+        <v>0.258104</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.280374</v>
+        <v>0.273333</v>
       </c>
       <c r="C137" t="n">
-        <v>0.281632</v>
+        <v>0.27004</v>
       </c>
       <c r="D137" t="n">
-        <v>0.384651</v>
+        <v>0.357809</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.37858</v>
+        <v>0.370973</v>
       </c>
       <c r="C138" t="n">
-        <v>0.381249</v>
+        <v>0.365147</v>
       </c>
       <c r="D138" t="n">
-        <v>0.378609</v>
+        <v>0.351657</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.371996</v>
+        <v>0.364252</v>
       </c>
       <c r="C139" t="n">
-        <v>0.374341</v>
+        <v>0.360564</v>
       </c>
       <c r="D139" t="n">
-        <v>0.371217</v>
+        <v>0.347455</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.364794</v>
+        <v>0.361484</v>
       </c>
       <c r="C140" t="n">
-        <v>0.367034</v>
+        <v>0.356805</v>
       </c>
       <c r="D140" t="n">
-        <v>0.365041</v>
+        <v>0.342601</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.359412</v>
+        <v>0.355197</v>
       </c>
       <c r="C141" t="n">
-        <v>0.361141</v>
+        <v>0.350839</v>
       </c>
       <c r="D141" t="n">
-        <v>0.361405</v>
+        <v>0.337731</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.354476</v>
+        <v>0.349265</v>
       </c>
       <c r="C142" t="n">
-        <v>0.355924</v>
+        <v>0.346313</v>
       </c>
       <c r="D142" t="n">
-        <v>0.355417</v>
+        <v>0.332965</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.349247</v>
+        <v>0.344829</v>
       </c>
       <c r="C143" t="n">
-        <v>0.35041</v>
+        <v>0.341497</v>
       </c>
       <c r="D143" t="n">
-        <v>0.350338</v>
+        <v>0.328953</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.176046</v>
+        <v>0.162533</v>
       </c>
       <c r="C2" t="n">
-        <v>0.184573</v>
+        <v>0.160275</v>
       </c>
       <c r="D2" t="n">
-        <v>0.176492</v>
+        <v>0.157004</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.168904</v>
+        <v>0.161373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.171236</v>
+        <v>0.148684</v>
       </c>
       <c r="D3" t="n">
-        <v>0.175117</v>
+        <v>0.147488</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.164519</v>
+        <v>0.160424</v>
       </c>
       <c r="C4" t="n">
-        <v>0.16434</v>
+        <v>0.149483</v>
       </c>
       <c r="D4" t="n">
-        <v>0.159902</v>
+        <v>0.150634</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.160162</v>
+        <v>0.152585</v>
       </c>
       <c r="C5" t="n">
-        <v>0.169822</v>
+        <v>0.14368</v>
       </c>
       <c r="D5" t="n">
-        <v>0.163825</v>
+        <v>0.147198</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.156567</v>
+        <v>0.151805</v>
       </c>
       <c r="C6" t="n">
-        <v>0.168151</v>
+        <v>0.141468</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161777</v>
+        <v>0.13939</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.156822</v>
+        <v>0.149659</v>
       </c>
       <c r="C7" t="n">
-        <v>0.14781</v>
+        <v>0.14077</v>
       </c>
       <c r="D7" t="n">
-        <v>0.144454</v>
+        <v>0.144335</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.156268</v>
+        <v>0.151334</v>
       </c>
       <c r="C8" t="n">
-        <v>0.154734</v>
+        <v>0.139954</v>
       </c>
       <c r="D8" t="n">
-        <v>0.146533</v>
+        <v>0.136074</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.156355</v>
+        <v>0.152681</v>
       </c>
       <c r="C9" t="n">
-        <v>0.162675</v>
+        <v>0.136748</v>
       </c>
       <c r="D9" t="n">
-        <v>0.229853</v>
+        <v>0.205386</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.224904</v>
+        <v>0.219246</v>
       </c>
       <c r="C10" t="n">
-        <v>0.233162</v>
+        <v>0.20921</v>
       </c>
       <c r="D10" t="n">
-        <v>0.222776</v>
+        <v>0.20696</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.216876</v>
+        <v>0.217198</v>
       </c>
       <c r="C11" t="n">
-        <v>0.225283</v>
+        <v>0.195367</v>
       </c>
       <c r="D11" t="n">
-        <v>0.214592</v>
+        <v>0.202242</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.207154</v>
+        <v>0.205235</v>
       </c>
       <c r="C12" t="n">
-        <v>0.216388</v>
+        <v>0.195519</v>
       </c>
       <c r="D12" t="n">
-        <v>0.20586</v>
+        <v>0.196077</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.200452</v>
+        <v>0.19526</v>
       </c>
       <c r="C13" t="n">
-        <v>0.209824</v>
+        <v>0.192706</v>
       </c>
       <c r="D13" t="n">
-        <v>0.19722</v>
+        <v>0.192775</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.193195</v>
+        <v>0.190177</v>
       </c>
       <c r="C14" t="n">
-        <v>0.202558</v>
+        <v>0.186261</v>
       </c>
       <c r="D14" t="n">
-        <v>0.191634</v>
+        <v>0.181105</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.186282</v>
+        <v>0.183033</v>
       </c>
       <c r="C15" t="n">
-        <v>0.194513</v>
+        <v>0.18026</v>
       </c>
       <c r="D15" t="n">
-        <v>0.185049</v>
+        <v>0.175371</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.180534</v>
+        <v>0.181828</v>
       </c>
       <c r="C16" t="n">
-        <v>0.188881</v>
+        <v>0.173838</v>
       </c>
       <c r="D16" t="n">
-        <v>0.178834</v>
+        <v>0.172018</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.176491</v>
+        <v>0.173799</v>
       </c>
       <c r="C17" t="n">
-        <v>0.183561</v>
+        <v>0.170947</v>
       </c>
       <c r="D17" t="n">
-        <v>0.173884</v>
+        <v>0.164994</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.169983</v>
+        <v>0.165078</v>
       </c>
       <c r="C18" t="n">
-        <v>0.178722</v>
+        <v>0.163278</v>
       </c>
       <c r="D18" t="n">
-        <v>0.169099</v>
+        <v>0.162367</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.16707</v>
+        <v>0.164499</v>
       </c>
       <c r="C19" t="n">
-        <v>0.174242</v>
+        <v>0.161194</v>
       </c>
       <c r="D19" t="n">
-        <v>0.165385</v>
+        <v>0.159799</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.162836</v>
+        <v>0.161318</v>
       </c>
       <c r="C20" t="n">
-        <v>0.170649</v>
+        <v>0.157464</v>
       </c>
       <c r="D20" t="n">
-        <v>0.162708</v>
+        <v>0.156755</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.161006</v>
+        <v>0.158905</v>
       </c>
       <c r="C21" t="n">
-        <v>0.168151</v>
+        <v>0.156936</v>
       </c>
       <c r="D21" t="n">
-        <v>0.161137</v>
+        <v>0.154526</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.161169</v>
+        <v>0.1541</v>
       </c>
       <c r="C22" t="n">
-        <v>0.166972</v>
+        <v>0.153228</v>
       </c>
       <c r="D22" t="n">
-        <v>0.160151</v>
+        <v>0.154167</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161335</v>
+        <v>0.163064</v>
       </c>
       <c r="C23" t="n">
-        <v>0.167966</v>
+        <v>0.156857</v>
       </c>
       <c r="D23" t="n">
-        <v>0.237818</v>
+        <v>0.241597</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.244106</v>
+        <v>0.238015</v>
       </c>
       <c r="C24" t="n">
-        <v>0.240735</v>
+        <v>0.241354</v>
       </c>
       <c r="D24" t="n">
-        <v>0.227718</v>
+        <v>0.232469</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234358</v>
+        <v>0.232106</v>
       </c>
       <c r="C25" t="n">
-        <v>0.232096</v>
+        <v>0.231947</v>
       </c>
       <c r="D25" t="n">
-        <v>0.220818</v>
+        <v>0.223284</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.225677</v>
+        <v>0.2233</v>
       </c>
       <c r="C26" t="n">
-        <v>0.223839</v>
+        <v>0.224935</v>
       </c>
       <c r="D26" t="n">
-        <v>0.212391</v>
+        <v>0.214663</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.217252</v>
+        <v>0.208616</v>
       </c>
       <c r="C27" t="n">
-        <v>0.216219</v>
+        <v>0.217646</v>
       </c>
       <c r="D27" t="n">
-        <v>0.206816</v>
+        <v>0.213686</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.210189</v>
+        <v>0.208719</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208296</v>
+        <v>0.219446</v>
       </c>
       <c r="D28" t="n">
-        <v>0.196721</v>
+        <v>0.206515</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.204142</v>
+        <v>0.199833</v>
       </c>
       <c r="C29" t="n">
-        <v>0.201586</v>
+        <v>0.208414</v>
       </c>
       <c r="D29" t="n">
-        <v>0.190371</v>
+        <v>0.195121</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.196302</v>
+        <v>0.193594</v>
       </c>
       <c r="C30" t="n">
-        <v>0.195319</v>
+        <v>0.195932</v>
       </c>
       <c r="D30" t="n">
-        <v>0.187663</v>
+        <v>0.183475</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.189717</v>
+        <v>0.181158</v>
       </c>
       <c r="C31" t="n">
-        <v>0.188927</v>
+        <v>0.183409</v>
       </c>
       <c r="D31" t="n">
-        <v>0.18149</v>
+        <v>0.17696</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.183957</v>
+        <v>0.180044</v>
       </c>
       <c r="C32" t="n">
-        <v>0.184501</v>
+        <v>0.180293</v>
       </c>
       <c r="D32" t="n">
-        <v>0.18171</v>
+        <v>0.173067</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.182397</v>
+        <v>0.172852</v>
       </c>
       <c r="C33" t="n">
-        <v>0.180996</v>
+        <v>0.17449</v>
       </c>
       <c r="D33" t="n">
-        <v>0.175766</v>
+        <v>0.169039</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.178456</v>
+        <v>0.168823</v>
       </c>
       <c r="C34" t="n">
-        <v>0.176715</v>
+        <v>0.171307</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171558</v>
+        <v>0.165786</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.175146</v>
+        <v>0.170318</v>
       </c>
       <c r="C35" t="n">
-        <v>0.173147</v>
+        <v>0.167319</v>
       </c>
       <c r="D35" t="n">
-        <v>0.166498</v>
+        <v>0.163429</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.173925</v>
+        <v>0.167974</v>
       </c>
       <c r="C36" t="n">
-        <v>0.170908</v>
+        <v>0.164601</v>
       </c>
       <c r="D36" t="n">
-        <v>0.166567</v>
+        <v>0.162717</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.175365</v>
+        <v>0.164585</v>
       </c>
       <c r="C37" t="n">
-        <v>0.170961</v>
+        <v>0.164438</v>
       </c>
       <c r="D37" t="n">
-        <v>0.25137</v>
+        <v>0.242448</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.249035</v>
+        <v>0.240483</v>
       </c>
       <c r="C38" t="n">
-        <v>0.249928</v>
+        <v>0.242923</v>
       </c>
       <c r="D38" t="n">
-        <v>0.253179</v>
+        <v>0.233596</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239468</v>
+        <v>0.231607</v>
       </c>
       <c r="C39" t="n">
-        <v>0.241625</v>
+        <v>0.236427</v>
       </c>
       <c r="D39" t="n">
-        <v>0.234788</v>
+        <v>0.22438</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.231565</v>
+        <v>0.225565</v>
       </c>
       <c r="C40" t="n">
-        <v>0.232373</v>
+        <v>0.22608</v>
       </c>
       <c r="D40" t="n">
-        <v>0.228162</v>
+        <v>0.215766</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.222437</v>
+        <v>0.215694</v>
       </c>
       <c r="C41" t="n">
-        <v>0.223856</v>
+        <v>0.218716</v>
       </c>
       <c r="D41" t="n">
-        <v>0.229474</v>
+        <v>0.208997</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.214765</v>
+        <v>0.20824</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219341</v>
+        <v>0.21122</v>
       </c>
       <c r="D42" t="n">
-        <v>0.22218</v>
+        <v>0.201208</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.207916</v>
+        <v>0.202151</v>
       </c>
       <c r="C43" t="n">
-        <v>0.208879</v>
+        <v>0.20266</v>
       </c>
       <c r="D43" t="n">
-        <v>0.204007</v>
+        <v>0.194973</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.200046</v>
+        <v>0.193535</v>
       </c>
       <c r="C44" t="n">
-        <v>0.203018</v>
+        <v>0.19683</v>
       </c>
       <c r="D44" t="n">
-        <v>0.193844</v>
+        <v>0.188339</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.191871</v>
+        <v>0.189574</v>
       </c>
       <c r="C45" t="n">
-        <v>0.192887</v>
+        <v>0.19014</v>
       </c>
       <c r="D45" t="n">
-        <v>0.186955</v>
+        <v>0.182818</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.185602</v>
+        <v>0.183808</v>
       </c>
       <c r="C46" t="n">
-        <v>0.187591</v>
+        <v>0.184544</v>
       </c>
       <c r="D46" t="n">
-        <v>0.183693</v>
+        <v>0.17805</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.181182</v>
+        <v>0.178351</v>
       </c>
       <c r="C47" t="n">
-        <v>0.182013</v>
+        <v>0.180585</v>
       </c>
       <c r="D47" t="n">
-        <v>0.177272</v>
+        <v>0.173741</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.177266</v>
+        <v>0.174726</v>
       </c>
       <c r="C48" t="n">
-        <v>0.177452</v>
+        <v>0.176342</v>
       </c>
       <c r="D48" t="n">
-        <v>0.173913</v>
+        <v>0.1694</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174802</v>
+        <v>0.172672</v>
       </c>
       <c r="C49" t="n">
-        <v>0.17414</v>
+        <v>0.171536</v>
       </c>
       <c r="D49" t="n">
-        <v>0.170175</v>
+        <v>0.167581</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.17301</v>
+        <v>0.170276</v>
       </c>
       <c r="C50" t="n">
-        <v>0.171528</v>
+        <v>0.169133</v>
       </c>
       <c r="D50" t="n">
-        <v>0.169708</v>
+        <v>0.164816</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174284</v>
+        <v>0.171326</v>
       </c>
       <c r="C51" t="n">
-        <v>0.170993</v>
+        <v>0.168765</v>
       </c>
       <c r="D51" t="n">
-        <v>0.255285</v>
+        <v>0.2449</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.177066</v>
+        <v>0.175397</v>
       </c>
       <c r="C52" t="n">
-        <v>0.172503</v>
+        <v>0.170514</v>
       </c>
       <c r="D52" t="n">
-        <v>0.246354</v>
+        <v>0.235965</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243158</v>
+        <v>0.241605</v>
       </c>
       <c r="C53" t="n">
-        <v>0.244273</v>
+        <v>0.241309</v>
       </c>
       <c r="D53" t="n">
-        <v>0.236783</v>
+        <v>0.227247</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.235244</v>
+        <v>0.233036</v>
       </c>
       <c r="C54" t="n">
-        <v>0.235526</v>
+        <v>0.232538</v>
       </c>
       <c r="D54" t="n">
-        <v>0.228407</v>
+        <v>0.219627</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.227671</v>
+        <v>0.22457</v>
       </c>
       <c r="C55" t="n">
-        <v>0.231223</v>
+        <v>0.224854</v>
       </c>
       <c r="D55" t="n">
-        <v>0.22326</v>
+        <v>0.211459</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.218456</v>
+        <v>0.216796</v>
       </c>
       <c r="C56" t="n">
-        <v>0.219223</v>
+        <v>0.216888</v>
       </c>
       <c r="D56" t="n">
-        <v>0.212206</v>
+        <v>0.204261</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.211241</v>
+        <v>0.209752</v>
       </c>
       <c r="C57" t="n">
-        <v>0.211655</v>
+        <v>0.209319</v>
       </c>
       <c r="D57" t="n">
-        <v>0.205052</v>
+        <v>0.197327</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.204571</v>
+        <v>0.20224</v>
       </c>
       <c r="C58" t="n">
-        <v>0.204827</v>
+        <v>0.202624</v>
       </c>
       <c r="D58" t="n">
-        <v>0.198134</v>
+        <v>0.191235</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.198459</v>
+        <v>0.195716</v>
       </c>
       <c r="C59" t="n">
-        <v>0.198775</v>
+        <v>0.196082</v>
       </c>
       <c r="D59" t="n">
-        <v>0.192299</v>
+        <v>0.185404</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.192334</v>
+        <v>0.190119</v>
       </c>
       <c r="C60" t="n">
-        <v>0.192588</v>
+        <v>0.190537</v>
       </c>
       <c r="D60" t="n">
-        <v>0.186871</v>
+        <v>0.179964</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1865</v>
+        <v>0.185283</v>
       </c>
       <c r="C61" t="n">
-        <v>0.187274</v>
+        <v>0.185148</v>
       </c>
       <c r="D61" t="n">
-        <v>0.182196</v>
+        <v>0.175914</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.18324</v>
+        <v>0.180773</v>
       </c>
       <c r="C62" t="n">
-        <v>0.182554</v>
+        <v>0.180234</v>
       </c>
       <c r="D62" t="n">
-        <v>0.178306</v>
+        <v>0.171809</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.180213</v>
+        <v>0.178091</v>
       </c>
       <c r="C63" t="n">
-        <v>0.178741</v>
+        <v>0.176622</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1755</v>
+        <v>0.169884</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.178417</v>
+        <v>0.176477</v>
       </c>
       <c r="C64" t="n">
-        <v>0.176131</v>
+        <v>0.174313</v>
       </c>
       <c r="D64" t="n">
-        <v>0.174791</v>
+        <v>0.169201</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178702</v>
+        <v>0.176418</v>
       </c>
       <c r="C65" t="n">
-        <v>0.174597</v>
+        <v>0.173195</v>
       </c>
       <c r="D65" t="n">
-        <v>0.176382</v>
+        <v>0.17085</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180327</v>
+        <v>0.179399</v>
       </c>
       <c r="C66" t="n">
-        <v>0.175996</v>
+        <v>0.174462</v>
       </c>
       <c r="D66" t="n">
-        <v>0.252821</v>
+        <v>0.244196</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.245981</v>
+        <v>0.244254</v>
       </c>
       <c r="C67" t="n">
-        <v>0.254276</v>
+        <v>0.249706</v>
       </c>
       <c r="D67" t="n">
-        <v>0.244486</v>
+        <v>0.234938</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237391</v>
+        <v>0.237165</v>
       </c>
       <c r="C68" t="n">
-        <v>0.244725</v>
+        <v>0.240971</v>
       </c>
       <c r="D68" t="n">
-        <v>0.236163</v>
+        <v>0.226451</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.22918</v>
+        <v>0.228081</v>
       </c>
       <c r="C69" t="n">
-        <v>0.235769</v>
+        <v>0.232419</v>
       </c>
       <c r="D69" t="n">
-        <v>0.227307</v>
+        <v>0.217694</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.221432</v>
+        <v>0.219578</v>
       </c>
       <c r="C70" t="n">
-        <v>0.227612</v>
+        <v>0.224063</v>
       </c>
       <c r="D70" t="n">
-        <v>0.219065</v>
+        <v>0.21068</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213115</v>
+        <v>0.21283</v>
       </c>
       <c r="C71" t="n">
-        <v>0.219854</v>
+        <v>0.216289</v>
       </c>
       <c r="D71" t="n">
-        <v>0.211732</v>
+        <v>0.20319</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.206485</v>
+        <v>0.206123</v>
       </c>
       <c r="C72" t="n">
-        <v>0.212368</v>
+        <v>0.209488</v>
       </c>
       <c r="D72" t="n">
-        <v>0.204136</v>
+        <v>0.196859</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.198859</v>
+        <v>0.2</v>
       </c>
       <c r="C73" t="n">
-        <v>0.205619</v>
+        <v>0.203154</v>
       </c>
       <c r="D73" t="n">
-        <v>0.198039</v>
+        <v>0.190645</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.194451</v>
+        <v>0.193969</v>
       </c>
       <c r="C74" t="n">
-        <v>0.199291</v>
+        <v>0.196386</v>
       </c>
       <c r="D74" t="n">
-        <v>0.192355</v>
+        <v>0.185221</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18909</v>
+        <v>0.18896</v>
       </c>
       <c r="C75" t="n">
-        <v>0.193644</v>
+        <v>0.191112</v>
       </c>
       <c r="D75" t="n">
-        <v>0.187369</v>
+        <v>0.180492</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.184458</v>
+        <v>0.184142</v>
       </c>
       <c r="C76" t="n">
-        <v>0.188726</v>
+        <v>0.186014</v>
       </c>
       <c r="D76" t="n">
-        <v>0.183007</v>
+        <v>0.176331</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181636</v>
+        <v>0.181355</v>
       </c>
       <c r="C77" t="n">
-        <v>0.184313</v>
+        <v>0.181863</v>
       </c>
       <c r="D77" t="n">
-        <v>0.179728</v>
+        <v>0.173475</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.178397</v>
+        <v>0.179257</v>
       </c>
       <c r="C78" t="n">
-        <v>0.181209</v>
+        <v>0.178546</v>
       </c>
       <c r="D78" t="n">
-        <v>0.178261</v>
+        <v>0.1722</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178478</v>
+        <v>0.179365</v>
       </c>
       <c r="C79" t="n">
-        <v>0.179574</v>
+        <v>0.177511</v>
       </c>
       <c r="D79" t="n">
-        <v>0.179467</v>
+        <v>0.173163</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.18021</v>
+        <v>0.181433</v>
       </c>
       <c r="C80" t="n">
-        <v>0.179974</v>
+        <v>0.178023</v>
       </c>
       <c r="D80" t="n">
-        <v>0.259224</v>
+        <v>0.249242</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257431</v>
+        <v>0.258047</v>
       </c>
       <c r="C81" t="n">
-        <v>0.257555</v>
+        <v>0.253407</v>
       </c>
       <c r="D81" t="n">
-        <v>0.250134</v>
+        <v>0.241033</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249149</v>
+        <v>0.250505</v>
       </c>
       <c r="C82" t="n">
-        <v>0.249433</v>
+        <v>0.245414</v>
       </c>
       <c r="D82" t="n">
-        <v>0.241254</v>
+        <v>0.232576</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242244</v>
+        <v>0.242178</v>
       </c>
       <c r="C83" t="n">
-        <v>0.240921</v>
+        <v>0.237603</v>
       </c>
       <c r="D83" t="n">
-        <v>0.233555</v>
+        <v>0.225008</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234731</v>
+        <v>0.234695</v>
       </c>
       <c r="C84" t="n">
-        <v>0.233558</v>
+        <v>0.229544</v>
       </c>
       <c r="D84" t="n">
-        <v>0.224851</v>
+        <v>0.21674</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.226928</v>
+        <v>0.227638</v>
       </c>
       <c r="C85" t="n">
-        <v>0.225628</v>
+        <v>0.222292</v>
       </c>
       <c r="D85" t="n">
-        <v>0.217796</v>
+        <v>0.209533</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220045</v>
+        <v>0.221078</v>
       </c>
       <c r="C86" t="n">
-        <v>0.218489</v>
+        <v>0.215304</v>
       </c>
       <c r="D86" t="n">
-        <v>0.21094</v>
+        <v>0.203413</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213548</v>
+        <v>0.213893</v>
       </c>
       <c r="C87" t="n">
-        <v>0.212011</v>
+        <v>0.208508</v>
       </c>
       <c r="D87" t="n">
-        <v>0.204133</v>
+        <v>0.197392</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207711</v>
+        <v>0.207801</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205304</v>
+        <v>0.202367</v>
       </c>
       <c r="D88" t="n">
-        <v>0.198469</v>
+        <v>0.190759</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201621</v>
+        <v>0.202344</v>
       </c>
       <c r="C89" t="n">
-        <v>0.199439</v>
+        <v>0.19748</v>
       </c>
       <c r="D89" t="n">
-        <v>0.193249</v>
+        <v>0.187458</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19681</v>
+        <v>0.197877</v>
       </c>
       <c r="C90" t="n">
-        <v>0.194725</v>
+        <v>0.192603</v>
       </c>
       <c r="D90" t="n">
-        <v>0.188728</v>
+        <v>0.182596</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192627</v>
+        <v>0.192911</v>
       </c>
       <c r="C91" t="n">
-        <v>0.189827</v>
+        <v>0.188067</v>
       </c>
       <c r="D91" t="n">
-        <v>0.18505</v>
+        <v>0.179915</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189613</v>
+        <v>0.190496</v>
       </c>
       <c r="C92" t="n">
-        <v>0.186415</v>
+        <v>0.184648</v>
       </c>
       <c r="D92" t="n">
-        <v>0.183271</v>
+        <v>0.177664</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188552</v>
+        <v>0.188591</v>
       </c>
       <c r="C93" t="n">
-        <v>0.184324</v>
+        <v>0.182665</v>
       </c>
       <c r="D93" t="n">
-        <v>0.183193</v>
+        <v>0.178049</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189566</v>
+        <v>0.189555</v>
       </c>
       <c r="C94" t="n">
-        <v>0.184016</v>
+        <v>0.182379</v>
       </c>
       <c r="D94" t="n">
-        <v>0.275186</v>
+        <v>0.267673</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.269594</v>
+        <v>0.270673</v>
       </c>
       <c r="C95" t="n">
-        <v>0.27311</v>
+        <v>0.272203</v>
       </c>
       <c r="D95" t="n">
-        <v>0.26847</v>
+        <v>0.260761</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.263601</v>
+        <v>0.264601</v>
       </c>
       <c r="C96" t="n">
-        <v>0.26721</v>
+        <v>0.265926</v>
       </c>
       <c r="D96" t="n">
-        <v>0.261265</v>
+        <v>0.255296</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257401</v>
+        <v>0.257703</v>
       </c>
       <c r="C97" t="n">
-        <v>0.259847</v>
+        <v>0.258858</v>
       </c>
       <c r="D97" t="n">
-        <v>0.253623</v>
+        <v>0.247848</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.25034</v>
+        <v>0.251013</v>
       </c>
       <c r="C98" t="n">
-        <v>0.253689</v>
+        <v>0.251439</v>
       </c>
       <c r="D98" t="n">
-        <v>0.248523</v>
+        <v>0.239649</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244805</v>
+        <v>0.244835</v>
       </c>
       <c r="C99" t="n">
-        <v>0.246003</v>
+        <v>0.244877</v>
       </c>
       <c r="D99" t="n">
-        <v>0.239243</v>
+        <v>0.234303</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.23821</v>
+        <v>0.239355</v>
       </c>
       <c r="C100" t="n">
-        <v>0.239985</v>
+        <v>0.236014</v>
       </c>
       <c r="D100" t="n">
-        <v>0.233058</v>
+        <v>0.225748</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.232493</v>
+        <v>0.233381</v>
       </c>
       <c r="C101" t="n">
-        <v>0.233396</v>
+        <v>0.230104</v>
       </c>
       <c r="D101" t="n">
-        <v>0.227811</v>
+        <v>0.220666</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.226907</v>
+        <v>0.227505</v>
       </c>
       <c r="C102" t="n">
-        <v>0.226129</v>
+        <v>0.22446</v>
       </c>
       <c r="D102" t="n">
-        <v>0.221196</v>
+        <v>0.21499</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.221908</v>
+        <v>0.222755</v>
       </c>
       <c r="C103" t="n">
-        <v>0.22123</v>
+        <v>0.219394</v>
       </c>
       <c r="D103" t="n">
-        <v>0.216308</v>
+        <v>0.209984</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.21734</v>
+        <v>0.218193</v>
       </c>
       <c r="C104" t="n">
-        <v>0.216102</v>
+        <v>0.214448</v>
       </c>
       <c r="D104" t="n">
-        <v>0.21205</v>
+        <v>0.205956</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.213595</v>
+        <v>0.214403</v>
       </c>
       <c r="C105" t="n">
-        <v>0.212581</v>
+        <v>0.210632</v>
       </c>
       <c r="D105" t="n">
-        <v>0.207738</v>
+        <v>0.202585</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210735</v>
+        <v>0.210952</v>
       </c>
       <c r="C106" t="n">
-        <v>0.209421</v>
+        <v>0.207507</v>
       </c>
       <c r="D106" t="n">
-        <v>0.206159</v>
+        <v>0.200025</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208399</v>
+        <v>0.208774</v>
       </c>
       <c r="C107" t="n">
-        <v>0.208208</v>
+        <v>0.205487</v>
       </c>
       <c r="D107" t="n">
-        <v>0.205755</v>
+        <v>0.199948</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.207917</v>
+        <v>0.208696</v>
       </c>
       <c r="C108" t="n">
-        <v>0.208854</v>
+        <v>0.204709</v>
       </c>
       <c r="D108" t="n">
-        <v>0.301028</v>
+        <v>0.289416</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210662</v>
+        <v>0.21055</v>
       </c>
       <c r="C109" t="n">
-        <v>0.210597</v>
+        <v>0.207338</v>
       </c>
       <c r="D109" t="n">
-        <v>0.295099</v>
+        <v>0.283402</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.283386</v>
+        <v>0.285294</v>
       </c>
       <c r="C110" t="n">
-        <v>0.293489</v>
+        <v>0.287554</v>
       </c>
       <c r="D110" t="n">
-        <v>0.287124</v>
+        <v>0.276824</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277169</v>
+        <v>0.278625</v>
       </c>
       <c r="C111" t="n">
-        <v>0.286004</v>
+        <v>0.280264</v>
       </c>
       <c r="D111" t="n">
-        <v>0.279621</v>
+        <v>0.269481</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272211</v>
+        <v>0.27251</v>
       </c>
       <c r="C112" t="n">
-        <v>0.279744</v>
+        <v>0.273352</v>
       </c>
       <c r="D112" t="n">
-        <v>0.271797</v>
+        <v>0.263267</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266109</v>
+        <v>0.265871</v>
       </c>
       <c r="C113" t="n">
-        <v>0.270976</v>
+        <v>0.266478</v>
       </c>
       <c r="D113" t="n">
-        <v>0.264457</v>
+        <v>0.257379</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.259704</v>
+        <v>0.260322</v>
       </c>
       <c r="C114" t="n">
-        <v>0.263535</v>
+        <v>0.260921</v>
       </c>
       <c r="D114" t="n">
-        <v>0.258184</v>
+        <v>0.252287</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.254435</v>
+        <v>0.255186</v>
       </c>
       <c r="C115" t="n">
-        <v>0.25776</v>
+        <v>0.255277</v>
       </c>
       <c r="D115" t="n">
-        <v>0.252664</v>
+        <v>0.247055</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.24973</v>
+        <v>0.250281</v>
       </c>
       <c r="C116" t="n">
-        <v>0.252899</v>
+        <v>0.250438</v>
       </c>
       <c r="D116" t="n">
-        <v>0.247847</v>
+        <v>0.242341</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.244867</v>
+        <v>0.245829</v>
       </c>
       <c r="C117" t="n">
-        <v>0.247723</v>
+        <v>0.245646</v>
       </c>
       <c r="D117" t="n">
-        <v>0.243025</v>
+        <v>0.237971</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.240505</v>
+        <v>0.241664</v>
       </c>
       <c r="C118" t="n">
-        <v>0.242945</v>
+        <v>0.241805</v>
       </c>
       <c r="D118" t="n">
-        <v>0.240404</v>
+        <v>0.23398</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.236772</v>
+        <v>0.237918</v>
       </c>
       <c r="C119" t="n">
-        <v>0.239894</v>
+        <v>0.238002</v>
       </c>
       <c r="D119" t="n">
-        <v>0.234902</v>
+        <v>0.230995</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234022</v>
+        <v>0.234815</v>
       </c>
       <c r="C120" t="n">
-        <v>0.237406</v>
+        <v>0.235154</v>
       </c>
       <c r="D120" t="n">
-        <v>0.233742</v>
+        <v>0.229027</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.231373</v>
+        <v>0.232376</v>
       </c>
       <c r="C121" t="n">
-        <v>0.235216</v>
+        <v>0.233438</v>
       </c>
       <c r="D121" t="n">
-        <v>0.232753</v>
+        <v>0.228311</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231326</v>
+        <v>0.231417</v>
       </c>
       <c r="C122" t="n">
-        <v>0.234732</v>
+        <v>0.233515</v>
       </c>
       <c r="D122" t="n">
-        <v>0.234126</v>
+        <v>0.229531</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232282</v>
+        <v>0.232864</v>
       </c>
       <c r="C123" t="n">
-        <v>0.236436</v>
+        <v>0.235042</v>
       </c>
       <c r="D123" t="n">
-        <v>0.319636</v>
+        <v>0.312897</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.315109</v>
+        <v>0.316746</v>
       </c>
       <c r="C124" t="n">
-        <v>0.320474</v>
+        <v>0.316911</v>
       </c>
       <c r="D124" t="n">
-        <v>0.314481</v>
+        <v>0.307446</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.310747</v>
+        <v>0.311164</v>
       </c>
       <c r="C125" t="n">
-        <v>0.314199</v>
+        <v>0.310449</v>
       </c>
       <c r="D125" t="n">
-        <v>0.310389</v>
+        <v>0.303119</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.304591</v>
+        <v>0.306138</v>
       </c>
       <c r="C126" t="n">
-        <v>0.308956</v>
+        <v>0.305144</v>
       </c>
       <c r="D126" t="n">
-        <v>0.305967</v>
+        <v>0.297493</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.299293</v>
+        <v>0.300928</v>
       </c>
       <c r="C127" t="n">
-        <v>0.303527</v>
+        <v>0.299847</v>
       </c>
       <c r="D127" t="n">
-        <v>0.301378</v>
+        <v>0.29484</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.29413</v>
+        <v>0.295587</v>
       </c>
       <c r="C128" t="n">
-        <v>0.298277</v>
+        <v>0.295298</v>
       </c>
       <c r="D128" t="n">
-        <v>0.296668</v>
+        <v>0.290348</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.289592</v>
+        <v>0.290737</v>
       </c>
       <c r="C129" t="n">
-        <v>0.294</v>
+        <v>0.291242</v>
       </c>
       <c r="D129" t="n">
-        <v>0.292791</v>
+        <v>0.286965</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.285056</v>
+        <v>0.286486</v>
       </c>
       <c r="C130" t="n">
-        <v>0.290332</v>
+        <v>0.287368</v>
       </c>
       <c r="D130" t="n">
-        <v>0.289337</v>
+        <v>0.28594</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.281545</v>
+        <v>0.281853</v>
       </c>
       <c r="C131" t="n">
-        <v>0.286451</v>
+        <v>0.284061</v>
       </c>
       <c r="D131" t="n">
-        <v>0.286184</v>
+        <v>0.281254</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278212</v>
+        <v>0.278733</v>
       </c>
       <c r="C132" t="n">
-        <v>0.284049</v>
+        <v>0.281324</v>
       </c>
       <c r="D132" t="n">
-        <v>0.283878</v>
+        <v>0.278221</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.274191</v>
+        <v>0.275188</v>
       </c>
       <c r="C133" t="n">
-        <v>0.281186</v>
+        <v>0.278886</v>
       </c>
       <c r="D133" t="n">
-        <v>0.281957</v>
+        <v>0.276271</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.271486</v>
+        <v>0.273092</v>
       </c>
       <c r="C134" t="n">
-        <v>0.279465</v>
+        <v>0.277129</v>
       </c>
       <c r="D134" t="n">
-        <v>0.280045</v>
+        <v>0.275735</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.269427</v>
+        <v>0.270828</v>
       </c>
       <c r="C135" t="n">
-        <v>0.27845</v>
+        <v>0.27609</v>
       </c>
       <c r="D135" t="n">
-        <v>0.279902</v>
+        <v>0.275414</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.268554</v>
+        <v>0.2699</v>
       </c>
       <c r="C136" t="n">
-        <v>0.278794</v>
+        <v>0.276949</v>
       </c>
       <c r="D136" t="n">
-        <v>0.281172</v>
+        <v>0.276844</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.26985</v>
+        <v>0.270542</v>
       </c>
       <c r="C137" t="n">
-        <v>0.281414</v>
+        <v>0.279172</v>
       </c>
       <c r="D137" t="n">
-        <v>0.377557</v>
+        <v>0.370484</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358175</v>
+        <v>0.362714</v>
       </c>
       <c r="C138" t="n">
-        <v>0.376106</v>
+        <v>0.374277</v>
       </c>
       <c r="D138" t="n">
-        <v>0.371015</v>
+        <v>0.365351</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.352577</v>
+        <v>0.355863</v>
       </c>
       <c r="C139" t="n">
-        <v>0.369835</v>
+        <v>0.367921</v>
       </c>
       <c r="D139" t="n">
-        <v>0.366094</v>
+        <v>0.359672</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.348673</v>
+        <v>0.351204</v>
       </c>
       <c r="C140" t="n">
-        <v>0.363971</v>
+        <v>0.362269</v>
       </c>
       <c r="D140" t="n">
-        <v>0.35998</v>
+        <v>0.353383</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.344066</v>
+        <v>0.345858</v>
       </c>
       <c r="C141" t="n">
-        <v>0.35798</v>
+        <v>0.35587</v>
       </c>
       <c r="D141" t="n">
-        <v>0.354809</v>
+        <v>0.349755</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.339342</v>
+        <v>0.341047</v>
       </c>
       <c r="C142" t="n">
-        <v>0.352391</v>
+        <v>0.351298</v>
       </c>
       <c r="D142" t="n">
-        <v>0.349901</v>
+        <v>0.344567</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.334763</v>
+        <v>0.336961</v>
       </c>
       <c r="C143" t="n">
-        <v>0.347628</v>
+        <v>0.345943</v>
       </c>
       <c r="D143" t="n">
-        <v>0.344899</v>
+        <v>0.340318</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.162533</v>
+        <v>0.16383</v>
       </c>
       <c r="C2" t="n">
-        <v>0.160275</v>
+        <v>0.162424</v>
       </c>
       <c r="D2" t="n">
-        <v>0.157004</v>
+        <v>0.162819</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.161373</v>
+        <v>0.152812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.148684</v>
+        <v>0.159497</v>
       </c>
       <c r="D3" t="n">
-        <v>0.147488</v>
+        <v>0.158142</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.160424</v>
+        <v>0.159756</v>
       </c>
       <c r="C4" t="n">
-        <v>0.149483</v>
+        <v>0.154123</v>
       </c>
       <c r="D4" t="n">
-        <v>0.150634</v>
+        <v>0.156541</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.152585</v>
+        <v>0.15143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.14368</v>
+        <v>0.149493</v>
       </c>
       <c r="D5" t="n">
-        <v>0.147198</v>
+        <v>0.152833</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.151805</v>
+        <v>0.158513</v>
       </c>
       <c r="C6" t="n">
-        <v>0.141468</v>
+        <v>0.147169</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13939</v>
+        <v>0.144241</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.149659</v>
+        <v>0.147248</v>
       </c>
       <c r="C7" t="n">
-        <v>0.14077</v>
+        <v>0.139686</v>
       </c>
       <c r="D7" t="n">
-        <v>0.144335</v>
+        <v>0.141844</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.151334</v>
+        <v>0.157849</v>
       </c>
       <c r="C8" t="n">
-        <v>0.139954</v>
+        <v>0.134701</v>
       </c>
       <c r="D8" t="n">
-        <v>0.136074</v>
+        <v>0.136822</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152681</v>
+        <v>0.156061</v>
       </c>
       <c r="C9" t="n">
-        <v>0.136748</v>
+        <v>0.136954</v>
       </c>
       <c r="D9" t="n">
-        <v>0.205386</v>
+        <v>0.206668</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.219246</v>
+        <v>0.219407</v>
       </c>
       <c r="C10" t="n">
-        <v>0.20921</v>
+        <v>0.20529</v>
       </c>
       <c r="D10" t="n">
-        <v>0.20696</v>
+        <v>0.209931</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.217198</v>
+        <v>0.209404</v>
       </c>
       <c r="C11" t="n">
-        <v>0.195367</v>
+        <v>0.196885</v>
       </c>
       <c r="D11" t="n">
-        <v>0.202242</v>
+        <v>0.187758</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.205235</v>
+        <v>0.204648</v>
       </c>
       <c r="C12" t="n">
-        <v>0.195519</v>
+        <v>0.186185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.196077</v>
+        <v>0.19217</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.19526</v>
+        <v>0.201731</v>
       </c>
       <c r="C13" t="n">
-        <v>0.192706</v>
+        <v>0.195413</v>
       </c>
       <c r="D13" t="n">
-        <v>0.192775</v>
+        <v>0.189809</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.190177</v>
+        <v>0.191713</v>
       </c>
       <c r="C14" t="n">
-        <v>0.186261</v>
+        <v>0.188388</v>
       </c>
       <c r="D14" t="n">
-        <v>0.181105</v>
+        <v>0.179315</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.183033</v>
+        <v>0.186395</v>
       </c>
       <c r="C15" t="n">
-        <v>0.18026</v>
+        <v>0.179399</v>
       </c>
       <c r="D15" t="n">
-        <v>0.175371</v>
+        <v>0.174743</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.181828</v>
+        <v>0.179218</v>
       </c>
       <c r="C16" t="n">
-        <v>0.173838</v>
+        <v>0.174425</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172018</v>
+        <v>0.170956</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173799</v>
+        <v>0.175589</v>
       </c>
       <c r="C17" t="n">
-        <v>0.170947</v>
+        <v>0.168372</v>
       </c>
       <c r="D17" t="n">
-        <v>0.164994</v>
+        <v>0.16427</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.165078</v>
+        <v>0.169324</v>
       </c>
       <c r="C18" t="n">
-        <v>0.163278</v>
+        <v>0.16408</v>
       </c>
       <c r="D18" t="n">
-        <v>0.162367</v>
+        <v>0.162903</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.164499</v>
+        <v>0.16455</v>
       </c>
       <c r="C19" t="n">
-        <v>0.161194</v>
+        <v>0.163406</v>
       </c>
       <c r="D19" t="n">
-        <v>0.159799</v>
+        <v>0.157307</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.161318</v>
+        <v>0.164853</v>
       </c>
       <c r="C20" t="n">
-        <v>0.157464</v>
+        <v>0.156715</v>
       </c>
       <c r="D20" t="n">
-        <v>0.156755</v>
+        <v>0.155282</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.158905</v>
+        <v>0.159177</v>
       </c>
       <c r="C21" t="n">
-        <v>0.156936</v>
+        <v>0.155826</v>
       </c>
       <c r="D21" t="n">
-        <v>0.154526</v>
+        <v>0.154883</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1541</v>
+        <v>0.15816</v>
       </c>
       <c r="C22" t="n">
-        <v>0.153228</v>
+        <v>0.154097</v>
       </c>
       <c r="D22" t="n">
-        <v>0.154167</v>
+        <v>0.153142</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163064</v>
+        <v>0.159796</v>
       </c>
       <c r="C23" t="n">
-        <v>0.156857</v>
+        <v>0.154905</v>
       </c>
       <c r="D23" t="n">
-        <v>0.241597</v>
+        <v>0.23919</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238015</v>
+        <v>0.246692</v>
       </c>
       <c r="C24" t="n">
-        <v>0.241354</v>
+        <v>0.242977</v>
       </c>
       <c r="D24" t="n">
-        <v>0.232469</v>
+        <v>0.230066</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.232106</v>
+        <v>0.235006</v>
       </c>
       <c r="C25" t="n">
-        <v>0.231947</v>
+        <v>0.233491</v>
       </c>
       <c r="D25" t="n">
-        <v>0.223284</v>
+        <v>0.221293</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2233</v>
+        <v>0.228381</v>
       </c>
       <c r="C26" t="n">
-        <v>0.224935</v>
+        <v>0.225535</v>
       </c>
       <c r="D26" t="n">
-        <v>0.214663</v>
+        <v>0.213783</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.208616</v>
+        <v>0.21422</v>
       </c>
       <c r="C27" t="n">
-        <v>0.217646</v>
+        <v>0.213288</v>
       </c>
       <c r="D27" t="n">
-        <v>0.213686</v>
+        <v>0.202528</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.208719</v>
+        <v>0.200378</v>
       </c>
       <c r="C28" t="n">
-        <v>0.219446</v>
+        <v>0.205083</v>
       </c>
       <c r="D28" t="n">
-        <v>0.206515</v>
+        <v>0.19481</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.199833</v>
+        <v>0.19518</v>
       </c>
       <c r="C29" t="n">
-        <v>0.208414</v>
+        <v>0.199516</v>
       </c>
       <c r="D29" t="n">
-        <v>0.195121</v>
+        <v>0.189611</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.193594</v>
+        <v>0.187163</v>
       </c>
       <c r="C30" t="n">
-        <v>0.195932</v>
+        <v>0.192533</v>
       </c>
       <c r="D30" t="n">
-        <v>0.183475</v>
+        <v>0.183203</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.181158</v>
+        <v>0.189781</v>
       </c>
       <c r="C31" t="n">
-        <v>0.183409</v>
+        <v>0.186724</v>
       </c>
       <c r="D31" t="n">
-        <v>0.17696</v>
+        <v>0.178309</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180044</v>
+        <v>0.184008</v>
       </c>
       <c r="C32" t="n">
-        <v>0.180293</v>
+        <v>0.18107</v>
       </c>
       <c r="D32" t="n">
-        <v>0.173067</v>
+        <v>0.173233</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.172852</v>
+        <v>0.17744</v>
       </c>
       <c r="C33" t="n">
-        <v>0.17449</v>
+        <v>0.176667</v>
       </c>
       <c r="D33" t="n">
-        <v>0.169039</v>
+        <v>0.169146</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.168823</v>
+        <v>0.174844</v>
       </c>
       <c r="C34" t="n">
-        <v>0.171307</v>
+        <v>0.172699</v>
       </c>
       <c r="D34" t="n">
-        <v>0.165786</v>
+        <v>0.165718</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.170318</v>
+        <v>0.171879</v>
       </c>
       <c r="C35" t="n">
-        <v>0.167319</v>
+        <v>0.168265</v>
       </c>
       <c r="D35" t="n">
-        <v>0.163429</v>
+        <v>0.164095</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.167974</v>
+        <v>0.168376</v>
       </c>
       <c r="C36" t="n">
-        <v>0.164601</v>
+        <v>0.167175</v>
       </c>
       <c r="D36" t="n">
-        <v>0.162717</v>
+        <v>0.162163</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.164585</v>
+        <v>0.167656</v>
       </c>
       <c r="C37" t="n">
-        <v>0.164438</v>
+        <v>0.165756</v>
       </c>
       <c r="D37" t="n">
-        <v>0.242448</v>
+        <v>0.24167</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.240483</v>
+        <v>0.238234</v>
       </c>
       <c r="C38" t="n">
-        <v>0.242923</v>
+        <v>0.241218</v>
       </c>
       <c r="D38" t="n">
-        <v>0.233596</v>
+        <v>0.23152</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.231607</v>
+        <v>0.229475</v>
       </c>
       <c r="C39" t="n">
-        <v>0.236427</v>
+        <v>0.235424</v>
       </c>
       <c r="D39" t="n">
-        <v>0.22438</v>
+        <v>0.223981</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.225565</v>
+        <v>0.222966</v>
       </c>
       <c r="C40" t="n">
-        <v>0.22608</v>
+        <v>0.226864</v>
       </c>
       <c r="D40" t="n">
-        <v>0.215766</v>
+        <v>0.216807</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.215694</v>
+        <v>0.215325</v>
       </c>
       <c r="C41" t="n">
-        <v>0.218716</v>
+        <v>0.217887</v>
       </c>
       <c r="D41" t="n">
-        <v>0.208997</v>
+        <v>0.209159</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.20824</v>
+        <v>0.209845</v>
       </c>
       <c r="C42" t="n">
-        <v>0.21122</v>
+        <v>0.2096</v>
       </c>
       <c r="D42" t="n">
-        <v>0.201208</v>
+        <v>0.201936</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.202151</v>
+        <v>0.203248</v>
       </c>
       <c r="C43" t="n">
-        <v>0.20266</v>
+        <v>0.202747</v>
       </c>
       <c r="D43" t="n">
-        <v>0.194973</v>
+        <v>0.194576</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.193535</v>
+        <v>0.193376</v>
       </c>
       <c r="C44" t="n">
-        <v>0.19683</v>
+        <v>0.196628</v>
       </c>
       <c r="D44" t="n">
-        <v>0.188339</v>
+        <v>0.187973</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.189574</v>
+        <v>0.188945</v>
       </c>
       <c r="C45" t="n">
-        <v>0.19014</v>
+        <v>0.191169</v>
       </c>
       <c r="D45" t="n">
-        <v>0.182818</v>
+        <v>0.183193</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.183808</v>
+        <v>0.185168</v>
       </c>
       <c r="C46" t="n">
-        <v>0.184544</v>
+        <v>0.185089</v>
       </c>
       <c r="D46" t="n">
-        <v>0.17805</v>
+        <v>0.178503</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.178351</v>
+        <v>0.17846</v>
       </c>
       <c r="C47" t="n">
-        <v>0.180585</v>
+        <v>0.181028</v>
       </c>
       <c r="D47" t="n">
-        <v>0.173741</v>
+        <v>0.17435</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.174726</v>
+        <v>0.17466</v>
       </c>
       <c r="C48" t="n">
-        <v>0.176342</v>
+        <v>0.178029</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1694</v>
+        <v>0.174194</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172672</v>
+        <v>0.176077</v>
       </c>
       <c r="C49" t="n">
-        <v>0.171536</v>
+        <v>0.174971</v>
       </c>
       <c r="D49" t="n">
-        <v>0.167581</v>
+        <v>0.172112</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.170276</v>
+        <v>0.17351</v>
       </c>
       <c r="C50" t="n">
-        <v>0.169133</v>
+        <v>0.172092</v>
       </c>
       <c r="D50" t="n">
-        <v>0.164816</v>
+        <v>0.170541</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.171326</v>
+        <v>0.173137</v>
       </c>
       <c r="C51" t="n">
-        <v>0.168765</v>
+        <v>0.170785</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2449</v>
+        <v>0.249053</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175397</v>
+        <v>0.177669</v>
       </c>
       <c r="C52" t="n">
-        <v>0.170514</v>
+        <v>0.172889</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235965</v>
+        <v>0.239976</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241605</v>
+        <v>0.244418</v>
       </c>
       <c r="C53" t="n">
-        <v>0.241309</v>
+        <v>0.245039</v>
       </c>
       <c r="D53" t="n">
-        <v>0.227247</v>
+        <v>0.231844</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233036</v>
+        <v>0.235127</v>
       </c>
       <c r="C54" t="n">
-        <v>0.232538</v>
+        <v>0.236023</v>
       </c>
       <c r="D54" t="n">
-        <v>0.219627</v>
+        <v>0.222128</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.22457</v>
+        <v>0.225177</v>
       </c>
       <c r="C55" t="n">
-        <v>0.224854</v>
+        <v>0.224468</v>
       </c>
       <c r="D55" t="n">
-        <v>0.211459</v>
+        <v>0.21186</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.216796</v>
+        <v>0.216467</v>
       </c>
       <c r="C56" t="n">
-        <v>0.216888</v>
+        <v>0.216488</v>
       </c>
       <c r="D56" t="n">
-        <v>0.204261</v>
+        <v>0.205001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.209752</v>
+        <v>0.208649</v>
       </c>
       <c r="C57" t="n">
-        <v>0.209319</v>
+        <v>0.20898</v>
       </c>
       <c r="D57" t="n">
-        <v>0.197327</v>
+        <v>0.197593</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.20224</v>
+        <v>0.202887</v>
       </c>
       <c r="C58" t="n">
-        <v>0.202624</v>
+        <v>0.202242</v>
       </c>
       <c r="D58" t="n">
-        <v>0.191235</v>
+        <v>0.191587</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.195716</v>
+        <v>0.19513</v>
       </c>
       <c r="C59" t="n">
-        <v>0.196082</v>
+        <v>0.196018</v>
       </c>
       <c r="D59" t="n">
-        <v>0.185404</v>
+        <v>0.185271</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.190119</v>
+        <v>0.190928</v>
       </c>
       <c r="C60" t="n">
-        <v>0.190537</v>
+        <v>0.190228</v>
       </c>
       <c r="D60" t="n">
-        <v>0.179964</v>
+        <v>0.18032</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.185283</v>
+        <v>0.185163</v>
       </c>
       <c r="C61" t="n">
-        <v>0.185148</v>
+        <v>0.185302</v>
       </c>
       <c r="D61" t="n">
-        <v>0.175914</v>
+        <v>0.176137</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.180773</v>
+        <v>0.180803</v>
       </c>
       <c r="C62" t="n">
-        <v>0.180234</v>
+        <v>0.18064</v>
       </c>
       <c r="D62" t="n">
-        <v>0.171809</v>
+        <v>0.172639</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178091</v>
+        <v>0.177869</v>
       </c>
       <c r="C63" t="n">
-        <v>0.176622</v>
+        <v>0.177093</v>
       </c>
       <c r="D63" t="n">
-        <v>0.169884</v>
+        <v>0.170223</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176477</v>
+        <v>0.176495</v>
       </c>
       <c r="C64" t="n">
-        <v>0.174313</v>
+        <v>0.174056</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169201</v>
+        <v>0.169133</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176418</v>
+        <v>0.175949</v>
       </c>
       <c r="C65" t="n">
-        <v>0.173195</v>
+        <v>0.172977</v>
       </c>
       <c r="D65" t="n">
-        <v>0.17085</v>
+        <v>0.171413</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179399</v>
+        <v>0.178209</v>
       </c>
       <c r="C66" t="n">
-        <v>0.174462</v>
+        <v>0.174555</v>
       </c>
       <c r="D66" t="n">
-        <v>0.244196</v>
+        <v>0.244381</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244254</v>
+        <v>0.242007</v>
       </c>
       <c r="C67" t="n">
-        <v>0.249706</v>
+        <v>0.250348</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234938</v>
+        <v>0.235165</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237165</v>
+        <v>0.233439</v>
       </c>
       <c r="C68" t="n">
-        <v>0.240971</v>
+        <v>0.241094</v>
       </c>
       <c r="D68" t="n">
-        <v>0.226451</v>
+        <v>0.226951</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.228081</v>
+        <v>0.225523</v>
       </c>
       <c r="C69" t="n">
-        <v>0.232419</v>
+        <v>0.233077</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217694</v>
+        <v>0.218778</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219578</v>
+        <v>0.218698</v>
       </c>
       <c r="C70" t="n">
-        <v>0.224063</v>
+        <v>0.224541</v>
       </c>
       <c r="D70" t="n">
-        <v>0.21068</v>
+        <v>0.211077</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.21283</v>
+        <v>0.211658</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216289</v>
+        <v>0.216942</v>
       </c>
       <c r="D71" t="n">
-        <v>0.20319</v>
+        <v>0.203796</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.206123</v>
+        <v>0.204814</v>
       </c>
       <c r="C72" t="n">
-        <v>0.209488</v>
+        <v>0.209735</v>
       </c>
       <c r="D72" t="n">
-        <v>0.196859</v>
+        <v>0.197171</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2</v>
+        <v>0.198597</v>
       </c>
       <c r="C73" t="n">
-        <v>0.203154</v>
+        <v>0.202873</v>
       </c>
       <c r="D73" t="n">
-        <v>0.190645</v>
+        <v>0.19133</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193969</v>
+        <v>0.193199</v>
       </c>
       <c r="C74" t="n">
-        <v>0.196386</v>
+        <v>0.196856</v>
       </c>
       <c r="D74" t="n">
-        <v>0.185221</v>
+        <v>0.185427</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18896</v>
+        <v>0.188241</v>
       </c>
       <c r="C75" t="n">
-        <v>0.191112</v>
+        <v>0.191131</v>
       </c>
       <c r="D75" t="n">
-        <v>0.180492</v>
+        <v>0.180753</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.184142</v>
+        <v>0.184286</v>
       </c>
       <c r="C76" t="n">
-        <v>0.186014</v>
+        <v>0.186439</v>
       </c>
       <c r="D76" t="n">
-        <v>0.176331</v>
+        <v>0.176997</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181355</v>
+        <v>0.180577</v>
       </c>
       <c r="C77" t="n">
-        <v>0.181863</v>
+        <v>0.182132</v>
       </c>
       <c r="D77" t="n">
-        <v>0.173475</v>
+        <v>0.174041</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179257</v>
+        <v>0.17847</v>
       </c>
       <c r="C78" t="n">
-        <v>0.178546</v>
+        <v>0.179066</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1722</v>
+        <v>0.172726</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179365</v>
+        <v>0.177315</v>
       </c>
       <c r="C79" t="n">
-        <v>0.177511</v>
+        <v>0.177423</v>
       </c>
       <c r="D79" t="n">
-        <v>0.173163</v>
+        <v>0.173867</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181433</v>
+        <v>0.179586</v>
       </c>
       <c r="C80" t="n">
-        <v>0.178023</v>
+        <v>0.178033</v>
       </c>
       <c r="D80" t="n">
-        <v>0.249242</v>
+        <v>0.249447</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258047</v>
+        <v>0.2569</v>
       </c>
       <c r="C81" t="n">
-        <v>0.253407</v>
+        <v>0.252355</v>
       </c>
       <c r="D81" t="n">
-        <v>0.241033</v>
+        <v>0.240863</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.250505</v>
+        <v>0.248706</v>
       </c>
       <c r="C82" t="n">
-        <v>0.245414</v>
+        <v>0.245146</v>
       </c>
       <c r="D82" t="n">
-        <v>0.232576</v>
+        <v>0.232647</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242178</v>
+        <v>0.241436</v>
       </c>
       <c r="C83" t="n">
-        <v>0.237603</v>
+        <v>0.23754</v>
       </c>
       <c r="D83" t="n">
-        <v>0.225008</v>
+        <v>0.22485</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234695</v>
+        <v>0.234002</v>
       </c>
       <c r="C84" t="n">
-        <v>0.229544</v>
+        <v>0.228719</v>
       </c>
       <c r="D84" t="n">
-        <v>0.21674</v>
+        <v>0.217578</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227638</v>
+        <v>0.226679</v>
       </c>
       <c r="C85" t="n">
-        <v>0.222292</v>
+        <v>0.221855</v>
       </c>
       <c r="D85" t="n">
-        <v>0.209533</v>
+        <v>0.210201</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.221078</v>
+        <v>0.219795</v>
       </c>
       <c r="C86" t="n">
-        <v>0.215304</v>
+        <v>0.215203</v>
       </c>
       <c r="D86" t="n">
-        <v>0.203413</v>
+        <v>0.203624</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213893</v>
+        <v>0.213015</v>
       </c>
       <c r="C87" t="n">
-        <v>0.208508</v>
+        <v>0.208913</v>
       </c>
       <c r="D87" t="n">
-        <v>0.197392</v>
+        <v>0.197819</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207801</v>
+        <v>0.207509</v>
       </c>
       <c r="C88" t="n">
-        <v>0.202367</v>
+        <v>0.201754</v>
       </c>
       <c r="D88" t="n">
-        <v>0.190759</v>
+        <v>0.191887</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.202344</v>
+        <v>0.201473</v>
       </c>
       <c r="C89" t="n">
-        <v>0.19748</v>
+        <v>0.196928</v>
       </c>
       <c r="D89" t="n">
-        <v>0.187458</v>
+        <v>0.18685</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197877</v>
+        <v>0.197463</v>
       </c>
       <c r="C90" t="n">
-        <v>0.192603</v>
+        <v>0.191743</v>
       </c>
       <c r="D90" t="n">
-        <v>0.182596</v>
+        <v>0.182919</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192911</v>
+        <v>0.192885</v>
       </c>
       <c r="C91" t="n">
-        <v>0.188067</v>
+        <v>0.187735</v>
       </c>
       <c r="D91" t="n">
-        <v>0.179915</v>
+        <v>0.179763</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190496</v>
+        <v>0.190655</v>
       </c>
       <c r="C92" t="n">
-        <v>0.184648</v>
+        <v>0.184589</v>
       </c>
       <c r="D92" t="n">
-        <v>0.177664</v>
+        <v>0.17793</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188591</v>
+        <v>0.189353</v>
       </c>
       <c r="C93" t="n">
-        <v>0.182665</v>
+        <v>0.182087</v>
       </c>
       <c r="D93" t="n">
-        <v>0.178049</v>
+        <v>0.178383</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189555</v>
+        <v>0.188289</v>
       </c>
       <c r="C94" t="n">
-        <v>0.182379</v>
+        <v>0.182234</v>
       </c>
       <c r="D94" t="n">
-        <v>0.267673</v>
+        <v>0.266968</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.270673</v>
+        <v>0.271244</v>
       </c>
       <c r="C95" t="n">
-        <v>0.272203</v>
+        <v>0.269893</v>
       </c>
       <c r="D95" t="n">
-        <v>0.260761</v>
+        <v>0.2612</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.264601</v>
+        <v>0.265237</v>
       </c>
       <c r="C96" t="n">
-        <v>0.265926</v>
+        <v>0.264335</v>
       </c>
       <c r="D96" t="n">
-        <v>0.255296</v>
+        <v>0.253854</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257703</v>
+        <v>0.258827</v>
       </c>
       <c r="C97" t="n">
-        <v>0.258858</v>
+        <v>0.25693</v>
       </c>
       <c r="D97" t="n">
-        <v>0.247848</v>
+        <v>0.246143</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251013</v>
+        <v>0.251313</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251439</v>
+        <v>0.249856</v>
       </c>
       <c r="D98" t="n">
-        <v>0.239649</v>
+        <v>0.23935</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244835</v>
+        <v>0.245304</v>
       </c>
       <c r="C99" t="n">
-        <v>0.244877</v>
+        <v>0.24338</v>
       </c>
       <c r="D99" t="n">
-        <v>0.234303</v>
+        <v>0.232943</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239355</v>
+        <v>0.238755</v>
       </c>
       <c r="C100" t="n">
-        <v>0.236014</v>
+        <v>0.236878</v>
       </c>
       <c r="D100" t="n">
-        <v>0.225748</v>
+        <v>0.226735</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233381</v>
+        <v>0.233409</v>
       </c>
       <c r="C101" t="n">
-        <v>0.230104</v>
+        <v>0.231075</v>
       </c>
       <c r="D101" t="n">
-        <v>0.220666</v>
+        <v>0.221338</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227505</v>
+        <v>0.227885</v>
       </c>
       <c r="C102" t="n">
-        <v>0.22446</v>
+        <v>0.224195</v>
       </c>
       <c r="D102" t="n">
-        <v>0.21499</v>
+        <v>0.216162</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222755</v>
+        <v>0.223023</v>
       </c>
       <c r="C103" t="n">
-        <v>0.219394</v>
+        <v>0.219521</v>
       </c>
       <c r="D103" t="n">
-        <v>0.209984</v>
+        <v>0.210354</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218193</v>
+        <v>0.21829</v>
       </c>
       <c r="C104" t="n">
-        <v>0.214448</v>
+        <v>0.214979</v>
       </c>
       <c r="D104" t="n">
-        <v>0.205956</v>
+        <v>0.20633</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214403</v>
+        <v>0.21427</v>
       </c>
       <c r="C105" t="n">
-        <v>0.210632</v>
+        <v>0.210779</v>
       </c>
       <c r="D105" t="n">
-        <v>0.202585</v>
+        <v>0.202506</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210952</v>
+        <v>0.210919</v>
       </c>
       <c r="C106" t="n">
-        <v>0.207507</v>
+        <v>0.207907</v>
       </c>
       <c r="D106" t="n">
-        <v>0.200025</v>
+        <v>0.200761</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208774</v>
+        <v>0.20886</v>
       </c>
       <c r="C107" t="n">
-        <v>0.205487</v>
+        <v>0.205195</v>
       </c>
       <c r="D107" t="n">
-        <v>0.199948</v>
+        <v>0.200185</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208696</v>
+        <v>0.208503</v>
       </c>
       <c r="C108" t="n">
-        <v>0.204709</v>
+        <v>0.20547</v>
       </c>
       <c r="D108" t="n">
-        <v>0.289416</v>
+        <v>0.289575</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.21055</v>
+        <v>0.210681</v>
       </c>
       <c r="C109" t="n">
-        <v>0.207338</v>
+        <v>0.207462</v>
       </c>
       <c r="D109" t="n">
-        <v>0.283402</v>
+        <v>0.284176</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285294</v>
+        <v>0.28538</v>
       </c>
       <c r="C110" t="n">
-        <v>0.287554</v>
+        <v>0.287887</v>
       </c>
       <c r="D110" t="n">
-        <v>0.276824</v>
+        <v>0.276241</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278625</v>
+        <v>0.278692</v>
       </c>
       <c r="C111" t="n">
-        <v>0.280264</v>
+        <v>0.280855</v>
       </c>
       <c r="D111" t="n">
-        <v>0.269481</v>
+        <v>0.270123</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.27251</v>
+        <v>0.272523</v>
       </c>
       <c r="C112" t="n">
-        <v>0.273352</v>
+        <v>0.27303</v>
       </c>
       <c r="D112" t="n">
-        <v>0.263267</v>
+        <v>0.263178</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.265871</v>
+        <v>0.267231</v>
       </c>
       <c r="C113" t="n">
-        <v>0.266478</v>
+        <v>0.266912</v>
       </c>
       <c r="D113" t="n">
-        <v>0.257379</v>
+        <v>0.258146</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260322</v>
+        <v>0.261648</v>
       </c>
       <c r="C114" t="n">
-        <v>0.260921</v>
+        <v>0.260891</v>
       </c>
       <c r="D114" t="n">
-        <v>0.252287</v>
+        <v>0.251948</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255186</v>
+        <v>0.255774</v>
       </c>
       <c r="C115" t="n">
-        <v>0.255277</v>
+        <v>0.255157</v>
       </c>
       <c r="D115" t="n">
-        <v>0.247055</v>
+        <v>0.247305</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250281</v>
+        <v>0.250833</v>
       </c>
       <c r="C116" t="n">
-        <v>0.250438</v>
+        <v>0.250455</v>
       </c>
       <c r="D116" t="n">
-        <v>0.242341</v>
+        <v>0.242338</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.245829</v>
+        <v>0.245814</v>
       </c>
       <c r="C117" t="n">
-        <v>0.245646</v>
+        <v>0.245713</v>
       </c>
       <c r="D117" t="n">
-        <v>0.237971</v>
+        <v>0.238063</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241664</v>
+        <v>0.241872</v>
       </c>
       <c r="C118" t="n">
-        <v>0.241805</v>
+        <v>0.241775</v>
       </c>
       <c r="D118" t="n">
-        <v>0.23398</v>
+        <v>0.234629</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237918</v>
+        <v>0.238134</v>
       </c>
       <c r="C119" t="n">
-        <v>0.238002</v>
+        <v>0.238152</v>
       </c>
       <c r="D119" t="n">
-        <v>0.230995</v>
+        <v>0.231217</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234815</v>
+        <v>0.235318</v>
       </c>
       <c r="C120" t="n">
-        <v>0.235154</v>
+        <v>0.235283</v>
       </c>
       <c r="D120" t="n">
-        <v>0.229027</v>
+        <v>0.229006</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232376</v>
+        <v>0.232796</v>
       </c>
       <c r="C121" t="n">
-        <v>0.233438</v>
+        <v>0.233351</v>
       </c>
       <c r="D121" t="n">
-        <v>0.228311</v>
+        <v>0.229728</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231417</v>
+        <v>0.231645</v>
       </c>
       <c r="C122" t="n">
-        <v>0.233515</v>
+        <v>0.234587</v>
       </c>
       <c r="D122" t="n">
-        <v>0.229531</v>
+        <v>0.231902</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232864</v>
+        <v>0.232787</v>
       </c>
       <c r="C123" t="n">
-        <v>0.235042</v>
+        <v>0.236709</v>
       </c>
       <c r="D123" t="n">
-        <v>0.312897</v>
+        <v>0.316368</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.316746</v>
+        <v>0.312458</v>
       </c>
       <c r="C124" t="n">
-        <v>0.316911</v>
+        <v>0.320046</v>
       </c>
       <c r="D124" t="n">
-        <v>0.307446</v>
+        <v>0.310431</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.311164</v>
+        <v>0.307236</v>
       </c>
       <c r="C125" t="n">
-        <v>0.310449</v>
+        <v>0.314668</v>
       </c>
       <c r="D125" t="n">
-        <v>0.303119</v>
+        <v>0.307463</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.306138</v>
+        <v>0.302912</v>
       </c>
       <c r="C126" t="n">
-        <v>0.305144</v>
+        <v>0.3052</v>
       </c>
       <c r="D126" t="n">
-        <v>0.297493</v>
+        <v>0.29849</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.300928</v>
+        <v>0.296867</v>
       </c>
       <c r="C127" t="n">
-        <v>0.299847</v>
+        <v>0.299697</v>
       </c>
       <c r="D127" t="n">
-        <v>0.29484</v>
+        <v>0.294414</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.295587</v>
+        <v>0.292636</v>
       </c>
       <c r="C128" t="n">
-        <v>0.295298</v>
+        <v>0.295193</v>
       </c>
       <c r="D128" t="n">
-        <v>0.290348</v>
+        <v>0.290903</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.290737</v>
+        <v>0.288071</v>
       </c>
       <c r="C129" t="n">
-        <v>0.291242</v>
+        <v>0.290862</v>
       </c>
       <c r="D129" t="n">
-        <v>0.286965</v>
+        <v>0.287215</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.286486</v>
+        <v>0.28367</v>
       </c>
       <c r="C130" t="n">
-        <v>0.287368</v>
+        <v>0.287185</v>
       </c>
       <c r="D130" t="n">
-        <v>0.28594</v>
+        <v>0.283728</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.281853</v>
+        <v>0.279898</v>
       </c>
       <c r="C131" t="n">
-        <v>0.284061</v>
+        <v>0.283867</v>
       </c>
       <c r="D131" t="n">
-        <v>0.281254</v>
+        <v>0.281473</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278733</v>
+        <v>0.27624</v>
       </c>
       <c r="C132" t="n">
-        <v>0.281324</v>
+        <v>0.281372</v>
       </c>
       <c r="D132" t="n">
-        <v>0.278221</v>
+        <v>0.278751</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275188</v>
+        <v>0.273199</v>
       </c>
       <c r="C133" t="n">
-        <v>0.278886</v>
+        <v>0.279004</v>
       </c>
       <c r="D133" t="n">
-        <v>0.276271</v>
+        <v>0.276712</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.273092</v>
+        <v>0.270662</v>
       </c>
       <c r="C134" t="n">
-        <v>0.277129</v>
+        <v>0.277151</v>
       </c>
       <c r="D134" t="n">
-        <v>0.275735</v>
+        <v>0.276079</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270828</v>
+        <v>0.268763</v>
       </c>
       <c r="C135" t="n">
-        <v>0.27609</v>
+        <v>0.276387</v>
       </c>
       <c r="D135" t="n">
-        <v>0.275414</v>
+        <v>0.275646</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.2699</v>
+        <v>0.267775</v>
       </c>
       <c r="C136" t="n">
-        <v>0.276949</v>
+        <v>0.276529</v>
       </c>
       <c r="D136" t="n">
-        <v>0.276844</v>
+        <v>0.277723</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.270542</v>
+        <v>0.268633</v>
       </c>
       <c r="C137" t="n">
-        <v>0.279172</v>
+        <v>0.279547</v>
       </c>
       <c r="D137" t="n">
-        <v>0.370484</v>
+        <v>0.368018</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.362714</v>
+        <v>0.372519</v>
       </c>
       <c r="C138" t="n">
-        <v>0.374277</v>
+        <v>0.370549</v>
       </c>
       <c r="D138" t="n">
-        <v>0.365351</v>
+        <v>0.36235</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.355863</v>
+        <v>0.366389</v>
       </c>
       <c r="C139" t="n">
-        <v>0.367921</v>
+        <v>0.364014</v>
       </c>
       <c r="D139" t="n">
-        <v>0.359672</v>
+        <v>0.35693</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.351204</v>
+        <v>0.361212</v>
       </c>
       <c r="C140" t="n">
-        <v>0.362269</v>
+        <v>0.35799</v>
       </c>
       <c r="D140" t="n">
-        <v>0.353383</v>
+        <v>0.351841</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.345858</v>
+        <v>0.355213</v>
       </c>
       <c r="C141" t="n">
-        <v>0.35587</v>
+        <v>0.352456</v>
       </c>
       <c r="D141" t="n">
-        <v>0.349755</v>
+        <v>0.347121</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.341047</v>
+        <v>0.350098</v>
       </c>
       <c r="C142" t="n">
-        <v>0.351298</v>
+        <v>0.347481</v>
       </c>
       <c r="D142" t="n">
-        <v>0.344567</v>
+        <v>0.342615</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.336961</v>
+        <v>0.345546</v>
       </c>
       <c r="C143" t="n">
-        <v>0.345943</v>
+        <v>0.343016</v>
       </c>
       <c r="D143" t="n">
-        <v>0.340318</v>
+        <v>0.338364</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.16383</v>
+        <v>0.159862</v>
       </c>
       <c r="C2" t="n">
-        <v>0.162424</v>
+        <v>0.165629</v>
       </c>
       <c r="D2" t="n">
-        <v>0.162819</v>
+        <v>0.159519</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.152812</v>
+        <v>0.151183</v>
       </c>
       <c r="C3" t="n">
-        <v>0.159497</v>
+        <v>0.153062</v>
       </c>
       <c r="D3" t="n">
-        <v>0.158142</v>
+        <v>0.155358</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.159756</v>
+        <v>0.158106</v>
       </c>
       <c r="C4" t="n">
-        <v>0.154123</v>
+        <v>0.157146</v>
       </c>
       <c r="D4" t="n">
-        <v>0.156541</v>
+        <v>0.153947</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.15143</v>
+        <v>0.153125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.149493</v>
+        <v>0.14842</v>
       </c>
       <c r="D5" t="n">
-        <v>0.152833</v>
+        <v>0.153721</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.158513</v>
+        <v>0.147356</v>
       </c>
       <c r="C6" t="n">
-        <v>0.147169</v>
+        <v>0.143461</v>
       </c>
       <c r="D6" t="n">
-        <v>0.144241</v>
+        <v>0.151771</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.147248</v>
+        <v>0.150055</v>
       </c>
       <c r="C7" t="n">
-        <v>0.139686</v>
+        <v>0.138992</v>
       </c>
       <c r="D7" t="n">
-        <v>0.141844</v>
+        <v>0.139984</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.157849</v>
+        <v>0.156117</v>
       </c>
       <c r="C8" t="n">
-        <v>0.134701</v>
+        <v>0.145304</v>
       </c>
       <c r="D8" t="n">
-        <v>0.136822</v>
+        <v>0.146856</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.156061</v>
+        <v>0.1499</v>
       </c>
       <c r="C9" t="n">
-        <v>0.136954</v>
+        <v>0.140862</v>
       </c>
       <c r="D9" t="n">
-        <v>0.206668</v>
+        <v>0.218808</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.219407</v>
+        <v>0.205244</v>
       </c>
       <c r="C10" t="n">
-        <v>0.20529</v>
+        <v>0.213736</v>
       </c>
       <c r="D10" t="n">
-        <v>0.209931</v>
+        <v>0.208212</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.209404</v>
+        <v>0.207921</v>
       </c>
       <c r="C11" t="n">
-        <v>0.196885</v>
+        <v>0.20339</v>
       </c>
       <c r="D11" t="n">
-        <v>0.187758</v>
+        <v>0.213775</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.204648</v>
+        <v>0.202946</v>
       </c>
       <c r="C12" t="n">
-        <v>0.186185</v>
+        <v>0.205094</v>
       </c>
       <c r="D12" t="n">
-        <v>0.19217</v>
+        <v>0.20431</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.201731</v>
+        <v>0.19918</v>
       </c>
       <c r="C13" t="n">
-        <v>0.195413</v>
+        <v>0.196802</v>
       </c>
       <c r="D13" t="n">
-        <v>0.189809</v>
+        <v>0.190879</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.191713</v>
+        <v>0.189782</v>
       </c>
       <c r="C14" t="n">
-        <v>0.188388</v>
+        <v>0.195123</v>
       </c>
       <c r="D14" t="n">
-        <v>0.179315</v>
+        <v>0.189188</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.186395</v>
+        <v>0.184946</v>
       </c>
       <c r="C15" t="n">
-        <v>0.179399</v>
+        <v>0.183448</v>
       </c>
       <c r="D15" t="n">
-        <v>0.174743</v>
+        <v>0.184328</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.179218</v>
+        <v>0.179431</v>
       </c>
       <c r="C16" t="n">
-        <v>0.174425</v>
+        <v>0.179176</v>
       </c>
       <c r="D16" t="n">
-        <v>0.170956</v>
+        <v>0.176576</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.175589</v>
+        <v>0.171865</v>
       </c>
       <c r="C17" t="n">
-        <v>0.168372</v>
+        <v>0.171768</v>
       </c>
       <c r="D17" t="n">
-        <v>0.16427</v>
+        <v>0.172466</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.169324</v>
+        <v>0.166728</v>
       </c>
       <c r="C18" t="n">
-        <v>0.16408</v>
+        <v>0.168604</v>
       </c>
       <c r="D18" t="n">
-        <v>0.162903</v>
+        <v>0.167144</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.16455</v>
+        <v>0.163351</v>
       </c>
       <c r="C19" t="n">
-        <v>0.163406</v>
+        <v>0.162881</v>
       </c>
       <c r="D19" t="n">
-        <v>0.157307</v>
+        <v>0.163945</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.164853</v>
+        <v>0.158919</v>
       </c>
       <c r="C20" t="n">
-        <v>0.156715</v>
+        <v>0.159778</v>
       </c>
       <c r="D20" t="n">
-        <v>0.155282</v>
+        <v>0.159596</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.159177</v>
+        <v>0.156911</v>
       </c>
       <c r="C21" t="n">
-        <v>0.155826</v>
+        <v>0.155725</v>
       </c>
       <c r="D21" t="n">
-        <v>0.154883</v>
+        <v>0.155534</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.15816</v>
+        <v>0.156854</v>
       </c>
       <c r="C22" t="n">
-        <v>0.154097</v>
+        <v>0.155907</v>
       </c>
       <c r="D22" t="n">
-        <v>0.153142</v>
+        <v>0.157812</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.159796</v>
+        <v>0.157915</v>
       </c>
       <c r="C23" t="n">
-        <v>0.154905</v>
+        <v>0.155198</v>
       </c>
       <c r="D23" t="n">
-        <v>0.23919</v>
+        <v>0.246298</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.246692</v>
+        <v>0.242718</v>
       </c>
       <c r="C24" t="n">
-        <v>0.242977</v>
+        <v>0.238218</v>
       </c>
       <c r="D24" t="n">
-        <v>0.230066</v>
+        <v>0.238203</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235006</v>
+        <v>0.235673</v>
       </c>
       <c r="C25" t="n">
-        <v>0.233491</v>
+        <v>0.22881</v>
       </c>
       <c r="D25" t="n">
-        <v>0.221293</v>
+        <v>0.230065</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.228381</v>
+        <v>0.228635</v>
       </c>
       <c r="C26" t="n">
-        <v>0.225535</v>
+        <v>0.220421</v>
       </c>
       <c r="D26" t="n">
-        <v>0.213783</v>
+        <v>0.220477</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.21422</v>
+        <v>0.219419</v>
       </c>
       <c r="C27" t="n">
-        <v>0.213288</v>
+        <v>0.212084</v>
       </c>
       <c r="D27" t="n">
-        <v>0.202528</v>
+        <v>0.21773</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.200378</v>
+        <v>0.209239</v>
       </c>
       <c r="C28" t="n">
-        <v>0.205083</v>
+        <v>0.204937</v>
       </c>
       <c r="D28" t="n">
-        <v>0.19481</v>
+        <v>0.212894</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.19518</v>
+        <v>0.204721</v>
       </c>
       <c r="C29" t="n">
-        <v>0.199516</v>
+        <v>0.19795</v>
       </c>
       <c r="D29" t="n">
-        <v>0.189611</v>
+        <v>0.202315</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.187163</v>
+        <v>0.194044</v>
       </c>
       <c r="C30" t="n">
-        <v>0.192533</v>
+        <v>0.190892</v>
       </c>
       <c r="D30" t="n">
-        <v>0.183203</v>
+        <v>0.196379</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.189781</v>
+        <v>0.192447</v>
       </c>
       <c r="C31" t="n">
-        <v>0.186724</v>
+        <v>0.185004</v>
       </c>
       <c r="D31" t="n">
-        <v>0.178309</v>
+        <v>0.185342</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.184008</v>
+        <v>0.185095</v>
       </c>
       <c r="C32" t="n">
-        <v>0.18107</v>
+        <v>0.179171</v>
       </c>
       <c r="D32" t="n">
-        <v>0.173233</v>
+        <v>0.173326</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.17744</v>
+        <v>0.177724</v>
       </c>
       <c r="C33" t="n">
-        <v>0.176667</v>
+        <v>0.172001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.169146</v>
+        <v>0.170144</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.174844</v>
+        <v>0.173312</v>
       </c>
       <c r="C34" t="n">
-        <v>0.172699</v>
+        <v>0.167874</v>
       </c>
       <c r="D34" t="n">
-        <v>0.165718</v>
+        <v>0.166525</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.171879</v>
+        <v>0.169944</v>
       </c>
       <c r="C35" t="n">
-        <v>0.168265</v>
+        <v>0.164386</v>
       </c>
       <c r="D35" t="n">
-        <v>0.164095</v>
+        <v>0.163596</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.168376</v>
+        <v>0.169239</v>
       </c>
       <c r="C36" t="n">
-        <v>0.167175</v>
+        <v>0.162653</v>
       </c>
       <c r="D36" t="n">
-        <v>0.162163</v>
+        <v>0.162013</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167656</v>
+        <v>0.168713</v>
       </c>
       <c r="C37" t="n">
-        <v>0.165756</v>
+        <v>0.162482</v>
       </c>
       <c r="D37" t="n">
-        <v>0.24167</v>
+        <v>0.243849</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.238234</v>
+        <v>0.238846</v>
       </c>
       <c r="C38" t="n">
-        <v>0.241218</v>
+        <v>0.239126</v>
       </c>
       <c r="D38" t="n">
-        <v>0.23152</v>
+        <v>0.235094</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.229475</v>
+        <v>0.23297</v>
       </c>
       <c r="C39" t="n">
-        <v>0.235424</v>
+        <v>0.230104</v>
       </c>
       <c r="D39" t="n">
-        <v>0.223981</v>
+        <v>0.225399</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.222966</v>
+        <v>0.220612</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226864</v>
+        <v>0.221497</v>
       </c>
       <c r="D40" t="n">
-        <v>0.216807</v>
+        <v>0.218975</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.215325</v>
+        <v>0.213036</v>
       </c>
       <c r="C41" t="n">
-        <v>0.217887</v>
+        <v>0.213813</v>
       </c>
       <c r="D41" t="n">
-        <v>0.209159</v>
+        <v>0.209453</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.209845</v>
+        <v>0.208049</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2096</v>
+        <v>0.206357</v>
       </c>
       <c r="D42" t="n">
-        <v>0.201936</v>
+        <v>0.202676</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.203248</v>
+        <v>0.201014</v>
       </c>
       <c r="C43" t="n">
-        <v>0.202747</v>
+        <v>0.199711</v>
       </c>
       <c r="D43" t="n">
-        <v>0.194576</v>
+        <v>0.194462</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.193376</v>
+        <v>0.194139</v>
       </c>
       <c r="C44" t="n">
-        <v>0.196628</v>
+        <v>0.192715</v>
       </c>
       <c r="D44" t="n">
-        <v>0.187973</v>
+        <v>0.187879</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.188945</v>
+        <v>0.188338</v>
       </c>
       <c r="C45" t="n">
-        <v>0.191169</v>
+        <v>0.186787</v>
       </c>
       <c r="D45" t="n">
-        <v>0.183193</v>
+        <v>0.180821</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.185168</v>
+        <v>0.183501</v>
       </c>
       <c r="C46" t="n">
-        <v>0.185089</v>
+        <v>0.181023</v>
       </c>
       <c r="D46" t="n">
-        <v>0.178503</v>
+        <v>0.177118</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.17846</v>
+        <v>0.178394</v>
       </c>
       <c r="C47" t="n">
-        <v>0.181028</v>
+        <v>0.17623</v>
       </c>
       <c r="D47" t="n">
-        <v>0.17435</v>
+        <v>0.171896</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.17466</v>
+        <v>0.174492</v>
       </c>
       <c r="C48" t="n">
-        <v>0.178029</v>
+        <v>0.171875</v>
       </c>
       <c r="D48" t="n">
-        <v>0.174194</v>
+        <v>0.167542</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.176077</v>
+        <v>0.170743</v>
       </c>
       <c r="C49" t="n">
-        <v>0.174971</v>
+        <v>0.168529</v>
       </c>
       <c r="D49" t="n">
-        <v>0.172112</v>
+        <v>0.165263</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.17351</v>
+        <v>0.170574</v>
       </c>
       <c r="C50" t="n">
-        <v>0.172092</v>
+        <v>0.166333</v>
       </c>
       <c r="D50" t="n">
-        <v>0.170541</v>
+        <v>0.164619</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173137</v>
+        <v>0.17224</v>
       </c>
       <c r="C51" t="n">
-        <v>0.170785</v>
+        <v>0.165575</v>
       </c>
       <c r="D51" t="n">
-        <v>0.249053</v>
+        <v>0.247046</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.177669</v>
+        <v>0.174717</v>
       </c>
       <c r="C52" t="n">
-        <v>0.172889</v>
+        <v>0.167378</v>
       </c>
       <c r="D52" t="n">
-        <v>0.239976</v>
+        <v>0.237349</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244418</v>
+        <v>0.241313</v>
       </c>
       <c r="C53" t="n">
-        <v>0.245039</v>
+        <v>0.238695</v>
       </c>
       <c r="D53" t="n">
-        <v>0.231844</v>
+        <v>0.22927</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.235127</v>
+        <v>0.232201</v>
       </c>
       <c r="C54" t="n">
-        <v>0.236023</v>
+        <v>0.230126</v>
       </c>
       <c r="D54" t="n">
-        <v>0.222128</v>
+        <v>0.219876</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.225177</v>
+        <v>0.223974</v>
       </c>
       <c r="C55" t="n">
-        <v>0.224468</v>
+        <v>0.221652</v>
       </c>
       <c r="D55" t="n">
-        <v>0.21186</v>
+        <v>0.212139</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.216467</v>
+        <v>0.216289</v>
       </c>
       <c r="C56" t="n">
-        <v>0.216488</v>
+        <v>0.213916</v>
       </c>
       <c r="D56" t="n">
-        <v>0.205001</v>
+        <v>0.204872</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208649</v>
+        <v>0.209196</v>
       </c>
       <c r="C57" t="n">
-        <v>0.20898</v>
+        <v>0.206399</v>
       </c>
       <c r="D57" t="n">
-        <v>0.197593</v>
+        <v>0.197873</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.202887</v>
+        <v>0.202037</v>
       </c>
       <c r="C58" t="n">
-        <v>0.202242</v>
+        <v>0.199533</v>
       </c>
       <c r="D58" t="n">
-        <v>0.191587</v>
+        <v>0.191659</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.19513</v>
+        <v>0.195774</v>
       </c>
       <c r="C59" t="n">
-        <v>0.196018</v>
+        <v>0.193289</v>
       </c>
       <c r="D59" t="n">
-        <v>0.185271</v>
+        <v>0.185457</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.190928</v>
+        <v>0.189803</v>
       </c>
       <c r="C60" t="n">
-        <v>0.190228</v>
+        <v>0.188704</v>
       </c>
       <c r="D60" t="n">
-        <v>0.18032</v>
+        <v>0.180049</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.185163</v>
+        <v>0.185773</v>
       </c>
       <c r="C61" t="n">
-        <v>0.185302</v>
+        <v>0.182299</v>
       </c>
       <c r="D61" t="n">
-        <v>0.176137</v>
+        <v>0.175634</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.180803</v>
+        <v>0.180829</v>
       </c>
       <c r="C62" t="n">
-        <v>0.18064</v>
+        <v>0.177828</v>
       </c>
       <c r="D62" t="n">
-        <v>0.172639</v>
+        <v>0.171602</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177869</v>
+        <v>0.178316</v>
       </c>
       <c r="C63" t="n">
-        <v>0.177093</v>
+        <v>0.173805</v>
       </c>
       <c r="D63" t="n">
-        <v>0.170223</v>
+        <v>0.169035</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176495</v>
+        <v>0.176647</v>
       </c>
       <c r="C64" t="n">
-        <v>0.174056</v>
+        <v>0.17137</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169133</v>
+        <v>0.167813</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.175949</v>
+        <v>0.176952</v>
       </c>
       <c r="C65" t="n">
-        <v>0.172977</v>
+        <v>0.170142</v>
       </c>
       <c r="D65" t="n">
-        <v>0.171413</v>
+        <v>0.169515</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.178209</v>
+        <v>0.179533</v>
       </c>
       <c r="C66" t="n">
-        <v>0.174555</v>
+        <v>0.171428</v>
       </c>
       <c r="D66" t="n">
-        <v>0.244381</v>
+        <v>0.243753</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242007</v>
+        <v>0.244969</v>
       </c>
       <c r="C67" t="n">
-        <v>0.250348</v>
+        <v>0.248418</v>
       </c>
       <c r="D67" t="n">
-        <v>0.235165</v>
+        <v>0.235533</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.233439</v>
+        <v>0.236969</v>
       </c>
       <c r="C68" t="n">
-        <v>0.241094</v>
+        <v>0.239189</v>
       </c>
       <c r="D68" t="n">
-        <v>0.226951</v>
+        <v>0.226991</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.225523</v>
+        <v>0.229734</v>
       </c>
       <c r="C69" t="n">
-        <v>0.233077</v>
+        <v>0.23063</v>
       </c>
       <c r="D69" t="n">
-        <v>0.218778</v>
+        <v>0.21924</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.218698</v>
+        <v>0.221192</v>
       </c>
       <c r="C70" t="n">
-        <v>0.224541</v>
+        <v>0.222147</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211077</v>
+        <v>0.211608</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.211658</v>
+        <v>0.21392</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216942</v>
+        <v>0.214996</v>
       </c>
       <c r="D71" t="n">
-        <v>0.203796</v>
+        <v>0.204265</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.204814</v>
+        <v>0.207048</v>
       </c>
       <c r="C72" t="n">
-        <v>0.209735</v>
+        <v>0.207562</v>
       </c>
       <c r="D72" t="n">
-        <v>0.197171</v>
+        <v>0.197446</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.198597</v>
+        <v>0.20053</v>
       </c>
       <c r="C73" t="n">
-        <v>0.202873</v>
+        <v>0.200547</v>
       </c>
       <c r="D73" t="n">
-        <v>0.19133</v>
+        <v>0.191217</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193199</v>
+        <v>0.194466</v>
       </c>
       <c r="C74" t="n">
-        <v>0.196856</v>
+        <v>0.194797</v>
       </c>
       <c r="D74" t="n">
-        <v>0.185427</v>
+        <v>0.185934</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188241</v>
+        <v>0.189358</v>
       </c>
       <c r="C75" t="n">
-        <v>0.191131</v>
+        <v>0.188841</v>
       </c>
       <c r="D75" t="n">
-        <v>0.180753</v>
+        <v>0.180005</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.184286</v>
+        <v>0.184802</v>
       </c>
       <c r="C76" t="n">
-        <v>0.186439</v>
+        <v>0.184284</v>
       </c>
       <c r="D76" t="n">
-        <v>0.176997</v>
+        <v>0.176569</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.180577</v>
+        <v>0.181854</v>
       </c>
       <c r="C77" t="n">
-        <v>0.182132</v>
+        <v>0.179985</v>
       </c>
       <c r="D77" t="n">
-        <v>0.174041</v>
+        <v>0.173033</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.17847</v>
+        <v>0.179671</v>
       </c>
       <c r="C78" t="n">
-        <v>0.179066</v>
+        <v>0.17665</v>
       </c>
       <c r="D78" t="n">
-        <v>0.172726</v>
+        <v>0.172284</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.177315</v>
+        <v>0.179772</v>
       </c>
       <c r="C79" t="n">
-        <v>0.177423</v>
+        <v>0.175306</v>
       </c>
       <c r="D79" t="n">
-        <v>0.173867</v>
+        <v>0.17328</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.179586</v>
+        <v>0.181105</v>
       </c>
       <c r="C80" t="n">
-        <v>0.178033</v>
+        <v>0.175755</v>
       </c>
       <c r="D80" t="n">
-        <v>0.249447</v>
+        <v>0.250282</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2569</v>
+        <v>0.257915</v>
       </c>
       <c r="C81" t="n">
-        <v>0.252355</v>
+        <v>0.252604</v>
       </c>
       <c r="D81" t="n">
-        <v>0.240863</v>
+        <v>0.242272</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.248706</v>
+        <v>0.249485</v>
       </c>
       <c r="C82" t="n">
-        <v>0.245146</v>
+        <v>0.244686</v>
       </c>
       <c r="D82" t="n">
-        <v>0.232647</v>
+        <v>0.233458</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241436</v>
+        <v>0.241942</v>
       </c>
       <c r="C83" t="n">
-        <v>0.23754</v>
+        <v>0.237167</v>
       </c>
       <c r="D83" t="n">
-        <v>0.22485</v>
+        <v>0.226155</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234002</v>
+        <v>0.23419</v>
       </c>
       <c r="C84" t="n">
-        <v>0.228719</v>
+        <v>0.229278</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217578</v>
+        <v>0.218184</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.226679</v>
+        <v>0.227248</v>
       </c>
       <c r="C85" t="n">
-        <v>0.221855</v>
+        <v>0.222498</v>
       </c>
       <c r="D85" t="n">
-        <v>0.210201</v>
+        <v>0.211122</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219795</v>
+        <v>0.219827</v>
       </c>
       <c r="C86" t="n">
-        <v>0.215203</v>
+        <v>0.215693</v>
       </c>
       <c r="D86" t="n">
-        <v>0.203624</v>
+        <v>0.205259</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213015</v>
+        <v>0.213438</v>
       </c>
       <c r="C87" t="n">
-        <v>0.208913</v>
+        <v>0.209566</v>
       </c>
       <c r="D87" t="n">
-        <v>0.197819</v>
+        <v>0.19799</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207509</v>
+        <v>0.207325</v>
       </c>
       <c r="C88" t="n">
-        <v>0.201754</v>
+        <v>0.203131</v>
       </c>
       <c r="D88" t="n">
-        <v>0.191887</v>
+        <v>0.19252</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201473</v>
+        <v>0.201719</v>
       </c>
       <c r="C89" t="n">
-        <v>0.196928</v>
+        <v>0.197216</v>
       </c>
       <c r="D89" t="n">
-        <v>0.18685</v>
+        <v>0.187101</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197463</v>
+        <v>0.196463</v>
       </c>
       <c r="C90" t="n">
-        <v>0.191743</v>
+        <v>0.192376</v>
       </c>
       <c r="D90" t="n">
-        <v>0.182919</v>
+        <v>0.183122</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192885</v>
+        <v>0.192988</v>
       </c>
       <c r="C91" t="n">
-        <v>0.187735</v>
+        <v>0.18861</v>
       </c>
       <c r="D91" t="n">
-        <v>0.179763</v>
+        <v>0.180921</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190655</v>
+        <v>0.190191</v>
       </c>
       <c r="C92" t="n">
-        <v>0.184589</v>
+        <v>0.184552</v>
       </c>
       <c r="D92" t="n">
-        <v>0.17793</v>
+        <v>0.177975</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189353</v>
+        <v>0.188599</v>
       </c>
       <c r="C93" t="n">
-        <v>0.182087</v>
+        <v>0.182569</v>
       </c>
       <c r="D93" t="n">
-        <v>0.178383</v>
+        <v>0.178179</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.188289</v>
+        <v>0.189236</v>
       </c>
       <c r="C94" t="n">
-        <v>0.182234</v>
+        <v>0.182372</v>
       </c>
       <c r="D94" t="n">
-        <v>0.266968</v>
+        <v>0.269449</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.271244</v>
+        <v>0.270205</v>
       </c>
       <c r="C95" t="n">
-        <v>0.269893</v>
+        <v>0.270632</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2612</v>
+        <v>0.261958</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265237</v>
+        <v>0.263632</v>
       </c>
       <c r="C96" t="n">
-        <v>0.264335</v>
+        <v>0.265023</v>
       </c>
       <c r="D96" t="n">
-        <v>0.253854</v>
+        <v>0.254057</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258827</v>
+        <v>0.257076</v>
       </c>
       <c r="C97" t="n">
-        <v>0.25693</v>
+        <v>0.257337</v>
       </c>
       <c r="D97" t="n">
-        <v>0.246143</v>
+        <v>0.247098</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251313</v>
+        <v>0.250316</v>
       </c>
       <c r="C98" t="n">
-        <v>0.249856</v>
+        <v>0.250386</v>
       </c>
       <c r="D98" t="n">
-        <v>0.23935</v>
+        <v>0.239687</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245304</v>
+        <v>0.244117</v>
       </c>
       <c r="C99" t="n">
-        <v>0.24338</v>
+        <v>0.243715</v>
       </c>
       <c r="D99" t="n">
-        <v>0.232943</v>
+        <v>0.232518</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238755</v>
+        <v>0.237811</v>
       </c>
       <c r="C100" t="n">
-        <v>0.236878</v>
+        <v>0.236897</v>
       </c>
       <c r="D100" t="n">
-        <v>0.226735</v>
+        <v>0.225953</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233409</v>
+        <v>0.232032</v>
       </c>
       <c r="C101" t="n">
-        <v>0.231075</v>
+        <v>0.230551</v>
       </c>
       <c r="D101" t="n">
-        <v>0.221338</v>
+        <v>0.218899</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227885</v>
+        <v>0.226522</v>
       </c>
       <c r="C102" t="n">
-        <v>0.224195</v>
+        <v>0.224702</v>
       </c>
       <c r="D102" t="n">
-        <v>0.216162</v>
+        <v>0.21355</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223023</v>
+        <v>0.221386</v>
       </c>
       <c r="C103" t="n">
-        <v>0.219521</v>
+        <v>0.219458</v>
       </c>
       <c r="D103" t="n">
-        <v>0.210354</v>
+        <v>0.208431</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.21829</v>
+        <v>0.217104</v>
       </c>
       <c r="C104" t="n">
-        <v>0.214979</v>
+        <v>0.2146</v>
       </c>
       <c r="D104" t="n">
-        <v>0.20633</v>
+        <v>0.203493</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.21427</v>
+        <v>0.212983</v>
       </c>
       <c r="C105" t="n">
-        <v>0.210779</v>
+        <v>0.210695</v>
       </c>
       <c r="D105" t="n">
-        <v>0.202506</v>
+        <v>0.200186</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210919</v>
+        <v>0.210412</v>
       </c>
       <c r="C106" t="n">
-        <v>0.207907</v>
+        <v>0.207484</v>
       </c>
       <c r="D106" t="n">
-        <v>0.200761</v>
+        <v>0.197418</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.20886</v>
+        <v>0.207993</v>
       </c>
       <c r="C107" t="n">
-        <v>0.205195</v>
+        <v>0.204831</v>
       </c>
       <c r="D107" t="n">
-        <v>0.200185</v>
+        <v>0.1966</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208503</v>
+        <v>0.208095</v>
       </c>
       <c r="C108" t="n">
-        <v>0.20547</v>
+        <v>0.204053</v>
       </c>
       <c r="D108" t="n">
-        <v>0.289575</v>
+        <v>0.288228</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210681</v>
+        <v>0.210155</v>
       </c>
       <c r="C109" t="n">
-        <v>0.207462</v>
+        <v>0.205884</v>
       </c>
       <c r="D109" t="n">
-        <v>0.284176</v>
+        <v>0.282151</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.28538</v>
+        <v>0.289693</v>
       </c>
       <c r="C110" t="n">
-        <v>0.287887</v>
+        <v>0.287428</v>
       </c>
       <c r="D110" t="n">
-        <v>0.276241</v>
+        <v>0.274497</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278692</v>
+        <v>0.282632</v>
       </c>
       <c r="C111" t="n">
-        <v>0.280855</v>
+        <v>0.280263</v>
       </c>
       <c r="D111" t="n">
-        <v>0.270123</v>
+        <v>0.267217</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272523</v>
+        <v>0.276373</v>
       </c>
       <c r="C112" t="n">
-        <v>0.27303</v>
+        <v>0.273046</v>
       </c>
       <c r="D112" t="n">
-        <v>0.263178</v>
+        <v>0.25998</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.267231</v>
+        <v>0.270282</v>
       </c>
       <c r="C113" t="n">
-        <v>0.266912</v>
+        <v>0.266625</v>
       </c>
       <c r="D113" t="n">
-        <v>0.258146</v>
+        <v>0.25361</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.261648</v>
+        <v>0.265041</v>
       </c>
       <c r="C114" t="n">
-        <v>0.260891</v>
+        <v>0.260323</v>
       </c>
       <c r="D114" t="n">
-        <v>0.251948</v>
+        <v>0.249156</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255774</v>
+        <v>0.258815</v>
       </c>
       <c r="C115" t="n">
-        <v>0.255157</v>
+        <v>0.254513</v>
       </c>
       <c r="D115" t="n">
-        <v>0.247305</v>
+        <v>0.241732</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250833</v>
+        <v>0.253831</v>
       </c>
       <c r="C116" t="n">
-        <v>0.250455</v>
+        <v>0.249712</v>
       </c>
       <c r="D116" t="n">
-        <v>0.242338</v>
+        <v>0.236473</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.245814</v>
+        <v>0.248917</v>
       </c>
       <c r="C117" t="n">
-        <v>0.245713</v>
+        <v>0.244778</v>
       </c>
       <c r="D117" t="n">
-        <v>0.238063</v>
+        <v>0.231647</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241872</v>
+        <v>0.244559</v>
       </c>
       <c r="C118" t="n">
-        <v>0.241775</v>
+        <v>0.240714</v>
       </c>
       <c r="D118" t="n">
-        <v>0.234629</v>
+        <v>0.226991</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238134</v>
+        <v>0.240895</v>
       </c>
       <c r="C119" t="n">
-        <v>0.238152</v>
+        <v>0.236266</v>
       </c>
       <c r="D119" t="n">
-        <v>0.231217</v>
+        <v>0.223531</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.235318</v>
+        <v>0.237634</v>
       </c>
       <c r="C120" t="n">
-        <v>0.235283</v>
+        <v>0.232972</v>
       </c>
       <c r="D120" t="n">
-        <v>0.229006</v>
+        <v>0.220798</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232796</v>
+        <v>0.234921</v>
       </c>
       <c r="C121" t="n">
-        <v>0.233351</v>
+        <v>0.230537</v>
       </c>
       <c r="D121" t="n">
-        <v>0.229728</v>
+        <v>0.219393</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231645</v>
+        <v>0.234013</v>
       </c>
       <c r="C122" t="n">
-        <v>0.234587</v>
+        <v>0.229268</v>
       </c>
       <c r="D122" t="n">
-        <v>0.231902</v>
+        <v>0.219621</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232787</v>
+        <v>0.235251</v>
       </c>
       <c r="C123" t="n">
-        <v>0.236709</v>
+        <v>0.230294</v>
       </c>
       <c r="D123" t="n">
-        <v>0.316368</v>
+        <v>0.30452</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.312458</v>
+        <v>0.320635</v>
       </c>
       <c r="C124" t="n">
-        <v>0.320046</v>
+        <v>0.312849</v>
       </c>
       <c r="D124" t="n">
-        <v>0.310431</v>
+        <v>0.298624</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.307236</v>
+        <v>0.320256</v>
       </c>
       <c r="C125" t="n">
-        <v>0.314668</v>
+        <v>0.306789</v>
       </c>
       <c r="D125" t="n">
-        <v>0.307463</v>
+        <v>0.293321</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.302912</v>
+        <v>0.313872</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3052</v>
+        <v>0.301019</v>
       </c>
       <c r="D126" t="n">
-        <v>0.29849</v>
+        <v>0.288053</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.296867</v>
+        <v>0.308248</v>
       </c>
       <c r="C127" t="n">
-        <v>0.299697</v>
+        <v>0.296028</v>
       </c>
       <c r="D127" t="n">
-        <v>0.294414</v>
+        <v>0.284728</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.292636</v>
+        <v>0.303324</v>
       </c>
       <c r="C128" t="n">
-        <v>0.295193</v>
+        <v>0.291194</v>
       </c>
       <c r="D128" t="n">
-        <v>0.290903</v>
+        <v>0.278073</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.288071</v>
+        <v>0.29789</v>
       </c>
       <c r="C129" t="n">
-        <v>0.290862</v>
+        <v>0.286323</v>
       </c>
       <c r="D129" t="n">
-        <v>0.287215</v>
+        <v>0.273636</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.28367</v>
+        <v>0.293222</v>
       </c>
       <c r="C130" t="n">
-        <v>0.287185</v>
+        <v>0.282595</v>
       </c>
       <c r="D130" t="n">
-        <v>0.283728</v>
+        <v>0.268782</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.279898</v>
+        <v>0.288717</v>
       </c>
       <c r="C131" t="n">
-        <v>0.283867</v>
+        <v>0.278448</v>
       </c>
       <c r="D131" t="n">
-        <v>0.281473</v>
+        <v>0.26557</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.27624</v>
+        <v>0.284317</v>
       </c>
       <c r="C132" t="n">
-        <v>0.281372</v>
+        <v>0.275344</v>
       </c>
       <c r="D132" t="n">
-        <v>0.278751</v>
+        <v>0.261298</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273199</v>
+        <v>0.281921</v>
       </c>
       <c r="C133" t="n">
-        <v>0.279004</v>
+        <v>0.271727</v>
       </c>
       <c r="D133" t="n">
-        <v>0.276712</v>
+        <v>0.258563</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.270662</v>
+        <v>0.278419</v>
       </c>
       <c r="C134" t="n">
-        <v>0.277151</v>
+        <v>0.269108</v>
       </c>
       <c r="D134" t="n">
-        <v>0.276079</v>
+        <v>0.255989</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.268763</v>
+        <v>0.276046</v>
       </c>
       <c r="C135" t="n">
-        <v>0.276387</v>
+        <v>0.267308</v>
       </c>
       <c r="D135" t="n">
-        <v>0.275646</v>
+        <v>0.254718</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.267775</v>
+        <v>0.275002</v>
       </c>
       <c r="C136" t="n">
-        <v>0.276529</v>
+        <v>0.266631</v>
       </c>
       <c r="D136" t="n">
-        <v>0.277723</v>
+        <v>0.255714</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.268633</v>
+        <v>0.275598</v>
       </c>
       <c r="C137" t="n">
-        <v>0.279547</v>
+        <v>0.267363</v>
       </c>
       <c r="D137" t="n">
-        <v>0.368018</v>
+        <v>0.348803</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.372519</v>
+        <v>0.366576</v>
       </c>
       <c r="C138" t="n">
-        <v>0.370549</v>
+        <v>0.357459</v>
       </c>
       <c r="D138" t="n">
-        <v>0.36235</v>
+        <v>0.343404</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.366389</v>
+        <v>0.360508</v>
       </c>
       <c r="C139" t="n">
-        <v>0.364014</v>
+        <v>0.352556</v>
       </c>
       <c r="D139" t="n">
-        <v>0.35693</v>
+        <v>0.338105</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.361212</v>
+        <v>0.355118</v>
       </c>
       <c r="C140" t="n">
-        <v>0.35799</v>
+        <v>0.347573</v>
       </c>
       <c r="D140" t="n">
-        <v>0.351841</v>
+        <v>0.333598</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.355213</v>
+        <v>0.349418</v>
       </c>
       <c r="C141" t="n">
-        <v>0.352456</v>
+        <v>0.342972</v>
       </c>
       <c r="D141" t="n">
-        <v>0.347121</v>
+        <v>0.329262</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.350098</v>
+        <v>0.344873</v>
       </c>
       <c r="C142" t="n">
-        <v>0.347481</v>
+        <v>0.338522</v>
       </c>
       <c r="D142" t="n">
-        <v>0.342615</v>
+        <v>0.324446</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.345546</v>
+        <v>0.340107</v>
       </c>
       <c r="C143" t="n">
-        <v>0.343016</v>
+        <v>0.334419</v>
       </c>
       <c r="D143" t="n">
-        <v>0.338364</v>
+        <v>0.320699</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.159862</v>
+        <v>0.16553</v>
       </c>
       <c r="C2" t="n">
-        <v>0.165629</v>
+        <v>0.156871</v>
       </c>
       <c r="D2" t="n">
-        <v>0.159519</v>
+        <v>0.155686</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.151183</v>
+        <v>0.157519</v>
       </c>
       <c r="C3" t="n">
-        <v>0.153062</v>
+        <v>0.157596</v>
       </c>
       <c r="D3" t="n">
-        <v>0.155358</v>
+        <v>0.161924</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.158106</v>
+        <v>0.14537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.157146</v>
+        <v>0.153608</v>
       </c>
       <c r="D4" t="n">
-        <v>0.153947</v>
+        <v>0.150735</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.153125</v>
+        <v>0.157023</v>
       </c>
       <c r="C5" t="n">
-        <v>0.14842</v>
+        <v>0.148555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.153721</v>
+        <v>0.147861</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.147356</v>
+        <v>0.151874</v>
       </c>
       <c r="C6" t="n">
-        <v>0.143461</v>
+        <v>0.147895</v>
       </c>
       <c r="D6" t="n">
-        <v>0.151771</v>
+        <v>0.144876</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.150055</v>
+        <v>0.14751</v>
       </c>
       <c r="C7" t="n">
-        <v>0.138992</v>
+        <v>0.13853</v>
       </c>
       <c r="D7" t="n">
-        <v>0.139984</v>
+        <v>0.139895</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.156117</v>
+        <v>0.155425</v>
       </c>
       <c r="C8" t="n">
-        <v>0.145304</v>
+        <v>0.143134</v>
       </c>
       <c r="D8" t="n">
-        <v>0.146856</v>
+        <v>0.149217</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1499</v>
+        <v>0.153751</v>
       </c>
       <c r="C9" t="n">
-        <v>0.140862</v>
+        <v>0.143524</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218808</v>
+        <v>0.221064</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.205244</v>
+        <v>0.217778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.213736</v>
+        <v>0.207174</v>
       </c>
       <c r="D10" t="n">
-        <v>0.208212</v>
+        <v>0.209717</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.207921</v>
+        <v>0.20903</v>
       </c>
       <c r="C11" t="n">
-        <v>0.20339</v>
+        <v>0.202399</v>
       </c>
       <c r="D11" t="n">
-        <v>0.213775</v>
+        <v>0.200058</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.202946</v>
+        <v>0.205169</v>
       </c>
       <c r="C12" t="n">
-        <v>0.205094</v>
+        <v>0.197917</v>
       </c>
       <c r="D12" t="n">
-        <v>0.20431</v>
+        <v>0.193809</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.19918</v>
+        <v>0.188803</v>
       </c>
       <c r="C13" t="n">
-        <v>0.196802</v>
+        <v>0.193607</v>
       </c>
       <c r="D13" t="n">
-        <v>0.190879</v>
+        <v>0.187079</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.189782</v>
+        <v>0.190119</v>
       </c>
       <c r="C14" t="n">
-        <v>0.195123</v>
+        <v>0.187498</v>
       </c>
       <c r="D14" t="n">
-        <v>0.189188</v>
+        <v>0.180851</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.184946</v>
+        <v>0.178632</v>
       </c>
       <c r="C15" t="n">
-        <v>0.183448</v>
+        <v>0.175552</v>
       </c>
       <c r="D15" t="n">
-        <v>0.184328</v>
+        <v>0.178421</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.179431</v>
+        <v>0.171376</v>
       </c>
       <c r="C16" t="n">
-        <v>0.179176</v>
+        <v>0.170624</v>
       </c>
       <c r="D16" t="n">
-        <v>0.176576</v>
+        <v>0.169594</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.171865</v>
+        <v>0.171416</v>
       </c>
       <c r="C17" t="n">
-        <v>0.171768</v>
+        <v>0.164992</v>
       </c>
       <c r="D17" t="n">
-        <v>0.172466</v>
+        <v>0.160196</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.166728</v>
+        <v>0.165893</v>
       </c>
       <c r="C18" t="n">
-        <v>0.168604</v>
+        <v>0.162617</v>
       </c>
       <c r="D18" t="n">
-        <v>0.167144</v>
+        <v>0.161696</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.163351</v>
+        <v>0.158651</v>
       </c>
       <c r="C19" t="n">
-        <v>0.162881</v>
+        <v>0.160177</v>
       </c>
       <c r="D19" t="n">
-        <v>0.163945</v>
+        <v>0.155401</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.158919</v>
+        <v>0.155261</v>
       </c>
       <c r="C20" t="n">
-        <v>0.159778</v>
+        <v>0.152198</v>
       </c>
       <c r="D20" t="n">
-        <v>0.159596</v>
+        <v>0.153998</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.156911</v>
+        <v>0.154279</v>
       </c>
       <c r="C21" t="n">
-        <v>0.155725</v>
+        <v>0.148221</v>
       </c>
       <c r="D21" t="n">
-        <v>0.155534</v>
+        <v>0.152248</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.156854</v>
+        <v>0.154148</v>
       </c>
       <c r="C22" t="n">
-        <v>0.155907</v>
+        <v>0.149598</v>
       </c>
       <c r="D22" t="n">
-        <v>0.157812</v>
+        <v>0.15306</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.157915</v>
+        <v>0.155503</v>
       </c>
       <c r="C23" t="n">
-        <v>0.155198</v>
+        <v>0.151404</v>
       </c>
       <c r="D23" t="n">
-        <v>0.246298</v>
+        <v>0.246211</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242718</v>
+        <v>0.248188</v>
       </c>
       <c r="C24" t="n">
-        <v>0.238218</v>
+        <v>0.237437</v>
       </c>
       <c r="D24" t="n">
-        <v>0.238203</v>
+        <v>0.238503</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235673</v>
+        <v>0.23707</v>
       </c>
       <c r="C25" t="n">
-        <v>0.22881</v>
+        <v>0.229895</v>
       </c>
       <c r="D25" t="n">
-        <v>0.230065</v>
+        <v>0.229577</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.228635</v>
+        <v>0.229004</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220421</v>
+        <v>0.219994</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220477</v>
+        <v>0.214302</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.219419</v>
+        <v>0.214925</v>
       </c>
       <c r="C27" t="n">
-        <v>0.212084</v>
+        <v>0.208674</v>
       </c>
       <c r="D27" t="n">
-        <v>0.21773</v>
+        <v>0.206446</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.209239</v>
+        <v>0.206378</v>
       </c>
       <c r="C28" t="n">
-        <v>0.204937</v>
+        <v>0.20508</v>
       </c>
       <c r="D28" t="n">
-        <v>0.212894</v>
+        <v>0.20619</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.204721</v>
+        <v>0.201373</v>
       </c>
       <c r="C29" t="n">
-        <v>0.19795</v>
+        <v>0.198504</v>
       </c>
       <c r="D29" t="n">
-        <v>0.202315</v>
+        <v>0.200079</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.194044</v>
+        <v>0.197564</v>
       </c>
       <c r="C30" t="n">
-        <v>0.190892</v>
+        <v>0.191599</v>
       </c>
       <c r="D30" t="n">
-        <v>0.196379</v>
+        <v>0.192914</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.192447</v>
+        <v>0.192043</v>
       </c>
       <c r="C31" t="n">
-        <v>0.185004</v>
+        <v>0.184955</v>
       </c>
       <c r="D31" t="n">
-        <v>0.185342</v>
+        <v>0.190015</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.185095</v>
+        <v>0.184809</v>
       </c>
       <c r="C32" t="n">
-        <v>0.179171</v>
+        <v>0.179374</v>
       </c>
       <c r="D32" t="n">
-        <v>0.173326</v>
+        <v>0.178403</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.177724</v>
+        <v>0.180366</v>
       </c>
       <c r="C33" t="n">
-        <v>0.172001</v>
+        <v>0.174799</v>
       </c>
       <c r="D33" t="n">
-        <v>0.170144</v>
+        <v>0.170947</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.173312</v>
+        <v>0.173075</v>
       </c>
       <c r="C34" t="n">
-        <v>0.167874</v>
+        <v>0.167928</v>
       </c>
       <c r="D34" t="n">
-        <v>0.166525</v>
+        <v>0.164159</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.169944</v>
+        <v>0.170536</v>
       </c>
       <c r="C35" t="n">
-        <v>0.164386</v>
+        <v>0.164466</v>
       </c>
       <c r="D35" t="n">
-        <v>0.163596</v>
+        <v>0.163634</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.169239</v>
+        <v>0.167578</v>
       </c>
       <c r="C36" t="n">
-        <v>0.162653</v>
+        <v>0.162863</v>
       </c>
       <c r="D36" t="n">
-        <v>0.162013</v>
+        <v>0.161467</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.168713</v>
+        <v>0.168912</v>
       </c>
       <c r="C37" t="n">
-        <v>0.162482</v>
+        <v>0.162773</v>
       </c>
       <c r="D37" t="n">
-        <v>0.243849</v>
+        <v>0.244299</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.238846</v>
+        <v>0.243334</v>
       </c>
       <c r="C38" t="n">
-        <v>0.239126</v>
+        <v>0.239037</v>
       </c>
       <c r="D38" t="n">
-        <v>0.235094</v>
+        <v>0.234288</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.23297</v>
+        <v>0.234395</v>
       </c>
       <c r="C39" t="n">
-        <v>0.230104</v>
+        <v>0.230269</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225399</v>
+        <v>0.226483</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.220612</v>
+        <v>0.225848</v>
       </c>
       <c r="C40" t="n">
-        <v>0.221497</v>
+        <v>0.22185</v>
       </c>
       <c r="D40" t="n">
-        <v>0.218975</v>
+        <v>0.21894</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.213036</v>
+        <v>0.21778</v>
       </c>
       <c r="C41" t="n">
-        <v>0.213813</v>
+        <v>0.21396</v>
       </c>
       <c r="D41" t="n">
-        <v>0.209453</v>
+        <v>0.210746</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.208049</v>
+        <v>0.209727</v>
       </c>
       <c r="C42" t="n">
-        <v>0.206357</v>
+        <v>0.20653</v>
       </c>
       <c r="D42" t="n">
-        <v>0.202676</v>
+        <v>0.200296</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.201014</v>
+        <v>0.202573</v>
       </c>
       <c r="C43" t="n">
-        <v>0.199711</v>
+        <v>0.199521</v>
       </c>
       <c r="D43" t="n">
-        <v>0.194462</v>
+        <v>0.194511</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.194139</v>
+        <v>0.196552</v>
       </c>
       <c r="C44" t="n">
-        <v>0.192715</v>
+        <v>0.192758</v>
       </c>
       <c r="D44" t="n">
-        <v>0.187879</v>
+        <v>0.188871</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.188338</v>
+        <v>0.190226</v>
       </c>
       <c r="C45" t="n">
-        <v>0.186787</v>
+        <v>0.186432</v>
       </c>
       <c r="D45" t="n">
-        <v>0.180821</v>
+        <v>0.181404</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.183501</v>
+        <v>0.184151</v>
       </c>
       <c r="C46" t="n">
-        <v>0.181023</v>
+        <v>0.181025</v>
       </c>
       <c r="D46" t="n">
-        <v>0.177118</v>
+        <v>0.176383</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.178394</v>
+        <v>0.180127</v>
       </c>
       <c r="C47" t="n">
-        <v>0.17623</v>
+        <v>0.176105</v>
       </c>
       <c r="D47" t="n">
-        <v>0.171896</v>
+        <v>0.17225</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.174492</v>
+        <v>0.176441</v>
       </c>
       <c r="C48" t="n">
-        <v>0.171875</v>
+        <v>0.171736</v>
       </c>
       <c r="D48" t="n">
-        <v>0.167542</v>
+        <v>0.167557</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.170743</v>
+        <v>0.173624</v>
       </c>
       <c r="C49" t="n">
-        <v>0.168529</v>
+        <v>0.168577</v>
       </c>
       <c r="D49" t="n">
-        <v>0.165263</v>
+        <v>0.164765</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.170574</v>
+        <v>0.171687</v>
       </c>
       <c r="C50" t="n">
-        <v>0.166333</v>
+        <v>0.166163</v>
       </c>
       <c r="D50" t="n">
-        <v>0.164619</v>
+        <v>0.164617</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17224</v>
+        <v>0.17271</v>
       </c>
       <c r="C51" t="n">
-        <v>0.165575</v>
+        <v>0.165754</v>
       </c>
       <c r="D51" t="n">
-        <v>0.247046</v>
+        <v>0.246522</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174717</v>
+        <v>0.175465</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167378</v>
+        <v>0.167657</v>
       </c>
       <c r="D52" t="n">
-        <v>0.237349</v>
+        <v>0.237875</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241313</v>
+        <v>0.239654</v>
       </c>
       <c r="C53" t="n">
-        <v>0.238695</v>
+        <v>0.238275</v>
       </c>
       <c r="D53" t="n">
-        <v>0.22927</v>
+        <v>0.227928</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.232201</v>
+        <v>0.232178</v>
       </c>
       <c r="C54" t="n">
-        <v>0.230126</v>
+        <v>0.229534</v>
       </c>
       <c r="D54" t="n">
-        <v>0.219876</v>
+        <v>0.220049</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.223974</v>
+        <v>0.224153</v>
       </c>
       <c r="C55" t="n">
-        <v>0.221652</v>
+        <v>0.221553</v>
       </c>
       <c r="D55" t="n">
-        <v>0.212139</v>
+        <v>0.212351</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.216289</v>
+        <v>0.216461</v>
       </c>
       <c r="C56" t="n">
-        <v>0.213916</v>
+        <v>0.213509</v>
       </c>
       <c r="D56" t="n">
-        <v>0.204872</v>
+        <v>0.204543</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.209196</v>
+        <v>0.208937</v>
       </c>
       <c r="C57" t="n">
-        <v>0.206399</v>
+        <v>0.206421</v>
       </c>
       <c r="D57" t="n">
-        <v>0.197873</v>
+        <v>0.19752</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.202037</v>
+        <v>0.201907</v>
       </c>
       <c r="C58" t="n">
-        <v>0.199533</v>
+        <v>0.199416</v>
       </c>
       <c r="D58" t="n">
-        <v>0.191659</v>
+        <v>0.191486</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.195774</v>
+        <v>0.195861</v>
       </c>
       <c r="C59" t="n">
-        <v>0.193289</v>
+        <v>0.193079</v>
       </c>
       <c r="D59" t="n">
-        <v>0.185457</v>
+        <v>0.185111</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.189803</v>
+        <v>0.190395</v>
       </c>
       <c r="C60" t="n">
-        <v>0.188704</v>
+        <v>0.187481</v>
       </c>
       <c r="D60" t="n">
-        <v>0.180049</v>
+        <v>0.178729</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.185773</v>
+        <v>0.185097</v>
       </c>
       <c r="C61" t="n">
-        <v>0.182299</v>
+        <v>0.182148</v>
       </c>
       <c r="D61" t="n">
-        <v>0.175634</v>
+        <v>0.175153</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.180829</v>
+        <v>0.181298</v>
       </c>
       <c r="C62" t="n">
-        <v>0.177828</v>
+        <v>0.177546</v>
       </c>
       <c r="D62" t="n">
-        <v>0.171602</v>
+        <v>0.17183</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178316</v>
+        <v>0.178326</v>
       </c>
       <c r="C63" t="n">
-        <v>0.173805</v>
+        <v>0.173695</v>
       </c>
       <c r="D63" t="n">
-        <v>0.169035</v>
+        <v>0.168414</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176647</v>
+        <v>0.17664</v>
       </c>
       <c r="C64" t="n">
-        <v>0.17137</v>
+        <v>0.171169</v>
       </c>
       <c r="D64" t="n">
-        <v>0.167813</v>
+        <v>0.167744</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176952</v>
+        <v>0.177071</v>
       </c>
       <c r="C65" t="n">
-        <v>0.170142</v>
+        <v>0.169858</v>
       </c>
       <c r="D65" t="n">
-        <v>0.169515</v>
+        <v>0.169456</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179533</v>
+        <v>0.179578</v>
       </c>
       <c r="C66" t="n">
-        <v>0.171428</v>
+        <v>0.171415</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243753</v>
+        <v>0.245311</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244969</v>
+        <v>0.244484</v>
       </c>
       <c r="C67" t="n">
-        <v>0.248418</v>
+        <v>0.247494</v>
       </c>
       <c r="D67" t="n">
-        <v>0.235533</v>
+        <v>0.235808</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236969</v>
+        <v>0.234843</v>
       </c>
       <c r="C68" t="n">
-        <v>0.239189</v>
+        <v>0.238492</v>
       </c>
       <c r="D68" t="n">
-        <v>0.226991</v>
+        <v>0.226938</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.229734</v>
+        <v>0.227269</v>
       </c>
       <c r="C69" t="n">
-        <v>0.23063</v>
+        <v>0.22987</v>
       </c>
       <c r="D69" t="n">
-        <v>0.21924</v>
+        <v>0.2182</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.221192</v>
+        <v>0.221094</v>
       </c>
       <c r="C70" t="n">
-        <v>0.222147</v>
+        <v>0.221682</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211608</v>
+        <v>0.211282</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.21392</v>
+        <v>0.213096</v>
       </c>
       <c r="C71" t="n">
-        <v>0.214996</v>
+        <v>0.214125</v>
       </c>
       <c r="D71" t="n">
-        <v>0.204265</v>
+        <v>0.203885</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.207048</v>
+        <v>0.205666</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207562</v>
+        <v>0.207082</v>
       </c>
       <c r="D72" t="n">
-        <v>0.197446</v>
+        <v>0.196874</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.20053</v>
+        <v>0.199994</v>
       </c>
       <c r="C73" t="n">
-        <v>0.200547</v>
+        <v>0.200543</v>
       </c>
       <c r="D73" t="n">
-        <v>0.191217</v>
+        <v>0.19104</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.194466</v>
+        <v>0.193124</v>
       </c>
       <c r="C74" t="n">
-        <v>0.194797</v>
+        <v>0.194108</v>
       </c>
       <c r="D74" t="n">
-        <v>0.185934</v>
+        <v>0.185525</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.189358</v>
+        <v>0.188463</v>
       </c>
       <c r="C75" t="n">
-        <v>0.188841</v>
+        <v>0.188638</v>
       </c>
       <c r="D75" t="n">
-        <v>0.180005</v>
+        <v>0.18018</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.184802</v>
+        <v>0.184419</v>
       </c>
       <c r="C76" t="n">
-        <v>0.184284</v>
+        <v>0.183454</v>
       </c>
       <c r="D76" t="n">
-        <v>0.176569</v>
+        <v>0.176393</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181854</v>
+        <v>0.180816</v>
       </c>
       <c r="C77" t="n">
-        <v>0.179985</v>
+        <v>0.179859</v>
       </c>
       <c r="D77" t="n">
-        <v>0.173033</v>
+        <v>0.172833</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179671</v>
+        <v>0.179479</v>
       </c>
       <c r="C78" t="n">
-        <v>0.17665</v>
+        <v>0.176305</v>
       </c>
       <c r="D78" t="n">
-        <v>0.172284</v>
+        <v>0.17197</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179772</v>
+        <v>0.179819</v>
       </c>
       <c r="C79" t="n">
-        <v>0.175306</v>
+        <v>0.174837</v>
       </c>
       <c r="D79" t="n">
-        <v>0.17328</v>
+        <v>0.173049</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181105</v>
+        <v>0.181784</v>
       </c>
       <c r="C80" t="n">
-        <v>0.175755</v>
+        <v>0.175234</v>
       </c>
       <c r="D80" t="n">
-        <v>0.250282</v>
+        <v>0.249698</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257915</v>
+        <v>0.258386</v>
       </c>
       <c r="C81" t="n">
-        <v>0.252604</v>
+        <v>0.25086</v>
       </c>
       <c r="D81" t="n">
-        <v>0.242272</v>
+        <v>0.240993</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249485</v>
+        <v>0.251682</v>
       </c>
       <c r="C82" t="n">
-        <v>0.244686</v>
+        <v>0.243422</v>
       </c>
       <c r="D82" t="n">
-        <v>0.233458</v>
+        <v>0.232749</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241942</v>
+        <v>0.24341</v>
       </c>
       <c r="C83" t="n">
-        <v>0.237167</v>
+        <v>0.236075</v>
       </c>
       <c r="D83" t="n">
-        <v>0.226155</v>
+        <v>0.224064</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.23419</v>
+        <v>0.235285</v>
       </c>
       <c r="C84" t="n">
-        <v>0.229278</v>
+        <v>0.228124</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218184</v>
+        <v>0.216845</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227248</v>
+        <v>0.227955</v>
       </c>
       <c r="C85" t="n">
-        <v>0.222498</v>
+        <v>0.220927</v>
       </c>
       <c r="D85" t="n">
-        <v>0.211122</v>
+        <v>0.209688</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219827</v>
+        <v>0.221215</v>
       </c>
       <c r="C86" t="n">
-        <v>0.215693</v>
+        <v>0.214117</v>
       </c>
       <c r="D86" t="n">
-        <v>0.205259</v>
+        <v>0.203553</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213438</v>
+        <v>0.215094</v>
       </c>
       <c r="C87" t="n">
-        <v>0.209566</v>
+        <v>0.207748</v>
       </c>
       <c r="D87" t="n">
-        <v>0.19799</v>
+        <v>0.197215</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207325</v>
+        <v>0.208194</v>
       </c>
       <c r="C88" t="n">
-        <v>0.203131</v>
+        <v>0.201799</v>
       </c>
       <c r="D88" t="n">
-        <v>0.19252</v>
+        <v>0.190871</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201719</v>
+        <v>0.202796</v>
       </c>
       <c r="C89" t="n">
-        <v>0.197216</v>
+        <v>0.196291</v>
       </c>
       <c r="D89" t="n">
-        <v>0.187101</v>
+        <v>0.186507</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196463</v>
+        <v>0.197482</v>
       </c>
       <c r="C90" t="n">
-        <v>0.192376</v>
+        <v>0.191237</v>
       </c>
       <c r="D90" t="n">
-        <v>0.183122</v>
+        <v>0.182496</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192988</v>
+        <v>0.193685</v>
       </c>
       <c r="C91" t="n">
-        <v>0.18861</v>
+        <v>0.187285</v>
       </c>
       <c r="D91" t="n">
-        <v>0.180921</v>
+        <v>0.178655</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190191</v>
+        <v>0.190761</v>
       </c>
       <c r="C92" t="n">
-        <v>0.184552</v>
+        <v>0.183986</v>
       </c>
       <c r="D92" t="n">
-        <v>0.177975</v>
+        <v>0.177424</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188599</v>
+        <v>0.189413</v>
       </c>
       <c r="C93" t="n">
-        <v>0.182569</v>
+        <v>0.182176</v>
       </c>
       <c r="D93" t="n">
-        <v>0.178179</v>
+        <v>0.177691</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189236</v>
+        <v>0.190352</v>
       </c>
       <c r="C94" t="n">
-        <v>0.182372</v>
+        <v>0.181795</v>
       </c>
       <c r="D94" t="n">
-        <v>0.269449</v>
+        <v>0.268622</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.270205</v>
+        <v>0.272095</v>
       </c>
       <c r="C95" t="n">
-        <v>0.270632</v>
+        <v>0.270507</v>
       </c>
       <c r="D95" t="n">
-        <v>0.261958</v>
+        <v>0.261629</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.263632</v>
+        <v>0.266335</v>
       </c>
       <c r="C96" t="n">
-        <v>0.265023</v>
+        <v>0.264449</v>
       </c>
       <c r="D96" t="n">
-        <v>0.254057</v>
+        <v>0.253461</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257076</v>
+        <v>0.259108</v>
       </c>
       <c r="C97" t="n">
-        <v>0.257337</v>
+        <v>0.256774</v>
       </c>
       <c r="D97" t="n">
-        <v>0.247098</v>
+        <v>0.245747</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.250316</v>
+        <v>0.252558</v>
       </c>
       <c r="C98" t="n">
-        <v>0.250386</v>
+        <v>0.250161</v>
       </c>
       <c r="D98" t="n">
-        <v>0.239687</v>
+        <v>0.239126</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244117</v>
+        <v>0.246246</v>
       </c>
       <c r="C99" t="n">
-        <v>0.243715</v>
+        <v>0.243452</v>
       </c>
       <c r="D99" t="n">
-        <v>0.232518</v>
+        <v>0.231167</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.237811</v>
+        <v>0.239835</v>
       </c>
       <c r="C100" t="n">
-        <v>0.236897</v>
+        <v>0.236071</v>
       </c>
       <c r="D100" t="n">
-        <v>0.225953</v>
+        <v>0.225565</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.232032</v>
+        <v>0.233995</v>
       </c>
       <c r="C101" t="n">
-        <v>0.230551</v>
+        <v>0.230254</v>
       </c>
       <c r="D101" t="n">
-        <v>0.218899</v>
+        <v>0.219379</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.226522</v>
+        <v>0.228425</v>
       </c>
       <c r="C102" t="n">
-        <v>0.224702</v>
+        <v>0.224714</v>
       </c>
       <c r="D102" t="n">
-        <v>0.21355</v>
+        <v>0.213708</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.221386</v>
+        <v>0.222836</v>
       </c>
       <c r="C103" t="n">
-        <v>0.219458</v>
+        <v>0.221179</v>
       </c>
       <c r="D103" t="n">
-        <v>0.208431</v>
+        <v>0.209992</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.217104</v>
+        <v>0.21911</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2146</v>
+        <v>0.216198</v>
       </c>
       <c r="D104" t="n">
-        <v>0.203493</v>
+        <v>0.204868</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.212983</v>
+        <v>0.214545</v>
       </c>
       <c r="C105" t="n">
-        <v>0.210695</v>
+        <v>0.212033</v>
       </c>
       <c r="D105" t="n">
-        <v>0.200186</v>
+        <v>0.19973</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210412</v>
+        <v>0.211328</v>
       </c>
       <c r="C106" t="n">
-        <v>0.207484</v>
+        <v>0.207377</v>
       </c>
       <c r="D106" t="n">
-        <v>0.197418</v>
+        <v>0.198333</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.207993</v>
+        <v>0.209097</v>
       </c>
       <c r="C107" t="n">
-        <v>0.204831</v>
+        <v>0.205857</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1966</v>
+        <v>0.197216</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208095</v>
+        <v>0.209087</v>
       </c>
       <c r="C108" t="n">
-        <v>0.204053</v>
+        <v>0.205084</v>
       </c>
       <c r="D108" t="n">
-        <v>0.288228</v>
+        <v>0.29192</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210155</v>
+        <v>0.211016</v>
       </c>
       <c r="C109" t="n">
-        <v>0.205884</v>
+        <v>0.206868</v>
       </c>
       <c r="D109" t="n">
-        <v>0.282151</v>
+        <v>0.285224</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.289693</v>
+        <v>0.285486</v>
       </c>
       <c r="C110" t="n">
-        <v>0.287428</v>
+        <v>0.29016</v>
       </c>
       <c r="D110" t="n">
-        <v>0.274497</v>
+        <v>0.277574</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.282632</v>
+        <v>0.279556</v>
       </c>
       <c r="C111" t="n">
-        <v>0.280263</v>
+        <v>0.283154</v>
       </c>
       <c r="D111" t="n">
-        <v>0.267217</v>
+        <v>0.266355</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.276373</v>
+        <v>0.273012</v>
       </c>
       <c r="C112" t="n">
-        <v>0.273046</v>
+        <v>0.273244</v>
       </c>
       <c r="D112" t="n">
-        <v>0.25998</v>
+        <v>0.260571</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.270282</v>
+        <v>0.266761</v>
       </c>
       <c r="C113" t="n">
-        <v>0.266625</v>
+        <v>0.26694</v>
       </c>
       <c r="D113" t="n">
-        <v>0.25361</v>
+        <v>0.253592</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.265041</v>
+        <v>0.261325</v>
       </c>
       <c r="C114" t="n">
-        <v>0.260323</v>
+        <v>0.260755</v>
       </c>
       <c r="D114" t="n">
-        <v>0.249156</v>
+        <v>0.247861</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.258815</v>
+        <v>0.256484</v>
       </c>
       <c r="C115" t="n">
-        <v>0.254513</v>
+        <v>0.255205</v>
       </c>
       <c r="D115" t="n">
-        <v>0.241732</v>
+        <v>0.24211</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.253831</v>
+        <v>0.251116</v>
       </c>
       <c r="C116" t="n">
-        <v>0.249712</v>
+        <v>0.249855</v>
       </c>
       <c r="D116" t="n">
-        <v>0.236473</v>
+        <v>0.236621</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.248917</v>
+        <v>0.246733</v>
       </c>
       <c r="C117" t="n">
-        <v>0.244778</v>
+        <v>0.244766</v>
       </c>
       <c r="D117" t="n">
-        <v>0.231647</v>
+        <v>0.231334</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.244559</v>
+        <v>0.242275</v>
       </c>
       <c r="C118" t="n">
-        <v>0.240714</v>
+        <v>0.240468</v>
       </c>
       <c r="D118" t="n">
-        <v>0.226991</v>
+        <v>0.227373</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240895</v>
+        <v>0.238057</v>
       </c>
       <c r="C119" t="n">
-        <v>0.236266</v>
+        <v>0.236691</v>
       </c>
       <c r="D119" t="n">
-        <v>0.223531</v>
+        <v>0.223324</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.237634</v>
+        <v>0.235064</v>
       </c>
       <c r="C120" t="n">
-        <v>0.232972</v>
+        <v>0.233253</v>
       </c>
       <c r="D120" t="n">
-        <v>0.220798</v>
+        <v>0.220434</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.234921</v>
+        <v>0.233255</v>
       </c>
       <c r="C121" t="n">
-        <v>0.230537</v>
+        <v>0.230626</v>
       </c>
       <c r="D121" t="n">
-        <v>0.219393</v>
+        <v>0.218777</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.234013</v>
+        <v>0.232157</v>
       </c>
       <c r="C122" t="n">
-        <v>0.229268</v>
+        <v>0.229699</v>
       </c>
       <c r="D122" t="n">
-        <v>0.219621</v>
+        <v>0.220302</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.235251</v>
+        <v>0.233395</v>
       </c>
       <c r="C123" t="n">
-        <v>0.230294</v>
+        <v>0.23061</v>
       </c>
       <c r="D123" t="n">
-        <v>0.30452</v>
+        <v>0.306049</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.320635</v>
+        <v>0.318802</v>
       </c>
       <c r="C124" t="n">
-        <v>0.312849</v>
+        <v>0.312748</v>
       </c>
       <c r="D124" t="n">
-        <v>0.298624</v>
+        <v>0.299923</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.320256</v>
+        <v>0.312052</v>
       </c>
       <c r="C125" t="n">
-        <v>0.306789</v>
+        <v>0.307302</v>
       </c>
       <c r="D125" t="n">
-        <v>0.293321</v>
+        <v>0.293677</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.313872</v>
+        <v>0.305779</v>
       </c>
       <c r="C126" t="n">
-        <v>0.301019</v>
+        <v>0.301365</v>
       </c>
       <c r="D126" t="n">
-        <v>0.288053</v>
+        <v>0.288584</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.308248</v>
+        <v>0.300548</v>
       </c>
       <c r="C127" t="n">
-        <v>0.296028</v>
+        <v>0.296318</v>
       </c>
       <c r="D127" t="n">
-        <v>0.284728</v>
+        <v>0.282574</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.303324</v>
+        <v>0.295916</v>
       </c>
       <c r="C128" t="n">
-        <v>0.291194</v>
+        <v>0.291003</v>
       </c>
       <c r="D128" t="n">
-        <v>0.278073</v>
+        <v>0.278042</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.29789</v>
+        <v>0.291225</v>
       </c>
       <c r="C129" t="n">
-        <v>0.286323</v>
+        <v>0.286484</v>
       </c>
       <c r="D129" t="n">
-        <v>0.273636</v>
+        <v>0.273477</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.293222</v>
+        <v>0.286493</v>
       </c>
       <c r="C130" t="n">
-        <v>0.282595</v>
+        <v>0.282073</v>
       </c>
       <c r="D130" t="n">
-        <v>0.268782</v>
+        <v>0.269758</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.288717</v>
+        <v>0.281523</v>
       </c>
       <c r="C131" t="n">
-        <v>0.278448</v>
+        <v>0.278437</v>
       </c>
       <c r="D131" t="n">
-        <v>0.26557</v>
+        <v>0.265607</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.284317</v>
+        <v>0.278156</v>
       </c>
       <c r="C132" t="n">
-        <v>0.275344</v>
+        <v>0.274679</v>
       </c>
       <c r="D132" t="n">
-        <v>0.261298</v>
+        <v>0.262305</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.281921</v>
+        <v>0.275215</v>
       </c>
       <c r="C133" t="n">
-        <v>0.271727</v>
+        <v>0.271426</v>
       </c>
       <c r="D133" t="n">
-        <v>0.258563</v>
+        <v>0.259239</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.278419</v>
+        <v>0.27257</v>
       </c>
       <c r="C134" t="n">
-        <v>0.269108</v>
+        <v>0.269045</v>
       </c>
       <c r="D134" t="n">
-        <v>0.255989</v>
+        <v>0.257023</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.276046</v>
+        <v>0.270482</v>
       </c>
       <c r="C135" t="n">
-        <v>0.267308</v>
+        <v>0.26689</v>
       </c>
       <c r="D135" t="n">
-        <v>0.254718</v>
+        <v>0.255731</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.275002</v>
+        <v>0.2698</v>
       </c>
       <c r="C136" t="n">
-        <v>0.266631</v>
+        <v>0.265892</v>
       </c>
       <c r="D136" t="n">
-        <v>0.255714</v>
+        <v>0.25623</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.275598</v>
+        <v>0.270729</v>
       </c>
       <c r="C137" t="n">
-        <v>0.267363</v>
+        <v>0.266742</v>
       </c>
       <c r="D137" t="n">
-        <v>0.348803</v>
+        <v>0.353378</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.366576</v>
+        <v>0.360557</v>
       </c>
       <c r="C138" t="n">
-        <v>0.357459</v>
+        <v>0.361183</v>
       </c>
       <c r="D138" t="n">
-        <v>0.343404</v>
+        <v>0.347888</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.360508</v>
+        <v>0.355258</v>
       </c>
       <c r="C139" t="n">
-        <v>0.352556</v>
+        <v>0.35558</v>
       </c>
       <c r="D139" t="n">
-        <v>0.338105</v>
+        <v>0.342609</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.355118</v>
+        <v>0.350634</v>
       </c>
       <c r="C140" t="n">
-        <v>0.347573</v>
+        <v>0.350584</v>
       </c>
       <c r="D140" t="n">
-        <v>0.333598</v>
+        <v>0.337106</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.349418</v>
+        <v>0.345778</v>
       </c>
       <c r="C141" t="n">
-        <v>0.342972</v>
+        <v>0.346215</v>
       </c>
       <c r="D141" t="n">
-        <v>0.329262</v>
+        <v>0.333032</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.344873</v>
+        <v>0.34078</v>
       </c>
       <c r="C142" t="n">
-        <v>0.338522</v>
+        <v>0.341075</v>
       </c>
       <c r="D142" t="n">
-        <v>0.324446</v>
+        <v>0.328818</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.340107</v>
+        <v>0.336857</v>
       </c>
       <c r="C143" t="n">
-        <v>0.334419</v>
+        <v>0.339244</v>
       </c>
       <c r="D143" t="n">
-        <v>0.320699</v>
+        <v>0.323786</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.16553</v>
+        <v>0.157765</v>
       </c>
       <c r="C2" t="n">
-        <v>0.156871</v>
+        <v>0.13415</v>
       </c>
       <c r="D2" t="n">
-        <v>0.155686</v>
+        <v>0.13488</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.157519</v>
+        <v>0.158207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.157596</v>
+        <v>0.130206</v>
       </c>
       <c r="D3" t="n">
-        <v>0.161924</v>
+        <v>0.140748</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.14537</v>
+        <v>0.152925</v>
       </c>
       <c r="C4" t="n">
-        <v>0.153608</v>
+        <v>0.125045</v>
       </c>
       <c r="D4" t="n">
-        <v>0.150735</v>
+        <v>0.126657</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.157023</v>
+        <v>0.139071</v>
       </c>
       <c r="C5" t="n">
-        <v>0.148555</v>
+        <v>0.13052</v>
       </c>
       <c r="D5" t="n">
-        <v>0.147861</v>
+        <v>0.129434</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.151874</v>
+        <v>0.139747</v>
       </c>
       <c r="C6" t="n">
-        <v>0.147895</v>
+        <v>0.12242</v>
       </c>
       <c r="D6" t="n">
-        <v>0.144876</v>
+        <v>0.132665</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.14751</v>
+        <v>0.148753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.13853</v>
+        <v>0.112847</v>
       </c>
       <c r="D7" t="n">
-        <v>0.139895</v>
+        <v>0.115342</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.155425</v>
+        <v>0.142029</v>
       </c>
       <c r="C8" t="n">
-        <v>0.143134</v>
+        <v>0.109979</v>
       </c>
       <c r="D8" t="n">
-        <v>0.149217</v>
+        <v>0.118227</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.153751</v>
+        <v>0.149176</v>
       </c>
       <c r="C9" t="n">
-        <v>0.143524</v>
+        <v>0.108947</v>
       </c>
       <c r="D9" t="n">
-        <v>0.221064</v>
+        <v>0.193235</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.217778</v>
+        <v>0.216863</v>
       </c>
       <c r="C10" t="n">
-        <v>0.207174</v>
+        <v>0.19091</v>
       </c>
       <c r="D10" t="n">
-        <v>0.209717</v>
+        <v>0.197905</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.20903</v>
+        <v>0.214241</v>
       </c>
       <c r="C11" t="n">
-        <v>0.202399</v>
+        <v>0.184605</v>
       </c>
       <c r="D11" t="n">
-        <v>0.200058</v>
+        <v>0.181873</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.205169</v>
+        <v>0.205707</v>
       </c>
       <c r="C12" t="n">
-        <v>0.197917</v>
+        <v>0.178888</v>
       </c>
       <c r="D12" t="n">
-        <v>0.193809</v>
+        <v>0.178945</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.188803</v>
+        <v>0.198652</v>
       </c>
       <c r="C13" t="n">
-        <v>0.193607</v>
+        <v>0.175158</v>
       </c>
       <c r="D13" t="n">
-        <v>0.187079</v>
+        <v>0.177969</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.190119</v>
+        <v>0.188845</v>
       </c>
       <c r="C14" t="n">
-        <v>0.187498</v>
+        <v>0.164518</v>
       </c>
       <c r="D14" t="n">
-        <v>0.180851</v>
+        <v>0.169903</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.178632</v>
+        <v>0.180606</v>
       </c>
       <c r="C15" t="n">
-        <v>0.175552</v>
+        <v>0.163333</v>
       </c>
       <c r="D15" t="n">
-        <v>0.178421</v>
+        <v>0.167286</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.171376</v>
+        <v>0.180706</v>
       </c>
       <c r="C16" t="n">
-        <v>0.170624</v>
+        <v>0.154882</v>
       </c>
       <c r="D16" t="n">
-        <v>0.169594</v>
+        <v>0.161816</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.171416</v>
+        <v>0.175572</v>
       </c>
       <c r="C17" t="n">
-        <v>0.164992</v>
+        <v>0.145717</v>
       </c>
       <c r="D17" t="n">
-        <v>0.160196</v>
+        <v>0.150356</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.165893</v>
+        <v>0.16703</v>
       </c>
       <c r="C18" t="n">
-        <v>0.162617</v>
+        <v>0.145035</v>
       </c>
       <c r="D18" t="n">
-        <v>0.161696</v>
+        <v>0.151013</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.158651</v>
+        <v>0.165747</v>
       </c>
       <c r="C19" t="n">
-        <v>0.160177</v>
+        <v>0.139975</v>
       </c>
       <c r="D19" t="n">
-        <v>0.155401</v>
+        <v>0.145548</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.155261</v>
+        <v>0.160811</v>
       </c>
       <c r="C20" t="n">
-        <v>0.152198</v>
+        <v>0.135964</v>
       </c>
       <c r="D20" t="n">
-        <v>0.153998</v>
+        <v>0.140482</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.154279</v>
+        <v>0.162122</v>
       </c>
       <c r="C21" t="n">
-        <v>0.148221</v>
+        <v>0.135388</v>
       </c>
       <c r="D21" t="n">
-        <v>0.152248</v>
+        <v>0.138859</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.154148</v>
+        <v>0.163342</v>
       </c>
       <c r="C22" t="n">
-        <v>0.149598</v>
+        <v>0.133424</v>
       </c>
       <c r="D22" t="n">
-        <v>0.15306</v>
+        <v>0.138374</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.155503</v>
+        <v>0.163623</v>
       </c>
       <c r="C23" t="n">
-        <v>0.151404</v>
+        <v>0.133099</v>
       </c>
       <c r="D23" t="n">
-        <v>0.246211</v>
+        <v>0.224374</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.248188</v>
+        <v>0.250598</v>
       </c>
       <c r="C24" t="n">
-        <v>0.237437</v>
+        <v>0.216439</v>
       </c>
       <c r="D24" t="n">
-        <v>0.238503</v>
+        <v>0.216247</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.23707</v>
+        <v>0.239798</v>
       </c>
       <c r="C25" t="n">
-        <v>0.229895</v>
+        <v>0.207613</v>
       </c>
       <c r="D25" t="n">
-        <v>0.229577</v>
+        <v>0.209474</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.229004</v>
+        <v>0.231192</v>
       </c>
       <c r="C26" t="n">
-        <v>0.219994</v>
+        <v>0.201276</v>
       </c>
       <c r="D26" t="n">
-        <v>0.214302</v>
+        <v>0.204111</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.214925</v>
+        <v>0.220181</v>
       </c>
       <c r="C27" t="n">
-        <v>0.208674</v>
+        <v>0.193546</v>
       </c>
       <c r="D27" t="n">
-        <v>0.206446</v>
+        <v>0.203584</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.206378</v>
+        <v>0.213254</v>
       </c>
       <c r="C28" t="n">
-        <v>0.20508</v>
+        <v>0.186422</v>
       </c>
       <c r="D28" t="n">
-        <v>0.20619</v>
+        <v>0.180982</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.201373</v>
+        <v>0.204799</v>
       </c>
       <c r="C29" t="n">
-        <v>0.198504</v>
+        <v>0.176444</v>
       </c>
       <c r="D29" t="n">
-        <v>0.200079</v>
+        <v>0.172653</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.197564</v>
+        <v>0.196681</v>
       </c>
       <c r="C30" t="n">
-        <v>0.191599</v>
+        <v>0.16989</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192914</v>
+        <v>0.168892</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.192043</v>
+        <v>0.190049</v>
       </c>
       <c r="C31" t="n">
-        <v>0.184955</v>
+        <v>0.164482</v>
       </c>
       <c r="D31" t="n">
-        <v>0.190015</v>
+        <v>0.160647</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.184809</v>
+        <v>0.179367</v>
       </c>
       <c r="C32" t="n">
-        <v>0.179374</v>
+        <v>0.158767</v>
       </c>
       <c r="D32" t="n">
-        <v>0.178403</v>
+        <v>0.155373</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.180366</v>
+        <v>0.172933</v>
       </c>
       <c r="C33" t="n">
-        <v>0.174799</v>
+        <v>0.154127</v>
       </c>
       <c r="D33" t="n">
-        <v>0.170947</v>
+        <v>0.151557</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.173075</v>
+        <v>0.173742</v>
       </c>
       <c r="C34" t="n">
-        <v>0.167928</v>
+        <v>0.149874</v>
       </c>
       <c r="D34" t="n">
-        <v>0.164159</v>
+        <v>0.148697</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.170536</v>
+        <v>0.170313</v>
       </c>
       <c r="C35" t="n">
-        <v>0.164466</v>
+        <v>0.146672</v>
       </c>
       <c r="D35" t="n">
-        <v>0.163634</v>
+        <v>0.146385</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.167578</v>
+        <v>0.172123</v>
       </c>
       <c r="C36" t="n">
-        <v>0.162863</v>
+        <v>0.144065</v>
       </c>
       <c r="D36" t="n">
-        <v>0.161467</v>
+        <v>0.145108</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.168912</v>
+        <v>0.172168</v>
       </c>
       <c r="C37" t="n">
-        <v>0.162773</v>
+        <v>0.143614</v>
       </c>
       <c r="D37" t="n">
-        <v>0.244299</v>
+        <v>0.223141</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243334</v>
+        <v>0.244517</v>
       </c>
       <c r="C38" t="n">
-        <v>0.239037</v>
+        <v>0.221061</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234288</v>
+        <v>0.216963</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.234395</v>
+        <v>0.234294</v>
       </c>
       <c r="C39" t="n">
-        <v>0.230269</v>
+        <v>0.212399</v>
       </c>
       <c r="D39" t="n">
-        <v>0.226483</v>
+        <v>0.207148</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.225848</v>
+        <v>0.226807</v>
       </c>
       <c r="C40" t="n">
-        <v>0.22185</v>
+        <v>0.204053</v>
       </c>
       <c r="D40" t="n">
-        <v>0.21894</v>
+        <v>0.199908</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.21778</v>
+        <v>0.21836</v>
       </c>
       <c r="C41" t="n">
-        <v>0.21396</v>
+        <v>0.196247</v>
       </c>
       <c r="D41" t="n">
-        <v>0.210746</v>
+        <v>0.192271</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.209727</v>
+        <v>0.209641</v>
       </c>
       <c r="C42" t="n">
-        <v>0.20653</v>
+        <v>0.188845</v>
       </c>
       <c r="D42" t="n">
-        <v>0.200296</v>
+        <v>0.184362</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.202573</v>
+        <v>0.202711</v>
       </c>
       <c r="C43" t="n">
-        <v>0.199521</v>
+        <v>0.18169</v>
       </c>
       <c r="D43" t="n">
-        <v>0.194511</v>
+        <v>0.177775</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.196552</v>
+        <v>0.19718</v>
       </c>
       <c r="C44" t="n">
-        <v>0.192758</v>
+        <v>0.175258</v>
       </c>
       <c r="D44" t="n">
-        <v>0.188871</v>
+        <v>0.171076</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190226</v>
+        <v>0.191662</v>
       </c>
       <c r="C45" t="n">
-        <v>0.186432</v>
+        <v>0.169302</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181404</v>
+        <v>0.165379</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.184151</v>
+        <v>0.185052</v>
       </c>
       <c r="C46" t="n">
-        <v>0.181025</v>
+        <v>0.163979</v>
       </c>
       <c r="D46" t="n">
-        <v>0.176383</v>
+        <v>0.160642</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.180127</v>
+        <v>0.18071</v>
       </c>
       <c r="C47" t="n">
-        <v>0.176105</v>
+        <v>0.159002</v>
       </c>
       <c r="D47" t="n">
-        <v>0.17225</v>
+        <v>0.156313</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.176441</v>
+        <v>0.176099</v>
       </c>
       <c r="C48" t="n">
-        <v>0.171736</v>
+        <v>0.154784</v>
       </c>
       <c r="D48" t="n">
-        <v>0.167557</v>
+        <v>0.15274</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173624</v>
+        <v>0.17383</v>
       </c>
       <c r="C49" t="n">
-        <v>0.168577</v>
+        <v>0.151443</v>
       </c>
       <c r="D49" t="n">
-        <v>0.164765</v>
+        <v>0.150209</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171687</v>
+        <v>0.174056</v>
       </c>
       <c r="C50" t="n">
-        <v>0.166163</v>
+        <v>0.148533</v>
       </c>
       <c r="D50" t="n">
-        <v>0.164617</v>
+        <v>0.149327</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17271</v>
+        <v>0.174048</v>
       </c>
       <c r="C51" t="n">
-        <v>0.165754</v>
+        <v>0.147251</v>
       </c>
       <c r="D51" t="n">
-        <v>0.246522</v>
+        <v>0.230804</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175465</v>
+        <v>0.176422</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167657</v>
+        <v>0.148256</v>
       </c>
       <c r="D52" t="n">
-        <v>0.237875</v>
+        <v>0.221913</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.239654</v>
+        <v>0.242481</v>
       </c>
       <c r="C53" t="n">
-        <v>0.238275</v>
+        <v>0.21864</v>
       </c>
       <c r="D53" t="n">
-        <v>0.227928</v>
+        <v>0.213909</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.232178</v>
+        <v>0.233485</v>
       </c>
       <c r="C54" t="n">
-        <v>0.229534</v>
+        <v>0.21034</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220049</v>
+        <v>0.205541</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.224153</v>
+        <v>0.22536</v>
       </c>
       <c r="C55" t="n">
-        <v>0.221553</v>
+        <v>0.20208</v>
       </c>
       <c r="D55" t="n">
-        <v>0.212351</v>
+        <v>0.197405</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.216461</v>
+        <v>0.217531</v>
       </c>
       <c r="C56" t="n">
-        <v>0.213509</v>
+        <v>0.194724</v>
       </c>
       <c r="D56" t="n">
-        <v>0.204543</v>
+        <v>0.190126</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208937</v>
+        <v>0.209716</v>
       </c>
       <c r="C57" t="n">
-        <v>0.206421</v>
+        <v>0.187711</v>
       </c>
       <c r="D57" t="n">
-        <v>0.19752</v>
+        <v>0.183273</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.201907</v>
+        <v>0.202996</v>
       </c>
       <c r="C58" t="n">
-        <v>0.199416</v>
+        <v>0.181018</v>
       </c>
       <c r="D58" t="n">
-        <v>0.191486</v>
+        <v>0.176913</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.195861</v>
+        <v>0.197037</v>
       </c>
       <c r="C59" t="n">
-        <v>0.193079</v>
+        <v>0.174654</v>
       </c>
       <c r="D59" t="n">
-        <v>0.185111</v>
+        <v>0.170999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.190395</v>
+        <v>0.190963</v>
       </c>
       <c r="C60" t="n">
-        <v>0.187481</v>
+        <v>0.168994</v>
       </c>
       <c r="D60" t="n">
-        <v>0.178729</v>
+        <v>0.165516</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.185097</v>
+        <v>0.186043</v>
       </c>
       <c r="C61" t="n">
-        <v>0.182148</v>
+        <v>0.164074</v>
       </c>
       <c r="D61" t="n">
-        <v>0.175153</v>
+        <v>0.161102</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.181298</v>
+        <v>0.18209</v>
       </c>
       <c r="C62" t="n">
-        <v>0.177546</v>
+        <v>0.159229</v>
       </c>
       <c r="D62" t="n">
-        <v>0.17183</v>
+        <v>0.157141</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178326</v>
+        <v>0.178881</v>
       </c>
       <c r="C63" t="n">
-        <v>0.173695</v>
+        <v>0.155101</v>
       </c>
       <c r="D63" t="n">
-        <v>0.168414</v>
+        <v>0.154434</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.17664</v>
+        <v>0.177163</v>
       </c>
       <c r="C64" t="n">
-        <v>0.171169</v>
+        <v>0.152282</v>
       </c>
       <c r="D64" t="n">
-        <v>0.167744</v>
+        <v>0.152696</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177071</v>
+        <v>0.177364</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169858</v>
+        <v>0.150663</v>
       </c>
       <c r="D65" t="n">
-        <v>0.169456</v>
+        <v>0.153926</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179578</v>
+        <v>0.179686</v>
       </c>
       <c r="C66" t="n">
-        <v>0.171415</v>
+        <v>0.15137</v>
       </c>
       <c r="D66" t="n">
-        <v>0.245311</v>
+        <v>0.229651</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244484</v>
+        <v>0.245183</v>
       </c>
       <c r="C67" t="n">
-        <v>0.247494</v>
+        <v>0.227175</v>
       </c>
       <c r="D67" t="n">
-        <v>0.235808</v>
+        <v>0.220614</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.234843</v>
+        <v>0.234318</v>
       </c>
       <c r="C68" t="n">
-        <v>0.238492</v>
+        <v>0.219023</v>
       </c>
       <c r="D68" t="n">
-        <v>0.226938</v>
+        <v>0.212708</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.227269</v>
+        <v>0.227003</v>
       </c>
       <c r="C69" t="n">
-        <v>0.22987</v>
+        <v>0.210558</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2182</v>
+        <v>0.204786</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.221094</v>
+        <v>0.219651</v>
       </c>
       <c r="C70" t="n">
-        <v>0.221682</v>
+        <v>0.202479</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211282</v>
+        <v>0.197097</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213096</v>
+        <v>0.213769</v>
       </c>
       <c r="C71" t="n">
-        <v>0.214125</v>
+        <v>0.195168</v>
       </c>
       <c r="D71" t="n">
-        <v>0.203885</v>
+        <v>0.189784</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205666</v>
+        <v>0.207097</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207082</v>
+        <v>0.188382</v>
       </c>
       <c r="D72" t="n">
-        <v>0.196874</v>
+        <v>0.182595</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199994</v>
+        <v>0.200096</v>
       </c>
       <c r="C73" t="n">
-        <v>0.200543</v>
+        <v>0.181893</v>
       </c>
       <c r="D73" t="n">
-        <v>0.19104</v>
+        <v>0.176914</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193124</v>
+        <v>0.194781</v>
       </c>
       <c r="C74" t="n">
-        <v>0.194108</v>
+        <v>0.175785</v>
       </c>
       <c r="D74" t="n">
-        <v>0.185525</v>
+        <v>0.171522</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188463</v>
+        <v>0.18937</v>
       </c>
       <c r="C75" t="n">
-        <v>0.188638</v>
+        <v>0.170062</v>
       </c>
       <c r="D75" t="n">
-        <v>0.18018</v>
+        <v>0.16626</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.184419</v>
+        <v>0.185497</v>
       </c>
       <c r="C76" t="n">
-        <v>0.183454</v>
+        <v>0.16524</v>
       </c>
       <c r="D76" t="n">
-        <v>0.176393</v>
+        <v>0.162368</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.180816</v>
+        <v>0.18196</v>
       </c>
       <c r="C77" t="n">
-        <v>0.179859</v>
+        <v>0.16094</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172833</v>
+        <v>0.15891</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179479</v>
+        <v>0.179568</v>
       </c>
       <c r="C78" t="n">
-        <v>0.176305</v>
+        <v>0.157705</v>
       </c>
       <c r="D78" t="n">
-        <v>0.17197</v>
+        <v>0.157072</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179819</v>
+        <v>0.179654</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174837</v>
+        <v>0.155829</v>
       </c>
       <c r="D79" t="n">
-        <v>0.173049</v>
+        <v>0.157418</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181784</v>
+        <v>0.182</v>
       </c>
       <c r="C80" t="n">
-        <v>0.175234</v>
+        <v>0.155756</v>
       </c>
       <c r="D80" t="n">
-        <v>0.249698</v>
+        <v>0.234214</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258386</v>
+        <v>0.258131</v>
       </c>
       <c r="C81" t="n">
-        <v>0.25086</v>
+        <v>0.231662</v>
       </c>
       <c r="D81" t="n">
-        <v>0.240993</v>
+        <v>0.225256</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251682</v>
+        <v>0.250601</v>
       </c>
       <c r="C82" t="n">
-        <v>0.243422</v>
+        <v>0.223488</v>
       </c>
       <c r="D82" t="n">
-        <v>0.232749</v>
+        <v>0.217013</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.24341</v>
+        <v>0.242804</v>
       </c>
       <c r="C83" t="n">
-        <v>0.236075</v>
+        <v>0.215873</v>
       </c>
       <c r="D83" t="n">
-        <v>0.224064</v>
+        <v>0.209419</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235285</v>
+        <v>0.235222</v>
       </c>
       <c r="C84" t="n">
-        <v>0.228124</v>
+        <v>0.208084</v>
       </c>
       <c r="D84" t="n">
-        <v>0.216845</v>
+        <v>0.202018</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227955</v>
+        <v>0.227988</v>
       </c>
       <c r="C85" t="n">
-        <v>0.220927</v>
+        <v>0.201251</v>
       </c>
       <c r="D85" t="n">
-        <v>0.209688</v>
+        <v>0.195514</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.221215</v>
+        <v>0.221101</v>
       </c>
       <c r="C86" t="n">
-        <v>0.214117</v>
+        <v>0.194923</v>
       </c>
       <c r="D86" t="n">
-        <v>0.203553</v>
+        <v>0.189561</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.215094</v>
+        <v>0.214404</v>
       </c>
       <c r="C87" t="n">
-        <v>0.207748</v>
+        <v>0.188954</v>
       </c>
       <c r="D87" t="n">
-        <v>0.197215</v>
+        <v>0.183161</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208194</v>
+        <v>0.208151</v>
       </c>
       <c r="C88" t="n">
-        <v>0.201799</v>
+        <v>0.182842</v>
       </c>
       <c r="D88" t="n">
-        <v>0.190871</v>
+        <v>0.177085</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.202796</v>
+        <v>0.202809</v>
       </c>
       <c r="C89" t="n">
-        <v>0.196291</v>
+        <v>0.177474</v>
       </c>
       <c r="D89" t="n">
-        <v>0.186507</v>
+        <v>0.172086</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197482</v>
+        <v>0.197632</v>
       </c>
       <c r="C90" t="n">
-        <v>0.191237</v>
+        <v>0.172162</v>
       </c>
       <c r="D90" t="n">
-        <v>0.182496</v>
+        <v>0.167358</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193685</v>
+        <v>0.193399</v>
       </c>
       <c r="C91" t="n">
-        <v>0.187285</v>
+        <v>0.168023</v>
       </c>
       <c r="D91" t="n">
-        <v>0.178655</v>
+        <v>0.164169</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190761</v>
+        <v>0.190731</v>
       </c>
       <c r="C92" t="n">
-        <v>0.183986</v>
+        <v>0.164453</v>
       </c>
       <c r="D92" t="n">
-        <v>0.177424</v>
+        <v>0.161922</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189413</v>
+        <v>0.189378</v>
       </c>
       <c r="C93" t="n">
-        <v>0.182176</v>
+        <v>0.162453</v>
       </c>
       <c r="D93" t="n">
-        <v>0.177691</v>
+        <v>0.161397</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190352</v>
+        <v>0.18983</v>
       </c>
       <c r="C94" t="n">
-        <v>0.181795</v>
+        <v>0.160846</v>
       </c>
       <c r="D94" t="n">
-        <v>0.268622</v>
+        <v>0.251035</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.272095</v>
+        <v>0.271771</v>
       </c>
       <c r="C95" t="n">
-        <v>0.270507</v>
+        <v>0.248617</v>
       </c>
       <c r="D95" t="n">
-        <v>0.261629</v>
+        <v>0.244655</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.266335</v>
+        <v>0.265895</v>
       </c>
       <c r="C96" t="n">
-        <v>0.264449</v>
+        <v>0.242364</v>
       </c>
       <c r="D96" t="n">
-        <v>0.253461</v>
+        <v>0.236092</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.259108</v>
+        <v>0.258688</v>
       </c>
       <c r="C97" t="n">
-        <v>0.256774</v>
+        <v>0.234799</v>
       </c>
       <c r="D97" t="n">
-        <v>0.245747</v>
+        <v>0.228964</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252558</v>
+        <v>0.252227</v>
       </c>
       <c r="C98" t="n">
-        <v>0.250161</v>
+        <v>0.227002</v>
       </c>
       <c r="D98" t="n">
-        <v>0.239126</v>
+        <v>0.221865</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.246246</v>
+        <v>0.24547</v>
       </c>
       <c r="C99" t="n">
-        <v>0.243452</v>
+        <v>0.220855</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231167</v>
+        <v>0.214621</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239835</v>
+        <v>0.239269</v>
       </c>
       <c r="C100" t="n">
-        <v>0.236071</v>
+        <v>0.213863</v>
       </c>
       <c r="D100" t="n">
-        <v>0.225565</v>
+        <v>0.207245</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233995</v>
+        <v>0.23384</v>
       </c>
       <c r="C101" t="n">
-        <v>0.230254</v>
+        <v>0.207776</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219379</v>
+        <v>0.201777</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228425</v>
+        <v>0.228395</v>
       </c>
       <c r="C102" t="n">
-        <v>0.224714</v>
+        <v>0.201745</v>
       </c>
       <c r="D102" t="n">
-        <v>0.213708</v>
+        <v>0.195698</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222836</v>
+        <v>0.223137</v>
       </c>
       <c r="C103" t="n">
-        <v>0.221179</v>
+        <v>0.196305</v>
       </c>
       <c r="D103" t="n">
-        <v>0.209992</v>
+        <v>0.190244</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.21911</v>
+        <v>0.218644</v>
       </c>
       <c r="C104" t="n">
-        <v>0.216198</v>
+        <v>0.191047</v>
       </c>
       <c r="D104" t="n">
-        <v>0.204868</v>
+        <v>0.185776</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214545</v>
+        <v>0.21432</v>
       </c>
       <c r="C105" t="n">
-        <v>0.212033</v>
+        <v>0.187443</v>
       </c>
       <c r="D105" t="n">
-        <v>0.19973</v>
+        <v>0.181729</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211328</v>
+        <v>0.211115</v>
       </c>
       <c r="C106" t="n">
-        <v>0.207377</v>
+        <v>0.183479</v>
       </c>
       <c r="D106" t="n">
-        <v>0.198333</v>
+        <v>0.178584</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209097</v>
+        <v>0.209389</v>
       </c>
       <c r="C107" t="n">
-        <v>0.205857</v>
+        <v>0.181114</v>
       </c>
       <c r="D107" t="n">
-        <v>0.197216</v>
+        <v>0.177991</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.209087</v>
+        <v>0.209223</v>
       </c>
       <c r="C108" t="n">
-        <v>0.205084</v>
+        <v>0.179914</v>
       </c>
       <c r="D108" t="n">
-        <v>0.29192</v>
+        <v>0.26933</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211016</v>
+        <v>0.211136</v>
       </c>
       <c r="C109" t="n">
-        <v>0.206868</v>
+        <v>0.180079</v>
       </c>
       <c r="D109" t="n">
-        <v>0.285224</v>
+        <v>0.262445</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285486</v>
+        <v>0.286141</v>
       </c>
       <c r="C110" t="n">
-        <v>0.29016</v>
+        <v>0.261405</v>
       </c>
       <c r="D110" t="n">
-        <v>0.277574</v>
+        <v>0.254356</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.279556</v>
+        <v>0.279079</v>
       </c>
       <c r="C111" t="n">
-        <v>0.283154</v>
+        <v>0.253397</v>
       </c>
       <c r="D111" t="n">
-        <v>0.266355</v>
+        <v>0.246753</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.273012</v>
+        <v>0.272652</v>
       </c>
       <c r="C112" t="n">
-        <v>0.273244</v>
+        <v>0.246746</v>
       </c>
       <c r="D112" t="n">
-        <v>0.260571</v>
+        <v>0.23948</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266761</v>
+        <v>0.267644</v>
       </c>
       <c r="C113" t="n">
-        <v>0.26694</v>
+        <v>0.239718</v>
       </c>
       <c r="D113" t="n">
-        <v>0.253592</v>
+        <v>0.232542</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.261325</v>
+        <v>0.260915</v>
       </c>
       <c r="C114" t="n">
-        <v>0.260755</v>
+        <v>0.232378</v>
       </c>
       <c r="D114" t="n">
-        <v>0.247861</v>
+        <v>0.225865</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.256484</v>
+        <v>0.256062</v>
       </c>
       <c r="C115" t="n">
-        <v>0.255205</v>
+        <v>0.226573</v>
       </c>
       <c r="D115" t="n">
-        <v>0.24211</v>
+        <v>0.22024</v>
       </c>
     </row>
     <row r="116">
@@ -4847,10 +4847,10 @@
         <v>0.251116</v>
       </c>
       <c r="C116" t="n">
-        <v>0.249855</v>
+        <v>0.220933</v>
       </c>
       <c r="D116" t="n">
-        <v>0.236621</v>
+        <v>0.214698</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.246733</v>
+        <v>0.24651</v>
       </c>
       <c r="C117" t="n">
-        <v>0.244766</v>
+        <v>0.216178</v>
       </c>
       <c r="D117" t="n">
-        <v>0.231334</v>
+        <v>0.209305</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.242275</v>
+        <v>0.24164</v>
       </c>
       <c r="C118" t="n">
-        <v>0.240468</v>
+        <v>0.21089</v>
       </c>
       <c r="D118" t="n">
-        <v>0.227373</v>
+        <v>0.204881</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238057</v>
+        <v>0.238351</v>
       </c>
       <c r="C119" t="n">
-        <v>0.236691</v>
+        <v>0.207149</v>
       </c>
       <c r="D119" t="n">
-        <v>0.223324</v>
+        <v>0.201021</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.235064</v>
+        <v>0.234954</v>
       </c>
       <c r="C120" t="n">
-        <v>0.233253</v>
+        <v>0.20363</v>
       </c>
       <c r="D120" t="n">
-        <v>0.220434</v>
+        <v>0.197562</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.233255</v>
+        <v>0.232598</v>
       </c>
       <c r="C121" t="n">
-        <v>0.230626</v>
+        <v>0.200834</v>
       </c>
       <c r="D121" t="n">
-        <v>0.218777</v>
+        <v>0.195347</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.232157</v>
+        <v>0.232086</v>
       </c>
       <c r="C122" t="n">
-        <v>0.229699</v>
+        <v>0.199146</v>
       </c>
       <c r="D122" t="n">
-        <v>0.220302</v>
+        <v>0.196695</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233395</v>
+        <v>0.233111</v>
       </c>
       <c r="C123" t="n">
-        <v>0.23061</v>
+        <v>0.201245</v>
       </c>
       <c r="D123" t="n">
-        <v>0.306049</v>
+        <v>0.280592</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.318802</v>
+        <v>0.318254</v>
       </c>
       <c r="C124" t="n">
-        <v>0.312748</v>
+        <v>0.280914</v>
       </c>
       <c r="D124" t="n">
-        <v>0.299923</v>
+        <v>0.275348</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.312052</v>
+        <v>0.311386</v>
       </c>
       <c r="C125" t="n">
-        <v>0.307302</v>
+        <v>0.274679</v>
       </c>
       <c r="D125" t="n">
-        <v>0.293677</v>
+        <v>0.269595</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.305779</v>
+        <v>0.306071</v>
       </c>
       <c r="C126" t="n">
-        <v>0.301365</v>
+        <v>0.268516</v>
       </c>
       <c r="D126" t="n">
-        <v>0.288584</v>
+        <v>0.262973</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.300548</v>
+        <v>0.300722</v>
       </c>
       <c r="C127" t="n">
-        <v>0.296318</v>
+        <v>0.26231</v>
       </c>
       <c r="D127" t="n">
-        <v>0.282574</v>
+        <v>0.258271</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.295916</v>
+        <v>0.295646</v>
       </c>
       <c r="C128" t="n">
-        <v>0.291003</v>
+        <v>0.256917</v>
       </c>
       <c r="D128" t="n">
-        <v>0.278042</v>
+        <v>0.252993</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.291225</v>
+        <v>0.291189</v>
       </c>
       <c r="C129" t="n">
-        <v>0.286484</v>
+        <v>0.251816</v>
       </c>
       <c r="D129" t="n">
-        <v>0.273477</v>
+        <v>0.248478</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.286493</v>
+        <v>0.286414</v>
       </c>
       <c r="C130" t="n">
-        <v>0.282073</v>
+        <v>0.247235</v>
       </c>
       <c r="D130" t="n">
-        <v>0.269758</v>
+        <v>0.243581</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.281523</v>
+        <v>0.282848</v>
       </c>
       <c r="C131" t="n">
-        <v>0.278437</v>
+        <v>0.242909</v>
       </c>
       <c r="D131" t="n">
-        <v>0.265607</v>
+        <v>0.239627</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278156</v>
+        <v>0.278594</v>
       </c>
       <c r="C132" t="n">
-        <v>0.274679</v>
+        <v>0.238886</v>
       </c>
       <c r="D132" t="n">
-        <v>0.262305</v>
+        <v>0.236355</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275215</v>
+        <v>0.275973</v>
       </c>
       <c r="C133" t="n">
-        <v>0.271426</v>
+        <v>0.235214</v>
       </c>
       <c r="D133" t="n">
-        <v>0.259239</v>
+        <v>0.233086</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.27257</v>
+        <v>0.273184</v>
       </c>
       <c r="C134" t="n">
-        <v>0.269045</v>
+        <v>0.232228</v>
       </c>
       <c r="D134" t="n">
-        <v>0.257023</v>
+        <v>0.230266</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270482</v>
+        <v>0.270877</v>
       </c>
       <c r="C135" t="n">
-        <v>0.26689</v>
+        <v>0.229774</v>
       </c>
       <c r="D135" t="n">
-        <v>0.255731</v>
+        <v>0.229017</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.2698</v>
+        <v>0.270539</v>
       </c>
       <c r="C136" t="n">
-        <v>0.265892</v>
+        <v>0.228289</v>
       </c>
       <c r="D136" t="n">
-        <v>0.25623</v>
+        <v>0.22891</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.270729</v>
+        <v>0.271116</v>
       </c>
       <c r="C137" t="n">
-        <v>0.266742</v>
+        <v>0.228523</v>
       </c>
       <c r="D137" t="n">
-        <v>0.353378</v>
+        <v>0.324744</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.360557</v>
+        <v>0.363104</v>
       </c>
       <c r="C138" t="n">
-        <v>0.361183</v>
+        <v>0.322877</v>
       </c>
       <c r="D138" t="n">
-        <v>0.347888</v>
+        <v>0.319371</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.355258</v>
+        <v>0.356268</v>
       </c>
       <c r="C139" t="n">
-        <v>0.35558</v>
+        <v>0.315883</v>
       </c>
       <c r="D139" t="n">
-        <v>0.342609</v>
+        <v>0.314432</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.350634</v>
+        <v>0.351383</v>
       </c>
       <c r="C140" t="n">
-        <v>0.350584</v>
+        <v>0.310854</v>
       </c>
       <c r="D140" t="n">
-        <v>0.337106</v>
+        <v>0.309044</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.345778</v>
+        <v>0.346514</v>
       </c>
       <c r="C141" t="n">
-        <v>0.346215</v>
+        <v>0.304457</v>
       </c>
       <c r="D141" t="n">
-        <v>0.333032</v>
+        <v>0.303418</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.34078</v>
+        <v>0.342152</v>
       </c>
       <c r="C142" t="n">
-        <v>0.341075</v>
+        <v>0.299377</v>
       </c>
       <c r="D142" t="n">
-        <v>0.328818</v>
+        <v>0.298841</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.336857</v>
+        <v>0.338182</v>
       </c>
       <c r="C143" t="n">
-        <v>0.339244</v>
+        <v>0.294236</v>
       </c>
       <c r="D143" t="n">
-        <v>0.323786</v>
+        <v>0.29429</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.157765</v>
+        <v>0.158876</v>
       </c>
       <c r="C2" t="n">
-        <v>0.13415</v>
+        <v>0.242276</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13488</v>
+        <v>0.146893</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.158207</v>
+        <v>0.161214</v>
       </c>
       <c r="C3" t="n">
-        <v>0.130206</v>
+        <v>0.245317</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140748</v>
+        <v>0.131691</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.152925</v>
+        <v>0.155941</v>
       </c>
       <c r="C4" t="n">
-        <v>0.125045</v>
+        <v>0.238347</v>
       </c>
       <c r="D4" t="n">
-        <v>0.126657</v>
+        <v>0.137036</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.139071</v>
+        <v>0.151916</v>
       </c>
       <c r="C5" t="n">
-        <v>0.13052</v>
+        <v>0.248739</v>
       </c>
       <c r="D5" t="n">
-        <v>0.129434</v>
+        <v>0.131842</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.139747</v>
+        <v>0.150106</v>
       </c>
       <c r="C6" t="n">
-        <v>0.12242</v>
+        <v>0.239565</v>
       </c>
       <c r="D6" t="n">
-        <v>0.132665</v>
+        <v>0.125616</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.148753</v>
+        <v>0.148802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112847</v>
+        <v>0.253177</v>
       </c>
       <c r="D7" t="n">
-        <v>0.115342</v>
+        <v>0.121087</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.142029</v>
+        <v>0.149237</v>
       </c>
       <c r="C8" t="n">
-        <v>0.109979</v>
+        <v>0.303239</v>
       </c>
       <c r="D8" t="n">
-        <v>0.118227</v>
+        <v>0.121584</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149176</v>
+        <v>0.140723</v>
       </c>
       <c r="C9" t="n">
-        <v>0.108947</v>
+        <v>0.293143</v>
       </c>
       <c r="D9" t="n">
-        <v>0.193235</v>
+        <v>0.194024</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.216863</v>
+        <v>0.210905</v>
       </c>
       <c r="C10" t="n">
-        <v>0.19091</v>
+        <v>0.289925</v>
       </c>
       <c r="D10" t="n">
-        <v>0.197905</v>
+        <v>0.184754</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.214241</v>
+        <v>0.198261</v>
       </c>
       <c r="C11" t="n">
-        <v>0.184605</v>
+        <v>0.280454</v>
       </c>
       <c r="D11" t="n">
-        <v>0.181873</v>
+        <v>0.180606</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.205707</v>
+        <v>0.204428</v>
       </c>
       <c r="C12" t="n">
-        <v>0.178888</v>
+        <v>0.280751</v>
       </c>
       <c r="D12" t="n">
-        <v>0.178945</v>
+        <v>0.174134</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.198652</v>
+        <v>0.196456</v>
       </c>
       <c r="C13" t="n">
-        <v>0.175158</v>
+        <v>0.276354</v>
       </c>
       <c r="D13" t="n">
-        <v>0.177969</v>
+        <v>0.171019</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.188845</v>
+        <v>0.177931</v>
       </c>
       <c r="C14" t="n">
-        <v>0.164518</v>
+        <v>0.277223</v>
       </c>
       <c r="D14" t="n">
-        <v>0.169903</v>
+        <v>0.162719</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.180606</v>
+        <v>0.176255</v>
       </c>
       <c r="C15" t="n">
-        <v>0.163333</v>
+        <v>0.275769</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167286</v>
+        <v>0.155949</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.180706</v>
+        <v>0.170107</v>
       </c>
       <c r="C16" t="n">
-        <v>0.154882</v>
+        <v>0.267259</v>
       </c>
       <c r="D16" t="n">
-        <v>0.161816</v>
+        <v>0.152252</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.175572</v>
+        <v>0.163874</v>
       </c>
       <c r="C17" t="n">
-        <v>0.145717</v>
+        <v>0.271819</v>
       </c>
       <c r="D17" t="n">
-        <v>0.150356</v>
+        <v>0.149936</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.16703</v>
+        <v>0.159725</v>
       </c>
       <c r="C18" t="n">
-        <v>0.145035</v>
+        <v>0.267378</v>
       </c>
       <c r="D18" t="n">
-        <v>0.151013</v>
+        <v>0.140064</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.165747</v>
+        <v>0.157348</v>
       </c>
       <c r="C19" t="n">
-        <v>0.139975</v>
+        <v>0.26539</v>
       </c>
       <c r="D19" t="n">
-        <v>0.145548</v>
+        <v>0.137412</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.160811</v>
+        <v>0.151874</v>
       </c>
       <c r="C20" t="n">
-        <v>0.135964</v>
+        <v>0.275272</v>
       </c>
       <c r="D20" t="n">
-        <v>0.140482</v>
+        <v>0.136896</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.162122</v>
+        <v>0.152381</v>
       </c>
       <c r="C21" t="n">
-        <v>0.135388</v>
+        <v>0.277668</v>
       </c>
       <c r="D21" t="n">
-        <v>0.138859</v>
+        <v>0.131549</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.163342</v>
+        <v>0.154995</v>
       </c>
       <c r="C22" t="n">
-        <v>0.133424</v>
+        <v>0.335169</v>
       </c>
       <c r="D22" t="n">
-        <v>0.138374</v>
+        <v>0.138279</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163623</v>
+        <v>0.157347</v>
       </c>
       <c r="C23" t="n">
-        <v>0.133099</v>
+        <v>0.328025</v>
       </c>
       <c r="D23" t="n">
-        <v>0.224374</v>
+        <v>0.226752</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.250598</v>
+        <v>0.237559</v>
       </c>
       <c r="C24" t="n">
-        <v>0.216439</v>
+        <v>0.317668</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216247</v>
+        <v>0.217993</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239798</v>
+        <v>0.220873</v>
       </c>
       <c r="C25" t="n">
-        <v>0.207613</v>
+        <v>0.310287</v>
       </c>
       <c r="D25" t="n">
-        <v>0.209474</v>
+        <v>0.211366</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.231192</v>
+        <v>0.214475</v>
       </c>
       <c r="C26" t="n">
-        <v>0.201276</v>
+        <v>0.303702</v>
       </c>
       <c r="D26" t="n">
-        <v>0.204111</v>
+        <v>0.201647</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.220181</v>
+        <v>0.206091</v>
       </c>
       <c r="C27" t="n">
-        <v>0.193546</v>
+        <v>0.315946</v>
       </c>
       <c r="D27" t="n">
-        <v>0.203584</v>
+        <v>0.195417</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.213254</v>
+        <v>0.197067</v>
       </c>
       <c r="C28" t="n">
-        <v>0.186422</v>
+        <v>0.318479</v>
       </c>
       <c r="D28" t="n">
-        <v>0.180982</v>
+        <v>0.187558</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.204799</v>
+        <v>0.192214</v>
       </c>
       <c r="C29" t="n">
-        <v>0.176444</v>
+        <v>0.309369</v>
       </c>
       <c r="D29" t="n">
-        <v>0.172653</v>
+        <v>0.176767</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.196681</v>
+        <v>0.184954</v>
       </c>
       <c r="C30" t="n">
-        <v>0.16989</v>
+        <v>0.300635</v>
       </c>
       <c r="D30" t="n">
-        <v>0.168892</v>
+        <v>0.17144</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.190049</v>
+        <v>0.184717</v>
       </c>
       <c r="C31" t="n">
-        <v>0.164482</v>
+        <v>0.306206</v>
       </c>
       <c r="D31" t="n">
-        <v>0.160647</v>
+        <v>0.162653</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.179367</v>
+        <v>0.176078</v>
       </c>
       <c r="C32" t="n">
-        <v>0.158767</v>
+        <v>0.303272</v>
       </c>
       <c r="D32" t="n">
-        <v>0.155373</v>
+        <v>0.158209</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.172933</v>
+        <v>0.170965</v>
       </c>
       <c r="C33" t="n">
-        <v>0.154127</v>
+        <v>0.301406</v>
       </c>
       <c r="D33" t="n">
-        <v>0.151557</v>
+        <v>0.156432</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.173742</v>
+        <v>0.169165</v>
       </c>
       <c r="C34" t="n">
-        <v>0.149874</v>
+        <v>0.300323</v>
       </c>
       <c r="D34" t="n">
-        <v>0.148697</v>
+        <v>0.152501</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.170313</v>
+        <v>0.168637</v>
       </c>
       <c r="C35" t="n">
-        <v>0.146672</v>
+        <v>0.302527</v>
       </c>
       <c r="D35" t="n">
-        <v>0.146385</v>
+        <v>0.149703</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.172123</v>
+        <v>0.167198</v>
       </c>
       <c r="C36" t="n">
-        <v>0.144065</v>
+        <v>0.303998</v>
       </c>
       <c r="D36" t="n">
-        <v>0.145108</v>
+        <v>0.148753</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172168</v>
+        <v>0.163541</v>
       </c>
       <c r="C37" t="n">
-        <v>0.143614</v>
+        <v>0.355212</v>
       </c>
       <c r="D37" t="n">
-        <v>0.223141</v>
+        <v>0.227069</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244517</v>
+        <v>0.241383</v>
       </c>
       <c r="C38" t="n">
-        <v>0.221061</v>
+        <v>0.348006</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216963</v>
+        <v>0.217668</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.234294</v>
+        <v>0.233404</v>
       </c>
       <c r="C39" t="n">
-        <v>0.212399</v>
+        <v>0.341682</v>
       </c>
       <c r="D39" t="n">
-        <v>0.207148</v>
+        <v>0.209495</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.226807</v>
+        <v>0.225761</v>
       </c>
       <c r="C40" t="n">
-        <v>0.204053</v>
+        <v>0.330945</v>
       </c>
       <c r="D40" t="n">
-        <v>0.199908</v>
+        <v>0.201759</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.21836</v>
+        <v>0.217497</v>
       </c>
       <c r="C41" t="n">
-        <v>0.196247</v>
+        <v>0.33383</v>
       </c>
       <c r="D41" t="n">
-        <v>0.192271</v>
+        <v>0.194217</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.209641</v>
+        <v>0.207765</v>
       </c>
       <c r="C42" t="n">
-        <v>0.188845</v>
+        <v>0.3284</v>
       </c>
       <c r="D42" t="n">
-        <v>0.184362</v>
+        <v>0.18695</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.202711</v>
+        <v>0.200795</v>
       </c>
       <c r="C43" t="n">
-        <v>0.18169</v>
+        <v>0.322896</v>
       </c>
       <c r="D43" t="n">
-        <v>0.177775</v>
+        <v>0.180087</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.19718</v>
+        <v>0.19468</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175258</v>
+        <v>0.319092</v>
       </c>
       <c r="D44" t="n">
-        <v>0.171076</v>
+        <v>0.173936</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.191662</v>
+        <v>0.189512</v>
       </c>
       <c r="C45" t="n">
-        <v>0.169302</v>
+        <v>0.315296</v>
       </c>
       <c r="D45" t="n">
-        <v>0.165379</v>
+        <v>0.168134</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.185052</v>
+        <v>0.183938</v>
       </c>
       <c r="C46" t="n">
-        <v>0.163979</v>
+        <v>0.311465</v>
       </c>
       <c r="D46" t="n">
-        <v>0.160642</v>
+        <v>0.163137</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.18071</v>
+        <v>0.179517</v>
       </c>
       <c r="C47" t="n">
-        <v>0.159002</v>
+        <v>0.310595</v>
       </c>
       <c r="D47" t="n">
-        <v>0.156313</v>
+        <v>0.158203</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.176099</v>
+        <v>0.17516</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154784</v>
+        <v>0.311461</v>
       </c>
       <c r="D48" t="n">
-        <v>0.15274</v>
+        <v>0.154742</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.17383</v>
+        <v>0.172927</v>
       </c>
       <c r="C49" t="n">
-        <v>0.151443</v>
+        <v>0.312306</v>
       </c>
       <c r="D49" t="n">
-        <v>0.150209</v>
+        <v>0.152434</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.174056</v>
+        <v>0.171961</v>
       </c>
       <c r="C50" t="n">
-        <v>0.148533</v>
+        <v>0.315883</v>
       </c>
       <c r="D50" t="n">
-        <v>0.149327</v>
+        <v>0.152332</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174048</v>
+        <v>0.17438</v>
       </c>
       <c r="C51" t="n">
-        <v>0.147251</v>
+        <v>0.376165</v>
       </c>
       <c r="D51" t="n">
-        <v>0.230804</v>
+        <v>0.239051</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176422</v>
+        <v>0.178211</v>
       </c>
       <c r="C52" t="n">
-        <v>0.148256</v>
+        <v>0.366457</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221913</v>
+        <v>0.229893</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242481</v>
+        <v>0.245341</v>
       </c>
       <c r="C53" t="n">
-        <v>0.21864</v>
+        <v>0.356919</v>
       </c>
       <c r="D53" t="n">
-        <v>0.213909</v>
+        <v>0.220943</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233485</v>
+        <v>0.23579</v>
       </c>
       <c r="C54" t="n">
-        <v>0.21034</v>
+        <v>0.348636</v>
       </c>
       <c r="D54" t="n">
-        <v>0.205541</v>
+        <v>0.212713</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.22536</v>
+        <v>0.227579</v>
       </c>
       <c r="C55" t="n">
-        <v>0.20208</v>
+        <v>0.34225</v>
       </c>
       <c r="D55" t="n">
-        <v>0.197405</v>
+        <v>0.204206</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.217531</v>
+        <v>0.219406</v>
       </c>
       <c r="C56" t="n">
-        <v>0.194724</v>
+        <v>0.349186</v>
       </c>
       <c r="D56" t="n">
-        <v>0.190126</v>
+        <v>0.196844</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.209716</v>
+        <v>0.211736</v>
       </c>
       <c r="C57" t="n">
-        <v>0.187711</v>
+        <v>0.342571</v>
       </c>
       <c r="D57" t="n">
-        <v>0.183273</v>
+        <v>0.189546</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.202996</v>
+        <v>0.205172</v>
       </c>
       <c r="C58" t="n">
-        <v>0.181018</v>
+        <v>0.338049</v>
       </c>
       <c r="D58" t="n">
-        <v>0.176913</v>
+        <v>0.182825</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.197037</v>
+        <v>0.196218</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174654</v>
+        <v>0.330812</v>
       </c>
       <c r="D59" t="n">
-        <v>0.170999</v>
+        <v>0.174747</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.190963</v>
+        <v>0.190791</v>
       </c>
       <c r="C60" t="n">
-        <v>0.168994</v>
+        <v>0.328029</v>
       </c>
       <c r="D60" t="n">
-        <v>0.165516</v>
+        <v>0.168998</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.186043</v>
+        <v>0.18588</v>
       </c>
       <c r="C61" t="n">
-        <v>0.164074</v>
+        <v>0.325825</v>
       </c>
       <c r="D61" t="n">
-        <v>0.161102</v>
+        <v>0.164893</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.18209</v>
+        <v>0.181958</v>
       </c>
       <c r="C62" t="n">
-        <v>0.159229</v>
+        <v>0.325188</v>
       </c>
       <c r="D62" t="n">
-        <v>0.157141</v>
+        <v>0.160717</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178881</v>
+        <v>0.178817</v>
       </c>
       <c r="C63" t="n">
-        <v>0.155101</v>
+        <v>0.326234</v>
       </c>
       <c r="D63" t="n">
-        <v>0.154434</v>
+        <v>0.158017</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177163</v>
+        <v>0.177214</v>
       </c>
       <c r="C64" t="n">
-        <v>0.152282</v>
+        <v>0.328388</v>
       </c>
       <c r="D64" t="n">
-        <v>0.152696</v>
+        <v>0.156965</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177364</v>
+        <v>0.177436</v>
       </c>
       <c r="C65" t="n">
-        <v>0.150663</v>
+        <v>0.394765</v>
       </c>
       <c r="D65" t="n">
-        <v>0.153926</v>
+        <v>0.158007</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179686</v>
+        <v>0.17996</v>
       </c>
       <c r="C66" t="n">
-        <v>0.15137</v>
+        <v>0.383521</v>
       </c>
       <c r="D66" t="n">
-        <v>0.229651</v>
+        <v>0.235105</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.245183</v>
+        <v>0.245532</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227175</v>
+        <v>0.373421</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220614</v>
+        <v>0.226133</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.234318</v>
+        <v>0.236902</v>
       </c>
       <c r="C68" t="n">
-        <v>0.219023</v>
+        <v>0.363382</v>
       </c>
       <c r="D68" t="n">
-        <v>0.212708</v>
+        <v>0.217421</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.227003</v>
+        <v>0.228132</v>
       </c>
       <c r="C69" t="n">
-        <v>0.210558</v>
+        <v>0.355342</v>
       </c>
       <c r="D69" t="n">
-        <v>0.204786</v>
+        <v>0.209352</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219651</v>
+        <v>0.219607</v>
       </c>
       <c r="C70" t="n">
-        <v>0.202479</v>
+        <v>0.359583</v>
       </c>
       <c r="D70" t="n">
-        <v>0.197097</v>
+        <v>0.201509</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213769</v>
+        <v>0.213187</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195168</v>
+        <v>0.353516</v>
       </c>
       <c r="D71" t="n">
-        <v>0.189784</v>
+        <v>0.194248</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.207097</v>
+        <v>0.206148</v>
       </c>
       <c r="C72" t="n">
-        <v>0.188382</v>
+        <v>0.347095</v>
       </c>
       <c r="D72" t="n">
-        <v>0.182595</v>
+        <v>0.187578</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.200096</v>
+        <v>0.200273</v>
       </c>
       <c r="C73" t="n">
-        <v>0.181893</v>
+        <v>0.343045</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176914</v>
+        <v>0.18116</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.194781</v>
+        <v>0.195172</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175785</v>
+        <v>0.33957</v>
       </c>
       <c r="D74" t="n">
-        <v>0.171522</v>
+        <v>0.175182</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18937</v>
+        <v>0.189341</v>
       </c>
       <c r="C75" t="n">
-        <v>0.170062</v>
+        <v>0.335342</v>
       </c>
       <c r="D75" t="n">
-        <v>0.16626</v>
+        <v>0.170499</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185497</v>
+        <v>0.185412</v>
       </c>
       <c r="C76" t="n">
-        <v>0.16524</v>
+        <v>0.335714</v>
       </c>
       <c r="D76" t="n">
-        <v>0.162368</v>
+        <v>0.166167</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.18196</v>
+        <v>0.181546</v>
       </c>
       <c r="C77" t="n">
-        <v>0.16094</v>
+        <v>0.335851</v>
       </c>
       <c r="D77" t="n">
-        <v>0.15891</v>
+        <v>0.163124</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179568</v>
+        <v>0.180116</v>
       </c>
       <c r="C78" t="n">
-        <v>0.157705</v>
+        <v>0.337831</v>
       </c>
       <c r="D78" t="n">
-        <v>0.157072</v>
+        <v>0.161408</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179654</v>
+        <v>0.179348</v>
       </c>
       <c r="C79" t="n">
-        <v>0.155829</v>
+        <v>0.417771</v>
       </c>
       <c r="D79" t="n">
-        <v>0.157418</v>
+        <v>0.162135</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.182</v>
+        <v>0.182272</v>
       </c>
       <c r="C80" t="n">
-        <v>0.155756</v>
+        <v>0.409385</v>
       </c>
       <c r="D80" t="n">
-        <v>0.234214</v>
+        <v>0.239824</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258131</v>
+        <v>0.259263</v>
       </c>
       <c r="C81" t="n">
-        <v>0.231662</v>
+        <v>0.398219</v>
       </c>
       <c r="D81" t="n">
-        <v>0.225256</v>
+        <v>0.231207</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.250601</v>
+        <v>0.251205</v>
       </c>
       <c r="C82" t="n">
-        <v>0.223488</v>
+        <v>0.388863</v>
       </c>
       <c r="D82" t="n">
-        <v>0.217013</v>
+        <v>0.223021</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242804</v>
+        <v>0.2435</v>
       </c>
       <c r="C83" t="n">
-        <v>0.215873</v>
+        <v>0.379638</v>
       </c>
       <c r="D83" t="n">
-        <v>0.209419</v>
+        <v>0.214563</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235222</v>
+        <v>0.235615</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208084</v>
+        <v>0.380784</v>
       </c>
       <c r="D84" t="n">
-        <v>0.202018</v>
+        <v>0.207392</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227988</v>
+        <v>0.228388</v>
       </c>
       <c r="C85" t="n">
-        <v>0.201251</v>
+        <v>0.374844</v>
       </c>
       <c r="D85" t="n">
-        <v>0.195514</v>
+        <v>0.199601</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.221101</v>
+        <v>0.221376</v>
       </c>
       <c r="C86" t="n">
-        <v>0.194923</v>
+        <v>0.367629</v>
       </c>
       <c r="D86" t="n">
-        <v>0.189561</v>
+        <v>0.192903</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214404</v>
+        <v>0.214945</v>
       </c>
       <c r="C87" t="n">
-        <v>0.188954</v>
+        <v>0.363659</v>
       </c>
       <c r="D87" t="n">
-        <v>0.183161</v>
+        <v>0.18693</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208151</v>
+        <v>0.208247</v>
       </c>
       <c r="C88" t="n">
-        <v>0.182842</v>
+        <v>0.35982</v>
       </c>
       <c r="D88" t="n">
-        <v>0.177085</v>
+        <v>0.18099</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.202809</v>
+        <v>0.202942</v>
       </c>
       <c r="C89" t="n">
-        <v>0.177474</v>
+        <v>0.357441</v>
       </c>
       <c r="D89" t="n">
-        <v>0.172086</v>
+        <v>0.175736</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197632</v>
+        <v>0.197737</v>
       </c>
       <c r="C90" t="n">
-        <v>0.172162</v>
+        <v>0.354621</v>
       </c>
       <c r="D90" t="n">
-        <v>0.167358</v>
+        <v>0.171048</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193399</v>
+        <v>0.193751</v>
       </c>
       <c r="C91" t="n">
-        <v>0.168023</v>
+        <v>0.35597</v>
       </c>
       <c r="D91" t="n">
-        <v>0.164169</v>
+        <v>0.167716</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190731</v>
+        <v>0.190759</v>
       </c>
       <c r="C92" t="n">
-        <v>0.164453</v>
+        <v>0.35806</v>
       </c>
       <c r="D92" t="n">
-        <v>0.161922</v>
+        <v>0.16583</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189378</v>
+        <v>0.189849</v>
       </c>
       <c r="C93" t="n">
-        <v>0.162453</v>
+        <v>0.361104</v>
       </c>
       <c r="D93" t="n">
-        <v>0.161397</v>
+        <v>0.165434</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.18983</v>
+        <v>0.190332</v>
       </c>
       <c r="C94" t="n">
-        <v>0.160846</v>
+        <v>0.460271</v>
       </c>
       <c r="D94" t="n">
-        <v>0.251035</v>
+        <v>0.268553</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.271771</v>
+        <v>0.278685</v>
       </c>
       <c r="C95" t="n">
-        <v>0.248617</v>
+        <v>0.448516</v>
       </c>
       <c r="D95" t="n">
-        <v>0.244655</v>
+        <v>0.260033</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265895</v>
+        <v>0.272544</v>
       </c>
       <c r="C96" t="n">
-        <v>0.242364</v>
+        <v>0.438966</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236092</v>
+        <v>0.252128</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258688</v>
+        <v>0.265182</v>
       </c>
       <c r="C97" t="n">
-        <v>0.234799</v>
+        <v>0.429595</v>
       </c>
       <c r="D97" t="n">
-        <v>0.228964</v>
+        <v>0.243344</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252227</v>
+        <v>0.258313</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227002</v>
+        <v>0.431839</v>
       </c>
       <c r="D98" t="n">
-        <v>0.221865</v>
+        <v>0.235396</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.24547</v>
+        <v>0.251306</v>
       </c>
       <c r="C99" t="n">
-        <v>0.220855</v>
+        <v>0.425911</v>
       </c>
       <c r="D99" t="n">
-        <v>0.214621</v>
+        <v>0.227774</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239269</v>
+        <v>0.244968</v>
       </c>
       <c r="C100" t="n">
-        <v>0.213863</v>
+        <v>0.419946</v>
       </c>
       <c r="D100" t="n">
-        <v>0.207245</v>
+        <v>0.220711</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.23384</v>
+        <v>0.238935</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207776</v>
+        <v>0.415513</v>
       </c>
       <c r="D101" t="n">
-        <v>0.201777</v>
+        <v>0.214081</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228395</v>
+        <v>0.23311</v>
       </c>
       <c r="C102" t="n">
-        <v>0.201745</v>
+        <v>0.412338</v>
       </c>
       <c r="D102" t="n">
-        <v>0.195698</v>
+        <v>0.20743</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223137</v>
+        <v>0.227571</v>
       </c>
       <c r="C103" t="n">
-        <v>0.196305</v>
+        <v>0.411588</v>
       </c>
       <c r="D103" t="n">
-        <v>0.190244</v>
+        <v>0.201386</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218644</v>
+        <v>0.223329</v>
       </c>
       <c r="C104" t="n">
-        <v>0.191047</v>
+        <v>0.411164</v>
       </c>
       <c r="D104" t="n">
-        <v>0.185776</v>
+        <v>0.1967</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.21432</v>
+        <v>0.218763</v>
       </c>
       <c r="C105" t="n">
-        <v>0.187443</v>
+        <v>0.414228</v>
       </c>
       <c r="D105" t="n">
-        <v>0.181729</v>
+        <v>0.192345</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211115</v>
+        <v>0.215284</v>
       </c>
       <c r="C106" t="n">
-        <v>0.183479</v>
+        <v>0.419344</v>
       </c>
       <c r="D106" t="n">
-        <v>0.178584</v>
+        <v>0.189046</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209389</v>
+        <v>0.213046</v>
       </c>
       <c r="C107" t="n">
-        <v>0.181114</v>
+        <v>0.42665</v>
       </c>
       <c r="D107" t="n">
-        <v>0.177991</v>
+        <v>0.18825</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.209223</v>
+        <v>0.212911</v>
       </c>
       <c r="C108" t="n">
-        <v>0.179914</v>
+        <v>0.549334</v>
       </c>
       <c r="D108" t="n">
-        <v>0.26933</v>
+        <v>0.27939</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211136</v>
+        <v>0.214607</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180079</v>
+        <v>0.536852</v>
       </c>
       <c r="D109" t="n">
-        <v>0.262445</v>
+        <v>0.272222</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.286141</v>
+        <v>0.288817</v>
       </c>
       <c r="C110" t="n">
-        <v>0.261405</v>
+        <v>0.524792</v>
       </c>
       <c r="D110" t="n">
-        <v>0.254356</v>
+        <v>0.264317</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.279079</v>
+        <v>0.28218</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253397</v>
+        <v>0.514422</v>
       </c>
       <c r="D111" t="n">
-        <v>0.246753</v>
+        <v>0.255839</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272652</v>
+        <v>0.275825</v>
       </c>
       <c r="C112" t="n">
-        <v>0.246746</v>
+        <v>0.515606</v>
       </c>
       <c r="D112" t="n">
-        <v>0.23948</v>
+        <v>0.248083</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.267644</v>
+        <v>0.269577</v>
       </c>
       <c r="C113" t="n">
-        <v>0.239718</v>
+        <v>0.507982</v>
       </c>
       <c r="D113" t="n">
-        <v>0.232542</v>
+        <v>0.241457</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260915</v>
+        <v>0.263923</v>
       </c>
       <c r="C114" t="n">
-        <v>0.232378</v>
+        <v>0.500902</v>
       </c>
       <c r="D114" t="n">
-        <v>0.225865</v>
+        <v>0.234387</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.256062</v>
+        <v>0.258708</v>
       </c>
       <c r="C115" t="n">
-        <v>0.226573</v>
+        <v>0.494814</v>
       </c>
       <c r="D115" t="n">
-        <v>0.22024</v>
+        <v>0.227987</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.251116</v>
+        <v>0.253064</v>
       </c>
       <c r="C116" t="n">
-        <v>0.220933</v>
+        <v>0.491499</v>
       </c>
       <c r="D116" t="n">
-        <v>0.214698</v>
+        <v>0.22155</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.24651</v>
+        <v>0.248715</v>
       </c>
       <c r="C117" t="n">
-        <v>0.216178</v>
+        <v>0.491159</v>
       </c>
       <c r="D117" t="n">
-        <v>0.209305</v>
+        <v>0.216636</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.24164</v>
+        <v>0.24411</v>
       </c>
       <c r="C118" t="n">
-        <v>0.21089</v>
+        <v>0.493968</v>
       </c>
       <c r="D118" t="n">
-        <v>0.204881</v>
+        <v>0.212065</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238351</v>
+        <v>0.240326</v>
       </c>
       <c r="C119" t="n">
-        <v>0.207149</v>
+        <v>0.501803</v>
       </c>
       <c r="D119" t="n">
-        <v>0.201021</v>
+        <v>0.207207</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234954</v>
+        <v>0.237178</v>
       </c>
       <c r="C120" t="n">
-        <v>0.20363</v>
+        <v>0.513307</v>
       </c>
       <c r="D120" t="n">
-        <v>0.197562</v>
+        <v>0.204174</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232598</v>
+        <v>0.234517</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200834</v>
+        <v>0.528149</v>
       </c>
       <c r="D121" t="n">
-        <v>0.195347</v>
+        <v>0.20283</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.232086</v>
+        <v>0.236811</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199146</v>
+        <v>0.676284</v>
       </c>
       <c r="D122" t="n">
-        <v>0.196695</v>
+        <v>0.203562</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233111</v>
+        <v>0.234526</v>
       </c>
       <c r="C123" t="n">
-        <v>0.201245</v>
+        <v>0.6586689999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.280592</v>
+        <v>0.289005</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.318254</v>
+        <v>0.318667</v>
       </c>
       <c r="C124" t="n">
-        <v>0.280914</v>
+        <v>0.643774</v>
       </c>
       <c r="D124" t="n">
-        <v>0.275348</v>
+        <v>0.281919</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.311386</v>
+        <v>0.312584</v>
       </c>
       <c r="C125" t="n">
-        <v>0.274679</v>
+        <v>0.629144</v>
       </c>
       <c r="D125" t="n">
-        <v>0.269595</v>
+        <v>0.27536</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.306071</v>
+        <v>0.306993</v>
       </c>
       <c r="C126" t="n">
-        <v>0.268516</v>
+        <v>0.61551</v>
       </c>
       <c r="D126" t="n">
-        <v>0.262973</v>
+        <v>0.269401</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.300722</v>
+        <v>0.301362</v>
       </c>
       <c r="C127" t="n">
-        <v>0.26231</v>
+        <v>0.6149019999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.258271</v>
+        <v>0.264112</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.295646</v>
+        <v>0.296711</v>
       </c>
       <c r="C128" t="n">
-        <v>0.256917</v>
+        <v>0.603787</v>
       </c>
       <c r="D128" t="n">
-        <v>0.252993</v>
+        <v>0.25879</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.291189</v>
+        <v>0.29159</v>
       </c>
       <c r="C129" t="n">
-        <v>0.251816</v>
+        <v>0.595767</v>
       </c>
       <c r="D129" t="n">
-        <v>0.248478</v>
+        <v>0.254136</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.286414</v>
+        <v>0.287093</v>
       </c>
       <c r="C130" t="n">
-        <v>0.247235</v>
+        <v>0.582529</v>
       </c>
       <c r="D130" t="n">
-        <v>0.243581</v>
+        <v>0.252103</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.282848</v>
+        <v>0.283405</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242909</v>
+        <v>0.582479</v>
       </c>
       <c r="D131" t="n">
-        <v>0.239627</v>
+        <v>0.247631</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278594</v>
+        <v>0.280238</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238886</v>
+        <v>0.583156</v>
       </c>
       <c r="D132" t="n">
-        <v>0.236355</v>
+        <v>0.243658</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275973</v>
+        <v>0.275407</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235214</v>
+        <v>0.592506</v>
       </c>
       <c r="D133" t="n">
-        <v>0.233086</v>
+        <v>0.240053</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.273184</v>
+        <v>0.272868</v>
       </c>
       <c r="C134" t="n">
-        <v>0.232228</v>
+        <v>0.60753</v>
       </c>
       <c r="D134" t="n">
-        <v>0.230266</v>
+        <v>0.237326</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270877</v>
+        <v>0.270697</v>
       </c>
       <c r="C135" t="n">
-        <v>0.229774</v>
+        <v>0.626672</v>
       </c>
       <c r="D135" t="n">
-        <v>0.229017</v>
+        <v>0.236049</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.270539</v>
+        <v>0.270941</v>
       </c>
       <c r="C136" t="n">
-        <v>0.228289</v>
+        <v>0.798616</v>
       </c>
       <c r="D136" t="n">
-        <v>0.22891</v>
+        <v>0.234281</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.271116</v>
+        <v>0.277476</v>
       </c>
       <c r="C137" t="n">
-        <v>0.228523</v>
+        <v>0.778193</v>
       </c>
       <c r="D137" t="n">
-        <v>0.324744</v>
+        <v>0.33018</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.363104</v>
+        <v>0.379316</v>
       </c>
       <c r="C138" t="n">
-        <v>0.322877</v>
+        <v>0.757042</v>
       </c>
       <c r="D138" t="n">
-        <v>0.319371</v>
+        <v>0.324289</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.356268</v>
+        <v>0.373187</v>
       </c>
       <c r="C139" t="n">
-        <v>0.315883</v>
+        <v>0.73654</v>
       </c>
       <c r="D139" t="n">
-        <v>0.314432</v>
+        <v>0.318664</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.351383</v>
+        <v>0.366806</v>
       </c>
       <c r="C140" t="n">
-        <v>0.310854</v>
+        <v>0.720079</v>
       </c>
       <c r="D140" t="n">
-        <v>0.309044</v>
+        <v>0.312845</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.346514</v>
+        <v>0.362246</v>
       </c>
       <c r="C141" t="n">
-        <v>0.304457</v>
+        <v>0.718014</v>
       </c>
       <c r="D141" t="n">
-        <v>0.303418</v>
+        <v>0.30874</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.342152</v>
+        <v>0.356714</v>
       </c>
       <c r="C142" t="n">
-        <v>0.299377</v>
+        <v>0.70311</v>
       </c>
       <c r="D142" t="n">
-        <v>0.298841</v>
+        <v>0.303599</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.338182</v>
+        <v>0.352186</v>
       </c>
       <c r="C143" t="n">
-        <v>0.294236</v>
+        <v>0.691505</v>
       </c>
       <c r="D143" t="n">
-        <v>0.29429</v>
+        <v>0.299485</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.176173</v>
+                  <v>0.158876</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.170454</v>
+                  <v>0.161214</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.16664</v>
+                  <v>0.155941</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.162842</v>
+                  <v>0.151916</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.15949</v>
+                  <v>0.150106</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.157601</v>
+                  <v>0.148802</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.157526</v>
+                  <v>0.149237</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.158158</v>
+                  <v>0.140723</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224312</v>
+                  <v>0.210905</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216303</v>
+                  <v>0.198261</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20828</v>
+                  <v>0.204428</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.199434</v>
+                  <v>0.196456</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.192234</v>
+                  <v>0.177931</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186342</v>
+                  <v>0.176255</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.179839</v>
+                  <v>0.170107</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174481</v>
+                  <v>0.163874</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.169736</v>
+                  <v>0.159725</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164781</v>
+                  <v>0.157348</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.161275</v>
+                  <v>0.151874</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1601</v>
+                  <v>0.152381</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.160533</v>
+                  <v>0.154995</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.161606</v>
+                  <v>0.157347</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244449</v>
+                  <v>0.237559</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234816</v>
+                  <v>0.220873</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.226429</v>
+                  <v>0.214475</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.217678</v>
+                  <v>0.206091</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.209945</v>
+                  <v>0.197067</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.203289</v>
+                  <v>0.192214</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196451</v>
+                  <v>0.184954</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190226</v>
+                  <v>0.184717</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187762</v>
+                  <v>0.176078</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.183073</v>
+                  <v>0.170965</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.179351</v>
+                  <v>0.169165</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.174756</v>
+                  <v>0.168637</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.174169</v>
+                  <v>0.167198</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.174738</v>
+                  <v>0.163541</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.249169</v>
+                  <v>0.241383</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.239482</v>
+                  <v>0.233404</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.230602</v>
+                  <v>0.225761</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218626</v>
+                  <v>0.217497</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210872</v>
+                  <v>0.207765</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203724</v>
+                  <v>0.200795</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196883</v>
+                  <v>0.19468</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.191412</v>
+                  <v>0.189512</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.18555</v>
+                  <v>0.183938</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.181005</v>
+                  <v>0.179517</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.177226</v>
+                  <v>0.17516</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174961</v>
+                  <v>0.172927</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173021</v>
+                  <v>0.171961</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173452</v>
+                  <v>0.17438</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.17753</v>
+                  <v>0.178211</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.24268</v>
+                  <v>0.245341</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233963</v>
+                  <v>0.23579</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.2252</v>
+                  <v>0.227579</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.217991</v>
+                  <v>0.219406</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.209943</v>
+                  <v>0.211736</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.203009</v>
+                  <v>0.205172</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.196908</v>
+                  <v>0.196218</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.191258</v>
+                  <v>0.190791</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.18607</v>
+                  <v>0.18588</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182011</v>
+                  <v>0.181958</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178467</v>
+                  <v>0.178817</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177595</v>
+                  <v>0.177214</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177299</v>
+                  <v>0.177436</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180167</v>
+                  <v>0.17996</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244646</v>
+                  <v>0.245532</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235989</v>
+                  <v>0.236902</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228156</v>
+                  <v>0.228132</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220387</v>
+                  <v>0.219607</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212482</v>
+                  <v>0.213187</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205975</v>
+                  <v>0.206148</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200613</v>
+                  <v>0.200273</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.194739</v>
+                  <v>0.195172</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.189617</v>
+                  <v>0.189341</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184908</v>
+                  <v>0.185412</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181292</v>
+                  <v>0.181546</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178826</v>
+                  <v>0.180116</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179163</v>
+                  <v>0.179348</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.181138</v>
+                  <v>0.182272</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257644</v>
+                  <v>0.259263</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.249569</v>
+                  <v>0.251205</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.241893</v>
+                  <v>0.2435</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.234751</v>
+                  <v>0.235615</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.226978</v>
+                  <v>0.228388</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219799</v>
+                  <v>0.221376</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213375</v>
+                  <v>0.214945</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207166</v>
+                  <v>0.208247</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201474</v>
+                  <v>0.202942</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19677</v>
+                  <v>0.197737</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192537</v>
+                  <v>0.193751</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189582</v>
+                  <v>0.190759</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188357</v>
+                  <v>0.189849</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18918</v>
+                  <v>0.190332</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.26912</v>
+                  <v>0.278685</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263515</v>
+                  <v>0.272544</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258001</v>
+                  <v>0.265182</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251707</v>
+                  <v>0.258313</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.244324</v>
+                  <v>0.251306</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.237919</v>
+                  <v>0.244968</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232212</v>
+                  <v>0.238935</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227439</v>
+                  <v>0.23311</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221821</v>
+                  <v>0.227571</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217357</v>
+                  <v>0.223329</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213424</v>
+                  <v>0.218763</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210226</v>
+                  <v>0.215284</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.207964</v>
+                  <v>0.213046</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207921</v>
+                  <v>0.212911</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209559</v>
+                  <v>0.214607</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.283981</v>
+                  <v>0.288817</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277131</v>
+                  <v>0.28218</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.270794</v>
+                  <v>0.275825</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.264867</v>
+                  <v>0.269577</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259794</v>
+                  <v>0.263923</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.253954</v>
+                  <v>0.258708</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.24921</v>
+                  <v>0.253064</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.244865</v>
+                  <v>0.248715</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.240339</v>
+                  <v>0.24411</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.236998</v>
+                  <v>0.240326</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.233953</v>
+                  <v>0.237178</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231224</v>
+                  <v>0.234517</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.230513</v>
+                  <v>0.236811</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.231737</v>
+                  <v>0.234526</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319243</v>
+                  <v>0.318667</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.313506</v>
+                  <v>0.312584</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.307885</v>
+                  <v>0.306993</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.302012</v>
+                  <v>0.301362</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.296555</v>
+                  <v>0.296711</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291959</v>
+                  <v>0.29159</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.287332</v>
+                  <v>0.287093</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.283552</v>
+                  <v>0.283405</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.279594</v>
+                  <v>0.280238</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.276526</v>
+                  <v>0.275407</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.273541</v>
+                  <v>0.272868</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.271458</v>
+                  <v>0.270697</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.271185</v>
+                  <v>0.270941</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.271892</v>
+                  <v>0.277476</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.37228</v>
+                  <v>0.379316</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.367218</v>
+                  <v>0.373187</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.360389</v>
+                  <v>0.366806</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.354692</v>
+                  <v>0.362246</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.350179</v>
+                  <v>0.356714</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.345269</v>
+                  <v>0.352186</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185496</v>
+                  <v>0.242276</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17914</v>
+                  <v>0.245317</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.170524</v>
+                  <v>0.238347</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.169499</v>
+                  <v>0.248739</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.149657</v>
+                  <v>0.239565</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.161619</v>
+                  <v>0.253177</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160816</v>
+                  <v>0.303239</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.161312</v>
+                  <v>0.293143</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.237105</v>
+                  <v>0.289925</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225645</v>
+                  <v>0.280454</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217736</v>
+                  <v>0.280751</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210439</v>
+                  <v>0.276354</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.202388</v>
+                  <v>0.277223</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.195072</v>
+                  <v>0.275769</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.188701</v>
+                  <v>0.267259</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.182715</v>
+                  <v>0.271819</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.178189</v>
+                  <v>0.267378</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.173444</v>
+                  <v>0.26539</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.169013</v>
+                  <v>0.275272</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.16628</v>
+                  <v>0.277668</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.16432</v>
+                  <v>0.335169</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164868</v>
+                  <v>0.328025</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244335</v>
+                  <v>0.317668</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234904</v>
+                  <v>0.310287</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227016</v>
+                  <v>0.303702</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218274</v>
+                  <v>0.315946</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211272</v>
+                  <v>0.318479</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.204111</v>
+                  <v>0.309369</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196912</v>
+                  <v>0.300635</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190547</v>
+                  <v>0.306206</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187527</v>
+                  <v>0.303272</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.182838</v>
+                  <v>0.301406</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.180848</v>
+                  <v>0.300323</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.17426</v>
+                  <v>0.302527</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.172159</v>
+                  <v>0.303998</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171778</v>
+                  <v>0.355212</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.256269</v>
+                  <v>0.348006</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.246739</v>
+                  <v>0.341682</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.23547</v>
+                  <v>0.330945</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225397</v>
+                  <v>0.33383</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.217593</v>
+                  <v>0.3284</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.209907</v>
+                  <v>0.322896</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.202922</v>
+                  <v>0.319092</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.196554</v>
+                  <v>0.315296</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.190564</v>
+                  <v>0.311465</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.185285</v>
+                  <v>0.310595</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.180769</v>
+                  <v>0.311461</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.177066</v>
+                  <v>0.312306</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.174203</v>
+                  <v>0.315883</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173722</v>
+                  <v>0.376165</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.175298</v>
+                  <v>0.366457</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.251635</v>
+                  <v>0.356919</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.242034</v>
+                  <v>0.348636</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.233004</v>
+                  <v>0.34225</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.225257</v>
+                  <v>0.349186</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217553</v>
+                  <v>0.342571</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.209839</v>
+                  <v>0.338049</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.202907</v>
+                  <v>0.330812</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.197025</v>
+                  <v>0.328029</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.1914</v>
+                  <v>0.325825</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.186386</v>
+                  <v>0.325188</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.182207</v>
+                  <v>0.326234</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.179104</v>
+                  <v>0.328388</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177727</v>
+                  <v>0.394765</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178898</v>
+                  <v>0.383521</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.260092</v>
+                  <v>0.373421</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.251907</v>
+                  <v>0.363382</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.241291</v>
+                  <v>0.355342</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.232729</v>
+                  <v>0.359583</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224656</v>
+                  <v>0.353516</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216811</v>
+                  <v>0.347095</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.20989</v>
+                  <v>0.343045</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.203254</v>
+                  <v>0.33957</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.19737</v>
+                  <v>0.335342</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.192268</v>
+                  <v>0.335714</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.187689</v>
+                  <v>0.335851</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.184139</v>
+                  <v>0.337831</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.182458</v>
+                  <v>0.417771</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.182405</v>
+                  <v>0.409385</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.263051</v>
+                  <v>0.398219</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.254497</v>
+                  <v>0.388863</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245979</v>
+                  <v>0.379638</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.237991</v>
+                  <v>0.380784</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.229829</v>
+                  <v>0.374844</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222655</v>
+                  <v>0.367629</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215492</v>
+                  <v>0.363659</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208861</v>
+                  <v>0.35982</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.202819</v>
+                  <v>0.357441</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197551</v>
+                  <v>0.354621</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.19288</v>
+                  <v>0.35597</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189225</v>
+                  <v>0.35806</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.186981</v>
+                  <v>0.361104</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18652</v>
+                  <v>0.460271</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.279398</v>
+                  <v>0.448516</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.272839</v>
+                  <v>0.438966</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.265664</v>
+                  <v>0.429595</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.25832</v>
+                  <v>0.431839</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.251327</v>
+                  <v>0.425911</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.243832</v>
+                  <v>0.419946</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.237699</v>
+                  <v>0.415513</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.231533</v>
+                  <v>0.412338</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.225275</v>
+                  <v>0.411588</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.221074</v>
+                  <v>0.411164</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.215871</v>
+                  <v>0.414228</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212823</v>
+                  <v>0.419344</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.211155</v>
+                  <v>0.42665</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.210494</v>
+                  <v>0.549334</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.212712</v>
+                  <v>0.536852</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.296635</v>
+                  <v>0.524792</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.289079</v>
+                  <v>0.514422</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.281344</v>
+                  <v>0.515606</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.274607</v>
+                  <v>0.507982</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.268304</v>
+                  <v>0.500902</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.26231</v>
+                  <v>0.494814</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256897</v>
+                  <v>0.491499</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.251768</v>
+                  <v>0.491159</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.247624</v>
+                  <v>0.493968</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.243795</v>
+                  <v>0.501803</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.240537</v>
+                  <v>0.513307</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.237909</v>
+                  <v>0.528149</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237154</v>
+                  <v>0.676284</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.238699</v>
+                  <v>0.6586689999999999</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.324651</v>
+                  <v>0.643774</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.318184</v>
+                  <v>0.629144</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.312519</v>
+                  <v>0.61551</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.307125</v>
+                  <v>0.6149019999999999</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.302006</v>
+                  <v>0.603787</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.29769</v>
+                  <v>0.595767</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.293184</v>
+                  <v>0.582529</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28978</v>
+                  <v>0.582479</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.286402</v>
+                  <v>0.583156</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.283895</v>
+                  <v>0.592506</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.281675</v>
+                  <v>0.60753</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.280269</v>
+                  <v>0.626672</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.280711</v>
+                  <v>0.798616</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.282617</v>
+                  <v>0.778193</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.382259</v>
+                  <v>0.757042</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37477</v>
+                  <v>0.73654</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.368197</v>
+                  <v>0.720079</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.362373</v>
+                  <v>0.718014</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.35649</v>
+                  <v>0.70311</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.35135</v>
+                  <v>0.691505</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.177535</v>
+                  <v>0.146893</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17311</v>
+                  <v>0.131691</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.162867</v>
+                  <v>0.137036</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.164279</v>
+                  <v>0.131842</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.160258</v>
+                  <v>0.125616</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149896</v>
+                  <v>0.121087</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.158577</v>
+                  <v>0.121584</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.234336</v>
+                  <v>0.194024</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224925</v>
+                  <v>0.184754</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216883</v>
+                  <v>0.180606</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20972</v>
+                  <v>0.174134</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.201848</v>
+                  <v>0.171019</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194494</v>
+                  <v>0.162719</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.187921</v>
+                  <v>0.155949</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.182167</v>
+                  <v>0.152252</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.177316</v>
+                  <v>0.149936</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.171691</v>
+                  <v>0.140064</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.168023</v>
+                  <v>0.137412</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165471</v>
+                  <v>0.136896</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.163669</v>
+                  <v>0.131549</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163704</v>
+                  <v>0.138279</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.242678</v>
+                  <v>0.226752</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235687</v>
+                  <v>0.217993</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.22455</v>
+                  <v>0.211366</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.218977</v>
+                  <v>0.201647</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.21035</v>
+                  <v>0.195417</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.203212</v>
+                  <v>0.187558</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.195416</v>
+                  <v>0.176767</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.188549</v>
+                  <v>0.17144</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.18509</v>
+                  <v>0.162653</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182046</v>
+                  <v>0.158209</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179224</v>
+                  <v>0.156432</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.177848</v>
+                  <v>0.152501</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.173541</v>
+                  <v>0.149703</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.169102</v>
+                  <v>0.148753</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.254042</v>
+                  <v>0.227069</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.259149</v>
+                  <v>0.217668</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236306</v>
+                  <v>0.209495</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.222767</v>
+                  <v>0.201759</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.216405</v>
+                  <v>0.194217</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.208142</v>
+                  <v>0.18695</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.201677</v>
+                  <v>0.180087</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.195548</v>
+                  <v>0.173936</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.189056</v>
+                  <v>0.168134</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.182624</v>
+                  <v>0.163137</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.178156</v>
+                  <v>0.158203</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.174608</v>
+                  <v>0.154742</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.171633</v>
+                  <v>0.152434</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.170934</v>
+                  <v>0.152332</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.255758</v>
+                  <v>0.239051</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.247302</v>
+                  <v>0.229893</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.23943</v>
+                  <v>0.220943</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.22978</v>
+                  <v>0.212713</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.220805</v>
+                  <v>0.204206</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.213086</v>
+                  <v>0.196844</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.206423</v>
+                  <v>0.189546</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.199202</v>
+                  <v>0.182825</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.193161</v>
+                  <v>0.174747</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.188345</v>
+                  <v>0.168998</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.183701</v>
+                  <v>0.164893</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.179105</v>
+                  <v>0.160717</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.175983</v>
+                  <v>0.158017</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.175207</v>
+                  <v>0.156965</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176868</v>
+                  <v>0.158007</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.255168</v>
+                  <v>0.235105</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.245687</v>
+                  <v>0.226133</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235894</v>
+                  <v>0.217421</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228449</v>
+                  <v>0.209352</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220252</v>
+                  <v>0.201509</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212395</v>
+                  <v>0.194248</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205789</v>
+                  <v>0.187578</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.198979</v>
+                  <v>0.18116</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.193168</v>
+                  <v>0.175182</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.187939</v>
+                  <v>0.170499</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183439</v>
+                  <v>0.166167</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.179541</v>
+                  <v>0.163124</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.179061</v>
+                  <v>0.161408</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179082</v>
+                  <v>0.162135</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.259911</v>
+                  <v>0.239824</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251563</v>
+                  <v>0.231207</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.242857</v>
+                  <v>0.223021</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.234493</v>
+                  <v>0.214563</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.226465</v>
+                  <v>0.207392</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218893</v>
+                  <v>0.199601</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.211566</v>
+                  <v>0.192903</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.20522</v>
+                  <v>0.18693</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.199014</v>
+                  <v>0.18099</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.193511</v>
+                  <v>0.175736</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.189531</v>
+                  <v>0.171048</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.185885</v>
+                  <v>0.167716</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.18375</v>
+                  <v>0.16583</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183845</v>
+                  <v>0.165434</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.278244</v>
+                  <v>0.268553</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271679</v>
+                  <v>0.260033</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265508</v>
+                  <v>0.252128</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.256713</v>
+                  <v>0.243344</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.249207</v>
+                  <v>0.235396</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24149</v>
+                  <v>0.227774</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.235856</v>
+                  <v>0.220711</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228715</v>
+                  <v>0.214081</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.223444</v>
+                  <v>0.20743</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.218043</v>
+                  <v>0.201386</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213537</v>
+                  <v>0.1967</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210039</v>
+                  <v>0.192345</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.208195</v>
+                  <v>0.189046</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208204</v>
+                  <v>0.18825</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.304461</v>
+                  <v>0.27939</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.297571</v>
+                  <v>0.272222</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.287177</v>
+                  <v>0.264317</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.279271</v>
+                  <v>0.255839</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.273178</v>
+                  <v>0.248083</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266397</v>
+                  <v>0.241457</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260727</v>
+                  <v>0.234387</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255738</v>
+                  <v>0.227987</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250645</v>
+                  <v>0.22155</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245993</v>
+                  <v>0.216636</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241963</v>
+                  <v>0.212065</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.238673</v>
+                  <v>0.207207</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.236356</v>
+                  <v>0.204174</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.235818</v>
+                  <v>0.20283</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237864</v>
+                  <v>0.203562</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.32462</v>
+                  <v>0.289005</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319055</v>
+                  <v>0.281919</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.314235</v>
+                  <v>0.27536</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.309144</v>
+                  <v>0.269401</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.304711</v>
+                  <v>0.264112</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.300168</v>
+                  <v>0.25879</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.296269</v>
+                  <v>0.254136</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.292886</v>
+                  <v>0.252103</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.289318</v>
+                  <v>0.247631</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.287032</v>
+                  <v>0.243658</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.285057</v>
+                  <v>0.240053</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.283504</v>
+                  <v>0.237326</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.284257</v>
+                  <v>0.236049</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.286675</v>
+                  <v>0.234281</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.386674</v>
+                  <v>0.33018</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.379899</v>
+                  <v>0.324289</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37323</v>
+                  <v>0.318664</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.367346</v>
+                  <v>0.312845</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.361801</v>
+                  <v>0.30874</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.356534</v>
+                  <v>0.303599</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.351406</v>
+                  <v>0.299485</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.157765</v>
+        <v>0.155125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.13415</v>
+        <v>0.136376</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13488</v>
+        <v>0.140749</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.158207</v>
+        <v>0.152078</v>
       </c>
       <c r="C3" t="n">
-        <v>0.130206</v>
+        <v>0.126104</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140748</v>
+        <v>0.130408</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.152925</v>
+        <v>0.156295</v>
       </c>
       <c r="C4" t="n">
-        <v>0.125045</v>
+        <v>0.121722</v>
       </c>
       <c r="D4" t="n">
-        <v>0.126657</v>
+        <v>0.125117</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.139071</v>
+        <v>0.150178</v>
       </c>
       <c r="C5" t="n">
-        <v>0.13052</v>
+        <v>0.117095</v>
       </c>
       <c r="D5" t="n">
-        <v>0.129434</v>
+        <v>0.121496</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.139747</v>
+        <v>0.152363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.12242</v>
+        <v>0.117442</v>
       </c>
       <c r="D6" t="n">
-        <v>0.132665</v>
+        <v>0.117982</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.148753</v>
+        <v>0.146861</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112847</v>
+        <v>0.117</v>
       </c>
       <c r="D7" t="n">
-        <v>0.115342</v>
+        <v>0.114587</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.142029</v>
+        <v>0.14639</v>
       </c>
       <c r="C8" t="n">
-        <v>0.109979</v>
+        <v>0.107406</v>
       </c>
       <c r="D8" t="n">
-        <v>0.118227</v>
+        <v>0.12012</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149176</v>
+        <v>0.1474</v>
       </c>
       <c r="C9" t="n">
-        <v>0.108947</v>
+        <v>0.103743</v>
       </c>
       <c r="D9" t="n">
-        <v>0.193235</v>
+        <v>0.182511</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.216863</v>
+        <v>0.214379</v>
       </c>
       <c r="C10" t="n">
-        <v>0.19091</v>
+        <v>0.176891</v>
       </c>
       <c r="D10" t="n">
-        <v>0.197905</v>
+        <v>0.188915</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.214241</v>
+        <v>0.20073</v>
       </c>
       <c r="C11" t="n">
-        <v>0.184605</v>
+        <v>0.168528</v>
       </c>
       <c r="D11" t="n">
-        <v>0.181873</v>
+        <v>0.170353</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.205707</v>
+        <v>0.19628</v>
       </c>
       <c r="C12" t="n">
-        <v>0.178888</v>
+        <v>0.156061</v>
       </c>
       <c r="D12" t="n">
-        <v>0.178945</v>
+        <v>0.162818</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.198652</v>
+        <v>0.190884</v>
       </c>
       <c r="C13" t="n">
-        <v>0.175158</v>
+        <v>0.153351</v>
       </c>
       <c r="D13" t="n">
-        <v>0.177969</v>
+        <v>0.157457</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.188845</v>
+        <v>0.191827</v>
       </c>
       <c r="C14" t="n">
-        <v>0.164518</v>
+        <v>0.148219</v>
       </c>
       <c r="D14" t="n">
-        <v>0.169903</v>
+        <v>0.153466</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.180606</v>
+        <v>0.174037</v>
       </c>
       <c r="C15" t="n">
-        <v>0.163333</v>
+        <v>0.143176</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167286</v>
+        <v>0.145461</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.180706</v>
+        <v>0.169916</v>
       </c>
       <c r="C16" t="n">
-        <v>0.154882</v>
+        <v>0.141947</v>
       </c>
       <c r="D16" t="n">
-        <v>0.161816</v>
+        <v>0.141243</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.175572</v>
+        <v>0.166995</v>
       </c>
       <c r="C17" t="n">
-        <v>0.145717</v>
+        <v>0.137786</v>
       </c>
       <c r="D17" t="n">
-        <v>0.150356</v>
+        <v>0.137466</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.16703</v>
+        <v>0.159484</v>
       </c>
       <c r="C18" t="n">
-        <v>0.145035</v>
+        <v>0.128617</v>
       </c>
       <c r="D18" t="n">
-        <v>0.151013</v>
+        <v>0.1326</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.165747</v>
+        <v>0.157312</v>
       </c>
       <c r="C19" t="n">
-        <v>0.139975</v>
+        <v>0.125575</v>
       </c>
       <c r="D19" t="n">
-        <v>0.145548</v>
+        <v>0.130016</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.160811</v>
+        <v>0.155148</v>
       </c>
       <c r="C20" t="n">
-        <v>0.135964</v>
+        <v>0.131737</v>
       </c>
       <c r="D20" t="n">
-        <v>0.140482</v>
+        <v>0.135684</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.162122</v>
+        <v>0.15889</v>
       </c>
       <c r="C21" t="n">
-        <v>0.135388</v>
+        <v>0.124176</v>
       </c>
       <c r="D21" t="n">
-        <v>0.138859</v>
+        <v>0.131102</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.163342</v>
+        <v>0.157044</v>
       </c>
       <c r="C22" t="n">
-        <v>0.133424</v>
+        <v>0.126292</v>
       </c>
       <c r="D22" t="n">
-        <v>0.138374</v>
+        <v>0.129442</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163623</v>
+        <v>0.158962</v>
       </c>
       <c r="C23" t="n">
-        <v>0.133099</v>
+        <v>0.126198</v>
       </c>
       <c r="D23" t="n">
-        <v>0.224374</v>
+        <v>0.21966</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.250598</v>
+        <v>0.232539</v>
       </c>
       <c r="C24" t="n">
-        <v>0.216439</v>
+        <v>0.209834</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216247</v>
+        <v>0.212422</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239798</v>
+        <v>0.224269</v>
       </c>
       <c r="C25" t="n">
-        <v>0.207613</v>
+        <v>0.202447</v>
       </c>
       <c r="D25" t="n">
-        <v>0.209474</v>
+        <v>0.202564</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.231192</v>
+        <v>0.219978</v>
       </c>
       <c r="C26" t="n">
-        <v>0.201276</v>
+        <v>0.194973</v>
       </c>
       <c r="D26" t="n">
-        <v>0.204111</v>
+        <v>0.191955</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.220181</v>
+        <v>0.203297</v>
       </c>
       <c r="C27" t="n">
-        <v>0.193546</v>
+        <v>0.187576</v>
       </c>
       <c r="D27" t="n">
-        <v>0.203584</v>
+        <v>0.183125</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.213254</v>
+        <v>0.209785</v>
       </c>
       <c r="C28" t="n">
-        <v>0.186422</v>
+        <v>0.18066</v>
       </c>
       <c r="D28" t="n">
-        <v>0.180982</v>
+        <v>0.178106</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.204799</v>
+        <v>0.201002</v>
       </c>
       <c r="C29" t="n">
-        <v>0.176444</v>
+        <v>0.174362</v>
       </c>
       <c r="D29" t="n">
-        <v>0.172653</v>
+        <v>0.17043</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.196681</v>
+        <v>0.185231</v>
       </c>
       <c r="C30" t="n">
-        <v>0.16989</v>
+        <v>0.168469</v>
       </c>
       <c r="D30" t="n">
-        <v>0.168892</v>
+        <v>0.162696</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.190049</v>
+        <v>0.177999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.164482</v>
+        <v>0.162411</v>
       </c>
       <c r="D31" t="n">
-        <v>0.160647</v>
+        <v>0.158931</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.179367</v>
+        <v>0.177375</v>
       </c>
       <c r="C32" t="n">
-        <v>0.158767</v>
+        <v>0.157301</v>
       </c>
       <c r="D32" t="n">
-        <v>0.155373</v>
+        <v>0.152495</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.172933</v>
+        <v>0.176249</v>
       </c>
       <c r="C33" t="n">
-        <v>0.154127</v>
+        <v>0.152603</v>
       </c>
       <c r="D33" t="n">
-        <v>0.151557</v>
+        <v>0.147679</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.173742</v>
+        <v>0.174182</v>
       </c>
       <c r="C34" t="n">
-        <v>0.149874</v>
+        <v>0.148261</v>
       </c>
       <c r="D34" t="n">
-        <v>0.148697</v>
+        <v>0.144047</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.170313</v>
+        <v>0.166567</v>
       </c>
       <c r="C35" t="n">
-        <v>0.146672</v>
+        <v>0.145145</v>
       </c>
       <c r="D35" t="n">
-        <v>0.146385</v>
+        <v>0.142479</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.172123</v>
+        <v>0.169146</v>
       </c>
       <c r="C36" t="n">
-        <v>0.144065</v>
+        <v>0.143345</v>
       </c>
       <c r="D36" t="n">
-        <v>0.145108</v>
+        <v>0.139918</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172168</v>
+        <v>0.167408</v>
       </c>
       <c r="C37" t="n">
-        <v>0.143614</v>
+        <v>0.142744</v>
       </c>
       <c r="D37" t="n">
-        <v>0.223141</v>
+        <v>0.219213</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244517</v>
+        <v>0.243887</v>
       </c>
       <c r="C38" t="n">
-        <v>0.221061</v>
+        <v>0.219297</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216963</v>
+        <v>0.211658</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.234294</v>
+        <v>0.234973</v>
       </c>
       <c r="C39" t="n">
-        <v>0.212399</v>
+        <v>0.210598</v>
       </c>
       <c r="D39" t="n">
-        <v>0.207148</v>
+        <v>0.203559</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.226807</v>
+        <v>0.225449</v>
       </c>
       <c r="C40" t="n">
-        <v>0.204053</v>
+        <v>0.20261</v>
       </c>
       <c r="D40" t="n">
-        <v>0.199908</v>
+        <v>0.196005</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.21836</v>
+        <v>0.217557</v>
       </c>
       <c r="C41" t="n">
-        <v>0.196247</v>
+        <v>0.194814</v>
       </c>
       <c r="D41" t="n">
-        <v>0.192271</v>
+        <v>0.188297</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.209641</v>
+        <v>0.210046</v>
       </c>
       <c r="C42" t="n">
-        <v>0.188845</v>
+        <v>0.187853</v>
       </c>
       <c r="D42" t="n">
-        <v>0.184362</v>
+        <v>0.183009</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.202711</v>
+        <v>0.20323</v>
       </c>
       <c r="C43" t="n">
-        <v>0.18169</v>
+        <v>0.180881</v>
       </c>
       <c r="D43" t="n">
-        <v>0.177775</v>
+        <v>0.174358</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.19718</v>
+        <v>0.196215</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175258</v>
+        <v>0.174543</v>
       </c>
       <c r="D44" t="n">
-        <v>0.171076</v>
+        <v>0.167474</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.191662</v>
+        <v>0.189332</v>
       </c>
       <c r="C45" t="n">
-        <v>0.169302</v>
+        <v>0.168217</v>
       </c>
       <c r="D45" t="n">
-        <v>0.165379</v>
+        <v>0.161634</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.185052</v>
+        <v>0.183842</v>
       </c>
       <c r="C46" t="n">
-        <v>0.163979</v>
+        <v>0.163109</v>
       </c>
       <c r="D46" t="n">
-        <v>0.160642</v>
+        <v>0.156671</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.18071</v>
+        <v>0.179803</v>
       </c>
       <c r="C47" t="n">
-        <v>0.159002</v>
+        <v>0.158467</v>
       </c>
       <c r="D47" t="n">
-        <v>0.156313</v>
+        <v>0.152519</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.176099</v>
+        <v>0.176807</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154784</v>
+        <v>0.154122</v>
       </c>
       <c r="D48" t="n">
-        <v>0.15274</v>
+        <v>0.149161</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.17383</v>
+        <v>0.173119</v>
       </c>
       <c r="C49" t="n">
-        <v>0.151443</v>
+        <v>0.150317</v>
       </c>
       <c r="D49" t="n">
-        <v>0.150209</v>
+        <v>0.147112</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.174056</v>
+        <v>0.170871</v>
       </c>
       <c r="C50" t="n">
-        <v>0.148533</v>
+        <v>0.148093</v>
       </c>
       <c r="D50" t="n">
-        <v>0.149327</v>
+        <v>0.146563</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174048</v>
+        <v>0.173121</v>
       </c>
       <c r="C51" t="n">
-        <v>0.147251</v>
+        <v>0.146851</v>
       </c>
       <c r="D51" t="n">
-        <v>0.230804</v>
+        <v>0.22797</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176422</v>
+        <v>0.175902</v>
       </c>
       <c r="C52" t="n">
-        <v>0.148256</v>
+        <v>0.147739</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221913</v>
+        <v>0.222315</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242481</v>
+        <v>0.244972</v>
       </c>
       <c r="C53" t="n">
-        <v>0.21864</v>
+        <v>0.222817</v>
       </c>
       <c r="D53" t="n">
-        <v>0.213909</v>
+        <v>0.21534</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233485</v>
+        <v>0.236123</v>
       </c>
       <c r="C54" t="n">
-        <v>0.21034</v>
+        <v>0.214017</v>
       </c>
       <c r="D54" t="n">
-        <v>0.205541</v>
+        <v>0.206576</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.22536</v>
+        <v>0.22736</v>
       </c>
       <c r="C55" t="n">
-        <v>0.20208</v>
+        <v>0.205808</v>
       </c>
       <c r="D55" t="n">
-        <v>0.197405</v>
+        <v>0.198338</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.217531</v>
+        <v>0.219391</v>
       </c>
       <c r="C56" t="n">
-        <v>0.194724</v>
+        <v>0.198068</v>
       </c>
       <c r="D56" t="n">
-        <v>0.190126</v>
+        <v>0.191034</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.209716</v>
+        <v>0.211939</v>
       </c>
       <c r="C57" t="n">
-        <v>0.187711</v>
+        <v>0.191198</v>
       </c>
       <c r="D57" t="n">
-        <v>0.183273</v>
+        <v>0.184313</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.202996</v>
+        <v>0.205435</v>
       </c>
       <c r="C58" t="n">
-        <v>0.181018</v>
+        <v>0.181608</v>
       </c>
       <c r="D58" t="n">
-        <v>0.176913</v>
+        <v>0.175238</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.197037</v>
+        <v>0.196545</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174654</v>
+        <v>0.175172</v>
       </c>
       <c r="D59" t="n">
-        <v>0.170999</v>
+        <v>0.169178</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.190963</v>
+        <v>0.19062</v>
       </c>
       <c r="C60" t="n">
-        <v>0.168994</v>
+        <v>0.169563</v>
       </c>
       <c r="D60" t="n">
-        <v>0.165516</v>
+        <v>0.164574</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.186043</v>
+        <v>0.186023</v>
       </c>
       <c r="C61" t="n">
-        <v>0.164074</v>
+        <v>0.164024</v>
       </c>
       <c r="D61" t="n">
-        <v>0.161102</v>
+        <v>0.159642</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.18209</v>
+        <v>0.181615</v>
       </c>
       <c r="C62" t="n">
-        <v>0.159229</v>
+        <v>0.159989</v>
       </c>
       <c r="D62" t="n">
-        <v>0.157141</v>
+        <v>0.155882</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178881</v>
+        <v>0.178907</v>
       </c>
       <c r="C63" t="n">
-        <v>0.155101</v>
+        <v>0.155687</v>
       </c>
       <c r="D63" t="n">
-        <v>0.154434</v>
+        <v>0.153001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177163</v>
+        <v>0.177002</v>
       </c>
       <c r="C64" t="n">
-        <v>0.152282</v>
+        <v>0.152792</v>
       </c>
       <c r="D64" t="n">
-        <v>0.152696</v>
+        <v>0.151822</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177364</v>
+        <v>0.177351</v>
       </c>
       <c r="C65" t="n">
-        <v>0.150663</v>
+        <v>0.151228</v>
       </c>
       <c r="D65" t="n">
-        <v>0.153926</v>
+        <v>0.153084</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179686</v>
+        <v>0.179893</v>
       </c>
       <c r="C66" t="n">
-        <v>0.15137</v>
+        <v>0.151506</v>
       </c>
       <c r="D66" t="n">
-        <v>0.229651</v>
+        <v>0.229665</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.245183</v>
+        <v>0.245029</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227175</v>
+        <v>0.228255</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220614</v>
+        <v>0.22058</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.234318</v>
+        <v>0.236392</v>
       </c>
       <c r="C68" t="n">
-        <v>0.219023</v>
+        <v>0.219625</v>
       </c>
       <c r="D68" t="n">
-        <v>0.212708</v>
+        <v>0.21187</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.227003</v>
+        <v>0.228018</v>
       </c>
       <c r="C69" t="n">
-        <v>0.210558</v>
+        <v>0.211183</v>
       </c>
       <c r="D69" t="n">
-        <v>0.204786</v>
+        <v>0.203986</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219651</v>
+        <v>0.219601</v>
       </c>
       <c r="C70" t="n">
-        <v>0.202479</v>
+        <v>0.203537</v>
       </c>
       <c r="D70" t="n">
-        <v>0.197097</v>
+        <v>0.196617</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213769</v>
+        <v>0.212654</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195168</v>
+        <v>0.195899</v>
       </c>
       <c r="D71" t="n">
-        <v>0.189784</v>
+        <v>0.189495</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.207097</v>
+        <v>0.205887</v>
       </c>
       <c r="C72" t="n">
-        <v>0.188382</v>
+        <v>0.188817</v>
       </c>
       <c r="D72" t="n">
-        <v>0.182595</v>
+        <v>0.182924</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.200096</v>
+        <v>0.19911</v>
       </c>
       <c r="C73" t="n">
-        <v>0.181893</v>
+        <v>0.182192</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176914</v>
+        <v>0.176794</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.194781</v>
+        <v>0.194279</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175785</v>
+        <v>0.176128</v>
       </c>
       <c r="D74" t="n">
-        <v>0.171522</v>
+        <v>0.171122</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18937</v>
+        <v>0.188504</v>
       </c>
       <c r="C75" t="n">
-        <v>0.170062</v>
+        <v>0.170431</v>
       </c>
       <c r="D75" t="n">
-        <v>0.16626</v>
+        <v>0.165808</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185497</v>
+        <v>0.18478</v>
       </c>
       <c r="C76" t="n">
-        <v>0.16524</v>
+        <v>0.165567</v>
       </c>
       <c r="D76" t="n">
-        <v>0.162368</v>
+        <v>0.161989</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.18196</v>
+        <v>0.181285</v>
       </c>
       <c r="C77" t="n">
-        <v>0.16094</v>
+        <v>0.161486</v>
       </c>
       <c r="D77" t="n">
-        <v>0.15891</v>
+        <v>0.15871</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179568</v>
+        <v>0.178697</v>
       </c>
       <c r="C78" t="n">
-        <v>0.157705</v>
+        <v>0.158084</v>
       </c>
       <c r="D78" t="n">
-        <v>0.157072</v>
+        <v>0.156734</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179654</v>
+        <v>0.178697</v>
       </c>
       <c r="C79" t="n">
-        <v>0.155829</v>
+        <v>0.156121</v>
       </c>
       <c r="D79" t="n">
-        <v>0.157418</v>
+        <v>0.15687</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.182</v>
+        <v>0.181288</v>
       </c>
       <c r="C80" t="n">
-        <v>0.155756</v>
+        <v>0.155832</v>
       </c>
       <c r="D80" t="n">
-        <v>0.234214</v>
+        <v>0.233906</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258131</v>
+        <v>0.257549</v>
       </c>
       <c r="C81" t="n">
-        <v>0.231662</v>
+        <v>0.231003</v>
       </c>
       <c r="D81" t="n">
-        <v>0.225256</v>
+        <v>0.22568</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.250601</v>
+        <v>0.249995</v>
       </c>
       <c r="C82" t="n">
-        <v>0.223488</v>
+        <v>0.223501</v>
       </c>
       <c r="D82" t="n">
-        <v>0.217013</v>
+        <v>0.216966</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242804</v>
+        <v>0.242479</v>
       </c>
       <c r="C83" t="n">
-        <v>0.215873</v>
+        <v>0.21552</v>
       </c>
       <c r="D83" t="n">
-        <v>0.209419</v>
+        <v>0.20974</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235222</v>
+        <v>0.234539</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208084</v>
+        <v>0.208425</v>
       </c>
       <c r="D84" t="n">
-        <v>0.202018</v>
+        <v>0.20175</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227988</v>
+        <v>0.227109</v>
       </c>
       <c r="C85" t="n">
-        <v>0.201251</v>
+        <v>0.200298</v>
       </c>
       <c r="D85" t="n">
-        <v>0.195514</v>
+        <v>0.195071</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.221101</v>
+        <v>0.220492</v>
       </c>
       <c r="C86" t="n">
-        <v>0.194923</v>
+        <v>0.19479</v>
       </c>
       <c r="D86" t="n">
-        <v>0.189561</v>
+        <v>0.187757</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214404</v>
+        <v>0.213212</v>
       </c>
       <c r="C87" t="n">
-        <v>0.188954</v>
+        <v>0.187745</v>
       </c>
       <c r="D87" t="n">
-        <v>0.183161</v>
+        <v>0.181895</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208151</v>
+        <v>0.207455</v>
       </c>
       <c r="C88" t="n">
-        <v>0.182842</v>
+        <v>0.182071</v>
       </c>
       <c r="D88" t="n">
-        <v>0.177085</v>
+        <v>0.176169</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.202809</v>
+        <v>0.202066</v>
       </c>
       <c r="C89" t="n">
-        <v>0.177474</v>
+        <v>0.176388</v>
       </c>
       <c r="D89" t="n">
-        <v>0.172086</v>
+        <v>0.171193</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197632</v>
+        <v>0.196809</v>
       </c>
       <c r="C90" t="n">
-        <v>0.172162</v>
+        <v>0.171714</v>
       </c>
       <c r="D90" t="n">
-        <v>0.167358</v>
+        <v>0.166346</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193399</v>
+        <v>0.193015</v>
       </c>
       <c r="C91" t="n">
-        <v>0.168023</v>
+        <v>0.167907</v>
       </c>
       <c r="D91" t="n">
-        <v>0.164169</v>
+        <v>0.163392</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190731</v>
+        <v>0.190039</v>
       </c>
       <c r="C92" t="n">
-        <v>0.164453</v>
+        <v>0.164027</v>
       </c>
       <c r="D92" t="n">
-        <v>0.161922</v>
+        <v>0.16108</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189378</v>
+        <v>0.188939</v>
       </c>
       <c r="C93" t="n">
-        <v>0.162453</v>
+        <v>0.161338</v>
       </c>
       <c r="D93" t="n">
-        <v>0.161397</v>
+        <v>0.160961</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.18983</v>
+        <v>0.18947</v>
       </c>
       <c r="C94" t="n">
-        <v>0.160846</v>
+        <v>0.160947</v>
       </c>
       <c r="D94" t="n">
-        <v>0.251035</v>
+        <v>0.250674</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.271771</v>
+        <v>0.271829</v>
       </c>
       <c r="C95" t="n">
-        <v>0.248617</v>
+        <v>0.249112</v>
       </c>
       <c r="D95" t="n">
-        <v>0.244655</v>
+        <v>0.244193</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265895</v>
+        <v>0.265473</v>
       </c>
       <c r="C96" t="n">
-        <v>0.242364</v>
+        <v>0.242174</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236092</v>
+        <v>0.236421</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258688</v>
+        <v>0.258694</v>
       </c>
       <c r="C97" t="n">
-        <v>0.234799</v>
+        <v>0.234669</v>
       </c>
       <c r="D97" t="n">
-        <v>0.228964</v>
+        <v>0.229078</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252227</v>
+        <v>0.25239</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227002</v>
+        <v>0.227756</v>
       </c>
       <c r="D98" t="n">
-        <v>0.221865</v>
+        <v>0.221271</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.24547</v>
+        <v>0.245417</v>
       </c>
       <c r="C99" t="n">
-        <v>0.220855</v>
+        <v>0.220735</v>
       </c>
       <c r="D99" t="n">
-        <v>0.214621</v>
+        <v>0.214424</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239269</v>
+        <v>0.239371</v>
       </c>
       <c r="C100" t="n">
-        <v>0.213863</v>
+        <v>0.214057</v>
       </c>
       <c r="D100" t="n">
-        <v>0.207245</v>
+        <v>0.207686</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.23384</v>
+        <v>0.233796</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207776</v>
+        <v>0.207853</v>
       </c>
       <c r="D101" t="n">
-        <v>0.201777</v>
+        <v>0.201144</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228395</v>
+        <v>0.227956</v>
       </c>
       <c r="C102" t="n">
         <v>0.201745</v>
       </c>
       <c r="D102" t="n">
-        <v>0.195698</v>
+        <v>0.195065</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223137</v>
+        <v>0.223089</v>
       </c>
       <c r="C103" t="n">
-        <v>0.196305</v>
+        <v>0.196397</v>
       </c>
       <c r="D103" t="n">
-        <v>0.190244</v>
+        <v>0.190766</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218644</v>
+        <v>0.218775</v>
       </c>
       <c r="C104" t="n">
-        <v>0.191047</v>
+        <v>0.192023</v>
       </c>
       <c r="D104" t="n">
-        <v>0.185776</v>
+        <v>0.185681</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.21432</v>
+        <v>0.214749</v>
       </c>
       <c r="C105" t="n">
-        <v>0.187443</v>
+        <v>0.187389</v>
       </c>
       <c r="D105" t="n">
-        <v>0.181729</v>
+        <v>0.181881</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211115</v>
+        <v>0.211489</v>
       </c>
       <c r="C106" t="n">
-        <v>0.183479</v>
+        <v>0.183732</v>
       </c>
       <c r="D106" t="n">
-        <v>0.178584</v>
+        <v>0.178419</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209389</v>
+        <v>0.209143</v>
       </c>
       <c r="C107" t="n">
-        <v>0.181114</v>
+        <v>0.181266</v>
       </c>
       <c r="D107" t="n">
-        <v>0.177991</v>
+        <v>0.178241</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.209223</v>
+        <v>0.209127</v>
       </c>
       <c r="C108" t="n">
-        <v>0.179914</v>
+        <v>0.180063</v>
       </c>
       <c r="D108" t="n">
-        <v>0.26933</v>
+        <v>0.269186</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211136</v>
+        <v>0.211259</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180079</v>
+        <v>0.180978</v>
       </c>
       <c r="D109" t="n">
-        <v>0.262445</v>
+        <v>0.262506</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.286141</v>
+        <v>0.285926</v>
       </c>
       <c r="C110" t="n">
-        <v>0.261405</v>
+        <v>0.261717</v>
       </c>
       <c r="D110" t="n">
-        <v>0.254356</v>
+        <v>0.254806</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.279079</v>
+        <v>0.279046</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253397</v>
+        <v>0.254369</v>
       </c>
       <c r="D111" t="n">
-        <v>0.246753</v>
+        <v>0.246948</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272652</v>
+        <v>0.272453</v>
       </c>
       <c r="C112" t="n">
-        <v>0.246746</v>
+        <v>0.246259</v>
       </c>
       <c r="D112" t="n">
-        <v>0.23948</v>
+        <v>0.239698</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.267644</v>
+        <v>0.267029</v>
       </c>
       <c r="C113" t="n">
-        <v>0.239718</v>
+        <v>0.239562</v>
       </c>
       <c r="D113" t="n">
-        <v>0.232542</v>
+        <v>0.232759</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260915</v>
+        <v>0.261072</v>
       </c>
       <c r="C114" t="n">
-        <v>0.232378</v>
+        <v>0.233377</v>
       </c>
       <c r="D114" t="n">
-        <v>0.225865</v>
+        <v>0.226943</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.256062</v>
+        <v>0.255563</v>
       </c>
       <c r="C115" t="n">
-        <v>0.226573</v>
+        <v>0.22659</v>
       </c>
       <c r="D115" t="n">
-        <v>0.22024</v>
+        <v>0.220754</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.251116</v>
+        <v>0.251165</v>
       </c>
       <c r="C116" t="n">
-        <v>0.220933</v>
+        <v>0.221655</v>
       </c>
       <c r="D116" t="n">
-        <v>0.214698</v>
+        <v>0.214462</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.24651</v>
+        <v>0.246103</v>
       </c>
       <c r="C117" t="n">
-        <v>0.216178</v>
+        <v>0.216298</v>
       </c>
       <c r="D117" t="n">
-        <v>0.209305</v>
+        <v>0.209522</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.24164</v>
+        <v>0.241736</v>
       </c>
       <c r="C118" t="n">
-        <v>0.21089</v>
+        <v>0.211992</v>
       </c>
       <c r="D118" t="n">
-        <v>0.204881</v>
+        <v>0.203688</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238351</v>
+        <v>0.238289</v>
       </c>
       <c r="C119" t="n">
-        <v>0.207149</v>
+        <v>0.207457</v>
       </c>
       <c r="D119" t="n">
-        <v>0.201021</v>
+        <v>0.201185</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234954</v>
+        <v>0.235002</v>
       </c>
       <c r="C120" t="n">
-        <v>0.20363</v>
+        <v>0.203562</v>
       </c>
       <c r="D120" t="n">
-        <v>0.197562</v>
+        <v>0.197881</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232598</v>
+        <v>0.232749</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200834</v>
+        <v>0.201261</v>
       </c>
       <c r="D121" t="n">
-        <v>0.195347</v>
+        <v>0.196375</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.232086</v>
+        <v>0.231664</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199146</v>
+        <v>0.1995</v>
       </c>
       <c r="D122" t="n">
-        <v>0.196695</v>
+        <v>0.19708</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233111</v>
+        <v>0.232937</v>
       </c>
       <c r="C123" t="n">
-        <v>0.201245</v>
+        <v>0.200016</v>
       </c>
       <c r="D123" t="n">
-        <v>0.280592</v>
+        <v>0.285788</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.318254</v>
+        <v>0.317297</v>
       </c>
       <c r="C124" t="n">
-        <v>0.280914</v>
+        <v>0.285029</v>
       </c>
       <c r="D124" t="n">
-        <v>0.275348</v>
+        <v>0.279565</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.311386</v>
+        <v>0.311171</v>
       </c>
       <c r="C125" t="n">
-        <v>0.274679</v>
+        <v>0.278421</v>
       </c>
       <c r="D125" t="n">
-        <v>0.269595</v>
+        <v>0.272882</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.306071</v>
+        <v>0.305286</v>
       </c>
       <c r="C126" t="n">
-        <v>0.268516</v>
+        <v>0.272098</v>
       </c>
       <c r="D126" t="n">
-        <v>0.262973</v>
+        <v>0.266835</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.300722</v>
+        <v>0.299627</v>
       </c>
       <c r="C127" t="n">
-        <v>0.26231</v>
+        <v>0.265899</v>
       </c>
       <c r="D127" t="n">
-        <v>0.258271</v>
+        <v>0.26129</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.295646</v>
+        <v>0.295637</v>
       </c>
       <c r="C128" t="n">
-        <v>0.256917</v>
+        <v>0.260246</v>
       </c>
       <c r="D128" t="n">
-        <v>0.252993</v>
+        <v>0.254989</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.291189</v>
+        <v>0.290773</v>
       </c>
       <c r="C129" t="n">
-        <v>0.251816</v>
+        <v>0.255408</v>
       </c>
       <c r="D129" t="n">
-        <v>0.248478</v>
+        <v>0.251154</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.286414</v>
+        <v>0.286193</v>
       </c>
       <c r="C130" t="n">
-        <v>0.247235</v>
+        <v>0.250479</v>
       </c>
       <c r="D130" t="n">
-        <v>0.243581</v>
+        <v>0.247243</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.282848</v>
+        <v>0.283422</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242909</v>
+        <v>0.244738</v>
       </c>
       <c r="D131" t="n">
-        <v>0.239627</v>
+        <v>0.240119</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278594</v>
+        <v>0.279211</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238886</v>
+        <v>0.239072</v>
       </c>
       <c r="D132" t="n">
-        <v>0.236355</v>
+        <v>0.236482</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275973</v>
+        <v>0.275467</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235214</v>
+        <v>0.235589</v>
       </c>
       <c r="D133" t="n">
-        <v>0.233086</v>
+        <v>0.233285</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.273184</v>
+        <v>0.272827</v>
       </c>
       <c r="C134" t="n">
-        <v>0.232228</v>
+        <v>0.232801</v>
       </c>
       <c r="D134" t="n">
-        <v>0.230266</v>
+        <v>0.230314</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270877</v>
+        <v>0.270812</v>
       </c>
       <c r="C135" t="n">
-        <v>0.229774</v>
+        <v>0.230066</v>
       </c>
       <c r="D135" t="n">
-        <v>0.229017</v>
+        <v>0.229276</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.270539</v>
+        <v>0.26996</v>
       </c>
       <c r="C136" t="n">
-        <v>0.228289</v>
+        <v>0.228723</v>
       </c>
       <c r="D136" t="n">
-        <v>0.22891</v>
+        <v>0.228876</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.271116</v>
+        <v>0.270773</v>
       </c>
       <c r="C137" t="n">
-        <v>0.228523</v>
+        <v>0.228729</v>
       </c>
       <c r="D137" t="n">
-        <v>0.324744</v>
+        <v>0.324355</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.363104</v>
+        <v>0.365794</v>
       </c>
       <c r="C138" t="n">
-        <v>0.322877</v>
+        <v>0.322715</v>
       </c>
       <c r="D138" t="n">
-        <v>0.319371</v>
+        <v>0.319682</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.356268</v>
+        <v>0.360345</v>
       </c>
       <c r="C139" t="n">
-        <v>0.315883</v>
+        <v>0.316356</v>
       </c>
       <c r="D139" t="n">
-        <v>0.314432</v>
+        <v>0.313672</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.351383</v>
+        <v>0.355376</v>
       </c>
       <c r="C140" t="n">
-        <v>0.310854</v>
+        <v>0.310221</v>
       </c>
       <c r="D140" t="n">
-        <v>0.309044</v>
+        <v>0.308509</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.346514</v>
+        <v>0.349716</v>
       </c>
       <c r="C141" t="n">
-        <v>0.304457</v>
+        <v>0.304477</v>
       </c>
       <c r="D141" t="n">
-        <v>0.303418</v>
+        <v>0.303213</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.342152</v>
+        <v>0.344928</v>
       </c>
       <c r="C142" t="n">
-        <v>0.299377</v>
+        <v>0.298974</v>
       </c>
       <c r="D142" t="n">
-        <v>0.298841</v>
+        <v>0.299242</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.338182</v>
+        <v>0.340284</v>
       </c>
       <c r="C143" t="n">
-        <v>0.294236</v>
+        <v>0.293701</v>
       </c>
       <c r="D143" t="n">
-        <v>0.29429</v>
+        <v>0.294955</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.155125</v>
+        <v>0.161101</v>
       </c>
       <c r="C2" t="n">
-        <v>0.136376</v>
+        <v>0.132969</v>
       </c>
       <c r="D2" t="n">
-        <v>0.140749</v>
+        <v>0.134001</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.152078</v>
+        <v>0.156213</v>
       </c>
       <c r="C3" t="n">
-        <v>0.126104</v>
+        <v>0.149442</v>
       </c>
       <c r="D3" t="n">
-        <v>0.130408</v>
+        <v>0.132354</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.156295</v>
+        <v>0.158079</v>
       </c>
       <c r="C4" t="n">
-        <v>0.121722</v>
+        <v>0.126111</v>
       </c>
       <c r="D4" t="n">
-        <v>0.125117</v>
+        <v>0.140956</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.150178</v>
+        <v>0.161141</v>
       </c>
       <c r="C5" t="n">
-        <v>0.117095</v>
+        <v>0.131296</v>
       </c>
       <c r="D5" t="n">
-        <v>0.121496</v>
+        <v>0.133714</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.152363</v>
+        <v>0.136976</v>
       </c>
       <c r="C6" t="n">
-        <v>0.117442</v>
+        <v>0.115766</v>
       </c>
       <c r="D6" t="n">
-        <v>0.117982</v>
+        <v>0.120394</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.146861</v>
+        <v>0.146213</v>
       </c>
       <c r="C7" t="n">
-        <v>0.117</v>
+        <v>0.126757</v>
       </c>
       <c r="D7" t="n">
-        <v>0.114587</v>
+        <v>0.11346</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.14639</v>
+        <v>0.148556</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107406</v>
+        <v>0.111444</v>
       </c>
       <c r="D8" t="n">
-        <v>0.12012</v>
+        <v>0.121805</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1474</v>
+        <v>0.146631</v>
       </c>
       <c r="C9" t="n">
-        <v>0.103743</v>
+        <v>0.109791</v>
       </c>
       <c r="D9" t="n">
-        <v>0.182511</v>
+        <v>0.191171</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.214379</v>
+        <v>0.211457</v>
       </c>
       <c r="C10" t="n">
-        <v>0.176891</v>
+        <v>0.181211</v>
       </c>
       <c r="D10" t="n">
-        <v>0.188915</v>
+        <v>0.190032</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.20073</v>
+        <v>0.196965</v>
       </c>
       <c r="C11" t="n">
-        <v>0.168528</v>
+        <v>0.177522</v>
       </c>
       <c r="D11" t="n">
-        <v>0.170353</v>
+        <v>0.177969</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.19628</v>
+        <v>0.19074</v>
       </c>
       <c r="C12" t="n">
-        <v>0.156061</v>
+        <v>0.166912</v>
       </c>
       <c r="D12" t="n">
-        <v>0.162818</v>
+        <v>0.181266</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.190884</v>
+        <v>0.197846</v>
       </c>
       <c r="C13" t="n">
-        <v>0.153351</v>
+        <v>0.169885</v>
       </c>
       <c r="D13" t="n">
-        <v>0.157457</v>
+        <v>0.172652</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.191827</v>
+        <v>0.187582</v>
       </c>
       <c r="C14" t="n">
-        <v>0.148219</v>
+        <v>0.159514</v>
       </c>
       <c r="D14" t="n">
-        <v>0.153466</v>
+        <v>0.15591</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.174037</v>
+        <v>0.180235</v>
       </c>
       <c r="C15" t="n">
-        <v>0.143176</v>
+        <v>0.159033</v>
       </c>
       <c r="D15" t="n">
-        <v>0.145461</v>
+        <v>0.163471</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.169916</v>
+        <v>0.176549</v>
       </c>
       <c r="C16" t="n">
-        <v>0.141947</v>
+        <v>0.151034</v>
       </c>
       <c r="D16" t="n">
-        <v>0.141243</v>
+        <v>0.159009</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.166995</v>
+        <v>0.171165</v>
       </c>
       <c r="C17" t="n">
-        <v>0.137786</v>
+        <v>0.146738</v>
       </c>
       <c r="D17" t="n">
-        <v>0.137466</v>
+        <v>0.150568</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.159484</v>
+        <v>0.164574</v>
       </c>
       <c r="C18" t="n">
-        <v>0.128617</v>
+        <v>0.142024</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1326</v>
+        <v>0.145637</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.157312</v>
+        <v>0.16457</v>
       </c>
       <c r="C19" t="n">
-        <v>0.125575</v>
+        <v>0.136619</v>
       </c>
       <c r="D19" t="n">
-        <v>0.130016</v>
+        <v>0.14358</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.155148</v>
+        <v>0.151764</v>
       </c>
       <c r="C20" t="n">
-        <v>0.131737</v>
+        <v>0.135017</v>
       </c>
       <c r="D20" t="n">
-        <v>0.135684</v>
+        <v>0.140313</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.15889</v>
+        <v>0.157385</v>
       </c>
       <c r="C21" t="n">
-        <v>0.124176</v>
+        <v>0.128937</v>
       </c>
       <c r="D21" t="n">
-        <v>0.131102</v>
+        <v>0.131168</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.157044</v>
+        <v>0.154406</v>
       </c>
       <c r="C22" t="n">
-        <v>0.126292</v>
+        <v>0.130914</v>
       </c>
       <c r="D22" t="n">
-        <v>0.129442</v>
+        <v>0.137053</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.158962</v>
+        <v>0.161093</v>
       </c>
       <c r="C23" t="n">
-        <v>0.126198</v>
+        <v>0.129659</v>
       </c>
       <c r="D23" t="n">
-        <v>0.21966</v>
+        <v>0.225258</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.232539</v>
+        <v>0.243318</v>
       </c>
       <c r="C24" t="n">
-        <v>0.209834</v>
+        <v>0.212407</v>
       </c>
       <c r="D24" t="n">
-        <v>0.212422</v>
+        <v>0.215073</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.224269</v>
+        <v>0.23841</v>
       </c>
       <c r="C25" t="n">
-        <v>0.202447</v>
+        <v>0.204972</v>
       </c>
       <c r="D25" t="n">
-        <v>0.202564</v>
+        <v>0.20365</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.219978</v>
+        <v>0.220915</v>
       </c>
       <c r="C26" t="n">
-        <v>0.194973</v>
+        <v>0.198207</v>
       </c>
       <c r="D26" t="n">
-        <v>0.191955</v>
+        <v>0.196307</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.203297</v>
+        <v>0.211598</v>
       </c>
       <c r="C27" t="n">
-        <v>0.187576</v>
+        <v>0.188628</v>
       </c>
       <c r="D27" t="n">
-        <v>0.183125</v>
+        <v>0.188027</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.209785</v>
+        <v>0.201573</v>
       </c>
       <c r="C28" t="n">
-        <v>0.18066</v>
+        <v>0.181653</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178106</v>
+        <v>0.179587</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.201002</v>
+        <v>0.192477</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174362</v>
+        <v>0.17445</v>
       </c>
       <c r="D29" t="n">
-        <v>0.17043</v>
+        <v>0.173572</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.185231</v>
+        <v>0.192932</v>
       </c>
       <c r="C30" t="n">
-        <v>0.168469</v>
+        <v>0.16885</v>
       </c>
       <c r="D30" t="n">
-        <v>0.162696</v>
+        <v>0.16672</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.177999</v>
+        <v>0.187301</v>
       </c>
       <c r="C31" t="n">
-        <v>0.162411</v>
+        <v>0.163712</v>
       </c>
       <c r="D31" t="n">
-        <v>0.158931</v>
+        <v>0.161837</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.177375</v>
+        <v>0.182665</v>
       </c>
       <c r="C32" t="n">
-        <v>0.157301</v>
+        <v>0.158008</v>
       </c>
       <c r="D32" t="n">
-        <v>0.152495</v>
+        <v>0.157102</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.176249</v>
+        <v>0.173163</v>
       </c>
       <c r="C33" t="n">
-        <v>0.152603</v>
+        <v>0.153365</v>
       </c>
       <c r="D33" t="n">
-        <v>0.147679</v>
+        <v>0.153872</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.174182</v>
+        <v>0.173945</v>
       </c>
       <c r="C34" t="n">
-        <v>0.148261</v>
+        <v>0.149096</v>
       </c>
       <c r="D34" t="n">
-        <v>0.144047</v>
+        <v>0.1496</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.166567</v>
+        <v>0.169874</v>
       </c>
       <c r="C35" t="n">
-        <v>0.145145</v>
+        <v>0.146187</v>
       </c>
       <c r="D35" t="n">
-        <v>0.142479</v>
+        <v>0.147504</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.169146</v>
+        <v>0.170043</v>
       </c>
       <c r="C36" t="n">
-        <v>0.143345</v>
+        <v>0.143761</v>
       </c>
       <c r="D36" t="n">
-        <v>0.139918</v>
+        <v>0.145584</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167408</v>
+        <v>0.167866</v>
       </c>
       <c r="C37" t="n">
-        <v>0.142744</v>
+        <v>0.143515</v>
       </c>
       <c r="D37" t="n">
-        <v>0.219213</v>
+        <v>0.225017</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243887</v>
+        <v>0.243419</v>
       </c>
       <c r="C38" t="n">
-        <v>0.219297</v>
+        <v>0.21998</v>
       </c>
       <c r="D38" t="n">
-        <v>0.211658</v>
+        <v>0.220024</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.234973</v>
+        <v>0.233877</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210598</v>
+        <v>0.211446</v>
       </c>
       <c r="D39" t="n">
-        <v>0.203559</v>
+        <v>0.208572</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.225449</v>
+        <v>0.225942</v>
       </c>
       <c r="C40" t="n">
-        <v>0.20261</v>
+        <v>0.203008</v>
       </c>
       <c r="D40" t="n">
-        <v>0.196005</v>
+        <v>0.20097</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.217557</v>
+        <v>0.217127</v>
       </c>
       <c r="C41" t="n">
-        <v>0.194814</v>
+        <v>0.195333</v>
       </c>
       <c r="D41" t="n">
-        <v>0.188297</v>
+        <v>0.192825</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.210046</v>
+        <v>0.206457</v>
       </c>
       <c r="C42" t="n">
-        <v>0.187853</v>
+        <v>0.188191</v>
       </c>
       <c r="D42" t="n">
-        <v>0.183009</v>
+        <v>0.18555</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.20323</v>
+        <v>0.202688</v>
       </c>
       <c r="C43" t="n">
-        <v>0.180881</v>
+        <v>0.181884</v>
       </c>
       <c r="D43" t="n">
-        <v>0.174358</v>
+        <v>0.178905</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.196215</v>
+        <v>0.196557</v>
       </c>
       <c r="C44" t="n">
-        <v>0.174543</v>
+        <v>0.174912</v>
       </c>
       <c r="D44" t="n">
-        <v>0.167474</v>
+        <v>0.172614</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.189332</v>
+        <v>0.19086</v>
       </c>
       <c r="C45" t="n">
-        <v>0.168217</v>
+        <v>0.168895</v>
       </c>
       <c r="D45" t="n">
-        <v>0.161634</v>
+        <v>0.166893</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.183842</v>
+        <v>0.184182</v>
       </c>
       <c r="C46" t="n">
-        <v>0.163109</v>
+        <v>0.163272</v>
       </c>
       <c r="D46" t="n">
-        <v>0.156671</v>
+        <v>0.161806</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.179803</v>
+        <v>0.180243</v>
       </c>
       <c r="C47" t="n">
-        <v>0.158467</v>
+        <v>0.158809</v>
       </c>
       <c r="D47" t="n">
-        <v>0.152519</v>
+        <v>0.157127</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.176807</v>
+        <v>0.176749</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154122</v>
+        <v>0.154112</v>
       </c>
       <c r="D48" t="n">
-        <v>0.149161</v>
+        <v>0.153722</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173119</v>
+        <v>0.174661</v>
       </c>
       <c r="C49" t="n">
-        <v>0.150317</v>
+        <v>0.151826</v>
       </c>
       <c r="D49" t="n">
-        <v>0.147112</v>
+        <v>0.15144</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.170871</v>
+        <v>0.173329</v>
       </c>
       <c r="C50" t="n">
-        <v>0.148093</v>
+        <v>0.148513</v>
       </c>
       <c r="D50" t="n">
-        <v>0.146563</v>
+        <v>0.149848</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173121</v>
+        <v>0.173238</v>
       </c>
       <c r="C51" t="n">
-        <v>0.146851</v>
+        <v>0.147438</v>
       </c>
       <c r="D51" t="n">
-        <v>0.22797</v>
+        <v>0.232676</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175902</v>
+        <v>0.175918</v>
       </c>
       <c r="C52" t="n">
-        <v>0.147739</v>
+        <v>0.148293</v>
       </c>
       <c r="D52" t="n">
-        <v>0.222315</v>
+        <v>0.223185</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244972</v>
+        <v>0.242345</v>
       </c>
       <c r="C53" t="n">
-        <v>0.222817</v>
+        <v>0.218635</v>
       </c>
       <c r="D53" t="n">
-        <v>0.21534</v>
+        <v>0.214544</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236123</v>
+        <v>0.234324</v>
       </c>
       <c r="C54" t="n">
-        <v>0.214017</v>
+        <v>0.210014</v>
       </c>
       <c r="D54" t="n">
-        <v>0.206576</v>
+        <v>0.206185</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.22736</v>
+        <v>0.224172</v>
       </c>
       <c r="C55" t="n">
-        <v>0.205808</v>
+        <v>0.201922</v>
       </c>
       <c r="D55" t="n">
-        <v>0.198338</v>
+        <v>0.198693</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.219391</v>
+        <v>0.217049</v>
       </c>
       <c r="C56" t="n">
-        <v>0.198068</v>
+        <v>0.194423</v>
       </c>
       <c r="D56" t="n">
-        <v>0.191034</v>
+        <v>0.191167</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.211939</v>
+        <v>0.209415</v>
       </c>
       <c r="C57" t="n">
-        <v>0.191198</v>
+        <v>0.187458</v>
       </c>
       <c r="D57" t="n">
-        <v>0.184313</v>
+        <v>0.184181</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.205435</v>
+        <v>0.202479</v>
       </c>
       <c r="C58" t="n">
-        <v>0.181608</v>
+        <v>0.180989</v>
       </c>
       <c r="D58" t="n">
-        <v>0.175238</v>
+        <v>0.178132</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196545</v>
+        <v>0.196581</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175172</v>
+        <v>0.174721</v>
       </c>
       <c r="D59" t="n">
-        <v>0.169178</v>
+        <v>0.172383</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.19062</v>
+        <v>0.190999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.169563</v>
+        <v>0.168989</v>
       </c>
       <c r="D60" t="n">
-        <v>0.164574</v>
+        <v>0.166907</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.186023</v>
+        <v>0.185866</v>
       </c>
       <c r="C61" t="n">
-        <v>0.164024</v>
+        <v>0.163931</v>
       </c>
       <c r="D61" t="n">
-        <v>0.159642</v>
+        <v>0.161871</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.181615</v>
+        <v>0.181508</v>
       </c>
       <c r="C62" t="n">
-        <v>0.159989</v>
+        <v>0.159359</v>
       </c>
       <c r="D62" t="n">
-        <v>0.155882</v>
+        <v>0.157706</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178907</v>
+        <v>0.178351</v>
       </c>
       <c r="C63" t="n">
-        <v>0.155687</v>
+        <v>0.155151</v>
       </c>
       <c r="D63" t="n">
-        <v>0.153001</v>
+        <v>0.155458</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177002</v>
+        <v>0.176757</v>
       </c>
       <c r="C64" t="n">
-        <v>0.152792</v>
+        <v>0.152514</v>
       </c>
       <c r="D64" t="n">
-        <v>0.151822</v>
+        <v>0.153183</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177351</v>
+        <v>0.176794</v>
       </c>
       <c r="C65" t="n">
-        <v>0.151228</v>
+        <v>0.150523</v>
       </c>
       <c r="D65" t="n">
-        <v>0.153084</v>
+        <v>0.154073</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179893</v>
+        <v>0.179379</v>
       </c>
       <c r="C66" t="n">
-        <v>0.151506</v>
+        <v>0.151243</v>
       </c>
       <c r="D66" t="n">
-        <v>0.229665</v>
+        <v>0.231144</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.245029</v>
+        <v>0.245499</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228255</v>
+        <v>0.231153</v>
       </c>
       <c r="D67" t="n">
-        <v>0.22058</v>
+        <v>0.224697</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236392</v>
+        <v>0.235904</v>
       </c>
       <c r="C68" t="n">
-        <v>0.219625</v>
+        <v>0.222722</v>
       </c>
       <c r="D68" t="n">
-        <v>0.21187</v>
+        <v>0.216368</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.228018</v>
+        <v>0.229357</v>
       </c>
       <c r="C69" t="n">
-        <v>0.211183</v>
+        <v>0.21403</v>
       </c>
       <c r="D69" t="n">
-        <v>0.203986</v>
+        <v>0.208517</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219601</v>
+        <v>0.22073</v>
       </c>
       <c r="C70" t="n">
-        <v>0.203537</v>
+        <v>0.205704</v>
       </c>
       <c r="D70" t="n">
-        <v>0.196617</v>
+        <v>0.200319</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.212654</v>
+        <v>0.21307</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195899</v>
+        <v>0.198085</v>
       </c>
       <c r="D71" t="n">
-        <v>0.189495</v>
+        <v>0.193342</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205887</v>
+        <v>0.206118</v>
       </c>
       <c r="C72" t="n">
-        <v>0.188817</v>
+        <v>0.191114</v>
       </c>
       <c r="D72" t="n">
-        <v>0.182924</v>
+        <v>0.186559</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.19911</v>
+        <v>0.199441</v>
       </c>
       <c r="C73" t="n">
-        <v>0.182192</v>
+        <v>0.184438</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176794</v>
+        <v>0.180088</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.194279</v>
+        <v>0.194169</v>
       </c>
       <c r="C74" t="n">
-        <v>0.176128</v>
+        <v>0.178044</v>
       </c>
       <c r="D74" t="n">
-        <v>0.171122</v>
+        <v>0.174289</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188504</v>
+        <v>0.188176</v>
       </c>
       <c r="C75" t="n">
-        <v>0.170431</v>
+        <v>0.172483</v>
       </c>
       <c r="D75" t="n">
-        <v>0.165808</v>
+        <v>0.169111</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.18478</v>
+        <v>0.184532</v>
       </c>
       <c r="C76" t="n">
-        <v>0.165567</v>
+        <v>0.167615</v>
       </c>
       <c r="D76" t="n">
-        <v>0.161989</v>
+        <v>0.164388</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181285</v>
+        <v>0.180628</v>
       </c>
       <c r="C77" t="n">
-        <v>0.161486</v>
+        <v>0.163206</v>
       </c>
       <c r="D77" t="n">
-        <v>0.15871</v>
+        <v>0.161097</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.178697</v>
+        <v>0.179138</v>
       </c>
       <c r="C78" t="n">
-        <v>0.158084</v>
+        <v>0.160014</v>
       </c>
       <c r="D78" t="n">
-        <v>0.156734</v>
+        <v>0.159374</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178697</v>
+        <v>0.178528</v>
       </c>
       <c r="C79" t="n">
-        <v>0.156121</v>
+        <v>0.156191</v>
       </c>
       <c r="D79" t="n">
-        <v>0.15687</v>
+        <v>0.157662</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181288</v>
+        <v>0.180223</v>
       </c>
       <c r="C80" t="n">
-        <v>0.155832</v>
+        <v>0.155703</v>
       </c>
       <c r="D80" t="n">
-        <v>0.233906</v>
+        <v>0.235051</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257549</v>
+        <v>0.256781</v>
       </c>
       <c r="C81" t="n">
-        <v>0.231003</v>
+        <v>0.230951</v>
       </c>
       <c r="D81" t="n">
-        <v>0.22568</v>
+        <v>0.226861</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249995</v>
+        <v>0.249078</v>
       </c>
       <c r="C82" t="n">
-        <v>0.223501</v>
+        <v>0.223323</v>
       </c>
       <c r="D82" t="n">
-        <v>0.216966</v>
+        <v>0.21791</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242479</v>
+        <v>0.240298</v>
       </c>
       <c r="C83" t="n">
-        <v>0.21552</v>
+        <v>0.216284</v>
       </c>
       <c r="D83" t="n">
-        <v>0.20974</v>
+        <v>0.210321</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234539</v>
+        <v>0.233758</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208425</v>
+        <v>0.20894</v>
       </c>
       <c r="D84" t="n">
-        <v>0.20175</v>
+        <v>0.202865</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227109</v>
+        <v>0.22638</v>
       </c>
       <c r="C85" t="n">
-        <v>0.200298</v>
+        <v>0.201778</v>
       </c>
       <c r="D85" t="n">
-        <v>0.195071</v>
+        <v>0.196166</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220492</v>
+        <v>0.219562</v>
       </c>
       <c r="C86" t="n">
-        <v>0.19479</v>
+        <v>0.194923</v>
       </c>
       <c r="D86" t="n">
-        <v>0.187757</v>
+        <v>0.189323</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213212</v>
+        <v>0.213017</v>
       </c>
       <c r="C87" t="n">
-        <v>0.187745</v>
+        <v>0.188645</v>
       </c>
       <c r="D87" t="n">
-        <v>0.181895</v>
+        <v>0.183328</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207455</v>
+        <v>0.206524</v>
       </c>
       <c r="C88" t="n">
-        <v>0.182071</v>
+        <v>0.182542</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176169</v>
+        <v>0.177291</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.202066</v>
+        <v>0.201167</v>
       </c>
       <c r="C89" t="n">
-        <v>0.176388</v>
+        <v>0.177086</v>
       </c>
       <c r="D89" t="n">
-        <v>0.171193</v>
+        <v>0.172365</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196809</v>
+        <v>0.196148</v>
       </c>
       <c r="C90" t="n">
-        <v>0.171714</v>
+        <v>0.172138</v>
       </c>
       <c r="D90" t="n">
-        <v>0.166346</v>
+        <v>0.167785</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193015</v>
+        <v>0.192436</v>
       </c>
       <c r="C91" t="n">
-        <v>0.167907</v>
+        <v>0.16795</v>
       </c>
       <c r="D91" t="n">
-        <v>0.163392</v>
+        <v>0.16421</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190039</v>
+        <v>0.189566</v>
       </c>
       <c r="C92" t="n">
-        <v>0.164027</v>
+        <v>0.164476</v>
       </c>
       <c r="D92" t="n">
-        <v>0.16108</v>
+        <v>0.162148</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188939</v>
+        <v>0.188082</v>
       </c>
       <c r="C93" t="n">
-        <v>0.161338</v>
+        <v>0.161823</v>
       </c>
       <c r="D93" t="n">
-        <v>0.160961</v>
+        <v>0.161861</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.18947</v>
+        <v>0.189027</v>
       </c>
       <c r="C94" t="n">
-        <v>0.160947</v>
+        <v>0.161283</v>
       </c>
       <c r="D94" t="n">
-        <v>0.250674</v>
+        <v>0.252388</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.271829</v>
+        <v>0.269463</v>
       </c>
       <c r="C95" t="n">
-        <v>0.249112</v>
+        <v>0.249142</v>
       </c>
       <c r="D95" t="n">
-        <v>0.244193</v>
+        <v>0.245615</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265473</v>
+        <v>0.263011</v>
       </c>
       <c r="C96" t="n">
-        <v>0.242174</v>
+        <v>0.2425</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236421</v>
+        <v>0.237724</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258694</v>
+        <v>0.256653</v>
       </c>
       <c r="C97" t="n">
-        <v>0.234669</v>
+        <v>0.234972</v>
       </c>
       <c r="D97" t="n">
-        <v>0.229078</v>
+        <v>0.229845</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.25239</v>
+        <v>0.249767</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227756</v>
+        <v>0.227693</v>
       </c>
       <c r="D98" t="n">
-        <v>0.221271</v>
+        <v>0.222796</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245417</v>
+        <v>0.243702</v>
       </c>
       <c r="C99" t="n">
-        <v>0.220735</v>
+        <v>0.220907</v>
       </c>
       <c r="D99" t="n">
-        <v>0.214424</v>
+        <v>0.215647</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239371</v>
+        <v>0.237405</v>
       </c>
       <c r="C100" t="n">
-        <v>0.214057</v>
+        <v>0.214511</v>
       </c>
       <c r="D100" t="n">
-        <v>0.207686</v>
+        <v>0.208406</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233796</v>
+        <v>0.231626</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207853</v>
+        <v>0.207599</v>
       </c>
       <c r="D101" t="n">
-        <v>0.201144</v>
+        <v>0.201392</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227956</v>
+        <v>0.226543</v>
       </c>
       <c r="C102" t="n">
-        <v>0.201745</v>
+        <v>0.202057</v>
       </c>
       <c r="D102" t="n">
-        <v>0.195065</v>
+        <v>0.196488</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223089</v>
+        <v>0.221237</v>
       </c>
       <c r="C103" t="n">
-        <v>0.196397</v>
+        <v>0.19633</v>
       </c>
       <c r="D103" t="n">
-        <v>0.190766</v>
+        <v>0.190727</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218775</v>
+        <v>0.216882</v>
       </c>
       <c r="C104" t="n">
-        <v>0.192023</v>
+        <v>0.191653</v>
       </c>
       <c r="D104" t="n">
-        <v>0.185681</v>
+        <v>0.18612</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214749</v>
+        <v>0.212587</v>
       </c>
       <c r="C105" t="n">
-        <v>0.187389</v>
+        <v>0.187339</v>
       </c>
       <c r="D105" t="n">
-        <v>0.181881</v>
+        <v>0.181824</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211489</v>
+        <v>0.20968</v>
       </c>
       <c r="C106" t="n">
-        <v>0.183732</v>
+        <v>0.183438</v>
       </c>
       <c r="D106" t="n">
-        <v>0.178419</v>
+        <v>0.179511</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209143</v>
+        <v>0.207821</v>
       </c>
       <c r="C107" t="n">
-        <v>0.181266</v>
+        <v>0.180987</v>
       </c>
       <c r="D107" t="n">
-        <v>0.178241</v>
+        <v>0.17815</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.209127</v>
+        <v>0.207641</v>
       </c>
       <c r="C108" t="n">
-        <v>0.180063</v>
+        <v>0.179996</v>
       </c>
       <c r="D108" t="n">
-        <v>0.269186</v>
+        <v>0.268533</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211259</v>
+        <v>0.209468</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180978</v>
+        <v>0.180866</v>
       </c>
       <c r="D109" t="n">
-        <v>0.262506</v>
+        <v>0.262768</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285926</v>
+        <v>0.282864</v>
       </c>
       <c r="C110" t="n">
-        <v>0.261717</v>
+        <v>0.261255</v>
       </c>
       <c r="D110" t="n">
-        <v>0.254806</v>
+        <v>0.254535</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.279046</v>
+        <v>0.276863</v>
       </c>
       <c r="C111" t="n">
-        <v>0.254369</v>
+        <v>0.253155</v>
       </c>
       <c r="D111" t="n">
-        <v>0.246948</v>
+        <v>0.246043</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272453</v>
+        <v>0.270762</v>
       </c>
       <c r="C112" t="n">
-        <v>0.246259</v>
+        <v>0.245968</v>
       </c>
       <c r="D112" t="n">
-        <v>0.239698</v>
+        <v>0.237419</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.267029</v>
+        <v>0.264762</v>
       </c>
       <c r="C113" t="n">
-        <v>0.239562</v>
+        <v>0.239353</v>
       </c>
       <c r="D113" t="n">
-        <v>0.232759</v>
+        <v>0.232024</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.261072</v>
+        <v>0.259263</v>
       </c>
       <c r="C114" t="n">
-        <v>0.233377</v>
+        <v>0.232785</v>
       </c>
       <c r="D114" t="n">
-        <v>0.226943</v>
+        <v>0.224369</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255563</v>
+        <v>0.254369</v>
       </c>
       <c r="C115" t="n">
-        <v>0.22659</v>
+        <v>0.22661</v>
       </c>
       <c r="D115" t="n">
-        <v>0.220754</v>
+        <v>0.220119</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.251165</v>
+        <v>0.249159</v>
       </c>
       <c r="C116" t="n">
-        <v>0.221655</v>
+        <v>0.221007</v>
       </c>
       <c r="D116" t="n">
-        <v>0.214462</v>
+        <v>0.214065</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.246103</v>
+        <v>0.244748</v>
       </c>
       <c r="C117" t="n">
-        <v>0.216298</v>
+        <v>0.215914</v>
       </c>
       <c r="D117" t="n">
-        <v>0.209522</v>
+        <v>0.208755</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241736</v>
+        <v>0.240446</v>
       </c>
       <c r="C118" t="n">
-        <v>0.211992</v>
+        <v>0.211172</v>
       </c>
       <c r="D118" t="n">
-        <v>0.203688</v>
+        <v>0.204404</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238289</v>
+        <v>0.23676</v>
       </c>
       <c r="C119" t="n">
-        <v>0.207457</v>
+        <v>0.206593</v>
       </c>
       <c r="D119" t="n">
-        <v>0.201185</v>
+        <v>0.200434</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.235002</v>
+        <v>0.233789</v>
       </c>
       <c r="C120" t="n">
-        <v>0.203562</v>
+        <v>0.203332</v>
       </c>
       <c r="D120" t="n">
-        <v>0.197881</v>
+        <v>0.197571</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232749</v>
+        <v>0.23153</v>
       </c>
       <c r="C121" t="n">
-        <v>0.201261</v>
+        <v>0.200379</v>
       </c>
       <c r="D121" t="n">
-        <v>0.196375</v>
+        <v>0.195655</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231664</v>
+        <v>0.23067</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1995</v>
+        <v>0.198883</v>
       </c>
       <c r="D122" t="n">
-        <v>0.19708</v>
+        <v>0.19612</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232937</v>
+        <v>0.232013</v>
       </c>
       <c r="C123" t="n">
-        <v>0.200016</v>
+        <v>0.198961</v>
       </c>
       <c r="D123" t="n">
-        <v>0.285788</v>
+        <v>0.280399</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.317297</v>
+        <v>0.319181</v>
       </c>
       <c r="C124" t="n">
-        <v>0.285029</v>
+        <v>0.280862</v>
       </c>
       <c r="D124" t="n">
-        <v>0.279565</v>
+        <v>0.27443</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.311171</v>
+        <v>0.317968</v>
       </c>
       <c r="C125" t="n">
-        <v>0.278421</v>
+        <v>0.274155</v>
       </c>
       <c r="D125" t="n">
-        <v>0.272882</v>
+        <v>0.268278</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.305286</v>
+        <v>0.312358</v>
       </c>
       <c r="C126" t="n">
-        <v>0.272098</v>
+        <v>0.268031</v>
       </c>
       <c r="D126" t="n">
-        <v>0.266835</v>
+        <v>0.262094</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.299627</v>
+        <v>0.306651</v>
       </c>
       <c r="C127" t="n">
-        <v>0.265899</v>
+        <v>0.262094</v>
       </c>
       <c r="D127" t="n">
-        <v>0.26129</v>
+        <v>0.257034</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.295637</v>
+        <v>0.301635</v>
       </c>
       <c r="C128" t="n">
-        <v>0.260246</v>
+        <v>0.256458</v>
       </c>
       <c r="D128" t="n">
-        <v>0.254989</v>
+        <v>0.252003</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.290773</v>
+        <v>0.296842</v>
       </c>
       <c r="C129" t="n">
-        <v>0.255408</v>
+        <v>0.251765</v>
       </c>
       <c r="D129" t="n">
-        <v>0.251154</v>
+        <v>0.246785</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.286193</v>
+        <v>0.291973</v>
       </c>
       <c r="C130" t="n">
-        <v>0.250479</v>
+        <v>0.246803</v>
       </c>
       <c r="D130" t="n">
-        <v>0.247243</v>
+        <v>0.242715</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.283422</v>
+        <v>0.287179</v>
       </c>
       <c r="C131" t="n">
-        <v>0.244738</v>
+        <v>0.242406</v>
       </c>
       <c r="D131" t="n">
-        <v>0.240119</v>
+        <v>0.238369</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.279211</v>
+        <v>0.283491</v>
       </c>
       <c r="C132" t="n">
-        <v>0.239072</v>
+        <v>0.238216</v>
       </c>
       <c r="D132" t="n">
-        <v>0.236482</v>
+        <v>0.234671</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275467</v>
+        <v>0.279794</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235589</v>
+        <v>0.234407</v>
       </c>
       <c r="D133" t="n">
-        <v>0.233285</v>
+        <v>0.23154</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.272827</v>
+        <v>0.27712</v>
       </c>
       <c r="C134" t="n">
-        <v>0.232801</v>
+        <v>0.231496</v>
       </c>
       <c r="D134" t="n">
-        <v>0.230314</v>
+        <v>0.229045</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270812</v>
+        <v>0.275396</v>
       </c>
       <c r="C135" t="n">
-        <v>0.230066</v>
+        <v>0.229457</v>
       </c>
       <c r="D135" t="n">
-        <v>0.229276</v>
+        <v>0.227429</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.26996</v>
+        <v>0.274267</v>
       </c>
       <c r="C136" t="n">
-        <v>0.228723</v>
+        <v>0.229921</v>
       </c>
       <c r="D136" t="n">
-        <v>0.228876</v>
+        <v>0.229325</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.270773</v>
+        <v>0.277846</v>
       </c>
       <c r="C137" t="n">
-        <v>0.228729</v>
+        <v>0.230441</v>
       </c>
       <c r="D137" t="n">
-        <v>0.324355</v>
+        <v>0.32845</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.365794</v>
+        <v>0.369305</v>
       </c>
       <c r="C138" t="n">
-        <v>0.322715</v>
+        <v>0.321063</v>
       </c>
       <c r="D138" t="n">
-        <v>0.319682</v>
+        <v>0.316609</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.360345</v>
+        <v>0.363858</v>
       </c>
       <c r="C139" t="n">
-        <v>0.316356</v>
+        <v>0.314595</v>
       </c>
       <c r="D139" t="n">
-        <v>0.313672</v>
+        <v>0.311725</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.355376</v>
+        <v>0.358985</v>
       </c>
       <c r="C140" t="n">
-        <v>0.310221</v>
+        <v>0.309453</v>
       </c>
       <c r="D140" t="n">
-        <v>0.308509</v>
+        <v>0.306534</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.349716</v>
+        <v>0.353486</v>
       </c>
       <c r="C141" t="n">
-        <v>0.304477</v>
+        <v>0.303039</v>
       </c>
       <c r="D141" t="n">
-        <v>0.303213</v>
+        <v>0.301586</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.344928</v>
+        <v>0.347728</v>
       </c>
       <c r="C142" t="n">
-        <v>0.298974</v>
+        <v>0.298799</v>
       </c>
       <c r="D142" t="n">
-        <v>0.299242</v>
+        <v>0.297903</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.340284</v>
+        <v>0.346507</v>
       </c>
       <c r="C143" t="n">
-        <v>0.293701</v>
+        <v>0.293493</v>
       </c>
       <c r="D143" t="n">
-        <v>0.294955</v>
+        <v>0.293614</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.161101</v>
+        <v>0.16287</v>
       </c>
       <c r="C2" t="n">
-        <v>0.132969</v>
+        <v>0.142175</v>
       </c>
       <c r="D2" t="n">
-        <v>0.134001</v>
+        <v>0.149494</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.156213</v>
+        <v>0.166722</v>
       </c>
       <c r="C3" t="n">
-        <v>0.149442</v>
+        <v>0.142421</v>
       </c>
       <c r="D3" t="n">
-        <v>0.132354</v>
+        <v>0.140512</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.158079</v>
+        <v>0.154207</v>
       </c>
       <c r="C4" t="n">
-        <v>0.126111</v>
+        <v>0.129946</v>
       </c>
       <c r="D4" t="n">
-        <v>0.140956</v>
+        <v>0.135037</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.161141</v>
+        <v>0.159613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.131296</v>
+        <v>0.126592</v>
       </c>
       <c r="D5" t="n">
-        <v>0.133714</v>
+        <v>0.13077</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.136976</v>
+        <v>0.155175</v>
       </c>
       <c r="C6" t="n">
-        <v>0.115766</v>
+        <v>0.126397</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120394</v>
+        <v>0.125598</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.146213</v>
+        <v>0.142867</v>
       </c>
       <c r="C7" t="n">
-        <v>0.126757</v>
+        <v>0.117327</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11346</v>
+        <v>0.121752</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.148556</v>
+        <v>0.14322</v>
       </c>
       <c r="C8" t="n">
-        <v>0.111444</v>
+        <v>0.118891</v>
       </c>
       <c r="D8" t="n">
-        <v>0.121805</v>
+        <v>0.119917</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146631</v>
+        <v>0.146686</v>
       </c>
       <c r="C9" t="n">
-        <v>0.109791</v>
+        <v>0.109653</v>
       </c>
       <c r="D9" t="n">
-        <v>0.191171</v>
+        <v>0.19175</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.211457</v>
+        <v>0.214284</v>
       </c>
       <c r="C10" t="n">
-        <v>0.181211</v>
+        <v>0.182294</v>
       </c>
       <c r="D10" t="n">
-        <v>0.190032</v>
+        <v>0.186179</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.196965</v>
+        <v>0.202924</v>
       </c>
       <c r="C11" t="n">
-        <v>0.177522</v>
+        <v>0.176339</v>
       </c>
       <c r="D11" t="n">
-        <v>0.177969</v>
+        <v>0.179761</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.19074</v>
+        <v>0.206705</v>
       </c>
       <c r="C12" t="n">
-        <v>0.166912</v>
+        <v>0.168759</v>
       </c>
       <c r="D12" t="n">
-        <v>0.181266</v>
+        <v>0.176008</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.197846</v>
+        <v>0.191399</v>
       </c>
       <c r="C13" t="n">
-        <v>0.169885</v>
+        <v>0.163794</v>
       </c>
       <c r="D13" t="n">
-        <v>0.172652</v>
+        <v>0.163741</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.187582</v>
+        <v>0.190533</v>
       </c>
       <c r="C14" t="n">
-        <v>0.159514</v>
+        <v>0.157609</v>
       </c>
       <c r="D14" t="n">
-        <v>0.15591</v>
+        <v>0.162427</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.180235</v>
+        <v>0.178528</v>
       </c>
       <c r="C15" t="n">
-        <v>0.159033</v>
+        <v>0.15248</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163471</v>
+        <v>0.158545</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.176549</v>
+        <v>0.179557</v>
       </c>
       <c r="C16" t="n">
-        <v>0.151034</v>
+        <v>0.149767</v>
       </c>
       <c r="D16" t="n">
-        <v>0.159009</v>
+        <v>0.144188</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.171165</v>
+        <v>0.161675</v>
       </c>
       <c r="C17" t="n">
-        <v>0.146738</v>
+        <v>0.14207</v>
       </c>
       <c r="D17" t="n">
-        <v>0.150568</v>
+        <v>0.146394</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.164574</v>
+        <v>0.163628</v>
       </c>
       <c r="C18" t="n">
-        <v>0.142024</v>
+        <v>0.137563</v>
       </c>
       <c r="D18" t="n">
-        <v>0.145637</v>
+        <v>0.142179</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.16457</v>
+        <v>0.158363</v>
       </c>
       <c r="C19" t="n">
-        <v>0.136619</v>
+        <v>0.133701</v>
       </c>
       <c r="D19" t="n">
-        <v>0.14358</v>
+        <v>0.135865</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.151764</v>
+        <v>0.157841</v>
       </c>
       <c r="C20" t="n">
-        <v>0.135017</v>
+        <v>0.132577</v>
       </c>
       <c r="D20" t="n">
-        <v>0.140313</v>
+        <v>0.133495</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.157385</v>
+        <v>0.153507</v>
       </c>
       <c r="C21" t="n">
-        <v>0.128937</v>
+        <v>0.12772</v>
       </c>
       <c r="D21" t="n">
-        <v>0.131168</v>
+        <v>0.130921</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.154406</v>
+        <v>0.157182</v>
       </c>
       <c r="C22" t="n">
-        <v>0.130914</v>
+        <v>0.124235</v>
       </c>
       <c r="D22" t="n">
-        <v>0.137053</v>
+        <v>0.128723</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161093</v>
+        <v>0.156952</v>
       </c>
       <c r="C23" t="n">
-        <v>0.129659</v>
+        <v>0.125071</v>
       </c>
       <c r="D23" t="n">
-        <v>0.225258</v>
+        <v>0.223567</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243318</v>
+        <v>0.248961</v>
       </c>
       <c r="C24" t="n">
-        <v>0.212407</v>
+        <v>0.213709</v>
       </c>
       <c r="D24" t="n">
-        <v>0.215073</v>
+        <v>0.216628</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.23841</v>
+        <v>0.234934</v>
       </c>
       <c r="C25" t="n">
-        <v>0.204972</v>
+        <v>0.204523</v>
       </c>
       <c r="D25" t="n">
-        <v>0.20365</v>
+        <v>0.205447</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.220915</v>
+        <v>0.219983</v>
       </c>
       <c r="C26" t="n">
-        <v>0.198207</v>
+        <v>0.194921</v>
       </c>
       <c r="D26" t="n">
-        <v>0.196307</v>
+        <v>0.195041</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.211598</v>
+        <v>0.212359</v>
       </c>
       <c r="C27" t="n">
-        <v>0.188628</v>
+        <v>0.187972</v>
       </c>
       <c r="D27" t="n">
-        <v>0.188027</v>
+        <v>0.186902</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.201573</v>
+        <v>0.206461</v>
       </c>
       <c r="C28" t="n">
-        <v>0.181653</v>
+        <v>0.181746</v>
       </c>
       <c r="D28" t="n">
-        <v>0.179587</v>
+        <v>0.179029</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.192477</v>
+        <v>0.197863</v>
       </c>
       <c r="C29" t="n">
-        <v>0.17445</v>
+        <v>0.175132</v>
       </c>
       <c r="D29" t="n">
-        <v>0.173572</v>
+        <v>0.174242</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.192932</v>
+        <v>0.192534</v>
       </c>
       <c r="C30" t="n">
-        <v>0.16885</v>
+        <v>0.168304</v>
       </c>
       <c r="D30" t="n">
-        <v>0.16672</v>
+        <v>0.167074</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.187301</v>
+        <v>0.18696</v>
       </c>
       <c r="C31" t="n">
-        <v>0.163712</v>
+        <v>0.162756</v>
       </c>
       <c r="D31" t="n">
-        <v>0.161837</v>
+        <v>0.161259</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.182665</v>
+        <v>0.181621</v>
       </c>
       <c r="C32" t="n">
-        <v>0.158008</v>
+        <v>0.158012</v>
       </c>
       <c r="D32" t="n">
-        <v>0.157102</v>
+        <v>0.155503</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.173163</v>
+        <v>0.177736</v>
       </c>
       <c r="C33" t="n">
-        <v>0.153365</v>
+        <v>0.153303</v>
       </c>
       <c r="D33" t="n">
-        <v>0.153872</v>
+        <v>0.151661</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.173945</v>
+        <v>0.173566</v>
       </c>
       <c r="C34" t="n">
-        <v>0.149096</v>
+        <v>0.148741</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1496</v>
+        <v>0.148055</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.169874</v>
+        <v>0.169693</v>
       </c>
       <c r="C35" t="n">
-        <v>0.146187</v>
+        <v>0.145477</v>
       </c>
       <c r="D35" t="n">
-        <v>0.147504</v>
+        <v>0.144949</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.170043</v>
+        <v>0.17014</v>
       </c>
       <c r="C36" t="n">
-        <v>0.143761</v>
+        <v>0.143727</v>
       </c>
       <c r="D36" t="n">
-        <v>0.145584</v>
+        <v>0.145343</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167866</v>
+        <v>0.17089</v>
       </c>
       <c r="C37" t="n">
-        <v>0.143515</v>
+        <v>0.142652</v>
       </c>
       <c r="D37" t="n">
-        <v>0.225017</v>
+        <v>0.2259</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243419</v>
+        <v>0.243415</v>
       </c>
       <c r="C38" t="n">
-        <v>0.21998</v>
+        <v>0.219508</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220024</v>
+        <v>0.216388</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233877</v>
+        <v>0.23429</v>
       </c>
       <c r="C39" t="n">
-        <v>0.211446</v>
+        <v>0.211331</v>
       </c>
       <c r="D39" t="n">
-        <v>0.208572</v>
+        <v>0.207594</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.225942</v>
+        <v>0.225501</v>
       </c>
       <c r="C40" t="n">
-        <v>0.203008</v>
+        <v>0.202669</v>
       </c>
       <c r="D40" t="n">
-        <v>0.20097</v>
+        <v>0.199117</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.217127</v>
+        <v>0.217447</v>
       </c>
       <c r="C41" t="n">
-        <v>0.195333</v>
+        <v>0.194966</v>
       </c>
       <c r="D41" t="n">
-        <v>0.192825</v>
+        <v>0.192645</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.206457</v>
+        <v>0.209511</v>
       </c>
       <c r="C42" t="n">
-        <v>0.188191</v>
+        <v>0.187967</v>
       </c>
       <c r="D42" t="n">
-        <v>0.18555</v>
+        <v>0.184777</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.202688</v>
+        <v>0.202742</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181884</v>
+        <v>0.181123</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178905</v>
+        <v>0.178087</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.196557</v>
+        <v>0.196016</v>
       </c>
       <c r="C44" t="n">
-        <v>0.174912</v>
+        <v>0.17473</v>
       </c>
       <c r="D44" t="n">
-        <v>0.172614</v>
+        <v>0.172158</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.19086</v>
+        <v>0.190534</v>
       </c>
       <c r="C45" t="n">
-        <v>0.168895</v>
+        <v>0.16886</v>
       </c>
       <c r="D45" t="n">
-        <v>0.166893</v>
+        <v>0.166597</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.184182</v>
+        <v>0.184403</v>
       </c>
       <c r="C46" t="n">
-        <v>0.163272</v>
+        <v>0.163433</v>
       </c>
       <c r="D46" t="n">
-        <v>0.161806</v>
+        <v>0.161789</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.180243</v>
+        <v>0.179929</v>
       </c>
       <c r="C47" t="n">
-        <v>0.158809</v>
+        <v>0.158584</v>
       </c>
       <c r="D47" t="n">
-        <v>0.157127</v>
+        <v>0.157178</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.176749</v>
+        <v>0.175475</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154112</v>
+        <v>0.154212</v>
       </c>
       <c r="D48" t="n">
-        <v>0.153722</v>
+        <v>0.153687</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174661</v>
+        <v>0.172354</v>
       </c>
       <c r="C49" t="n">
-        <v>0.151826</v>
+        <v>0.151313</v>
       </c>
       <c r="D49" t="n">
-        <v>0.15144</v>
+        <v>0.151193</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173329</v>
+        <v>0.170979</v>
       </c>
       <c r="C50" t="n">
-        <v>0.148513</v>
+        <v>0.148331</v>
       </c>
       <c r="D50" t="n">
-        <v>0.149848</v>
+        <v>0.150244</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173238</v>
+        <v>0.170992</v>
       </c>
       <c r="C51" t="n">
-        <v>0.147438</v>
+        <v>0.147272</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232676</v>
+        <v>0.232432</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175918</v>
+        <v>0.175156</v>
       </c>
       <c r="C52" t="n">
-        <v>0.148293</v>
+        <v>0.147843</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223185</v>
+        <v>0.223711</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242345</v>
+        <v>0.240204</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218635</v>
+        <v>0.21863</v>
       </c>
       <c r="D53" t="n">
-        <v>0.214544</v>
+        <v>0.214854</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.234324</v>
+        <v>0.231581</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210014</v>
+        <v>0.209827</v>
       </c>
       <c r="D54" t="n">
-        <v>0.206185</v>
+        <v>0.20567</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.224172</v>
+        <v>0.223756</v>
       </c>
       <c r="C55" t="n">
-        <v>0.201922</v>
+        <v>0.20217</v>
       </c>
       <c r="D55" t="n">
-        <v>0.198693</v>
+        <v>0.198448</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.217049</v>
+        <v>0.215324</v>
       </c>
       <c r="C56" t="n">
-        <v>0.194423</v>
+        <v>0.194216</v>
       </c>
       <c r="D56" t="n">
-        <v>0.191167</v>
+        <v>0.191063</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.209415</v>
+        <v>0.208283</v>
       </c>
       <c r="C57" t="n">
-        <v>0.187458</v>
+        <v>0.187529</v>
       </c>
       <c r="D57" t="n">
-        <v>0.184181</v>
+        <v>0.184491</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.202479</v>
+        <v>0.201485</v>
       </c>
       <c r="C58" t="n">
-        <v>0.180989</v>
+        <v>0.180665</v>
       </c>
       <c r="D58" t="n">
-        <v>0.178132</v>
+        <v>0.176606</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196581</v>
+        <v>0.1953</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174721</v>
+        <v>0.174412</v>
       </c>
       <c r="D59" t="n">
-        <v>0.172383</v>
+        <v>0.172052</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.190999</v>
+        <v>0.18976</v>
       </c>
       <c r="C60" t="n">
-        <v>0.168989</v>
+        <v>0.16879</v>
       </c>
       <c r="D60" t="n">
-        <v>0.166907</v>
+        <v>0.166534</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.185866</v>
+        <v>0.184826</v>
       </c>
       <c r="C61" t="n">
-        <v>0.163931</v>
+        <v>0.163995</v>
       </c>
       <c r="D61" t="n">
-        <v>0.161871</v>
+        <v>0.161631</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.181508</v>
+        <v>0.180591</v>
       </c>
       <c r="C62" t="n">
-        <v>0.159359</v>
+        <v>0.159424</v>
       </c>
       <c r="D62" t="n">
-        <v>0.157706</v>
+        <v>0.157875</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178351</v>
+        <v>0.17756</v>
       </c>
       <c r="C63" t="n">
-        <v>0.155151</v>
+        <v>0.155159</v>
       </c>
       <c r="D63" t="n">
-        <v>0.155458</v>
+        <v>0.154908</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176757</v>
+        <v>0.177856</v>
       </c>
       <c r="C64" t="n">
-        <v>0.152514</v>
+        <v>0.154561</v>
       </c>
       <c r="D64" t="n">
-        <v>0.153183</v>
+        <v>0.155234</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176794</v>
+        <v>0.177901</v>
       </c>
       <c r="C65" t="n">
-        <v>0.150523</v>
+        <v>0.152972</v>
       </c>
       <c r="D65" t="n">
-        <v>0.154073</v>
+        <v>0.15627</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179379</v>
+        <v>0.180482</v>
       </c>
       <c r="C66" t="n">
-        <v>0.151243</v>
+        <v>0.153584</v>
       </c>
       <c r="D66" t="n">
-        <v>0.231144</v>
+        <v>0.234351</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.245499</v>
+        <v>0.242675</v>
       </c>
       <c r="C67" t="n">
-        <v>0.231153</v>
+        <v>0.230525</v>
       </c>
       <c r="D67" t="n">
-        <v>0.224697</v>
+        <v>0.223357</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235904</v>
+        <v>0.234514</v>
       </c>
       <c r="C68" t="n">
-        <v>0.222722</v>
+        <v>0.221531</v>
       </c>
       <c r="D68" t="n">
-        <v>0.216368</v>
+        <v>0.216472</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.229357</v>
+        <v>0.227624</v>
       </c>
       <c r="C69" t="n">
-        <v>0.21403</v>
+        <v>0.213273</v>
       </c>
       <c r="D69" t="n">
-        <v>0.208517</v>
+        <v>0.208169</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.22073</v>
+        <v>0.218806</v>
       </c>
       <c r="C70" t="n">
-        <v>0.205704</v>
+        <v>0.205204</v>
       </c>
       <c r="D70" t="n">
-        <v>0.200319</v>
+        <v>0.200275</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.21307</v>
+        <v>0.211145</v>
       </c>
       <c r="C71" t="n">
-        <v>0.198085</v>
+        <v>0.197707</v>
       </c>
       <c r="D71" t="n">
-        <v>0.193342</v>
+        <v>0.193093</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.206118</v>
+        <v>0.204921</v>
       </c>
       <c r="C72" t="n">
-        <v>0.191114</v>
+        <v>0.190526</v>
       </c>
       <c r="D72" t="n">
-        <v>0.186559</v>
+        <v>0.186122</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199441</v>
+        <v>0.199072</v>
       </c>
       <c r="C73" t="n">
-        <v>0.184438</v>
+        <v>0.184092</v>
       </c>
       <c r="D73" t="n">
-        <v>0.180088</v>
+        <v>0.179749</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.194169</v>
+        <v>0.192421</v>
       </c>
       <c r="C74" t="n">
-        <v>0.178044</v>
+        <v>0.177744</v>
       </c>
       <c r="D74" t="n">
-        <v>0.174289</v>
+        <v>0.174039</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188176</v>
+        <v>0.188214</v>
       </c>
       <c r="C75" t="n">
-        <v>0.172483</v>
+        <v>0.172074</v>
       </c>
       <c r="D75" t="n">
-        <v>0.169111</v>
+        <v>0.16869</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.184532</v>
+        <v>0.182972</v>
       </c>
       <c r="C76" t="n">
-        <v>0.167615</v>
+        <v>0.167228</v>
       </c>
       <c r="D76" t="n">
-        <v>0.164388</v>
+        <v>0.163138</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.180628</v>
+        <v>0.180273</v>
       </c>
       <c r="C77" t="n">
-        <v>0.163206</v>
+        <v>0.163312</v>
       </c>
       <c r="D77" t="n">
-        <v>0.161097</v>
+        <v>0.160595</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179138</v>
+        <v>0.177427</v>
       </c>
       <c r="C78" t="n">
-        <v>0.160014</v>
+        <v>0.157745</v>
       </c>
       <c r="D78" t="n">
-        <v>0.159374</v>
+        <v>0.157326</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178528</v>
+        <v>0.177052</v>
       </c>
       <c r="C79" t="n">
-        <v>0.156191</v>
+        <v>0.155843</v>
       </c>
       <c r="D79" t="n">
-        <v>0.157662</v>
+        <v>0.157604</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.180223</v>
+        <v>0.179171</v>
       </c>
       <c r="C80" t="n">
-        <v>0.155703</v>
+        <v>0.155393</v>
       </c>
       <c r="D80" t="n">
-        <v>0.235051</v>
+        <v>0.234843</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.256781</v>
+        <v>0.255772</v>
       </c>
       <c r="C81" t="n">
-        <v>0.230951</v>
+        <v>0.231043</v>
       </c>
       <c r="D81" t="n">
-        <v>0.226861</v>
+        <v>0.226197</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249078</v>
+        <v>0.248303</v>
       </c>
       <c r="C82" t="n">
-        <v>0.223323</v>
+        <v>0.221934</v>
       </c>
       <c r="D82" t="n">
-        <v>0.21791</v>
+        <v>0.217795</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.240298</v>
+        <v>0.241076</v>
       </c>
       <c r="C83" t="n">
-        <v>0.216284</v>
+        <v>0.214982</v>
       </c>
       <c r="D83" t="n">
-        <v>0.210321</v>
+        <v>0.209799</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.233758</v>
+        <v>0.233046</v>
       </c>
       <c r="C84" t="n">
-        <v>0.20894</v>
+        <v>0.207701</v>
       </c>
       <c r="D84" t="n">
-        <v>0.202865</v>
+        <v>0.202218</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.22638</v>
+        <v>0.226358</v>
       </c>
       <c r="C85" t="n">
-        <v>0.201778</v>
+        <v>0.200217</v>
       </c>
       <c r="D85" t="n">
-        <v>0.196166</v>
+        <v>0.195582</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219562</v>
+        <v>0.218957</v>
       </c>
       <c r="C86" t="n">
-        <v>0.194923</v>
+        <v>0.193048</v>
       </c>
       <c r="D86" t="n">
-        <v>0.189323</v>
+        <v>0.18852</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213017</v>
+        <v>0.212162</v>
       </c>
       <c r="C87" t="n">
-        <v>0.188645</v>
+        <v>0.186922</v>
       </c>
       <c r="D87" t="n">
-        <v>0.183328</v>
+        <v>0.182974</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206524</v>
+        <v>0.205724</v>
       </c>
       <c r="C88" t="n">
-        <v>0.182542</v>
+        <v>0.18168</v>
       </c>
       <c r="D88" t="n">
-        <v>0.177291</v>
+        <v>0.176747</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201167</v>
+        <v>0.200591</v>
       </c>
       <c r="C89" t="n">
-        <v>0.177086</v>
+        <v>0.17569</v>
       </c>
       <c r="D89" t="n">
-        <v>0.172365</v>
+        <v>0.172021</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196148</v>
+        <v>0.195882</v>
       </c>
       <c r="C90" t="n">
-        <v>0.172138</v>
+        <v>0.171024</v>
       </c>
       <c r="D90" t="n">
-        <v>0.167785</v>
+        <v>0.166986</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192436</v>
+        <v>0.192042</v>
       </c>
       <c r="C91" t="n">
-        <v>0.16795</v>
+        <v>0.166596</v>
       </c>
       <c r="D91" t="n">
-        <v>0.16421</v>
+        <v>0.163702</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189566</v>
+        <v>0.188305</v>
       </c>
       <c r="C92" t="n">
-        <v>0.164476</v>
+        <v>0.163207</v>
       </c>
       <c r="D92" t="n">
-        <v>0.162148</v>
+        <v>0.161787</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188082</v>
+        <v>0.187562</v>
       </c>
       <c r="C93" t="n">
-        <v>0.161823</v>
+        <v>0.160747</v>
       </c>
       <c r="D93" t="n">
-        <v>0.161861</v>
+        <v>0.161119</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189027</v>
+        <v>0.188624</v>
       </c>
       <c r="C94" t="n">
-        <v>0.161283</v>
+        <v>0.16002</v>
       </c>
       <c r="D94" t="n">
-        <v>0.252388</v>
+        <v>0.251451</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.269463</v>
+        <v>0.269675</v>
       </c>
       <c r="C95" t="n">
-        <v>0.249142</v>
+        <v>0.247291</v>
       </c>
       <c r="D95" t="n">
-        <v>0.245615</v>
+        <v>0.243535</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.263011</v>
+        <v>0.263341</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2425</v>
+        <v>0.240298</v>
       </c>
       <c r="D96" t="n">
-        <v>0.237724</v>
+        <v>0.236698</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.256653</v>
+        <v>0.256896</v>
       </c>
       <c r="C97" t="n">
-        <v>0.234972</v>
+        <v>0.233028</v>
       </c>
       <c r="D97" t="n">
-        <v>0.229845</v>
+        <v>0.228129</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.249767</v>
+        <v>0.249832</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227693</v>
+        <v>0.225846</v>
       </c>
       <c r="D98" t="n">
-        <v>0.222796</v>
+        <v>0.220491</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.243702</v>
+        <v>0.243507</v>
       </c>
       <c r="C99" t="n">
-        <v>0.220907</v>
+        <v>0.22056</v>
       </c>
       <c r="D99" t="n">
-        <v>0.215647</v>
+        <v>0.213306</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.237405</v>
+        <v>0.23743</v>
       </c>
       <c r="C100" t="n">
-        <v>0.214511</v>
+        <v>0.211262</v>
       </c>
       <c r="D100" t="n">
-        <v>0.208406</v>
+        <v>0.206331</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.231626</v>
+        <v>0.231844</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207599</v>
+        <v>0.20544</v>
       </c>
       <c r="D101" t="n">
-        <v>0.201392</v>
+        <v>0.200812</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.226543</v>
+        <v>0.226445</v>
       </c>
       <c r="C102" t="n">
-        <v>0.202057</v>
+        <v>0.2006</v>
       </c>
       <c r="D102" t="n">
-        <v>0.196488</v>
+        <v>0.194321</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.221237</v>
+        <v>0.221732</v>
       </c>
       <c r="C103" t="n">
-        <v>0.19633</v>
+        <v>0.196027</v>
       </c>
       <c r="D103" t="n">
-        <v>0.190727</v>
+        <v>0.188837</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216882</v>
+        <v>0.217142</v>
       </c>
       <c r="C104" t="n">
-        <v>0.191653</v>
+        <v>0.189824</v>
       </c>
       <c r="D104" t="n">
-        <v>0.18612</v>
+        <v>0.184927</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.212587</v>
+        <v>0.213328</v>
       </c>
       <c r="C105" t="n">
-        <v>0.187339</v>
+        <v>0.185867</v>
       </c>
       <c r="D105" t="n">
-        <v>0.181824</v>
+        <v>0.181567</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.20968</v>
+        <v>0.209577</v>
       </c>
       <c r="C106" t="n">
-        <v>0.183438</v>
+        <v>0.182649</v>
       </c>
       <c r="D106" t="n">
-        <v>0.179511</v>
+        <v>0.177857</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.207821</v>
+        <v>0.207858</v>
       </c>
       <c r="C107" t="n">
-        <v>0.180987</v>
+        <v>0.180939</v>
       </c>
       <c r="D107" t="n">
-        <v>0.17815</v>
+        <v>0.176636</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.207641</v>
+        <v>0.207658</v>
       </c>
       <c r="C108" t="n">
-        <v>0.179996</v>
+        <v>0.179356</v>
       </c>
       <c r="D108" t="n">
-        <v>0.268533</v>
+        <v>0.26831</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209468</v>
+        <v>0.209665</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180866</v>
+        <v>0.180183</v>
       </c>
       <c r="D109" t="n">
-        <v>0.262768</v>
+        <v>0.261434</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.282864</v>
+        <v>0.284265</v>
       </c>
       <c r="C110" t="n">
-        <v>0.261255</v>
+        <v>0.26149</v>
       </c>
       <c r="D110" t="n">
-        <v>0.254535</v>
+        <v>0.254033</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.276863</v>
+        <v>0.277538</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253155</v>
+        <v>0.253784</v>
       </c>
       <c r="D111" t="n">
-        <v>0.246043</v>
+        <v>0.245945</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.270762</v>
+        <v>0.270817</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245968</v>
+        <v>0.245436</v>
       </c>
       <c r="D112" t="n">
-        <v>0.237419</v>
+        <v>0.238575</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.264762</v>
+        <v>0.265169</v>
       </c>
       <c r="C113" t="n">
-        <v>0.239353</v>
+        <v>0.23887</v>
       </c>
       <c r="D113" t="n">
-        <v>0.232024</v>
+        <v>0.231861</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.259263</v>
+        <v>0.259892</v>
       </c>
       <c r="C114" t="n">
-        <v>0.232785</v>
+        <v>0.232325</v>
       </c>
       <c r="D114" t="n">
-        <v>0.224369</v>
+        <v>0.225245</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.254369</v>
+        <v>0.254263</v>
       </c>
       <c r="C115" t="n">
-        <v>0.22661</v>
+        <v>0.22635</v>
       </c>
       <c r="D115" t="n">
-        <v>0.220119</v>
+        <v>0.219072</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.249159</v>
+        <v>0.249794</v>
       </c>
       <c r="C116" t="n">
-        <v>0.221007</v>
+        <v>0.2206</v>
       </c>
       <c r="D116" t="n">
-        <v>0.214065</v>
+        <v>0.213377</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.244748</v>
+        <v>0.245081</v>
       </c>
       <c r="C117" t="n">
-        <v>0.215914</v>
+        <v>0.215799</v>
       </c>
       <c r="D117" t="n">
-        <v>0.208755</v>
+        <v>0.208131</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.240446</v>
+        <v>0.241093</v>
       </c>
       <c r="C118" t="n">
-        <v>0.211172</v>
+        <v>0.211154</v>
       </c>
       <c r="D118" t="n">
-        <v>0.204404</v>
+        <v>0.204214</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.23676</v>
+        <v>0.237385</v>
       </c>
       <c r="C119" t="n">
-        <v>0.206593</v>
+        <v>0.207133</v>
       </c>
       <c r="D119" t="n">
-        <v>0.200434</v>
+        <v>0.19975</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.233789</v>
+        <v>0.233938</v>
       </c>
       <c r="C120" t="n">
-        <v>0.203332</v>
+        <v>0.203423</v>
       </c>
       <c r="D120" t="n">
-        <v>0.197571</v>
+        <v>0.196861</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.23153</v>
+        <v>0.232007</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200379</v>
+        <v>0.200587</v>
       </c>
       <c r="D121" t="n">
-        <v>0.195655</v>
+        <v>0.19572</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.23067</v>
+        <v>0.23094</v>
       </c>
       <c r="C122" t="n">
-        <v>0.198883</v>
+        <v>0.19882</v>
       </c>
       <c r="D122" t="n">
-        <v>0.19612</v>
+        <v>0.195959</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232013</v>
+        <v>0.232002</v>
       </c>
       <c r="C123" t="n">
-        <v>0.198961</v>
+        <v>0.198891</v>
       </c>
       <c r="D123" t="n">
-        <v>0.280399</v>
+        <v>0.280952</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.319181</v>
+        <v>0.317279</v>
       </c>
       <c r="C124" t="n">
-        <v>0.280862</v>
+        <v>0.280765</v>
       </c>
       <c r="D124" t="n">
-        <v>0.27443</v>
+        <v>0.274514</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.317968</v>
+        <v>0.315622</v>
       </c>
       <c r="C125" t="n">
-        <v>0.274155</v>
+        <v>0.274719</v>
       </c>
       <c r="D125" t="n">
-        <v>0.268278</v>
+        <v>0.26829</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.312358</v>
+        <v>0.309963</v>
       </c>
       <c r="C126" t="n">
-        <v>0.268031</v>
+        <v>0.26841</v>
       </c>
       <c r="D126" t="n">
-        <v>0.262094</v>
+        <v>0.262344</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.306651</v>
+        <v>0.304167</v>
       </c>
       <c r="C127" t="n">
-        <v>0.262094</v>
+        <v>0.262461</v>
       </c>
       <c r="D127" t="n">
-        <v>0.257034</v>
+        <v>0.257013</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.301635</v>
+        <v>0.298803</v>
       </c>
       <c r="C128" t="n">
-        <v>0.256458</v>
+        <v>0.257082</v>
       </c>
       <c r="D128" t="n">
-        <v>0.252003</v>
+        <v>0.25185</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.296842</v>
+        <v>0.293576</v>
       </c>
       <c r="C129" t="n">
-        <v>0.251765</v>
+        <v>0.251979</v>
       </c>
       <c r="D129" t="n">
-        <v>0.246785</v>
+        <v>0.24724</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.291973</v>
+        <v>0.289148</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246803</v>
+        <v>0.247331</v>
       </c>
       <c r="D130" t="n">
-        <v>0.242715</v>
+        <v>0.242582</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.287179</v>
+        <v>0.285116</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242406</v>
+        <v>0.243103</v>
       </c>
       <c r="D131" t="n">
-        <v>0.238369</v>
+        <v>0.238562</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.283491</v>
+        <v>0.281479</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238216</v>
+        <v>0.239293</v>
       </c>
       <c r="D132" t="n">
-        <v>0.234671</v>
+        <v>0.234824</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.279794</v>
+        <v>0.278182</v>
       </c>
       <c r="C133" t="n">
-        <v>0.234407</v>
+        <v>0.235716</v>
       </c>
       <c r="D133" t="n">
-        <v>0.23154</v>
+        <v>0.231346</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.27712</v>
+        <v>0.275818</v>
       </c>
       <c r="C134" t="n">
-        <v>0.231496</v>
+        <v>0.234952</v>
       </c>
       <c r="D134" t="n">
-        <v>0.229045</v>
+        <v>0.231745</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.275396</v>
+        <v>0.275749</v>
       </c>
       <c r="C135" t="n">
-        <v>0.229457</v>
+        <v>0.232815</v>
       </c>
       <c r="D135" t="n">
-        <v>0.227429</v>
+        <v>0.229622</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.274267</v>
+        <v>0.270106</v>
       </c>
       <c r="C136" t="n">
-        <v>0.229921</v>
+        <v>0.231318</v>
       </c>
       <c r="D136" t="n">
-        <v>0.229325</v>
+        <v>0.230323</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.277846</v>
+        <v>0.275636</v>
       </c>
       <c r="C137" t="n">
-        <v>0.230441</v>
+        <v>0.229586</v>
       </c>
       <c r="D137" t="n">
-        <v>0.32845</v>
+        <v>0.320504</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.369305</v>
+        <v>0.361678</v>
       </c>
       <c r="C138" t="n">
-        <v>0.321063</v>
+        <v>0.321091</v>
       </c>
       <c r="D138" t="n">
-        <v>0.316609</v>
+        <v>0.315892</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.363858</v>
+        <v>0.355874</v>
       </c>
       <c r="C139" t="n">
-        <v>0.314595</v>
+        <v>0.314451</v>
       </c>
       <c r="D139" t="n">
-        <v>0.311725</v>
+        <v>0.309699</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.358985</v>
+        <v>0.350641</v>
       </c>
       <c r="C140" t="n">
-        <v>0.309453</v>
+        <v>0.308336</v>
       </c>
       <c r="D140" t="n">
-        <v>0.306534</v>
+        <v>0.305435</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.353486</v>
+        <v>0.345378</v>
       </c>
       <c r="C141" t="n">
-        <v>0.303039</v>
+        <v>0.302587</v>
       </c>
       <c r="D141" t="n">
-        <v>0.301586</v>
+        <v>0.300453</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.347728</v>
+        <v>0.340933</v>
       </c>
       <c r="C142" t="n">
-        <v>0.298799</v>
+        <v>0.29759</v>
       </c>
       <c r="D142" t="n">
-        <v>0.297903</v>
+        <v>0.295278</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.346507</v>
+        <v>0.33672</v>
       </c>
       <c r="C143" t="n">
-        <v>0.293493</v>
+        <v>0.292639</v>
       </c>
       <c r="D143" t="n">
-        <v>0.293614</v>
+        <v>0.291338</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.16287</v>
+        <v>0.158689</v>
       </c>
       <c r="C2" t="n">
-        <v>0.142175</v>
+        <v>0.136133</v>
       </c>
       <c r="D2" t="n">
-        <v>0.149494</v>
+        <v>0.141143</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.166722</v>
+        <v>0.160096</v>
       </c>
       <c r="C3" t="n">
-        <v>0.142421</v>
+        <v>0.133351</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140512</v>
+        <v>0.129086</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.154207</v>
+        <v>0.155149</v>
       </c>
       <c r="C4" t="n">
-        <v>0.129946</v>
+        <v>0.123402</v>
       </c>
       <c r="D4" t="n">
-        <v>0.135037</v>
+        <v>0.12431</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.159613</v>
+        <v>0.148858</v>
       </c>
       <c r="C5" t="n">
-        <v>0.126592</v>
+        <v>0.124649</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13077</v>
+        <v>0.123689</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.155175</v>
+        <v>0.150777</v>
       </c>
       <c r="C6" t="n">
-        <v>0.126397</v>
+        <v>0.119835</v>
       </c>
       <c r="D6" t="n">
-        <v>0.125598</v>
+        <v>0.121464</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.142867</v>
+        <v>0.144545</v>
       </c>
       <c r="C7" t="n">
-        <v>0.117327</v>
+        <v>0.111101</v>
       </c>
       <c r="D7" t="n">
-        <v>0.121752</v>
+        <v>0.112858</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.14322</v>
+        <v>0.144532</v>
       </c>
       <c r="C8" t="n">
-        <v>0.118891</v>
+        <v>0.114039</v>
       </c>
       <c r="D8" t="n">
-        <v>0.119917</v>
+        <v>0.114264</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146686</v>
+        <v>0.146455</v>
       </c>
       <c r="C9" t="n">
-        <v>0.109653</v>
+        <v>0.105223</v>
       </c>
       <c r="D9" t="n">
-        <v>0.19175</v>
+        <v>0.183408</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.214284</v>
+        <v>0.196945</v>
       </c>
       <c r="C10" t="n">
-        <v>0.182294</v>
+        <v>0.174093</v>
       </c>
       <c r="D10" t="n">
-        <v>0.186179</v>
+        <v>0.185776</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.202924</v>
+        <v>0.20809</v>
       </c>
       <c r="C11" t="n">
-        <v>0.176339</v>
+        <v>0.188418</v>
       </c>
       <c r="D11" t="n">
-        <v>0.179761</v>
+        <v>0.171705</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.206705</v>
+        <v>0.187982</v>
       </c>
       <c r="C12" t="n">
-        <v>0.168759</v>
+        <v>0.165658</v>
       </c>
       <c r="D12" t="n">
-        <v>0.176008</v>
+        <v>0.16512</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.191399</v>
+        <v>0.190948</v>
       </c>
       <c r="C13" t="n">
-        <v>0.163794</v>
+        <v>0.173088</v>
       </c>
       <c r="D13" t="n">
-        <v>0.163741</v>
+        <v>0.158639</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.190533</v>
+        <v>0.183481</v>
       </c>
       <c r="C14" t="n">
-        <v>0.157609</v>
+        <v>0.149125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.162427</v>
+        <v>0.156935</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.178528</v>
+        <v>0.179384</v>
       </c>
       <c r="C15" t="n">
-        <v>0.15248</v>
+        <v>0.152386</v>
       </c>
       <c r="D15" t="n">
-        <v>0.158545</v>
+        <v>0.149441</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.179557</v>
+        <v>0.173852</v>
       </c>
       <c r="C16" t="n">
-        <v>0.149767</v>
+        <v>0.141963</v>
       </c>
       <c r="D16" t="n">
-        <v>0.144188</v>
+        <v>0.147753</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.161675</v>
+        <v>0.169145</v>
       </c>
       <c r="C17" t="n">
-        <v>0.14207</v>
+        <v>0.135682</v>
       </c>
       <c r="D17" t="n">
-        <v>0.146394</v>
+        <v>0.136946</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.163628</v>
+        <v>0.163068</v>
       </c>
       <c r="C18" t="n">
-        <v>0.137563</v>
+        <v>0.137339</v>
       </c>
       <c r="D18" t="n">
-        <v>0.142179</v>
+        <v>0.137216</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.158363</v>
+        <v>0.160478</v>
       </c>
       <c r="C19" t="n">
-        <v>0.133701</v>
+        <v>0.128206</v>
       </c>
       <c r="D19" t="n">
-        <v>0.135865</v>
+        <v>0.134426</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.157841</v>
+        <v>0.155836</v>
       </c>
       <c r="C20" t="n">
-        <v>0.132577</v>
+        <v>0.125352</v>
       </c>
       <c r="D20" t="n">
-        <v>0.133495</v>
+        <v>0.129922</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.153507</v>
+        <v>0.153151</v>
       </c>
       <c r="C21" t="n">
-        <v>0.12772</v>
+        <v>0.121008</v>
       </c>
       <c r="D21" t="n">
-        <v>0.130921</v>
+        <v>0.126294</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.157182</v>
+        <v>0.153984</v>
       </c>
       <c r="C22" t="n">
-        <v>0.124235</v>
+        <v>0.120994</v>
       </c>
       <c r="D22" t="n">
-        <v>0.128723</v>
+        <v>0.128898</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.156952</v>
+        <v>0.159753</v>
       </c>
       <c r="C23" t="n">
-        <v>0.125071</v>
+        <v>0.124298</v>
       </c>
       <c r="D23" t="n">
-        <v>0.223567</v>
+        <v>0.226959</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.248961</v>
+        <v>0.235776</v>
       </c>
       <c r="C24" t="n">
-        <v>0.213709</v>
+        <v>0.212057</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216628</v>
+        <v>0.218765</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234934</v>
+        <v>0.225424</v>
       </c>
       <c r="C25" t="n">
-        <v>0.204523</v>
+        <v>0.204887</v>
       </c>
       <c r="D25" t="n">
-        <v>0.205447</v>
+        <v>0.209003</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.219983</v>
+        <v>0.221814</v>
       </c>
       <c r="C26" t="n">
-        <v>0.194921</v>
+        <v>0.195609</v>
       </c>
       <c r="D26" t="n">
-        <v>0.195041</v>
+        <v>0.196631</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.212359</v>
+        <v>0.20515</v>
       </c>
       <c r="C27" t="n">
-        <v>0.187972</v>
+        <v>0.188527</v>
       </c>
       <c r="D27" t="n">
-        <v>0.186902</v>
+        <v>0.186649</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.206461</v>
+        <v>0.200375</v>
       </c>
       <c r="C28" t="n">
-        <v>0.181746</v>
+        <v>0.18162</v>
       </c>
       <c r="D28" t="n">
-        <v>0.179029</v>
+        <v>0.183324</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.197863</v>
+        <v>0.192857</v>
       </c>
       <c r="C29" t="n">
-        <v>0.175132</v>
+        <v>0.175479</v>
       </c>
       <c r="D29" t="n">
-        <v>0.174242</v>
+        <v>0.17484</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.192534</v>
+        <v>0.186031</v>
       </c>
       <c r="C30" t="n">
-        <v>0.168304</v>
+        <v>0.169164</v>
       </c>
       <c r="D30" t="n">
-        <v>0.167074</v>
+        <v>0.16709</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.18696</v>
+        <v>0.181688</v>
       </c>
       <c r="C31" t="n">
-        <v>0.162756</v>
+        <v>0.163084</v>
       </c>
       <c r="D31" t="n">
-        <v>0.161259</v>
+        <v>0.164372</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.181621</v>
+        <v>0.175123</v>
       </c>
       <c r="C32" t="n">
-        <v>0.158012</v>
+        <v>0.158181</v>
       </c>
       <c r="D32" t="n">
-        <v>0.155503</v>
+        <v>0.157478</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.177736</v>
+        <v>0.172784</v>
       </c>
       <c r="C33" t="n">
-        <v>0.153303</v>
+        <v>0.153675</v>
       </c>
       <c r="D33" t="n">
-        <v>0.151661</v>
+        <v>0.151802</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.173566</v>
+        <v>0.170343</v>
       </c>
       <c r="C34" t="n">
-        <v>0.148741</v>
+        <v>0.149343</v>
       </c>
       <c r="D34" t="n">
-        <v>0.148055</v>
+        <v>0.1507</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.169693</v>
+        <v>0.165777</v>
       </c>
       <c r="C35" t="n">
-        <v>0.145477</v>
+        <v>0.145968</v>
       </c>
       <c r="D35" t="n">
-        <v>0.144949</v>
+        <v>0.146986</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.17014</v>
+        <v>0.167643</v>
       </c>
       <c r="C36" t="n">
-        <v>0.143727</v>
+        <v>0.144749</v>
       </c>
       <c r="D36" t="n">
-        <v>0.145343</v>
+        <v>0.145993</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17089</v>
+        <v>0.16764</v>
       </c>
       <c r="C37" t="n">
-        <v>0.142652</v>
+        <v>0.142867</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2259</v>
+        <v>0.225673</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243415</v>
+        <v>0.240581</v>
       </c>
       <c r="C38" t="n">
-        <v>0.219508</v>
+        <v>0.219826</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216388</v>
+        <v>0.218824</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.23429</v>
+        <v>0.230402</v>
       </c>
       <c r="C39" t="n">
-        <v>0.211331</v>
+        <v>0.211445</v>
       </c>
       <c r="D39" t="n">
-        <v>0.207594</v>
+        <v>0.20778</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.225501</v>
+        <v>0.223831</v>
       </c>
       <c r="C40" t="n">
-        <v>0.202669</v>
+        <v>0.202844</v>
       </c>
       <c r="D40" t="n">
-        <v>0.199117</v>
+        <v>0.199626</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.217447</v>
+        <v>0.214753</v>
       </c>
       <c r="C41" t="n">
-        <v>0.194966</v>
+        <v>0.195733</v>
       </c>
       <c r="D41" t="n">
-        <v>0.192645</v>
+        <v>0.193359</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.209511</v>
+        <v>0.207781</v>
       </c>
       <c r="C42" t="n">
-        <v>0.187967</v>
+        <v>0.18807</v>
       </c>
       <c r="D42" t="n">
-        <v>0.184777</v>
+        <v>0.185937</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.202742</v>
+        <v>0.200376</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181123</v>
+        <v>0.18107</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178087</v>
+        <v>0.178228</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.196016</v>
+        <v>0.194874</v>
       </c>
       <c r="C44" t="n">
-        <v>0.17473</v>
+        <v>0.174745</v>
       </c>
       <c r="D44" t="n">
-        <v>0.172158</v>
+        <v>0.172979</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190534</v>
+        <v>0.187571</v>
       </c>
       <c r="C45" t="n">
-        <v>0.16886</v>
+        <v>0.168846</v>
       </c>
       <c r="D45" t="n">
-        <v>0.166597</v>
+        <v>0.168489</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.184403</v>
+        <v>0.183845</v>
       </c>
       <c r="C46" t="n">
-        <v>0.163433</v>
+        <v>0.16333</v>
       </c>
       <c r="D46" t="n">
-        <v>0.161789</v>
+        <v>0.161369</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.179929</v>
+        <v>0.181257</v>
       </c>
       <c r="C47" t="n">
-        <v>0.158584</v>
+        <v>0.160763</v>
       </c>
       <c r="D47" t="n">
-        <v>0.157178</v>
+        <v>0.15687</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175475</v>
+        <v>0.17566</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154212</v>
+        <v>0.154354</v>
       </c>
       <c r="D48" t="n">
-        <v>0.153687</v>
+        <v>0.153661</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172354</v>
+        <v>0.172355</v>
       </c>
       <c r="C49" t="n">
-        <v>0.151313</v>
+        <v>0.150306</v>
       </c>
       <c r="D49" t="n">
-        <v>0.151193</v>
+        <v>0.151516</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.170979</v>
+        <v>0.170786</v>
       </c>
       <c r="C50" t="n">
-        <v>0.148331</v>
+        <v>0.148312</v>
       </c>
       <c r="D50" t="n">
-        <v>0.150244</v>
+        <v>0.149869</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.170992</v>
+        <v>0.172075</v>
       </c>
       <c r="C51" t="n">
-        <v>0.147272</v>
+        <v>0.147042</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232432</v>
+        <v>0.232441</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175156</v>
+        <v>0.17472</v>
       </c>
       <c r="C52" t="n">
-        <v>0.147843</v>
+        <v>0.148181</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223711</v>
+        <v>0.222099</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240204</v>
+        <v>0.240154</v>
       </c>
       <c r="C53" t="n">
-        <v>0.21863</v>
+        <v>0.218287</v>
       </c>
       <c r="D53" t="n">
-        <v>0.214854</v>
+        <v>0.214119</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.231581</v>
+        <v>0.231716</v>
       </c>
       <c r="C54" t="n">
-        <v>0.209827</v>
+        <v>0.209998</v>
       </c>
       <c r="D54" t="n">
-        <v>0.20567</v>
+        <v>0.205595</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.223756</v>
+        <v>0.224312</v>
       </c>
       <c r="C55" t="n">
-        <v>0.20217</v>
+        <v>0.201624</v>
       </c>
       <c r="D55" t="n">
-        <v>0.198448</v>
+        <v>0.19813</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.215324</v>
+        <v>0.215374</v>
       </c>
       <c r="C56" t="n">
-        <v>0.194216</v>
+        <v>0.19456</v>
       </c>
       <c r="D56" t="n">
-        <v>0.191063</v>
+        <v>0.19099</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208283</v>
+        <v>0.208168</v>
       </c>
       <c r="C57" t="n">
-        <v>0.187529</v>
+        <v>0.187872</v>
       </c>
       <c r="D57" t="n">
-        <v>0.184491</v>
+        <v>0.183935</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.201485</v>
+        <v>0.201888</v>
       </c>
       <c r="C58" t="n">
-        <v>0.180665</v>
+        <v>0.181599</v>
       </c>
       <c r="D58" t="n">
-        <v>0.176606</v>
+        <v>0.18038</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1953</v>
+        <v>0.197741</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174412</v>
+        <v>0.177319</v>
       </c>
       <c r="D59" t="n">
-        <v>0.172052</v>
+        <v>0.17464</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.18976</v>
+        <v>0.191983</v>
       </c>
       <c r="C60" t="n">
-        <v>0.16879</v>
+        <v>0.171283</v>
       </c>
       <c r="D60" t="n">
-        <v>0.166534</v>
+        <v>0.1687</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.184826</v>
+        <v>0.186898</v>
       </c>
       <c r="C61" t="n">
-        <v>0.163995</v>
+        <v>0.165856</v>
       </c>
       <c r="D61" t="n">
-        <v>0.161631</v>
+        <v>0.163971</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.180591</v>
+        <v>0.182721</v>
       </c>
       <c r="C62" t="n">
-        <v>0.159424</v>
+        <v>0.161277</v>
       </c>
       <c r="D62" t="n">
-        <v>0.157875</v>
+        <v>0.159918</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.17756</v>
+        <v>0.179587</v>
       </c>
       <c r="C63" t="n">
-        <v>0.155159</v>
+        <v>0.157475</v>
       </c>
       <c r="D63" t="n">
-        <v>0.154908</v>
+        <v>0.156678</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177856</v>
+        <v>0.178146</v>
       </c>
       <c r="C64" t="n">
-        <v>0.154561</v>
+        <v>0.154411</v>
       </c>
       <c r="D64" t="n">
-        <v>0.155234</v>
+        <v>0.155179</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177901</v>
+        <v>0.178193</v>
       </c>
       <c r="C65" t="n">
-        <v>0.152972</v>
+        <v>0.152703</v>
       </c>
       <c r="D65" t="n">
-        <v>0.15627</v>
+        <v>0.15542</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180482</v>
+        <v>0.180923</v>
       </c>
       <c r="C66" t="n">
-        <v>0.153584</v>
+        <v>0.153275</v>
       </c>
       <c r="D66" t="n">
-        <v>0.234351</v>
+        <v>0.234476</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242675</v>
+        <v>0.244957</v>
       </c>
       <c r="C67" t="n">
-        <v>0.230525</v>
+        <v>0.231179</v>
       </c>
       <c r="D67" t="n">
-        <v>0.223357</v>
+        <v>0.221749</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.234514</v>
+        <v>0.235427</v>
       </c>
       <c r="C68" t="n">
-        <v>0.221531</v>
+        <v>0.218914</v>
       </c>
       <c r="D68" t="n">
-        <v>0.216472</v>
+        <v>0.213103</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.227624</v>
+        <v>0.227418</v>
       </c>
       <c r="C69" t="n">
-        <v>0.213273</v>
+        <v>0.210441</v>
       </c>
       <c r="D69" t="n">
-        <v>0.208169</v>
+        <v>0.205321</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.218806</v>
+        <v>0.219305</v>
       </c>
       <c r="C70" t="n">
-        <v>0.205204</v>
+        <v>0.202471</v>
       </c>
       <c r="D70" t="n">
-        <v>0.200275</v>
+        <v>0.197107</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.211145</v>
+        <v>0.212271</v>
       </c>
       <c r="C71" t="n">
-        <v>0.197707</v>
+        <v>0.195272</v>
       </c>
       <c r="D71" t="n">
-        <v>0.193093</v>
+        <v>0.190604</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.204921</v>
+        <v>0.205607</v>
       </c>
       <c r="C72" t="n">
-        <v>0.190526</v>
+        <v>0.18839</v>
       </c>
       <c r="D72" t="n">
-        <v>0.186122</v>
+        <v>0.183905</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199072</v>
+        <v>0.199902</v>
       </c>
       <c r="C73" t="n">
-        <v>0.184092</v>
+        <v>0.181818</v>
       </c>
       <c r="D73" t="n">
-        <v>0.179749</v>
+        <v>0.177624</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.192421</v>
+        <v>0.193968</v>
       </c>
       <c r="C74" t="n">
-        <v>0.177744</v>
+        <v>0.175616</v>
       </c>
       <c r="D74" t="n">
-        <v>0.174039</v>
+        <v>0.171437</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188214</v>
+        <v>0.188622</v>
       </c>
       <c r="C75" t="n">
-        <v>0.172074</v>
+        <v>0.17024</v>
       </c>
       <c r="D75" t="n">
-        <v>0.16869</v>
+        <v>0.166647</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.182972</v>
+        <v>0.18417</v>
       </c>
       <c r="C76" t="n">
-        <v>0.167228</v>
+        <v>0.165329</v>
       </c>
       <c r="D76" t="n">
-        <v>0.163138</v>
+        <v>0.162704</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.180273</v>
+        <v>0.180585</v>
       </c>
       <c r="C77" t="n">
-        <v>0.163312</v>
+        <v>0.161122</v>
       </c>
       <c r="D77" t="n">
-        <v>0.160595</v>
+        <v>0.159281</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.177427</v>
+        <v>0.178305</v>
       </c>
       <c r="C78" t="n">
-        <v>0.157745</v>
+        <v>0.157987</v>
       </c>
       <c r="D78" t="n">
-        <v>0.157326</v>
+        <v>0.156161</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.177052</v>
+        <v>0.178418</v>
       </c>
       <c r="C79" t="n">
-        <v>0.155843</v>
+        <v>0.155954</v>
       </c>
       <c r="D79" t="n">
-        <v>0.157604</v>
+        <v>0.157513</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.179171</v>
+        <v>0.180322</v>
       </c>
       <c r="C80" t="n">
-        <v>0.155393</v>
+        <v>0.155537</v>
       </c>
       <c r="D80" t="n">
-        <v>0.234843</v>
+        <v>0.234278</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.255772</v>
+        <v>0.257</v>
       </c>
       <c r="C81" t="n">
-        <v>0.231043</v>
+        <v>0.231051</v>
       </c>
       <c r="D81" t="n">
-        <v>0.226197</v>
+        <v>0.226379</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.248303</v>
+        <v>0.249717</v>
       </c>
       <c r="C82" t="n">
-        <v>0.221934</v>
+        <v>0.223582</v>
       </c>
       <c r="D82" t="n">
-        <v>0.217795</v>
+        <v>0.218187</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241076</v>
+        <v>0.242083</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214982</v>
+        <v>0.215702</v>
       </c>
       <c r="D83" t="n">
-        <v>0.209799</v>
+        <v>0.209905</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.233046</v>
+        <v>0.234705</v>
       </c>
       <c r="C84" t="n">
-        <v>0.207701</v>
+        <v>0.208147</v>
       </c>
       <c r="D84" t="n">
-        <v>0.202218</v>
+        <v>0.202533</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.226358</v>
+        <v>0.226867</v>
       </c>
       <c r="C85" t="n">
-        <v>0.200217</v>
+        <v>0.200882</v>
       </c>
       <c r="D85" t="n">
-        <v>0.195582</v>
+        <v>0.19545</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.218957</v>
+        <v>0.220577</v>
       </c>
       <c r="C86" t="n">
-        <v>0.193048</v>
+        <v>0.194468</v>
       </c>
       <c r="D86" t="n">
-        <v>0.18852</v>
+        <v>0.189506</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212162</v>
+        <v>0.213988</v>
       </c>
       <c r="C87" t="n">
-        <v>0.186922</v>
+        <v>0.189271</v>
       </c>
       <c r="D87" t="n">
-        <v>0.182974</v>
+        <v>0.18372</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.205724</v>
+        <v>0.207572</v>
       </c>
       <c r="C88" t="n">
-        <v>0.18168</v>
+        <v>0.182843</v>
       </c>
       <c r="D88" t="n">
-        <v>0.176747</v>
+        <v>0.177652</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200591</v>
+        <v>0.202054</v>
       </c>
       <c r="C89" t="n">
-        <v>0.17569</v>
+        <v>0.177184</v>
       </c>
       <c r="D89" t="n">
-        <v>0.172021</v>
+        <v>0.172003</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195882</v>
+        <v>0.19648</v>
       </c>
       <c r="C90" t="n">
-        <v>0.171024</v>
+        <v>0.172408</v>
       </c>
       <c r="D90" t="n">
-        <v>0.166986</v>
+        <v>0.167872</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192042</v>
+        <v>0.192472</v>
       </c>
       <c r="C91" t="n">
-        <v>0.166596</v>
+        <v>0.167941</v>
       </c>
       <c r="D91" t="n">
-        <v>0.163702</v>
+        <v>0.164277</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.188305</v>
+        <v>0.18963</v>
       </c>
       <c r="C92" t="n">
-        <v>0.163207</v>
+        <v>0.16443</v>
       </c>
       <c r="D92" t="n">
-        <v>0.161787</v>
+        <v>0.162261</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.187562</v>
+        <v>0.188719</v>
       </c>
       <c r="C93" t="n">
-        <v>0.160747</v>
+        <v>0.162581</v>
       </c>
       <c r="D93" t="n">
-        <v>0.161119</v>
+        <v>0.162185</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.188624</v>
+        <v>0.190863</v>
       </c>
       <c r="C94" t="n">
-        <v>0.16002</v>
+        <v>0.16045</v>
       </c>
       <c r="D94" t="n">
-        <v>0.251451</v>
+        <v>0.251863</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.269675</v>
+        <v>0.270564</v>
       </c>
       <c r="C95" t="n">
-        <v>0.247291</v>
+        <v>0.248002</v>
       </c>
       <c r="D95" t="n">
-        <v>0.243535</v>
+        <v>0.244026</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.263341</v>
+        <v>0.264891</v>
       </c>
       <c r="C96" t="n">
-        <v>0.240298</v>
+        <v>0.241308</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236698</v>
+        <v>0.236378</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.256896</v>
+        <v>0.257644</v>
       </c>
       <c r="C97" t="n">
-        <v>0.233028</v>
+        <v>0.233478</v>
       </c>
       <c r="D97" t="n">
-        <v>0.228129</v>
+        <v>0.228641</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.249832</v>
+        <v>0.251431</v>
       </c>
       <c r="C98" t="n">
-        <v>0.225846</v>
+        <v>0.227526</v>
       </c>
       <c r="D98" t="n">
-        <v>0.220491</v>
+        <v>0.22092</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.243507</v>
+        <v>0.245091</v>
       </c>
       <c r="C99" t="n">
-        <v>0.22056</v>
+        <v>0.219946</v>
       </c>
       <c r="D99" t="n">
-        <v>0.213306</v>
+        <v>0.213377</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.23743</v>
+        <v>0.23877</v>
       </c>
       <c r="C100" t="n">
-        <v>0.211262</v>
+        <v>0.212744</v>
       </c>
       <c r="D100" t="n">
-        <v>0.206331</v>
+        <v>0.207354</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.231844</v>
+        <v>0.233217</v>
       </c>
       <c r="C101" t="n">
-        <v>0.20544</v>
+        <v>0.206366</v>
       </c>
       <c r="D101" t="n">
-        <v>0.200812</v>
+        <v>0.200415</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.226445</v>
+        <v>0.227466</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2006</v>
+        <v>0.200404</v>
       </c>
       <c r="D102" t="n">
-        <v>0.194321</v>
+        <v>0.194512</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.221732</v>
+        <v>0.222801</v>
       </c>
       <c r="C103" t="n">
-        <v>0.196027</v>
+        <v>0.195672</v>
       </c>
       <c r="D103" t="n">
-        <v>0.188837</v>
+        <v>0.189318</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.217142</v>
+        <v>0.218033</v>
       </c>
       <c r="C104" t="n">
-        <v>0.189824</v>
+        <v>0.190098</v>
       </c>
       <c r="D104" t="n">
-        <v>0.184927</v>
+        <v>0.184738</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.213328</v>
+        <v>0.214078</v>
       </c>
       <c r="C105" t="n">
-        <v>0.185867</v>
+        <v>0.185971</v>
       </c>
       <c r="D105" t="n">
-        <v>0.181567</v>
+        <v>0.18099</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.209577</v>
+        <v>0.210888</v>
       </c>
       <c r="C106" t="n">
-        <v>0.182649</v>
+        <v>0.182993</v>
       </c>
       <c r="D106" t="n">
-        <v>0.177857</v>
+        <v>0.177971</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.207858</v>
+        <v>0.20884</v>
       </c>
       <c r="C107" t="n">
-        <v>0.180939</v>
+        <v>0.180147</v>
       </c>
       <c r="D107" t="n">
-        <v>0.176636</v>
+        <v>0.176982</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.207658</v>
+        <v>0.208563</v>
       </c>
       <c r="C108" t="n">
-        <v>0.179356</v>
+        <v>0.178823</v>
       </c>
       <c r="D108" t="n">
-        <v>0.26831</v>
+        <v>0.26825</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209665</v>
+        <v>0.21038</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180183</v>
+        <v>0.179596</v>
       </c>
       <c r="D109" t="n">
-        <v>0.261434</v>
+        <v>0.261737</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.284265</v>
+        <v>0.284283</v>
       </c>
       <c r="C110" t="n">
-        <v>0.26149</v>
+        <v>0.260182</v>
       </c>
       <c r="D110" t="n">
-        <v>0.254033</v>
+        <v>0.253895</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277538</v>
+        <v>0.277882</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253784</v>
+        <v>0.252746</v>
       </c>
       <c r="D111" t="n">
-        <v>0.245945</v>
+        <v>0.245489</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.270817</v>
+        <v>0.271901</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245436</v>
+        <v>0.245055</v>
       </c>
       <c r="D112" t="n">
-        <v>0.238575</v>
+        <v>0.238637</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.265169</v>
+        <v>0.266203</v>
       </c>
       <c r="C113" t="n">
-        <v>0.23887</v>
+        <v>0.238318</v>
       </c>
       <c r="D113" t="n">
-        <v>0.231861</v>
+        <v>0.231756</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.259892</v>
+        <v>0.260541</v>
       </c>
       <c r="C114" t="n">
-        <v>0.232325</v>
+        <v>0.23227</v>
       </c>
       <c r="D114" t="n">
-        <v>0.225245</v>
+        <v>0.225381</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.254263</v>
+        <v>0.25488</v>
       </c>
       <c r="C115" t="n">
-        <v>0.22635</v>
+        <v>0.226345</v>
       </c>
       <c r="D115" t="n">
-        <v>0.219072</v>
+        <v>0.219187</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.249794</v>
+        <v>0.250349</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2206</v>
+        <v>0.220998</v>
       </c>
       <c r="D116" t="n">
-        <v>0.213377</v>
+        <v>0.213707</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.245081</v>
+        <v>0.245749</v>
       </c>
       <c r="C117" t="n">
-        <v>0.215799</v>
+        <v>0.215829</v>
       </c>
       <c r="D117" t="n">
-        <v>0.208131</v>
+        <v>0.20759</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241093</v>
+        <v>0.241407</v>
       </c>
       <c r="C118" t="n">
-        <v>0.211154</v>
+        <v>0.210443</v>
       </c>
       <c r="D118" t="n">
-        <v>0.204214</v>
+        <v>0.204187</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237385</v>
+        <v>0.237884</v>
       </c>
       <c r="C119" t="n">
-        <v>0.207133</v>
+        <v>0.20663</v>
       </c>
       <c r="D119" t="n">
-        <v>0.19975</v>
+        <v>0.20012</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.233938</v>
+        <v>0.234748</v>
       </c>
       <c r="C120" t="n">
-        <v>0.203423</v>
+        <v>0.203045</v>
       </c>
       <c r="D120" t="n">
-        <v>0.196861</v>
+        <v>0.197246</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232007</v>
+        <v>0.232337</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200587</v>
+        <v>0.200237</v>
       </c>
       <c r="D121" t="n">
-        <v>0.19572</v>
+        <v>0.195166</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.23094</v>
+        <v>0.23203</v>
       </c>
       <c r="C122" t="n">
-        <v>0.19882</v>
+        <v>0.199097</v>
       </c>
       <c r="D122" t="n">
-        <v>0.195959</v>
+        <v>0.196281</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232002</v>
+        <v>0.232453</v>
       </c>
       <c r="C123" t="n">
-        <v>0.198891</v>
+        <v>0.199091</v>
       </c>
       <c r="D123" t="n">
-        <v>0.280952</v>
+        <v>0.280985</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.317279</v>
+        <v>0.313695</v>
       </c>
       <c r="C124" t="n">
-        <v>0.280765</v>
+        <v>0.280831</v>
       </c>
       <c r="D124" t="n">
-        <v>0.274514</v>
+        <v>0.274973</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.315622</v>
+        <v>0.307852</v>
       </c>
       <c r="C125" t="n">
-        <v>0.274719</v>
+        <v>0.274244</v>
       </c>
       <c r="D125" t="n">
-        <v>0.26829</v>
+        <v>0.268901</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.309963</v>
+        <v>0.302118</v>
       </c>
       <c r="C126" t="n">
-        <v>0.26841</v>
+        <v>0.268411</v>
       </c>
       <c r="D126" t="n">
-        <v>0.262344</v>
+        <v>0.263309</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.304167</v>
+        <v>0.296567</v>
       </c>
       <c r="C127" t="n">
-        <v>0.262461</v>
+        <v>0.262594</v>
       </c>
       <c r="D127" t="n">
-        <v>0.257013</v>
+        <v>0.257654</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.298803</v>
+        <v>0.292382</v>
       </c>
       <c r="C128" t="n">
-        <v>0.257082</v>
+        <v>0.257267</v>
       </c>
       <c r="D128" t="n">
-        <v>0.25185</v>
+        <v>0.252841</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.293576</v>
+        <v>0.287703</v>
       </c>
       <c r="C129" t="n">
-        <v>0.251979</v>
+        <v>0.252048</v>
       </c>
       <c r="D129" t="n">
-        <v>0.24724</v>
+        <v>0.247525</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.289148</v>
+        <v>0.283926</v>
       </c>
       <c r="C130" t="n">
-        <v>0.247331</v>
+        <v>0.24755</v>
       </c>
       <c r="D130" t="n">
-        <v>0.242582</v>
+        <v>0.243697</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.285116</v>
+        <v>0.279534</v>
       </c>
       <c r="C131" t="n">
-        <v>0.243103</v>
+        <v>0.243164</v>
       </c>
       <c r="D131" t="n">
-        <v>0.238562</v>
+        <v>0.239119</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.281479</v>
+        <v>0.275538</v>
       </c>
       <c r="C132" t="n">
-        <v>0.239293</v>
+        <v>0.238954</v>
       </c>
       <c r="D132" t="n">
-        <v>0.234824</v>
+        <v>0.235126</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.278182</v>
+        <v>0.273124</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235716</v>
+        <v>0.235241</v>
       </c>
       <c r="D133" t="n">
-        <v>0.231346</v>
+        <v>0.232392</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.275818</v>
+        <v>0.270385</v>
       </c>
       <c r="C134" t="n">
-        <v>0.234952</v>
+        <v>0.232467</v>
       </c>
       <c r="D134" t="n">
-        <v>0.231745</v>
+        <v>0.229474</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.275749</v>
+        <v>0.268804</v>
       </c>
       <c r="C135" t="n">
-        <v>0.232815</v>
+        <v>0.229647</v>
       </c>
       <c r="D135" t="n">
-        <v>0.229622</v>
+        <v>0.228869</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.270106</v>
+        <v>0.267728</v>
       </c>
       <c r="C136" t="n">
-        <v>0.231318</v>
+        <v>0.228816</v>
       </c>
       <c r="D136" t="n">
-        <v>0.230323</v>
+        <v>0.228064</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.275636</v>
+        <v>0.268476</v>
       </c>
       <c r="C137" t="n">
-        <v>0.229586</v>
+        <v>0.228568</v>
       </c>
       <c r="D137" t="n">
-        <v>0.320504</v>
+        <v>0.320289</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.361678</v>
+        <v>0.361838</v>
       </c>
       <c r="C138" t="n">
-        <v>0.321091</v>
+        <v>0.31748</v>
       </c>
       <c r="D138" t="n">
-        <v>0.315892</v>
+        <v>0.314904</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.355874</v>
+        <v>0.356315</v>
       </c>
       <c r="C139" t="n">
-        <v>0.314451</v>
+        <v>0.312089</v>
       </c>
       <c r="D139" t="n">
-        <v>0.309699</v>
+        <v>0.309272</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.350641</v>
+        <v>0.351641</v>
       </c>
       <c r="C140" t="n">
-        <v>0.308336</v>
+        <v>0.306644</v>
       </c>
       <c r="D140" t="n">
-        <v>0.305435</v>
+        <v>0.304547</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.345378</v>
+        <v>0.346234</v>
       </c>
       <c r="C141" t="n">
-        <v>0.302587</v>
+        <v>0.300488</v>
       </c>
       <c r="D141" t="n">
-        <v>0.300453</v>
+        <v>0.29945</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.340933</v>
+        <v>0.341377</v>
       </c>
       <c r="C142" t="n">
-        <v>0.29759</v>
+        <v>0.295556</v>
       </c>
       <c r="D142" t="n">
-        <v>0.295278</v>
+        <v>0.295456</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.33672</v>
+        <v>0.337847</v>
       </c>
       <c r="C143" t="n">
-        <v>0.292639</v>
+        <v>0.290674</v>
       </c>
       <c r="D143" t="n">
-        <v>0.291338</v>
+        <v>0.290125</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.158689</v>
+        <v>0.153282</v>
       </c>
       <c r="C2" t="n">
-        <v>0.136133</v>
+        <v>0.146462</v>
       </c>
       <c r="D2" t="n">
-        <v>0.141143</v>
+        <v>0.154418</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.160096</v>
+        <v>0.159684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.133351</v>
+        <v>0.140822</v>
       </c>
       <c r="D3" t="n">
-        <v>0.129086</v>
+        <v>0.144813</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.155149</v>
+        <v>0.165802</v>
       </c>
       <c r="C4" t="n">
-        <v>0.123402</v>
+        <v>0.129541</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12431</v>
+        <v>0.143595</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.148858</v>
+        <v>0.15259</v>
       </c>
       <c r="C5" t="n">
-        <v>0.124649</v>
+        <v>0.128508</v>
       </c>
       <c r="D5" t="n">
-        <v>0.123689</v>
+        <v>0.143202</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.150777</v>
+        <v>0.153467</v>
       </c>
       <c r="C6" t="n">
-        <v>0.119835</v>
+        <v>0.115498</v>
       </c>
       <c r="D6" t="n">
-        <v>0.121464</v>
+        <v>0.132622</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.144545</v>
+        <v>0.150217</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111101</v>
+        <v>0.119972</v>
       </c>
       <c r="D7" t="n">
-        <v>0.112858</v>
+        <v>0.131183</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.144532</v>
+        <v>0.149499</v>
       </c>
       <c r="C8" t="n">
-        <v>0.114039</v>
+        <v>0.117509</v>
       </c>
       <c r="D8" t="n">
-        <v>0.114264</v>
+        <v>0.13346</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146455</v>
+        <v>0.150776</v>
       </c>
       <c r="C9" t="n">
-        <v>0.105223</v>
+        <v>0.116322</v>
       </c>
       <c r="D9" t="n">
-        <v>0.183408</v>
+        <v>0.13964</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.196945</v>
+        <v>0.219125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.174093</v>
+        <v>0.178501</v>
       </c>
       <c r="D10" t="n">
-        <v>0.185776</v>
+        <v>0.215829</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.20809</v>
+        <v>0.216205</v>
       </c>
       <c r="C11" t="n">
-        <v>0.188418</v>
+        <v>0.176499</v>
       </c>
       <c r="D11" t="n">
-        <v>0.171705</v>
+        <v>0.2031</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.187982</v>
+        <v>0.20006</v>
       </c>
       <c r="C12" t="n">
-        <v>0.165658</v>
+        <v>0.168699</v>
       </c>
       <c r="D12" t="n">
-        <v>0.16512</v>
+        <v>0.195012</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.190948</v>
+        <v>0.200705</v>
       </c>
       <c r="C13" t="n">
-        <v>0.173088</v>
+        <v>0.168366</v>
       </c>
       <c r="D13" t="n">
-        <v>0.158639</v>
+        <v>0.197327</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.183481</v>
+        <v>0.196483</v>
       </c>
       <c r="C14" t="n">
-        <v>0.149125</v>
+        <v>0.164404</v>
       </c>
       <c r="D14" t="n">
-        <v>0.156935</v>
+        <v>0.191018</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.179384</v>
+        <v>0.180919</v>
       </c>
       <c r="C15" t="n">
-        <v>0.152386</v>
+        <v>0.154431</v>
       </c>
       <c r="D15" t="n">
-        <v>0.149441</v>
+        <v>0.174922</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.173852</v>
+        <v>0.184627</v>
       </c>
       <c r="C16" t="n">
-        <v>0.141963</v>
+        <v>0.152413</v>
       </c>
       <c r="D16" t="n">
-        <v>0.147753</v>
+        <v>0.168047</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.169145</v>
+        <v>0.174736</v>
       </c>
       <c r="C17" t="n">
-        <v>0.135682</v>
+        <v>0.146566</v>
       </c>
       <c r="D17" t="n">
-        <v>0.136946</v>
+        <v>0.162474</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.163068</v>
+        <v>0.168554</v>
       </c>
       <c r="C18" t="n">
-        <v>0.137339</v>
+        <v>0.142332</v>
       </c>
       <c r="D18" t="n">
-        <v>0.137216</v>
+        <v>0.16808</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.160478</v>
+        <v>0.164004</v>
       </c>
       <c r="C19" t="n">
-        <v>0.128206</v>
+        <v>0.138436</v>
       </c>
       <c r="D19" t="n">
-        <v>0.134426</v>
+        <v>0.160678</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.155836</v>
+        <v>0.163244</v>
       </c>
       <c r="C20" t="n">
-        <v>0.125352</v>
+        <v>0.131522</v>
       </c>
       <c r="D20" t="n">
-        <v>0.129922</v>
+        <v>0.157393</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.153151</v>
+        <v>0.159287</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121008</v>
+        <v>0.130622</v>
       </c>
       <c r="D21" t="n">
-        <v>0.126294</v>
+        <v>0.156473</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.153984</v>
+        <v>0.162003</v>
       </c>
       <c r="C22" t="n">
-        <v>0.120994</v>
+        <v>0.127299</v>
       </c>
       <c r="D22" t="n">
-        <v>0.128898</v>
+        <v>0.157453</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.159753</v>
+        <v>0.162684</v>
       </c>
       <c r="C23" t="n">
-        <v>0.124298</v>
+        <v>0.130212</v>
       </c>
       <c r="D23" t="n">
-        <v>0.226959</v>
+        <v>0.163448</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.235776</v>
+        <v>0.237205</v>
       </c>
       <c r="C24" t="n">
-        <v>0.212057</v>
+        <v>0.212356</v>
       </c>
       <c r="D24" t="n">
-        <v>0.218765</v>
+        <v>0.253071</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.225424</v>
+        <v>0.230593</v>
       </c>
       <c r="C25" t="n">
-        <v>0.204887</v>
+        <v>0.204087</v>
       </c>
       <c r="D25" t="n">
-        <v>0.209003</v>
+        <v>0.243144</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.221814</v>
+        <v>0.224425</v>
       </c>
       <c r="C26" t="n">
-        <v>0.195609</v>
+        <v>0.195672</v>
       </c>
       <c r="D26" t="n">
-        <v>0.196631</v>
+        <v>0.235276</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.20515</v>
+        <v>0.21926</v>
       </c>
       <c r="C27" t="n">
-        <v>0.188527</v>
+        <v>0.190788</v>
       </c>
       <c r="D27" t="n">
-        <v>0.186649</v>
+        <v>0.238239</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.200375</v>
+        <v>0.214398</v>
       </c>
       <c r="C28" t="n">
-        <v>0.18162</v>
+        <v>0.184481</v>
       </c>
       <c r="D28" t="n">
-        <v>0.183324</v>
+        <v>0.220796</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.192857</v>
+        <v>0.230313</v>
       </c>
       <c r="C29" t="n">
-        <v>0.175479</v>
+        <v>0.191689</v>
       </c>
       <c r="D29" t="n">
-        <v>0.17484</v>
+        <v>0.226887</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.186031</v>
+        <v>0.218905</v>
       </c>
       <c r="C30" t="n">
-        <v>0.169164</v>
+        <v>0.188116</v>
       </c>
       <c r="D30" t="n">
-        <v>0.16709</v>
+        <v>0.218802</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.181688</v>
+        <v>0.211495</v>
       </c>
       <c r="C31" t="n">
-        <v>0.163084</v>
+        <v>0.181677</v>
       </c>
       <c r="D31" t="n">
-        <v>0.164372</v>
+        <v>0.211965</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.175123</v>
+        <v>0.207844</v>
       </c>
       <c r="C32" t="n">
-        <v>0.158181</v>
+        <v>0.175486</v>
       </c>
       <c r="D32" t="n">
-        <v>0.157478</v>
+        <v>0.203701</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.172784</v>
+        <v>0.178434</v>
       </c>
       <c r="C33" t="n">
-        <v>0.153675</v>
+        <v>0.153405</v>
       </c>
       <c r="D33" t="n">
-        <v>0.151802</v>
+        <v>0.176622</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.170343</v>
+        <v>0.173382</v>
       </c>
       <c r="C34" t="n">
-        <v>0.149343</v>
+        <v>0.148891</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1507</v>
+        <v>0.176823</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.165777</v>
+        <v>0.17306</v>
       </c>
       <c r="C35" t="n">
-        <v>0.145968</v>
+        <v>0.145539</v>
       </c>
       <c r="D35" t="n">
-        <v>0.146986</v>
+        <v>0.171771</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.167643</v>
+        <v>0.168305</v>
       </c>
       <c r="C36" t="n">
-        <v>0.144749</v>
+        <v>0.143821</v>
       </c>
       <c r="D36" t="n">
-        <v>0.145993</v>
+        <v>0.171855</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.16764</v>
+        <v>0.17148</v>
       </c>
       <c r="C37" t="n">
-        <v>0.142867</v>
+        <v>0.143016</v>
       </c>
       <c r="D37" t="n">
-        <v>0.225673</v>
+        <v>0.173614</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.240581</v>
+        <v>0.24401</v>
       </c>
       <c r="C38" t="n">
-        <v>0.219826</v>
+        <v>0.219433</v>
       </c>
       <c r="D38" t="n">
-        <v>0.218824</v>
+        <v>0.259547</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.230402</v>
+        <v>0.235452</v>
       </c>
       <c r="C39" t="n">
-        <v>0.211445</v>
+        <v>0.210872</v>
       </c>
       <c r="D39" t="n">
-        <v>0.20778</v>
+        <v>0.251759</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.223831</v>
+        <v>0.226877</v>
       </c>
       <c r="C40" t="n">
-        <v>0.202844</v>
+        <v>0.202288</v>
       </c>
       <c r="D40" t="n">
-        <v>0.199626</v>
+        <v>0.241423</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.214753</v>
+        <v>0.217231</v>
       </c>
       <c r="C41" t="n">
-        <v>0.195733</v>
+        <v>0.194871</v>
       </c>
       <c r="D41" t="n">
-        <v>0.193359</v>
+        <v>0.231354</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.207781</v>
+        <v>0.210367</v>
       </c>
       <c r="C42" t="n">
-        <v>0.18807</v>
+        <v>0.187686</v>
       </c>
       <c r="D42" t="n">
-        <v>0.185937</v>
+        <v>0.221515</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.200376</v>
+        <v>0.203861</v>
       </c>
       <c r="C43" t="n">
-        <v>0.18107</v>
+        <v>0.181007</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178228</v>
+        <v>0.213027</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.194874</v>
+        <v>0.196791</v>
       </c>
       <c r="C44" t="n">
-        <v>0.174745</v>
+        <v>0.174151</v>
       </c>
       <c r="D44" t="n">
-        <v>0.172979</v>
+        <v>0.206174</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.187571</v>
+        <v>0.191564</v>
       </c>
       <c r="C45" t="n">
-        <v>0.168846</v>
+        <v>0.168433</v>
       </c>
       <c r="D45" t="n">
-        <v>0.168489</v>
+        <v>0.198931</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.183845</v>
+        <v>0.185361</v>
       </c>
       <c r="C46" t="n">
-        <v>0.16333</v>
+        <v>0.163388</v>
       </c>
       <c r="D46" t="n">
-        <v>0.161369</v>
+        <v>0.190362</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.181257</v>
+        <v>0.180571</v>
       </c>
       <c r="C47" t="n">
-        <v>0.160763</v>
+        <v>0.158358</v>
       </c>
       <c r="D47" t="n">
-        <v>0.15687</v>
+        <v>0.184716</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.17566</v>
+        <v>0.176646</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154354</v>
+        <v>0.153985</v>
       </c>
       <c r="D48" t="n">
-        <v>0.153661</v>
+        <v>0.180291</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172355</v>
+        <v>0.173799</v>
       </c>
       <c r="C49" t="n">
-        <v>0.150306</v>
+        <v>0.150838</v>
       </c>
       <c r="D49" t="n">
-        <v>0.151516</v>
+        <v>0.177301</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.170786</v>
+        <v>0.172941</v>
       </c>
       <c r="C50" t="n">
-        <v>0.148312</v>
+        <v>0.147892</v>
       </c>
       <c r="D50" t="n">
-        <v>0.149869</v>
+        <v>0.175723</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172075</v>
+        <v>0.173558</v>
       </c>
       <c r="C51" t="n">
-        <v>0.147042</v>
+        <v>0.147013</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232441</v>
+        <v>0.176167</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17472</v>
+        <v>0.176337</v>
       </c>
       <c r="C52" t="n">
-        <v>0.148181</v>
+        <v>0.147953</v>
       </c>
       <c r="D52" t="n">
-        <v>0.222099</v>
+        <v>0.179482</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240154</v>
+        <v>0.242768</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218287</v>
+        <v>0.218903</v>
       </c>
       <c r="D53" t="n">
-        <v>0.214119</v>
+        <v>0.256913</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.231716</v>
+        <v>0.233696</v>
       </c>
       <c r="C54" t="n">
-        <v>0.209998</v>
+        <v>0.20983</v>
       </c>
       <c r="D54" t="n">
-        <v>0.205595</v>
+        <v>0.246471</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.224312</v>
+        <v>0.225382</v>
       </c>
       <c r="C55" t="n">
-        <v>0.201624</v>
+        <v>0.202349</v>
       </c>
       <c r="D55" t="n">
-        <v>0.19813</v>
+        <v>0.236611</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.215374</v>
+        <v>0.217954</v>
       </c>
       <c r="C56" t="n">
-        <v>0.19456</v>
+        <v>0.194476</v>
       </c>
       <c r="D56" t="n">
-        <v>0.19099</v>
+        <v>0.227092</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208168</v>
+        <v>0.209918</v>
       </c>
       <c r="C57" t="n">
-        <v>0.187872</v>
+        <v>0.187296</v>
       </c>
       <c r="D57" t="n">
-        <v>0.183935</v>
+        <v>0.218118</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.201888</v>
+        <v>0.203171</v>
       </c>
       <c r="C58" t="n">
-        <v>0.181599</v>
+        <v>0.180627</v>
       </c>
       <c r="D58" t="n">
-        <v>0.18038</v>
+        <v>0.211065</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.197741</v>
+        <v>0.196805</v>
       </c>
       <c r="C59" t="n">
-        <v>0.177319</v>
+        <v>0.174761</v>
       </c>
       <c r="D59" t="n">
-        <v>0.17464</v>
+        <v>0.202575</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.191983</v>
+        <v>0.190978</v>
       </c>
       <c r="C60" t="n">
-        <v>0.171283</v>
+        <v>0.16893</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1687</v>
+        <v>0.196037</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.186898</v>
+        <v>0.185631</v>
       </c>
       <c r="C61" t="n">
-        <v>0.165856</v>
+        <v>0.163792</v>
       </c>
       <c r="D61" t="n">
-        <v>0.163971</v>
+        <v>0.190608</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.182721</v>
+        <v>0.181641</v>
       </c>
       <c r="C62" t="n">
-        <v>0.161277</v>
+        <v>0.159273</v>
       </c>
       <c r="D62" t="n">
-        <v>0.159918</v>
+        <v>0.185611</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.179587</v>
+        <v>0.178473</v>
       </c>
       <c r="C63" t="n">
-        <v>0.157475</v>
+        <v>0.155324</v>
       </c>
       <c r="D63" t="n">
-        <v>0.156678</v>
+        <v>0.182008</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.178146</v>
+        <v>0.176898</v>
       </c>
       <c r="C64" t="n">
-        <v>0.154411</v>
+        <v>0.1526</v>
       </c>
       <c r="D64" t="n">
-        <v>0.155179</v>
+        <v>0.179991</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178193</v>
+        <v>0.176638</v>
       </c>
       <c r="C65" t="n">
-        <v>0.152703</v>
+        <v>0.151127</v>
       </c>
       <c r="D65" t="n">
-        <v>0.15542</v>
+        <v>0.180455</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180923</v>
+        <v>0.179984</v>
       </c>
       <c r="C66" t="n">
-        <v>0.153275</v>
+        <v>0.151581</v>
       </c>
       <c r="D66" t="n">
-        <v>0.234476</v>
+        <v>0.183635</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244957</v>
+        <v>0.239958</v>
       </c>
       <c r="C67" t="n">
-        <v>0.231179</v>
+        <v>0.227848</v>
       </c>
       <c r="D67" t="n">
-        <v>0.221749</v>
+        <v>0.267525</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235427</v>
+        <v>0.235266</v>
       </c>
       <c r="C68" t="n">
-        <v>0.218914</v>
+        <v>0.219191</v>
       </c>
       <c r="D68" t="n">
-        <v>0.213103</v>
+        <v>0.256716</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.227418</v>
+        <v>0.22714</v>
       </c>
       <c r="C69" t="n">
-        <v>0.210441</v>
+        <v>0.211182</v>
       </c>
       <c r="D69" t="n">
-        <v>0.205321</v>
+        <v>0.246822</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219305</v>
+        <v>0.219931</v>
       </c>
       <c r="C70" t="n">
-        <v>0.202471</v>
+        <v>0.203195</v>
       </c>
       <c r="D70" t="n">
-        <v>0.197107</v>
+        <v>0.235328</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.212271</v>
+        <v>0.213239</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195272</v>
+        <v>0.195704</v>
       </c>
       <c r="D71" t="n">
-        <v>0.190604</v>
+        <v>0.227829</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205607</v>
+        <v>0.205836</v>
       </c>
       <c r="C72" t="n">
-        <v>0.18839</v>
+        <v>0.191576</v>
       </c>
       <c r="D72" t="n">
-        <v>0.183905</v>
+        <v>0.222489</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199902</v>
+        <v>0.200236</v>
       </c>
       <c r="C73" t="n">
-        <v>0.181818</v>
+        <v>0.184985</v>
       </c>
       <c r="D73" t="n">
-        <v>0.177624</v>
+        <v>0.222358</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193968</v>
+        <v>0.205907</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175616</v>
+        <v>0.185325</v>
       </c>
       <c r="D74" t="n">
-        <v>0.171437</v>
+        <v>0.213081</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188622</v>
+        <v>0.195827</v>
       </c>
       <c r="C75" t="n">
-        <v>0.17024</v>
+        <v>0.175023</v>
       </c>
       <c r="D75" t="n">
-        <v>0.166647</v>
+        <v>0.200298</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.18417</v>
+        <v>0.185247</v>
       </c>
       <c r="C76" t="n">
-        <v>0.165329</v>
+        <v>0.167466</v>
       </c>
       <c r="D76" t="n">
-        <v>0.162704</v>
+        <v>0.194149</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.180585</v>
+        <v>0.181241</v>
       </c>
       <c r="C77" t="n">
-        <v>0.161122</v>
+        <v>0.1631</v>
       </c>
       <c r="D77" t="n">
-        <v>0.159281</v>
+        <v>0.189476</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.178305</v>
+        <v>0.178851</v>
       </c>
       <c r="C78" t="n">
-        <v>0.157987</v>
+        <v>0.159695</v>
       </c>
       <c r="D78" t="n">
-        <v>0.156161</v>
+        <v>0.187304</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178418</v>
+        <v>0.179409</v>
       </c>
       <c r="C79" t="n">
-        <v>0.155954</v>
+        <v>0.157677</v>
       </c>
       <c r="D79" t="n">
-        <v>0.157513</v>
+        <v>0.186643</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.180322</v>
+        <v>0.181685</v>
       </c>
       <c r="C80" t="n">
-        <v>0.155537</v>
+        <v>0.15722</v>
       </c>
       <c r="D80" t="n">
-        <v>0.234278</v>
+        <v>0.188671</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257</v>
+        <v>0.257883</v>
       </c>
       <c r="C81" t="n">
-        <v>0.231051</v>
+        <v>0.231392</v>
       </c>
       <c r="D81" t="n">
-        <v>0.226379</v>
+        <v>0.270909</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249717</v>
+        <v>0.270141</v>
       </c>
       <c r="C82" t="n">
-        <v>0.223582</v>
+        <v>0.244353</v>
       </c>
       <c r="D82" t="n">
-        <v>0.218187</v>
+        <v>0.293805</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242083</v>
+        <v>0.281338</v>
       </c>
       <c r="C83" t="n">
-        <v>0.215702</v>
+        <v>0.254767</v>
       </c>
       <c r="D83" t="n">
-        <v>0.209905</v>
+        <v>0.291429</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.234705</v>
+        <v>0.281454</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208147</v>
+        <v>0.249443</v>
       </c>
       <c r="D84" t="n">
-        <v>0.202533</v>
+        <v>0.281085</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.226867</v>
+        <v>0.276808</v>
       </c>
       <c r="C85" t="n">
-        <v>0.200882</v>
+        <v>0.242</v>
       </c>
       <c r="D85" t="n">
-        <v>0.19545</v>
+        <v>0.267879</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220577</v>
+        <v>0.219782</v>
       </c>
       <c r="C86" t="n">
-        <v>0.194468</v>
+        <v>0.194004</v>
       </c>
       <c r="D86" t="n">
-        <v>0.189506</v>
+        <v>0.224142</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213988</v>
+        <v>0.213663</v>
       </c>
       <c r="C87" t="n">
-        <v>0.189271</v>
+        <v>0.187975</v>
       </c>
       <c r="D87" t="n">
-        <v>0.18372</v>
+        <v>0.215996</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207572</v>
+        <v>0.208013</v>
       </c>
       <c r="C88" t="n">
-        <v>0.182843</v>
+        <v>0.182064</v>
       </c>
       <c r="D88" t="n">
-        <v>0.177652</v>
+        <v>0.207979</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.202054</v>
+        <v>0.201638</v>
       </c>
       <c r="C89" t="n">
-        <v>0.177184</v>
+        <v>0.176509</v>
       </c>
       <c r="D89" t="n">
-        <v>0.172003</v>
+        <v>0.201835</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19648</v>
+        <v>0.196653</v>
       </c>
       <c r="C90" t="n">
-        <v>0.172408</v>
+        <v>0.171132</v>
       </c>
       <c r="D90" t="n">
-        <v>0.167872</v>
+        <v>0.196215</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192472</v>
+        <v>0.192916</v>
       </c>
       <c r="C91" t="n">
-        <v>0.167941</v>
+        <v>0.167052</v>
       </c>
       <c r="D91" t="n">
-        <v>0.164277</v>
+        <v>0.19222</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18963</v>
+        <v>0.190059</v>
       </c>
       <c r="C92" t="n">
-        <v>0.16443</v>
+        <v>0.16368</v>
       </c>
       <c r="D92" t="n">
-        <v>0.162261</v>
+        <v>0.189149</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188719</v>
+        <v>0.188917</v>
       </c>
       <c r="C93" t="n">
-        <v>0.162581</v>
+        <v>0.161062</v>
       </c>
       <c r="D93" t="n">
-        <v>0.162185</v>
+        <v>0.188158</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190863</v>
+        <v>0.189864</v>
       </c>
       <c r="C94" t="n">
-        <v>0.16045</v>
+        <v>0.16061</v>
       </c>
       <c r="D94" t="n">
-        <v>0.251863</v>
+        <v>0.189522</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.270564</v>
+        <v>0.270735</v>
       </c>
       <c r="C95" t="n">
-        <v>0.248002</v>
+        <v>0.247777</v>
       </c>
       <c r="D95" t="n">
-        <v>0.244026</v>
+        <v>0.286522</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.264891</v>
+        <v>0.264769</v>
       </c>
       <c r="C96" t="n">
-        <v>0.241308</v>
+        <v>0.24136</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236378</v>
+        <v>0.277672</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257644</v>
+        <v>0.257956</v>
       </c>
       <c r="C97" t="n">
-        <v>0.233478</v>
+        <v>0.23313</v>
       </c>
       <c r="D97" t="n">
-        <v>0.228641</v>
+        <v>0.267966</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251431</v>
+        <v>0.251389</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227526</v>
+        <v>0.227484</v>
       </c>
       <c r="D98" t="n">
-        <v>0.22092</v>
+        <v>0.259609</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245091</v>
+        <v>0.244709</v>
       </c>
       <c r="C99" t="n">
-        <v>0.219946</v>
+        <v>0.220196</v>
       </c>
       <c r="D99" t="n">
-        <v>0.213377</v>
+        <v>0.250777</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.23877</v>
+        <v>0.23862</v>
       </c>
       <c r="C100" t="n">
-        <v>0.212744</v>
+        <v>0.213063</v>
       </c>
       <c r="D100" t="n">
-        <v>0.207354</v>
+        <v>0.242743</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233217</v>
+        <v>0.233102</v>
       </c>
       <c r="C101" t="n">
-        <v>0.206366</v>
+        <v>0.205479</v>
       </c>
       <c r="D101" t="n">
-        <v>0.200415</v>
+        <v>0.234326</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227466</v>
+        <v>0.227682</v>
       </c>
       <c r="C102" t="n">
-        <v>0.200404</v>
+        <v>0.201442</v>
       </c>
       <c r="D102" t="n">
-        <v>0.194512</v>
+        <v>0.227198</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222801</v>
+        <v>0.222486</v>
       </c>
       <c r="C103" t="n">
-        <v>0.195672</v>
+        <v>0.195799</v>
       </c>
       <c r="D103" t="n">
-        <v>0.189318</v>
+        <v>0.220075</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218033</v>
+        <v>0.218032</v>
       </c>
       <c r="C104" t="n">
-        <v>0.190098</v>
+        <v>0.190276</v>
       </c>
       <c r="D104" t="n">
-        <v>0.184738</v>
+        <v>0.213912</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214078</v>
+        <v>0.213945</v>
       </c>
       <c r="C105" t="n">
-        <v>0.185971</v>
+        <v>0.186499</v>
       </c>
       <c r="D105" t="n">
-        <v>0.18099</v>
+        <v>0.209178</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210888</v>
+        <v>0.210694</v>
       </c>
       <c r="C106" t="n">
-        <v>0.182993</v>
+        <v>0.182902</v>
       </c>
       <c r="D106" t="n">
-        <v>0.177971</v>
+        <v>0.204966</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.20884</v>
+        <v>0.208935</v>
       </c>
       <c r="C107" t="n">
-        <v>0.180147</v>
+        <v>0.179862</v>
       </c>
       <c r="D107" t="n">
-        <v>0.176982</v>
+        <v>0.204193</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208563</v>
+        <v>0.208444</v>
       </c>
       <c r="C108" t="n">
-        <v>0.178823</v>
+        <v>0.179594</v>
       </c>
       <c r="D108" t="n">
-        <v>0.26825</v>
+        <v>0.203874</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.21038</v>
+        <v>0.210648</v>
       </c>
       <c r="C109" t="n">
-        <v>0.179596</v>
+        <v>0.179716</v>
       </c>
       <c r="D109" t="n">
-        <v>0.261737</v>
+        <v>0.207751</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.284283</v>
+        <v>0.284548</v>
       </c>
       <c r="C110" t="n">
-        <v>0.260182</v>
+        <v>0.260591</v>
       </c>
       <c r="D110" t="n">
-        <v>0.253895</v>
+        <v>0.293509</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277882</v>
+        <v>0.27764</v>
       </c>
       <c r="C111" t="n">
-        <v>0.252746</v>
+        <v>0.252372</v>
       </c>
       <c r="D111" t="n">
-        <v>0.245489</v>
+        <v>0.284502</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.271901</v>
+        <v>0.271681</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245055</v>
+        <v>0.245418</v>
       </c>
       <c r="D112" t="n">
-        <v>0.238637</v>
+        <v>0.274835</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266203</v>
+        <v>0.265621</v>
       </c>
       <c r="C113" t="n">
-        <v>0.238318</v>
+        <v>0.237888</v>
       </c>
       <c r="D113" t="n">
-        <v>0.231756</v>
+        <v>0.266904</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260541</v>
+        <v>0.259876</v>
       </c>
       <c r="C114" t="n">
-        <v>0.23227</v>
+        <v>0.231246</v>
       </c>
       <c r="D114" t="n">
-        <v>0.225381</v>
+        <v>0.259017</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.25488</v>
+        <v>0.255256</v>
       </c>
       <c r="C115" t="n">
-        <v>0.226345</v>
+        <v>0.225951</v>
       </c>
       <c r="D115" t="n">
-        <v>0.219187</v>
+        <v>0.251157</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250349</v>
+        <v>0.249815</v>
       </c>
       <c r="C116" t="n">
-        <v>0.220998</v>
+        <v>0.220479</v>
       </c>
       <c r="D116" t="n">
-        <v>0.213707</v>
+        <v>0.243903</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.245749</v>
+        <v>0.245574</v>
       </c>
       <c r="C117" t="n">
-        <v>0.215829</v>
+        <v>0.214676</v>
       </c>
       <c r="D117" t="n">
-        <v>0.20759</v>
+        <v>0.237144</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241407</v>
+        <v>0.241167</v>
       </c>
       <c r="C118" t="n">
-        <v>0.210443</v>
+        <v>0.210253</v>
       </c>
       <c r="D118" t="n">
-        <v>0.204187</v>
+        <v>0.231558</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237884</v>
+        <v>0.237399</v>
       </c>
       <c r="C119" t="n">
-        <v>0.20663</v>
+        <v>0.205947</v>
       </c>
       <c r="D119" t="n">
-        <v>0.20012</v>
+        <v>0.22685</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234748</v>
+        <v>0.234278</v>
       </c>
       <c r="C120" t="n">
-        <v>0.203045</v>
+        <v>0.202373</v>
       </c>
       <c r="D120" t="n">
-        <v>0.197246</v>
+        <v>0.222042</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232337</v>
+        <v>0.232025</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200237</v>
+        <v>0.199834</v>
       </c>
       <c r="D121" t="n">
-        <v>0.195166</v>
+        <v>0.219959</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.23203</v>
+        <v>0.230952</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199097</v>
+        <v>0.198185</v>
       </c>
       <c r="D122" t="n">
-        <v>0.196281</v>
+        <v>0.21971</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232453</v>
+        <v>0.232301</v>
       </c>
       <c r="C123" t="n">
-        <v>0.199091</v>
+        <v>0.198721</v>
       </c>
       <c r="D123" t="n">
-        <v>0.280985</v>
+        <v>0.221718</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.313695</v>
+        <v>0.313315</v>
       </c>
       <c r="C124" t="n">
-        <v>0.280831</v>
+        <v>0.279613</v>
       </c>
       <c r="D124" t="n">
-        <v>0.274973</v>
+        <v>0.311197</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.307852</v>
+        <v>0.308535</v>
       </c>
       <c r="C125" t="n">
-        <v>0.274244</v>
+        <v>0.273985</v>
       </c>
       <c r="D125" t="n">
-        <v>0.268901</v>
+        <v>0.303087</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.302118</v>
+        <v>0.301676</v>
       </c>
       <c r="C126" t="n">
-        <v>0.268411</v>
+        <v>0.267321</v>
       </c>
       <c r="D126" t="n">
-        <v>0.263309</v>
+        <v>0.294124</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.296567</v>
+        <v>0.29662</v>
       </c>
       <c r="C127" t="n">
-        <v>0.262594</v>
+        <v>0.261947</v>
       </c>
       <c r="D127" t="n">
-        <v>0.257654</v>
+        <v>0.289428</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.292382</v>
+        <v>0.291845</v>
       </c>
       <c r="C128" t="n">
-        <v>0.257267</v>
+        <v>0.256821</v>
       </c>
       <c r="D128" t="n">
-        <v>0.252841</v>
+        <v>0.281886</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.287703</v>
+        <v>0.287184</v>
       </c>
       <c r="C129" t="n">
-        <v>0.252048</v>
+        <v>0.250682</v>
       </c>
       <c r="D129" t="n">
-        <v>0.247525</v>
+        <v>0.275905</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.283926</v>
+        <v>0.28323</v>
       </c>
       <c r="C130" t="n">
-        <v>0.24755</v>
+        <v>0.246704</v>
       </c>
       <c r="D130" t="n">
-        <v>0.243697</v>
+        <v>0.269519</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.279534</v>
+        <v>0.279205</v>
       </c>
       <c r="C131" t="n">
-        <v>0.243164</v>
+        <v>0.242086</v>
       </c>
       <c r="D131" t="n">
-        <v>0.239119</v>
+        <v>0.264056</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.275538</v>
+        <v>0.275633</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238954</v>
+        <v>0.23868</v>
       </c>
       <c r="D132" t="n">
-        <v>0.235126</v>
+        <v>0.259715</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273124</v>
+        <v>0.272197</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235241</v>
+        <v>0.235287</v>
       </c>
       <c r="D133" t="n">
-        <v>0.232392</v>
+        <v>0.255482</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.270385</v>
+        <v>0.270008</v>
       </c>
       <c r="C134" t="n">
-        <v>0.232467</v>
+        <v>0.231857</v>
       </c>
       <c r="D134" t="n">
-        <v>0.229474</v>
+        <v>0.251553</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.268804</v>
+        <v>0.26812</v>
       </c>
       <c r="C135" t="n">
-        <v>0.229647</v>
+        <v>0.229676</v>
       </c>
       <c r="D135" t="n">
-        <v>0.228869</v>
+        <v>0.249024</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.267728</v>
+        <v>0.267346</v>
       </c>
       <c r="C136" t="n">
-        <v>0.228816</v>
+        <v>0.228024</v>
       </c>
       <c r="D136" t="n">
-        <v>0.228064</v>
+        <v>0.248202</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.268476</v>
+        <v>0.268071</v>
       </c>
       <c r="C137" t="n">
-        <v>0.228568</v>
+        <v>0.228398</v>
       </c>
       <c r="D137" t="n">
-        <v>0.320289</v>
+        <v>0.249919</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.361838</v>
+        <v>0.353671</v>
       </c>
       <c r="C138" t="n">
-        <v>0.31748</v>
+        <v>0.319371</v>
       </c>
       <c r="D138" t="n">
-        <v>0.314904</v>
+        <v>0.348227</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.356315</v>
+        <v>0.34507</v>
       </c>
       <c r="C139" t="n">
-        <v>0.312089</v>
+        <v>0.311926</v>
       </c>
       <c r="D139" t="n">
-        <v>0.309272</v>
+        <v>0.341392</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.351641</v>
+        <v>0.341964</v>
       </c>
       <c r="C140" t="n">
-        <v>0.306644</v>
+        <v>0.307515</v>
       </c>
       <c r="D140" t="n">
-        <v>0.304547</v>
+        <v>0.335476</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.346234</v>
+        <v>0.339124</v>
       </c>
       <c r="C141" t="n">
-        <v>0.300488</v>
+        <v>0.316264</v>
       </c>
       <c r="D141" t="n">
-        <v>0.29945</v>
+        <v>0.338249</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.341377</v>
+        <v>0.343318</v>
       </c>
       <c r="C142" t="n">
-        <v>0.295556</v>
+        <v>0.298483</v>
       </c>
       <c r="D142" t="n">
-        <v>0.295456</v>
+        <v>0.324408</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.337847</v>
+        <v>0.328596</v>
       </c>
       <c r="C143" t="n">
-        <v>0.290674</v>
+        <v>0.292014</v>
       </c>
       <c r="D143" t="n">
-        <v>0.290125</v>
+        <v>0.316854</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.153282</v>
+        <v>0.165879</v>
       </c>
       <c r="C2" t="n">
-        <v>0.146462</v>
+        <v>0.138929</v>
       </c>
       <c r="D2" t="n">
-        <v>0.154418</v>
+        <v>0.152881</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.159684</v>
+        <v>0.160399</v>
       </c>
       <c r="C3" t="n">
-        <v>0.140822</v>
+        <v>0.13983</v>
       </c>
       <c r="D3" t="n">
-        <v>0.144813</v>
+        <v>0.139916</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.165802</v>
+        <v>0.15049</v>
       </c>
       <c r="C4" t="n">
-        <v>0.129541</v>
+        <v>0.124738</v>
       </c>
       <c r="D4" t="n">
-        <v>0.143595</v>
+        <v>0.136468</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.15259</v>
+        <v>0.148559</v>
       </c>
       <c r="C5" t="n">
-        <v>0.128508</v>
+        <v>0.124672</v>
       </c>
       <c r="D5" t="n">
-        <v>0.143202</v>
+        <v>0.135618</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.153467</v>
+        <v>0.154652</v>
       </c>
       <c r="C6" t="n">
-        <v>0.115498</v>
+        <v>0.115132</v>
       </c>
       <c r="D6" t="n">
-        <v>0.132622</v>
+        <v>0.137294</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.150217</v>
+        <v>0.156337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.119972</v>
+        <v>0.113856</v>
       </c>
       <c r="D7" t="n">
-        <v>0.131183</v>
+        <v>0.127376</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.149499</v>
+        <v>0.153607</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117509</v>
+        <v>0.11224</v>
       </c>
       <c r="D8" t="n">
-        <v>0.13346</v>
+        <v>0.131553</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150776</v>
+        <v>0.148916</v>
       </c>
       <c r="C9" t="n">
-        <v>0.116322</v>
+        <v>0.105927</v>
       </c>
       <c r="D9" t="n">
-        <v>0.13964</v>
+        <v>0.129871</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.219125</v>
+        <v>0.208798</v>
       </c>
       <c r="C10" t="n">
-        <v>0.178501</v>
+        <v>0.181878</v>
       </c>
       <c r="D10" t="n">
-        <v>0.215829</v>
+        <v>0.208886</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.216205</v>
+        <v>0.199714</v>
       </c>
       <c r="C11" t="n">
-        <v>0.176499</v>
+        <v>0.176852</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2031</v>
+        <v>0.203369</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.20006</v>
+        <v>0.200245</v>
       </c>
       <c r="C12" t="n">
-        <v>0.168699</v>
+        <v>0.164962</v>
       </c>
       <c r="D12" t="n">
-        <v>0.195012</v>
+        <v>0.19648</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.200705</v>
+        <v>0.19424</v>
       </c>
       <c r="C13" t="n">
-        <v>0.168366</v>
+        <v>0.164029</v>
       </c>
       <c r="D13" t="n">
-        <v>0.197327</v>
+        <v>0.184095</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.196483</v>
+        <v>0.181706</v>
       </c>
       <c r="C14" t="n">
-        <v>0.164404</v>
+        <v>0.158092</v>
       </c>
       <c r="D14" t="n">
-        <v>0.191018</v>
+        <v>0.180566</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.180919</v>
+        <v>0.184331</v>
       </c>
       <c r="C15" t="n">
-        <v>0.154431</v>
+        <v>0.154727</v>
       </c>
       <c r="D15" t="n">
-        <v>0.174922</v>
+        <v>0.181735</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.184627</v>
+        <v>0.17903</v>
       </c>
       <c r="C16" t="n">
-        <v>0.152413</v>
+        <v>0.149887</v>
       </c>
       <c r="D16" t="n">
-        <v>0.168047</v>
+        <v>0.174689</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.174736</v>
+        <v>0.176153</v>
       </c>
       <c r="C17" t="n">
-        <v>0.146566</v>
+        <v>0.146278</v>
       </c>
       <c r="D17" t="n">
-        <v>0.162474</v>
+        <v>0.169963</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.168554</v>
+        <v>0.16905</v>
       </c>
       <c r="C18" t="n">
-        <v>0.142332</v>
+        <v>0.139302</v>
       </c>
       <c r="D18" t="n">
-        <v>0.16808</v>
+        <v>0.164478</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.164004</v>
+        <v>0.164911</v>
       </c>
       <c r="C19" t="n">
-        <v>0.138436</v>
+        <v>0.134541</v>
       </c>
       <c r="D19" t="n">
-        <v>0.160678</v>
+        <v>0.156223</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.163244</v>
+        <v>0.162054</v>
       </c>
       <c r="C20" t="n">
-        <v>0.131522</v>
+        <v>0.132989</v>
       </c>
       <c r="D20" t="n">
-        <v>0.157393</v>
+        <v>0.157869</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.159287</v>
+        <v>0.161369</v>
       </c>
       <c r="C21" t="n">
-        <v>0.130622</v>
+        <v>0.129445</v>
       </c>
       <c r="D21" t="n">
-        <v>0.156473</v>
+        <v>0.156983</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.162003</v>
+        <v>0.160323</v>
       </c>
       <c r="C22" t="n">
-        <v>0.127299</v>
+        <v>0.128176</v>
       </c>
       <c r="D22" t="n">
-        <v>0.157453</v>
+        <v>0.156894</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162684</v>
+        <v>0.163492</v>
       </c>
       <c r="C23" t="n">
-        <v>0.130212</v>
+        <v>0.124433</v>
       </c>
       <c r="D23" t="n">
-        <v>0.163448</v>
+        <v>0.160399</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.237205</v>
+        <v>0.249466</v>
       </c>
       <c r="C24" t="n">
-        <v>0.212356</v>
+        <v>0.211153</v>
       </c>
       <c r="D24" t="n">
-        <v>0.253071</v>
+        <v>0.255848</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.230593</v>
+        <v>0.234491</v>
       </c>
       <c r="C25" t="n">
-        <v>0.204087</v>
+        <v>0.203483</v>
       </c>
       <c r="D25" t="n">
-        <v>0.243144</v>
+        <v>0.245646</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224425</v>
+        <v>0.220846</v>
       </c>
       <c r="C26" t="n">
-        <v>0.195672</v>
+        <v>0.197698</v>
       </c>
       <c r="D26" t="n">
-        <v>0.235276</v>
+        <v>0.234351</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.21926</v>
+        <v>0.2105</v>
       </c>
       <c r="C27" t="n">
-        <v>0.190788</v>
+        <v>0.187684</v>
       </c>
       <c r="D27" t="n">
-        <v>0.238239</v>
+        <v>0.224018</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.214398</v>
+        <v>0.20433</v>
       </c>
       <c r="C28" t="n">
-        <v>0.184481</v>
+        <v>0.180413</v>
       </c>
       <c r="D28" t="n">
-        <v>0.220796</v>
+        <v>0.21515</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.230313</v>
+        <v>0.201181</v>
       </c>
       <c r="C29" t="n">
-        <v>0.191689</v>
+        <v>0.173978</v>
       </c>
       <c r="D29" t="n">
-        <v>0.226887</v>
+        <v>0.208178</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.218905</v>
+        <v>0.194536</v>
       </c>
       <c r="C30" t="n">
-        <v>0.188116</v>
+        <v>0.16818</v>
       </c>
       <c r="D30" t="n">
-        <v>0.218802</v>
+        <v>0.199846</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211495</v>
+        <v>0.184152</v>
       </c>
       <c r="C31" t="n">
-        <v>0.181677</v>
+        <v>0.162415</v>
       </c>
       <c r="D31" t="n">
-        <v>0.211965</v>
+        <v>0.192384</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.207844</v>
+        <v>0.182316</v>
       </c>
       <c r="C32" t="n">
-        <v>0.175486</v>
+        <v>0.157267</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203701</v>
+        <v>0.1858</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.178434</v>
+        <v>0.178076</v>
       </c>
       <c r="C33" t="n">
-        <v>0.153405</v>
+        <v>0.152876</v>
       </c>
       <c r="D33" t="n">
-        <v>0.176622</v>
+        <v>0.181046</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.173382</v>
+        <v>0.174029</v>
       </c>
       <c r="C34" t="n">
-        <v>0.148891</v>
+        <v>0.147945</v>
       </c>
       <c r="D34" t="n">
-        <v>0.176823</v>
+        <v>0.17517</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.17306</v>
+        <v>0.168361</v>
       </c>
       <c r="C35" t="n">
-        <v>0.145539</v>
+        <v>0.144799</v>
       </c>
       <c r="D35" t="n">
-        <v>0.171771</v>
+        <v>0.172003</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.168305</v>
+        <v>0.170949</v>
       </c>
       <c r="C36" t="n">
-        <v>0.143821</v>
+        <v>0.14281</v>
       </c>
       <c r="D36" t="n">
-        <v>0.171855</v>
+        <v>0.172187</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17148</v>
+        <v>0.170648</v>
       </c>
       <c r="C37" t="n">
-        <v>0.143016</v>
+        <v>0.142655</v>
       </c>
       <c r="D37" t="n">
-        <v>0.173614</v>
+        <v>0.172472</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.24401</v>
+        <v>0.246055</v>
       </c>
       <c r="C38" t="n">
-        <v>0.219433</v>
+        <v>0.218748</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259547</v>
+        <v>0.261755</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.235452</v>
+        <v>0.236849</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210872</v>
+        <v>0.210484</v>
       </c>
       <c r="D39" t="n">
-        <v>0.251759</v>
+        <v>0.249785</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.226877</v>
+        <v>0.227989</v>
       </c>
       <c r="C40" t="n">
-        <v>0.202288</v>
+        <v>0.202821</v>
       </c>
       <c r="D40" t="n">
-        <v>0.241423</v>
+        <v>0.240512</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.217231</v>
+        <v>0.220542</v>
       </c>
       <c r="C41" t="n">
-        <v>0.194871</v>
+        <v>0.194921</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231354</v>
+        <v>0.230922</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.210367</v>
+        <v>0.211974</v>
       </c>
       <c r="C42" t="n">
-        <v>0.187686</v>
+        <v>0.187456</v>
       </c>
       <c r="D42" t="n">
-        <v>0.221515</v>
+        <v>0.223447</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.203861</v>
+        <v>0.205299</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181007</v>
+        <v>0.180615</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213027</v>
+        <v>0.214631</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.196791</v>
+        <v>0.199039</v>
       </c>
       <c r="C44" t="n">
-        <v>0.174151</v>
+        <v>0.174291</v>
       </c>
       <c r="D44" t="n">
-        <v>0.206174</v>
+        <v>0.20508</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.191564</v>
+        <v>0.192219</v>
       </c>
       <c r="C45" t="n">
-        <v>0.168433</v>
+        <v>0.168417</v>
       </c>
       <c r="D45" t="n">
-        <v>0.198931</v>
+        <v>0.198213</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.185361</v>
+        <v>0.186978</v>
       </c>
       <c r="C46" t="n">
-        <v>0.163388</v>
+        <v>0.162938</v>
       </c>
       <c r="D46" t="n">
-        <v>0.190362</v>
+        <v>0.191322</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.180571</v>
+        <v>0.181543</v>
       </c>
       <c r="C47" t="n">
-        <v>0.158358</v>
+        <v>0.157766</v>
       </c>
       <c r="D47" t="n">
-        <v>0.184716</v>
+        <v>0.185645</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.176646</v>
+        <v>0.178012</v>
       </c>
       <c r="C48" t="n">
-        <v>0.153985</v>
+        <v>0.153997</v>
       </c>
       <c r="D48" t="n">
-        <v>0.180291</v>
+        <v>0.180629</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173799</v>
+        <v>0.174416</v>
       </c>
       <c r="C49" t="n">
-        <v>0.150838</v>
+        <v>0.150437</v>
       </c>
       <c r="D49" t="n">
-        <v>0.177301</v>
+        <v>0.17715</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172941</v>
+        <v>0.173786</v>
       </c>
       <c r="C50" t="n">
-        <v>0.147892</v>
+        <v>0.148227</v>
       </c>
       <c r="D50" t="n">
-        <v>0.175723</v>
+        <v>0.175605</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173558</v>
+        <v>0.173603</v>
       </c>
       <c r="C51" t="n">
-        <v>0.147013</v>
+        <v>0.14703</v>
       </c>
       <c r="D51" t="n">
-        <v>0.176167</v>
+        <v>0.176672</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176337</v>
+        <v>0.176556</v>
       </c>
       <c r="C52" t="n">
-        <v>0.147953</v>
+        <v>0.147913</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179482</v>
+        <v>0.179832</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242768</v>
+        <v>0.242257</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218903</v>
+        <v>0.218466</v>
       </c>
       <c r="D53" t="n">
-        <v>0.256913</v>
+        <v>0.256554</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233696</v>
+        <v>0.233113</v>
       </c>
       <c r="C54" t="n">
-        <v>0.20983</v>
+        <v>0.210065</v>
       </c>
       <c r="D54" t="n">
-        <v>0.246471</v>
+        <v>0.246606</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.225382</v>
+        <v>0.224</v>
       </c>
       <c r="C55" t="n">
-        <v>0.202349</v>
+        <v>0.201811</v>
       </c>
       <c r="D55" t="n">
-        <v>0.236611</v>
+        <v>0.236381</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.217954</v>
+        <v>0.216942</v>
       </c>
       <c r="C56" t="n">
-        <v>0.194476</v>
+        <v>0.194433</v>
       </c>
       <c r="D56" t="n">
-        <v>0.227092</v>
+        <v>0.226458</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.209918</v>
+        <v>0.209119</v>
       </c>
       <c r="C57" t="n">
-        <v>0.187296</v>
+        <v>0.187373</v>
       </c>
       <c r="D57" t="n">
-        <v>0.218118</v>
+        <v>0.218536</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.203171</v>
+        <v>0.207614</v>
       </c>
       <c r="C58" t="n">
-        <v>0.180627</v>
+        <v>0.180723</v>
       </c>
       <c r="D58" t="n">
-        <v>0.211065</v>
+        <v>0.210648</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196805</v>
+        <v>0.196892</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174761</v>
+        <v>0.174781</v>
       </c>
       <c r="D59" t="n">
-        <v>0.202575</v>
+        <v>0.202711</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.190978</v>
+        <v>0.191191</v>
       </c>
       <c r="C60" t="n">
-        <v>0.16893</v>
+        <v>0.169477</v>
       </c>
       <c r="D60" t="n">
-        <v>0.196037</v>
+        <v>0.196382</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.185631</v>
+        <v>0.186162</v>
       </c>
       <c r="C61" t="n">
-        <v>0.163792</v>
+        <v>0.163519</v>
       </c>
       <c r="D61" t="n">
-        <v>0.190608</v>
+        <v>0.191113</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.181641</v>
+        <v>0.18189</v>
       </c>
       <c r="C62" t="n">
-        <v>0.159273</v>
+        <v>0.159344</v>
       </c>
       <c r="D62" t="n">
-        <v>0.185611</v>
+        <v>0.186107</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178473</v>
+        <v>0.17872</v>
       </c>
       <c r="C63" t="n">
-        <v>0.155324</v>
+        <v>0.155222</v>
       </c>
       <c r="D63" t="n">
-        <v>0.182008</v>
+        <v>0.182034</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176898</v>
+        <v>0.177473</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1526</v>
+        <v>0.152272</v>
       </c>
       <c r="D64" t="n">
-        <v>0.179991</v>
+        <v>0.180103</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176638</v>
+        <v>0.177198</v>
       </c>
       <c r="C65" t="n">
-        <v>0.151127</v>
+        <v>0.15103</v>
       </c>
       <c r="D65" t="n">
-        <v>0.180455</v>
+        <v>0.180731</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179984</v>
+        <v>0.180127</v>
       </c>
       <c r="C66" t="n">
         <v>0.151581</v>
       </c>
       <c r="D66" t="n">
-        <v>0.183635</v>
+        <v>0.183291</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.239958</v>
+        <v>0.241681</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227848</v>
+        <v>0.228127</v>
       </c>
       <c r="D67" t="n">
-        <v>0.267525</v>
+        <v>0.267196</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235266</v>
+        <v>0.237628</v>
       </c>
       <c r="C68" t="n">
-        <v>0.219191</v>
+        <v>0.218911</v>
       </c>
       <c r="D68" t="n">
-        <v>0.256716</v>
+        <v>0.256387</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.22714</v>
+        <v>0.229356</v>
       </c>
       <c r="C69" t="n">
-        <v>0.211182</v>
+        <v>0.210547</v>
       </c>
       <c r="D69" t="n">
-        <v>0.246822</v>
+        <v>0.245966</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219931</v>
+        <v>0.220574</v>
       </c>
       <c r="C70" t="n">
-        <v>0.203195</v>
+        <v>0.202779</v>
       </c>
       <c r="D70" t="n">
-        <v>0.235328</v>
+        <v>0.23643</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213239</v>
+        <v>0.214147</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195704</v>
+        <v>0.195959</v>
       </c>
       <c r="D71" t="n">
-        <v>0.227829</v>
+        <v>0.229313</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205836</v>
+        <v>0.205805</v>
       </c>
       <c r="C72" t="n">
-        <v>0.191576</v>
+        <v>0.190961</v>
       </c>
       <c r="D72" t="n">
-        <v>0.222489</v>
+        <v>0.222149</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.200236</v>
+        <v>0.200248</v>
       </c>
       <c r="C73" t="n">
-        <v>0.184985</v>
+        <v>0.184237</v>
       </c>
       <c r="D73" t="n">
-        <v>0.222358</v>
+        <v>0.213656</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.205907</v>
+        <v>0.194072</v>
       </c>
       <c r="C74" t="n">
-        <v>0.185325</v>
+        <v>0.178163</v>
       </c>
       <c r="D74" t="n">
-        <v>0.213081</v>
+        <v>0.206337</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.195827</v>
+        <v>0.188145</v>
       </c>
       <c r="C75" t="n">
-        <v>0.175023</v>
+        <v>0.172399</v>
       </c>
       <c r="D75" t="n">
-        <v>0.200298</v>
+        <v>0.199647</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185247</v>
+        <v>0.185554</v>
       </c>
       <c r="C76" t="n">
-        <v>0.167466</v>
+        <v>0.167336</v>
       </c>
       <c r="D76" t="n">
-        <v>0.194149</v>
+        <v>0.194238</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181241</v>
+        <v>0.181416</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1631</v>
+        <v>0.162998</v>
       </c>
       <c r="D77" t="n">
-        <v>0.189476</v>
+        <v>0.189697</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.178851</v>
+        <v>0.179592</v>
       </c>
       <c r="C78" t="n">
-        <v>0.159695</v>
+        <v>0.159861</v>
       </c>
       <c r="D78" t="n">
-        <v>0.187304</v>
+        <v>0.186928</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179409</v>
+        <v>0.179776</v>
       </c>
       <c r="C79" t="n">
-        <v>0.157677</v>
+        <v>0.157567</v>
       </c>
       <c r="D79" t="n">
-        <v>0.186643</v>
+        <v>0.186655</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181685</v>
+        <v>0.182396</v>
       </c>
       <c r="C80" t="n">
-        <v>0.15722</v>
+        <v>0.15732</v>
       </c>
       <c r="D80" t="n">
-        <v>0.188671</v>
+        <v>0.189364</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.257883</v>
+        <v>0.259806</v>
       </c>
       <c r="C81" t="n">
-        <v>0.231392</v>
+        <v>0.230882</v>
       </c>
       <c r="D81" t="n">
-        <v>0.270909</v>
+        <v>0.269912</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.270141</v>
+        <v>0.250445</v>
       </c>
       <c r="C82" t="n">
-        <v>0.244353</v>
+        <v>0.2234</v>
       </c>
       <c r="D82" t="n">
-        <v>0.293805</v>
+        <v>0.259748</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.281338</v>
+        <v>0.242798</v>
       </c>
       <c r="C83" t="n">
-        <v>0.254767</v>
+        <v>0.215619</v>
       </c>
       <c r="D83" t="n">
-        <v>0.291429</v>
+        <v>0.250057</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.281454</v>
+        <v>0.235147</v>
       </c>
       <c r="C84" t="n">
-        <v>0.249443</v>
+        <v>0.207778</v>
       </c>
       <c r="D84" t="n">
-        <v>0.281085</v>
+        <v>0.240972</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.276808</v>
+        <v>0.227725</v>
       </c>
       <c r="C85" t="n">
-        <v>0.242</v>
+        <v>0.200751</v>
       </c>
       <c r="D85" t="n">
-        <v>0.267879</v>
+        <v>0.231963</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219782</v>
+        <v>0.220949</v>
       </c>
       <c r="C86" t="n">
-        <v>0.194004</v>
+        <v>0.193999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.224142</v>
+        <v>0.223351</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213663</v>
+        <v>0.214471</v>
       </c>
       <c r="C87" t="n">
-        <v>0.187975</v>
+        <v>0.187635</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215996</v>
+        <v>0.216168</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208013</v>
+        <v>0.208267</v>
       </c>
       <c r="C88" t="n">
-        <v>0.182064</v>
+        <v>0.182499</v>
       </c>
       <c r="D88" t="n">
-        <v>0.207979</v>
+        <v>0.208477</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201638</v>
+        <v>0.20287</v>
       </c>
       <c r="C89" t="n">
-        <v>0.176509</v>
+        <v>0.176391</v>
       </c>
       <c r="D89" t="n">
-        <v>0.201835</v>
+        <v>0.202006</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196653</v>
+        <v>0.197221</v>
       </c>
       <c r="C90" t="n">
-        <v>0.171132</v>
+        <v>0.172046</v>
       </c>
       <c r="D90" t="n">
-        <v>0.196215</v>
+        <v>0.196473</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192916</v>
+        <v>0.193504</v>
       </c>
       <c r="C91" t="n">
-        <v>0.167052</v>
+        <v>0.166901</v>
       </c>
       <c r="D91" t="n">
-        <v>0.19222</v>
+        <v>0.192049</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190059</v>
+        <v>0.190535</v>
       </c>
       <c r="C92" t="n">
-        <v>0.16368</v>
+        <v>0.163464</v>
       </c>
       <c r="D92" t="n">
-        <v>0.189149</v>
+        <v>0.189329</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188917</v>
+        <v>0.189426</v>
       </c>
       <c r="C93" t="n">
-        <v>0.161062</v>
+        <v>0.161339</v>
       </c>
       <c r="D93" t="n">
-        <v>0.188158</v>
+        <v>0.188032</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189864</v>
+        <v>0.190295</v>
       </c>
       <c r="C94" t="n">
-        <v>0.16061</v>
+        <v>0.160888</v>
       </c>
       <c r="D94" t="n">
-        <v>0.189522</v>
+        <v>0.189516</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.270735</v>
+        <v>0.27106</v>
       </c>
       <c r="C95" t="n">
-        <v>0.247777</v>
+        <v>0.247461</v>
       </c>
       <c r="D95" t="n">
-        <v>0.286522</v>
+        <v>0.286478</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.264769</v>
+        <v>0.265161</v>
       </c>
       <c r="C96" t="n">
-        <v>0.24136</v>
+        <v>0.241729</v>
       </c>
       <c r="D96" t="n">
-        <v>0.277672</v>
+        <v>0.27735</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257956</v>
+        <v>0.258124</v>
       </c>
       <c r="C97" t="n">
-        <v>0.23313</v>
+        <v>0.234255</v>
       </c>
       <c r="D97" t="n">
-        <v>0.267966</v>
+        <v>0.26819</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251389</v>
+        <v>0.251472</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227484</v>
+        <v>0.226228</v>
       </c>
       <c r="D98" t="n">
-        <v>0.259609</v>
+        <v>0.258076</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244709</v>
+        <v>0.245119</v>
       </c>
       <c r="C99" t="n">
-        <v>0.220196</v>
+        <v>0.220359</v>
       </c>
       <c r="D99" t="n">
-        <v>0.250777</v>
+        <v>0.250976</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.23862</v>
+        <v>0.239123</v>
       </c>
       <c r="C100" t="n">
-        <v>0.213063</v>
+        <v>0.212774</v>
       </c>
       <c r="D100" t="n">
-        <v>0.242743</v>
+        <v>0.242851</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233102</v>
+        <v>0.233294</v>
       </c>
       <c r="C101" t="n">
-        <v>0.205479</v>
+        <v>0.206534</v>
       </c>
       <c r="D101" t="n">
-        <v>0.234326</v>
+        <v>0.234487</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227682</v>
+        <v>0.227797</v>
       </c>
       <c r="C102" t="n">
-        <v>0.201442</v>
+        <v>0.200528</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227198</v>
+        <v>0.226287</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222486</v>
+        <v>0.222626</v>
       </c>
       <c r="C103" t="n">
-        <v>0.195799</v>
+        <v>0.195519</v>
       </c>
       <c r="D103" t="n">
-        <v>0.220075</v>
+        <v>0.21964</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218032</v>
+        <v>0.218453</v>
       </c>
       <c r="C104" t="n">
-        <v>0.190276</v>
+        <v>0.19029</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213912</v>
+        <v>0.213548</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.213945</v>
+        <v>0.214235</v>
       </c>
       <c r="C105" t="n">
-        <v>0.186499</v>
+        <v>0.186512</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209178</v>
+        <v>0.209526</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210694</v>
+        <v>0.210672</v>
       </c>
       <c r="C106" t="n">
-        <v>0.182902</v>
+        <v>0.183041</v>
       </c>
       <c r="D106" t="n">
-        <v>0.204966</v>
+        <v>0.205294</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208935</v>
+        <v>0.208984</v>
       </c>
       <c r="C107" t="n">
-        <v>0.179862</v>
+        <v>0.180385</v>
       </c>
       <c r="D107" t="n">
-        <v>0.204193</v>
+        <v>0.203545</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208444</v>
+        <v>0.208867</v>
       </c>
       <c r="C108" t="n">
-        <v>0.179594</v>
+        <v>0.178681</v>
       </c>
       <c r="D108" t="n">
-        <v>0.203874</v>
+        <v>0.204247</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210648</v>
+        <v>0.210797</v>
       </c>
       <c r="C109" t="n">
-        <v>0.179716</v>
+        <v>0.180165</v>
       </c>
       <c r="D109" t="n">
-        <v>0.207751</v>
+        <v>0.207524</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.284548</v>
+        <v>0.293557</v>
       </c>
       <c r="C110" t="n">
-        <v>0.260591</v>
+        <v>0.259789</v>
       </c>
       <c r="D110" t="n">
-        <v>0.293509</v>
+        <v>0.293949</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.27764</v>
+        <v>0.286603</v>
       </c>
       <c r="C111" t="n">
-        <v>0.252372</v>
+        <v>0.252316</v>
       </c>
       <c r="D111" t="n">
-        <v>0.284502</v>
+        <v>0.285986</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.271681</v>
+        <v>0.279946</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245418</v>
+        <v>0.245721</v>
       </c>
       <c r="D112" t="n">
-        <v>0.274835</v>
+        <v>0.275531</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.265621</v>
+        <v>0.27335</v>
       </c>
       <c r="C113" t="n">
-        <v>0.237888</v>
+        <v>0.238797</v>
       </c>
       <c r="D113" t="n">
-        <v>0.266904</v>
+        <v>0.26754</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.259876</v>
+        <v>0.267953</v>
       </c>
       <c r="C114" t="n">
-        <v>0.231246</v>
+        <v>0.232341</v>
       </c>
       <c r="D114" t="n">
-        <v>0.259017</v>
+        <v>0.259576</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255256</v>
+        <v>0.262116</v>
       </c>
       <c r="C115" t="n">
-        <v>0.225951</v>
+        <v>0.22543</v>
       </c>
       <c r="D115" t="n">
-        <v>0.251157</v>
+        <v>0.25145</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.249815</v>
+        <v>0.256843</v>
       </c>
       <c r="C116" t="n">
-        <v>0.220479</v>
+        <v>0.220278</v>
       </c>
       <c r="D116" t="n">
-        <v>0.243903</v>
+        <v>0.243288</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.245574</v>
+        <v>0.251774</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214676</v>
+        <v>0.215429</v>
       </c>
       <c r="D117" t="n">
-        <v>0.237144</v>
+        <v>0.237774</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241167</v>
+        <v>0.247236</v>
       </c>
       <c r="C118" t="n">
-        <v>0.210253</v>
+        <v>0.210673</v>
       </c>
       <c r="D118" t="n">
-        <v>0.231558</v>
+        <v>0.232204</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237399</v>
+        <v>0.243046</v>
       </c>
       <c r="C119" t="n">
-        <v>0.205947</v>
+        <v>0.206458</v>
       </c>
       <c r="D119" t="n">
-        <v>0.22685</v>
+        <v>0.22684</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234278</v>
+        <v>0.239619</v>
       </c>
       <c r="C120" t="n">
-        <v>0.202373</v>
+        <v>0.203173</v>
       </c>
       <c r="D120" t="n">
-        <v>0.222042</v>
+        <v>0.222366</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232025</v>
+        <v>0.237252</v>
       </c>
       <c r="C121" t="n">
-        <v>0.199834</v>
+        <v>0.200137</v>
       </c>
       <c r="D121" t="n">
-        <v>0.219959</v>
+        <v>0.219992</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.230952</v>
+        <v>0.236166</v>
       </c>
       <c r="C122" t="n">
-        <v>0.198185</v>
+        <v>0.19826</v>
       </c>
       <c r="D122" t="n">
-        <v>0.21971</v>
+        <v>0.219713</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232301</v>
+        <v>0.237443</v>
       </c>
       <c r="C123" t="n">
-        <v>0.198721</v>
+        <v>0.19901</v>
       </c>
       <c r="D123" t="n">
-        <v>0.221718</v>
+        <v>0.222306</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.313315</v>
+        <v>0.329687</v>
       </c>
       <c r="C124" t="n">
-        <v>0.279613</v>
+        <v>0.280654</v>
       </c>
       <c r="D124" t="n">
-        <v>0.311197</v>
+        <v>0.311844</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.308535</v>
+        <v>0.32311</v>
       </c>
       <c r="C125" t="n">
-        <v>0.273985</v>
+        <v>0.27418</v>
       </c>
       <c r="D125" t="n">
-        <v>0.303087</v>
+        <v>0.303543</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.301676</v>
+        <v>0.316569</v>
       </c>
       <c r="C126" t="n">
-        <v>0.267321</v>
+        <v>0.267983</v>
       </c>
       <c r="D126" t="n">
-        <v>0.294124</v>
+        <v>0.296549</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.29662</v>
+        <v>0.311182</v>
       </c>
       <c r="C127" t="n">
-        <v>0.261947</v>
+        <v>0.262073</v>
       </c>
       <c r="D127" t="n">
-        <v>0.289428</v>
+        <v>0.289378</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.291845</v>
+        <v>0.305478</v>
       </c>
       <c r="C128" t="n">
-        <v>0.256821</v>
+        <v>0.256955</v>
       </c>
       <c r="D128" t="n">
-        <v>0.281886</v>
+        <v>0.281908</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.287184</v>
+        <v>0.299826</v>
       </c>
       <c r="C129" t="n">
-        <v>0.250682</v>
+        <v>0.251834</v>
       </c>
       <c r="D129" t="n">
-        <v>0.275905</v>
+        <v>0.275592</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.28323</v>
+        <v>0.296622</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246704</v>
+        <v>0.246978</v>
       </c>
       <c r="D130" t="n">
-        <v>0.269519</v>
+        <v>0.270361</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.279205</v>
+        <v>0.290567</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242086</v>
+        <v>0.242776</v>
       </c>
       <c r="D131" t="n">
-        <v>0.264056</v>
+        <v>0.264354</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.275633</v>
+        <v>0.286588</v>
       </c>
       <c r="C132" t="n">
-        <v>0.23868</v>
+        <v>0.238574</v>
       </c>
       <c r="D132" t="n">
-        <v>0.259715</v>
+        <v>0.259866</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.272197</v>
+        <v>0.282845</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235287</v>
+        <v>0.235336</v>
       </c>
       <c r="D133" t="n">
-        <v>0.255482</v>
+        <v>0.255203</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.270008</v>
+        <v>0.280005</v>
       </c>
       <c r="C134" t="n">
-        <v>0.231857</v>
+        <v>0.232158</v>
       </c>
       <c r="D134" t="n">
-        <v>0.251553</v>
+        <v>0.251903</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.26812</v>
+        <v>0.278247</v>
       </c>
       <c r="C135" t="n">
-        <v>0.229676</v>
+        <v>0.229669</v>
       </c>
       <c r="D135" t="n">
-        <v>0.249024</v>
+        <v>0.24905</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.267346</v>
+        <v>0.276072</v>
       </c>
       <c r="C136" t="n">
-        <v>0.228024</v>
+        <v>0.228672</v>
       </c>
       <c r="D136" t="n">
-        <v>0.248202</v>
+        <v>0.24848</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.268071</v>
+        <v>0.276515</v>
       </c>
       <c r="C137" t="n">
-        <v>0.228398</v>
+        <v>0.228558</v>
       </c>
       <c r="D137" t="n">
-        <v>0.249919</v>
+        <v>0.250141</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.353671</v>
+        <v>0.375056</v>
       </c>
       <c r="C138" t="n">
-        <v>0.319371</v>
+        <v>0.321704</v>
       </c>
       <c r="D138" t="n">
-        <v>0.348227</v>
+        <v>0.352498</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.34507</v>
+        <v>0.368369</v>
       </c>
       <c r="C139" t="n">
-        <v>0.311926</v>
+        <v>0.317399</v>
       </c>
       <c r="D139" t="n">
-        <v>0.341392</v>
+        <v>0.345002</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.341964</v>
+        <v>0.358791</v>
       </c>
       <c r="C140" t="n">
-        <v>0.307515</v>
+        <v>0.311206</v>
       </c>
       <c r="D140" t="n">
-        <v>0.335476</v>
+        <v>0.338935</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.339124</v>
+        <v>0.354831</v>
       </c>
       <c r="C141" t="n">
-        <v>0.316264</v>
+        <v>0.304767</v>
       </c>
       <c r="D141" t="n">
-        <v>0.338249</v>
+        <v>0.331491</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.343318</v>
+        <v>0.349615</v>
       </c>
       <c r="C142" t="n">
-        <v>0.298483</v>
+        <v>0.299042</v>
       </c>
       <c r="D142" t="n">
-        <v>0.324408</v>
+        <v>0.325532</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.328596</v>
+        <v>0.344948</v>
       </c>
       <c r="C143" t="n">
-        <v>0.292014</v>
+        <v>0.294317</v>
       </c>
       <c r="D143" t="n">
-        <v>0.316854</v>
+        <v>0.320019</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.165879</v>
+        <v>0.172018</v>
       </c>
       <c r="C2" t="n">
-        <v>0.138929</v>
+        <v>0.133267</v>
       </c>
       <c r="D2" t="n">
-        <v>0.152881</v>
+        <v>0.141113</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.160399</v>
+        <v>0.161315</v>
       </c>
       <c r="C3" t="n">
-        <v>0.13983</v>
+        <v>0.139963</v>
       </c>
       <c r="D3" t="n">
-        <v>0.139916</v>
+        <v>0.150067</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.15049</v>
+        <v>0.168933</v>
       </c>
       <c r="C4" t="n">
-        <v>0.124738</v>
+        <v>0.142135</v>
       </c>
       <c r="D4" t="n">
-        <v>0.136468</v>
+        <v>0.142065</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.148559</v>
+        <v>0.155723</v>
       </c>
       <c r="C5" t="n">
-        <v>0.124672</v>
+        <v>0.132965</v>
       </c>
       <c r="D5" t="n">
-        <v>0.135618</v>
+        <v>0.13825</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.154652</v>
+        <v>0.148073</v>
       </c>
       <c r="C6" t="n">
-        <v>0.115132</v>
+        <v>0.12675</v>
       </c>
       <c r="D6" t="n">
-        <v>0.137294</v>
+        <v>0.139415</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.156337</v>
+        <v>0.155502</v>
       </c>
       <c r="C7" t="n">
-        <v>0.113856</v>
+        <v>0.111964</v>
       </c>
       <c r="D7" t="n">
-        <v>0.127376</v>
+        <v>0.124227</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.153607</v>
+        <v>0.155722</v>
       </c>
       <c r="C8" t="n">
-        <v>0.11224</v>
+        <v>0.108477</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131553</v>
+        <v>0.126284</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148916</v>
+        <v>0.156134</v>
       </c>
       <c r="C9" t="n">
-        <v>0.105927</v>
+        <v>0.113945</v>
       </c>
       <c r="D9" t="n">
-        <v>0.129871</v>
+        <v>0.137956</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.208798</v>
+        <v>0.216239</v>
       </c>
       <c r="C10" t="n">
-        <v>0.181878</v>
+        <v>0.183058</v>
       </c>
       <c r="D10" t="n">
-        <v>0.208886</v>
+        <v>0.220259</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.199714</v>
+        <v>0.217056</v>
       </c>
       <c r="C11" t="n">
-        <v>0.176852</v>
+        <v>0.180009</v>
       </c>
       <c r="D11" t="n">
-        <v>0.203369</v>
+        <v>0.214443</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.200245</v>
+        <v>0.206911</v>
       </c>
       <c r="C12" t="n">
-        <v>0.164962</v>
+        <v>0.174564</v>
       </c>
       <c r="D12" t="n">
-        <v>0.19648</v>
+        <v>0.203451</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.19424</v>
+        <v>0.202367</v>
       </c>
       <c r="C13" t="n">
-        <v>0.164029</v>
+        <v>0.168338</v>
       </c>
       <c r="D13" t="n">
-        <v>0.184095</v>
+        <v>0.197114</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.181706</v>
+        <v>0.196559</v>
       </c>
       <c r="C14" t="n">
-        <v>0.158092</v>
+        <v>0.160105</v>
       </c>
       <c r="D14" t="n">
-        <v>0.180566</v>
+        <v>0.189566</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.184331</v>
+        <v>0.18631</v>
       </c>
       <c r="C15" t="n">
-        <v>0.154727</v>
+        <v>0.156281</v>
       </c>
       <c r="D15" t="n">
-        <v>0.181735</v>
+        <v>0.181287</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.17903</v>
+        <v>0.1808</v>
       </c>
       <c r="C16" t="n">
-        <v>0.149887</v>
+        <v>0.151255</v>
       </c>
       <c r="D16" t="n">
-        <v>0.174689</v>
+        <v>0.174616</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.176153</v>
+        <v>0.176182</v>
       </c>
       <c r="C17" t="n">
-        <v>0.146278</v>
+        <v>0.147553</v>
       </c>
       <c r="D17" t="n">
-        <v>0.169963</v>
+        <v>0.172224</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.16905</v>
+        <v>0.169109</v>
       </c>
       <c r="C18" t="n">
-        <v>0.139302</v>
+        <v>0.140888</v>
       </c>
       <c r="D18" t="n">
-        <v>0.164478</v>
+        <v>0.16607</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.164911</v>
+        <v>0.165373</v>
       </c>
       <c r="C19" t="n">
-        <v>0.134541</v>
+        <v>0.137429</v>
       </c>
       <c r="D19" t="n">
-        <v>0.156223</v>
+        <v>0.162182</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.162054</v>
+        <v>0.165512</v>
       </c>
       <c r="C20" t="n">
-        <v>0.132989</v>
+        <v>0.133347</v>
       </c>
       <c r="D20" t="n">
-        <v>0.157869</v>
+        <v>0.157747</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.161369</v>
+        <v>0.16185</v>
       </c>
       <c r="C21" t="n">
-        <v>0.129445</v>
+        <v>0.131667</v>
       </c>
       <c r="D21" t="n">
-        <v>0.156983</v>
+        <v>0.156768</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.160323</v>
+        <v>0.160604</v>
       </c>
       <c r="C22" t="n">
-        <v>0.128176</v>
+        <v>0.129258</v>
       </c>
       <c r="D22" t="n">
-        <v>0.156894</v>
+        <v>0.158334</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163492</v>
+        <v>0.164924</v>
       </c>
       <c r="C23" t="n">
-        <v>0.124433</v>
+        <v>0.129487</v>
       </c>
       <c r="D23" t="n">
-        <v>0.160399</v>
+        <v>0.162847</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.249466</v>
+        <v>0.239163</v>
       </c>
       <c r="C24" t="n">
-        <v>0.211153</v>
+        <v>0.211739</v>
       </c>
       <c r="D24" t="n">
-        <v>0.255848</v>
+        <v>0.252813</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234491</v>
+        <v>0.234783</v>
       </c>
       <c r="C25" t="n">
-        <v>0.203483</v>
+        <v>0.204352</v>
       </c>
       <c r="D25" t="n">
-        <v>0.245646</v>
+        <v>0.244941</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.220846</v>
+        <v>0.225776</v>
       </c>
       <c r="C26" t="n">
-        <v>0.197698</v>
+        <v>0.195174</v>
       </c>
       <c r="D26" t="n">
-        <v>0.234351</v>
+        <v>0.230781</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2105</v>
+        <v>0.211891</v>
       </c>
       <c r="C27" t="n">
-        <v>0.187684</v>
+        <v>0.187618</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224018</v>
+        <v>0.222796</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.20433</v>
+        <v>0.197279</v>
       </c>
       <c r="C28" t="n">
-        <v>0.180413</v>
+        <v>0.180648</v>
       </c>
       <c r="D28" t="n">
-        <v>0.21515</v>
+        <v>0.216454</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.201181</v>
+        <v>0.197561</v>
       </c>
       <c r="C29" t="n">
-        <v>0.173978</v>
+        <v>0.174758</v>
       </c>
       <c r="D29" t="n">
-        <v>0.208178</v>
+        <v>0.205395</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.194536</v>
+        <v>0.195679</v>
       </c>
       <c r="C30" t="n">
-        <v>0.16818</v>
+        <v>0.168615</v>
       </c>
       <c r="D30" t="n">
-        <v>0.199846</v>
+        <v>0.200155</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.184152</v>
+        <v>0.190313</v>
       </c>
       <c r="C31" t="n">
-        <v>0.162415</v>
+        <v>0.163065</v>
       </c>
       <c r="D31" t="n">
-        <v>0.192384</v>
+        <v>0.193514</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.182316</v>
+        <v>0.183436</v>
       </c>
       <c r="C32" t="n">
-        <v>0.157267</v>
+        <v>0.15779</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1858</v>
+        <v>0.186286</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.178076</v>
+        <v>0.17035</v>
       </c>
       <c r="C33" t="n">
-        <v>0.152876</v>
+        <v>0.153256</v>
       </c>
       <c r="D33" t="n">
-        <v>0.181046</v>
+        <v>0.180732</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.174029</v>
+        <v>0.167256</v>
       </c>
       <c r="C34" t="n">
-        <v>0.147945</v>
+        <v>0.148908</v>
       </c>
       <c r="D34" t="n">
-        <v>0.17517</v>
+        <v>0.176038</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.168361</v>
+        <v>0.168108</v>
       </c>
       <c r="C35" t="n">
-        <v>0.144799</v>
+        <v>0.145885</v>
       </c>
       <c r="D35" t="n">
-        <v>0.172003</v>
+        <v>0.173792</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.170949</v>
+        <v>0.167301</v>
       </c>
       <c r="C36" t="n">
-        <v>0.14281</v>
+        <v>0.143556</v>
       </c>
       <c r="D36" t="n">
-        <v>0.172187</v>
+        <v>0.172341</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170648</v>
+        <v>0.171326</v>
       </c>
       <c r="C37" t="n">
-        <v>0.142655</v>
+        <v>0.143254</v>
       </c>
       <c r="D37" t="n">
-        <v>0.172472</v>
+        <v>0.173627</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246055</v>
+        <v>0.244483</v>
       </c>
       <c r="C38" t="n">
-        <v>0.218748</v>
+        <v>0.21931</v>
       </c>
       <c r="D38" t="n">
-        <v>0.261755</v>
+        <v>0.25912</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.236849</v>
+        <v>0.235018</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210484</v>
+        <v>0.211179</v>
       </c>
       <c r="D39" t="n">
-        <v>0.249785</v>
+        <v>0.252329</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.227989</v>
+        <v>0.226652</v>
       </c>
       <c r="C40" t="n">
-        <v>0.202821</v>
+        <v>0.202491</v>
       </c>
       <c r="D40" t="n">
-        <v>0.240512</v>
+        <v>0.240901</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.220542</v>
+        <v>0.218577</v>
       </c>
       <c r="C41" t="n">
-        <v>0.194921</v>
+        <v>0.194779</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230922</v>
+        <v>0.230559</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.211974</v>
+        <v>0.21387</v>
       </c>
       <c r="C42" t="n">
-        <v>0.187456</v>
+        <v>0.191075</v>
       </c>
       <c r="D42" t="n">
-        <v>0.223447</v>
+        <v>0.224566</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.205299</v>
+        <v>0.208466</v>
       </c>
       <c r="C43" t="n">
-        <v>0.180615</v>
+        <v>0.184177</v>
       </c>
       <c r="D43" t="n">
-        <v>0.214631</v>
+        <v>0.216352</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.199039</v>
+        <v>0.200673</v>
       </c>
       <c r="C44" t="n">
-        <v>0.174291</v>
+        <v>0.177815</v>
       </c>
       <c r="D44" t="n">
-        <v>0.20508</v>
+        <v>0.207408</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.192219</v>
+        <v>0.195262</v>
       </c>
       <c r="C45" t="n">
-        <v>0.168417</v>
+        <v>0.171556</v>
       </c>
       <c r="D45" t="n">
-        <v>0.198213</v>
+        <v>0.201412</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.186978</v>
+        <v>0.188077</v>
       </c>
       <c r="C46" t="n">
-        <v>0.162938</v>
+        <v>0.165892</v>
       </c>
       <c r="D46" t="n">
-        <v>0.191322</v>
+        <v>0.193441</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.181543</v>
+        <v>0.182453</v>
       </c>
       <c r="C47" t="n">
-        <v>0.157766</v>
+        <v>0.158384</v>
       </c>
       <c r="D47" t="n">
-        <v>0.185645</v>
+        <v>0.18717</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.178012</v>
+        <v>0.176216</v>
       </c>
       <c r="C48" t="n">
-        <v>0.153997</v>
+        <v>0.153904</v>
       </c>
       <c r="D48" t="n">
-        <v>0.180629</v>
+        <v>0.180674</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174416</v>
+        <v>0.174591</v>
       </c>
       <c r="C49" t="n">
-        <v>0.150437</v>
+        <v>0.150546</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17715</v>
+        <v>0.177128</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173786</v>
+        <v>0.173703</v>
       </c>
       <c r="C50" t="n">
-        <v>0.148227</v>
+        <v>0.147971</v>
       </c>
       <c r="D50" t="n">
-        <v>0.175605</v>
+        <v>0.17557</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173603</v>
+        <v>0.17375</v>
       </c>
       <c r="C51" t="n">
-        <v>0.14703</v>
+        <v>0.147114</v>
       </c>
       <c r="D51" t="n">
-        <v>0.176672</v>
+        <v>0.176505</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176556</v>
+        <v>0.177898</v>
       </c>
       <c r="C52" t="n">
-        <v>0.147913</v>
+        <v>0.147928</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179832</v>
+        <v>0.17971</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242257</v>
+        <v>0.242493</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218466</v>
+        <v>0.218574</v>
       </c>
       <c r="D53" t="n">
-        <v>0.256554</v>
+        <v>0.255425</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233113</v>
+        <v>0.233664</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210065</v>
+        <v>0.210061</v>
       </c>
       <c r="D54" t="n">
-        <v>0.246606</v>
+        <v>0.245499</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.224</v>
+        <v>0.22613</v>
       </c>
       <c r="C55" t="n">
-        <v>0.201811</v>
+        <v>0.202304</v>
       </c>
       <c r="D55" t="n">
-        <v>0.236381</v>
+        <v>0.237301</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.216942</v>
+        <v>0.218004</v>
       </c>
       <c r="C56" t="n">
-        <v>0.194433</v>
+        <v>0.194506</v>
       </c>
       <c r="D56" t="n">
-        <v>0.226458</v>
+        <v>0.22792</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.209119</v>
+        <v>0.209789</v>
       </c>
       <c r="C57" t="n">
-        <v>0.187373</v>
+        <v>0.187472</v>
       </c>
       <c r="D57" t="n">
-        <v>0.218536</v>
+        <v>0.219374</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.207614</v>
+        <v>0.203775</v>
       </c>
       <c r="C58" t="n">
-        <v>0.180723</v>
+        <v>0.180883</v>
       </c>
       <c r="D58" t="n">
-        <v>0.210648</v>
+        <v>0.209981</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196892</v>
+        <v>0.196779</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174781</v>
+        <v>0.174671</v>
       </c>
       <c r="D59" t="n">
-        <v>0.202711</v>
+        <v>0.203396</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.191191</v>
+        <v>0.191016</v>
       </c>
       <c r="C60" t="n">
-        <v>0.169477</v>
+        <v>0.168881</v>
       </c>
       <c r="D60" t="n">
-        <v>0.196382</v>
+        <v>0.196825</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.186162</v>
+        <v>0.186481</v>
       </c>
       <c r="C61" t="n">
-        <v>0.163519</v>
+        <v>0.163966</v>
       </c>
       <c r="D61" t="n">
-        <v>0.191113</v>
+        <v>0.191061</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.18189</v>
+        <v>0.181567</v>
       </c>
       <c r="C62" t="n">
-        <v>0.159344</v>
+        <v>0.159482</v>
       </c>
       <c r="D62" t="n">
-        <v>0.186107</v>
+        <v>0.186254</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.17872</v>
+        <v>0.178825</v>
       </c>
       <c r="C63" t="n">
-        <v>0.155222</v>
+        <v>0.155265</v>
       </c>
       <c r="D63" t="n">
-        <v>0.182034</v>
+        <v>0.18205</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177473</v>
+        <v>0.177687</v>
       </c>
       <c r="C64" t="n">
-        <v>0.152272</v>
+        <v>0.152554</v>
       </c>
       <c r="D64" t="n">
-        <v>0.180103</v>
+        <v>0.180269</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177198</v>
+        <v>0.177718</v>
       </c>
       <c r="C65" t="n">
-        <v>0.15103</v>
+        <v>0.150871</v>
       </c>
       <c r="D65" t="n">
-        <v>0.180731</v>
+        <v>0.180706</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180127</v>
+        <v>0.18141</v>
       </c>
       <c r="C66" t="n">
-        <v>0.151581</v>
+        <v>0.151616</v>
       </c>
       <c r="D66" t="n">
-        <v>0.183291</v>
+        <v>0.183715</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.241681</v>
+        <v>0.244266</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228127</v>
+        <v>0.228121</v>
       </c>
       <c r="D67" t="n">
-        <v>0.267196</v>
+        <v>0.266925</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237628</v>
+        <v>0.238389</v>
       </c>
       <c r="C68" t="n">
-        <v>0.218911</v>
+        <v>0.219592</v>
       </c>
       <c r="D68" t="n">
-        <v>0.256387</v>
+        <v>0.25655</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.229356</v>
+        <v>0.22991</v>
       </c>
       <c r="C69" t="n">
-        <v>0.210547</v>
+        <v>0.211003</v>
       </c>
       <c r="D69" t="n">
-        <v>0.245966</v>
+        <v>0.246236</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.220574</v>
+        <v>0.221982</v>
       </c>
       <c r="C70" t="n">
-        <v>0.202779</v>
+        <v>0.2031</v>
       </c>
       <c r="D70" t="n">
-        <v>0.23643</v>
+        <v>0.236696</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.214147</v>
+        <v>0.215061</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195959</v>
+        <v>0.195516</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229313</v>
+        <v>0.227834</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205805</v>
+        <v>0.207361</v>
       </c>
       <c r="C72" t="n">
-        <v>0.190961</v>
+        <v>0.188677</v>
       </c>
       <c r="D72" t="n">
-        <v>0.222149</v>
+        <v>0.219247</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.200248</v>
+        <v>0.201683</v>
       </c>
       <c r="C73" t="n">
-        <v>0.184237</v>
+        <v>0.182363</v>
       </c>
       <c r="D73" t="n">
-        <v>0.213656</v>
+        <v>0.211621</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.194072</v>
+        <v>0.196378</v>
       </c>
       <c r="C74" t="n">
-        <v>0.178163</v>
+        <v>0.175825</v>
       </c>
       <c r="D74" t="n">
-        <v>0.206337</v>
+        <v>0.204361</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188145</v>
+        <v>0.189726</v>
       </c>
       <c r="C75" t="n">
-        <v>0.172399</v>
+        <v>0.170444</v>
       </c>
       <c r="D75" t="n">
-        <v>0.199647</v>
+        <v>0.197537</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185554</v>
+        <v>0.186345</v>
       </c>
       <c r="C76" t="n">
-        <v>0.167336</v>
+        <v>0.165932</v>
       </c>
       <c r="D76" t="n">
-        <v>0.194238</v>
+        <v>0.192429</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181416</v>
+        <v>0.182796</v>
       </c>
       <c r="C77" t="n">
-        <v>0.162998</v>
+        <v>0.161498</v>
       </c>
       <c r="D77" t="n">
-        <v>0.189697</v>
+        <v>0.187966</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179592</v>
+        <v>0.180795</v>
       </c>
       <c r="C78" t="n">
-        <v>0.159861</v>
+        <v>0.158031</v>
       </c>
       <c r="D78" t="n">
-        <v>0.186928</v>
+        <v>0.185459</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179776</v>
+        <v>0.180206</v>
       </c>
       <c r="C79" t="n">
-        <v>0.157567</v>
+        <v>0.155791</v>
       </c>
       <c r="D79" t="n">
-        <v>0.186655</v>
+        <v>0.184935</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.182396</v>
+        <v>0.182506</v>
       </c>
       <c r="C80" t="n">
-        <v>0.15732</v>
+        <v>0.155777</v>
       </c>
       <c r="D80" t="n">
-        <v>0.189364</v>
+        <v>0.187572</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259806</v>
+        <v>0.259592</v>
       </c>
       <c r="C81" t="n">
-        <v>0.230882</v>
+        <v>0.231751</v>
       </c>
       <c r="D81" t="n">
-        <v>0.269912</v>
+        <v>0.270672</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.250445</v>
+        <v>0.251736</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2234</v>
+        <v>0.223824</v>
       </c>
       <c r="D82" t="n">
-        <v>0.259748</v>
+        <v>0.261069</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242798</v>
+        <v>0.243424</v>
       </c>
       <c r="C83" t="n">
-        <v>0.215619</v>
+        <v>0.215806</v>
       </c>
       <c r="D83" t="n">
-        <v>0.250057</v>
+        <v>0.250989</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235147</v>
+        <v>0.236066</v>
       </c>
       <c r="C84" t="n">
-        <v>0.207778</v>
+        <v>0.208584</v>
       </c>
       <c r="D84" t="n">
-        <v>0.240972</v>
+        <v>0.241827</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227725</v>
+        <v>0.228623</v>
       </c>
       <c r="C85" t="n">
-        <v>0.200751</v>
+        <v>0.201162</v>
       </c>
       <c r="D85" t="n">
-        <v>0.231963</v>
+        <v>0.232622</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220949</v>
+        <v>0.22104</v>
       </c>
       <c r="C86" t="n">
-        <v>0.193999</v>
+        <v>0.194668</v>
       </c>
       <c r="D86" t="n">
-        <v>0.223351</v>
+        <v>0.223954</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214471</v>
+        <v>0.215066</v>
       </c>
       <c r="C87" t="n">
-        <v>0.187635</v>
+        <v>0.188199</v>
       </c>
       <c r="D87" t="n">
-        <v>0.216168</v>
+        <v>0.216486</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208267</v>
+        <v>0.208619</v>
       </c>
       <c r="C88" t="n">
-        <v>0.182499</v>
+        <v>0.182219</v>
       </c>
       <c r="D88" t="n">
-        <v>0.208477</v>
+        <v>0.209154</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.20287</v>
+        <v>0.203094</v>
       </c>
       <c r="C89" t="n">
-        <v>0.176391</v>
+        <v>0.176736</v>
       </c>
       <c r="D89" t="n">
-        <v>0.202006</v>
+        <v>0.202954</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197221</v>
+        <v>0.198018</v>
       </c>
       <c r="C90" t="n">
-        <v>0.172046</v>
+        <v>0.171557</v>
       </c>
       <c r="D90" t="n">
-        <v>0.196473</v>
+        <v>0.196901</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193504</v>
+        <v>0.19379</v>
       </c>
       <c r="C91" t="n">
-        <v>0.166901</v>
+        <v>0.167201</v>
       </c>
       <c r="D91" t="n">
-        <v>0.192049</v>
+        <v>0.192741</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190535</v>
+        <v>0.191153</v>
       </c>
       <c r="C92" t="n">
-        <v>0.163464</v>
+        <v>0.164178</v>
       </c>
       <c r="D92" t="n">
-        <v>0.189329</v>
+        <v>0.189259</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189426</v>
+        <v>0.190415</v>
       </c>
       <c r="C93" t="n">
-        <v>0.161339</v>
+        <v>0.161699</v>
       </c>
       <c r="D93" t="n">
-        <v>0.188032</v>
+        <v>0.188329</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190295</v>
+        <v>0.190846</v>
       </c>
       <c r="C94" t="n">
-        <v>0.160888</v>
+        <v>0.161105</v>
       </c>
       <c r="D94" t="n">
-        <v>0.189516</v>
+        <v>0.190013</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.27106</v>
+        <v>0.272706</v>
       </c>
       <c r="C95" t="n">
-        <v>0.247461</v>
+        <v>0.248171</v>
       </c>
       <c r="D95" t="n">
-        <v>0.286478</v>
+        <v>0.287201</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.265161</v>
+        <v>0.266531</v>
       </c>
       <c r="C96" t="n">
-        <v>0.241729</v>
+        <v>0.241456</v>
       </c>
       <c r="D96" t="n">
-        <v>0.27735</v>
+        <v>0.278542</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.258124</v>
+        <v>0.259878</v>
       </c>
       <c r="C97" t="n">
-        <v>0.234255</v>
+        <v>0.23418</v>
       </c>
       <c r="D97" t="n">
-        <v>0.26819</v>
+        <v>0.269232</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251472</v>
+        <v>0.252643</v>
       </c>
       <c r="C98" t="n">
-        <v>0.226228</v>
+        <v>0.227056</v>
       </c>
       <c r="D98" t="n">
-        <v>0.258076</v>
+        <v>0.259802</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245119</v>
+        <v>0.245991</v>
       </c>
       <c r="C99" t="n">
-        <v>0.220359</v>
+        <v>0.220326</v>
       </c>
       <c r="D99" t="n">
-        <v>0.250976</v>
+        <v>0.251426</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239123</v>
+        <v>0.240013</v>
       </c>
       <c r="C100" t="n">
-        <v>0.212774</v>
+        <v>0.21376</v>
       </c>
       <c r="D100" t="n">
-        <v>0.242851</v>
+        <v>0.242606</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233294</v>
+        <v>0.23429</v>
       </c>
       <c r="C101" t="n">
-        <v>0.206534</v>
+        <v>0.207261</v>
       </c>
       <c r="D101" t="n">
-        <v>0.234487</v>
+        <v>0.234389</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227797</v>
+        <v>0.228685</v>
       </c>
       <c r="C102" t="n">
-        <v>0.200528</v>
+        <v>0.201105</v>
       </c>
       <c r="D102" t="n">
-        <v>0.226287</v>
+        <v>0.226871</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222626</v>
+        <v>0.223523</v>
       </c>
       <c r="C103" t="n">
-        <v>0.195519</v>
+        <v>0.195581</v>
       </c>
       <c r="D103" t="n">
-        <v>0.21964</v>
+        <v>0.220028</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218453</v>
+        <v>0.219057</v>
       </c>
       <c r="C104" t="n">
-        <v>0.19029</v>
+        <v>0.190692</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213548</v>
+        <v>0.214232</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214235</v>
+        <v>0.21494</v>
       </c>
       <c r="C105" t="n">
-        <v>0.186512</v>
+        <v>0.186753</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209526</v>
+        <v>0.209208</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210672</v>
+        <v>0.211652</v>
       </c>
       <c r="C106" t="n">
-        <v>0.183041</v>
+        <v>0.183266</v>
       </c>
       <c r="D106" t="n">
-        <v>0.205294</v>
+        <v>0.205183</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208984</v>
+        <v>0.209743</v>
       </c>
       <c r="C107" t="n">
-        <v>0.180385</v>
+        <v>0.180687</v>
       </c>
       <c r="D107" t="n">
-        <v>0.203545</v>
+        <v>0.203799</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208867</v>
+        <v>0.209643</v>
       </c>
       <c r="C108" t="n">
-        <v>0.178681</v>
+        <v>0.179332</v>
       </c>
       <c r="D108" t="n">
-        <v>0.204247</v>
+        <v>0.204236</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210797</v>
+        <v>0.211629</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180165</v>
+        <v>0.180218</v>
       </c>
       <c r="D109" t="n">
-        <v>0.207524</v>
+        <v>0.207975</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.293557</v>
+        <v>0.285146</v>
       </c>
       <c r="C110" t="n">
-        <v>0.259789</v>
+        <v>0.260628</v>
       </c>
       <c r="D110" t="n">
-        <v>0.293949</v>
+        <v>0.294568</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.286603</v>
+        <v>0.278964</v>
       </c>
       <c r="C111" t="n">
-        <v>0.252316</v>
+        <v>0.252569</v>
       </c>
       <c r="D111" t="n">
-        <v>0.285986</v>
+        <v>0.285602</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.279946</v>
+        <v>0.272611</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245721</v>
+        <v>0.245179</v>
       </c>
       <c r="D112" t="n">
-        <v>0.275531</v>
+        <v>0.275799</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.27335</v>
+        <v>0.266454</v>
       </c>
       <c r="C113" t="n">
-        <v>0.238797</v>
+        <v>0.238914</v>
       </c>
       <c r="D113" t="n">
-        <v>0.26754</v>
+        <v>0.266947</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.267953</v>
+        <v>0.260818</v>
       </c>
       <c r="C114" t="n">
-        <v>0.232341</v>
+        <v>0.232517</v>
       </c>
       <c r="D114" t="n">
-        <v>0.259576</v>
+        <v>0.259431</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.262116</v>
+        <v>0.255948</v>
       </c>
       <c r="C115" t="n">
-        <v>0.22543</v>
+        <v>0.227444</v>
       </c>
       <c r="D115" t="n">
-        <v>0.25145</v>
+        <v>0.25381</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.256843</v>
+        <v>0.250723</v>
       </c>
       <c r="C116" t="n">
-        <v>0.220278</v>
+        <v>0.223052</v>
       </c>
       <c r="D116" t="n">
-        <v>0.243288</v>
+        <v>0.247038</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.251774</v>
+        <v>0.246289</v>
       </c>
       <c r="C117" t="n">
-        <v>0.215429</v>
+        <v>0.217929</v>
       </c>
       <c r="D117" t="n">
-        <v>0.237774</v>
+        <v>0.239721</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.247236</v>
+        <v>0.24188</v>
       </c>
       <c r="C118" t="n">
-        <v>0.210673</v>
+        <v>0.213009</v>
       </c>
       <c r="D118" t="n">
-        <v>0.232204</v>
+        <v>0.232945</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.243046</v>
+        <v>0.238081</v>
       </c>
       <c r="C119" t="n">
-        <v>0.206458</v>
+        <v>0.208317</v>
       </c>
       <c r="D119" t="n">
-        <v>0.22684</v>
+        <v>0.228455</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.239619</v>
+        <v>0.235007</v>
       </c>
       <c r="C120" t="n">
-        <v>0.203173</v>
+        <v>0.204831</v>
       </c>
       <c r="D120" t="n">
-        <v>0.222366</v>
+        <v>0.224414</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.237252</v>
+        <v>0.232558</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200137</v>
+        <v>0.201924</v>
       </c>
       <c r="D121" t="n">
-        <v>0.219992</v>
+        <v>0.221797</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.236166</v>
+        <v>0.231918</v>
       </c>
       <c r="C122" t="n">
-        <v>0.19826</v>
+        <v>0.200608</v>
       </c>
       <c r="D122" t="n">
-        <v>0.219713</v>
+        <v>0.221659</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.237443</v>
+        <v>0.233319</v>
       </c>
       <c r="C123" t="n">
-        <v>0.19901</v>
+        <v>0.200969</v>
       </c>
       <c r="D123" t="n">
-        <v>0.222306</v>
+        <v>0.224256</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.329687</v>
+        <v>0.318295</v>
       </c>
       <c r="C124" t="n">
-        <v>0.280654</v>
+        <v>0.281085</v>
       </c>
       <c r="D124" t="n">
-        <v>0.311844</v>
+        <v>0.312725</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.32311</v>
+        <v>0.311379</v>
       </c>
       <c r="C125" t="n">
-        <v>0.27418</v>
+        <v>0.274841</v>
       </c>
       <c r="D125" t="n">
-        <v>0.303543</v>
+        <v>0.30319</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.316569</v>
+        <v>0.305195</v>
       </c>
       <c r="C126" t="n">
-        <v>0.267983</v>
+        <v>0.268604</v>
       </c>
       <c r="D126" t="n">
-        <v>0.296549</v>
+        <v>0.296471</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.311182</v>
+        <v>0.300596</v>
       </c>
       <c r="C127" t="n">
-        <v>0.262073</v>
+        <v>0.263091</v>
       </c>
       <c r="D127" t="n">
-        <v>0.289378</v>
+        <v>0.288858</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.305478</v>
+        <v>0.295997</v>
       </c>
       <c r="C128" t="n">
-        <v>0.256955</v>
+        <v>0.257403</v>
       </c>
       <c r="D128" t="n">
-        <v>0.281908</v>
+        <v>0.282917</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.299826</v>
+        <v>0.290546</v>
       </c>
       <c r="C129" t="n">
-        <v>0.251834</v>
+        <v>0.252462</v>
       </c>
       <c r="D129" t="n">
-        <v>0.275592</v>
+        <v>0.276678</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.296622</v>
+        <v>0.28635</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246978</v>
+        <v>0.247502</v>
       </c>
       <c r="D130" t="n">
-        <v>0.270361</v>
+        <v>0.270881</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.290567</v>
+        <v>0.282454</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242776</v>
+        <v>0.243575</v>
       </c>
       <c r="D131" t="n">
-        <v>0.264354</v>
+        <v>0.265413</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.286588</v>
+        <v>0.278338</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238574</v>
+        <v>0.239496</v>
       </c>
       <c r="D132" t="n">
-        <v>0.259866</v>
+        <v>0.260798</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.282845</v>
+        <v>0.275615</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235336</v>
+        <v>0.235978</v>
       </c>
       <c r="D133" t="n">
-        <v>0.255203</v>
+        <v>0.25585</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.280005</v>
+        <v>0.272633</v>
       </c>
       <c r="C134" t="n">
-        <v>0.232158</v>
+        <v>0.233155</v>
       </c>
       <c r="D134" t="n">
-        <v>0.251903</v>
+        <v>0.252197</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.278247</v>
+        <v>0.270817</v>
       </c>
       <c r="C135" t="n">
-        <v>0.229669</v>
+        <v>0.230654</v>
       </c>
       <c r="D135" t="n">
-        <v>0.24905</v>
+        <v>0.249329</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.276072</v>
+        <v>0.270027</v>
       </c>
       <c r="C136" t="n">
-        <v>0.228672</v>
+        <v>0.229415</v>
       </c>
       <c r="D136" t="n">
-        <v>0.24848</v>
+        <v>0.248881</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.276515</v>
+        <v>0.270643</v>
       </c>
       <c r="C137" t="n">
-        <v>0.228558</v>
+        <v>0.229716</v>
       </c>
       <c r="D137" t="n">
-        <v>0.250141</v>
+        <v>0.250499</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.375056</v>
+        <v>0.360818</v>
       </c>
       <c r="C138" t="n">
-        <v>0.321704</v>
+        <v>0.323365</v>
       </c>
       <c r="D138" t="n">
-        <v>0.352498</v>
+        <v>0.353382</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.368369</v>
+        <v>0.355738</v>
       </c>
       <c r="C139" t="n">
-        <v>0.317399</v>
+        <v>0.31638</v>
       </c>
       <c r="D139" t="n">
-        <v>0.345002</v>
+        <v>0.345183</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.358791</v>
+        <v>0.350544</v>
       </c>
       <c r="C140" t="n">
-        <v>0.311206</v>
+        <v>0.310629</v>
       </c>
       <c r="D140" t="n">
-        <v>0.338935</v>
+        <v>0.338529</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.354831</v>
+        <v>0.345485</v>
       </c>
       <c r="C141" t="n">
-        <v>0.304767</v>
+        <v>0.304778</v>
       </c>
       <c r="D141" t="n">
-        <v>0.331491</v>
+        <v>0.33198</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.349615</v>
+        <v>0.340423</v>
       </c>
       <c r="C142" t="n">
-        <v>0.299042</v>
+        <v>0.29975</v>
       </c>
       <c r="D142" t="n">
-        <v>0.325532</v>
+        <v>0.325658</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.344948</v>
+        <v>0.336962</v>
       </c>
       <c r="C143" t="n">
-        <v>0.294317</v>
+        <v>0.294672</v>
       </c>
       <c r="D143" t="n">
-        <v>0.320019</v>
+        <v>0.320537</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.172018</v>
+        <v>0.167583</v>
       </c>
       <c r="C2" t="n">
-        <v>0.133267</v>
+        <v>0.136467</v>
       </c>
       <c r="D2" t="n">
-        <v>0.141113</v>
+        <v>0.145775</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.161315</v>
+        <v>0.161158</v>
       </c>
       <c r="C3" t="n">
-        <v>0.139963</v>
+        <v>0.136894</v>
       </c>
       <c r="D3" t="n">
-        <v>0.150067</v>
+        <v>0.141137</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.168933</v>
+        <v>0.157776</v>
       </c>
       <c r="C4" t="n">
-        <v>0.142135</v>
+        <v>0.130423</v>
       </c>
       <c r="D4" t="n">
-        <v>0.142065</v>
+        <v>0.135958</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.155723</v>
+        <v>0.161008</v>
       </c>
       <c r="C5" t="n">
-        <v>0.132965</v>
+        <v>0.123042</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13825</v>
+        <v>0.131787</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.148073</v>
+        <v>0.154389</v>
       </c>
       <c r="C6" t="n">
-        <v>0.12675</v>
+        <v>0.11519</v>
       </c>
       <c r="D6" t="n">
-        <v>0.139415</v>
+        <v>0.124329</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.155502</v>
+        <v>0.154595</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111964</v>
+        <v>0.120448</v>
       </c>
       <c r="D7" t="n">
-        <v>0.124227</v>
+        <v>0.131817</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.155722</v>
+        <v>0.157172</v>
       </c>
       <c r="C8" t="n">
-        <v>0.108477</v>
+        <v>0.113574</v>
       </c>
       <c r="D8" t="n">
-        <v>0.126284</v>
+        <v>0.128933</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.156134</v>
+        <v>0.158159</v>
       </c>
       <c r="C9" t="n">
-        <v>0.113945</v>
+        <v>0.109958</v>
       </c>
       <c r="D9" t="n">
-        <v>0.137956</v>
+        <v>0.138832</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.216239</v>
+        <v>0.204543</v>
       </c>
       <c r="C10" t="n">
-        <v>0.183058</v>
+        <v>0.180815</v>
       </c>
       <c r="D10" t="n">
-        <v>0.220259</v>
+        <v>0.209844</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.217056</v>
+        <v>0.205313</v>
       </c>
       <c r="C11" t="n">
-        <v>0.180009</v>
+        <v>0.174518</v>
       </c>
       <c r="D11" t="n">
-        <v>0.214443</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.206911</v>
+        <v>0.191555</v>
       </c>
       <c r="C12" t="n">
-        <v>0.174564</v>
+        <v>0.169554</v>
       </c>
       <c r="D12" t="n">
-        <v>0.203451</v>
+        <v>0.197797</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.202367</v>
+        <v>0.201383</v>
       </c>
       <c r="C13" t="n">
-        <v>0.168338</v>
+        <v>0.164089</v>
       </c>
       <c r="D13" t="n">
-        <v>0.197114</v>
+        <v>0.196695</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.196559</v>
+        <v>0.194941</v>
       </c>
       <c r="C14" t="n">
-        <v>0.160105</v>
+        <v>0.162708</v>
       </c>
       <c r="D14" t="n">
-        <v>0.189566</v>
+        <v>0.188111</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.18631</v>
+        <v>0.187654</v>
       </c>
       <c r="C15" t="n">
-        <v>0.156281</v>
+        <v>0.155707</v>
       </c>
       <c r="D15" t="n">
-        <v>0.181287</v>
+        <v>0.180359</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1808</v>
+        <v>0.18132</v>
       </c>
       <c r="C16" t="n">
-        <v>0.151255</v>
+        <v>0.148388</v>
       </c>
       <c r="D16" t="n">
-        <v>0.174616</v>
+        <v>0.174868</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.176182</v>
+        <v>0.177904</v>
       </c>
       <c r="C17" t="n">
-        <v>0.147553</v>
+        <v>0.145204</v>
       </c>
       <c r="D17" t="n">
-        <v>0.172224</v>
+        <v>0.168663</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.169109</v>
+        <v>0.170571</v>
       </c>
       <c r="C18" t="n">
-        <v>0.140888</v>
+        <v>0.140391</v>
       </c>
       <c r="D18" t="n">
-        <v>0.16607</v>
+        <v>0.164809</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.165373</v>
+        <v>0.165984</v>
       </c>
       <c r="C19" t="n">
-        <v>0.137429</v>
+        <v>0.136807</v>
       </c>
       <c r="D19" t="n">
-        <v>0.162182</v>
+        <v>0.160178</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.165512</v>
+        <v>0.16213</v>
       </c>
       <c r="C20" t="n">
-        <v>0.133347</v>
+        <v>0.132154</v>
       </c>
       <c r="D20" t="n">
-        <v>0.157747</v>
+        <v>0.157578</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.16185</v>
+        <v>0.161906</v>
       </c>
       <c r="C21" t="n">
-        <v>0.131667</v>
+        <v>0.129689</v>
       </c>
       <c r="D21" t="n">
-        <v>0.156768</v>
+        <v>0.156181</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.160604</v>
+        <v>0.160109</v>
       </c>
       <c r="C22" t="n">
-        <v>0.129258</v>
+        <v>0.12999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.158334</v>
+        <v>0.157065</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164924</v>
+        <v>0.162715</v>
       </c>
       <c r="C23" t="n">
-        <v>0.129487</v>
+        <v>0.127857</v>
       </c>
       <c r="D23" t="n">
-        <v>0.162847</v>
+        <v>0.160247</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239163</v>
+        <v>0.234537</v>
       </c>
       <c r="C24" t="n">
-        <v>0.211739</v>
+        <v>0.21176</v>
       </c>
       <c r="D24" t="n">
-        <v>0.252813</v>
+        <v>0.25333</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234783</v>
+        <v>0.233126</v>
       </c>
       <c r="C25" t="n">
-        <v>0.204352</v>
+        <v>0.203337</v>
       </c>
       <c r="D25" t="n">
-        <v>0.244941</v>
+        <v>0.246377</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.225776</v>
+        <v>0.220994</v>
       </c>
       <c r="C26" t="n">
-        <v>0.195174</v>
+        <v>0.194404</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230781</v>
+        <v>0.232479</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.211891</v>
+        <v>0.207852</v>
       </c>
       <c r="C27" t="n">
-        <v>0.187618</v>
+        <v>0.188557</v>
       </c>
       <c r="D27" t="n">
-        <v>0.222796</v>
+        <v>0.224082</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.197279</v>
+        <v>0.20358</v>
       </c>
       <c r="C28" t="n">
-        <v>0.180648</v>
+        <v>0.181007</v>
       </c>
       <c r="D28" t="n">
-        <v>0.216454</v>
+        <v>0.215235</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.197561</v>
+        <v>0.1943</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174758</v>
+        <v>0.174409</v>
       </c>
       <c r="D29" t="n">
-        <v>0.205395</v>
+        <v>0.206699</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.195679</v>
+        <v>0.192729</v>
       </c>
       <c r="C30" t="n">
-        <v>0.168615</v>
+        <v>0.167832</v>
       </c>
       <c r="D30" t="n">
-        <v>0.200155</v>
+        <v>0.197838</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.190313</v>
+        <v>0.184032</v>
       </c>
       <c r="C31" t="n">
-        <v>0.163065</v>
+        <v>0.162794</v>
       </c>
       <c r="D31" t="n">
-        <v>0.193514</v>
+        <v>0.193209</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.183436</v>
+        <v>0.18595</v>
       </c>
       <c r="C32" t="n">
-        <v>0.15779</v>
+        <v>0.156597</v>
       </c>
       <c r="D32" t="n">
-        <v>0.186286</v>
+        <v>0.184582</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.17035</v>
+        <v>0.177906</v>
       </c>
       <c r="C33" t="n">
-        <v>0.153256</v>
+        <v>0.152081</v>
       </c>
       <c r="D33" t="n">
-        <v>0.180732</v>
+        <v>0.180457</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.167256</v>
+        <v>0.175675</v>
       </c>
       <c r="C34" t="n">
-        <v>0.148908</v>
+        <v>0.148273</v>
       </c>
       <c r="D34" t="n">
-        <v>0.176038</v>
+        <v>0.174786</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.168108</v>
+        <v>0.167041</v>
       </c>
       <c r="C35" t="n">
-        <v>0.145885</v>
+        <v>0.144983</v>
       </c>
       <c r="D35" t="n">
-        <v>0.173792</v>
+        <v>0.172204</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.167301</v>
+        <v>0.175535</v>
       </c>
       <c r="C36" t="n">
-        <v>0.143556</v>
+        <v>0.143592</v>
       </c>
       <c r="D36" t="n">
-        <v>0.172341</v>
+        <v>0.171438</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171326</v>
+        <v>0.171028</v>
       </c>
       <c r="C37" t="n">
-        <v>0.143254</v>
+        <v>0.142724</v>
       </c>
       <c r="D37" t="n">
-        <v>0.173627</v>
+        <v>0.172448</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244483</v>
+        <v>0.249563</v>
       </c>
       <c r="C38" t="n">
-        <v>0.21931</v>
+        <v>0.218983</v>
       </c>
       <c r="D38" t="n">
-        <v>0.25912</v>
+        <v>0.259242</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.235018</v>
+        <v>0.238873</v>
       </c>
       <c r="C39" t="n">
-        <v>0.211179</v>
+        <v>0.210442</v>
       </c>
       <c r="D39" t="n">
-        <v>0.252329</v>
+        <v>0.250228</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.226652</v>
+        <v>0.229251</v>
       </c>
       <c r="C40" t="n">
-        <v>0.202491</v>
+        <v>0.202711</v>
       </c>
       <c r="D40" t="n">
-        <v>0.240901</v>
+        <v>0.241047</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.218577</v>
+        <v>0.221876</v>
       </c>
       <c r="C41" t="n">
-        <v>0.194779</v>
+        <v>0.195075</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230559</v>
+        <v>0.229798</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.21387</v>
+        <v>0.214648</v>
       </c>
       <c r="C42" t="n">
-        <v>0.191075</v>
+        <v>0.187578</v>
       </c>
       <c r="D42" t="n">
-        <v>0.224566</v>
+        <v>0.222666</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.208466</v>
+        <v>0.207615</v>
       </c>
       <c r="C43" t="n">
-        <v>0.184177</v>
+        <v>0.181232</v>
       </c>
       <c r="D43" t="n">
-        <v>0.216352</v>
+        <v>0.213568</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.200673</v>
+        <v>0.199141</v>
       </c>
       <c r="C44" t="n">
-        <v>0.177815</v>
+        <v>0.177212</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207408</v>
+        <v>0.212864</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.195262</v>
+        <v>0.196726</v>
       </c>
       <c r="C45" t="n">
-        <v>0.171556</v>
+        <v>0.171236</v>
       </c>
       <c r="D45" t="n">
-        <v>0.201412</v>
+        <v>0.201138</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.188077</v>
+        <v>0.1909</v>
       </c>
       <c r="C46" t="n">
-        <v>0.165892</v>
+        <v>0.165775</v>
       </c>
       <c r="D46" t="n">
-        <v>0.193441</v>
+        <v>0.194947</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.182453</v>
+        <v>0.185592</v>
       </c>
       <c r="C47" t="n">
-        <v>0.158384</v>
+        <v>0.160639</v>
       </c>
       <c r="D47" t="n">
-        <v>0.18717</v>
+        <v>0.193059</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.176216</v>
+        <v>0.182271</v>
       </c>
       <c r="C48" t="n">
-        <v>0.153904</v>
+        <v>0.15634</v>
       </c>
       <c r="D48" t="n">
-        <v>0.180674</v>
+        <v>0.185238</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174591</v>
+        <v>0.179013</v>
       </c>
       <c r="C49" t="n">
-        <v>0.150546</v>
+        <v>0.152972</v>
       </c>
       <c r="D49" t="n">
-        <v>0.177128</v>
+        <v>0.179614</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173703</v>
+        <v>0.177371</v>
       </c>
       <c r="C50" t="n">
-        <v>0.147971</v>
+        <v>0.150404</v>
       </c>
       <c r="D50" t="n">
-        <v>0.17557</v>
+        <v>0.177773</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17375</v>
+        <v>0.179313</v>
       </c>
       <c r="C51" t="n">
-        <v>0.147114</v>
+        <v>0.149178</v>
       </c>
       <c r="D51" t="n">
-        <v>0.176505</v>
+        <v>0.176253</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.177898</v>
+        <v>0.178546</v>
       </c>
       <c r="C52" t="n">
-        <v>0.147928</v>
+        <v>0.147652</v>
       </c>
       <c r="D52" t="n">
-        <v>0.17971</v>
+        <v>0.17932</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242493</v>
+        <v>0.244209</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218574</v>
+        <v>0.218515</v>
       </c>
       <c r="D53" t="n">
-        <v>0.255425</v>
+        <v>0.257006</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233664</v>
+        <v>0.235426</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210061</v>
+        <v>0.209805</v>
       </c>
       <c r="D54" t="n">
-        <v>0.245499</v>
+        <v>0.246818</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.22613</v>
+        <v>0.226542</v>
       </c>
       <c r="C55" t="n">
-        <v>0.202304</v>
+        <v>0.201875</v>
       </c>
       <c r="D55" t="n">
-        <v>0.237301</v>
+        <v>0.236627</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.218004</v>
+        <v>0.218863</v>
       </c>
       <c r="C56" t="n">
-        <v>0.194506</v>
+        <v>0.194557</v>
       </c>
       <c r="D56" t="n">
-        <v>0.22792</v>
+        <v>0.227713</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.209789</v>
+        <v>0.212012</v>
       </c>
       <c r="C57" t="n">
-        <v>0.187472</v>
+        <v>0.187517</v>
       </c>
       <c r="D57" t="n">
-        <v>0.219374</v>
+        <v>0.2194</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.203775</v>
+        <v>0.204343</v>
       </c>
       <c r="C58" t="n">
-        <v>0.180883</v>
+        <v>0.180989</v>
       </c>
       <c r="D58" t="n">
-        <v>0.209981</v>
+        <v>0.210753</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196779</v>
+        <v>0.19904</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174671</v>
+        <v>0.174807</v>
       </c>
       <c r="D59" t="n">
-        <v>0.203396</v>
+        <v>0.203497</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.191016</v>
+        <v>0.192106</v>
       </c>
       <c r="C60" t="n">
-        <v>0.168881</v>
+        <v>0.169166</v>
       </c>
       <c r="D60" t="n">
-        <v>0.196825</v>
+        <v>0.196962</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.186481</v>
+        <v>0.187416</v>
       </c>
       <c r="C61" t="n">
-        <v>0.163966</v>
+        <v>0.163793</v>
       </c>
       <c r="D61" t="n">
-        <v>0.191061</v>
+        <v>0.190624</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.181567</v>
+        <v>0.182626</v>
       </c>
       <c r="C62" t="n">
-        <v>0.159482</v>
+        <v>0.159165</v>
       </c>
       <c r="D62" t="n">
-        <v>0.186254</v>
+        <v>0.186382</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178825</v>
+        <v>0.179768</v>
       </c>
       <c r="C63" t="n">
-        <v>0.155265</v>
+        <v>0.155503</v>
       </c>
       <c r="D63" t="n">
-        <v>0.18205</v>
+        <v>0.182251</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177687</v>
+        <v>0.178321</v>
       </c>
       <c r="C64" t="n">
-        <v>0.152554</v>
+        <v>0.152506</v>
       </c>
       <c r="D64" t="n">
-        <v>0.180269</v>
+        <v>0.180257</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177718</v>
+        <v>0.178422</v>
       </c>
       <c r="C65" t="n">
-        <v>0.150871</v>
+        <v>0.150865</v>
       </c>
       <c r="D65" t="n">
-        <v>0.180706</v>
+        <v>0.18053</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.18141</v>
+        <v>0.180503</v>
       </c>
       <c r="C66" t="n">
-        <v>0.151616</v>
+        <v>0.151848</v>
       </c>
       <c r="D66" t="n">
-        <v>0.183715</v>
+        <v>0.183571</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244266</v>
+        <v>0.243532</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228121</v>
+        <v>0.227641</v>
       </c>
       <c r="D67" t="n">
-        <v>0.266925</v>
+        <v>0.266901</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238389</v>
+        <v>0.236952</v>
       </c>
       <c r="C68" t="n">
-        <v>0.219592</v>
+        <v>0.218735</v>
       </c>
       <c r="D68" t="n">
-        <v>0.25655</v>
+        <v>0.256037</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.22991</v>
+        <v>0.229457</v>
       </c>
       <c r="C69" t="n">
-        <v>0.211003</v>
+        <v>0.210798</v>
       </c>
       <c r="D69" t="n">
-        <v>0.246236</v>
+        <v>0.245888</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.221982</v>
+        <v>0.222754</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2031</v>
+        <v>0.202992</v>
       </c>
       <c r="D70" t="n">
-        <v>0.236696</v>
+        <v>0.235742</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.215061</v>
+        <v>0.21447</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195516</v>
+        <v>0.195392</v>
       </c>
       <c r="D71" t="n">
-        <v>0.227834</v>
+        <v>0.22783</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.207361</v>
+        <v>0.20751</v>
       </c>
       <c r="C72" t="n">
-        <v>0.188677</v>
+        <v>0.188348</v>
       </c>
       <c r="D72" t="n">
-        <v>0.219247</v>
+        <v>0.219064</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.201683</v>
+        <v>0.201789</v>
       </c>
       <c r="C73" t="n">
-        <v>0.182363</v>
+        <v>0.182279</v>
       </c>
       <c r="D73" t="n">
-        <v>0.211621</v>
+        <v>0.211169</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.196378</v>
+        <v>0.196332</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175825</v>
+        <v>0.175821</v>
       </c>
       <c r="D74" t="n">
-        <v>0.204361</v>
+        <v>0.204063</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.189726</v>
+        <v>0.190551</v>
       </c>
       <c r="C75" t="n">
-        <v>0.170444</v>
+        <v>0.170234</v>
       </c>
       <c r="D75" t="n">
-        <v>0.197537</v>
+        <v>0.19741</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.186345</v>
+        <v>0.185996</v>
       </c>
       <c r="C76" t="n">
-        <v>0.165932</v>
+        <v>0.165335</v>
       </c>
       <c r="D76" t="n">
-        <v>0.192429</v>
+        <v>0.191706</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182796</v>
+        <v>0.182904</v>
       </c>
       <c r="C77" t="n">
-        <v>0.161498</v>
+        <v>0.161264</v>
       </c>
       <c r="D77" t="n">
-        <v>0.187966</v>
+        <v>0.187772</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.180795</v>
+        <v>0.180056</v>
       </c>
       <c r="C78" t="n">
-        <v>0.158031</v>
+        <v>0.157795</v>
       </c>
       <c r="D78" t="n">
-        <v>0.185459</v>
+        <v>0.184915</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180206</v>
+        <v>0.180131</v>
       </c>
       <c r="C79" t="n">
-        <v>0.155791</v>
+        <v>0.1558</v>
       </c>
       <c r="D79" t="n">
-        <v>0.184935</v>
+        <v>0.185032</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.182506</v>
+        <v>0.18209</v>
       </c>
       <c r="C80" t="n">
-        <v>0.155777</v>
+        <v>0.155725</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187572</v>
+        <v>0.187204</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259592</v>
+        <v>0.259029</v>
       </c>
       <c r="C81" t="n">
-        <v>0.231751</v>
+        <v>0.231135</v>
       </c>
       <c r="D81" t="n">
-        <v>0.270672</v>
+        <v>0.269925</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251736</v>
+        <v>0.25142</v>
       </c>
       <c r="C82" t="n">
-        <v>0.223824</v>
+        <v>0.22341</v>
       </c>
       <c r="D82" t="n">
-        <v>0.261069</v>
+        <v>0.260148</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243424</v>
+        <v>0.243598</v>
       </c>
       <c r="C83" t="n">
-        <v>0.215806</v>
+        <v>0.215117</v>
       </c>
       <c r="D83" t="n">
-        <v>0.250989</v>
+        <v>0.250321</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236066</v>
+        <v>0.235416</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208584</v>
+        <v>0.20812</v>
       </c>
       <c r="D84" t="n">
-        <v>0.241827</v>
+        <v>0.240693</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.228623</v>
+        <v>0.228403</v>
       </c>
       <c r="C85" t="n">
-        <v>0.201162</v>
+        <v>0.201211</v>
       </c>
       <c r="D85" t="n">
-        <v>0.232622</v>
+        <v>0.231708</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.22104</v>
+        <v>0.22178</v>
       </c>
       <c r="C86" t="n">
-        <v>0.194668</v>
+        <v>0.193787</v>
       </c>
       <c r="D86" t="n">
-        <v>0.223954</v>
+        <v>0.223402</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.215066</v>
+        <v>0.214102</v>
       </c>
       <c r="C87" t="n">
-        <v>0.188199</v>
+        <v>0.187838</v>
       </c>
       <c r="D87" t="n">
-        <v>0.216486</v>
+        <v>0.216523</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208619</v>
+        <v>0.208711</v>
       </c>
       <c r="C88" t="n">
-        <v>0.182219</v>
+        <v>0.182087</v>
       </c>
       <c r="D88" t="n">
-        <v>0.209154</v>
+        <v>0.208774</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203094</v>
+        <v>0.203039</v>
       </c>
       <c r="C89" t="n">
-        <v>0.176736</v>
+        <v>0.176173</v>
       </c>
       <c r="D89" t="n">
-        <v>0.202954</v>
+        <v>0.20246</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.198018</v>
+        <v>0.198548</v>
       </c>
       <c r="C90" t="n">
-        <v>0.171557</v>
+        <v>0.171494</v>
       </c>
       <c r="D90" t="n">
-        <v>0.196901</v>
+        <v>0.196668</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.19379</v>
+        <v>0.194091</v>
       </c>
       <c r="C91" t="n">
-        <v>0.167201</v>
+        <v>0.167101</v>
       </c>
       <c r="D91" t="n">
-        <v>0.192741</v>
+        <v>0.192286</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191153</v>
+        <v>0.190758</v>
       </c>
       <c r="C92" t="n">
-        <v>0.164178</v>
+        <v>0.163575</v>
       </c>
       <c r="D92" t="n">
-        <v>0.189259</v>
+        <v>0.1886</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.190415</v>
+        <v>0.189624</v>
       </c>
       <c r="C93" t="n">
-        <v>0.161699</v>
+        <v>0.161327</v>
       </c>
       <c r="D93" t="n">
-        <v>0.188329</v>
+        <v>0.18806</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190846</v>
+        <v>0.190502</v>
       </c>
       <c r="C94" t="n">
-        <v>0.161105</v>
+        <v>0.160809</v>
       </c>
       <c r="D94" t="n">
-        <v>0.190013</v>
+        <v>0.189509</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.272706</v>
+        <v>0.273099</v>
       </c>
       <c r="C95" t="n">
-        <v>0.248171</v>
+        <v>0.24787</v>
       </c>
       <c r="D95" t="n">
-        <v>0.287201</v>
+        <v>0.28673</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.266531</v>
+        <v>0.26629</v>
       </c>
       <c r="C96" t="n">
-        <v>0.241456</v>
+        <v>0.241163</v>
       </c>
       <c r="D96" t="n">
-        <v>0.278542</v>
+        <v>0.277869</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.259878</v>
+        <v>0.259858</v>
       </c>
       <c r="C97" t="n">
-        <v>0.23418</v>
+        <v>0.23378</v>
       </c>
       <c r="D97" t="n">
-        <v>0.269232</v>
+        <v>0.268324</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252643</v>
+        <v>0.252671</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227056</v>
+        <v>0.22622</v>
       </c>
       <c r="D98" t="n">
-        <v>0.259802</v>
+        <v>0.258914</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245991</v>
+        <v>0.246178</v>
       </c>
       <c r="C99" t="n">
-        <v>0.220326</v>
+        <v>0.218942</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251426</v>
+        <v>0.249596</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.240013</v>
+        <v>0.240264</v>
       </c>
       <c r="C100" t="n">
-        <v>0.21376</v>
+        <v>0.212495</v>
       </c>
       <c r="D100" t="n">
-        <v>0.242606</v>
+        <v>0.241146</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.23429</v>
+        <v>0.234717</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207261</v>
+        <v>0.206692</v>
       </c>
       <c r="D101" t="n">
-        <v>0.234389</v>
+        <v>0.23275</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228685</v>
+        <v>0.228704</v>
       </c>
       <c r="C102" t="n">
-        <v>0.201105</v>
+        <v>0.200236</v>
       </c>
       <c r="D102" t="n">
-        <v>0.226871</v>
+        <v>0.227026</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223523</v>
+        <v>0.22418</v>
       </c>
       <c r="C103" t="n">
-        <v>0.195581</v>
+        <v>0.194835</v>
       </c>
       <c r="D103" t="n">
-        <v>0.220028</v>
+        <v>0.21998</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.219057</v>
+        <v>0.219612</v>
       </c>
       <c r="C104" t="n">
-        <v>0.190692</v>
+        <v>0.189971</v>
       </c>
       <c r="D104" t="n">
-        <v>0.214232</v>
+        <v>0.213679</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.21494</v>
+        <v>0.215112</v>
       </c>
       <c r="C105" t="n">
-        <v>0.186753</v>
+        <v>0.186117</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209208</v>
+        <v>0.208454</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211652</v>
+        <v>0.212121</v>
       </c>
       <c r="C106" t="n">
-        <v>0.183266</v>
+        <v>0.182809</v>
       </c>
       <c r="D106" t="n">
-        <v>0.205183</v>
+        <v>0.204849</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209743</v>
+        <v>0.21007</v>
       </c>
       <c r="C107" t="n">
-        <v>0.180687</v>
+        <v>0.179597</v>
       </c>
       <c r="D107" t="n">
-        <v>0.203799</v>
+        <v>0.203167</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.209643</v>
+        <v>0.209812</v>
       </c>
       <c r="C108" t="n">
-        <v>0.179332</v>
+        <v>0.179182</v>
       </c>
       <c r="D108" t="n">
-        <v>0.204236</v>
+        <v>0.203856</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211629</v>
+        <v>0.21217</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180218</v>
+        <v>0.180303</v>
       </c>
       <c r="D109" t="n">
-        <v>0.207975</v>
+        <v>0.207616</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285146</v>
+        <v>0.286731</v>
       </c>
       <c r="C110" t="n">
-        <v>0.260628</v>
+        <v>0.260935</v>
       </c>
       <c r="D110" t="n">
-        <v>0.294568</v>
+        <v>0.294636</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278964</v>
+        <v>0.279903</v>
       </c>
       <c r="C111" t="n">
-        <v>0.252569</v>
+        <v>0.252723</v>
       </c>
       <c r="D111" t="n">
-        <v>0.285602</v>
+        <v>0.285021</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272611</v>
+        <v>0.273032</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245179</v>
+        <v>0.245766</v>
       </c>
       <c r="D112" t="n">
-        <v>0.275799</v>
+        <v>0.275997</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266454</v>
+        <v>0.267552</v>
       </c>
       <c r="C113" t="n">
-        <v>0.238914</v>
+        <v>0.238551</v>
       </c>
       <c r="D113" t="n">
-        <v>0.266947</v>
+        <v>0.267486</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260818</v>
+        <v>0.261804</v>
       </c>
       <c r="C114" t="n">
-        <v>0.232517</v>
+        <v>0.232064</v>
       </c>
       <c r="D114" t="n">
-        <v>0.259431</v>
+        <v>0.259182</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255948</v>
+        <v>0.256297</v>
       </c>
       <c r="C115" t="n">
-        <v>0.227444</v>
+        <v>0.226527</v>
       </c>
       <c r="D115" t="n">
-        <v>0.25381</v>
+        <v>0.251678</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250723</v>
+        <v>0.251178</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223052</v>
+        <v>0.220541</v>
       </c>
       <c r="D116" t="n">
-        <v>0.247038</v>
+        <v>0.244883</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.246289</v>
+        <v>0.246645</v>
       </c>
       <c r="C117" t="n">
-        <v>0.217929</v>
+        <v>0.216321</v>
       </c>
       <c r="D117" t="n">
-        <v>0.239721</v>
+        <v>0.240072</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.24188</v>
+        <v>0.242145</v>
       </c>
       <c r="C118" t="n">
-        <v>0.213009</v>
+        <v>0.213396</v>
       </c>
       <c r="D118" t="n">
-        <v>0.232945</v>
+        <v>0.234614</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238081</v>
+        <v>0.238467</v>
       </c>
       <c r="C119" t="n">
-        <v>0.208317</v>
+        <v>0.209412</v>
       </c>
       <c r="D119" t="n">
-        <v>0.228455</v>
+        <v>0.229165</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.235007</v>
+        <v>0.235087</v>
       </c>
       <c r="C120" t="n">
-        <v>0.204831</v>
+        <v>0.205165</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224414</v>
+        <v>0.224007</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232558</v>
+        <v>0.232516</v>
       </c>
       <c r="C121" t="n">
-        <v>0.201924</v>
+        <v>0.202439</v>
       </c>
       <c r="D121" t="n">
-        <v>0.221797</v>
+        <v>0.221574</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231918</v>
+        <v>0.231837</v>
       </c>
       <c r="C122" t="n">
-        <v>0.200608</v>
+        <v>0.200886</v>
       </c>
       <c r="D122" t="n">
-        <v>0.221659</v>
+        <v>0.221448</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233319</v>
+        <v>0.232943</v>
       </c>
       <c r="C123" t="n">
-        <v>0.200969</v>
+        <v>0.201055</v>
       </c>
       <c r="D123" t="n">
-        <v>0.224256</v>
+        <v>0.223991</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.318295</v>
+        <v>0.317953</v>
       </c>
       <c r="C124" t="n">
-        <v>0.281085</v>
+        <v>0.285299</v>
       </c>
       <c r="D124" t="n">
-        <v>0.312725</v>
+        <v>0.315607</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.311379</v>
+        <v>0.312469</v>
       </c>
       <c r="C125" t="n">
-        <v>0.274841</v>
+        <v>0.279656</v>
       </c>
       <c r="D125" t="n">
-        <v>0.30319</v>
+        <v>0.304385</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.305195</v>
+        <v>0.304078</v>
       </c>
       <c r="C126" t="n">
-        <v>0.268604</v>
+        <v>0.269184</v>
       </c>
       <c r="D126" t="n">
-        <v>0.296471</v>
+        <v>0.296667</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.300596</v>
+        <v>0.299413</v>
       </c>
       <c r="C127" t="n">
-        <v>0.263091</v>
+        <v>0.263515</v>
       </c>
       <c r="D127" t="n">
-        <v>0.288858</v>
+        <v>0.290178</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.295997</v>
+        <v>0.293612</v>
       </c>
       <c r="C128" t="n">
-        <v>0.257403</v>
+        <v>0.258075</v>
       </c>
       <c r="D128" t="n">
-        <v>0.282917</v>
+        <v>0.283406</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.290546</v>
+        <v>0.289273</v>
       </c>
       <c r="C129" t="n">
-        <v>0.252462</v>
+        <v>0.253223</v>
       </c>
       <c r="D129" t="n">
-        <v>0.276678</v>
+        <v>0.276808</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.28635</v>
+        <v>0.285157</v>
       </c>
       <c r="C130" t="n">
-        <v>0.247502</v>
+        <v>0.24843</v>
       </c>
       <c r="D130" t="n">
-        <v>0.270881</v>
+        <v>0.271359</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.282454</v>
+        <v>0.281008</v>
       </c>
       <c r="C131" t="n">
-        <v>0.243575</v>
+        <v>0.244066</v>
       </c>
       <c r="D131" t="n">
-        <v>0.265413</v>
+        <v>0.264838</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278338</v>
+        <v>0.278014</v>
       </c>
       <c r="C132" t="n">
-        <v>0.239496</v>
+        <v>0.240307</v>
       </c>
       <c r="D132" t="n">
-        <v>0.260798</v>
+        <v>0.260361</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275615</v>
+        <v>0.274447</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235978</v>
+        <v>0.236699</v>
       </c>
       <c r="D133" t="n">
-        <v>0.25585</v>
+        <v>0.256222</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.272633</v>
+        <v>0.271565</v>
       </c>
       <c r="C134" t="n">
-        <v>0.233155</v>
+        <v>0.233604</v>
       </c>
       <c r="D134" t="n">
-        <v>0.252197</v>
+        <v>0.252465</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270817</v>
+        <v>0.269913</v>
       </c>
       <c r="C135" t="n">
-        <v>0.230654</v>
+        <v>0.23157</v>
       </c>
       <c r="D135" t="n">
-        <v>0.249329</v>
+        <v>0.250044</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.270027</v>
+        <v>0.268927</v>
       </c>
       <c r="C136" t="n">
-        <v>0.229415</v>
+        <v>0.229839</v>
       </c>
       <c r="D136" t="n">
-        <v>0.248881</v>
+        <v>0.249139</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.270643</v>
+        <v>0.269845</v>
       </c>
       <c r="C137" t="n">
-        <v>0.229716</v>
+        <v>0.229966</v>
       </c>
       <c r="D137" t="n">
-        <v>0.250499</v>
+        <v>0.250774</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.360818</v>
+        <v>0.358982</v>
       </c>
       <c r="C138" t="n">
-        <v>0.323365</v>
+        <v>0.322758</v>
       </c>
       <c r="D138" t="n">
-        <v>0.353382</v>
+        <v>0.352525</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.355738</v>
+        <v>0.353133</v>
       </c>
       <c r="C139" t="n">
-        <v>0.31638</v>
+        <v>0.31632</v>
       </c>
       <c r="D139" t="n">
-        <v>0.345183</v>
+        <v>0.344695</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.350544</v>
+        <v>0.348356</v>
       </c>
       <c r="C140" t="n">
-        <v>0.310629</v>
+        <v>0.309989</v>
       </c>
       <c r="D140" t="n">
-        <v>0.338529</v>
+        <v>0.337376</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.345485</v>
+        <v>0.342793</v>
       </c>
       <c r="C141" t="n">
-        <v>0.304778</v>
+        <v>0.304102</v>
       </c>
       <c r="D141" t="n">
-        <v>0.33198</v>
+        <v>0.330782</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.340423</v>
+        <v>0.338264</v>
       </c>
       <c r="C142" t="n">
-        <v>0.29975</v>
+        <v>0.299007</v>
       </c>
       <c r="D142" t="n">
-        <v>0.325658</v>
+        <v>0.325092</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.336962</v>
+        <v>0.333864</v>
       </c>
       <c r="C143" t="n">
-        <v>0.294672</v>
+        <v>0.294048</v>
       </c>
       <c r="D143" t="n">
-        <v>0.320537</v>
+        <v>0.319522</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.167583</v>
+        <v>0.1671</v>
       </c>
       <c r="C2" t="n">
-        <v>0.136467</v>
+        <v>0.133891</v>
       </c>
       <c r="D2" t="n">
-        <v>0.145775</v>
+        <v>0.14533</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.161158</v>
+        <v>0.159443</v>
       </c>
       <c r="C3" t="n">
-        <v>0.136894</v>
+        <v>0.136022</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141137</v>
+        <v>0.135517</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.157776</v>
+        <v>0.156309</v>
       </c>
       <c r="C4" t="n">
-        <v>0.130423</v>
+        <v>0.131174</v>
       </c>
       <c r="D4" t="n">
-        <v>0.135958</v>
+        <v>0.139459</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.161008</v>
+        <v>0.142661</v>
       </c>
       <c r="C5" t="n">
-        <v>0.123042</v>
+        <v>0.119093</v>
       </c>
       <c r="D5" t="n">
-        <v>0.131787</v>
+        <v>0.122847</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.154389</v>
+        <v>0.159487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.11519</v>
+        <v>0.118269</v>
       </c>
       <c r="D6" t="n">
-        <v>0.124329</v>
+        <v>0.126409</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.154595</v>
+        <v>0.142324</v>
       </c>
       <c r="C7" t="n">
-        <v>0.120448</v>
+        <v>0.114185</v>
       </c>
       <c r="D7" t="n">
-        <v>0.131817</v>
+        <v>0.118116</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.157172</v>
+        <v>0.145874</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113574</v>
+        <v>0.111436</v>
       </c>
       <c r="D8" t="n">
-        <v>0.128933</v>
+        <v>0.120707</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158159</v>
+        <v>0.146839</v>
       </c>
       <c r="C9" t="n">
-        <v>0.109958</v>
+        <v>0.112023</v>
       </c>
       <c r="D9" t="n">
-        <v>0.138832</v>
+        <v>0.190955</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.204543</v>
+        <v>0.206524</v>
       </c>
       <c r="C10" t="n">
-        <v>0.180815</v>
+        <v>0.179165</v>
       </c>
       <c r="D10" t="n">
-        <v>0.209844</v>
+        <v>0.181536</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.205313</v>
+        <v>0.200685</v>
       </c>
       <c r="C11" t="n">
-        <v>0.174518</v>
+        <v>0.173355</v>
       </c>
       <c r="D11" t="n">
-        <v>0.207555</v>
+        <v>0.176124</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.191555</v>
+        <v>0.191784</v>
       </c>
       <c r="C12" t="n">
-        <v>0.169554</v>
+        <v>0.164686</v>
       </c>
       <c r="D12" t="n">
-        <v>0.197797</v>
+        <v>0.170932</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.201383</v>
+        <v>0.191516</v>
       </c>
       <c r="C13" t="n">
-        <v>0.164089</v>
+        <v>0.156087</v>
       </c>
       <c r="D13" t="n">
-        <v>0.196695</v>
+        <v>0.16301</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.194941</v>
+        <v>0.179029</v>
       </c>
       <c r="C14" t="n">
-        <v>0.162708</v>
+        <v>0.154047</v>
       </c>
       <c r="D14" t="n">
-        <v>0.188111</v>
+        <v>0.154071</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.187654</v>
+        <v>0.176674</v>
       </c>
       <c r="C15" t="n">
-        <v>0.155707</v>
+        <v>0.14546</v>
       </c>
       <c r="D15" t="n">
-        <v>0.180359</v>
+        <v>0.154822</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.18132</v>
+        <v>0.166942</v>
       </c>
       <c r="C16" t="n">
-        <v>0.148388</v>
+        <v>0.138886</v>
       </c>
       <c r="D16" t="n">
-        <v>0.174868</v>
+        <v>0.147277</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.177904</v>
+        <v>0.167489</v>
       </c>
       <c r="C17" t="n">
-        <v>0.145204</v>
+        <v>0.133614</v>
       </c>
       <c r="D17" t="n">
-        <v>0.168663</v>
+        <v>0.143351</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.170571</v>
+        <v>0.162317</v>
       </c>
       <c r="C18" t="n">
-        <v>0.140391</v>
+        <v>0.129877</v>
       </c>
       <c r="D18" t="n">
-        <v>0.164809</v>
+        <v>0.144623</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.165984</v>
+        <v>0.155757</v>
       </c>
       <c r="C19" t="n">
-        <v>0.136807</v>
+        <v>0.127282</v>
       </c>
       <c r="D19" t="n">
-        <v>0.160178</v>
+        <v>0.131455</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.16213</v>
+        <v>0.152323</v>
       </c>
       <c r="C20" t="n">
-        <v>0.132154</v>
+        <v>0.127889</v>
       </c>
       <c r="D20" t="n">
-        <v>0.157578</v>
+        <v>0.134383</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.161906</v>
+        <v>0.154054</v>
       </c>
       <c r="C21" t="n">
-        <v>0.129689</v>
+        <v>0.124601</v>
       </c>
       <c r="D21" t="n">
-        <v>0.156181</v>
+        <v>0.132211</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.160109</v>
+        <v>0.152375</v>
       </c>
       <c r="C22" t="n">
-        <v>0.12999</v>
+        <v>0.11907</v>
       </c>
       <c r="D22" t="n">
-        <v>0.157065</v>
+        <v>0.126451</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162715</v>
+        <v>0.161976</v>
       </c>
       <c r="C23" t="n">
-        <v>0.127857</v>
+        <v>0.121593</v>
       </c>
       <c r="D23" t="n">
-        <v>0.160247</v>
+        <v>0.228984</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.234537</v>
+        <v>0.243348</v>
       </c>
       <c r="C24" t="n">
-        <v>0.21176</v>
+        <v>0.213441</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25333</v>
+        <v>0.219272</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.233126</v>
+        <v>0.231758</v>
       </c>
       <c r="C25" t="n">
-        <v>0.203337</v>
+        <v>0.204225</v>
       </c>
       <c r="D25" t="n">
-        <v>0.246377</v>
+        <v>0.210859</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.220994</v>
+        <v>0.218518</v>
       </c>
       <c r="C26" t="n">
-        <v>0.194404</v>
+        <v>0.19571</v>
       </c>
       <c r="D26" t="n">
-        <v>0.232479</v>
+        <v>0.197601</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.207852</v>
+        <v>0.207924</v>
       </c>
       <c r="C27" t="n">
-        <v>0.188557</v>
+        <v>0.188781</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224082</v>
+        <v>0.191449</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.20358</v>
+        <v>0.201615</v>
       </c>
       <c r="C28" t="n">
-        <v>0.181007</v>
+        <v>0.181623</v>
       </c>
       <c r="D28" t="n">
-        <v>0.215235</v>
+        <v>0.183716</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1943</v>
+        <v>0.200033</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174409</v>
+        <v>0.17538</v>
       </c>
       <c r="D29" t="n">
-        <v>0.206699</v>
+        <v>0.176315</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.192729</v>
+        <v>0.189536</v>
       </c>
       <c r="C30" t="n">
-        <v>0.167832</v>
+        <v>0.16907</v>
       </c>
       <c r="D30" t="n">
-        <v>0.197838</v>
+        <v>0.169641</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.184032</v>
+        <v>0.187327</v>
       </c>
       <c r="C31" t="n">
-        <v>0.162794</v>
+        <v>0.163358</v>
       </c>
       <c r="D31" t="n">
-        <v>0.193209</v>
+        <v>0.162829</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.18595</v>
+        <v>0.178014</v>
       </c>
       <c r="C32" t="n">
-        <v>0.156597</v>
+        <v>0.158006</v>
       </c>
       <c r="D32" t="n">
-        <v>0.184582</v>
+        <v>0.157586</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.177906</v>
+        <v>0.176221</v>
       </c>
       <c r="C33" t="n">
-        <v>0.152081</v>
+        <v>0.153347</v>
       </c>
       <c r="D33" t="n">
-        <v>0.180457</v>
+        <v>0.153094</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.175675</v>
+        <v>0.169129</v>
       </c>
       <c r="C34" t="n">
-        <v>0.148273</v>
+        <v>0.149457</v>
       </c>
       <c r="D34" t="n">
-        <v>0.174786</v>
+        <v>0.151387</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.167041</v>
+        <v>0.172145</v>
       </c>
       <c r="C35" t="n">
-        <v>0.144983</v>
+        <v>0.145793</v>
       </c>
       <c r="D35" t="n">
-        <v>0.172204</v>
+        <v>0.148279</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.175535</v>
+        <v>0.169313</v>
       </c>
       <c r="C36" t="n">
-        <v>0.143592</v>
+        <v>0.143842</v>
       </c>
       <c r="D36" t="n">
-        <v>0.171438</v>
+        <v>0.146979</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171028</v>
+        <v>0.168815</v>
       </c>
       <c r="C37" t="n">
-        <v>0.142724</v>
+        <v>0.143111</v>
       </c>
       <c r="D37" t="n">
-        <v>0.172448</v>
+        <v>0.231829</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.249563</v>
+        <v>0.243517</v>
       </c>
       <c r="C38" t="n">
-        <v>0.218983</v>
+        <v>0.219897</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259242</v>
+        <v>0.220468</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238873</v>
+        <v>0.233923</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210442</v>
+        <v>0.211413</v>
       </c>
       <c r="D39" t="n">
-        <v>0.250228</v>
+        <v>0.213236</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.229251</v>
+        <v>0.225781</v>
       </c>
       <c r="C40" t="n">
-        <v>0.202711</v>
+        <v>0.203563</v>
       </c>
       <c r="D40" t="n">
-        <v>0.241047</v>
+        <v>0.203581</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.221876</v>
+        <v>0.217165</v>
       </c>
       <c r="C41" t="n">
-        <v>0.195075</v>
+        <v>0.195419</v>
       </c>
       <c r="D41" t="n">
-        <v>0.229798</v>
+        <v>0.193504</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.214648</v>
+        <v>0.209502</v>
       </c>
       <c r="C42" t="n">
-        <v>0.187578</v>
+        <v>0.188232</v>
       </c>
       <c r="D42" t="n">
-        <v>0.222666</v>
+        <v>0.188987</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.207615</v>
+        <v>0.202479</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181232</v>
+        <v>0.181432</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213568</v>
+        <v>0.183082</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.199141</v>
+        <v>0.199228</v>
       </c>
       <c r="C44" t="n">
-        <v>0.177212</v>
+        <v>0.17777</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212864</v>
+        <v>0.176507</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.196726</v>
+        <v>0.192229</v>
       </c>
       <c r="C45" t="n">
-        <v>0.171236</v>
+        <v>0.172445</v>
       </c>
       <c r="D45" t="n">
-        <v>0.201138</v>
+        <v>0.176765</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1909</v>
+        <v>0.187752</v>
       </c>
       <c r="C46" t="n">
-        <v>0.165775</v>
+        <v>0.166368</v>
       </c>
       <c r="D46" t="n">
-        <v>0.194947</v>
+        <v>0.165738</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.185592</v>
+        <v>0.181955</v>
       </c>
       <c r="C47" t="n">
-        <v>0.160639</v>
+        <v>0.161372</v>
       </c>
       <c r="D47" t="n">
-        <v>0.193059</v>
+        <v>0.159939</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.182271</v>
+        <v>0.178415</v>
       </c>
       <c r="C48" t="n">
-        <v>0.15634</v>
+        <v>0.156647</v>
       </c>
       <c r="D48" t="n">
-        <v>0.185238</v>
+        <v>0.157116</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.179013</v>
+        <v>0.175869</v>
       </c>
       <c r="C49" t="n">
-        <v>0.152972</v>
+        <v>0.153001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.179614</v>
+        <v>0.154365</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.177371</v>
+        <v>0.17428</v>
       </c>
       <c r="C50" t="n">
-        <v>0.150404</v>
+        <v>0.150301</v>
       </c>
       <c r="D50" t="n">
-        <v>0.177773</v>
+        <v>0.153391</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.179313</v>
+        <v>0.174794</v>
       </c>
       <c r="C51" t="n">
-        <v>0.149178</v>
+        <v>0.149461</v>
       </c>
       <c r="D51" t="n">
-        <v>0.176253</v>
+        <v>0.237107</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178546</v>
+        <v>0.17731</v>
       </c>
       <c r="C52" t="n">
-        <v>0.147652</v>
+        <v>0.150235</v>
       </c>
       <c r="D52" t="n">
-        <v>0.17932</v>
+        <v>0.229964</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244209</v>
+        <v>0.2402</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218515</v>
+        <v>0.218366</v>
       </c>
       <c r="D53" t="n">
-        <v>0.257006</v>
+        <v>0.216341</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.235426</v>
+        <v>0.231243</v>
       </c>
       <c r="C54" t="n">
-        <v>0.209805</v>
+        <v>0.210032</v>
       </c>
       <c r="D54" t="n">
-        <v>0.246818</v>
+        <v>0.207516</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.226542</v>
+        <v>0.223339</v>
       </c>
       <c r="C55" t="n">
-        <v>0.201875</v>
+        <v>0.202198</v>
       </c>
       <c r="D55" t="n">
-        <v>0.236627</v>
+        <v>0.199607</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.218863</v>
+        <v>0.215477</v>
       </c>
       <c r="C56" t="n">
-        <v>0.194557</v>
+        <v>0.194485</v>
       </c>
       <c r="D56" t="n">
-        <v>0.227713</v>
+        <v>0.192392</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.212012</v>
+        <v>0.208338</v>
       </c>
       <c r="C57" t="n">
-        <v>0.187517</v>
+        <v>0.187461</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2194</v>
+        <v>0.185742</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.204343</v>
+        <v>0.201444</v>
       </c>
       <c r="C58" t="n">
-        <v>0.180989</v>
+        <v>0.180947</v>
       </c>
       <c r="D58" t="n">
-        <v>0.210753</v>
+        <v>0.179186</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.19904</v>
+        <v>0.195166</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174807</v>
+        <v>0.174873</v>
       </c>
       <c r="D59" t="n">
-        <v>0.203497</v>
+        <v>0.172972</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.192106</v>
+        <v>0.189539</v>
       </c>
       <c r="C60" t="n">
-        <v>0.169166</v>
+        <v>0.168964</v>
       </c>
       <c r="D60" t="n">
-        <v>0.196962</v>
+        <v>0.167356</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.187416</v>
+        <v>0.18439</v>
       </c>
       <c r="C61" t="n">
-        <v>0.163793</v>
+        <v>0.16399</v>
       </c>
       <c r="D61" t="n">
-        <v>0.190624</v>
+        <v>0.162989</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.182626</v>
+        <v>0.180381</v>
       </c>
       <c r="C62" t="n">
-        <v>0.159165</v>
+        <v>0.159194</v>
       </c>
       <c r="D62" t="n">
-        <v>0.186382</v>
+        <v>0.158973</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.179768</v>
+        <v>0.177252</v>
       </c>
       <c r="C63" t="n">
-        <v>0.155503</v>
+        <v>0.155148</v>
       </c>
       <c r="D63" t="n">
-        <v>0.182251</v>
+        <v>0.156108</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.178321</v>
+        <v>0.175334</v>
       </c>
       <c r="C64" t="n">
-        <v>0.152506</v>
+        <v>0.152191</v>
       </c>
       <c r="D64" t="n">
-        <v>0.180257</v>
+        <v>0.154317</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178422</v>
+        <v>0.175491</v>
       </c>
       <c r="C65" t="n">
-        <v>0.150865</v>
+        <v>0.150858</v>
       </c>
       <c r="D65" t="n">
-        <v>0.18053</v>
+        <v>0.155637</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180503</v>
+        <v>0.178032</v>
       </c>
       <c r="C66" t="n">
-        <v>0.151848</v>
+        <v>0.151301</v>
       </c>
       <c r="D66" t="n">
-        <v>0.183571</v>
+        <v>0.231864</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.243532</v>
+        <v>0.242462</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227641</v>
+        <v>0.227487</v>
       </c>
       <c r="D67" t="n">
-        <v>0.266901</v>
+        <v>0.222838</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236952</v>
+        <v>0.233757</v>
       </c>
       <c r="C68" t="n">
-        <v>0.218735</v>
+        <v>0.218615</v>
       </c>
       <c r="D68" t="n">
-        <v>0.256037</v>
+        <v>0.21474</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.229457</v>
+        <v>0.226244</v>
       </c>
       <c r="C69" t="n">
-        <v>0.210798</v>
+        <v>0.210301</v>
       </c>
       <c r="D69" t="n">
-        <v>0.245888</v>
+        <v>0.20645</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.222754</v>
+        <v>0.218904</v>
       </c>
       <c r="C70" t="n">
-        <v>0.202992</v>
+        <v>0.202656</v>
       </c>
       <c r="D70" t="n">
-        <v>0.235742</v>
+        <v>0.198641</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.21447</v>
+        <v>0.211916</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195392</v>
+        <v>0.195519</v>
       </c>
       <c r="D71" t="n">
-        <v>0.22783</v>
+        <v>0.191425</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.20751</v>
+        <v>0.205024</v>
       </c>
       <c r="C72" t="n">
-        <v>0.188348</v>
+        <v>0.188146</v>
       </c>
       <c r="D72" t="n">
-        <v>0.219064</v>
+        <v>0.184083</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.201789</v>
+        <v>0.198657</v>
       </c>
       <c r="C73" t="n">
-        <v>0.182279</v>
+        <v>0.181766</v>
       </c>
       <c r="D73" t="n">
-        <v>0.211169</v>
+        <v>0.178732</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.196332</v>
+        <v>0.192619</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175821</v>
+        <v>0.175654</v>
       </c>
       <c r="D74" t="n">
-        <v>0.204063</v>
+        <v>0.17297</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.190551</v>
+        <v>0.188074</v>
       </c>
       <c r="C75" t="n">
-        <v>0.170234</v>
+        <v>0.170364</v>
       </c>
       <c r="D75" t="n">
-        <v>0.19741</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185996</v>
+        <v>0.183864</v>
       </c>
       <c r="C76" t="n">
-        <v>0.165335</v>
+        <v>0.165529</v>
       </c>
       <c r="D76" t="n">
-        <v>0.191706</v>
+        <v>0.163751</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182904</v>
+        <v>0.179922</v>
       </c>
       <c r="C77" t="n">
-        <v>0.161264</v>
+        <v>0.161035</v>
       </c>
       <c r="D77" t="n">
-        <v>0.187772</v>
+        <v>0.160343</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.180056</v>
+        <v>0.178154</v>
       </c>
       <c r="C78" t="n">
-        <v>0.157795</v>
+        <v>0.157825</v>
       </c>
       <c r="D78" t="n">
-        <v>0.184915</v>
+        <v>0.158652</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180131</v>
+        <v>0.178468</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1558</v>
+        <v>0.155717</v>
       </c>
       <c r="D79" t="n">
-        <v>0.185032</v>
+        <v>0.158898</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.18209</v>
+        <v>0.180342</v>
       </c>
       <c r="C80" t="n">
-        <v>0.155725</v>
+        <v>0.155574</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187204</v>
+        <v>0.236314</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259029</v>
+        <v>0.256676</v>
       </c>
       <c r="C81" t="n">
-        <v>0.231135</v>
+        <v>0.230916</v>
       </c>
       <c r="D81" t="n">
-        <v>0.269925</v>
+        <v>0.227795</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.25142</v>
+        <v>0.248822</v>
       </c>
       <c r="C82" t="n">
-        <v>0.22341</v>
+        <v>0.223297</v>
       </c>
       <c r="D82" t="n">
-        <v>0.260148</v>
+        <v>0.219459</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243598</v>
+        <v>0.241047</v>
       </c>
       <c r="C83" t="n">
-        <v>0.215117</v>
+        <v>0.214907</v>
       </c>
       <c r="D83" t="n">
-        <v>0.250321</v>
+        <v>0.211516</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235416</v>
+        <v>0.233357</v>
       </c>
       <c r="C84" t="n">
-        <v>0.20812</v>
+        <v>0.208065</v>
       </c>
       <c r="D84" t="n">
-        <v>0.240693</v>
+        <v>0.203761</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.228403</v>
+        <v>0.226708</v>
       </c>
       <c r="C85" t="n">
-        <v>0.201211</v>
+        <v>0.200529</v>
       </c>
       <c r="D85" t="n">
-        <v>0.231708</v>
+        <v>0.197011</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.22178</v>
+        <v>0.223248</v>
       </c>
       <c r="C86" t="n">
-        <v>0.193787</v>
+        <v>0.193919</v>
       </c>
       <c r="D86" t="n">
-        <v>0.223402</v>
+        <v>0.18982</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214102</v>
+        <v>0.213032</v>
       </c>
       <c r="C87" t="n">
-        <v>0.187838</v>
+        <v>0.187788</v>
       </c>
       <c r="D87" t="n">
-        <v>0.216523</v>
+        <v>0.18371</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208711</v>
+        <v>0.207</v>
       </c>
       <c r="C88" t="n">
-        <v>0.182087</v>
+        <v>0.181792</v>
       </c>
       <c r="D88" t="n">
-        <v>0.208774</v>
+        <v>0.178035</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203039</v>
+        <v>0.201171</v>
       </c>
       <c r="C89" t="n">
-        <v>0.176173</v>
+        <v>0.176221</v>
       </c>
       <c r="D89" t="n">
-        <v>0.20246</v>
+        <v>0.17261</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.198548</v>
+        <v>0.19657</v>
       </c>
       <c r="C90" t="n">
-        <v>0.171494</v>
+        <v>0.171531</v>
       </c>
       <c r="D90" t="n">
-        <v>0.196668</v>
+        <v>0.168552</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.194091</v>
+        <v>0.192595</v>
       </c>
       <c r="C91" t="n">
-        <v>0.167101</v>
+        <v>0.16731</v>
       </c>
       <c r="D91" t="n">
-        <v>0.192286</v>
+        <v>0.165021</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190758</v>
+        <v>0.189349</v>
       </c>
       <c r="C92" t="n">
-        <v>0.163575</v>
+        <v>0.163768</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1886</v>
+        <v>0.162612</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189624</v>
+        <v>0.188158</v>
       </c>
       <c r="C93" t="n">
-        <v>0.161327</v>
+        <v>0.161501</v>
       </c>
       <c r="D93" t="n">
-        <v>0.18806</v>
+        <v>0.162379</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190502</v>
+        <v>0.189226</v>
       </c>
       <c r="C94" t="n">
-        <v>0.160809</v>
+        <v>0.160621</v>
       </c>
       <c r="D94" t="n">
-        <v>0.189509</v>
+        <v>0.253261</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.273099</v>
+        <v>0.27047</v>
       </c>
       <c r="C95" t="n">
-        <v>0.24787</v>
+        <v>0.248067</v>
       </c>
       <c r="D95" t="n">
-        <v>0.28673</v>
+        <v>0.246131</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.26629</v>
+        <v>0.264613</v>
       </c>
       <c r="C96" t="n">
-        <v>0.241163</v>
+        <v>0.241407</v>
       </c>
       <c r="D96" t="n">
-        <v>0.277869</v>
+        <v>0.237958</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.259858</v>
+        <v>0.257503</v>
       </c>
       <c r="C97" t="n">
-        <v>0.23378</v>
+        <v>0.233477</v>
       </c>
       <c r="D97" t="n">
-        <v>0.268324</v>
+        <v>0.230026</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252671</v>
+        <v>0.25043</v>
       </c>
       <c r="C98" t="n">
-        <v>0.22622</v>
+        <v>0.226544</v>
       </c>
       <c r="D98" t="n">
-        <v>0.258914</v>
+        <v>0.221897</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.246178</v>
+        <v>0.244295</v>
       </c>
       <c r="C99" t="n">
-        <v>0.218942</v>
+        <v>0.219224</v>
       </c>
       <c r="D99" t="n">
-        <v>0.249596</v>
+        <v>0.215505</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.240264</v>
+        <v>0.238413</v>
       </c>
       <c r="C100" t="n">
-        <v>0.212495</v>
+        <v>0.21277</v>
       </c>
       <c r="D100" t="n">
-        <v>0.241146</v>
+        <v>0.208004</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.234717</v>
+        <v>0.232996</v>
       </c>
       <c r="C101" t="n">
-        <v>0.206692</v>
+        <v>0.206632</v>
       </c>
       <c r="D101" t="n">
-        <v>0.23275</v>
+        <v>0.202676</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228704</v>
+        <v>0.227355</v>
       </c>
       <c r="C102" t="n">
-        <v>0.200236</v>
+        <v>0.201196</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227026</v>
+        <v>0.197041</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.22418</v>
+        <v>0.222344</v>
       </c>
       <c r="C103" t="n">
-        <v>0.194835</v>
+        <v>0.196638</v>
       </c>
       <c r="D103" t="n">
-        <v>0.21998</v>
+        <v>0.190968</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.219612</v>
+        <v>0.217427</v>
       </c>
       <c r="C104" t="n">
-        <v>0.189971</v>
+        <v>0.191727</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213679</v>
+        <v>0.187385</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215112</v>
+        <v>0.213785</v>
       </c>
       <c r="C105" t="n">
-        <v>0.186117</v>
+        <v>0.186974</v>
       </c>
       <c r="D105" t="n">
-        <v>0.208454</v>
+        <v>0.182641</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.212121</v>
+        <v>0.210487</v>
       </c>
       <c r="C106" t="n">
-        <v>0.182809</v>
+        <v>0.18328</v>
       </c>
       <c r="D106" t="n">
-        <v>0.204849</v>
+        <v>0.180287</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.21007</v>
+        <v>0.208844</v>
       </c>
       <c r="C107" t="n">
-        <v>0.179597</v>
+        <v>0.179463</v>
       </c>
       <c r="D107" t="n">
-        <v>0.203167</v>
+        <v>0.178563</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.209812</v>
+        <v>0.208341</v>
       </c>
       <c r="C108" t="n">
-        <v>0.179182</v>
+        <v>0.179846</v>
       </c>
       <c r="D108" t="n">
-        <v>0.203856</v>
+        <v>0.270094</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.21217</v>
+        <v>0.210457</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180303</v>
+        <v>0.180423</v>
       </c>
       <c r="D109" t="n">
-        <v>0.207616</v>
+        <v>0.2632</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.286731</v>
+        <v>0.284112</v>
       </c>
       <c r="C110" t="n">
-        <v>0.260935</v>
+        <v>0.261291</v>
       </c>
       <c r="D110" t="n">
-        <v>0.294636</v>
+        <v>0.255294</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.279903</v>
+        <v>0.277952</v>
       </c>
       <c r="C111" t="n">
-        <v>0.252723</v>
+        <v>0.253691</v>
       </c>
       <c r="D111" t="n">
-        <v>0.285021</v>
+        <v>0.246398</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.273032</v>
+        <v>0.271595</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245766</v>
+        <v>0.245948</v>
       </c>
       <c r="D112" t="n">
-        <v>0.275997</v>
+        <v>0.240421</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.267552</v>
+        <v>0.265834</v>
       </c>
       <c r="C113" t="n">
-        <v>0.238551</v>
+        <v>0.239178</v>
       </c>
       <c r="D113" t="n">
-        <v>0.267486</v>
+        <v>0.233106</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.261804</v>
+        <v>0.259968</v>
       </c>
       <c r="C114" t="n">
-        <v>0.232064</v>
+        <v>0.232587</v>
       </c>
       <c r="D114" t="n">
-        <v>0.259182</v>
+        <v>0.226844</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.256297</v>
+        <v>0.254851</v>
       </c>
       <c r="C115" t="n">
-        <v>0.226527</v>
+        <v>0.226742</v>
       </c>
       <c r="D115" t="n">
-        <v>0.251678</v>
+        <v>0.220907</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.251178</v>
+        <v>0.249919</v>
       </c>
       <c r="C116" t="n">
-        <v>0.220541</v>
+        <v>0.222314</v>
       </c>
       <c r="D116" t="n">
-        <v>0.244883</v>
+        <v>0.217203</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.246645</v>
+        <v>0.245365</v>
       </c>
       <c r="C117" t="n">
-        <v>0.216321</v>
+        <v>0.218295</v>
       </c>
       <c r="D117" t="n">
-        <v>0.240072</v>
+        <v>0.212608</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.242145</v>
+        <v>0.241396</v>
       </c>
       <c r="C118" t="n">
-        <v>0.213396</v>
+        <v>0.213109</v>
       </c>
       <c r="D118" t="n">
-        <v>0.234614</v>
+        <v>0.20745</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238467</v>
+        <v>0.236972</v>
       </c>
       <c r="C119" t="n">
-        <v>0.209412</v>
+        <v>0.208694</v>
       </c>
       <c r="D119" t="n">
-        <v>0.229165</v>
+        <v>0.202372</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.235087</v>
+        <v>0.234036</v>
       </c>
       <c r="C120" t="n">
-        <v>0.205165</v>
+        <v>0.205102</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224007</v>
+        <v>0.199965</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232516</v>
+        <v>0.231889</v>
       </c>
       <c r="C121" t="n">
-        <v>0.202439</v>
+        <v>0.202232</v>
       </c>
       <c r="D121" t="n">
-        <v>0.221574</v>
+        <v>0.198095</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231837</v>
+        <v>0.230966</v>
       </c>
       <c r="C122" t="n">
-        <v>0.200886</v>
+        <v>0.200606</v>
       </c>
       <c r="D122" t="n">
-        <v>0.221448</v>
+        <v>0.199051</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232943</v>
+        <v>0.231963</v>
       </c>
       <c r="C123" t="n">
-        <v>0.201055</v>
+        <v>0.201001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223991</v>
+        <v>0.287946</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.317953</v>
+        <v>0.319239</v>
       </c>
       <c r="C124" t="n">
-        <v>0.285299</v>
+        <v>0.286299</v>
       </c>
       <c r="D124" t="n">
-        <v>0.315607</v>
+        <v>0.275891</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.312469</v>
+        <v>0.307857</v>
       </c>
       <c r="C125" t="n">
-        <v>0.279656</v>
+        <v>0.274395</v>
       </c>
       <c r="D125" t="n">
-        <v>0.304385</v>
+        <v>0.270083</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.304078</v>
+        <v>0.301836</v>
       </c>
       <c r="C126" t="n">
-        <v>0.269184</v>
+        <v>0.268452</v>
       </c>
       <c r="D126" t="n">
-        <v>0.296667</v>
+        <v>0.263092</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.299413</v>
+        <v>0.296668</v>
       </c>
       <c r="C127" t="n">
-        <v>0.263515</v>
+        <v>0.262528</v>
       </c>
       <c r="D127" t="n">
-        <v>0.290178</v>
+        <v>0.258535</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.293612</v>
+        <v>0.291684</v>
       </c>
       <c r="C128" t="n">
-        <v>0.258075</v>
+        <v>0.257414</v>
       </c>
       <c r="D128" t="n">
-        <v>0.283406</v>
+        <v>0.253187</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.289273</v>
+        <v>0.287365</v>
       </c>
       <c r="C129" t="n">
-        <v>0.253223</v>
+        <v>0.25191</v>
       </c>
       <c r="D129" t="n">
-        <v>0.276808</v>
+        <v>0.24879</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.285157</v>
+        <v>0.282448</v>
       </c>
       <c r="C130" t="n">
-        <v>0.24843</v>
+        <v>0.247004</v>
       </c>
       <c r="D130" t="n">
-        <v>0.271359</v>
+        <v>0.24451</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.281008</v>
+        <v>0.279058</v>
       </c>
       <c r="C131" t="n">
-        <v>0.244066</v>
+        <v>0.242614</v>
       </c>
       <c r="D131" t="n">
-        <v>0.264838</v>
+        <v>0.24011</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278014</v>
+        <v>0.275408</v>
       </c>
       <c r="C132" t="n">
-        <v>0.240307</v>
+        <v>0.238449</v>
       </c>
       <c r="D132" t="n">
-        <v>0.260361</v>
+        <v>0.2365</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.274447</v>
+        <v>0.272408</v>
       </c>
       <c r="C133" t="n">
-        <v>0.236699</v>
+        <v>0.235002</v>
       </c>
       <c r="D133" t="n">
-        <v>0.256222</v>
+        <v>0.232977</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.271565</v>
+        <v>0.269849</v>
       </c>
       <c r="C134" t="n">
-        <v>0.233604</v>
+        <v>0.232101</v>
       </c>
       <c r="D134" t="n">
-        <v>0.252465</v>
+        <v>0.230606</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.269913</v>
+        <v>0.268019</v>
       </c>
       <c r="C135" t="n">
-        <v>0.23157</v>
+        <v>0.22956</v>
       </c>
       <c r="D135" t="n">
-        <v>0.250044</v>
+        <v>0.228944</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.268927</v>
+        <v>0.267337</v>
       </c>
       <c r="C136" t="n">
-        <v>0.229839</v>
+        <v>0.228083</v>
       </c>
       <c r="D136" t="n">
-        <v>0.249139</v>
+        <v>0.229036</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.269845</v>
+        <v>0.268099</v>
       </c>
       <c r="C137" t="n">
-        <v>0.229966</v>
+        <v>0.227974</v>
       </c>
       <c r="D137" t="n">
-        <v>0.250774</v>
+        <v>0.321294</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358982</v>
+        <v>0.351276</v>
       </c>
       <c r="C138" t="n">
-        <v>0.322758</v>
+        <v>0.31815</v>
       </c>
       <c r="D138" t="n">
-        <v>0.352525</v>
+        <v>0.315585</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.353133</v>
+        <v>0.345862</v>
       </c>
       <c r="C139" t="n">
-        <v>0.31632</v>
+        <v>0.311719</v>
       </c>
       <c r="D139" t="n">
-        <v>0.344695</v>
+        <v>0.309917</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.348356</v>
+        <v>0.340895</v>
       </c>
       <c r="C140" t="n">
-        <v>0.309989</v>
+        <v>0.305659</v>
       </c>
       <c r="D140" t="n">
-        <v>0.337376</v>
+        <v>0.305139</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.342793</v>
+        <v>0.336174</v>
       </c>
       <c r="C141" t="n">
-        <v>0.304102</v>
+        <v>0.30026</v>
       </c>
       <c r="D141" t="n">
-        <v>0.330782</v>
+        <v>0.300323</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.338264</v>
+        <v>0.332607</v>
       </c>
       <c r="C142" t="n">
-        <v>0.299007</v>
+        <v>0.29493</v>
       </c>
       <c r="D142" t="n">
-        <v>0.325092</v>
+        <v>0.295793</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.333864</v>
+        <v>0.328631</v>
       </c>
       <c r="C143" t="n">
-        <v>0.294048</v>
+        <v>0.290335</v>
       </c>
       <c r="D143" t="n">
-        <v>0.319522</v>
+        <v>0.291616</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1671</v>
+        <v>0.165314</v>
       </c>
       <c r="C2" t="n">
-        <v>0.133891</v>
+        <v>0.140238</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14533</v>
+        <v>0.143584</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.159443</v>
+        <v>0.164501</v>
       </c>
       <c r="C3" t="n">
-        <v>0.136022</v>
+        <v>0.136279</v>
       </c>
       <c r="D3" t="n">
-        <v>0.135517</v>
+        <v>0.13505</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.156309</v>
+        <v>0.161576</v>
       </c>
       <c r="C4" t="n">
-        <v>0.131174</v>
+        <v>0.126488</v>
       </c>
       <c r="D4" t="n">
-        <v>0.139459</v>
+        <v>0.128601</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.142661</v>
+        <v>0.149717</v>
       </c>
       <c r="C5" t="n">
-        <v>0.119093</v>
+        <v>0.11986</v>
       </c>
       <c r="D5" t="n">
-        <v>0.122847</v>
+        <v>0.128073</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.159487</v>
+        <v>0.153395</v>
       </c>
       <c r="C6" t="n">
-        <v>0.118269</v>
+        <v>0.117849</v>
       </c>
       <c r="D6" t="n">
-        <v>0.126409</v>
+        <v>0.12012</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.142324</v>
+        <v>0.154826</v>
       </c>
       <c r="C7" t="n">
-        <v>0.114185</v>
+        <v>0.122284</v>
       </c>
       <c r="D7" t="n">
-        <v>0.118116</v>
+        <v>0.127327</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.145874</v>
+        <v>0.155324</v>
       </c>
       <c r="C8" t="n">
-        <v>0.111436</v>
+        <v>0.109252</v>
       </c>
       <c r="D8" t="n">
-        <v>0.120707</v>
+        <v>0.120881</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146839</v>
+        <v>0.158718</v>
       </c>
       <c r="C9" t="n">
-        <v>0.112023</v>
+        <v>0.113369</v>
       </c>
       <c r="D9" t="n">
-        <v>0.190955</v>
+        <v>0.202739</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.206524</v>
+        <v>0.214062</v>
       </c>
       <c r="C10" t="n">
-        <v>0.179165</v>
+        <v>0.187928</v>
       </c>
       <c r="D10" t="n">
-        <v>0.181536</v>
+        <v>0.199077</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.200685</v>
+        <v>0.198535</v>
       </c>
       <c r="C11" t="n">
-        <v>0.173355</v>
+        <v>0.172406</v>
       </c>
       <c r="D11" t="n">
-        <v>0.176124</v>
+        <v>0.176121</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.191784</v>
+        <v>0.20283</v>
       </c>
       <c r="C12" t="n">
-        <v>0.164686</v>
+        <v>0.177618</v>
       </c>
       <c r="D12" t="n">
-        <v>0.170932</v>
+        <v>0.185799</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.191516</v>
+        <v>0.197102</v>
       </c>
       <c r="C13" t="n">
-        <v>0.156087</v>
+        <v>0.166418</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16301</v>
+        <v>0.17986</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.179029</v>
+        <v>0.188956</v>
       </c>
       <c r="C14" t="n">
-        <v>0.154047</v>
+        <v>0.162665</v>
       </c>
       <c r="D14" t="n">
-        <v>0.154071</v>
+        <v>0.173966</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.176674</v>
+        <v>0.185011</v>
       </c>
       <c r="C15" t="n">
-        <v>0.14546</v>
+        <v>0.155189</v>
       </c>
       <c r="D15" t="n">
-        <v>0.154822</v>
+        <v>0.165206</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.166942</v>
+        <v>0.178571</v>
       </c>
       <c r="C16" t="n">
-        <v>0.138886</v>
+        <v>0.151853</v>
       </c>
       <c r="D16" t="n">
-        <v>0.147277</v>
+        <v>0.160165</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.167489</v>
+        <v>0.174701</v>
       </c>
       <c r="C17" t="n">
-        <v>0.133614</v>
+        <v>0.144826</v>
       </c>
       <c r="D17" t="n">
-        <v>0.143351</v>
+        <v>0.156176</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.162317</v>
+        <v>0.168672</v>
       </c>
       <c r="C18" t="n">
-        <v>0.129877</v>
+        <v>0.141163</v>
       </c>
       <c r="D18" t="n">
-        <v>0.144623</v>
+        <v>0.150158</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.155757</v>
+        <v>0.163777</v>
       </c>
       <c r="C19" t="n">
-        <v>0.127282</v>
+        <v>0.13595</v>
       </c>
       <c r="D19" t="n">
-        <v>0.131455</v>
+        <v>0.146912</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.152323</v>
+        <v>0.16456</v>
       </c>
       <c r="C20" t="n">
-        <v>0.127889</v>
+        <v>0.133266</v>
       </c>
       <c r="D20" t="n">
-        <v>0.134383</v>
+        <v>0.143215</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.154054</v>
+        <v>0.160462</v>
       </c>
       <c r="C21" t="n">
-        <v>0.124601</v>
+        <v>0.129502</v>
       </c>
       <c r="D21" t="n">
-        <v>0.132211</v>
+        <v>0.142433</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.152375</v>
+        <v>0.159157</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11907</v>
+        <v>0.129047</v>
       </c>
       <c r="D22" t="n">
-        <v>0.126451</v>
+        <v>0.141404</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161976</v>
+        <v>0.16374</v>
       </c>
       <c r="C23" t="n">
-        <v>0.121593</v>
+        <v>0.126376</v>
       </c>
       <c r="D23" t="n">
-        <v>0.228984</v>
+        <v>0.230216</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243348</v>
+        <v>0.242438</v>
       </c>
       <c r="C24" t="n">
-        <v>0.213441</v>
+        <v>0.213619</v>
       </c>
       <c r="D24" t="n">
-        <v>0.219272</v>
+        <v>0.22162</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.231758</v>
+        <v>0.224121</v>
       </c>
       <c r="C25" t="n">
-        <v>0.204225</v>
+        <v>0.202923</v>
       </c>
       <c r="D25" t="n">
-        <v>0.210859</v>
+        <v>0.206995</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.218518</v>
+        <v>0.225431</v>
       </c>
       <c r="C26" t="n">
-        <v>0.19571</v>
+        <v>0.195422</v>
       </c>
       <c r="D26" t="n">
-        <v>0.197601</v>
+        <v>0.199077</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.207924</v>
+        <v>0.214171</v>
       </c>
       <c r="C27" t="n">
-        <v>0.188781</v>
+        <v>0.189327</v>
       </c>
       <c r="D27" t="n">
-        <v>0.191449</v>
+        <v>0.19441</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.201615</v>
+        <v>0.200226</v>
       </c>
       <c r="C28" t="n">
-        <v>0.181623</v>
+        <v>0.181116</v>
       </c>
       <c r="D28" t="n">
-        <v>0.183716</v>
+        <v>0.185825</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.200033</v>
+        <v>0.193897</v>
       </c>
       <c r="C29" t="n">
-        <v>0.17538</v>
+        <v>0.174919</v>
       </c>
       <c r="D29" t="n">
-        <v>0.176315</v>
+        <v>0.176814</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.189536</v>
+        <v>0.191918</v>
       </c>
       <c r="C30" t="n">
-        <v>0.16907</v>
+        <v>0.16908</v>
       </c>
       <c r="D30" t="n">
-        <v>0.169641</v>
+        <v>0.171842</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.187327</v>
+        <v>0.183344</v>
       </c>
       <c r="C31" t="n">
-        <v>0.163358</v>
+        <v>0.162905</v>
       </c>
       <c r="D31" t="n">
-        <v>0.162829</v>
+        <v>0.165825</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.178014</v>
+        <v>0.18001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.158006</v>
+        <v>0.157734</v>
       </c>
       <c r="D32" t="n">
-        <v>0.157586</v>
+        <v>0.160234</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.176221</v>
+        <v>0.170369</v>
       </c>
       <c r="C33" t="n">
-        <v>0.153347</v>
+        <v>0.15303</v>
       </c>
       <c r="D33" t="n">
-        <v>0.153094</v>
+        <v>0.155098</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.169129</v>
+        <v>0.174445</v>
       </c>
       <c r="C34" t="n">
-        <v>0.149457</v>
+        <v>0.148374</v>
       </c>
       <c r="D34" t="n">
-        <v>0.151387</v>
+        <v>0.152611</v>
       </c>
     </row>
     <row r="35">
@@ -3713,10 +3713,10 @@
         <v>0.172145</v>
       </c>
       <c r="C35" t="n">
-        <v>0.145793</v>
+        <v>0.148071</v>
       </c>
       <c r="D35" t="n">
-        <v>0.148279</v>
+        <v>0.151645</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.169313</v>
+        <v>0.171173</v>
       </c>
       <c r="C36" t="n">
-        <v>0.143842</v>
+        <v>0.146107</v>
       </c>
       <c r="D36" t="n">
-        <v>0.146979</v>
+        <v>0.151238</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.168815</v>
+        <v>0.171781</v>
       </c>
       <c r="C37" t="n">
-        <v>0.143111</v>
+        <v>0.145069</v>
       </c>
       <c r="D37" t="n">
-        <v>0.231829</v>
+        <v>0.236271</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243517</v>
+        <v>0.248569</v>
       </c>
       <c r="C38" t="n">
-        <v>0.219897</v>
+        <v>0.22405</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220468</v>
+        <v>0.225008</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233923</v>
+        <v>0.238416</v>
       </c>
       <c r="C39" t="n">
-        <v>0.211413</v>
+        <v>0.21553</v>
       </c>
       <c r="D39" t="n">
-        <v>0.213236</v>
+        <v>0.227717</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.225781</v>
+        <v>0.229861</v>
       </c>
       <c r="C40" t="n">
-        <v>0.203563</v>
+        <v>0.207053</v>
       </c>
       <c r="D40" t="n">
-        <v>0.203581</v>
+        <v>0.208166</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.217165</v>
+        <v>0.222292</v>
       </c>
       <c r="C41" t="n">
-        <v>0.195419</v>
+        <v>0.198982</v>
       </c>
       <c r="D41" t="n">
-        <v>0.193504</v>
+        <v>0.200091</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.209502</v>
+        <v>0.214357</v>
       </c>
       <c r="C42" t="n">
-        <v>0.188232</v>
+        <v>0.191902</v>
       </c>
       <c r="D42" t="n">
-        <v>0.188987</v>
+        <v>0.192988</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.202479</v>
+        <v>0.207449</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181432</v>
+        <v>0.184506</v>
       </c>
       <c r="D43" t="n">
-        <v>0.183082</v>
+        <v>0.182355</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.199228</v>
+        <v>0.196562</v>
       </c>
       <c r="C44" t="n">
-        <v>0.17777</v>
+        <v>0.174645</v>
       </c>
       <c r="D44" t="n">
-        <v>0.176507</v>
+        <v>0.175993</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.192229</v>
+        <v>0.190481</v>
       </c>
       <c r="C45" t="n">
-        <v>0.172445</v>
+        <v>0.169178</v>
       </c>
       <c r="D45" t="n">
-        <v>0.176765</v>
+        <v>0.170317</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.187752</v>
+        <v>0.184806</v>
       </c>
       <c r="C46" t="n">
-        <v>0.166368</v>
+        <v>0.163428</v>
       </c>
       <c r="D46" t="n">
-        <v>0.165738</v>
+        <v>0.165003</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.181955</v>
+        <v>0.180338</v>
       </c>
       <c r="C47" t="n">
-        <v>0.161372</v>
+        <v>0.158481</v>
       </c>
       <c r="D47" t="n">
-        <v>0.159939</v>
+        <v>0.160708</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.178415</v>
+        <v>0.17638</v>
       </c>
       <c r="C48" t="n">
-        <v>0.156647</v>
+        <v>0.1544</v>
       </c>
       <c r="D48" t="n">
-        <v>0.157116</v>
+        <v>0.156872</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.175869</v>
+        <v>0.173278</v>
       </c>
       <c r="C49" t="n">
-        <v>0.153001</v>
+        <v>0.150592</v>
       </c>
       <c r="D49" t="n">
-        <v>0.154365</v>
+        <v>0.154577</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.17428</v>
+        <v>0.172033</v>
       </c>
       <c r="C50" t="n">
-        <v>0.150301</v>
+        <v>0.148543</v>
       </c>
       <c r="D50" t="n">
-        <v>0.153391</v>
+        <v>0.153738</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174794</v>
+        <v>0.173413</v>
       </c>
       <c r="C51" t="n">
-        <v>0.149461</v>
+        <v>0.147587</v>
       </c>
       <c r="D51" t="n">
-        <v>0.237107</v>
+        <v>0.237122</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17731</v>
+        <v>0.176666</v>
       </c>
       <c r="C52" t="n">
-        <v>0.150235</v>
+        <v>0.148165</v>
       </c>
       <c r="D52" t="n">
-        <v>0.229964</v>
+        <v>0.227814</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.2402</v>
+        <v>0.24216</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218366</v>
+        <v>0.218889</v>
       </c>
       <c r="D53" t="n">
-        <v>0.216341</v>
+        <v>0.218968</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.231243</v>
+        <v>0.232755</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210032</v>
+        <v>0.210288</v>
       </c>
       <c r="D54" t="n">
-        <v>0.207516</v>
+        <v>0.209914</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.223339</v>
+        <v>0.225035</v>
       </c>
       <c r="C55" t="n">
-        <v>0.202198</v>
+        <v>0.202284</v>
       </c>
       <c r="D55" t="n">
-        <v>0.199607</v>
+        <v>0.202443</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.215477</v>
+        <v>0.217216</v>
       </c>
       <c r="C56" t="n">
-        <v>0.194485</v>
+        <v>0.194664</v>
       </c>
       <c r="D56" t="n">
-        <v>0.192392</v>
+        <v>0.19497</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208338</v>
+        <v>0.209437</v>
       </c>
       <c r="C57" t="n">
-        <v>0.187461</v>
+        <v>0.187581</v>
       </c>
       <c r="D57" t="n">
-        <v>0.185742</v>
+        <v>0.187613</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.201444</v>
+        <v>0.203087</v>
       </c>
       <c r="C58" t="n">
-        <v>0.180947</v>
+        <v>0.18096</v>
       </c>
       <c r="D58" t="n">
-        <v>0.179186</v>
+        <v>0.180878</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.195166</v>
+        <v>0.196796</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174873</v>
+        <v>0.174667</v>
       </c>
       <c r="D59" t="n">
-        <v>0.172972</v>
+        <v>0.174721</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.189539</v>
+        <v>0.19157</v>
       </c>
       <c r="C60" t="n">
-        <v>0.168964</v>
+        <v>0.16902</v>
       </c>
       <c r="D60" t="n">
-        <v>0.167356</v>
+        <v>0.169393</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.18439</v>
+        <v>0.186295</v>
       </c>
       <c r="C61" t="n">
-        <v>0.16399</v>
+        <v>0.164128</v>
       </c>
       <c r="D61" t="n">
-        <v>0.162989</v>
+        <v>0.164686</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.180381</v>
+        <v>0.181905</v>
       </c>
       <c r="C62" t="n">
-        <v>0.159194</v>
+        <v>0.159264</v>
       </c>
       <c r="D62" t="n">
-        <v>0.158973</v>
+        <v>0.16106</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177252</v>
+        <v>0.178992</v>
       </c>
       <c r="C63" t="n">
-        <v>0.155148</v>
+        <v>0.155546</v>
       </c>
       <c r="D63" t="n">
-        <v>0.156108</v>
+        <v>0.157806</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.175334</v>
+        <v>0.177224</v>
       </c>
       <c r="C64" t="n">
-        <v>0.152191</v>
+        <v>0.152427</v>
       </c>
       <c r="D64" t="n">
-        <v>0.154317</v>
+        <v>0.15693</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.175491</v>
+        <v>0.17705</v>
       </c>
       <c r="C65" t="n">
-        <v>0.150858</v>
+        <v>0.151019</v>
       </c>
       <c r="D65" t="n">
-        <v>0.155637</v>
+        <v>0.158292</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.178032</v>
+        <v>0.179704</v>
       </c>
       <c r="C66" t="n">
-        <v>0.151301</v>
+        <v>0.151578</v>
       </c>
       <c r="D66" t="n">
-        <v>0.231864</v>
+        <v>0.235391</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242462</v>
+        <v>0.244865</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227487</v>
+        <v>0.227955</v>
       </c>
       <c r="D67" t="n">
-        <v>0.222838</v>
+        <v>0.226349</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.233757</v>
+        <v>0.236734</v>
       </c>
       <c r="C68" t="n">
-        <v>0.218615</v>
+        <v>0.219354</v>
       </c>
       <c r="D68" t="n">
-        <v>0.21474</v>
+        <v>0.217221</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.226244</v>
+        <v>0.228314</v>
       </c>
       <c r="C69" t="n">
-        <v>0.210301</v>
+        <v>0.21136</v>
       </c>
       <c r="D69" t="n">
-        <v>0.20645</v>
+        <v>0.209179</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.218904</v>
+        <v>0.221203</v>
       </c>
       <c r="C70" t="n">
-        <v>0.202656</v>
+        <v>0.203183</v>
       </c>
       <c r="D70" t="n">
-        <v>0.198641</v>
+        <v>0.201319</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.211916</v>
+        <v>0.214083</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195519</v>
+        <v>0.195671</v>
       </c>
       <c r="D71" t="n">
-        <v>0.191425</v>
+        <v>0.193186</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205024</v>
+        <v>0.206671</v>
       </c>
       <c r="C72" t="n">
-        <v>0.188146</v>
+        <v>0.188764</v>
       </c>
       <c r="D72" t="n">
-        <v>0.184083</v>
+        <v>0.186318</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.198657</v>
+        <v>0.200896</v>
       </c>
       <c r="C73" t="n">
-        <v>0.181766</v>
+        <v>0.182121</v>
       </c>
       <c r="D73" t="n">
-        <v>0.178732</v>
+        <v>0.180738</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.192619</v>
+        <v>0.194491</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175654</v>
+        <v>0.176258</v>
       </c>
       <c r="D74" t="n">
-        <v>0.17297</v>
+        <v>0.174344</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188074</v>
+        <v>0.189855</v>
       </c>
       <c r="C75" t="n">
-        <v>0.170364</v>
+        <v>0.170539</v>
       </c>
       <c r="D75" t="n">
-        <v>0.16763</v>
+        <v>0.169743</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.183864</v>
+        <v>0.18532</v>
       </c>
       <c r="C76" t="n">
-        <v>0.165529</v>
+        <v>0.165853</v>
       </c>
       <c r="D76" t="n">
-        <v>0.163751</v>
+        <v>0.165397</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.179922</v>
+        <v>0.181624</v>
       </c>
       <c r="C77" t="n">
-        <v>0.161035</v>
+        <v>0.161324</v>
       </c>
       <c r="D77" t="n">
-        <v>0.160343</v>
+        <v>0.162391</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.178154</v>
+        <v>0.179714</v>
       </c>
       <c r="C78" t="n">
-        <v>0.157825</v>
+        <v>0.158135</v>
       </c>
       <c r="D78" t="n">
-        <v>0.158652</v>
+        <v>0.160897</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178468</v>
+        <v>0.179417</v>
       </c>
       <c r="C79" t="n">
-        <v>0.155717</v>
+        <v>0.156155</v>
       </c>
       <c r="D79" t="n">
-        <v>0.158898</v>
+        <v>0.161656</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.180342</v>
+        <v>0.181489</v>
       </c>
       <c r="C80" t="n">
-        <v>0.155574</v>
+        <v>0.155992</v>
       </c>
       <c r="D80" t="n">
-        <v>0.236314</v>
+        <v>0.239238</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.256676</v>
+        <v>0.25815</v>
       </c>
       <c r="C81" t="n">
-        <v>0.230916</v>
+        <v>0.232101</v>
       </c>
       <c r="D81" t="n">
-        <v>0.227795</v>
+        <v>0.230873</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.248822</v>
+        <v>0.249307</v>
       </c>
       <c r="C82" t="n">
-        <v>0.223297</v>
+        <v>0.224156</v>
       </c>
       <c r="D82" t="n">
-        <v>0.219459</v>
+        <v>0.222125</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241047</v>
+        <v>0.241664</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214907</v>
+        <v>0.216698</v>
       </c>
       <c r="D83" t="n">
-        <v>0.211516</v>
+        <v>0.214179</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.233357</v>
+        <v>0.233881</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208065</v>
+        <v>0.20933</v>
       </c>
       <c r="D84" t="n">
-        <v>0.203761</v>
+        <v>0.205641</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.226708</v>
+        <v>0.22731</v>
       </c>
       <c r="C85" t="n">
-        <v>0.200529</v>
+        <v>0.202022</v>
       </c>
       <c r="D85" t="n">
-        <v>0.197011</v>
+        <v>0.198297</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.223248</v>
+        <v>0.220203</v>
       </c>
       <c r="C86" t="n">
-        <v>0.193919</v>
+        <v>0.194747</v>
       </c>
       <c r="D86" t="n">
-        <v>0.18982</v>
+        <v>0.192198</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213032</v>
+        <v>0.21366</v>
       </c>
       <c r="C87" t="n">
-        <v>0.187788</v>
+        <v>0.188727</v>
       </c>
       <c r="D87" t="n">
-        <v>0.18371</v>
+        <v>0.186089</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207</v>
+        <v>0.207529</v>
       </c>
       <c r="C88" t="n">
-        <v>0.181792</v>
+        <v>0.182712</v>
       </c>
       <c r="D88" t="n">
-        <v>0.178035</v>
+        <v>0.179807</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201171</v>
+        <v>0.201529</v>
       </c>
       <c r="C89" t="n">
-        <v>0.176221</v>
+        <v>0.179352</v>
       </c>
       <c r="D89" t="n">
-        <v>0.17261</v>
+        <v>0.174305</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19657</v>
+        <v>0.196806</v>
       </c>
       <c r="C90" t="n">
-        <v>0.171531</v>
+        <v>0.172215</v>
       </c>
       <c r="D90" t="n">
-        <v>0.168552</v>
+        <v>0.170437</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192595</v>
+        <v>0.192873</v>
       </c>
       <c r="C91" t="n">
-        <v>0.16731</v>
+        <v>0.167883</v>
       </c>
       <c r="D91" t="n">
-        <v>0.165021</v>
+        <v>0.166895</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189349</v>
+        <v>0.189934</v>
       </c>
       <c r="C92" t="n">
-        <v>0.163768</v>
+        <v>0.164616</v>
       </c>
       <c r="D92" t="n">
-        <v>0.162612</v>
+        <v>0.164806</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188158</v>
+        <v>0.188889</v>
       </c>
       <c r="C93" t="n">
-        <v>0.161501</v>
+        <v>0.161947</v>
       </c>
       <c r="D93" t="n">
-        <v>0.162379</v>
+        <v>0.165054</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189226</v>
+        <v>0.189839</v>
       </c>
       <c r="C94" t="n">
-        <v>0.160621</v>
+        <v>0.161384</v>
       </c>
       <c r="D94" t="n">
-        <v>0.253261</v>
+        <v>0.256682</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.27047</v>
+        <v>0.270675</v>
       </c>
       <c r="C95" t="n">
-        <v>0.248067</v>
+        <v>0.249175</v>
       </c>
       <c r="D95" t="n">
-        <v>0.246131</v>
+        <v>0.248352</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.264613</v>
+        <v>0.264626</v>
       </c>
       <c r="C96" t="n">
-        <v>0.241407</v>
+        <v>0.242425</v>
       </c>
       <c r="D96" t="n">
-        <v>0.237958</v>
+        <v>0.240036</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257503</v>
+        <v>0.257846</v>
       </c>
       <c r="C97" t="n">
-        <v>0.233477</v>
+        <v>0.234594</v>
       </c>
       <c r="D97" t="n">
-        <v>0.230026</v>
+        <v>0.232389</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.25043</v>
+        <v>0.251223</v>
       </c>
       <c r="C98" t="n">
-        <v>0.226544</v>
+        <v>0.227739</v>
       </c>
       <c r="D98" t="n">
-        <v>0.221897</v>
+        <v>0.22531</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244295</v>
+        <v>0.244685</v>
       </c>
       <c r="C99" t="n">
-        <v>0.219224</v>
+        <v>0.22093</v>
       </c>
       <c r="D99" t="n">
-        <v>0.215505</v>
+        <v>0.217983</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238413</v>
+        <v>0.238443</v>
       </c>
       <c r="C100" t="n">
-        <v>0.21277</v>
+        <v>0.214668</v>
       </c>
       <c r="D100" t="n">
-        <v>0.208004</v>
+        <v>0.211044</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.232996</v>
+        <v>0.232611</v>
       </c>
       <c r="C101" t="n">
-        <v>0.206632</v>
+        <v>0.208168</v>
       </c>
       <c r="D101" t="n">
-        <v>0.202676</v>
+        <v>0.203876</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227355</v>
+        <v>0.227433</v>
       </c>
       <c r="C102" t="n">
-        <v>0.201196</v>
+        <v>0.201902</v>
       </c>
       <c r="D102" t="n">
-        <v>0.197041</v>
+        <v>0.19829</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222344</v>
+        <v>0.222365</v>
       </c>
       <c r="C103" t="n">
-        <v>0.196638</v>
+        <v>0.196475</v>
       </c>
       <c r="D103" t="n">
-        <v>0.190968</v>
+        <v>0.192642</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.217427</v>
+        <v>0.217713</v>
       </c>
       <c r="C104" t="n">
-        <v>0.191727</v>
+        <v>0.191002</v>
       </c>
       <c r="D104" t="n">
-        <v>0.187385</v>
+        <v>0.188151</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.213785</v>
+        <v>0.214003</v>
       </c>
       <c r="C105" t="n">
-        <v>0.186974</v>
+        <v>0.186861</v>
       </c>
       <c r="D105" t="n">
-        <v>0.182641</v>
+        <v>0.184171</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210487</v>
+        <v>0.210634</v>
       </c>
       <c r="C106" t="n">
-        <v>0.18328</v>
+        <v>0.183679</v>
       </c>
       <c r="D106" t="n">
-        <v>0.180287</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208844</v>
+        <v>0.208638</v>
       </c>
       <c r="C107" t="n">
-        <v>0.179463</v>
+        <v>0.180929</v>
       </c>
       <c r="D107" t="n">
-        <v>0.178563</v>
+        <v>0.180958</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208341</v>
+        <v>0.208431</v>
       </c>
       <c r="C108" t="n">
-        <v>0.179846</v>
+        <v>0.181003</v>
       </c>
       <c r="D108" t="n">
-        <v>0.270094</v>
+        <v>0.275775</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.210457</v>
+        <v>0.211079</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180423</v>
+        <v>0.182218</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2632</v>
+        <v>0.268124</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.284112</v>
+        <v>0.284696</v>
       </c>
       <c r="C110" t="n">
-        <v>0.261291</v>
+        <v>0.26387</v>
       </c>
       <c r="D110" t="n">
-        <v>0.255294</v>
+        <v>0.260076</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277952</v>
+        <v>0.277841</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253691</v>
+        <v>0.255892</v>
       </c>
       <c r="D111" t="n">
-        <v>0.246398</v>
+        <v>0.250991</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.271595</v>
+        <v>0.271701</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245948</v>
+        <v>0.248235</v>
       </c>
       <c r="D112" t="n">
-        <v>0.240421</v>
+        <v>0.24428</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.265834</v>
+        <v>0.265661</v>
       </c>
       <c r="C113" t="n">
-        <v>0.239178</v>
+        <v>0.241826</v>
       </c>
       <c r="D113" t="n">
-        <v>0.233106</v>
+        <v>0.236547</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.259968</v>
+        <v>0.260185</v>
       </c>
       <c r="C114" t="n">
-        <v>0.232587</v>
+        <v>0.235003</v>
       </c>
       <c r="D114" t="n">
-        <v>0.226844</v>
+        <v>0.229703</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.254851</v>
+        <v>0.254876</v>
       </c>
       <c r="C115" t="n">
-        <v>0.226742</v>
+        <v>0.228932</v>
       </c>
       <c r="D115" t="n">
-        <v>0.220907</v>
+        <v>0.223888</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.249919</v>
+        <v>0.250051</v>
       </c>
       <c r="C116" t="n">
-        <v>0.222314</v>
+        <v>0.223331</v>
       </c>
       <c r="D116" t="n">
-        <v>0.217203</v>
+        <v>0.217568</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.245365</v>
+        <v>0.245501</v>
       </c>
       <c r="C117" t="n">
-        <v>0.218295</v>
+        <v>0.217912</v>
       </c>
       <c r="D117" t="n">
-        <v>0.212608</v>
+        <v>0.21262</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241396</v>
+        <v>0.242027</v>
       </c>
       <c r="C118" t="n">
-        <v>0.213109</v>
+        <v>0.213505</v>
       </c>
       <c r="D118" t="n">
-        <v>0.20745</v>
+        <v>0.207444</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.236972</v>
+        <v>0.237456</v>
       </c>
       <c r="C119" t="n">
-        <v>0.208694</v>
+        <v>0.206296</v>
       </c>
       <c r="D119" t="n">
-        <v>0.202372</v>
+        <v>0.202381</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234036</v>
+        <v>0.234324</v>
       </c>
       <c r="C120" t="n">
-        <v>0.205102</v>
+        <v>0.203415</v>
       </c>
       <c r="D120" t="n">
-        <v>0.199965</v>
+        <v>0.199057</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.231889</v>
+        <v>0.232409</v>
       </c>
       <c r="C121" t="n">
-        <v>0.202232</v>
+        <v>0.20073</v>
       </c>
       <c r="D121" t="n">
-        <v>0.198095</v>
+        <v>0.197916</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.230966</v>
+        <v>0.231257</v>
       </c>
       <c r="C122" t="n">
-        <v>0.200606</v>
+        <v>0.198874</v>
       </c>
       <c r="D122" t="n">
-        <v>0.199051</v>
+        <v>0.199061</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.231963</v>
+        <v>0.232189</v>
       </c>
       <c r="C123" t="n">
-        <v>0.201001</v>
+        <v>0.199426</v>
       </c>
       <c r="D123" t="n">
-        <v>0.287946</v>
+        <v>0.283401</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.319239</v>
+        <v>0.323925</v>
       </c>
       <c r="C124" t="n">
-        <v>0.286299</v>
+        <v>0.281162</v>
       </c>
       <c r="D124" t="n">
-        <v>0.275891</v>
+        <v>0.275798</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.307857</v>
+        <v>0.317362</v>
       </c>
       <c r="C125" t="n">
-        <v>0.274395</v>
+        <v>0.274512</v>
       </c>
       <c r="D125" t="n">
-        <v>0.270083</v>
+        <v>0.270821</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.301836</v>
+        <v>0.311266</v>
       </c>
       <c r="C126" t="n">
-        <v>0.268452</v>
+        <v>0.26826</v>
       </c>
       <c r="D126" t="n">
-        <v>0.263092</v>
+        <v>0.265329</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.296668</v>
+        <v>0.305336</v>
       </c>
       <c r="C127" t="n">
-        <v>0.262528</v>
+        <v>0.262663</v>
       </c>
       <c r="D127" t="n">
-        <v>0.258535</v>
+        <v>0.25895</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.291684</v>
+        <v>0.300227</v>
       </c>
       <c r="C128" t="n">
-        <v>0.257414</v>
+        <v>0.257362</v>
       </c>
       <c r="D128" t="n">
-        <v>0.253187</v>
+        <v>0.253674</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.287365</v>
+        <v>0.295408</v>
       </c>
       <c r="C129" t="n">
-        <v>0.25191</v>
+        <v>0.251908</v>
       </c>
       <c r="D129" t="n">
-        <v>0.24879</v>
+        <v>0.24881</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.282448</v>
+        <v>0.290266</v>
       </c>
       <c r="C130" t="n">
-        <v>0.247004</v>
+        <v>0.247169</v>
       </c>
       <c r="D130" t="n">
-        <v>0.24451</v>
+        <v>0.24427</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.279058</v>
+        <v>0.28642</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242614</v>
+        <v>0.242634</v>
       </c>
       <c r="D131" t="n">
-        <v>0.24011</v>
+        <v>0.240582</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.275408</v>
+        <v>0.283088</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238449</v>
+        <v>0.23896</v>
       </c>
       <c r="D132" t="n">
-        <v>0.2365</v>
+        <v>0.235983</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.272408</v>
+        <v>0.279598</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235002</v>
+        <v>0.23497</v>
       </c>
       <c r="D133" t="n">
-        <v>0.232977</v>
+        <v>0.232785</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.269849</v>
+        <v>0.276476</v>
       </c>
       <c r="C134" t="n">
-        <v>0.232101</v>
+        <v>0.232003</v>
       </c>
       <c r="D134" t="n">
-        <v>0.230606</v>
+        <v>0.231041</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.268019</v>
+        <v>0.274327</v>
       </c>
       <c r="C135" t="n">
-        <v>0.22956</v>
+        <v>0.229534</v>
       </c>
       <c r="D135" t="n">
-        <v>0.228944</v>
+        <v>0.229557</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.267337</v>
+        <v>0.273795</v>
       </c>
       <c r="C136" t="n">
-        <v>0.228083</v>
+        <v>0.228173</v>
       </c>
       <c r="D136" t="n">
-        <v>0.229036</v>
+        <v>0.22972</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.268099</v>
+        <v>0.274261</v>
       </c>
       <c r="C137" t="n">
-        <v>0.227974</v>
+        <v>0.228279</v>
       </c>
       <c r="D137" t="n">
-        <v>0.321294</v>
+        <v>0.327449</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.351276</v>
+        <v>0.372644</v>
       </c>
       <c r="C138" t="n">
-        <v>0.31815</v>
+        <v>0.322105</v>
       </c>
       <c r="D138" t="n">
-        <v>0.315585</v>
+        <v>0.320531</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.345862</v>
+        <v>0.365799</v>
       </c>
       <c r="C139" t="n">
-        <v>0.311719</v>
+        <v>0.315646</v>
       </c>
       <c r="D139" t="n">
-        <v>0.309917</v>
+        <v>0.315285</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340895</v>
+        <v>0.359568</v>
       </c>
       <c r="C140" t="n">
-        <v>0.305659</v>
+        <v>0.309949</v>
       </c>
       <c r="D140" t="n">
-        <v>0.305139</v>
+        <v>0.309578</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.336174</v>
+        <v>0.354544</v>
       </c>
       <c r="C141" t="n">
-        <v>0.30026</v>
+        <v>0.304403</v>
       </c>
       <c r="D141" t="n">
-        <v>0.300323</v>
+        <v>0.30468</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.332607</v>
+        <v>0.350017</v>
       </c>
       <c r="C142" t="n">
-        <v>0.29493</v>
+        <v>0.298671</v>
       </c>
       <c r="D142" t="n">
-        <v>0.295793</v>
+        <v>0.299029</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.328631</v>
+        <v>0.344991</v>
       </c>
       <c r="C143" t="n">
-        <v>0.290335</v>
+        <v>0.293797</v>
       </c>
       <c r="D143" t="n">
-        <v>0.291616</v>
+        <v>0.294742</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.165314</v>
+        <v>0.154134</v>
       </c>
       <c r="C2" t="n">
-        <v>0.140238</v>
+        <v>0.133095</v>
       </c>
       <c r="D2" t="n">
-        <v>0.143584</v>
+        <v>0.147329</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.164501</v>
+        <v>0.154016</v>
       </c>
       <c r="C3" t="n">
-        <v>0.136279</v>
+        <v>0.128456</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13505</v>
+        <v>0.138957</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.161576</v>
+        <v>0.151527</v>
       </c>
       <c r="C4" t="n">
-        <v>0.126488</v>
+        <v>0.12443</v>
       </c>
       <c r="D4" t="n">
-        <v>0.128601</v>
+        <v>0.134266</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.149717</v>
+        <v>0.147835</v>
       </c>
       <c r="C5" t="n">
-        <v>0.11986</v>
+        <v>0.12791</v>
       </c>
       <c r="D5" t="n">
-        <v>0.128073</v>
+        <v>0.13049</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.153395</v>
+        <v>0.142762</v>
       </c>
       <c r="C6" t="n">
-        <v>0.117849</v>
+        <v>0.124376</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12012</v>
+        <v>0.130061</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.154826</v>
+        <v>0.146505</v>
       </c>
       <c r="C7" t="n">
-        <v>0.122284</v>
+        <v>0.120166</v>
       </c>
       <c r="D7" t="n">
-        <v>0.127327</v>
+        <v>0.124212</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.155324</v>
+        <v>0.154374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.109252</v>
+        <v>0.119814</v>
       </c>
       <c r="D8" t="n">
-        <v>0.120881</v>
+        <v>0.121297</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158718</v>
+        <v>0.148954</v>
       </c>
       <c r="C9" t="n">
-        <v>0.113369</v>
+        <v>0.114002</v>
       </c>
       <c r="D9" t="n">
-        <v>0.202739</v>
+        <v>0.196091</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.214062</v>
+        <v>0.21983</v>
       </c>
       <c r="C10" t="n">
-        <v>0.187928</v>
+        <v>0.189422</v>
       </c>
       <c r="D10" t="n">
-        <v>0.199077</v>
+        <v>0.199379</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.198535</v>
+        <v>0.213141</v>
       </c>
       <c r="C11" t="n">
-        <v>0.172406</v>
+        <v>0.182611</v>
       </c>
       <c r="D11" t="n">
-        <v>0.176121</v>
+        <v>0.192506</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.20283</v>
+        <v>0.206385</v>
       </c>
       <c r="C12" t="n">
-        <v>0.177618</v>
+        <v>0.1756</v>
       </c>
       <c r="D12" t="n">
-        <v>0.185799</v>
+        <v>0.188276</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.197102</v>
+        <v>0.200715</v>
       </c>
       <c r="C13" t="n">
-        <v>0.166418</v>
+        <v>0.167315</v>
       </c>
       <c r="D13" t="n">
-        <v>0.17986</v>
+        <v>0.180593</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.188956</v>
+        <v>0.190653</v>
       </c>
       <c r="C14" t="n">
-        <v>0.162665</v>
+        <v>0.160581</v>
       </c>
       <c r="D14" t="n">
-        <v>0.173966</v>
+        <v>0.171638</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.185011</v>
+        <v>0.188336</v>
       </c>
       <c r="C15" t="n">
-        <v>0.155189</v>
+        <v>0.157503</v>
       </c>
       <c r="D15" t="n">
-        <v>0.165206</v>
+        <v>0.164237</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.178571</v>
+        <v>0.180145</v>
       </c>
       <c r="C16" t="n">
-        <v>0.151853</v>
+        <v>0.1509</v>
       </c>
       <c r="D16" t="n">
-        <v>0.160165</v>
+        <v>0.160411</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.174701</v>
+        <v>0.171818</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144826</v>
+        <v>0.144782</v>
       </c>
       <c r="D17" t="n">
-        <v>0.156176</v>
+        <v>0.153439</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.168672</v>
+        <v>0.167042</v>
       </c>
       <c r="C18" t="n">
-        <v>0.141163</v>
+        <v>0.140281</v>
       </c>
       <c r="D18" t="n">
-        <v>0.150158</v>
+        <v>0.148621</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.163777</v>
+        <v>0.166992</v>
       </c>
       <c r="C19" t="n">
-        <v>0.13595</v>
+        <v>0.137052</v>
       </c>
       <c r="D19" t="n">
-        <v>0.146912</v>
+        <v>0.13803</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.16456</v>
+        <v>0.162279</v>
       </c>
       <c r="C20" t="n">
-        <v>0.133266</v>
+        <v>0.133982</v>
       </c>
       <c r="D20" t="n">
-        <v>0.143215</v>
+        <v>0.141758</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.160462</v>
+        <v>0.160082</v>
       </c>
       <c r="C21" t="n">
-        <v>0.129502</v>
+        <v>0.129914</v>
       </c>
       <c r="D21" t="n">
-        <v>0.142433</v>
+        <v>0.140586</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.159157</v>
+        <v>0.162696</v>
       </c>
       <c r="C22" t="n">
-        <v>0.129047</v>
+        <v>0.130101</v>
       </c>
       <c r="D22" t="n">
-        <v>0.141404</v>
+        <v>0.140729</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16374</v>
+        <v>0.159838</v>
       </c>
       <c r="C23" t="n">
-        <v>0.126376</v>
+        <v>0.130361</v>
       </c>
       <c r="D23" t="n">
-        <v>0.230216</v>
+        <v>0.229035</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242438</v>
+        <v>0.237325</v>
       </c>
       <c r="C24" t="n">
-        <v>0.213619</v>
+        <v>0.212449</v>
       </c>
       <c r="D24" t="n">
-        <v>0.22162</v>
+        <v>0.223398</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.224121</v>
+        <v>0.230889</v>
       </c>
       <c r="C25" t="n">
-        <v>0.202923</v>
+        <v>0.204155</v>
       </c>
       <c r="D25" t="n">
-        <v>0.206995</v>
+        <v>0.20983</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.225431</v>
+        <v>0.223343</v>
       </c>
       <c r="C26" t="n">
-        <v>0.195422</v>
+        <v>0.195304</v>
       </c>
       <c r="D26" t="n">
-        <v>0.199077</v>
+        <v>0.199613</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.214171</v>
+        <v>0.213613</v>
       </c>
       <c r="C27" t="n">
-        <v>0.189327</v>
+        <v>0.188601</v>
       </c>
       <c r="D27" t="n">
-        <v>0.19441</v>
+        <v>0.193749</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.200226</v>
+        <v>0.200671</v>
       </c>
       <c r="C28" t="n">
-        <v>0.181116</v>
+        <v>0.182641</v>
       </c>
       <c r="D28" t="n">
-        <v>0.185825</v>
+        <v>0.184498</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.193897</v>
+        <v>0.195106</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174919</v>
+        <v>0.174336</v>
       </c>
       <c r="D29" t="n">
-        <v>0.176814</v>
+        <v>0.177317</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.191918</v>
+        <v>0.192829</v>
       </c>
       <c r="C30" t="n">
-        <v>0.16908</v>
+        <v>0.168408</v>
       </c>
       <c r="D30" t="n">
-        <v>0.171842</v>
+        <v>0.171243</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.183344</v>
+        <v>0.18729</v>
       </c>
       <c r="C31" t="n">
-        <v>0.162905</v>
+        <v>0.163027</v>
       </c>
       <c r="D31" t="n">
-        <v>0.165825</v>
+        <v>0.16706</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.18001</v>
+        <v>0.179157</v>
       </c>
       <c r="C32" t="n">
-        <v>0.157734</v>
+        <v>0.157743</v>
       </c>
       <c r="D32" t="n">
-        <v>0.160234</v>
+        <v>0.16022</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.170369</v>
+        <v>0.174112</v>
       </c>
       <c r="C33" t="n">
-        <v>0.15303</v>
+        <v>0.153177</v>
       </c>
       <c r="D33" t="n">
-        <v>0.155098</v>
+        <v>0.155435</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.174445</v>
+        <v>0.171893</v>
       </c>
       <c r="C34" t="n">
-        <v>0.148374</v>
+        <v>0.148963</v>
       </c>
       <c r="D34" t="n">
-        <v>0.152611</v>
+        <v>0.15195</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.172145</v>
+        <v>0.168721</v>
       </c>
       <c r="C35" t="n">
-        <v>0.148071</v>
+        <v>0.145741</v>
       </c>
       <c r="D35" t="n">
-        <v>0.151645</v>
+        <v>0.149263</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.171173</v>
+        <v>0.168695</v>
       </c>
       <c r="C36" t="n">
-        <v>0.146107</v>
+        <v>0.143591</v>
       </c>
       <c r="D36" t="n">
-        <v>0.151238</v>
+        <v>0.149536</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171781</v>
+        <v>0.17281</v>
       </c>
       <c r="C37" t="n">
-        <v>0.145069</v>
+        <v>0.143187</v>
       </c>
       <c r="D37" t="n">
-        <v>0.236271</v>
+        <v>0.241982</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.248569</v>
+        <v>0.251294</v>
       </c>
       <c r="C38" t="n">
-        <v>0.22405</v>
+        <v>0.223849</v>
       </c>
       <c r="D38" t="n">
-        <v>0.225008</v>
+        <v>0.229854</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238416</v>
+        <v>0.241424</v>
       </c>
       <c r="C39" t="n">
-        <v>0.21553</v>
+        <v>0.21534</v>
       </c>
       <c r="D39" t="n">
-        <v>0.227717</v>
+        <v>0.219841</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.229861</v>
+        <v>0.233321</v>
       </c>
       <c r="C40" t="n">
-        <v>0.207053</v>
+        <v>0.206574</v>
       </c>
       <c r="D40" t="n">
-        <v>0.208166</v>
+        <v>0.21592</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.222292</v>
+        <v>0.224189</v>
       </c>
       <c r="C41" t="n">
-        <v>0.198982</v>
+        <v>0.198773</v>
       </c>
       <c r="D41" t="n">
-        <v>0.200091</v>
+        <v>0.212191</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.214357</v>
+        <v>0.216586</v>
       </c>
       <c r="C42" t="n">
-        <v>0.191902</v>
+        <v>0.191406</v>
       </c>
       <c r="D42" t="n">
-        <v>0.192988</v>
+        <v>0.193633</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.207449</v>
+        <v>0.209502</v>
       </c>
       <c r="C43" t="n">
-        <v>0.184506</v>
+        <v>0.183519</v>
       </c>
       <c r="D43" t="n">
-        <v>0.182355</v>
+        <v>0.182212</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.196562</v>
+        <v>0.199033</v>
       </c>
       <c r="C44" t="n">
-        <v>0.174645</v>
+        <v>0.174623</v>
       </c>
       <c r="D44" t="n">
-        <v>0.175993</v>
+        <v>0.175688</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.190481</v>
+        <v>0.192792</v>
       </c>
       <c r="C45" t="n">
-        <v>0.169178</v>
+        <v>0.168507</v>
       </c>
       <c r="D45" t="n">
-        <v>0.170317</v>
+        <v>0.169722</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.184806</v>
+        <v>0.18617</v>
       </c>
       <c r="C46" t="n">
-        <v>0.163428</v>
+        <v>0.163378</v>
       </c>
       <c r="D46" t="n">
-        <v>0.165003</v>
+        <v>0.164596</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.180338</v>
+        <v>0.182347</v>
       </c>
       <c r="C47" t="n">
-        <v>0.158481</v>
+        <v>0.158668</v>
       </c>
       <c r="D47" t="n">
-        <v>0.160708</v>
+        <v>0.160076</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.17638</v>
+        <v>0.178359</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1544</v>
+        <v>0.154043</v>
       </c>
       <c r="D48" t="n">
-        <v>0.156872</v>
+        <v>0.156191</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173278</v>
+        <v>0.174979</v>
       </c>
       <c r="C49" t="n">
-        <v>0.150592</v>
+        <v>0.150782</v>
       </c>
       <c r="D49" t="n">
-        <v>0.154577</v>
+        <v>0.153985</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172033</v>
+        <v>0.173814</v>
       </c>
       <c r="C50" t="n">
-        <v>0.148543</v>
+        <v>0.148357</v>
       </c>
       <c r="D50" t="n">
-        <v>0.153738</v>
+        <v>0.153655</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173413</v>
+        <v>0.173958</v>
       </c>
       <c r="C51" t="n">
-        <v>0.147587</v>
+        <v>0.147302</v>
       </c>
       <c r="D51" t="n">
-        <v>0.237122</v>
+        <v>0.236634</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176666</v>
+        <v>0.177668</v>
       </c>
       <c r="C52" t="n">
-        <v>0.148165</v>
+        <v>0.148191</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227814</v>
+        <v>0.227444</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.24216</v>
+        <v>0.243958</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218889</v>
+        <v>0.218716</v>
       </c>
       <c r="D53" t="n">
-        <v>0.218968</v>
+        <v>0.218621</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.232755</v>
+        <v>0.235095</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210288</v>
+        <v>0.210018</v>
       </c>
       <c r="D54" t="n">
-        <v>0.209914</v>
+        <v>0.209902</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.225035</v>
+        <v>0.226421</v>
       </c>
       <c r="C55" t="n">
-        <v>0.202284</v>
+        <v>0.201813</v>
       </c>
       <c r="D55" t="n">
-        <v>0.202443</v>
+        <v>0.202577</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.217216</v>
+        <v>0.218612</v>
       </c>
       <c r="C56" t="n">
-        <v>0.194664</v>
+        <v>0.194791</v>
       </c>
       <c r="D56" t="n">
-        <v>0.19497</v>
+        <v>0.194223</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.209437</v>
+        <v>0.211269</v>
       </c>
       <c r="C57" t="n">
-        <v>0.187581</v>
+        <v>0.187532</v>
       </c>
       <c r="D57" t="n">
-        <v>0.187613</v>
+        <v>0.187571</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.203087</v>
+        <v>0.20409</v>
       </c>
       <c r="C58" t="n">
-        <v>0.18096</v>
+        <v>0.181047</v>
       </c>
       <c r="D58" t="n">
-        <v>0.180878</v>
+        <v>0.180633</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196796</v>
+        <v>0.1977</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174667</v>
+        <v>0.174723</v>
       </c>
       <c r="D59" t="n">
-        <v>0.174721</v>
+        <v>0.174959</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.19157</v>
+        <v>0.192159</v>
       </c>
       <c r="C60" t="n">
-        <v>0.16902</v>
+        <v>0.169022</v>
       </c>
       <c r="D60" t="n">
-        <v>0.169393</v>
+        <v>0.168863</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.186295</v>
+        <v>0.18683</v>
       </c>
       <c r="C61" t="n">
-        <v>0.164128</v>
+        <v>0.163968</v>
       </c>
       <c r="D61" t="n">
-        <v>0.164686</v>
+        <v>0.164507</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.181905</v>
+        <v>0.182661</v>
       </c>
       <c r="C62" t="n">
-        <v>0.159264</v>
+        <v>0.159407</v>
       </c>
       <c r="D62" t="n">
-        <v>0.16106</v>
+        <v>0.160773</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178992</v>
+        <v>0.179156</v>
       </c>
       <c r="C63" t="n">
-        <v>0.155546</v>
+        <v>0.155255</v>
       </c>
       <c r="D63" t="n">
-        <v>0.157806</v>
+        <v>0.157678</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177224</v>
+        <v>0.177618</v>
       </c>
       <c r="C64" t="n">
-        <v>0.152427</v>
+        <v>0.152468</v>
       </c>
       <c r="D64" t="n">
-        <v>0.15693</v>
+        <v>0.156768</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17705</v>
+        <v>0.177505</v>
       </c>
       <c r="C65" t="n">
-        <v>0.151019</v>
+        <v>0.150961</v>
       </c>
       <c r="D65" t="n">
-        <v>0.158292</v>
+        <v>0.15804</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179704</v>
+        <v>0.179943</v>
       </c>
       <c r="C66" t="n">
-        <v>0.151578</v>
+        <v>0.151324</v>
       </c>
       <c r="D66" t="n">
-        <v>0.235391</v>
+        <v>0.234963</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244865</v>
+        <v>0.243895</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227955</v>
+        <v>0.227803</v>
       </c>
       <c r="D67" t="n">
-        <v>0.226349</v>
+        <v>0.224507</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236734</v>
+        <v>0.235131</v>
       </c>
       <c r="C68" t="n">
-        <v>0.219354</v>
+        <v>0.218975</v>
       </c>
       <c r="D68" t="n">
-        <v>0.217221</v>
+        <v>0.217099</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.228314</v>
+        <v>0.226509</v>
       </c>
       <c r="C69" t="n">
-        <v>0.21136</v>
+        <v>0.21069</v>
       </c>
       <c r="D69" t="n">
-        <v>0.209179</v>
+        <v>0.208723</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.221203</v>
+        <v>0.219262</v>
       </c>
       <c r="C70" t="n">
-        <v>0.203183</v>
+        <v>0.202863</v>
       </c>
       <c r="D70" t="n">
-        <v>0.201319</v>
+        <v>0.200758</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.214083</v>
+        <v>0.212902</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195671</v>
+        <v>0.195787</v>
       </c>
       <c r="D71" t="n">
-        <v>0.193186</v>
+        <v>0.193394</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.206671</v>
+        <v>0.205912</v>
       </c>
       <c r="C72" t="n">
-        <v>0.188764</v>
+        <v>0.188445</v>
       </c>
       <c r="D72" t="n">
-        <v>0.186318</v>
+        <v>0.186451</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.200896</v>
+        <v>0.200077</v>
       </c>
       <c r="C73" t="n">
-        <v>0.182121</v>
+        <v>0.182</v>
       </c>
       <c r="D73" t="n">
-        <v>0.180738</v>
+        <v>0.179946</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.194491</v>
+        <v>0.193077</v>
       </c>
       <c r="C74" t="n">
-        <v>0.176258</v>
+        <v>0.17603</v>
       </c>
       <c r="D74" t="n">
-        <v>0.174344</v>
+        <v>0.174342</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.189855</v>
+        <v>0.187844</v>
       </c>
       <c r="C75" t="n">
-        <v>0.170539</v>
+        <v>0.170474</v>
       </c>
       <c r="D75" t="n">
-        <v>0.169743</v>
+        <v>0.169276</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.18532</v>
+        <v>0.183798</v>
       </c>
       <c r="C76" t="n">
-        <v>0.165853</v>
+        <v>0.165429</v>
       </c>
       <c r="D76" t="n">
-        <v>0.165397</v>
+        <v>0.165106</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181624</v>
+        <v>0.181942</v>
       </c>
       <c r="C77" t="n">
-        <v>0.161324</v>
+        <v>0.161373</v>
       </c>
       <c r="D77" t="n">
-        <v>0.162391</v>
+        <v>0.161925</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179714</v>
+        <v>0.178129</v>
       </c>
       <c r="C78" t="n">
-        <v>0.158135</v>
+        <v>0.157934</v>
       </c>
       <c r="D78" t="n">
-        <v>0.160897</v>
+        <v>0.160159</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179417</v>
+        <v>0.178476</v>
       </c>
       <c r="C79" t="n">
-        <v>0.156155</v>
+        <v>0.156039</v>
       </c>
       <c r="D79" t="n">
-        <v>0.161656</v>
+        <v>0.160877</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181489</v>
+        <v>0.17956</v>
       </c>
       <c r="C80" t="n">
-        <v>0.155992</v>
+        <v>0.155776</v>
       </c>
       <c r="D80" t="n">
-        <v>0.239238</v>
+        <v>0.238589</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.25815</v>
+        <v>0.264578</v>
       </c>
       <c r="C81" t="n">
-        <v>0.232101</v>
+        <v>0.230999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.230873</v>
+        <v>0.229494</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249307</v>
+        <v>0.256391</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224156</v>
+        <v>0.222851</v>
       </c>
       <c r="D82" t="n">
-        <v>0.222125</v>
+        <v>0.221162</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241664</v>
+        <v>0.248125</v>
       </c>
       <c r="C83" t="n">
-        <v>0.216698</v>
+        <v>0.21555</v>
       </c>
       <c r="D83" t="n">
-        <v>0.214179</v>
+        <v>0.213161</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.233881</v>
+        <v>0.240193</v>
       </c>
       <c r="C84" t="n">
-        <v>0.20933</v>
+        <v>0.207598</v>
       </c>
       <c r="D84" t="n">
-        <v>0.205641</v>
+        <v>0.205476</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.22731</v>
+        <v>0.23267</v>
       </c>
       <c r="C85" t="n">
-        <v>0.202022</v>
+        <v>0.200932</v>
       </c>
       <c r="D85" t="n">
-        <v>0.198297</v>
+        <v>0.198543</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220203</v>
+        <v>0.22559</v>
       </c>
       <c r="C86" t="n">
-        <v>0.194747</v>
+        <v>0.194674</v>
       </c>
       <c r="D86" t="n">
-        <v>0.192198</v>
+        <v>0.191414</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.21366</v>
+        <v>0.219082</v>
       </c>
       <c r="C87" t="n">
-        <v>0.188727</v>
+        <v>0.187216</v>
       </c>
       <c r="D87" t="n">
-        <v>0.186089</v>
+        <v>0.185247</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207529</v>
+        <v>0.211712</v>
       </c>
       <c r="C88" t="n">
-        <v>0.182712</v>
+        <v>0.181952</v>
       </c>
       <c r="D88" t="n">
-        <v>0.179807</v>
+        <v>0.179339</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201529</v>
+        <v>0.205985</v>
       </c>
       <c r="C89" t="n">
-        <v>0.179352</v>
+        <v>0.176475</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174305</v>
+        <v>0.174257</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196806</v>
+        <v>0.200617</v>
       </c>
       <c r="C90" t="n">
-        <v>0.172215</v>
+        <v>0.170572</v>
       </c>
       <c r="D90" t="n">
-        <v>0.170437</v>
+        <v>0.169949</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192873</v>
+        <v>0.196613</v>
       </c>
       <c r="C91" t="n">
-        <v>0.167883</v>
+        <v>0.166383</v>
       </c>
       <c r="D91" t="n">
-        <v>0.166895</v>
+        <v>0.166266</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189934</v>
+        <v>0.193676</v>
       </c>
       <c r="C92" t="n">
-        <v>0.164616</v>
+        <v>0.163661</v>
       </c>
       <c r="D92" t="n">
-        <v>0.164806</v>
+        <v>0.164254</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188889</v>
+        <v>0.192327</v>
       </c>
       <c r="C93" t="n">
-        <v>0.161947</v>
+        <v>0.161501</v>
       </c>
       <c r="D93" t="n">
-        <v>0.165054</v>
+        <v>0.164462</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189839</v>
+        <v>0.192999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.161384</v>
+        <v>0.159943</v>
       </c>
       <c r="D94" t="n">
-        <v>0.256682</v>
+        <v>0.254846</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.270675</v>
+        <v>0.273646</v>
       </c>
       <c r="C95" t="n">
-        <v>0.249175</v>
+        <v>0.248331</v>
       </c>
       <c r="D95" t="n">
-        <v>0.248352</v>
+        <v>0.247693</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.264626</v>
+        <v>0.267783</v>
       </c>
       <c r="C96" t="n">
-        <v>0.242425</v>
+        <v>0.241042</v>
       </c>
       <c r="D96" t="n">
-        <v>0.240036</v>
+        <v>0.238917</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.257846</v>
+        <v>0.260741</v>
       </c>
       <c r="C97" t="n">
-        <v>0.234594</v>
+        <v>0.233042</v>
       </c>
       <c r="D97" t="n">
-        <v>0.232389</v>
+        <v>0.231813</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.251223</v>
+        <v>0.253769</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227739</v>
+        <v>0.225508</v>
       </c>
       <c r="D98" t="n">
-        <v>0.22531</v>
+        <v>0.223193</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244685</v>
+        <v>0.246899</v>
       </c>
       <c r="C99" t="n">
-        <v>0.22093</v>
+        <v>0.219631</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217983</v>
+        <v>0.216488</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238443</v>
+        <v>0.241234</v>
       </c>
       <c r="C100" t="n">
-        <v>0.214668</v>
+        <v>0.212754</v>
       </c>
       <c r="D100" t="n">
-        <v>0.211044</v>
+        <v>0.208922</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.232611</v>
+        <v>0.235054</v>
       </c>
       <c r="C101" t="n">
-        <v>0.208168</v>
+        <v>0.206639</v>
       </c>
       <c r="D101" t="n">
-        <v>0.203876</v>
+        <v>0.202801</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227433</v>
+        <v>0.229639</v>
       </c>
       <c r="C102" t="n">
-        <v>0.201902</v>
+        <v>0.199804</v>
       </c>
       <c r="D102" t="n">
-        <v>0.19829</v>
+        <v>0.196575</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.222365</v>
+        <v>0.224445</v>
       </c>
       <c r="C103" t="n">
-        <v>0.196475</v>
+        <v>0.194791</v>
       </c>
       <c r="D103" t="n">
-        <v>0.192642</v>
+        <v>0.191621</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.217713</v>
+        <v>0.219872</v>
       </c>
       <c r="C104" t="n">
-        <v>0.191002</v>
+        <v>0.190194</v>
       </c>
       <c r="D104" t="n">
-        <v>0.188151</v>
+        <v>0.18674</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214003</v>
+        <v>0.216061</v>
       </c>
       <c r="C105" t="n">
-        <v>0.186861</v>
+        <v>0.186341</v>
       </c>
       <c r="D105" t="n">
-        <v>0.184171</v>
+        <v>0.182941</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210634</v>
+        <v>0.212334</v>
       </c>
       <c r="C106" t="n">
-        <v>0.183679</v>
+        <v>0.182751</v>
       </c>
       <c r="D106" t="n">
-        <v>0.181579</v>
+        <v>0.18037</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208638</v>
+        <v>0.210555</v>
       </c>
       <c r="C107" t="n">
-        <v>0.180929</v>
+        <v>0.180606</v>
       </c>
       <c r="D107" t="n">
-        <v>0.180958</v>
+        <v>0.180467</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208431</v>
+        <v>0.210324</v>
       </c>
       <c r="C108" t="n">
-        <v>0.181003</v>
+        <v>0.178959</v>
       </c>
       <c r="D108" t="n">
-        <v>0.275775</v>
+        <v>0.271165</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211079</v>
+        <v>0.212544</v>
       </c>
       <c r="C109" t="n">
-        <v>0.182218</v>
+        <v>0.179971</v>
       </c>
       <c r="D109" t="n">
-        <v>0.268124</v>
+        <v>0.264473</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.284696</v>
+        <v>0.293835</v>
       </c>
       <c r="C110" t="n">
-        <v>0.26387</v>
+        <v>0.261368</v>
       </c>
       <c r="D110" t="n">
-        <v>0.260076</v>
+        <v>0.259478</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277841</v>
+        <v>0.286801</v>
       </c>
       <c r="C111" t="n">
-        <v>0.255892</v>
+        <v>0.256104</v>
       </c>
       <c r="D111" t="n">
-        <v>0.250991</v>
+        <v>0.250609</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.271701</v>
+        <v>0.281717</v>
       </c>
       <c r="C112" t="n">
-        <v>0.248235</v>
+        <v>0.248962</v>
       </c>
       <c r="D112" t="n">
-        <v>0.24428</v>
+        <v>0.243577</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.265661</v>
+        <v>0.273959</v>
       </c>
       <c r="C113" t="n">
-        <v>0.241826</v>
+        <v>0.241986</v>
       </c>
       <c r="D113" t="n">
-        <v>0.236547</v>
+        <v>0.236832</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260185</v>
+        <v>0.267659</v>
       </c>
       <c r="C114" t="n">
-        <v>0.235003</v>
+        <v>0.235123</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229703</v>
+        <v>0.229233</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.254876</v>
+        <v>0.262051</v>
       </c>
       <c r="C115" t="n">
-        <v>0.228932</v>
+        <v>0.228907</v>
       </c>
       <c r="D115" t="n">
-        <v>0.223888</v>
+        <v>0.223303</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250051</v>
+        <v>0.256792</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223331</v>
+        <v>0.223074</v>
       </c>
       <c r="D116" t="n">
-        <v>0.217568</v>
+        <v>0.217301</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.245501</v>
+        <v>0.251792</v>
       </c>
       <c r="C117" t="n">
-        <v>0.217912</v>
+        <v>0.21782</v>
       </c>
       <c r="D117" t="n">
-        <v>0.21262</v>
+        <v>0.212093</v>
       </c>
     </row>
     <row r="118">
@@ -4872,10 +4872,10 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.242027</v>
+        <v>0.247419</v>
       </c>
       <c r="C118" t="n">
-        <v>0.213505</v>
+        <v>0.213126</v>
       </c>
       <c r="D118" t="n">
         <v>0.207444</v>
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237456</v>
+        <v>0.24329</v>
       </c>
       <c r="C119" t="n">
-        <v>0.206296</v>
+        <v>0.209</v>
       </c>
       <c r="D119" t="n">
-        <v>0.202381</v>
+        <v>0.203725</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234324</v>
+        <v>0.241208</v>
       </c>
       <c r="C120" t="n">
-        <v>0.203415</v>
+        <v>0.203475</v>
       </c>
       <c r="D120" t="n">
-        <v>0.199057</v>
+        <v>0.198743</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232409</v>
+        <v>0.237542</v>
       </c>
       <c r="C121" t="n">
-        <v>0.20073</v>
+        <v>0.200379</v>
       </c>
       <c r="D121" t="n">
-        <v>0.197916</v>
+        <v>0.197593</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231257</v>
+        <v>0.236278</v>
       </c>
       <c r="C122" t="n">
-        <v>0.198874</v>
+        <v>0.199354</v>
       </c>
       <c r="D122" t="n">
-        <v>0.199061</v>
+        <v>0.198309</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232189</v>
+        <v>0.237302</v>
       </c>
       <c r="C123" t="n">
-        <v>0.199426</v>
+        <v>0.19931</v>
       </c>
       <c r="D123" t="n">
-        <v>0.283401</v>
+        <v>0.284222</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.323925</v>
+        <v>0.318166</v>
       </c>
       <c r="C124" t="n">
-        <v>0.281162</v>
+        <v>0.28117</v>
       </c>
       <c r="D124" t="n">
-        <v>0.275798</v>
+        <v>0.27676</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.317362</v>
+        <v>0.312503</v>
       </c>
       <c r="C125" t="n">
-        <v>0.274512</v>
+        <v>0.274729</v>
       </c>
       <c r="D125" t="n">
-        <v>0.270821</v>
+        <v>0.270629</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.311266</v>
+        <v>0.306744</v>
       </c>
       <c r="C126" t="n">
-        <v>0.26826</v>
+        <v>0.26852</v>
       </c>
       <c r="D126" t="n">
-        <v>0.265329</v>
+        <v>0.264438</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.305336</v>
+        <v>0.301534</v>
       </c>
       <c r="C127" t="n">
-        <v>0.262663</v>
+        <v>0.262548</v>
       </c>
       <c r="D127" t="n">
-        <v>0.25895</v>
+        <v>0.259158</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.300227</v>
+        <v>0.296628</v>
       </c>
       <c r="C128" t="n">
-        <v>0.257362</v>
+        <v>0.257569</v>
       </c>
       <c r="D128" t="n">
-        <v>0.253674</v>
+        <v>0.253207</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.295408</v>
+        <v>0.292693</v>
       </c>
       <c r="C129" t="n">
-        <v>0.251908</v>
+        <v>0.252523</v>
       </c>
       <c r="D129" t="n">
-        <v>0.24881</v>
+        <v>0.249025</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.290266</v>
+        <v>0.288083</v>
       </c>
       <c r="C130" t="n">
-        <v>0.247169</v>
+        <v>0.247878</v>
       </c>
       <c r="D130" t="n">
-        <v>0.24427</v>
+        <v>0.244735</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.28642</v>
+        <v>0.283309</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242634</v>
+        <v>0.24318</v>
       </c>
       <c r="D131" t="n">
-        <v>0.240582</v>
+        <v>0.24061</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.283088</v>
+        <v>0.279405</v>
       </c>
       <c r="C132" t="n">
-        <v>0.23896</v>
+        <v>0.238962</v>
       </c>
       <c r="D132" t="n">
-        <v>0.235983</v>
+        <v>0.236964</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.279598</v>
+        <v>0.276439</v>
       </c>
       <c r="C133" t="n">
-        <v>0.23497</v>
+        <v>0.235475</v>
       </c>
       <c r="D133" t="n">
-        <v>0.232785</v>
+        <v>0.233208</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.276476</v>
+        <v>0.273431</v>
       </c>
       <c r="C134" t="n">
-        <v>0.232003</v>
+        <v>0.232393</v>
       </c>
       <c r="D134" t="n">
-        <v>0.231041</v>
+        <v>0.231054</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.274327</v>
+        <v>0.272021</v>
       </c>
       <c r="C135" t="n">
-        <v>0.229534</v>
+        <v>0.230454</v>
       </c>
       <c r="D135" t="n">
-        <v>0.229557</v>
+        <v>0.229452</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.273795</v>
+        <v>0.271085</v>
       </c>
       <c r="C136" t="n">
-        <v>0.228173</v>
+        <v>0.228985</v>
       </c>
       <c r="D136" t="n">
-        <v>0.22972</v>
+        <v>0.229909</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.274261</v>
+        <v>0.271851</v>
       </c>
       <c r="C137" t="n">
-        <v>0.228279</v>
+        <v>0.228899</v>
       </c>
       <c r="D137" t="n">
-        <v>0.327449</v>
+        <v>0.325069</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.372644</v>
+        <v>0.373972</v>
       </c>
       <c r="C138" t="n">
-        <v>0.322105</v>
+        <v>0.320866</v>
       </c>
       <c r="D138" t="n">
-        <v>0.320531</v>
+        <v>0.318552</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.365799</v>
+        <v>0.368807</v>
       </c>
       <c r="C139" t="n">
-        <v>0.315646</v>
+        <v>0.314842</v>
       </c>
       <c r="D139" t="n">
-        <v>0.315285</v>
+        <v>0.313049</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.359568</v>
+        <v>0.36329</v>
       </c>
       <c r="C140" t="n">
-        <v>0.309949</v>
+        <v>0.308494</v>
       </c>
       <c r="D140" t="n">
-        <v>0.309578</v>
+        <v>0.307737</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.354544</v>
+        <v>0.357535</v>
       </c>
       <c r="C141" t="n">
-        <v>0.304403</v>
+        <v>0.30313</v>
       </c>
       <c r="D141" t="n">
-        <v>0.30468</v>
+        <v>0.303247</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.350017</v>
+        <v>0.35188</v>
       </c>
       <c r="C142" t="n">
-        <v>0.298671</v>
+        <v>0.298468</v>
       </c>
       <c r="D142" t="n">
-        <v>0.299029</v>
+        <v>0.298479</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.344991</v>
+        <v>0.347422</v>
       </c>
       <c r="C143" t="n">
-        <v>0.293797</v>
+        <v>0.293579</v>
       </c>
       <c r="D143" t="n">
-        <v>0.294742</v>
+        <v>0.294201</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.158876</v>
+        <v>0.171393</v>
       </c>
       <c r="C2" t="n">
-        <v>0.242276</v>
+        <v>0.251559</v>
       </c>
       <c r="D2" t="n">
-        <v>0.146893</v>
+        <v>0.14693</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.161214</v>
+        <v>0.16056</v>
       </c>
       <c r="C3" t="n">
-        <v>0.245317</v>
+        <v>0.24489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.131691</v>
+        <v>0.140837</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.155941</v>
+        <v>0.147701</v>
       </c>
       <c r="C4" t="n">
-        <v>0.238347</v>
+        <v>0.242101</v>
       </c>
       <c r="D4" t="n">
-        <v>0.137036</v>
+        <v>0.13438</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.151916</v>
+        <v>0.15139</v>
       </c>
       <c r="C5" t="n">
-        <v>0.248739</v>
+        <v>0.241486</v>
       </c>
       <c r="D5" t="n">
-        <v>0.131842</v>
+        <v>0.131034</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.150106</v>
+        <v>0.148749</v>
       </c>
       <c r="C6" t="n">
-        <v>0.239565</v>
+        <v>0.245806</v>
       </c>
       <c r="D6" t="n">
-        <v>0.125616</v>
+        <v>0.127759</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.148802</v>
+        <v>0.158663</v>
       </c>
       <c r="C7" t="n">
-        <v>0.253177</v>
+        <v>0.25173</v>
       </c>
       <c r="D7" t="n">
-        <v>0.121087</v>
+        <v>0.121018</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.149237</v>
+        <v>0.14966</v>
       </c>
       <c r="C8" t="n">
-        <v>0.303239</v>
+        <v>0.305116</v>
       </c>
       <c r="D8" t="n">
-        <v>0.121584</v>
+        <v>0.121889</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.140723</v>
+        <v>0.145942</v>
       </c>
       <c r="C9" t="n">
-        <v>0.293143</v>
+        <v>0.298444</v>
       </c>
       <c r="D9" t="n">
-        <v>0.194024</v>
+        <v>0.198385</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.210905</v>
+        <v>0.212148</v>
       </c>
       <c r="C10" t="n">
-        <v>0.289925</v>
+        <v>0.292158</v>
       </c>
       <c r="D10" t="n">
-        <v>0.184754</v>
+        <v>0.18494</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.198261</v>
+        <v>0.202373</v>
       </c>
       <c r="C11" t="n">
-        <v>0.280454</v>
+        <v>0.285955</v>
       </c>
       <c r="D11" t="n">
-        <v>0.180606</v>
+        <v>0.175319</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.204428</v>
+        <v>0.207084</v>
       </c>
       <c r="C12" t="n">
-        <v>0.280751</v>
+        <v>0.280402</v>
       </c>
       <c r="D12" t="n">
-        <v>0.174134</v>
+        <v>0.174551</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.196456</v>
+        <v>0.19601</v>
       </c>
       <c r="C13" t="n">
-        <v>0.276354</v>
+        <v>0.285269</v>
       </c>
       <c r="D13" t="n">
-        <v>0.171019</v>
+        <v>0.163563</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.177931</v>
+        <v>0.181657</v>
       </c>
       <c r="C14" t="n">
-        <v>0.277223</v>
+        <v>0.274383</v>
       </c>
       <c r="D14" t="n">
-        <v>0.162719</v>
+        <v>0.162105</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.176255</v>
+        <v>0.183295</v>
       </c>
       <c r="C15" t="n">
-        <v>0.275769</v>
+        <v>0.279365</v>
       </c>
       <c r="D15" t="n">
-        <v>0.155949</v>
+        <v>0.14939</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.170107</v>
+        <v>0.174244</v>
       </c>
       <c r="C16" t="n">
-        <v>0.267259</v>
+        <v>0.270882</v>
       </c>
       <c r="D16" t="n">
-        <v>0.152252</v>
+        <v>0.147015</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.163874</v>
+        <v>0.17152</v>
       </c>
       <c r="C17" t="n">
-        <v>0.271819</v>
+        <v>0.265995</v>
       </c>
       <c r="D17" t="n">
-        <v>0.149936</v>
+        <v>0.142568</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.159725</v>
+        <v>0.169561</v>
       </c>
       <c r="C18" t="n">
-        <v>0.267378</v>
+        <v>0.274225</v>
       </c>
       <c r="D18" t="n">
-        <v>0.140064</v>
+        <v>0.138358</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.157348</v>
+        <v>0.167613</v>
       </c>
       <c r="C19" t="n">
-        <v>0.26539</v>
+        <v>0.269438</v>
       </c>
       <c r="D19" t="n">
-        <v>0.137412</v>
+        <v>0.135696</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.151874</v>
+        <v>0.15475</v>
       </c>
       <c r="C20" t="n">
-        <v>0.275272</v>
+        <v>0.275939</v>
       </c>
       <c r="D20" t="n">
-        <v>0.136896</v>
+        <v>0.133272</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.152381</v>
+        <v>0.154833</v>
       </c>
       <c r="C21" t="n">
-        <v>0.277668</v>
+        <v>0.283015</v>
       </c>
       <c r="D21" t="n">
-        <v>0.131549</v>
+        <v>0.131504</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.154995</v>
+        <v>0.15662</v>
       </c>
       <c r="C22" t="n">
-        <v>0.335169</v>
+        <v>0.336601</v>
       </c>
       <c r="D22" t="n">
-        <v>0.138279</v>
+        <v>0.138313</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.157347</v>
+        <v>0.160117</v>
       </c>
       <c r="C23" t="n">
-        <v>0.328025</v>
+        <v>0.326346</v>
       </c>
       <c r="D23" t="n">
-        <v>0.226752</v>
+        <v>0.226534</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.237559</v>
+        <v>0.237991</v>
       </c>
       <c r="C24" t="n">
-        <v>0.317668</v>
+        <v>0.317522</v>
       </c>
       <c r="D24" t="n">
-        <v>0.217993</v>
+        <v>0.217719</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.220873</v>
+        <v>0.225822</v>
       </c>
       <c r="C25" t="n">
-        <v>0.310287</v>
+        <v>0.310164</v>
       </c>
       <c r="D25" t="n">
-        <v>0.211366</v>
+        <v>0.208361</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.214475</v>
+        <v>0.230224</v>
       </c>
       <c r="C26" t="n">
-        <v>0.303702</v>
+        <v>0.305931</v>
       </c>
       <c r="D26" t="n">
-        <v>0.201647</v>
+        <v>0.200891</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.206091</v>
+        <v>0.217332</v>
       </c>
       <c r="C27" t="n">
-        <v>0.315946</v>
+        <v>0.327613</v>
       </c>
       <c r="D27" t="n">
-        <v>0.195417</v>
+        <v>0.193596</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.197067</v>
+        <v>0.206867</v>
       </c>
       <c r="C28" t="n">
-        <v>0.318479</v>
+        <v>0.313399</v>
       </c>
       <c r="D28" t="n">
-        <v>0.187558</v>
+        <v>0.187577</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.192214</v>
+        <v>0.202612</v>
       </c>
       <c r="C29" t="n">
-        <v>0.309369</v>
+        <v>0.30894</v>
       </c>
       <c r="D29" t="n">
-        <v>0.176767</v>
+        <v>0.177392</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.184954</v>
+        <v>0.193342</v>
       </c>
       <c r="C30" t="n">
-        <v>0.300635</v>
+        <v>0.305648</v>
       </c>
       <c r="D30" t="n">
-        <v>0.17144</v>
+        <v>0.171752</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.184717</v>
+        <v>0.186846</v>
       </c>
       <c r="C31" t="n">
-        <v>0.306206</v>
+        <v>0.303481</v>
       </c>
       <c r="D31" t="n">
-        <v>0.162653</v>
+        <v>0.166122</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.176078</v>
+        <v>0.179363</v>
       </c>
       <c r="C32" t="n">
-        <v>0.303272</v>
+        <v>0.300535</v>
       </c>
       <c r="D32" t="n">
-        <v>0.158209</v>
+        <v>0.161576</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.170965</v>
+        <v>0.178908</v>
       </c>
       <c r="C33" t="n">
-        <v>0.301406</v>
+        <v>0.301182</v>
       </c>
       <c r="D33" t="n">
-        <v>0.156432</v>
+        <v>0.156986</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.169165</v>
+        <v>0.172427</v>
       </c>
       <c r="C34" t="n">
-        <v>0.300323</v>
+        <v>0.301049</v>
       </c>
       <c r="D34" t="n">
-        <v>0.152501</v>
+        <v>0.154534</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.168637</v>
+        <v>0.165834</v>
       </c>
       <c r="C35" t="n">
-        <v>0.302527</v>
+        <v>0.305267</v>
       </c>
       <c r="D35" t="n">
-        <v>0.149703</v>
+        <v>0.152379</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.167198</v>
+        <v>0.16678</v>
       </c>
       <c r="C36" t="n">
-        <v>0.303998</v>
+        <v>0.308932</v>
       </c>
       <c r="D36" t="n">
-        <v>0.148753</v>
+        <v>0.15185</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.163541</v>
+        <v>0.170432</v>
       </c>
       <c r="C37" t="n">
-        <v>0.355212</v>
+        <v>0.355358</v>
       </c>
       <c r="D37" t="n">
-        <v>0.227069</v>
+        <v>0.235129</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241383</v>
+        <v>0.243869</v>
       </c>
       <c r="C38" t="n">
-        <v>0.348006</v>
+        <v>0.347886</v>
       </c>
       <c r="D38" t="n">
-        <v>0.217668</v>
+        <v>0.226284</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233404</v>
+        <v>0.23533</v>
       </c>
       <c r="C39" t="n">
-        <v>0.341682</v>
+        <v>0.339824</v>
       </c>
       <c r="D39" t="n">
-        <v>0.209495</v>
+        <v>0.217632</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.225761</v>
+        <v>0.225662</v>
       </c>
       <c r="C40" t="n">
-        <v>0.330945</v>
+        <v>0.331956</v>
       </c>
       <c r="D40" t="n">
-        <v>0.201759</v>
+        <v>0.20766</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.217497</v>
+        <v>0.218413</v>
       </c>
       <c r="C41" t="n">
-        <v>0.33383</v>
+        <v>0.333516</v>
       </c>
       <c r="D41" t="n">
-        <v>0.194217</v>
+        <v>0.199052</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.207765</v>
+        <v>0.210121</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3284</v>
+        <v>0.32775</v>
       </c>
       <c r="D42" t="n">
-        <v>0.18695</v>
+        <v>0.193175</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.200795</v>
+        <v>0.202566</v>
       </c>
       <c r="C43" t="n">
-        <v>0.322896</v>
+        <v>0.321768</v>
       </c>
       <c r="D43" t="n">
-        <v>0.180087</v>
+        <v>0.186154</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.19468</v>
+        <v>0.197237</v>
       </c>
       <c r="C44" t="n">
-        <v>0.319092</v>
+        <v>0.316695</v>
       </c>
       <c r="D44" t="n">
-        <v>0.173936</v>
+        <v>0.178373</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.189512</v>
+        <v>0.190266</v>
       </c>
       <c r="C45" t="n">
-        <v>0.315296</v>
+        <v>0.314219</v>
       </c>
       <c r="D45" t="n">
-        <v>0.168134</v>
+        <v>0.172155</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.183938</v>
+        <v>0.184657</v>
       </c>
       <c r="C46" t="n">
-        <v>0.311465</v>
+        <v>0.312025</v>
       </c>
       <c r="D46" t="n">
-        <v>0.163137</v>
+        <v>0.1669</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.179517</v>
+        <v>0.180439</v>
       </c>
       <c r="C47" t="n">
-        <v>0.310595</v>
+        <v>0.310203</v>
       </c>
       <c r="D47" t="n">
-        <v>0.158203</v>
+        <v>0.162297</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.17516</v>
+        <v>0.175548</v>
       </c>
       <c r="C48" t="n">
-        <v>0.311461</v>
+        <v>0.310584</v>
       </c>
       <c r="D48" t="n">
-        <v>0.154742</v>
+        <v>0.158882</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172927</v>
+        <v>0.173914</v>
       </c>
       <c r="C49" t="n">
-        <v>0.312306</v>
+        <v>0.311892</v>
       </c>
       <c r="D49" t="n">
-        <v>0.152434</v>
+        <v>0.156551</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171961</v>
+        <v>0.173196</v>
       </c>
       <c r="C50" t="n">
-        <v>0.315883</v>
+        <v>0.314747</v>
       </c>
       <c r="D50" t="n">
-        <v>0.152332</v>
+        <v>0.15699</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17438</v>
+        <v>0.176479</v>
       </c>
       <c r="C51" t="n">
-        <v>0.376165</v>
+        <v>0.374764</v>
       </c>
       <c r="D51" t="n">
-        <v>0.239051</v>
+        <v>0.24278</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178211</v>
+        <v>0.180125</v>
       </c>
       <c r="C52" t="n">
-        <v>0.366457</v>
+        <v>0.365905</v>
       </c>
       <c r="D52" t="n">
-        <v>0.229893</v>
+        <v>0.233535</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245341</v>
+        <v>0.246202</v>
       </c>
       <c r="C53" t="n">
-        <v>0.356919</v>
+        <v>0.356192</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220943</v>
+        <v>0.225573</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.23579</v>
+        <v>0.237581</v>
       </c>
       <c r="C54" t="n">
-        <v>0.348636</v>
+        <v>0.348825</v>
       </c>
       <c r="D54" t="n">
-        <v>0.212713</v>
+        <v>0.21663</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.227579</v>
+        <v>0.228508</v>
       </c>
       <c r="C55" t="n">
-        <v>0.34225</v>
+        <v>0.341251</v>
       </c>
       <c r="D55" t="n">
-        <v>0.204206</v>
+        <v>0.207841</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.219406</v>
+        <v>0.220628</v>
       </c>
       <c r="C56" t="n">
-        <v>0.349186</v>
+        <v>0.348223</v>
       </c>
       <c r="D56" t="n">
-        <v>0.196844</v>
+        <v>0.20069</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.211736</v>
+        <v>0.213168</v>
       </c>
       <c r="C57" t="n">
-        <v>0.342571</v>
+        <v>0.341915</v>
       </c>
       <c r="D57" t="n">
-        <v>0.189546</v>
+        <v>0.193206</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.205172</v>
+        <v>0.206177</v>
       </c>
       <c r="C58" t="n">
-        <v>0.338049</v>
+        <v>0.336893</v>
       </c>
       <c r="D58" t="n">
-        <v>0.182825</v>
+        <v>0.186387</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196218</v>
+        <v>0.200043</v>
       </c>
       <c r="C59" t="n">
-        <v>0.330812</v>
+        <v>0.333931</v>
       </c>
       <c r="D59" t="n">
-        <v>0.174747</v>
+        <v>0.177514</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.190791</v>
+        <v>0.190889</v>
       </c>
       <c r="C60" t="n">
-        <v>0.328029</v>
+        <v>0.326166</v>
       </c>
       <c r="D60" t="n">
-        <v>0.168998</v>
+        <v>0.171752</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.18588</v>
+        <v>0.186164</v>
       </c>
       <c r="C61" t="n">
-        <v>0.325825</v>
+        <v>0.324786</v>
       </c>
       <c r="D61" t="n">
-        <v>0.164893</v>
+        <v>0.167233</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.181958</v>
+        <v>0.182094</v>
       </c>
       <c r="C62" t="n">
-        <v>0.325188</v>
+        <v>0.32405</v>
       </c>
       <c r="D62" t="n">
-        <v>0.160717</v>
+        <v>0.163644</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178817</v>
+        <v>0.179622</v>
       </c>
       <c r="C63" t="n">
-        <v>0.326234</v>
+        <v>0.32488</v>
       </c>
       <c r="D63" t="n">
-        <v>0.158017</v>
+        <v>0.16063</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177214</v>
+        <v>0.177461</v>
       </c>
       <c r="C64" t="n">
-        <v>0.328388</v>
+        <v>0.327036</v>
       </c>
       <c r="D64" t="n">
-        <v>0.156965</v>
+        <v>0.160044</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177436</v>
+        <v>0.178142</v>
       </c>
       <c r="C65" t="n">
-        <v>0.394765</v>
+        <v>0.394307</v>
       </c>
       <c r="D65" t="n">
-        <v>0.158007</v>
+        <v>0.161623</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.17996</v>
+        <v>0.180924</v>
       </c>
       <c r="C66" t="n">
-        <v>0.383521</v>
+        <v>0.383594</v>
       </c>
       <c r="D66" t="n">
-        <v>0.235105</v>
+        <v>0.239634</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.245532</v>
+        <v>0.245635</v>
       </c>
       <c r="C67" t="n">
-        <v>0.373421</v>
+        <v>0.373082</v>
       </c>
       <c r="D67" t="n">
-        <v>0.226133</v>
+        <v>0.230002</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236902</v>
+        <v>0.237755</v>
       </c>
       <c r="C68" t="n">
-        <v>0.363382</v>
+        <v>0.363979</v>
       </c>
       <c r="D68" t="n">
-        <v>0.217421</v>
+        <v>0.221167</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.228132</v>
+        <v>0.22811</v>
       </c>
       <c r="C69" t="n">
-        <v>0.355342</v>
+        <v>0.356417</v>
       </c>
       <c r="D69" t="n">
-        <v>0.209352</v>
+        <v>0.212728</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219607</v>
+        <v>0.221528</v>
       </c>
       <c r="C70" t="n">
-        <v>0.359583</v>
+        <v>0.35949</v>
       </c>
       <c r="D70" t="n">
-        <v>0.201509</v>
+        <v>0.204918</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213187</v>
+        <v>0.214922</v>
       </c>
       <c r="C71" t="n">
-        <v>0.353516</v>
+        <v>0.351735</v>
       </c>
       <c r="D71" t="n">
-        <v>0.194248</v>
+        <v>0.19713</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.206148</v>
+        <v>0.208137</v>
       </c>
       <c r="C72" t="n">
-        <v>0.347095</v>
+        <v>0.345582</v>
       </c>
       <c r="D72" t="n">
-        <v>0.187578</v>
+        <v>0.190076</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.200273</v>
+        <v>0.20167</v>
       </c>
       <c r="C73" t="n">
-        <v>0.343045</v>
+        <v>0.343232</v>
       </c>
       <c r="D73" t="n">
-        <v>0.18116</v>
+        <v>0.184092</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.195172</v>
+        <v>0.195622</v>
       </c>
       <c r="C74" t="n">
-        <v>0.33957</v>
+        <v>0.340229</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175182</v>
+        <v>0.178184</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.189341</v>
+        <v>0.190084</v>
       </c>
       <c r="C75" t="n">
-        <v>0.335342</v>
+        <v>0.335279</v>
       </c>
       <c r="D75" t="n">
-        <v>0.170499</v>
+        <v>0.173042</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185412</v>
+        <v>0.185919</v>
       </c>
       <c r="C76" t="n">
-        <v>0.335714</v>
+        <v>0.335588</v>
       </c>
       <c r="D76" t="n">
-        <v>0.166167</v>
+        <v>0.168722</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181546</v>
+        <v>0.183556</v>
       </c>
       <c r="C77" t="n">
-        <v>0.335851</v>
+        <v>0.336476</v>
       </c>
       <c r="D77" t="n">
-        <v>0.163124</v>
+        <v>0.16571</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.180116</v>
+        <v>0.180261</v>
       </c>
       <c r="C78" t="n">
-        <v>0.337831</v>
+        <v>0.337723</v>
       </c>
       <c r="D78" t="n">
-        <v>0.161408</v>
+        <v>0.16439</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179348</v>
+        <v>0.180084</v>
       </c>
       <c r="C79" t="n">
-        <v>0.417771</v>
+        <v>0.421262</v>
       </c>
       <c r="D79" t="n">
-        <v>0.162135</v>
+        <v>0.165557</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.182272</v>
+        <v>0.183525</v>
       </c>
       <c r="C80" t="n">
-        <v>0.409385</v>
+        <v>0.40985</v>
       </c>
       <c r="D80" t="n">
-        <v>0.239824</v>
+        <v>0.24396</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259263</v>
+        <v>0.259619</v>
       </c>
       <c r="C81" t="n">
-        <v>0.398219</v>
+        <v>0.397747</v>
       </c>
       <c r="D81" t="n">
-        <v>0.231207</v>
+        <v>0.235273</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251205</v>
+        <v>0.251529</v>
       </c>
       <c r="C82" t="n">
-        <v>0.388863</v>
+        <v>0.388437</v>
       </c>
       <c r="D82" t="n">
-        <v>0.223021</v>
+        <v>0.226609</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2435</v>
+        <v>0.243711</v>
       </c>
       <c r="C83" t="n">
-        <v>0.379638</v>
+        <v>0.380289</v>
       </c>
       <c r="D83" t="n">
-        <v>0.214563</v>
+        <v>0.218202</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235615</v>
+        <v>0.235865</v>
       </c>
       <c r="C84" t="n">
-        <v>0.380784</v>
+        <v>0.380454</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207392</v>
+        <v>0.210441</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.228388</v>
+        <v>0.228834</v>
       </c>
       <c r="C85" t="n">
-        <v>0.374844</v>
+        <v>0.374468</v>
       </c>
       <c r="D85" t="n">
-        <v>0.199601</v>
+        <v>0.202719</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.221376</v>
+        <v>0.221572</v>
       </c>
       <c r="C86" t="n">
-        <v>0.367629</v>
+        <v>0.367441</v>
       </c>
       <c r="D86" t="n">
-        <v>0.192903</v>
+        <v>0.195737</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214945</v>
+        <v>0.215122</v>
       </c>
       <c r="C87" t="n">
-        <v>0.363659</v>
+        <v>0.36307</v>
       </c>
       <c r="D87" t="n">
-        <v>0.18693</v>
+        <v>0.18932</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208247</v>
+        <v>0.208621</v>
       </c>
       <c r="C88" t="n">
-        <v>0.35982</v>
+        <v>0.359505</v>
       </c>
       <c r="D88" t="n">
-        <v>0.18099</v>
+        <v>0.183402</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.202942</v>
+        <v>0.20326</v>
       </c>
       <c r="C89" t="n">
-        <v>0.357441</v>
+        <v>0.356656</v>
       </c>
       <c r="D89" t="n">
-        <v>0.175736</v>
+        <v>0.177865</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197737</v>
+        <v>0.198058</v>
       </c>
       <c r="C90" t="n">
-        <v>0.354621</v>
+        <v>0.355327</v>
       </c>
       <c r="D90" t="n">
-        <v>0.171048</v>
+        <v>0.173661</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193751</v>
+        <v>0.194124</v>
       </c>
       <c r="C91" t="n">
-        <v>0.35597</v>
+        <v>0.356166</v>
       </c>
       <c r="D91" t="n">
-        <v>0.167716</v>
+        <v>0.169958</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190759</v>
+        <v>0.191429</v>
       </c>
       <c r="C92" t="n">
-        <v>0.35806</v>
+        <v>0.358054</v>
       </c>
       <c r="D92" t="n">
-        <v>0.16583</v>
+        <v>0.16857</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189849</v>
+        <v>0.190203</v>
       </c>
       <c r="C93" t="n">
-        <v>0.361104</v>
+        <v>0.361735</v>
       </c>
       <c r="D93" t="n">
-        <v>0.165434</v>
+        <v>0.168439</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190332</v>
+        <v>0.190947</v>
       </c>
       <c r="C94" t="n">
-        <v>0.460271</v>
+        <v>0.460131</v>
       </c>
       <c r="D94" t="n">
-        <v>0.268553</v>
+        <v>0.272407</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.278685</v>
+        <v>0.279093</v>
       </c>
       <c r="C95" t="n">
-        <v>0.448516</v>
+        <v>0.449092</v>
       </c>
       <c r="D95" t="n">
-        <v>0.260033</v>
+        <v>0.263599</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.272544</v>
+        <v>0.272529</v>
       </c>
       <c r="C96" t="n">
-        <v>0.438966</v>
+        <v>0.439856</v>
       </c>
       <c r="D96" t="n">
-        <v>0.252128</v>
+        <v>0.254848</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.265182</v>
+        <v>0.265123</v>
       </c>
       <c r="C97" t="n">
-        <v>0.429595</v>
+        <v>0.430848</v>
       </c>
       <c r="D97" t="n">
-        <v>0.243344</v>
+        <v>0.246682</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.258313</v>
+        <v>0.25775</v>
       </c>
       <c r="C98" t="n">
-        <v>0.431839</v>
+        <v>0.433556</v>
       </c>
       <c r="D98" t="n">
-        <v>0.235396</v>
+        <v>0.238638</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.251306</v>
+        <v>0.25137</v>
       </c>
       <c r="C99" t="n">
-        <v>0.425911</v>
+        <v>0.427562</v>
       </c>
       <c r="D99" t="n">
-        <v>0.227774</v>
+        <v>0.230913</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.244968</v>
+        <v>0.245013</v>
       </c>
       <c r="C100" t="n">
-        <v>0.419946</v>
+        <v>0.420887</v>
       </c>
       <c r="D100" t="n">
-        <v>0.220711</v>
+        <v>0.223211</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.238935</v>
+        <v>0.238754</v>
       </c>
       <c r="C101" t="n">
-        <v>0.415513</v>
+        <v>0.417054</v>
       </c>
       <c r="D101" t="n">
-        <v>0.214081</v>
+        <v>0.216438</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.23311</v>
+        <v>0.233162</v>
       </c>
       <c r="C102" t="n">
-        <v>0.412338</v>
+        <v>0.413017</v>
       </c>
       <c r="D102" t="n">
-        <v>0.20743</v>
+        <v>0.209755</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.227571</v>
+        <v>0.227353</v>
       </c>
       <c r="C103" t="n">
-        <v>0.411588</v>
+        <v>0.412152</v>
       </c>
       <c r="D103" t="n">
-        <v>0.201386</v>
+        <v>0.203979</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.223329</v>
+        <v>0.223294</v>
       </c>
       <c r="C104" t="n">
-        <v>0.411164</v>
+        <v>0.411664</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1967</v>
+        <v>0.198978</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.218763</v>
+        <v>0.218617</v>
       </c>
       <c r="C105" t="n">
-        <v>0.414228</v>
+        <v>0.414467</v>
       </c>
       <c r="D105" t="n">
-        <v>0.192345</v>
+        <v>0.194589</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.215284</v>
+        <v>0.215071</v>
       </c>
       <c r="C106" t="n">
-        <v>0.419344</v>
+        <v>0.419668</v>
       </c>
       <c r="D106" t="n">
-        <v>0.189046</v>
+        <v>0.191359</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.213046</v>
+        <v>0.212649</v>
       </c>
       <c r="C107" t="n">
-        <v>0.42665</v>
+        <v>0.426796</v>
       </c>
       <c r="D107" t="n">
-        <v>0.18825</v>
+        <v>0.190522</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.212911</v>
+        <v>0.212361</v>
       </c>
       <c r="C108" t="n">
-        <v>0.549334</v>
+        <v>0.551779</v>
       </c>
       <c r="D108" t="n">
-        <v>0.27939</v>
+        <v>0.282442</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.214607</v>
+        <v>0.2146</v>
       </c>
       <c r="C109" t="n">
-        <v>0.536852</v>
+        <v>0.539082</v>
       </c>
       <c r="D109" t="n">
-        <v>0.272222</v>
+        <v>0.275104</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.288817</v>
+        <v>0.288285</v>
       </c>
       <c r="C110" t="n">
-        <v>0.524792</v>
+        <v>0.527655</v>
       </c>
       <c r="D110" t="n">
-        <v>0.264317</v>
+        <v>0.266667</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.28218</v>
+        <v>0.282318</v>
       </c>
       <c r="C111" t="n">
-        <v>0.514422</v>
+        <v>0.5168779999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.255839</v>
+        <v>0.257971</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.275825</v>
+        <v>0.275687</v>
       </c>
       <c r="C112" t="n">
-        <v>0.515606</v>
+        <v>0.519239</v>
       </c>
       <c r="D112" t="n">
-        <v>0.248083</v>
+        <v>0.250467</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.269577</v>
+        <v>0.269209</v>
       </c>
       <c r="C113" t="n">
-        <v>0.507982</v>
+        <v>0.510254</v>
       </c>
       <c r="D113" t="n">
-        <v>0.241457</v>
+        <v>0.242911</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.263923</v>
+        <v>0.263428</v>
       </c>
       <c r="C114" t="n">
-        <v>0.500902</v>
+        <v>0.50287</v>
       </c>
       <c r="D114" t="n">
-        <v>0.234387</v>
+        <v>0.235884</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.258708</v>
+        <v>0.258086</v>
       </c>
       <c r="C115" t="n">
-        <v>0.494814</v>
+        <v>0.498566</v>
       </c>
       <c r="D115" t="n">
-        <v>0.227987</v>
+        <v>0.22948</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.253064</v>
+        <v>0.252925</v>
       </c>
       <c r="C116" t="n">
-        <v>0.491499</v>
+        <v>0.494283</v>
       </c>
       <c r="D116" t="n">
-        <v>0.22155</v>
+        <v>0.223466</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.248715</v>
+        <v>0.248368</v>
       </c>
       <c r="C117" t="n">
-        <v>0.491159</v>
+        <v>0.493994</v>
       </c>
       <c r="D117" t="n">
-        <v>0.216636</v>
+        <v>0.217995</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.24411</v>
+        <v>0.243929</v>
       </c>
       <c r="C118" t="n">
-        <v>0.493968</v>
+        <v>0.497049</v>
       </c>
       <c r="D118" t="n">
-        <v>0.212065</v>
+        <v>0.213165</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240326</v>
+        <v>0.240281</v>
       </c>
       <c r="C119" t="n">
-        <v>0.501803</v>
+        <v>0.50506</v>
       </c>
       <c r="D119" t="n">
-        <v>0.207207</v>
+        <v>0.208825</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.237178</v>
+        <v>0.237041</v>
       </c>
       <c r="C120" t="n">
-        <v>0.513307</v>
+        <v>0.516023</v>
       </c>
       <c r="D120" t="n">
-        <v>0.204174</v>
+        <v>0.205414</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.234517</v>
+        <v>0.234455</v>
       </c>
       <c r="C121" t="n">
-        <v>0.528149</v>
+        <v>0.531272</v>
       </c>
       <c r="D121" t="n">
-        <v>0.20283</v>
+        <v>0.204465</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.236811</v>
+        <v>0.233338</v>
       </c>
       <c r="C122" t="n">
-        <v>0.676284</v>
+        <v>0.678176</v>
       </c>
       <c r="D122" t="n">
-        <v>0.203562</v>
+        <v>0.20523</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.234526</v>
+        <v>0.234479</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6586689999999999</v>
+        <v>0.65879</v>
       </c>
       <c r="D123" t="n">
-        <v>0.289005</v>
+        <v>0.290103</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.318667</v>
+        <v>0.321965</v>
       </c>
       <c r="C124" t="n">
-        <v>0.643774</v>
+        <v>0.644138</v>
       </c>
       <c r="D124" t="n">
-        <v>0.281919</v>
+        <v>0.283239</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.312584</v>
+        <v>0.315702</v>
       </c>
       <c r="C125" t="n">
-        <v>0.629144</v>
+        <v>0.629022</v>
       </c>
       <c r="D125" t="n">
-        <v>0.27536</v>
+        <v>0.276496</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.306993</v>
+        <v>0.309873</v>
       </c>
       <c r="C126" t="n">
-        <v>0.61551</v>
+        <v>0.61589</v>
       </c>
       <c r="D126" t="n">
-        <v>0.269401</v>
+        <v>0.270902</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.301362</v>
+        <v>0.304367</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6149019999999999</v>
+        <v>0.613993</v>
       </c>
       <c r="D127" t="n">
-        <v>0.264112</v>
+        <v>0.265292</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.296711</v>
+        <v>0.296149</v>
       </c>
       <c r="C128" t="n">
-        <v>0.603787</v>
+        <v>0.604417</v>
       </c>
       <c r="D128" t="n">
-        <v>0.25879</v>
+        <v>0.258901</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.29159</v>
+        <v>0.291479</v>
       </c>
       <c r="C129" t="n">
-        <v>0.595767</v>
+        <v>0.596126</v>
       </c>
       <c r="D129" t="n">
-        <v>0.254136</v>
+        <v>0.25418</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.287093</v>
+        <v>0.286993</v>
       </c>
       <c r="C130" t="n">
-        <v>0.582529</v>
+        <v>0.583605</v>
       </c>
       <c r="D130" t="n">
-        <v>0.252103</v>
+        <v>0.252265</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.283405</v>
+        <v>0.282482</v>
       </c>
       <c r="C131" t="n">
-        <v>0.582479</v>
+        <v>0.587032</v>
       </c>
       <c r="D131" t="n">
-        <v>0.247631</v>
+        <v>0.247779</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.280238</v>
+        <v>0.280319</v>
       </c>
       <c r="C132" t="n">
-        <v>0.583156</v>
+        <v>0.585957</v>
       </c>
       <c r="D132" t="n">
-        <v>0.243658</v>
+        <v>0.243136</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275407</v>
+        <v>0.275031</v>
       </c>
       <c r="C133" t="n">
-        <v>0.592506</v>
+        <v>0.593217</v>
       </c>
       <c r="D133" t="n">
-        <v>0.240053</v>
+        <v>0.240334</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.272868</v>
+        <v>0.272971</v>
       </c>
       <c r="C134" t="n">
-        <v>0.60753</v>
+        <v>0.609899</v>
       </c>
       <c r="D134" t="n">
-        <v>0.237326</v>
+        <v>0.237336</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270697</v>
+        <v>0.271191</v>
       </c>
       <c r="C135" t="n">
-        <v>0.626672</v>
+        <v>0.629474</v>
       </c>
       <c r="D135" t="n">
-        <v>0.236049</v>
+        <v>0.23614</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.270941</v>
+        <v>0.270282</v>
       </c>
       <c r="C136" t="n">
-        <v>0.798616</v>
+        <v>0.79721</v>
       </c>
       <c r="D136" t="n">
-        <v>0.234281</v>
+        <v>0.237297</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.277476</v>
+        <v>0.270103</v>
       </c>
       <c r="C137" t="n">
-        <v>0.778193</v>
+        <v>0.77951</v>
       </c>
       <c r="D137" t="n">
-        <v>0.33018</v>
+        <v>0.328941</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.379316</v>
+        <v>0.353976</v>
       </c>
       <c r="C138" t="n">
-        <v>0.757042</v>
+        <v>0.758276</v>
       </c>
       <c r="D138" t="n">
-        <v>0.324289</v>
+        <v>0.323339</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.373187</v>
+        <v>0.348972</v>
       </c>
       <c r="C139" t="n">
-        <v>0.73654</v>
+        <v>0.739962</v>
       </c>
       <c r="D139" t="n">
-        <v>0.318664</v>
+        <v>0.317018</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.366806</v>
+        <v>0.344078</v>
       </c>
       <c r="C140" t="n">
-        <v>0.720079</v>
+        <v>0.721852</v>
       </c>
       <c r="D140" t="n">
-        <v>0.312845</v>
+        <v>0.310686</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.362246</v>
+        <v>0.339151</v>
       </c>
       <c r="C141" t="n">
-        <v>0.718014</v>
+        <v>0.719923</v>
       </c>
       <c r="D141" t="n">
-        <v>0.30874</v>
+        <v>0.307034</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.356714</v>
+        <v>0.335373</v>
       </c>
       <c r="C142" t="n">
-        <v>0.70311</v>
+        <v>0.70534</v>
       </c>
       <c r="D142" t="n">
-        <v>0.303599</v>
+        <v>0.301708</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.352186</v>
+        <v>0.331232</v>
       </c>
       <c r="C143" t="n">
-        <v>0.691505</v>
+        <v>0.693022</v>
       </c>
       <c r="D143" t="n">
-        <v>0.299485</v>
+        <v>0.297413</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.154134</v>
+        <v>0.165575</v>
       </c>
       <c r="C2" t="n">
-        <v>0.133095</v>
+        <v>0.144117</v>
       </c>
       <c r="D2" t="n">
-        <v>0.147329</v>
+        <v>0.149363</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.154016</v>
+        <v>0.157819</v>
       </c>
       <c r="C3" t="n">
-        <v>0.128456</v>
+        <v>0.1398</v>
       </c>
       <c r="D3" t="n">
-        <v>0.138957</v>
+        <v>0.144276</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.151527</v>
+        <v>0.15702</v>
       </c>
       <c r="C4" t="n">
-        <v>0.12443</v>
+        <v>0.124302</v>
       </c>
       <c r="D4" t="n">
-        <v>0.134266</v>
+        <v>0.137711</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.147835</v>
+        <v>0.153296</v>
       </c>
       <c r="C5" t="n">
-        <v>0.12791</v>
+        <v>0.125828</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13049</v>
+        <v>0.136273</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.142762</v>
+        <v>0.153131</v>
       </c>
       <c r="C6" t="n">
-        <v>0.124376</v>
+        <v>0.127215</v>
       </c>
       <c r="D6" t="n">
-        <v>0.130061</v>
+        <v>0.129032</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.146505</v>
+        <v>0.153973</v>
       </c>
       <c r="C7" t="n">
-        <v>0.120166</v>
+        <v>0.111882</v>
       </c>
       <c r="D7" t="n">
-        <v>0.124212</v>
+        <v>0.116878</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.154374</v>
+        <v>0.145315</v>
       </c>
       <c r="C8" t="n">
-        <v>0.119814</v>
+        <v>0.118726</v>
       </c>
       <c r="D8" t="n">
-        <v>0.121297</v>
+        <v>0.123663</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148954</v>
+        <v>0.154067</v>
       </c>
       <c r="C9" t="n">
-        <v>0.114002</v>
+        <v>0.112593</v>
       </c>
       <c r="D9" t="n">
-        <v>0.196091</v>
+        <v>0.199876</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.21983</v>
+        <v>0.211445</v>
       </c>
       <c r="C10" t="n">
-        <v>0.189422</v>
+        <v>0.188906</v>
       </c>
       <c r="D10" t="n">
-        <v>0.199379</v>
+        <v>0.185855</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.213141</v>
+        <v>0.201709</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182611</v>
+        <v>0.179181</v>
       </c>
       <c r="D11" t="n">
-        <v>0.192506</v>
+        <v>0.189612</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.206385</v>
+        <v>0.205854</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1756</v>
+        <v>0.176379</v>
       </c>
       <c r="D12" t="n">
-        <v>0.188276</v>
+        <v>0.179468</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.200715</v>
+        <v>0.196613</v>
       </c>
       <c r="C13" t="n">
-        <v>0.167315</v>
+        <v>0.165064</v>
       </c>
       <c r="D13" t="n">
-        <v>0.180593</v>
+        <v>0.176002</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.190653</v>
+        <v>0.182886</v>
       </c>
       <c r="C14" t="n">
-        <v>0.160581</v>
+        <v>0.157959</v>
       </c>
       <c r="D14" t="n">
-        <v>0.171638</v>
+        <v>0.169888</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.188336</v>
+        <v>0.18283</v>
       </c>
       <c r="C15" t="n">
-        <v>0.157503</v>
+        <v>0.151929</v>
       </c>
       <c r="D15" t="n">
-        <v>0.164237</v>
+        <v>0.161165</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.180145</v>
+        <v>0.176307</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1509</v>
+        <v>0.144935</v>
       </c>
       <c r="D16" t="n">
-        <v>0.160411</v>
+        <v>0.15446</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.171818</v>
+        <v>0.169916</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144782</v>
+        <v>0.142074</v>
       </c>
       <c r="D17" t="n">
-        <v>0.153439</v>
+        <v>0.151751</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.167042</v>
+        <v>0.168724</v>
       </c>
       <c r="C18" t="n">
-        <v>0.140281</v>
+        <v>0.139932</v>
       </c>
       <c r="D18" t="n">
-        <v>0.148621</v>
+        <v>0.152819</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.166992</v>
+        <v>0.168612</v>
       </c>
       <c r="C19" t="n">
-        <v>0.137052</v>
+        <v>0.136982</v>
       </c>
       <c r="D19" t="n">
-        <v>0.13803</v>
+        <v>0.14847</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.162279</v>
+        <v>0.163338</v>
       </c>
       <c r="C20" t="n">
-        <v>0.133982</v>
+        <v>0.134843</v>
       </c>
       <c r="D20" t="n">
-        <v>0.141758</v>
+        <v>0.143615</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.160082</v>
+        <v>0.159027</v>
       </c>
       <c r="C21" t="n">
-        <v>0.129914</v>
+        <v>0.13337</v>
       </c>
       <c r="D21" t="n">
-        <v>0.140586</v>
+        <v>0.141209</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.162696</v>
+        <v>0.156428</v>
       </c>
       <c r="C22" t="n">
-        <v>0.130101</v>
+        <v>0.129151</v>
       </c>
       <c r="D22" t="n">
-        <v>0.140729</v>
+        <v>0.140241</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.159838</v>
+        <v>0.163922</v>
       </c>
       <c r="C23" t="n">
-        <v>0.130361</v>
+        <v>0.128423</v>
       </c>
       <c r="D23" t="n">
-        <v>0.229035</v>
+        <v>0.230573</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.237325</v>
+        <v>0.248629</v>
       </c>
       <c r="C24" t="n">
-        <v>0.212449</v>
+        <v>0.212034</v>
       </c>
       <c r="D24" t="n">
-        <v>0.223398</v>
+        <v>0.223919</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.230889</v>
+        <v>0.238588</v>
       </c>
       <c r="C25" t="n">
-        <v>0.204155</v>
+        <v>0.203736</v>
       </c>
       <c r="D25" t="n">
-        <v>0.20983</v>
+        <v>0.214548</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.223343</v>
+        <v>0.22927</v>
       </c>
       <c r="C26" t="n">
-        <v>0.195304</v>
+        <v>0.201481</v>
       </c>
       <c r="D26" t="n">
-        <v>0.199613</v>
+        <v>0.207572</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.213613</v>
+        <v>0.222377</v>
       </c>
       <c r="C27" t="n">
-        <v>0.188601</v>
+        <v>0.192447</v>
       </c>
       <c r="D27" t="n">
-        <v>0.193749</v>
+        <v>0.207233</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.200671</v>
+        <v>0.206957</v>
       </c>
       <c r="C28" t="n">
-        <v>0.182641</v>
+        <v>0.184756</v>
       </c>
       <c r="D28" t="n">
-        <v>0.184498</v>
+        <v>0.199182</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.195106</v>
+        <v>0.202275</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174336</v>
+        <v>0.178417</v>
       </c>
       <c r="D29" t="n">
-        <v>0.177317</v>
+        <v>0.190777</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.192829</v>
+        <v>0.197699</v>
       </c>
       <c r="C30" t="n">
-        <v>0.168408</v>
+        <v>0.172105</v>
       </c>
       <c r="D30" t="n">
-        <v>0.171243</v>
+        <v>0.176507</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.18729</v>
+        <v>0.19061</v>
       </c>
       <c r="C31" t="n">
-        <v>0.163027</v>
+        <v>0.163486</v>
       </c>
       <c r="D31" t="n">
-        <v>0.16706</v>
+        <v>0.167375</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.179157</v>
+        <v>0.183552</v>
       </c>
       <c r="C32" t="n">
-        <v>0.157743</v>
+        <v>0.157514</v>
       </c>
       <c r="D32" t="n">
-        <v>0.16022</v>
+        <v>0.161844</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.174112</v>
+        <v>0.174948</v>
       </c>
       <c r="C33" t="n">
-        <v>0.153177</v>
+        <v>0.153263</v>
       </c>
       <c r="D33" t="n">
-        <v>0.155435</v>
+        <v>0.158565</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.171893</v>
+        <v>0.174278</v>
       </c>
       <c r="C34" t="n">
-        <v>0.148963</v>
+        <v>0.149065</v>
       </c>
       <c r="D34" t="n">
-        <v>0.15195</v>
+        <v>0.152865</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.168721</v>
+        <v>0.172208</v>
       </c>
       <c r="C35" t="n">
-        <v>0.145741</v>
+        <v>0.146016</v>
       </c>
       <c r="D35" t="n">
-        <v>0.149263</v>
+        <v>0.152349</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.168695</v>
+        <v>0.169282</v>
       </c>
       <c r="C36" t="n">
-        <v>0.143591</v>
+        <v>0.14422</v>
       </c>
       <c r="D36" t="n">
-        <v>0.149536</v>
+        <v>0.150514</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17281</v>
+        <v>0.169046</v>
       </c>
       <c r="C37" t="n">
-        <v>0.143187</v>
+        <v>0.143099</v>
       </c>
       <c r="D37" t="n">
-        <v>0.241982</v>
+        <v>0.234545</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.251294</v>
+        <v>0.244924</v>
       </c>
       <c r="C38" t="n">
-        <v>0.223849</v>
+        <v>0.219928</v>
       </c>
       <c r="D38" t="n">
-        <v>0.229854</v>
+        <v>0.225593</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241424</v>
+        <v>0.2355</v>
       </c>
       <c r="C39" t="n">
-        <v>0.21534</v>
+        <v>0.211244</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219841</v>
+        <v>0.213792</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.233321</v>
+        <v>0.226976</v>
       </c>
       <c r="C40" t="n">
-        <v>0.206574</v>
+        <v>0.203195</v>
       </c>
       <c r="D40" t="n">
-        <v>0.21592</v>
+        <v>0.204806</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.224189</v>
+        <v>0.218991</v>
       </c>
       <c r="C41" t="n">
-        <v>0.198773</v>
+        <v>0.19525</v>
       </c>
       <c r="D41" t="n">
-        <v>0.212191</v>
+        <v>0.197259</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.216586</v>
+        <v>0.210917</v>
       </c>
       <c r="C42" t="n">
-        <v>0.191406</v>
+        <v>0.18824</v>
       </c>
       <c r="D42" t="n">
-        <v>0.193633</v>
+        <v>0.191376</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.209502</v>
+        <v>0.203947</v>
       </c>
       <c r="C43" t="n">
-        <v>0.183519</v>
+        <v>0.181117</v>
       </c>
       <c r="D43" t="n">
-        <v>0.182212</v>
+        <v>0.185097</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.199033</v>
+        <v>0.192794</v>
       </c>
       <c r="C44" t="n">
-        <v>0.174623</v>
+        <v>0.174833</v>
       </c>
       <c r="D44" t="n">
-        <v>0.175688</v>
+        <v>0.17617</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.192792</v>
+        <v>0.191396</v>
       </c>
       <c r="C45" t="n">
-        <v>0.168507</v>
+        <v>0.169025</v>
       </c>
       <c r="D45" t="n">
-        <v>0.169722</v>
+        <v>0.170888</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.18617</v>
+        <v>0.185026</v>
       </c>
       <c r="C46" t="n">
-        <v>0.163378</v>
+        <v>0.16326</v>
       </c>
       <c r="D46" t="n">
-        <v>0.164596</v>
+        <v>0.165064</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.182347</v>
+        <v>0.18106</v>
       </c>
       <c r="C47" t="n">
-        <v>0.158668</v>
+        <v>0.158596</v>
       </c>
       <c r="D47" t="n">
-        <v>0.160076</v>
+        <v>0.160524</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.178359</v>
+        <v>0.175585</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154043</v>
+        <v>0.154249</v>
       </c>
       <c r="D48" t="n">
-        <v>0.156191</v>
+        <v>0.156421</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174979</v>
+        <v>0.174274</v>
       </c>
       <c r="C49" t="n">
-        <v>0.150782</v>
+        <v>0.151369</v>
       </c>
       <c r="D49" t="n">
-        <v>0.153985</v>
+        <v>0.154682</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173814</v>
+        <v>0.172774</v>
       </c>
       <c r="C50" t="n">
-        <v>0.148357</v>
+        <v>0.148258</v>
       </c>
       <c r="D50" t="n">
-        <v>0.153655</v>
+        <v>0.153804</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173958</v>
+        <v>0.173068</v>
       </c>
       <c r="C51" t="n">
-        <v>0.147302</v>
+        <v>0.147253</v>
       </c>
       <c r="D51" t="n">
-        <v>0.236634</v>
+        <v>0.237201</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.177668</v>
+        <v>0.17646</v>
       </c>
       <c r="C52" t="n">
-        <v>0.148191</v>
+        <v>0.148311</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227444</v>
+        <v>0.228305</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243958</v>
+        <v>0.241629</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218716</v>
+        <v>0.218644</v>
       </c>
       <c r="D53" t="n">
-        <v>0.218621</v>
+        <v>0.218782</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.235095</v>
+        <v>0.233158</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210018</v>
+        <v>0.209996</v>
       </c>
       <c r="D54" t="n">
-        <v>0.209902</v>
+        <v>0.210607</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.226421</v>
+        <v>0.224587</v>
       </c>
       <c r="C55" t="n">
-        <v>0.201813</v>
+        <v>0.201805</v>
       </c>
       <c r="D55" t="n">
-        <v>0.202577</v>
+        <v>0.202146</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.218612</v>
+        <v>0.21606</v>
       </c>
       <c r="C56" t="n">
-        <v>0.194791</v>
+        <v>0.194489</v>
       </c>
       <c r="D56" t="n">
-        <v>0.194223</v>
+        <v>0.193982</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.211269</v>
+        <v>0.209401</v>
       </c>
       <c r="C57" t="n">
-        <v>0.187532</v>
+        <v>0.187556</v>
       </c>
       <c r="D57" t="n">
-        <v>0.187571</v>
+        <v>0.187519</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.20409</v>
+        <v>0.202475</v>
       </c>
       <c r="C58" t="n">
-        <v>0.181047</v>
+        <v>0.180917</v>
       </c>
       <c r="D58" t="n">
-        <v>0.180633</v>
+        <v>0.180516</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1977</v>
+        <v>0.196619</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174723</v>
+        <v>0.174386</v>
       </c>
       <c r="D59" t="n">
-        <v>0.174959</v>
+        <v>0.173868</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.192159</v>
+        <v>0.19119</v>
       </c>
       <c r="C60" t="n">
-        <v>0.169022</v>
+        <v>0.168695</v>
       </c>
       <c r="D60" t="n">
-        <v>0.168863</v>
+        <v>0.169466</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.18683</v>
+        <v>0.186374</v>
       </c>
       <c r="C61" t="n">
-        <v>0.163968</v>
+        <v>0.163766</v>
       </c>
       <c r="D61" t="n">
-        <v>0.164507</v>
+        <v>0.164606</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.182661</v>
+        <v>0.182171</v>
       </c>
       <c r="C62" t="n">
-        <v>0.159407</v>
+        <v>0.15931</v>
       </c>
       <c r="D62" t="n">
-        <v>0.160773</v>
+        <v>0.160696</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.179156</v>
+        <v>0.178893</v>
       </c>
       <c r="C63" t="n">
-        <v>0.155255</v>
+        <v>0.155415</v>
       </c>
       <c r="D63" t="n">
-        <v>0.157678</v>
+        <v>0.157555</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177618</v>
+        <v>0.177366</v>
       </c>
       <c r="C64" t="n">
-        <v>0.152468</v>
+        <v>0.152391</v>
       </c>
       <c r="D64" t="n">
-        <v>0.156768</v>
+        <v>0.156672</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177505</v>
+        <v>0.1776</v>
       </c>
       <c r="C65" t="n">
-        <v>0.150961</v>
+        <v>0.150792</v>
       </c>
       <c r="D65" t="n">
-        <v>0.15804</v>
+        <v>0.15802</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.179943</v>
+        <v>0.18034</v>
       </c>
       <c r="C66" t="n">
-        <v>0.151324</v>
+        <v>0.151524</v>
       </c>
       <c r="D66" t="n">
-        <v>0.234963</v>
+        <v>0.234624</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.243895</v>
+        <v>0.24628</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227803</v>
+        <v>0.228103</v>
       </c>
       <c r="D67" t="n">
-        <v>0.224507</v>
+        <v>0.225862</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235131</v>
+        <v>0.237993</v>
       </c>
       <c r="C68" t="n">
-        <v>0.218975</v>
+        <v>0.219144</v>
       </c>
       <c r="D68" t="n">
-        <v>0.217099</v>
+        <v>0.217298</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.226509</v>
+        <v>0.22966</v>
       </c>
       <c r="C69" t="n">
-        <v>0.21069</v>
+        <v>0.210778</v>
       </c>
       <c r="D69" t="n">
-        <v>0.208723</v>
+        <v>0.208731</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.219262</v>
+        <v>0.221735</v>
       </c>
       <c r="C70" t="n">
-        <v>0.202863</v>
+        <v>0.202988</v>
       </c>
       <c r="D70" t="n">
-        <v>0.200758</v>
+        <v>0.201093</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.212902</v>
+        <v>0.214747</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195787</v>
+        <v>0.195603</v>
       </c>
       <c r="D71" t="n">
-        <v>0.193394</v>
+        <v>0.193892</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205912</v>
+        <v>0.208095</v>
       </c>
       <c r="C72" t="n">
-        <v>0.188445</v>
+        <v>0.188662</v>
       </c>
       <c r="D72" t="n">
-        <v>0.186451</v>
+        <v>0.186721</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.200077</v>
+        <v>0.201667</v>
       </c>
       <c r="C73" t="n">
-        <v>0.182</v>
+        <v>0.182115</v>
       </c>
       <c r="D73" t="n">
-        <v>0.179946</v>
+        <v>0.180674</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193077</v>
+        <v>0.195983</v>
       </c>
       <c r="C74" t="n">
-        <v>0.17603</v>
+        <v>0.175933</v>
       </c>
       <c r="D74" t="n">
-        <v>0.174342</v>
+        <v>0.174571</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.187844</v>
+        <v>0.190398</v>
       </c>
       <c r="C75" t="n">
-        <v>0.170474</v>
+        <v>0.170502</v>
       </c>
       <c r="D75" t="n">
-        <v>0.169276</v>
+        <v>0.169827</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.183798</v>
+        <v>0.186079</v>
       </c>
       <c r="C76" t="n">
-        <v>0.165429</v>
+        <v>0.165706</v>
       </c>
       <c r="D76" t="n">
-        <v>0.165106</v>
+        <v>0.165674</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181942</v>
+        <v>0.182746</v>
       </c>
       <c r="C77" t="n">
-        <v>0.161373</v>
+        <v>0.161458</v>
       </c>
       <c r="D77" t="n">
-        <v>0.161925</v>
+        <v>0.16223</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.178129</v>
+        <v>0.181009</v>
       </c>
       <c r="C78" t="n">
-        <v>0.157934</v>
+        <v>0.158034</v>
       </c>
       <c r="D78" t="n">
-        <v>0.160159</v>
+        <v>0.160253</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178476</v>
+        <v>0.180352</v>
       </c>
       <c r="C79" t="n">
-        <v>0.156039</v>
+        <v>0.156348</v>
       </c>
       <c r="D79" t="n">
-        <v>0.160877</v>
+        <v>0.161245</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.17956</v>
+        <v>0.182351</v>
       </c>
       <c r="C80" t="n">
-        <v>0.155776</v>
+        <v>0.155875</v>
       </c>
       <c r="D80" t="n">
-        <v>0.238589</v>
+        <v>0.239386</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.264578</v>
+        <v>0.258739</v>
       </c>
       <c r="C81" t="n">
-        <v>0.230999</v>
+        <v>0.232674</v>
       </c>
       <c r="D81" t="n">
-        <v>0.229494</v>
+        <v>0.231107</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.256391</v>
+        <v>0.251128</v>
       </c>
       <c r="C82" t="n">
-        <v>0.222851</v>
+        <v>0.224971</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221162</v>
+        <v>0.222208</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.248125</v>
+        <v>0.243628</v>
       </c>
       <c r="C83" t="n">
-        <v>0.21555</v>
+        <v>0.217255</v>
       </c>
       <c r="D83" t="n">
-        <v>0.213161</v>
+        <v>0.214836</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.240193</v>
+        <v>0.235635</v>
       </c>
       <c r="C84" t="n">
-        <v>0.207598</v>
+        <v>0.210081</v>
       </c>
       <c r="D84" t="n">
-        <v>0.205476</v>
+        <v>0.206087</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.23267</v>
+        <v>0.228158</v>
       </c>
       <c r="C85" t="n">
-        <v>0.200932</v>
+        <v>0.202439</v>
       </c>
       <c r="D85" t="n">
-        <v>0.198543</v>
+        <v>0.199461</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.22559</v>
+        <v>0.221232</v>
       </c>
       <c r="C86" t="n">
-        <v>0.194674</v>
+        <v>0.195277</v>
       </c>
       <c r="D86" t="n">
-        <v>0.191414</v>
+        <v>0.192468</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.219082</v>
+        <v>0.21462</v>
       </c>
       <c r="C87" t="n">
-        <v>0.187216</v>
+        <v>0.189176</v>
       </c>
       <c r="D87" t="n">
-        <v>0.185247</v>
+        <v>0.186346</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.211712</v>
+        <v>0.208761</v>
       </c>
       <c r="C88" t="n">
-        <v>0.181952</v>
+        <v>0.1835</v>
       </c>
       <c r="D88" t="n">
-        <v>0.179339</v>
+        <v>0.180826</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.205985</v>
+        <v>0.203878</v>
       </c>
       <c r="C89" t="n">
-        <v>0.176475</v>
+        <v>0.176974</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174257</v>
+        <v>0.174562</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.200617</v>
+        <v>0.197511</v>
       </c>
       <c r="C90" t="n">
-        <v>0.170572</v>
+        <v>0.171865</v>
       </c>
       <c r="D90" t="n">
-        <v>0.169949</v>
+        <v>0.169666</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196613</v>
+        <v>0.193562</v>
       </c>
       <c r="C91" t="n">
-        <v>0.166383</v>
+        <v>0.167547</v>
       </c>
       <c r="D91" t="n">
-        <v>0.166266</v>
+        <v>0.166841</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.193676</v>
+        <v>0.190611</v>
       </c>
       <c r="C92" t="n">
-        <v>0.163661</v>
+        <v>0.164183</v>
       </c>
       <c r="D92" t="n">
-        <v>0.164254</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.192327</v>
+        <v>0.189534</v>
       </c>
       <c r="C93" t="n">
-        <v>0.161501</v>
+        <v>0.161809</v>
       </c>
       <c r="D93" t="n">
-        <v>0.164462</v>
+        <v>0.164779</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.192999</v>
+        <v>0.190764</v>
       </c>
       <c r="C94" t="n">
-        <v>0.159943</v>
+        <v>0.16111</v>
       </c>
       <c r="D94" t="n">
-        <v>0.254846</v>
+        <v>0.255869</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.273646</v>
+        <v>0.27274</v>
       </c>
       <c r="C95" t="n">
-        <v>0.248331</v>
+        <v>0.248761</v>
       </c>
       <c r="D95" t="n">
-        <v>0.247693</v>
+        <v>0.248036</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.267783</v>
+        <v>0.266245</v>
       </c>
       <c r="C96" t="n">
-        <v>0.241042</v>
+        <v>0.241749</v>
       </c>
       <c r="D96" t="n">
-        <v>0.238917</v>
+        <v>0.239744</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.260741</v>
+        <v>0.259685</v>
       </c>
       <c r="C97" t="n">
-        <v>0.233042</v>
+        <v>0.234088</v>
       </c>
       <c r="D97" t="n">
-        <v>0.231813</v>
+        <v>0.231887</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.253769</v>
+        <v>0.252891</v>
       </c>
       <c r="C98" t="n">
-        <v>0.225508</v>
+        <v>0.226515</v>
       </c>
       <c r="D98" t="n">
-        <v>0.223193</v>
+        <v>0.224625</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.246899</v>
+        <v>0.246504</v>
       </c>
       <c r="C99" t="n">
-        <v>0.219631</v>
+        <v>0.219735</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216488</v>
+        <v>0.21647</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.241234</v>
+        <v>0.240011</v>
       </c>
       <c r="C100" t="n">
-        <v>0.212754</v>
+        <v>0.213491</v>
       </c>
       <c r="D100" t="n">
-        <v>0.208922</v>
+        <v>0.209615</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.235054</v>
+        <v>0.234352</v>
       </c>
       <c r="C101" t="n">
-        <v>0.206639</v>
+        <v>0.207286</v>
       </c>
       <c r="D101" t="n">
-        <v>0.202801</v>
+        <v>0.203311</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.229639</v>
+        <v>0.228816</v>
       </c>
       <c r="C102" t="n">
-        <v>0.199804</v>
+        <v>0.201525</v>
       </c>
       <c r="D102" t="n">
-        <v>0.196575</v>
+        <v>0.197352</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.224445</v>
+        <v>0.223772</v>
       </c>
       <c r="C103" t="n">
-        <v>0.194791</v>
+        <v>0.195668</v>
       </c>
       <c r="D103" t="n">
-        <v>0.191621</v>
+        <v>0.191091</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.219872</v>
+        <v>0.219051</v>
       </c>
       <c r="C104" t="n">
-        <v>0.190194</v>
+        <v>0.190528</v>
       </c>
       <c r="D104" t="n">
-        <v>0.18674</v>
+        <v>0.18756</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.216061</v>
+        <v>0.21521</v>
       </c>
       <c r="C105" t="n">
-        <v>0.186341</v>
+        <v>0.186757</v>
       </c>
       <c r="D105" t="n">
-        <v>0.182941</v>
+        <v>0.184058</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.212334</v>
+        <v>0.21188</v>
       </c>
       <c r="C106" t="n">
-        <v>0.182751</v>
+        <v>0.18272</v>
       </c>
       <c r="D106" t="n">
-        <v>0.18037</v>
+        <v>0.181276</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.210555</v>
+        <v>0.209949</v>
       </c>
       <c r="C107" t="n">
-        <v>0.180606</v>
+        <v>0.18042</v>
       </c>
       <c r="D107" t="n">
-        <v>0.180467</v>
+        <v>0.180316</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.210324</v>
+        <v>0.209662</v>
       </c>
       <c r="C108" t="n">
-        <v>0.178959</v>
+        <v>0.178814</v>
       </c>
       <c r="D108" t="n">
-        <v>0.271165</v>
+        <v>0.272029</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.212544</v>
+        <v>0.212207</v>
       </c>
       <c r="C109" t="n">
-        <v>0.179971</v>
+        <v>0.179872</v>
       </c>
       <c r="D109" t="n">
-        <v>0.264473</v>
+        <v>0.264936</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.293835</v>
+        <v>0.285019</v>
       </c>
       <c r="C110" t="n">
-        <v>0.261368</v>
+        <v>0.260317</v>
       </c>
       <c r="D110" t="n">
-        <v>0.259478</v>
+        <v>0.255485</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.286801</v>
+        <v>0.278493</v>
       </c>
       <c r="C111" t="n">
-        <v>0.256104</v>
+        <v>0.252288</v>
       </c>
       <c r="D111" t="n">
-        <v>0.250609</v>
+        <v>0.248914</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.281717</v>
+        <v>0.272359</v>
       </c>
       <c r="C112" t="n">
-        <v>0.248962</v>
+        <v>0.24504</v>
       </c>
       <c r="D112" t="n">
-        <v>0.243577</v>
+        <v>0.241307</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.273959</v>
+        <v>0.266331</v>
       </c>
       <c r="C113" t="n">
-        <v>0.241986</v>
+        <v>0.238375</v>
       </c>
       <c r="D113" t="n">
-        <v>0.236832</v>
+        <v>0.233984</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.267659</v>
+        <v>0.260681</v>
       </c>
       <c r="C114" t="n">
-        <v>0.235123</v>
+        <v>0.232493</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229233</v>
+        <v>0.227199</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.262051</v>
+        <v>0.255168</v>
       </c>
       <c r="C115" t="n">
-        <v>0.228907</v>
+        <v>0.226012</v>
       </c>
       <c r="D115" t="n">
-        <v>0.223303</v>
+        <v>0.220909</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.256792</v>
+        <v>0.250424</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223074</v>
+        <v>0.220472</v>
       </c>
       <c r="D116" t="n">
-        <v>0.217301</v>
+        <v>0.215702</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.251792</v>
+        <v>0.245671</v>
       </c>
       <c r="C117" t="n">
-        <v>0.21782</v>
+        <v>0.215532</v>
       </c>
       <c r="D117" t="n">
-        <v>0.212093</v>
+        <v>0.210539</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.247419</v>
+        <v>0.24173</v>
       </c>
       <c r="C118" t="n">
-        <v>0.213126</v>
+        <v>0.2106</v>
       </c>
       <c r="D118" t="n">
-        <v>0.207444</v>
+        <v>0.206197</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.24329</v>
+        <v>0.237854</v>
       </c>
       <c r="C119" t="n">
-        <v>0.209</v>
+        <v>0.206551</v>
       </c>
       <c r="D119" t="n">
-        <v>0.203725</v>
+        <v>0.201933</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.241208</v>
+        <v>0.23501</v>
       </c>
       <c r="C120" t="n">
-        <v>0.203475</v>
+        <v>0.202063</v>
       </c>
       <c r="D120" t="n">
-        <v>0.198743</v>
+        <v>0.199328</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.237542</v>
+        <v>0.232507</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200379</v>
+        <v>0.200242</v>
       </c>
       <c r="D121" t="n">
-        <v>0.197593</v>
+        <v>0.197704</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.236278</v>
+        <v>0.231412</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199354</v>
+        <v>0.198441</v>
       </c>
       <c r="D122" t="n">
-        <v>0.198309</v>
+        <v>0.198654</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.237302</v>
+        <v>0.232871</v>
       </c>
       <c r="C123" t="n">
-        <v>0.19931</v>
+        <v>0.198795</v>
       </c>
       <c r="D123" t="n">
-        <v>0.284222</v>
+        <v>0.283965</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.318166</v>
+        <v>0.313181</v>
       </c>
       <c r="C124" t="n">
-        <v>0.28117</v>
+        <v>0.281124</v>
       </c>
       <c r="D124" t="n">
-        <v>0.27676</v>
+        <v>0.276815</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.312503</v>
+        <v>0.311894</v>
       </c>
       <c r="C125" t="n">
-        <v>0.274729</v>
+        <v>0.274198</v>
       </c>
       <c r="D125" t="n">
-        <v>0.270629</v>
+        <v>0.270421</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.306744</v>
+        <v>0.305726</v>
       </c>
       <c r="C126" t="n">
-        <v>0.26852</v>
+        <v>0.267927</v>
       </c>
       <c r="D126" t="n">
-        <v>0.264438</v>
+        <v>0.264633</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.301534</v>
+        <v>0.299895</v>
       </c>
       <c r="C127" t="n">
-        <v>0.262548</v>
+        <v>0.261866</v>
       </c>
       <c r="D127" t="n">
-        <v>0.259158</v>
+        <v>0.258436</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.296628</v>
+        <v>0.294571</v>
       </c>
       <c r="C128" t="n">
-        <v>0.257569</v>
+        <v>0.256765</v>
       </c>
       <c r="D128" t="n">
-        <v>0.253207</v>
+        <v>0.254044</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.292693</v>
+        <v>0.290063</v>
       </c>
       <c r="C129" t="n">
-        <v>0.252523</v>
+        <v>0.251763</v>
       </c>
       <c r="D129" t="n">
-        <v>0.249025</v>
+        <v>0.248694</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.288083</v>
+        <v>0.286009</v>
       </c>
       <c r="C130" t="n">
-        <v>0.247878</v>
+        <v>0.247053</v>
       </c>
       <c r="D130" t="n">
-        <v>0.244735</v>
+        <v>0.244094</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.283309</v>
+        <v>0.2821</v>
       </c>
       <c r="C131" t="n">
-        <v>0.24318</v>
+        <v>0.242422</v>
       </c>
       <c r="D131" t="n">
-        <v>0.24061</v>
+        <v>0.240426</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.279405</v>
+        <v>0.278146</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238962</v>
+        <v>0.238299</v>
       </c>
       <c r="D132" t="n">
-        <v>0.236964</v>
+        <v>0.236738</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276439</v>
+        <v>0.275058</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235475</v>
+        <v>0.234926</v>
       </c>
       <c r="D133" t="n">
-        <v>0.233208</v>
+        <v>0.233445</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.273431</v>
+        <v>0.272739</v>
       </c>
       <c r="C134" t="n">
-        <v>0.232393</v>
+        <v>0.231855</v>
       </c>
       <c r="D134" t="n">
-        <v>0.231054</v>
+        <v>0.230647</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.272021</v>
+        <v>0.270463</v>
       </c>
       <c r="C135" t="n">
-        <v>0.230454</v>
+        <v>0.229302</v>
       </c>
       <c r="D135" t="n">
-        <v>0.229452</v>
+        <v>0.229542</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.271085</v>
+        <v>0.269935</v>
       </c>
       <c r="C136" t="n">
-        <v>0.228985</v>
+        <v>0.227935</v>
       </c>
       <c r="D136" t="n">
-        <v>0.229909</v>
+        <v>0.230137</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.271851</v>
+        <v>0.270629</v>
       </c>
       <c r="C137" t="n">
-        <v>0.228899</v>
+        <v>0.228182</v>
       </c>
       <c r="D137" t="n">
-        <v>0.325069</v>
+        <v>0.326655</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.373972</v>
+        <v>0.359589</v>
       </c>
       <c r="C138" t="n">
-        <v>0.320866</v>
+        <v>0.320688</v>
       </c>
       <c r="D138" t="n">
-        <v>0.318552</v>
+        <v>0.320819</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.368807</v>
+        <v>0.355636</v>
       </c>
       <c r="C139" t="n">
-        <v>0.314842</v>
+        <v>0.314568</v>
       </c>
       <c r="D139" t="n">
-        <v>0.313049</v>
+        <v>0.313962</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.36329</v>
+        <v>0.348885</v>
       </c>
       <c r="C140" t="n">
-        <v>0.308494</v>
+        <v>0.30893</v>
       </c>
       <c r="D140" t="n">
-        <v>0.307737</v>
+        <v>0.309404</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.357535</v>
+        <v>0.343799</v>
       </c>
       <c r="C141" t="n">
-        <v>0.30313</v>
+        <v>0.303639</v>
       </c>
       <c r="D141" t="n">
-        <v>0.303247</v>
+        <v>0.304321</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.35188</v>
+        <v>0.339346</v>
       </c>
       <c r="C142" t="n">
-        <v>0.298468</v>
+        <v>0.298043</v>
       </c>
       <c r="D142" t="n">
-        <v>0.298479</v>
+        <v>0.29898</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.347422</v>
+        <v>0.334833</v>
       </c>
       <c r="C143" t="n">
-        <v>0.293579</v>
+        <v>0.293056</v>
       </c>
       <c r="D143" t="n">
-        <v>0.294201</v>
+        <v>0.294404</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.165575</v>
+        <v>0.157011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.144117</v>
+        <v>0.139113</v>
       </c>
       <c r="D2" t="n">
-        <v>0.149363</v>
+        <v>0.143621</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.157819</v>
+        <v>0.154662</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1398</v>
+        <v>0.133837</v>
       </c>
       <c r="D3" t="n">
-        <v>0.144276</v>
+        <v>0.139866</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.15702</v>
+        <v>0.149463</v>
       </c>
       <c r="C4" t="n">
-        <v>0.124302</v>
+        <v>0.128328</v>
       </c>
       <c r="D4" t="n">
-        <v>0.137711</v>
+        <v>0.132906</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.153296</v>
+        <v>0.149924</v>
       </c>
       <c r="C5" t="n">
-        <v>0.125828</v>
+        <v>0.125747</v>
       </c>
       <c r="D5" t="n">
-        <v>0.136273</v>
+        <v>0.133875</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.153131</v>
+        <v>0.157826</v>
       </c>
       <c r="C6" t="n">
-        <v>0.127215</v>
+        <v>0.123833</v>
       </c>
       <c r="D6" t="n">
-        <v>0.129032</v>
+        <v>0.125706</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.153973</v>
+        <v>0.149928</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111882</v>
+        <v>0.113028</v>
       </c>
       <c r="D7" t="n">
-        <v>0.116878</v>
+        <v>0.116674</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.145315</v>
+        <v>0.149443</v>
       </c>
       <c r="C8" t="n">
-        <v>0.118726</v>
+        <v>0.107523</v>
       </c>
       <c r="D8" t="n">
-        <v>0.123663</v>
+        <v>0.11495</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.154067</v>
+        <v>0.153109</v>
       </c>
       <c r="C9" t="n">
-        <v>0.112593</v>
+        <v>0.110642</v>
       </c>
       <c r="D9" t="n">
-        <v>0.199876</v>
+        <v>0.190583</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.211445</v>
+        <v>0.213047</v>
       </c>
       <c r="C10" t="n">
-        <v>0.188906</v>
+        <v>0.184455</v>
       </c>
       <c r="D10" t="n">
-        <v>0.185855</v>
+        <v>0.191711</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.201709</v>
+        <v>0.206642</v>
       </c>
       <c r="C11" t="n">
-        <v>0.179181</v>
+        <v>0.182924</v>
       </c>
       <c r="D11" t="n">
-        <v>0.189612</v>
+        <v>0.191954</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.205854</v>
+        <v>0.208838</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176379</v>
+        <v>0.175162</v>
       </c>
       <c r="D12" t="n">
-        <v>0.179468</v>
+        <v>0.188524</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.196613</v>
+        <v>0.197741</v>
       </c>
       <c r="C13" t="n">
-        <v>0.165064</v>
+        <v>0.170685</v>
       </c>
       <c r="D13" t="n">
-        <v>0.176002</v>
+        <v>0.179336</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.182886</v>
+        <v>0.19067</v>
       </c>
       <c r="C14" t="n">
-        <v>0.157959</v>
+        <v>0.163977</v>
       </c>
       <c r="D14" t="n">
-        <v>0.169888</v>
+        <v>0.17094</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.18283</v>
+        <v>0.184313</v>
       </c>
       <c r="C15" t="n">
-        <v>0.151929</v>
+        <v>0.154715</v>
       </c>
       <c r="D15" t="n">
-        <v>0.161165</v>
+        <v>0.161448</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.176307</v>
+        <v>0.176771</v>
       </c>
       <c r="C16" t="n">
-        <v>0.144935</v>
+        <v>0.150952</v>
       </c>
       <c r="D16" t="n">
-        <v>0.15446</v>
+        <v>0.158686</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.169916</v>
+        <v>0.171935</v>
       </c>
       <c r="C17" t="n">
-        <v>0.142074</v>
+        <v>0.147472</v>
       </c>
       <c r="D17" t="n">
-        <v>0.151751</v>
+        <v>0.151504</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.168724</v>
+        <v>0.166772</v>
       </c>
       <c r="C18" t="n">
-        <v>0.139932</v>
+        <v>0.143893</v>
       </c>
       <c r="D18" t="n">
-        <v>0.152819</v>
+        <v>0.147104</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.168612</v>
+        <v>0.161798</v>
       </c>
       <c r="C19" t="n">
-        <v>0.136982</v>
+        <v>0.136004</v>
       </c>
       <c r="D19" t="n">
-        <v>0.14847</v>
+        <v>0.149117</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.163338</v>
+        <v>0.159375</v>
       </c>
       <c r="C20" t="n">
-        <v>0.134843</v>
+        <v>0.134162</v>
       </c>
       <c r="D20" t="n">
-        <v>0.143615</v>
+        <v>0.142857</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.159027</v>
+        <v>0.159496</v>
       </c>
       <c r="C21" t="n">
-        <v>0.13337</v>
+        <v>0.129251</v>
       </c>
       <c r="D21" t="n">
-        <v>0.141209</v>
+        <v>0.142322</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.156428</v>
+        <v>0.160146</v>
       </c>
       <c r="C22" t="n">
-        <v>0.129151</v>
+        <v>0.129926</v>
       </c>
       <c r="D22" t="n">
-        <v>0.140241</v>
+        <v>0.140682</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163922</v>
+        <v>0.161504</v>
       </c>
       <c r="C23" t="n">
-        <v>0.128423</v>
+        <v>0.128334</v>
       </c>
       <c r="D23" t="n">
-        <v>0.230573</v>
+        <v>0.233503</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.248629</v>
+        <v>0.234164</v>
       </c>
       <c r="C24" t="n">
-        <v>0.212034</v>
+        <v>0.214545</v>
       </c>
       <c r="D24" t="n">
-        <v>0.223919</v>
+        <v>0.224117</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.238588</v>
+        <v>0.225207</v>
       </c>
       <c r="C25" t="n">
-        <v>0.203736</v>
+        <v>0.205341</v>
       </c>
       <c r="D25" t="n">
-        <v>0.214548</v>
+        <v>0.210265</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.22927</v>
+        <v>0.223981</v>
       </c>
       <c r="C26" t="n">
-        <v>0.201481</v>
+        <v>0.196024</v>
       </c>
       <c r="D26" t="n">
-        <v>0.207572</v>
+        <v>0.201872</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.222377</v>
+        <v>0.215071</v>
       </c>
       <c r="C27" t="n">
-        <v>0.192447</v>
+        <v>0.188493</v>
       </c>
       <c r="D27" t="n">
-        <v>0.207233</v>
+        <v>0.193342</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.206957</v>
+        <v>0.198852</v>
       </c>
       <c r="C28" t="n">
-        <v>0.184756</v>
+        <v>0.182342</v>
       </c>
       <c r="D28" t="n">
-        <v>0.199182</v>
+        <v>0.191257</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.202275</v>
+        <v>0.195549</v>
       </c>
       <c r="C29" t="n">
-        <v>0.178417</v>
+        <v>0.178408</v>
       </c>
       <c r="D29" t="n">
-        <v>0.190777</v>
+        <v>0.186362</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.197699</v>
+        <v>0.197666</v>
       </c>
       <c r="C30" t="n">
-        <v>0.172105</v>
+        <v>0.172638</v>
       </c>
       <c r="D30" t="n">
-        <v>0.176507</v>
+        <v>0.178187</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.19061</v>
+        <v>0.187772</v>
       </c>
       <c r="C31" t="n">
-        <v>0.163486</v>
+        <v>0.166517</v>
       </c>
       <c r="D31" t="n">
-        <v>0.167375</v>
+        <v>0.172258</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.183552</v>
+        <v>0.188562</v>
       </c>
       <c r="C32" t="n">
-        <v>0.157514</v>
+        <v>0.160429</v>
       </c>
       <c r="D32" t="n">
-        <v>0.161844</v>
+        <v>0.173115</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.174948</v>
+        <v>0.174273</v>
       </c>
       <c r="C33" t="n">
-        <v>0.153263</v>
+        <v>0.155955</v>
       </c>
       <c r="D33" t="n">
-        <v>0.158565</v>
+        <v>0.16445</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.174278</v>
+        <v>0.175728</v>
       </c>
       <c r="C34" t="n">
-        <v>0.149065</v>
+        <v>0.152289</v>
       </c>
       <c r="D34" t="n">
-        <v>0.152865</v>
+        <v>0.157729</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.172208</v>
+        <v>0.171842</v>
       </c>
       <c r="C35" t="n">
-        <v>0.146016</v>
+        <v>0.148192</v>
       </c>
       <c r="D35" t="n">
-        <v>0.152349</v>
+        <v>0.151822</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.169282</v>
+        <v>0.167923</v>
       </c>
       <c r="C36" t="n">
-        <v>0.14422</v>
+        <v>0.146548</v>
       </c>
       <c r="D36" t="n">
-        <v>0.150514</v>
+        <v>0.153513</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169046</v>
+        <v>0.170381</v>
       </c>
       <c r="C37" t="n">
-        <v>0.143099</v>
+        <v>0.145747</v>
       </c>
       <c r="D37" t="n">
-        <v>0.234545</v>
+        <v>0.240863</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244924</v>
+        <v>0.249241</v>
       </c>
       <c r="C38" t="n">
-        <v>0.219928</v>
+        <v>0.224058</v>
       </c>
       <c r="D38" t="n">
-        <v>0.225593</v>
+        <v>0.229915</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2355</v>
+        <v>0.2378</v>
       </c>
       <c r="C39" t="n">
-        <v>0.211244</v>
+        <v>0.211243</v>
       </c>
       <c r="D39" t="n">
-        <v>0.213792</v>
+        <v>0.214085</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.226976</v>
+        <v>0.227928</v>
       </c>
       <c r="C40" t="n">
-        <v>0.203195</v>
+        <v>0.203183</v>
       </c>
       <c r="D40" t="n">
-        <v>0.204806</v>
+        <v>0.20662</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.218991</v>
+        <v>0.218531</v>
       </c>
       <c r="C41" t="n">
-        <v>0.19525</v>
+        <v>0.195838</v>
       </c>
       <c r="D41" t="n">
-        <v>0.197259</v>
+        <v>0.198606</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.210917</v>
+        <v>0.210744</v>
       </c>
       <c r="C42" t="n">
-        <v>0.18824</v>
+        <v>0.188138</v>
       </c>
       <c r="D42" t="n">
-        <v>0.191376</v>
+        <v>0.192045</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.203947</v>
+        <v>0.204217</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181117</v>
+        <v>0.181364</v>
       </c>
       <c r="D43" t="n">
-        <v>0.185097</v>
+        <v>0.182594</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.192794</v>
+        <v>0.19713</v>
       </c>
       <c r="C44" t="n">
-        <v>0.174833</v>
+        <v>0.17497</v>
       </c>
       <c r="D44" t="n">
-        <v>0.17617</v>
+        <v>0.177584</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.191396</v>
+        <v>0.191616</v>
       </c>
       <c r="C45" t="n">
-        <v>0.169025</v>
+        <v>0.169012</v>
       </c>
       <c r="D45" t="n">
-        <v>0.170888</v>
+        <v>0.172012</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.185026</v>
+        <v>0.185355</v>
       </c>
       <c r="C46" t="n">
-        <v>0.16326</v>
+        <v>0.163457</v>
       </c>
       <c r="D46" t="n">
-        <v>0.165064</v>
+        <v>0.164585</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.18106</v>
+        <v>0.180818</v>
       </c>
       <c r="C47" t="n">
-        <v>0.158596</v>
+        <v>0.158522</v>
       </c>
       <c r="D47" t="n">
-        <v>0.160524</v>
+        <v>0.160688</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175585</v>
+        <v>0.177062</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154249</v>
+        <v>0.154109</v>
       </c>
       <c r="D48" t="n">
-        <v>0.156421</v>
+        <v>0.15694</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174274</v>
+        <v>0.174825</v>
       </c>
       <c r="C49" t="n">
-        <v>0.151369</v>
+        <v>0.151295</v>
       </c>
       <c r="D49" t="n">
-        <v>0.154682</v>
+        <v>0.15481</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172774</v>
+        <v>0.171445</v>
       </c>
       <c r="C50" t="n">
-        <v>0.148258</v>
+        <v>0.148314</v>
       </c>
       <c r="D50" t="n">
-        <v>0.153804</v>
+        <v>0.153936</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173068</v>
+        <v>0.174534</v>
       </c>
       <c r="C51" t="n">
-        <v>0.147253</v>
+        <v>0.147405</v>
       </c>
       <c r="D51" t="n">
-        <v>0.237201</v>
+        <v>0.237349</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17646</v>
+        <v>0.176946</v>
       </c>
       <c r="C52" t="n">
-        <v>0.148311</v>
+        <v>0.148427</v>
       </c>
       <c r="D52" t="n">
-        <v>0.228305</v>
+        <v>0.227292</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241629</v>
+        <v>0.243225</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218644</v>
+        <v>0.218437</v>
       </c>
       <c r="D53" t="n">
-        <v>0.218782</v>
+        <v>0.218802</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233158</v>
+        <v>0.234069</v>
       </c>
       <c r="C54" t="n">
-        <v>0.209996</v>
+        <v>0.209735</v>
       </c>
       <c r="D54" t="n">
-        <v>0.210607</v>
+        <v>0.210768</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.224587</v>
+        <v>0.225732</v>
       </c>
       <c r="C55" t="n">
-        <v>0.201805</v>
+        <v>0.201978</v>
       </c>
       <c r="D55" t="n">
-        <v>0.202146</v>
+        <v>0.202217</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.21606</v>
+        <v>0.217701</v>
       </c>
       <c r="C56" t="n">
-        <v>0.194489</v>
+        <v>0.194952</v>
       </c>
       <c r="D56" t="n">
-        <v>0.193982</v>
+        <v>0.194718</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.209401</v>
+        <v>0.210445</v>
       </c>
       <c r="C57" t="n">
-        <v>0.187556</v>
+        <v>0.18745</v>
       </c>
       <c r="D57" t="n">
-        <v>0.187519</v>
+        <v>0.187648</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.202475</v>
+        <v>0.203487</v>
       </c>
       <c r="C58" t="n">
-        <v>0.180917</v>
+        <v>0.180692</v>
       </c>
       <c r="D58" t="n">
-        <v>0.180516</v>
+        <v>0.180611</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196619</v>
+        <v>0.197713</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174386</v>
+        <v>0.174583</v>
       </c>
       <c r="D59" t="n">
-        <v>0.173868</v>
+        <v>0.175226</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.19119</v>
+        <v>0.191893</v>
       </c>
       <c r="C60" t="n">
-        <v>0.168695</v>
+        <v>0.168855</v>
       </c>
       <c r="D60" t="n">
-        <v>0.169466</v>
+        <v>0.16932</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.186374</v>
+        <v>0.186394</v>
       </c>
       <c r="C61" t="n">
-        <v>0.163766</v>
+        <v>0.163855</v>
       </c>
       <c r="D61" t="n">
-        <v>0.164606</v>
+        <v>0.165142</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.182171</v>
+        <v>0.182586</v>
       </c>
       <c r="C62" t="n">
-        <v>0.15931</v>
+        <v>0.159341</v>
       </c>
       <c r="D62" t="n">
-        <v>0.160696</v>
+        <v>0.160832</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178893</v>
+        <v>0.179547</v>
       </c>
       <c r="C63" t="n">
-        <v>0.155415</v>
+        <v>0.155136</v>
       </c>
       <c r="D63" t="n">
-        <v>0.157555</v>
+        <v>0.157862</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177366</v>
+        <v>0.177947</v>
       </c>
       <c r="C64" t="n">
-        <v>0.152391</v>
+        <v>0.152401</v>
       </c>
       <c r="D64" t="n">
-        <v>0.156672</v>
+        <v>0.15691</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1776</v>
+        <v>0.178336</v>
       </c>
       <c r="C65" t="n">
-        <v>0.150792</v>
+        <v>0.150672</v>
       </c>
       <c r="D65" t="n">
-        <v>0.15802</v>
+        <v>0.158188</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.18034</v>
+        <v>0.181099</v>
       </c>
       <c r="C66" t="n">
-        <v>0.151524</v>
+        <v>0.151517</v>
       </c>
       <c r="D66" t="n">
-        <v>0.234624</v>
+        <v>0.23502</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.24628</v>
+        <v>0.244719</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228103</v>
+        <v>0.228011</v>
       </c>
       <c r="D67" t="n">
-        <v>0.225862</v>
+        <v>0.226275</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237993</v>
+        <v>0.237381</v>
       </c>
       <c r="C68" t="n">
-        <v>0.219144</v>
+        <v>0.219301</v>
       </c>
       <c r="D68" t="n">
-        <v>0.217298</v>
+        <v>0.217146</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.22966</v>
+        <v>0.228951</v>
       </c>
       <c r="C69" t="n">
-        <v>0.210778</v>
+        <v>0.210936</v>
       </c>
       <c r="D69" t="n">
-        <v>0.208731</v>
+        <v>0.207256</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.221735</v>
+        <v>0.221125</v>
       </c>
       <c r="C70" t="n">
-        <v>0.202988</v>
+        <v>0.202819</v>
       </c>
       <c r="D70" t="n">
-        <v>0.201093</v>
+        <v>0.201331</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.214747</v>
+        <v>0.213796</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195603</v>
+        <v>0.195226</v>
       </c>
       <c r="D71" t="n">
-        <v>0.193892</v>
+        <v>0.193603</v>
       </c>
     </row>
     <row r="72">
@@ -4228,10 +4228,10 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.208095</v>
+        <v>0.207178</v>
       </c>
       <c r="C72" t="n">
-        <v>0.188662</v>
+        <v>0.188591</v>
       </c>
       <c r="D72" t="n">
         <v>0.186721</v>
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.201667</v>
+        <v>0.200075</v>
       </c>
       <c r="C73" t="n">
-        <v>0.182115</v>
+        <v>0.181893</v>
       </c>
       <c r="D73" t="n">
-        <v>0.180674</v>
+        <v>0.18053</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.195983</v>
+        <v>0.19468</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175933</v>
+        <v>0.176079</v>
       </c>
       <c r="D74" t="n">
-        <v>0.174571</v>
+        <v>0.174396</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.190398</v>
+        <v>0.189063</v>
       </c>
       <c r="C75" t="n">
-        <v>0.170502</v>
+        <v>0.170587</v>
       </c>
       <c r="D75" t="n">
-        <v>0.169827</v>
+        <v>0.16961</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.186079</v>
+        <v>0.185574</v>
       </c>
       <c r="C76" t="n">
-        <v>0.165706</v>
+        <v>0.165588</v>
       </c>
       <c r="D76" t="n">
-        <v>0.165674</v>
+        <v>0.165528</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182746</v>
+        <v>0.182059</v>
       </c>
       <c r="C77" t="n">
-        <v>0.161458</v>
+        <v>0.161469</v>
       </c>
       <c r="D77" t="n">
-        <v>0.16223</v>
+        <v>0.162027</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181009</v>
+        <v>0.18112</v>
       </c>
       <c r="C78" t="n">
-        <v>0.158034</v>
+        <v>0.158058</v>
       </c>
       <c r="D78" t="n">
-        <v>0.160253</v>
+        <v>0.160463</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180352</v>
+        <v>0.179791</v>
       </c>
       <c r="C79" t="n">
-        <v>0.156348</v>
+        <v>0.156157</v>
       </c>
       <c r="D79" t="n">
-        <v>0.161245</v>
+        <v>0.161626</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.182351</v>
+        <v>0.182257</v>
       </c>
       <c r="C80" t="n">
-        <v>0.155875</v>
+        <v>0.155846</v>
       </c>
       <c r="D80" t="n">
-        <v>0.239386</v>
+        <v>0.238541</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258739</v>
+        <v>0.25905</v>
       </c>
       <c r="C81" t="n">
-        <v>0.232674</v>
+        <v>0.231414</v>
       </c>
       <c r="D81" t="n">
-        <v>0.231107</v>
+        <v>0.229592</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251128</v>
+        <v>0.251189</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224971</v>
+        <v>0.223757</v>
       </c>
       <c r="D82" t="n">
-        <v>0.222208</v>
+        <v>0.221004</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243628</v>
+        <v>0.242422</v>
       </c>
       <c r="C83" t="n">
-        <v>0.217255</v>
+        <v>0.215966</v>
       </c>
       <c r="D83" t="n">
-        <v>0.214836</v>
+        <v>0.213344</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235635</v>
+        <v>0.235446</v>
       </c>
       <c r="C84" t="n">
-        <v>0.210081</v>
+        <v>0.208613</v>
       </c>
       <c r="D84" t="n">
-        <v>0.206087</v>
+        <v>0.205434</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.228158</v>
+        <v>0.227403</v>
       </c>
       <c r="C85" t="n">
-        <v>0.202439</v>
+        <v>0.201524</v>
       </c>
       <c r="D85" t="n">
-        <v>0.199461</v>
+        <v>0.198339</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.221232</v>
+        <v>0.22166</v>
       </c>
       <c r="C86" t="n">
-        <v>0.195277</v>
+        <v>0.194574</v>
       </c>
       <c r="D86" t="n">
-        <v>0.192468</v>
+        <v>0.190857</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.21462</v>
+        <v>0.214866</v>
       </c>
       <c r="C87" t="n">
-        <v>0.189176</v>
+        <v>0.18839</v>
       </c>
       <c r="D87" t="n">
-        <v>0.186346</v>
+        <v>0.184707</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208761</v>
+        <v>0.20807</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1835</v>
+        <v>0.182322</v>
       </c>
       <c r="D88" t="n">
-        <v>0.180826</v>
+        <v>0.17921</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203878</v>
+        <v>0.202697</v>
       </c>
       <c r="C89" t="n">
-        <v>0.176974</v>
+        <v>0.177151</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174562</v>
+        <v>0.174107</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197511</v>
+        <v>0.19717</v>
       </c>
       <c r="C90" t="n">
-        <v>0.171865</v>
+        <v>0.171709</v>
       </c>
       <c r="D90" t="n">
-        <v>0.169666</v>
+        <v>0.170144</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193562</v>
+        <v>0.193841</v>
       </c>
       <c r="C91" t="n">
-        <v>0.167547</v>
+        <v>0.167338</v>
       </c>
       <c r="D91" t="n">
-        <v>0.166841</v>
+        <v>0.166546</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190611</v>
+        <v>0.190864</v>
       </c>
       <c r="C92" t="n">
-        <v>0.164183</v>
+        <v>0.164121</v>
       </c>
       <c r="D92" t="n">
-        <v>0.164334</v>
+        <v>0.164453</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189534</v>
+        <v>0.189875</v>
       </c>
       <c r="C93" t="n">
-        <v>0.161809</v>
+        <v>0.161799</v>
       </c>
       <c r="D93" t="n">
-        <v>0.164779</v>
+        <v>0.164697</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190764</v>
+        <v>0.19057</v>
       </c>
       <c r="C94" t="n">
-        <v>0.16111</v>
+        <v>0.160854</v>
       </c>
       <c r="D94" t="n">
-        <v>0.255869</v>
+        <v>0.25649</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.27274</v>
+        <v>0.272226</v>
       </c>
       <c r="C95" t="n">
-        <v>0.248761</v>
+        <v>0.248938</v>
       </c>
       <c r="D95" t="n">
-        <v>0.248036</v>
+        <v>0.247801</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.266245</v>
+        <v>0.266323</v>
       </c>
       <c r="C96" t="n">
-        <v>0.241749</v>
+        <v>0.242397</v>
       </c>
       <c r="D96" t="n">
-        <v>0.239744</v>
+        <v>0.240738</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.259685</v>
+        <v>0.260039</v>
       </c>
       <c r="C97" t="n">
-        <v>0.234088</v>
+        <v>0.23482</v>
       </c>
       <c r="D97" t="n">
-        <v>0.231887</v>
+        <v>0.232776</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252891</v>
+        <v>0.252741</v>
       </c>
       <c r="C98" t="n">
-        <v>0.226515</v>
+        <v>0.227354</v>
       </c>
       <c r="D98" t="n">
-        <v>0.224625</v>
+        <v>0.224722</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.246504</v>
+        <v>0.246402</v>
       </c>
       <c r="C99" t="n">
-        <v>0.219735</v>
+        <v>0.220816</v>
       </c>
       <c r="D99" t="n">
-        <v>0.21647</v>
+        <v>0.218084</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.240011</v>
+        <v>0.240067</v>
       </c>
       <c r="C100" t="n">
-        <v>0.213491</v>
+        <v>0.214504</v>
       </c>
       <c r="D100" t="n">
-        <v>0.209615</v>
+        <v>0.21068</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.234352</v>
+        <v>0.233469</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207286</v>
+        <v>0.208238</v>
       </c>
       <c r="D101" t="n">
-        <v>0.203311</v>
+        <v>0.203798</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228816</v>
+        <v>0.228517</v>
       </c>
       <c r="C102" t="n">
-        <v>0.201525</v>
+        <v>0.20379</v>
       </c>
       <c r="D102" t="n">
-        <v>0.197352</v>
+        <v>0.198898</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223772</v>
+        <v>0.223643</v>
       </c>
       <c r="C103" t="n">
-        <v>0.195668</v>
+        <v>0.198878</v>
       </c>
       <c r="D103" t="n">
-        <v>0.191091</v>
+        <v>0.193782</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.219051</v>
+        <v>0.218831</v>
       </c>
       <c r="C104" t="n">
-        <v>0.190528</v>
+        <v>0.193082</v>
       </c>
       <c r="D104" t="n">
-        <v>0.18756</v>
+        <v>0.188394</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.21521</v>
+        <v>0.214868</v>
       </c>
       <c r="C105" t="n">
-        <v>0.186757</v>
+        <v>0.18911</v>
       </c>
       <c r="D105" t="n">
-        <v>0.184058</v>
+        <v>0.184331</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.21188</v>
+        <v>0.211357</v>
       </c>
       <c r="C106" t="n">
-        <v>0.18272</v>
+        <v>0.184847</v>
       </c>
       <c r="D106" t="n">
-        <v>0.181276</v>
+        <v>0.182453</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209949</v>
+        <v>0.209407</v>
       </c>
       <c r="C107" t="n">
-        <v>0.18042</v>
+        <v>0.180899</v>
       </c>
       <c r="D107" t="n">
-        <v>0.180316</v>
+        <v>0.181227</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.209662</v>
+        <v>0.209034</v>
       </c>
       <c r="C108" t="n">
-        <v>0.178814</v>
+        <v>0.180907</v>
       </c>
       <c r="D108" t="n">
-        <v>0.272029</v>
+        <v>0.275567</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.212207</v>
+        <v>0.211339</v>
       </c>
       <c r="C109" t="n">
-        <v>0.179872</v>
+        <v>0.181867</v>
       </c>
       <c r="D109" t="n">
-        <v>0.264936</v>
+        <v>0.268077</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285019</v>
+        <v>0.285679</v>
       </c>
       <c r="C110" t="n">
-        <v>0.260317</v>
+        <v>0.264372</v>
       </c>
       <c r="D110" t="n">
-        <v>0.255485</v>
+        <v>0.259744</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278493</v>
+        <v>0.279072</v>
       </c>
       <c r="C111" t="n">
-        <v>0.252288</v>
+        <v>0.257022</v>
       </c>
       <c r="D111" t="n">
-        <v>0.248914</v>
+        <v>0.251913</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272359</v>
+        <v>0.273618</v>
       </c>
       <c r="C112" t="n">
-        <v>0.24504</v>
+        <v>0.24987</v>
       </c>
       <c r="D112" t="n">
-        <v>0.241307</v>
+        <v>0.242488</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266331</v>
+        <v>0.267252</v>
       </c>
       <c r="C113" t="n">
-        <v>0.238375</v>
+        <v>0.239566</v>
       </c>
       <c r="D113" t="n">
-        <v>0.233984</v>
+        <v>0.235149</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.260681</v>
+        <v>0.261512</v>
       </c>
       <c r="C114" t="n">
-        <v>0.232493</v>
+        <v>0.233206</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227199</v>
+        <v>0.228092</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.255168</v>
+        <v>0.256488</v>
       </c>
       <c r="C115" t="n">
-        <v>0.226012</v>
+        <v>0.226823</v>
       </c>
       <c r="D115" t="n">
-        <v>0.220909</v>
+        <v>0.221537</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250424</v>
+        <v>0.251109</v>
       </c>
       <c r="C116" t="n">
-        <v>0.220472</v>
+        <v>0.221552</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215702</v>
+        <v>0.216183</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.245671</v>
+        <v>0.246328</v>
       </c>
       <c r="C117" t="n">
-        <v>0.215532</v>
+        <v>0.216244</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210539</v>
+        <v>0.210897</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.24173</v>
+        <v>0.242363</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2106</v>
+        <v>0.211694</v>
       </c>
       <c r="D118" t="n">
-        <v>0.206197</v>
+        <v>0.206305</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237854</v>
+        <v>0.238461</v>
       </c>
       <c r="C119" t="n">
-        <v>0.206551</v>
+        <v>0.207273</v>
       </c>
       <c r="D119" t="n">
-        <v>0.201933</v>
+        <v>0.202289</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.23501</v>
+        <v>0.235148</v>
       </c>
       <c r="C120" t="n">
-        <v>0.202063</v>
+        <v>0.203702</v>
       </c>
       <c r="D120" t="n">
-        <v>0.199328</v>
+        <v>0.199679</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232507</v>
+        <v>0.233118</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200242</v>
+        <v>0.201061</v>
       </c>
       <c r="D121" t="n">
-        <v>0.197704</v>
+        <v>0.198185</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.231412</v>
+        <v>0.232334</v>
       </c>
       <c r="C122" t="n">
-        <v>0.198441</v>
+        <v>0.199333</v>
       </c>
       <c r="D122" t="n">
-        <v>0.198654</v>
+        <v>0.19851</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232871</v>
+        <v>0.233085</v>
       </c>
       <c r="C123" t="n">
-        <v>0.198795</v>
+        <v>0.19938</v>
       </c>
       <c r="D123" t="n">
-        <v>0.283965</v>
+        <v>0.284139</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.313181</v>
+        <v>0.313811</v>
       </c>
       <c r="C124" t="n">
-        <v>0.281124</v>
+        <v>0.280915</v>
       </c>
       <c r="D124" t="n">
-        <v>0.276815</v>
+        <v>0.277256</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.311894</v>
+        <v>0.308516</v>
       </c>
       <c r="C125" t="n">
-        <v>0.274198</v>
+        <v>0.274735</v>
       </c>
       <c r="D125" t="n">
-        <v>0.270421</v>
+        <v>0.271351</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.305726</v>
+        <v>0.302592</v>
       </c>
       <c r="C126" t="n">
-        <v>0.267927</v>
+        <v>0.268472</v>
       </c>
       <c r="D126" t="n">
-        <v>0.264633</v>
+        <v>0.265224</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.299895</v>
+        <v>0.297718</v>
       </c>
       <c r="C127" t="n">
-        <v>0.261866</v>
+        <v>0.26272</v>
       </c>
       <c r="D127" t="n">
-        <v>0.258436</v>
+        <v>0.260068</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.294571</v>
+        <v>0.293079</v>
       </c>
       <c r="C128" t="n">
-        <v>0.256765</v>
+        <v>0.257281</v>
       </c>
       <c r="D128" t="n">
-        <v>0.254044</v>
+        <v>0.255101</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.290063</v>
+        <v>0.288395</v>
       </c>
       <c r="C129" t="n">
-        <v>0.251763</v>
+        <v>0.252491</v>
       </c>
       <c r="D129" t="n">
-        <v>0.248694</v>
+        <v>0.249604</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.286009</v>
+        <v>0.283613</v>
       </c>
       <c r="C130" t="n">
-        <v>0.247053</v>
+        <v>0.247177</v>
       </c>
       <c r="D130" t="n">
-        <v>0.244094</v>
+        <v>0.245089</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.2821</v>
+        <v>0.280057</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242422</v>
+        <v>0.243062</v>
       </c>
       <c r="D131" t="n">
-        <v>0.240426</v>
+        <v>0.240163</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278146</v>
+        <v>0.276384</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238299</v>
+        <v>0.238958</v>
       </c>
       <c r="D132" t="n">
-        <v>0.236738</v>
+        <v>0.236964</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275058</v>
+        <v>0.273951</v>
       </c>
       <c r="C133" t="n">
-        <v>0.234926</v>
+        <v>0.235477</v>
       </c>
       <c r="D133" t="n">
-        <v>0.233445</v>
+        <v>0.233915</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.272739</v>
+        <v>0.270992</v>
       </c>
       <c r="C134" t="n">
-        <v>0.231855</v>
+        <v>0.232616</v>
       </c>
       <c r="D134" t="n">
-        <v>0.230647</v>
+        <v>0.231621</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.270463</v>
+        <v>0.269118</v>
       </c>
       <c r="C135" t="n">
-        <v>0.229302</v>
+        <v>0.229925</v>
       </c>
       <c r="D135" t="n">
-        <v>0.229542</v>
+        <v>0.22997</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.269935</v>
+        <v>0.268481</v>
       </c>
       <c r="C136" t="n">
-        <v>0.227935</v>
+        <v>0.22868</v>
       </c>
       <c r="D136" t="n">
-        <v>0.230137</v>
+        <v>0.230403</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.270629</v>
+        <v>0.269125</v>
       </c>
       <c r="C137" t="n">
-        <v>0.228182</v>
+        <v>0.228626</v>
       </c>
       <c r="D137" t="n">
-        <v>0.326655</v>
+        <v>0.322419</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.359589</v>
+        <v>0.353394</v>
       </c>
       <c r="C138" t="n">
-        <v>0.320688</v>
+        <v>0.318556</v>
       </c>
       <c r="D138" t="n">
-        <v>0.320819</v>
+        <v>0.316819</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.355636</v>
+        <v>0.347947</v>
       </c>
       <c r="C139" t="n">
-        <v>0.314568</v>
+        <v>0.312019</v>
       </c>
       <c r="D139" t="n">
-        <v>0.313962</v>
+        <v>0.311621</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.348885</v>
+        <v>0.342808</v>
       </c>
       <c r="C140" t="n">
-        <v>0.30893</v>
+        <v>0.306374</v>
       </c>
       <c r="D140" t="n">
-        <v>0.309404</v>
+        <v>0.306006</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.343799</v>
+        <v>0.33886</v>
       </c>
       <c r="C141" t="n">
-        <v>0.303639</v>
+        <v>0.301447</v>
       </c>
       <c r="D141" t="n">
-        <v>0.304321</v>
+        <v>0.300811</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.339346</v>
+        <v>0.334766</v>
       </c>
       <c r="C142" t="n">
-        <v>0.298043</v>
+        <v>0.295392</v>
       </c>
       <c r="D142" t="n">
-        <v>0.29898</v>
+        <v>0.296266</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.334833</v>
+        <v>0.330169</v>
       </c>
       <c r="C143" t="n">
-        <v>0.293056</v>
+        <v>0.290561</v>
       </c>
       <c r="D143" t="n">
-        <v>0.294404</v>
+        <v>0.291973</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running insertion.xlsx
+++ b/clang-arm64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.157011</v>
+        <v>0.170668</v>
       </c>
       <c r="C2" t="n">
-        <v>0.139113</v>
+        <v>0.136461</v>
       </c>
       <c r="D2" t="n">
-        <v>0.143621</v>
+        <v>0.134178</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.154662</v>
+        <v>0.164843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.133837</v>
+        <v>0.143885</v>
       </c>
       <c r="D3" t="n">
-        <v>0.139866</v>
+        <v>0.131948</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.149463</v>
+        <v>0.165379</v>
       </c>
       <c r="C4" t="n">
-        <v>0.128328</v>
+        <v>0.138416</v>
       </c>
       <c r="D4" t="n">
-        <v>0.132906</v>
+        <v>0.136503</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.149924</v>
+        <v>0.150997</v>
       </c>
       <c r="C5" t="n">
-        <v>0.125747</v>
+        <v>0.131866</v>
       </c>
       <c r="D5" t="n">
-        <v>0.133875</v>
+        <v>0.127659</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.157826</v>
+        <v>0.152331</v>
       </c>
       <c r="C6" t="n">
-        <v>0.123833</v>
+        <v>0.128733</v>
       </c>
       <c r="D6" t="n">
-        <v>0.125706</v>
+        <v>0.126491</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.149928</v>
+        <v>0.149768</v>
       </c>
       <c r="C7" t="n">
-        <v>0.113028</v>
+        <v>0.125371</v>
       </c>
       <c r="D7" t="n">
-        <v>0.116674</v>
+        <v>0.127377</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.149443</v>
+        <v>0.152588</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107523</v>
+        <v>0.119173</v>
       </c>
       <c r="D8" t="n">
-        <v>0.11495</v>
+        <v>0.120481</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.153109</v>
+        <v>0.154628</v>
       </c>
       <c r="C9" t="n">
-        <v>0.110642</v>
+        <v>0.119054</v>
       </c>
       <c r="D9" t="n">
-        <v>0.190583</v>
+        <v>0.189804</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.213047</v>
+        <v>0.221009</v>
       </c>
       <c r="C10" t="n">
-        <v>0.184455</v>
+        <v>0.199755</v>
       </c>
       <c r="D10" t="n">
-        <v>0.191711</v>
+        <v>0.193076</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.206642</v>
+        <v>0.212625</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182924</v>
+        <v>0.194893</v>
       </c>
       <c r="D11" t="n">
-        <v>0.191954</v>
+        <v>0.185771</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.208838</v>
+        <v>0.211566</v>
       </c>
       <c r="C12" t="n">
-        <v>0.175162</v>
+        <v>0.186611</v>
       </c>
       <c r="D12" t="n">
-        <v>0.188524</v>
+        <v>0.175595</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.197741</v>
+        <v>0.195441</v>
       </c>
       <c r="C13" t="n">
-        <v>0.170685</v>
+        <v>0.180929</v>
       </c>
       <c r="D13" t="n">
-        <v>0.179336</v>
+        <v>0.170808</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.19067</v>
+        <v>0.194947</v>
       </c>
       <c r="C14" t="n">
-        <v>0.163977</v>
+        <v>0.171719</v>
       </c>
       <c r="D14" t="n">
-        <v>0.17094</v>
+        <v>0.163676</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.184313</v>
+        <v>0.186434</v>
       </c>
       <c r="C15" t="n">
-        <v>0.154715</v>
+        <v>0.164359</v>
       </c>
       <c r="D15" t="n">
-        <v>0.161448</v>
+        <v>0.15658</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.176771</v>
+        <v>0.178351</v>
       </c>
       <c r="C16" t="n">
-        <v>0.150952</v>
+        <v>0.159604</v>
       </c>
       <c r="D16" t="n">
-        <v>0.158686</v>
+        <v>0.15111</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.171935</v>
+        <v>0.173591</v>
       </c>
       <c r="C17" t="n">
-        <v>0.147472</v>
+        <v>0.156142</v>
       </c>
       <c r="D17" t="n">
-        <v>0.151504</v>
+        <v>0.147927</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.166772</v>
+        <v>0.168205</v>
       </c>
       <c r="C18" t="n">
-        <v>0.143893</v>
+        <v>0.148751</v>
       </c>
       <c r="D18" t="n">
-        <v>0.147104</v>
+        <v>0.144277</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.161798</v>
+        <v>0.16688</v>
       </c>
       <c r="C19" t="n">
-        <v>0.136004</v>
+        <v>0.145812</v>
       </c>
       <c r="D19" t="n">
-        <v>0.149117</v>
+        <v>0.141029</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.159375</v>
+        <v>0.159624</v>
       </c>
       <c r="C20" t="n">
-        <v>0.134162</v>
+        <v>0.141893</v>
       </c>
       <c r="D20" t="n">
-        <v>0.142857</v>
+        <v>0.138444</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.159496</v>
+        <v>0.158982</v>
       </c>
       <c r="C21" t="n">
-        <v>0.129251</v>
+        <v>0.140321</v>
       </c>
       <c r="D21" t="n">
-        <v>0.142322</v>
+        <v>0.136899</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.160146</v>
+        <v>0.157925</v>
       </c>
       <c r="C22" t="n">
-        <v>0.129926</v>
+        <v>0.138166</v>
       </c>
       <c r="D22" t="n">
-        <v>0.140682</v>
+        <v>0.138731</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161504</v>
+        <v>0.157835</v>
       </c>
       <c r="C23" t="n">
-        <v>0.128334</v>
+        <v>0.138866</v>
       </c>
       <c r="D23" t="n">
-        <v>0.233503</v>
+        <v>0.22524</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.234164</v>
+        <v>0.235187</v>
       </c>
       <c r="C24" t="n">
-        <v>0.214545</v>
+        <v>0.22216</v>
       </c>
       <c r="D24" t="n">
-        <v>0.224117</v>
+        <v>0.217581</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.225207</v>
+        <v>0.234979</v>
       </c>
       <c r="C25" t="n">
-        <v>0.205341</v>
+        <v>0.214043</v>
       </c>
       <c r="D25" t="n">
-        <v>0.210265</v>
+        <v>0.205227</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.223981</v>
+        <v>0.222812</v>
       </c>
       <c r="C26" t="n">
-        <v>0.196024</v>
+        <v>0.202789</v>
       </c>
       <c r="D26" t="n">
-        <v>0.201872</v>
+        <v>0.196362</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.215071</v>
+        <v>0.212721</v>
       </c>
       <c r="C27" t="n">
-        <v>0.188493</v>
+        <v>0.194749</v>
       </c>
       <c r="D27" t="n">
-        <v>0.193342</v>
+        <v>0.189144</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.198852</v>
+        <v>0.204469</v>
       </c>
       <c r="C28" t="n">
-        <v>0.182342</v>
+        <v>0.188153</v>
       </c>
       <c r="D28" t="n">
-        <v>0.191257</v>
+        <v>0.18136</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.195549</v>
+        <v>0.19605</v>
       </c>
       <c r="C29" t="n">
-        <v>0.178408</v>
+        <v>0.180718</v>
       </c>
       <c r="D29" t="n">
-        <v>0.186362</v>
+        <v>0.175284</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.197666</v>
+        <v>0.192526</v>
       </c>
       <c r="C30" t="n">
-        <v>0.172638</v>
+        <v>0.174444</v>
       </c>
       <c r="D30" t="n">
-        <v>0.178187</v>
+        <v>0.170321</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.187772</v>
+        <v>0.179359</v>
       </c>
       <c r="C31" t="n">
-        <v>0.166517</v>
+        <v>0.168821</v>
       </c>
       <c r="D31" t="n">
-        <v>0.172258</v>
+        <v>0.162701</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.188562</v>
+        <v>0.182408</v>
       </c>
       <c r="C32" t="n">
-        <v>0.160429</v>
+        <v>0.162937</v>
       </c>
       <c r="D32" t="n">
-        <v>0.173115</v>
+        <v>0.159519</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.174273</v>
+        <v>0.173725</v>
       </c>
       <c r="C33" t="n">
-        <v>0.155955</v>
+        <v>0.157914</v>
       </c>
       <c r="D33" t="n">
-        <v>0.16445</v>
+        <v>0.153345</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.175728</v>
+        <v>0.172037</v>
       </c>
       <c r="C34" t="n">
-        <v>0.152289</v>
+        <v>0.153826</v>
       </c>
       <c r="D34" t="n">
-        <v>0.157729</v>
+        <v>0.150314</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.171842</v>
+        <v>0.170274</v>
       </c>
       <c r="C35" t="n">
-        <v>0.148192</v>
+        <v>0.150082</v>
       </c>
       <c r="D35" t="n">
-        <v>0.151822</v>
+        <v>0.149603</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.167923</v>
+        <v>0.163399</v>
       </c>
       <c r="C36" t="n">
-        <v>0.146548</v>
+        <v>0.147894</v>
       </c>
       <c r="D36" t="n">
-        <v>0.153513</v>
+        <v>0.148604</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170381</v>
+        <v>0.165498</v>
       </c>
       <c r="C37" t="n">
-        <v>0.145747</v>
+        <v>0.146972</v>
       </c>
       <c r="D37" t="n">
-        <v>0.240863</v>
+        <v>0.230138</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.249241</v>
+        <v>0.243844</v>
       </c>
       <c r="C38" t="n">
-        <v>0.224058</v>
+        <v>0.223466</v>
       </c>
       <c r="D38" t="n">
-        <v>0.229915</v>
+        <v>0.221941</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2378</v>
+        <v>0.23535</v>
       </c>
       <c r="C39" t="n">
-        <v>0.211243</v>
+        <v>0.214588</v>
       </c>
       <c r="D39" t="n">
-        <v>0.214085</v>
+        <v>0.212902</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.227928</v>
+        <v>0.226636</v>
       </c>
       <c r="C40" t="n">
-        <v>0.203183</v>
+        <v>0.206551</v>
       </c>
       <c r="D40" t="n">
-        <v>0.20662</v>
+        <v>0.202745</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.218531</v>
+        <v>0.217798</v>
       </c>
       <c r="C41" t="n">
-        <v>0.195838</v>
+        <v>0.198601</v>
       </c>
       <c r="D41" t="n">
-        <v>0.198606</v>
+        <v>0.197872</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.210744</v>
+        <v>0.210594</v>
       </c>
       <c r="C42" t="n">
-        <v>0.188138</v>
+        <v>0.191216</v>
       </c>
       <c r="D42" t="n">
-        <v>0.192045</v>
+        <v>0.189578</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.204217</v>
+        <v>0.203038</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181364</v>
+        <v>0.18396</v>
       </c>
       <c r="D43" t="n">
-        <v>0.182594</v>
+        <v>0.181192</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.19713</v>
+        <v>0.200194</v>
       </c>
       <c r="C44" t="n">
-        <v>0.17497</v>
+        <v>0.180497</v>
       </c>
       <c r="D44" t="n">
-        <v>0.177584</v>
+        <v>0.178348</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.191616</v>
+        <v>0.194085</v>
       </c>
       <c r="C45" t="n">
-        <v>0.169012</v>
+        <v>0.174746</v>
       </c>
       <c r="D45" t="n">
-        <v>0.172012</v>
+        <v>0.172191</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.185355</v>
+        <v>0.189659</v>
       </c>
       <c r="C46" t="n">
-        <v>0.163457</v>
+        <v>0.168726</v>
       </c>
       <c r="D46" t="n">
-        <v>0.164585</v>
+        <v>0.16614</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.180818</v>
+        <v>0.184056</v>
       </c>
       <c r="C47" t="n">
-        <v>0.158522</v>
+        <v>0.16349</v>
       </c>
       <c r="D47" t="n">
-        <v>0.160688</v>
+        <v>0.161458</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.177062</v>
+        <v>0.179376</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154109</v>
+        <v>0.159218</v>
       </c>
       <c r="D48" t="n">
-        <v>0.15694</v>
+        <v>0.158505</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174825</v>
+        <v>0.176819</v>
       </c>
       <c r="C49" t="n">
-        <v>0.151295</v>
+        <v>0.155587</v>
       </c>
       <c r="D49" t="n">
-        <v>0.15481</v>
+        <v>0.156259</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171445</v>
+        <v>0.175946</v>
       </c>
       <c r="C50" t="n">
-        <v>0.148314</v>
+        <v>0.153056</v>
       </c>
       <c r="D50" t="n">
-        <v>0.153936</v>
+        <v>0.155863</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174534</v>
+        <v>0.176716</v>
       </c>
       <c r="C51" t="n">
-        <v>0.147405</v>
+        <v>0.151411</v>
       </c>
       <c r="D51" t="n">
-        <v>0.237349</v>
+        <v>0.240125</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176946</v>
+        <v>0.179499</v>
       </c>
       <c r="C52" t="n">
-        <v>0.148427</v>
+        <v>0.152255</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227292</v>
+        <v>0.228307</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243225</v>
+        <v>0.246194</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218437</v>
+        <v>0.223567</v>
       </c>
       <c r="D53" t="n">
-        <v>0.218802</v>
+        <v>0.222098</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.234069</v>
+        <v>0.236625</v>
       </c>
       <c r="C54" t="n">
-        <v>0.209735</v>
+        <v>0.215128</v>
       </c>
       <c r="D54" t="n">
-        <v>0.210768</v>
+        <v>0.213257</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.225732</v>
+        <v>0.228535</v>
       </c>
       <c r="C55" t="n">
-        <v>0.201978</v>
+        <v>0.206602</v>
       </c>
       <c r="D55" t="n">
-        <v>0.202217</v>
+        <v>0.204699</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.217701</v>
+        <v>0.220311</v>
       </c>
       <c r="C56" t="n">
-        <v>0.194952</v>
+        <v>0.199106</v>
       </c>
       <c r="D56" t="n">
-        <v>0.194718</v>
+        <v>0.197271</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.210445</v>
+        <v>0.212764</v>
       </c>
       <c r="C57" t="n">
-        <v>0.18745</v>
+        <v>0.191861</v>
       </c>
       <c r="D57" t="n">
-        <v>0.187648</v>
+        <v>0.189954</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.203487</v>
+        <v>0.205025</v>
       </c>
       <c r="C58" t="n">
-        <v>0.180692</v>
+        <v>0.184943</v>
       </c>
       <c r="D58" t="n">
-        <v>0.180611</v>
+        <v>0.182964</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.197713</v>
+        <v>0.198959</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174583</v>
+        <v>0.178332</v>
       </c>
       <c r="D59" t="n">
-        <v>0.175226</v>
+        <v>0.176915</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.191893</v>
+        <v>0.193449</v>
       </c>
       <c r="C60" t="n">
-        <v>0.168855</v>
+        <v>0.172886</v>
       </c>
       <c r="D60" t="n">
-        <v>0.16932</v>
+        <v>0.172102</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.186394</v>
+        <v>0.188205</v>
       </c>
       <c r="C61" t="n">
-        <v>0.163855</v>
+        <v>0.167693</v>
       </c>
       <c r="D61" t="n">
-        <v>0.165142</v>
+        <v>0.167281</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.182586</v>
+        <v>0.182403</v>
       </c>
       <c r="C62" t="n">
-        <v>0.159341</v>
+        <v>0.160526</v>
       </c>
       <c r="D62" t="n">
-        <v>0.160832</v>
+        <v>0.161153</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.179547</v>
+        <v>0.179269</v>
       </c>
       <c r="C63" t="n">
-        <v>0.155136</v>
+        <v>0.156473</v>
       </c>
       <c r="D63" t="n">
-        <v>0.157862</v>
+        <v>0.158454</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177947</v>
+        <v>0.177012</v>
       </c>
       <c r="C64" t="n">
-        <v>0.152401</v>
+        <v>0.15361</v>
       </c>
       <c r="D64" t="n">
-        <v>0.15691</v>
+        <v>0.157323</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178336</v>
+        <v>0.177729</v>
       </c>
       <c r="C65" t="n">
-        <v>0.150672</v>
+        <v>0.151918</v>
       </c>
       <c r="D65" t="n">
-        <v>0.158188</v>
+        <v>0.158629</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.181099</v>
+        <v>0.180358</v>
       </c>
       <c r="C66" t="n">
-        <v>0.151517</v>
+        <v>0.152658</v>
       </c>
       <c r="D66" t="n">
-        <v>0.23502</v>
+        <v>0.235154</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244719</v>
+        <v>0.244029</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228011</v>
+        <v>0.228151</v>
       </c>
       <c r="D67" t="n">
-        <v>0.226275</v>
+        <v>0.225864</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237381</v>
+        <v>0.236519</v>
       </c>
       <c r="C68" t="n">
-        <v>0.219301</v>
+        <v>0.219456</v>
       </c>
       <c r="D68" t="n">
-        <v>0.217146</v>
+        <v>0.218407</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.228951</v>
+        <v>0.228133</v>
       </c>
       <c r="C69" t="n">
-        <v>0.210936</v>
+        <v>0.21135</v>
       </c>
       <c r="D69" t="n">
-        <v>0.207256</v>
+        <v>0.209007</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.221125</v>
+        <v>0.220467</v>
       </c>
       <c r="C70" t="n">
-        <v>0.202819</v>
+        <v>0.203187</v>
       </c>
       <c r="D70" t="n">
-        <v>0.201331</v>
+        <v>0.201152</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.213796</v>
+        <v>0.212274</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195226</v>
+        <v>0.195914</v>
       </c>
       <c r="D71" t="n">
-        <v>0.193603</v>
+        <v>0.19372</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.207178</v>
+        <v>0.205977</v>
       </c>
       <c r="C72" t="n">
-        <v>0.188591</v>
+        <v>0.188766</v>
       </c>
       <c r="D72" t="n">
-        <v>0.186721</v>
+        <v>0.186741</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.200075</v>
+        <v>0.199758</v>
       </c>
       <c r="C73" t="n">
-        <v>0.181893</v>
+        <v>0.182265</v>
       </c>
       <c r="D73" t="n">
-        <v>0.18053</v>
+        <v>0.180491</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.19468</v>
+        <v>0.19413</v>
       </c>
       <c r="C74" t="n">
-        <v>0.176079</v>
+        <v>0.176143</v>
       </c>
       <c r="D74" t="n">
-        <v>0.174396</v>
+        <v>0.174783</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.189063</v>
+        <v>0.188413</v>
       </c>
       <c r="C75" t="n">
-        <v>0.170587</v>
+        <v>0.170713</v>
       </c>
       <c r="D75" t="n">
-        <v>0.16961</v>
+        <v>0.169469</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185574</v>
+        <v>0.184215</v>
       </c>
       <c r="C76" t="n">
-        <v>0.165588</v>
+        <v>0.165631</v>
       </c>
       <c r="D76" t="n">
-        <v>0.165528</v>
+        <v>0.165683</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182059</v>
+        <v>0.181004</v>
       </c>
       <c r="C77" t="n">
         <v>0.161469</v>
       </c>
       <c r="D77" t="n">
-        <v>0.162027</v>
+        <v>0.162247</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.18112</v>
+        <v>0.178894</v>
       </c>
       <c r="C78" t="n">
-        <v>0.158058</v>
+        <v>0.158217</v>
       </c>
       <c r="D78" t="n">
-        <v>0.160463</v>
+        <v>0.160468</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179791</v>
+        <v>0.17897</v>
       </c>
       <c r="C79" t="n">
-        <v>0.156157</v>
+        <v>0.156204</v>
       </c>
       <c r="D79" t="n">
-        <v>0.161626</v>
+        <v>0.161441</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.182257</v>
+        <v>0.180581</v>
       </c>
       <c r="C80" t="n">
-        <v>0.155846</v>
+        <v>0.156222</v>
       </c>
       <c r="D80" t="n">
-        <v>0.238541</v>
+        <v>0.238856</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.25905</v>
+        <v>0.256846</v>
       </c>
       <c r="C81" t="n">
-        <v>0.231414</v>
+        <v>0.230333</v>
       </c>
       <c r="D81" t="n">
-        <v>0.229592</v>
+        <v>0.22991</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251189</v>
+        <v>0.250364</v>
       </c>
       <c r="C82" t="n">
-        <v>0.223757</v>
+        <v>0.222566</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221004</v>
+        <v>0.220936</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242422</v>
+        <v>0.24198</v>
       </c>
       <c r="C83" t="n">
-        <v>0.215966</v>
+        <v>0.214771</v>
       </c>
       <c r="D83" t="n">
-        <v>0.213344</v>
+        <v>0.213054</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235446</v>
+        <v>0.233548</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208613</v>
+        <v>0.207566</v>
       </c>
       <c r="D84" t="n">
-        <v>0.205434</v>
+        <v>0.205347</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227403</v>
+        <v>0.227319</v>
       </c>
       <c r="C85" t="n">
-        <v>0.201524</v>
+        <v>0.200837</v>
       </c>
       <c r="D85" t="n">
-        <v>0.198339</v>
+        <v>0.198292</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.22166</v>
+        <v>0.219364</v>
       </c>
       <c r="C86" t="n">
-        <v>0.194574</v>
+        <v>0.19364</v>
       </c>
       <c r="D86" t="n">
-        <v>0.190857</v>
+        <v>0.191445</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214866</v>
+        <v>0.213434</v>
       </c>
       <c r="C87" t="n">
-        <v>0.18839</v>
+        <v>0.188096</v>
       </c>
       <c r="D87" t="n">
-        <v>0.184707</v>
+        <v>0.184661</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20807</v>
+        <v>0.207721</v>
       </c>
       <c r="C88" t="n">
-        <v>0.182322</v>
+        <v>0.181911</v>
       </c>
       <c r="D88" t="n">
-        <v>0.17921</v>
+        <v>0.179135</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.202697</v>
+        <v>0.201258</v>
       </c>
       <c r="C89" t="n">
-        <v>0.177151</v>
+        <v>0.176008</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174107</v>
+        <v>0.17408</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19717</v>
+        <v>0.19653</v>
       </c>
       <c r="C90" t="n">
-        <v>0.171709</v>
+        <v>0.171451</v>
       </c>
       <c r="D90" t="n">
-        <v>0.170144</v>
+        <v>0.16936</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193841</v>
+        <v>0.192528</v>
       </c>
       <c r="C91" t="n">
-        <v>0.167338</v>
+        <v>0.166593</v>
       </c>
       <c r="D91" t="n">
-        <v>0.166546</v>
+        <v>0.166191</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190864</v>
+        <v>0.189688</v>
       </c>
       <c r="C92" t="n">
-        <v>0.164121</v>
+        <v>0.163878</v>
       </c>
       <c r="D92" t="n">
-        <v>0.164453</v>
+        <v>0.164353</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189875</v>
+        <v>0.188619</v>
       </c>
       <c r="C93" t="n">
-        <v>0.161799</v>
+        <v>0.160923</v>
       </c>
       <c r="D93" t="n">
-        <v>0.164697</v>
+        <v>0.164271</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.19057</v>
+        <v>0.189627</v>
       </c>
       <c r="C94" t="n">
-        <v>0.160854</v>
+        <v>0.160238</v>
       </c>
       <c r="D94" t="n">
-        <v>0.25649</v>
+        <v>0.254673</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.272226</v>
+        <v>0.270145</v>
       </c>
       <c r="C95" t="n">
-        <v>0.248938</v>
+        <v>0.248401</v>
       </c>
       <c r="D95" t="n">
-        <v>0.247801</v>
+        <v>0.247489</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.266323</v>
+        <v>0.264648</v>
       </c>
       <c r="C96" t="n">
-        <v>0.242397</v>
+        <v>0.240463</v>
       </c>
       <c r="D96" t="n">
-        <v>0.240738</v>
+        <v>0.238121</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.260039</v>
+        <v>0.257315</v>
       </c>
       <c r="C97" t="n">
-        <v>0.23482</v>
+        <v>0.232944</v>
       </c>
       <c r="D97" t="n">
-        <v>0.232776</v>
+        <v>0.230923</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252741</v>
+        <v>0.250563</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227354</v>
+        <v>0.225805</v>
       </c>
       <c r="D98" t="n">
-        <v>0.224722</v>
+        <v>0.223773</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.246402</v>
+        <v>0.24473</v>
       </c>
       <c r="C99" t="n">
-        <v>0.220816</v>
+        <v>0.22678</v>
       </c>
       <c r="D99" t="n">
-        <v>0.218084</v>
+        <v>0.215514</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.240067</v>
+        <v>0.238846</v>
       </c>
       <c r="C100" t="n">
-        <v>0.214504</v>
+        <v>0.212444</v>
       </c>
       <c r="D100" t="n">
-        <v>0.21068</v>
+        <v>0.211001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233469</v>
+        <v>0.232631</v>
       </c>
       <c r="C101" t="n">
-        <v>0.208238</v>
+        <v>0.206497</v>
       </c>
       <c r="D101" t="n">
-        <v>0.203798</v>
+        <v>0.20299</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228517</v>
+        <v>0.227556</v>
       </c>
       <c r="C102" t="n">
-        <v>0.20379</v>
+        <v>0.201607</v>
       </c>
       <c r="D102" t="n">
-        <v>0.198898</v>
+        <v>0.197244</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223643</v>
+        <v>0.222112</v>
       </c>
       <c r="C103" t="n">
-        <v>0.198878</v>
+        <v>0.195129</v>
       </c>
       <c r="D103" t="n">
-        <v>0.193782</v>
+        <v>0.191961</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218831</v>
+        <v>0.217608</v>
       </c>
       <c r="C104" t="n">
-        <v>0.193082</v>
+        <v>0.189518</v>
       </c>
       <c r="D104" t="n">
-        <v>0.188394</v>
+        <v>0.18761</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214868</v>
+        <v>0.213903</v>
       </c>
       <c r="C105" t="n">
-        <v>0.18911</v>
+        <v>0.186515</v>
       </c>
       <c r="D105" t="n">
-        <v>0.184331</v>
+        <v>0.184086</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211357</v>
+        <v>0.21037</v>
       </c>
       <c r="C106" t="n">
-        <v>0.184847</v>
+        <v>0.18283</v>
       </c>
       <c r="D106" t="n">
-        <v>0.182453</v>
+        <v>0.180878</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.209407</v>
+        <v>0.208235</v>
       </c>
       <c r="C107" t="n">
-        <v>0.180899</v>
+        <v>0.18042</v>
       </c>
       <c r="D107" t="n">
-        <v>0.181227</v>
+        <v>0.180431</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.209034</v>
+        <v>0.208631</v>
       </c>
       <c r="C108" t="n">
-        <v>0.180907</v>
+        <v>0.179433</v>
       </c>
       <c r="D108" t="n">
-        <v>0.275567</v>
+        <v>0.27151</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211339</v>
+        <v>0.210884</v>
       </c>
       <c r="C109" t="n">
-        <v>0.181867</v>
+        <v>0.181014</v>
       </c>
       <c r="D109" t="n">
-        <v>0.268077</v>
+        <v>0.265086</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285679</v>
+        <v>0.284085</v>
       </c>
       <c r="C110" t="n">
-        <v>0.264372</v>
+        <v>0.260856</v>
       </c>
       <c r="D110" t="n">
-        <v>0.259744</v>
+        <v>0.257155</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.279072</v>
+        <v>0.277325</v>
       </c>
       <c r="C111" t="n">
-        <v>0.257022</v>
+        <v>0.252951</v>
       </c>
       <c r="D111" t="n">
-        <v>0.251913</v>
+        <v>0.249492</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.273618</v>
+        <v>0.271154</v>
       </c>
       <c r="C112" t="n">
-        <v>0.24987</v>
+        <v>0.245756</v>
       </c>
       <c r="D112" t="n">
-        <v>0.242488</v>
+        <v>0.241637</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.267252</v>
+        <v>0.265253</v>
       </c>
       <c r="C113" t="n">
-        <v>0.239566</v>
+        <v>0.239063</v>
       </c>
       <c r="D113" t="n">
-        <v>0.235149</v>
+        <v>0.233598</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.261512</v>
+        <v>0.259777</v>
       </c>
       <c r="C114" t="n">
-        <v>0.233206</v>
+        <v>0.232542</v>
       </c>
       <c r="D114" t="n">
-        <v>0.228092</v>
+        <v>0.228107</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.256488</v>
+        <v>0.254644</v>
       </c>
       <c r="C115" t="n">
-        <v>0.226823</v>
+        <v>0.226357</v>
       </c>
       <c r="D115" t="n">
-        <v>0.221537</v>
+        <v>0.221879</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.251109</v>
+        <v>0.250128</v>
       </c>
       <c r="C116" t="n">
-        <v>0.221552</v>
+        <v>0.221257</v>
       </c>
       <c r="D116" t="n">
-        <v>0.216183</v>
+        <v>0.218226</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.246328</v>
+        <v>0.245359</v>
       </c>
       <c r="C117" t="n">
-        <v>0.216244</v>
+        <v>0.217762</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210897</v>
+        <v>0.213206</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.242363</v>
+        <v>0.241561</v>
       </c>
       <c r="C118" t="n">
-        <v>0.211694</v>
+        <v>0.212853</v>
       </c>
       <c r="D118" t="n">
-        <v>0.206305</v>
+        <v>0.207735</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238461</v>
+        <v>0.23764</v>
       </c>
       <c r="C119" t="n">
-        <v>0.207273</v>
+        <v>0.208819</v>
       </c>
       <c r="D119" t="n">
-        <v>0.202289</v>
+        <v>0.203661</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.235148</v>
+        <v>0.234284</v>
       </c>
       <c r="C120" t="n">
-        <v>0.203702</v>
+        <v>0.20483</v>
       </c>
       <c r="D120" t="n">
-        <v>0.199679</v>
+        <v>0.200217</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.233118</v>
+        <v>0.231834</v>
       </c>
       <c r="C121" t="n">
-        <v>0.201061</v>
+        <v>0.201751</v>
       </c>
       <c r="D121" t="n">
-        <v>0.198185</v>
+        <v>0.199303</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.232334</v>
+        <v>0.231043</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199333</v>
+        <v>0.200686</v>
       </c>
       <c r="D122" t="n">
-        <v>0.19851</v>
+        <v>0.199921</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233085</v>
+        <v>0.232245</v>
       </c>
       <c r="C123" t="n">
-        <v>0.19938</v>
+        <v>0.200643</v>
       </c>
       <c r="D123" t="n">
-        <v>0.284139</v>
+        <v>0.28659</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.313811</v>
+        <v>0.315814</v>
       </c>
       <c r="C124" t="n">
-        <v>0.280915</v>
+        <v>0.284238</v>
       </c>
       <c r="D124" t="n">
-        <v>0.277256</v>
+        <v>0.280042</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.308516</v>
+        <v>0.310851</v>
       </c>
       <c r="C125" t="n">
-        <v>0.274735</v>
+        <v>0.278287</v>
       </c>
       <c r="D125" t="n">
-        <v>0.271351</v>
+        <v>0.274273</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.302592</v>
+        <v>0.306028</v>
       </c>
       <c r="C126" t="n">
-        <v>0.268472</v>
+        <v>0.268032</v>
       </c>
       <c r="D126" t="n">
-        <v>0.265224</v>
+        <v>0.264434</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.297718</v>
+        <v>0.299753</v>
       </c>
       <c r="C127" t="n">
-        <v>0.26272</v>
+        <v>0.262246</v>
       </c>
       <c r="D127" t="n">
-        <v>0.260068</v>
+        <v>0.258887</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.293079</v>
+        <v>0.294531</v>
       </c>
       <c r="C128" t="n">
-        <v>0.257281</v>
+        <v>0.2563</v>
       </c>
       <c r="D128" t="n">
-        <v>0.255101</v>
+        <v>0.253968</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.288395</v>
+        <v>0.289946</v>
       </c>
       <c r="C129" t="n">
-        <v>0.252491</v>
+        <v>0.25157</v>
       </c>
       <c r="D129" t="n">
-        <v>0.249604</v>
+        <v>0.248195</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.283613</v>
+        <v>0.285871</v>
       </c>
       <c r="C130" t="n">
-        <v>0.247177</v>
+        <v>0.247088</v>
       </c>
       <c r="D130" t="n">
-        <v>0.245089</v>
+        <v>0.244422</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.280057</v>
+        <v>0.28194</v>
       </c>
       <c r="C131" t="n">
-        <v>0.243062</v>
+        <v>0.242605</v>
       </c>
       <c r="D131" t="n">
-        <v>0.240163</v>
+        <v>0.240173</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.276384</v>
+        <v>0.278146</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238958</v>
+        <v>0.238676</v>
       </c>
       <c r="D132" t="n">
-        <v>0.236964</v>
+        <v>0.236482</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273951</v>
+        <v>0.275044</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235477</v>
+        <v>0.235063</v>
       </c>
       <c r="D133" t="n">
-        <v>0.233915</v>
+        <v>0.23349</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.270992</v>
+        <v>0.27231</v>
       </c>
       <c r="C134" t="n">
-        <v>0.232616</v>
+        <v>0.231818</v>
       </c>
       <c r="D134" t="n">
-        <v>0.231621</v>
+        <v>0.230364</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.269118</v>
+        <v>0.270276</v>
       </c>
       <c r="C135" t="n">
-        <v>0.229925</v>
+        <v>0.229352</v>
       </c>
       <c r="D135" t="n">
-        <v>0.22997</v>
+        <v>0.229418</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.268481</v>
+        <v>0.26913</v>
       </c>
       <c r="C136" t="n">
-        <v>0.22868</v>
+        <v>0.227891</v>
       </c>
       <c r="D136" t="n">
-        <v>0.230403</v>
+        <v>0.229508</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.269125</v>
+        <v>0.270188</v>
       </c>
       <c r="C137" t="n">
-        <v>0.228626</v>
+        <v>0.22831</v>
       </c>
       <c r="D137" t="n">
-        <v>0.322419</v>
+        <v>0.325813</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.353394</v>
+        <v>0.360478</v>
       </c>
       <c r="C138" t="n">
-        <v>0.318556</v>
+        <v>0.321523</v>
       </c>
       <c r="D138" t="n">
-        <v>0.316819</v>
+        <v>0.320407</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347947</v>
+        <v>0.354977</v>
       </c>
       <c r="C139" t="n">
-        <v>0.312019</v>
+        <v>0.315351</v>
       </c>
       <c r="D139" t="n">
-        <v>0.311621</v>
+        <v>0.314921</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.342808</v>
+        <v>0.350567</v>
       </c>
       <c r="C140" t="n">
-        <v>0.306374</v>
+        <v>0.309742</v>
       </c>
       <c r="D140" t="n">
-        <v>0.306006</v>
+        <v>0.309403</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.33886</v>
+        <v>0.345151</v>
       </c>
       <c r="C141" t="n">
-        <v>0.301447</v>
+        <v>0.304011</v>
       </c>
       <c r="D141" t="n">
-        <v>0.300811</v>
+        <v>0.304799</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.334766</v>
+        <v>0.34072</v>
       </c>
       <c r="C142" t="n">
-        <v>0.295392</v>
+        <v>0.29869</v>
       </c>
       <c r="D142" t="n">
-        <v>0.296266</v>
+        <v>0.300275</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.330169</v>
+        <v>0.335998</v>
       </c>
       <c r="C143" t="n">
-        <v>0.290561</v>
+        <v>0.29374</v>
       </c>
       <c r="D143" t="n">
-        <v>0.291973</v>
+        <v>0.29509</v>
       </c>
     </row>
   </sheetData>
